--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="465">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1475,10 +1475,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1560,6 +1560,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1568,30 +1576,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1620,6 +1612,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1636,6 +1673,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1643,15 +1688,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1662,44 +1700,6 @@
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1742,7 +1742,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1754,7 +1814,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1766,13 +1826,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1784,7 +1856,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1796,25 +1868,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1826,19 +1892,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1850,79 +1916,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1964,6 +1964,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1979,11 +2012,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2008,15 +2047,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2031,183 +2061,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2230,9 +2230,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2573,8 +2570,8 @@
   <sheetPr/>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -2649,7 +2646,7 @@
       <c r="B9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="12"/>
     </row>
     <row r="10" ht="21" spans="1:3">
       <c r="A10" s="8" t="s">
@@ -2658,7 +2655,7 @@
       <c r="B10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="12"/>
     </row>
     <row r="11" ht="21" spans="1:3">
       <c r="A11" s="8" t="s">
@@ -2667,7 +2664,7 @@
       <c r="B11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="12"/>
     </row>
     <row r="12" ht="21" spans="1:3">
       <c r="A12" s="8" t="s">
@@ -2676,7 +2673,7 @@
       <c r="B12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="12"/>
     </row>
     <row r="13" ht="21" spans="1:3">
       <c r="A13" s="8" t="s">
@@ -2685,7 +2682,7 @@
       <c r="B13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="12"/>
     </row>
     <row r="14" ht="21" spans="1:3">
       <c r="A14" s="8" t="s">
@@ -2694,7 +2691,7 @@
       <c r="B14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2705,7 +2702,7 @@
       <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="12"/>
     </row>
     <row r="16" ht="21" spans="1:3">
       <c r="A16" s="8" t="s">
@@ -2714,7 +2711,9 @@
       <c r="B16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="12" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" ht="21" spans="1:3">
       <c r="A17" s="8" t="s">
@@ -2723,7 +2722,7 @@
       <c r="B17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="14"/>
+      <c r="C17" s="12"/>
     </row>
     <row r="18" ht="21" spans="1:3">
       <c r="A18" s="8" t="s">
@@ -2732,4036 +2731,4042 @@
       <c r="B18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="12"/>
     </row>
     <row r="19" ht="21" spans="1:3">
       <c r="A19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="14"/>
+      <c r="C19" s="12"/>
     </row>
     <row r="20" ht="21" spans="1:3">
       <c r="A20" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="14"/>
+      <c r="C20" s="12"/>
     </row>
     <row r="21" ht="21" spans="1:3">
       <c r="A21" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="14"/>
+      <c r="C21" s="13" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="22" ht="21" spans="1:3">
       <c r="A22" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="14"/>
+      <c r="C22" s="12"/>
     </row>
     <row r="23" ht="21" spans="1:3">
       <c r="A23" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="14"/>
+      <c r="C23" s="12"/>
     </row>
     <row r="24" ht="21" spans="1:3">
       <c r="A24" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="14"/>
+      <c r="C24" s="12"/>
     </row>
     <row r="25" ht="21" spans="1:3">
       <c r="A25" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="14"/>
+      <c r="C25" s="12" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="26" ht="21" spans="1:3">
       <c r="A26" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="14"/>
+      <c r="C26" s="12"/>
     </row>
     <row r="27" ht="21" spans="1:3">
       <c r="A27" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="14"/>
+      <c r="C27" s="12"/>
     </row>
     <row r="28" ht="21" spans="1:3">
       <c r="A28" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="14"/>
+      <c r="C28" s="12" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="29" ht="21" spans="1:3">
       <c r="A29" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="14"/>
+      <c r="C29" s="12"/>
     </row>
     <row r="30" ht="21" spans="1:3">
       <c r="A30" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="14"/>
+      <c r="C30" s="12"/>
     </row>
     <row r="31" ht="21" spans="1:3">
       <c r="A31" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="14"/>
+      <c r="C31" s="13"/>
     </row>
     <row r="32" ht="21" spans="1:3">
       <c r="A32" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="14"/>
+      <c r="C32" s="13"/>
     </row>
     <row r="33" ht="21" spans="1:3">
       <c r="A33" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="14"/>
+      <c r="C33" s="12"/>
     </row>
     <row r="34" ht="21" spans="1:3">
       <c r="A34" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="14"/>
+      <c r="C34" s="13"/>
     </row>
     <row r="35" ht="21" spans="1:3">
       <c r="A35" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="14"/>
+      <c r="C35" s="13"/>
     </row>
     <row r="36" ht="21" spans="1:3">
       <c r="A36" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="14"/>
+      <c r="C36" s="12"/>
     </row>
     <row r="37" ht="21" spans="1:3">
       <c r="A37" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="14"/>
+      <c r="C37" s="13"/>
     </row>
     <row r="38" ht="21" spans="1:3">
       <c r="A38" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="14"/>
+      <c r="C38" s="13"/>
     </row>
     <row r="39" ht="21" spans="1:3">
       <c r="A39" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="14"/>
+      <c r="C39" s="13"/>
     </row>
     <row r="40" ht="21" spans="1:3">
       <c r="A40" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="14"/>
+      <c r="C40" s="13"/>
     </row>
     <row r="41" ht="21" spans="1:3">
       <c r="A41" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="14"/>
+      <c r="C41" s="13"/>
     </row>
     <row r="42" ht="21" spans="2:3">
-      <c r="B42" s="16"/>
-      <c r="C42" s="17"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="16"/>
     </row>
     <row r="43" ht="21" spans="1:3">
       <c r="A43" s="8"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="17"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="16"/>
     </row>
     <row r="44" ht="21" spans="1:3">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="14"/>
+      <c r="C44" s="13"/>
     </row>
     <row r="45" ht="21" spans="1:3">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="14"/>
+      <c r="C45" s="13"/>
     </row>
     <row r="46" ht="21" spans="1:3">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="14"/>
+      <c r="C46" s="13"/>
     </row>
     <row r="47" ht="21" spans="1:3">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="14"/>
+      <c r="C47" s="13"/>
     </row>
     <row r="48" ht="21" spans="1:3">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="14"/>
+      <c r="C48" s="13"/>
     </row>
     <row r="49" ht="21" spans="1:3">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="14"/>
+      <c r="C49" s="13"/>
     </row>
     <row r="50" ht="21" spans="1:3">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="14"/>
+      <c r="C50" s="13"/>
     </row>
     <row r="51" ht="21" spans="1:3">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="14"/>
+      <c r="C51" s="13"/>
     </row>
     <row r="52" ht="21" spans="1:3">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="14"/>
+      <c r="C52" s="13"/>
     </row>
     <row r="53" ht="21" spans="1:3">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="14"/>
+      <c r="C53" s="13"/>
     </row>
     <row r="54" ht="21" spans="3:3">
-      <c r="C54" s="17"/>
+      <c r="C54" s="16"/>
     </row>
     <row r="55" ht="21" spans="1:3">
       <c r="A55" s="8"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
     </row>
     <row r="56" ht="21" spans="1:3">
       <c r="A56" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="14"/>
+      <c r="C56" s="13"/>
     </row>
     <row r="57" ht="21" spans="1:3">
       <c r="A57" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="14"/>
+      <c r="C57" s="13"/>
     </row>
     <row r="58" ht="21" spans="1:3">
       <c r="A58" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C58" s="14"/>
+      <c r="C58" s="13"/>
     </row>
     <row r="59" ht="21" spans="1:3">
       <c r="A59" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="14"/>
+      <c r="C59" s="13"/>
     </row>
     <row r="60" ht="21" spans="1:3">
       <c r="A60" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="14"/>
+      <c r="C60" s="13"/>
     </row>
     <row r="61" ht="21" spans="1:3">
       <c r="A61" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="14"/>
+      <c r="C61" s="13"/>
     </row>
     <row r="62" ht="21" spans="1:3">
       <c r="A62" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C62" s="14"/>
+      <c r="C62" s="13"/>
     </row>
     <row r="63" ht="21" spans="1:3">
       <c r="A63" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="14"/>
+      <c r="C63" s="13"/>
     </row>
     <row r="64" ht="21" spans="1:3">
       <c r="A64" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="14"/>
+      <c r="C64" s="13"/>
     </row>
     <row r="65" ht="21" spans="1:3">
       <c r="A65" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C65" s="14"/>
+      <c r="C65" s="13"/>
     </row>
     <row r="66" ht="21" spans="1:3">
       <c r="A66" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="14"/>
+      <c r="C66" s="13"/>
     </row>
     <row r="67" ht="21" spans="1:3">
       <c r="A67" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="14"/>
+      <c r="C67" s="13"/>
     </row>
     <row r="68" ht="21" spans="1:3">
       <c r="A68" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="14"/>
+      <c r="C68" s="13"/>
     </row>
     <row r="69" ht="21" spans="1:3">
       <c r="A69" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C69" s="14"/>
+      <c r="C69" s="13"/>
     </row>
     <row r="70" ht="21" spans="1:3">
       <c r="A70" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C70" s="14"/>
+      <c r="C70" s="13"/>
     </row>
     <row r="71" ht="21" spans="1:3">
       <c r="A71" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C71" s="14"/>
+      <c r="C71" s="13"/>
     </row>
     <row r="72" ht="21" spans="1:3">
       <c r="A72" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C72" s="14"/>
+      <c r="C72" s="13"/>
     </row>
     <row r="73" ht="21" spans="1:3">
       <c r="A73" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="B73" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C73" s="14"/>
+      <c r="C73" s="13"/>
     </row>
     <row r="74" ht="21" spans="1:3">
       <c r="A74" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C74" s="14"/>
+      <c r="C74" s="13"/>
     </row>
     <row r="75" ht="21" spans="1:3">
       <c r="A75" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B75" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C75" s="14"/>
+      <c r="C75" s="13"/>
     </row>
     <row r="76" ht="21" spans="1:3">
       <c r="A76" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C76" s="14"/>
+      <c r="C76" s="13"/>
     </row>
     <row r="77" ht="21" spans="1:3">
       <c r="A77" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="B77" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C77" s="14"/>
+      <c r="C77" s="13"/>
     </row>
     <row r="78" ht="21" spans="1:3">
       <c r="A78" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C78" s="14"/>
+      <c r="C78" s="13"/>
     </row>
     <row r="79" ht="21" spans="1:3">
       <c r="A79" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B79" s="15" t="s">
+      <c r="B79" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C79" s="14"/>
+      <c r="C79" s="13"/>
     </row>
     <row r="80" ht="21" spans="1:3">
       <c r="A80" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B80" s="15" t="s">
+      <c r="B80" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C80" s="14"/>
+      <c r="C80" s="13"/>
     </row>
     <row r="81" ht="21" spans="1:3">
       <c r="A81" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B81" s="15" t="s">
+      <c r="B81" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C81" s="14"/>
+      <c r="C81" s="13"/>
     </row>
     <row r="82" ht="21" spans="1:3">
       <c r="A82" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="B82" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C82" s="14"/>
+      <c r="C82" s="13"/>
     </row>
     <row r="83" ht="21" spans="1:3">
       <c r="A83" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B83" s="15" t="s">
+      <c r="B83" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C83" s="14"/>
+      <c r="C83" s="13"/>
     </row>
     <row r="84" ht="21" spans="1:3">
       <c r="A84" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B84" s="15" t="s">
+      <c r="B84" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C84" s="14"/>
+      <c r="C84" s="13"/>
     </row>
     <row r="85" ht="21" spans="1:3">
       <c r="A85" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B85" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C85" s="14"/>
+      <c r="C85" s="13"/>
     </row>
     <row r="86" ht="21" spans="1:3">
       <c r="A86" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B86" s="15" t="s">
+      <c r="B86" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C86" s="14"/>
+      <c r="C86" s="13"/>
     </row>
     <row r="87" ht="21" spans="1:3">
       <c r="A87" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B87" s="15" t="s">
+      <c r="B87" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C87" s="14"/>
+      <c r="C87" s="13"/>
     </row>
     <row r="88" ht="21" spans="1:3">
       <c r="A88" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="B88" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C88" s="14"/>
+      <c r="C88" s="13"/>
     </row>
     <row r="89" ht="21" spans="1:3">
       <c r="A89" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B89" s="15" t="s">
+      <c r="B89" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C89" s="14"/>
+      <c r="C89" s="13"/>
     </row>
     <row r="90" ht="21" spans="1:3">
       <c r="A90" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B90" s="15" t="s">
+      <c r="B90" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C90" s="14"/>
+      <c r="C90" s="13"/>
     </row>
     <row r="91" ht="21" spans="1:3">
       <c r="A91" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B91" s="15" t="s">
+      <c r="B91" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C91" s="14"/>
+      <c r="C91" s="13"/>
     </row>
     <row r="92" ht="21" spans="1:3">
       <c r="A92" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B92" s="15" t="s">
+      <c r="B92" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C92" s="14"/>
+      <c r="C92" s="13"/>
     </row>
     <row r="93" ht="21" spans="1:3">
       <c r="A93" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B93" s="15" t="s">
+      <c r="B93" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C93" s="14"/>
+      <c r="C93" s="13"/>
     </row>
     <row r="94" ht="21" spans="1:3">
       <c r="A94" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B94" s="15" t="s">
+      <c r="B94" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C94" s="14"/>
+      <c r="C94" s="13"/>
     </row>
     <row r="95" ht="21" spans="1:3">
       <c r="A95" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B95" s="15" t="s">
+      <c r="B95" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C95" s="14"/>
+      <c r="C95" s="13"/>
     </row>
     <row r="96" ht="21" spans="1:3">
       <c r="A96" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B96" s="15" t="s">
+      <c r="B96" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C96" s="14"/>
+      <c r="C96" s="13"/>
     </row>
     <row r="97" ht="21" spans="1:3">
       <c r="A97" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B97" s="15" t="s">
+      <c r="B97" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C97" s="14"/>
+      <c r="C97" s="13"/>
     </row>
     <row r="98" ht="21" spans="1:3">
       <c r="A98" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B98" s="15" t="s">
+      <c r="B98" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C98" s="14"/>
+      <c r="C98" s="13"/>
     </row>
     <row r="99" ht="21" spans="3:3">
-      <c r="C99" s="17"/>
+      <c r="C99" s="16"/>
     </row>
     <row r="100" ht="21" spans="1:3">
-      <c r="A100" s="18"/>
-      <c r="B100" s="16"/>
-      <c r="C100" s="17"/>
+      <c r="A100" s="17"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="16"/>
     </row>
     <row r="101" ht="21" spans="1:3">
       <c r="A101" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B101" s="15" t="s">
+      <c r="B101" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C101" s="14"/>
+      <c r="C101" s="13"/>
     </row>
     <row r="102" ht="21" spans="1:3">
       <c r="A102" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B102" s="15" t="s">
+      <c r="B102" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C102" s="14"/>
+      <c r="C102" s="13"/>
     </row>
     <row r="103" ht="21" spans="1:3">
       <c r="A103" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B103" s="15" t="s">
+      <c r="B103" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C103" s="14"/>
+      <c r="C103" s="13"/>
     </row>
     <row r="104" ht="21" spans="1:3">
       <c r="A104" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B104" s="15" t="s">
+      <c r="B104" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C104" s="14"/>
+      <c r="C104" s="13"/>
     </row>
     <row r="105" ht="21" spans="1:3">
       <c r="A105" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B105" s="15" t="s">
+      <c r="B105" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C105" s="14"/>
+      <c r="C105" s="13"/>
     </row>
     <row r="106" ht="21" spans="1:3">
       <c r="A106" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B106" s="15" t="s">
+      <c r="B106" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C106" s="14"/>
+      <c r="C106" s="13"/>
     </row>
     <row r="107" ht="21" spans="1:3">
       <c r="A107" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B107" s="15" t="s">
+      <c r="B107" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C107" s="14"/>
+      <c r="C107" s="13"/>
     </row>
     <row r="108" ht="21" spans="1:3">
       <c r="A108" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B108" s="15" t="s">
+      <c r="B108" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C108" s="14"/>
+      <c r="C108" s="13"/>
     </row>
     <row r="109" ht="21" spans="1:3">
       <c r="A109" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B109" s="15" t="s">
+      <c r="B109" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C109" s="14"/>
+      <c r="C109" s="13"/>
     </row>
     <row r="110" ht="21" spans="1:3">
       <c r="A110" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B110" s="15" t="s">
+      <c r="B110" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C110" s="14"/>
+      <c r="C110" s="13"/>
     </row>
     <row r="111" ht="21" spans="1:3">
       <c r="A111" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B111" s="15" t="s">
+      <c r="B111" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C111" s="14"/>
+      <c r="C111" s="13"/>
     </row>
     <row r="112" ht="21" spans="1:3">
       <c r="A112" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B112" s="15" t="s">
+      <c r="B112" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C112" s="14"/>
+      <c r="C112" s="13"/>
     </row>
     <row r="113" ht="21" spans="1:3">
       <c r="A113" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B113" s="15" t="s">
+      <c r="B113" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C113" s="14"/>
+      <c r="C113" s="13"/>
     </row>
     <row r="114" ht="21" spans="1:3">
       <c r="A114" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B114" s="15" t="s">
+      <c r="B114" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C114" s="14"/>
+      <c r="C114" s="13"/>
     </row>
     <row r="115" ht="21" spans="1:3">
       <c r="A115" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B115" s="15" t="s">
+      <c r="B115" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C115" s="14"/>
+      <c r="C115" s="13"/>
     </row>
     <row r="116" ht="21" spans="1:3">
       <c r="A116" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B116" s="15" t="s">
+      <c r="B116" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C116" s="14"/>
+      <c r="C116" s="13"/>
     </row>
     <row r="117" ht="21" spans="1:3">
       <c r="A117" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B117" s="15" t="s">
+      <c r="B117" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C117" s="14"/>
+      <c r="C117" s="13"/>
     </row>
     <row r="118" ht="21" spans="1:3">
       <c r="A118" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B118" s="15" t="s">
+      <c r="B118" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C118" s="14"/>
+      <c r="C118" s="13"/>
     </row>
     <row r="119" ht="21" spans="1:3">
       <c r="A119" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B119" s="15" t="s">
+      <c r="B119" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C119" s="14"/>
+      <c r="C119" s="13"/>
     </row>
     <row r="120" ht="21" spans="1:3">
       <c r="A120" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B120" s="15" t="s">
+      <c r="B120" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C120" s="14"/>
+      <c r="C120" s="13"/>
     </row>
     <row r="121" ht="21" spans="1:3">
       <c r="A121" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B121" s="15" t="s">
+      <c r="B121" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C121" s="14"/>
+      <c r="C121" s="13"/>
     </row>
     <row r="122" ht="21" spans="1:3">
       <c r="A122" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B122" s="15" t="s">
+      <c r="B122" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C122" s="14"/>
+      <c r="C122" s="13"/>
     </row>
     <row r="123" ht="21" spans="1:3">
       <c r="A123" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B123" s="15" t="s">
+      <c r="B123" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C123" s="14"/>
+      <c r="C123" s="13"/>
     </row>
     <row r="124" ht="21" spans="1:3">
       <c r="A124" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B124" s="15" t="s">
+      <c r="B124" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C124" s="14"/>
+      <c r="C124" s="13"/>
     </row>
     <row r="125" ht="21" spans="1:3">
       <c r="A125" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B125" s="15" t="s">
+      <c r="B125" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C125" s="14"/>
+      <c r="C125" s="13"/>
     </row>
     <row r="126" ht="21" spans="1:3">
       <c r="A126" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B126" s="15" t="s">
+      <c r="B126" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C126" s="14"/>
+      <c r="C126" s="13"/>
     </row>
     <row r="127" ht="21" spans="1:3">
       <c r="A127" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B127" s="15" t="s">
+      <c r="B127" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C127" s="14"/>
+      <c r="C127" s="13"/>
     </row>
     <row r="128" ht="21" spans="1:3">
       <c r="A128" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B128" s="15" t="s">
+      <c r="B128" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="C128" s="14"/>
+      <c r="C128" s="13"/>
     </row>
     <row r="129" ht="21" spans="1:3">
       <c r="A129" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B129" s="15" t="s">
+      <c r="B129" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="C129" s="14"/>
+      <c r="C129" s="13"/>
     </row>
     <row r="130" ht="21" spans="1:3">
       <c r="A130" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B130" s="15" t="s">
+      <c r="B130" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C130" s="14"/>
+      <c r="C130" s="13"/>
     </row>
     <row r="131" ht="21" spans="1:3">
       <c r="A131" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B131" s="15" t="s">
+      <c r="B131" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C131" s="14"/>
+      <c r="C131" s="13"/>
     </row>
     <row r="132" ht="21" spans="1:3">
       <c r="A132" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B132" s="15" t="s">
+      <c r="B132" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="C132" s="14"/>
+      <c r="C132" s="13"/>
     </row>
     <row r="133" ht="21" spans="1:3">
       <c r="A133" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B133" s="15" t="s">
+      <c r="B133" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="C133" s="14"/>
+      <c r="C133" s="13"/>
     </row>
     <row r="134" ht="21" spans="1:3">
       <c r="A134" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B134" s="15" t="s">
+      <c r="B134" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="C134" s="14"/>
+      <c r="C134" s="13"/>
     </row>
     <row r="135" ht="21" spans="1:3">
       <c r="A135" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B135" s="15" t="s">
+      <c r="B135" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="C135" s="14"/>
+      <c r="C135" s="13"/>
     </row>
     <row r="136" ht="21" spans="1:3">
       <c r="A136" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B136" s="15" t="s">
+      <c r="B136" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C136" s="14"/>
+      <c r="C136" s="13"/>
     </row>
     <row r="137" ht="21" spans="3:3">
-      <c r="C137" s="17"/>
+      <c r="C137" s="16"/>
     </row>
     <row r="138" ht="21" spans="2:3">
-      <c r="B138" s="16"/>
-      <c r="C138" s="17"/>
+      <c r="B138" s="15"/>
+      <c r="C138" s="16"/>
     </row>
     <row r="139" ht="21" spans="1:3">
-      <c r="A139" s="18" t="s">
+      <c r="A139" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B139" s="15" t="s">
+      <c r="B139" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C139" s="14"/>
+      <c r="C139" s="13"/>
     </row>
     <row r="140" ht="21" spans="1:3">
-      <c r="A140" s="18" t="s">
+      <c r="A140" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B140" s="15" t="s">
+      <c r="B140" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C140" s="14"/>
+      <c r="C140" s="13"/>
     </row>
     <row r="141" ht="21" spans="1:3">
-      <c r="A141" s="18" t="s">
+      <c r="A141" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B141" s="15" t="s">
+      <c r="B141" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C141" s="14"/>
+      <c r="C141" s="13"/>
     </row>
     <row r="142" ht="21" spans="1:3">
-      <c r="A142" s="18" t="s">
+      <c r="A142" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B142" s="15" t="s">
+      <c r="B142" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="C142" s="14"/>
+      <c r="C142" s="13"/>
     </row>
     <row r="143" ht="21" spans="1:3">
-      <c r="A143" s="18" t="s">
+      <c r="A143" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B143" s="15" t="s">
+      <c r="B143" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="C143" s="14"/>
+      <c r="C143" s="13"/>
     </row>
     <row r="144" ht="21" spans="1:3">
-      <c r="A144" s="18" t="s">
+      <c r="A144" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B144" s="15" t="s">
+      <c r="B144" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C144" s="14"/>
+      <c r="C144" s="13"/>
     </row>
     <row r="145" ht="21" spans="1:3">
-      <c r="A145" s="18" t="s">
+      <c r="A145" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B145" s="15" t="s">
+      <c r="B145" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="C145" s="14"/>
+      <c r="C145" s="13"/>
     </row>
     <row r="146" ht="21" spans="1:3">
-      <c r="A146" s="18" t="s">
+      <c r="A146" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B146" s="15" t="s">
+      <c r="B146" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C146" s="14"/>
+      <c r="C146" s="13"/>
     </row>
     <row r="147" ht="21" spans="1:3">
-      <c r="A147" s="18" t="s">
+      <c r="A147" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B147" s="15" t="s">
+      <c r="B147" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C147" s="14"/>
+      <c r="C147" s="13"/>
     </row>
     <row r="148" ht="21" spans="1:3">
-      <c r="A148" s="18" t="s">
+      <c r="A148" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B148" s="15" t="s">
+      <c r="B148" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C148" s="14"/>
+      <c r="C148" s="13"/>
     </row>
     <row r="149" ht="21" spans="1:3">
-      <c r="A149" s="18" t="s">
+      <c r="A149" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B149" s="15" t="s">
+      <c r="B149" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="C149" s="14"/>
+      <c r="C149" s="13"/>
     </row>
     <row r="150" ht="21" spans="1:3">
-      <c r="A150" s="18" t="s">
+      <c r="A150" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B150" s="15" t="s">
+      <c r="B150" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="C150" s="14"/>
+      <c r="C150" s="13"/>
     </row>
     <row r="151" ht="21" spans="1:3">
-      <c r="A151" s="18" t="s">
+      <c r="A151" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B151" s="15" t="s">
+      <c r="B151" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C151" s="14"/>
+      <c r="C151" s="13"/>
     </row>
     <row r="152" ht="21" spans="1:3">
-      <c r="A152" s="18" t="s">
+      <c r="A152" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B152" s="15" t="s">
+      <c r="B152" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C152" s="14"/>
+      <c r="C152" s="13"/>
     </row>
     <row r="153" ht="21" spans="1:3">
-      <c r="A153" s="18" t="s">
+      <c r="A153" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B153" s="15" t="s">
+      <c r="B153" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C153" s="14"/>
+      <c r="C153" s="13"/>
     </row>
     <row r="154" ht="21" spans="1:3">
-      <c r="A154" s="18" t="s">
+      <c r="A154" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B154" s="15" t="s">
+      <c r="B154" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C154" s="14"/>
+      <c r="C154" s="13"/>
     </row>
     <row r="155" ht="21" spans="1:3">
-      <c r="A155" s="18" t="s">
+      <c r="A155" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B155" s="15" t="s">
+      <c r="B155" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="C155" s="14"/>
+      <c r="C155" s="13"/>
     </row>
     <row r="156" ht="21" spans="1:3">
-      <c r="A156" s="18" t="s">
+      <c r="A156" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B156" s="15" t="s">
+      <c r="B156" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="C156" s="14"/>
+      <c r="C156" s="13"/>
     </row>
     <row r="157" ht="21" spans="1:3">
-      <c r="A157" s="18" t="s">
+      <c r="A157" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B157" s="15" t="s">
+      <c r="B157" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="C157" s="14"/>
+      <c r="C157" s="13"/>
     </row>
     <row r="158" ht="21" spans="1:3">
-      <c r="A158" s="18" t="s">
+      <c r="A158" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B158" s="15" t="s">
+      <c r="B158" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="C158" s="14"/>
+      <c r="C158" s="13"/>
     </row>
     <row r="159" ht="21" spans="1:3">
-      <c r="A159" s="18" t="s">
+      <c r="A159" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B159" s="15" t="s">
+      <c r="B159" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C159" s="14"/>
+      <c r="C159" s="13"/>
     </row>
     <row r="160" ht="21" spans="1:3">
-      <c r="A160" s="18" t="s">
+      <c r="A160" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B160" s="15" t="s">
+      <c r="B160" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="C160" s="14"/>
+      <c r="C160" s="13"/>
     </row>
     <row r="161" ht="21" spans="1:3">
-      <c r="A161" s="18" t="s">
+      <c r="A161" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B161" s="15" t="s">
+      <c r="B161" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="C161" s="14"/>
+      <c r="C161" s="13"/>
     </row>
     <row r="162" ht="21" spans="1:3">
-      <c r="A162" s="18" t="s">
+      <c r="A162" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B162" s="15" t="s">
+      <c r="B162" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="C162" s="14"/>
+      <c r="C162" s="13"/>
     </row>
     <row r="163" ht="21" spans="1:3">
-      <c r="A163" s="18" t="s">
+      <c r="A163" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B163" s="15" t="s">
+      <c r="B163" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C163" s="14"/>
+      <c r="C163" s="13"/>
     </row>
     <row r="164" ht="21" spans="1:3">
-      <c r="A164" s="18" t="s">
+      <c r="A164" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B164" s="16" t="s">
+      <c r="B164" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="C164" s="14"/>
+      <c r="C164" s="13"/>
     </row>
     <row r="165" ht="21" spans="1:3">
-      <c r="A165" s="18" t="s">
+      <c r="A165" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B165" s="16" t="s">
+      <c r="B165" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="C165" s="14"/>
+      <c r="C165" s="13"/>
     </row>
     <row r="166" ht="21" spans="1:3">
-      <c r="A166" s="18" t="s">
+      <c r="A166" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B166" s="15" t="s">
+      <c r="B166" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="C166" s="14"/>
+      <c r="C166" s="13"/>
     </row>
     <row r="167" ht="21" spans="1:3">
-      <c r="A167" s="18" t="s">
+      <c r="A167" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B167" s="15" t="s">
+      <c r="B167" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C167" s="14"/>
+      <c r="C167" s="13"/>
     </row>
     <row r="168" ht="21" spans="1:3">
-      <c r="A168" s="18" t="s">
+      <c r="A168" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B168" s="15" t="s">
+      <c r="B168" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C168" s="14"/>
+      <c r="C168" s="13"/>
     </row>
     <row r="169" ht="21" spans="1:3">
-      <c r="A169" s="18" t="s">
+      <c r="A169" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B169" s="15" t="s">
+      <c r="B169" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="C169" s="14"/>
+      <c r="C169" s="13"/>
     </row>
     <row r="170" ht="21" spans="1:3">
-      <c r="A170" s="18" t="s">
+      <c r="A170" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B170" s="15" t="s">
+      <c r="B170" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="C170" s="14"/>
+      <c r="C170" s="13"/>
     </row>
     <row r="171" ht="21" spans="1:3">
-      <c r="A171" s="18" t="s">
+      <c r="A171" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B171" s="15" t="s">
+      <c r="B171" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C171" s="14"/>
+      <c r="C171" s="13"/>
     </row>
     <row r="172" ht="21" spans="1:3">
-      <c r="A172" s="18" t="s">
+      <c r="A172" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B172" s="15" t="s">
+      <c r="B172" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="C172" s="14"/>
+      <c r="C172" s="13"/>
     </row>
     <row r="173" ht="21" spans="1:3">
-      <c r="A173" s="18" t="s">
+      <c r="A173" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B173" s="15" t="s">
+      <c r="B173" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="C173" s="14"/>
+      <c r="C173" s="13"/>
     </row>
     <row r="174" ht="21" spans="1:3">
-      <c r="A174" s="18" t="s">
+      <c r="A174" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B174" s="15" t="s">
+      <c r="B174" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C174" s="14"/>
+      <c r="C174" s="13"/>
     </row>
     <row r="175" ht="21" spans="3:3">
-      <c r="C175" s="17"/>
+      <c r="C175" s="16"/>
     </row>
     <row r="176" ht="21" spans="2:3">
-      <c r="B176" s="16"/>
-      <c r="C176" s="17"/>
+      <c r="B176" s="15"/>
+      <c r="C176" s="16"/>
     </row>
     <row r="177" ht="21" spans="1:3">
       <c r="A177" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B177" s="15" t="s">
+      <c r="B177" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C177" s="14"/>
+      <c r="C177" s="13"/>
     </row>
     <row r="178" ht="21" spans="1:3">
       <c r="A178" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B178" s="15" t="s">
+      <c r="B178" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C178" s="14"/>
+      <c r="C178" s="13"/>
     </row>
     <row r="179" ht="21" spans="1:3">
       <c r="A179" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B179" s="15" t="s">
+      <c r="B179" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="C179" s="14"/>
+      <c r="C179" s="13"/>
     </row>
     <row r="180" ht="21" spans="1:3">
       <c r="A180" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B180" s="15" t="s">
+      <c r="B180" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="C180" s="14"/>
+      <c r="C180" s="13"/>
     </row>
     <row r="181" ht="21" spans="1:3">
       <c r="A181" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B181" s="15" t="s">
+      <c r="B181" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="C181" s="14"/>
+      <c r="C181" s="13"/>
     </row>
     <row r="182" ht="21" spans="1:3">
       <c r="A182" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B182" s="15" t="s">
+      <c r="B182" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="C182" s="14"/>
+      <c r="C182" s="13"/>
     </row>
     <row r="183" ht="21" spans="1:3">
       <c r="A183" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B183" s="15" t="s">
+      <c r="B183" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="C183" s="14"/>
+      <c r="C183" s="13"/>
     </row>
     <row r="184" ht="21" spans="1:3">
       <c r="A184" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B184" s="15" t="s">
+      <c r="B184" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="C184" s="14"/>
+      <c r="C184" s="13"/>
     </row>
     <row r="185" ht="21" spans="1:3">
       <c r="A185" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B185" s="15" t="s">
+      <c r="B185" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="C185" s="14"/>
+      <c r="C185" s="13"/>
     </row>
     <row r="186" ht="21" spans="1:3">
       <c r="A186" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B186" s="15" t="s">
+      <c r="B186" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="C186" s="14"/>
+      <c r="C186" s="13"/>
     </row>
     <row r="187" ht="21" spans="1:3">
       <c r="A187" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B187" s="15" t="s">
+      <c r="B187" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="C187" s="14"/>
+      <c r="C187" s="13"/>
     </row>
     <row r="188" ht="21" spans="1:3">
       <c r="A188" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B188" s="15" t="s">
+      <c r="B188" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="C188" s="14"/>
+      <c r="C188" s="13"/>
     </row>
     <row r="189" ht="21" spans="1:3">
       <c r="A189" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B189" s="15" t="s">
+      <c r="B189" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="C189" s="14"/>
+      <c r="C189" s="13"/>
     </row>
     <row r="190" ht="21" spans="1:3">
       <c r="A190" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B190" s="15" t="s">
+      <c r="B190" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="C190" s="14"/>
+      <c r="C190" s="13"/>
     </row>
     <row r="191" ht="21" spans="1:3">
       <c r="A191" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B191" s="15" t="s">
+      <c r="B191" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="C191" s="14"/>
+      <c r="C191" s="13"/>
     </row>
     <row r="192" ht="21" spans="1:3">
       <c r="A192" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B192" s="15" t="s">
+      <c r="B192" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="C192" s="14"/>
+      <c r="C192" s="13"/>
     </row>
     <row r="193" ht="21" spans="1:3">
       <c r="A193" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B193" s="15" t="s">
+      <c r="B193" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="C193" s="14"/>
+      <c r="C193" s="13"/>
     </row>
     <row r="194" ht="21" spans="1:3">
       <c r="A194" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B194" s="15" t="s">
+      <c r="B194" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="C194" s="14"/>
+      <c r="C194" s="13"/>
     </row>
     <row r="195" ht="21" spans="1:3">
       <c r="A195" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B195" s="15" t="s">
+      <c r="B195" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C195" s="14"/>
+      <c r="C195" s="13"/>
     </row>
     <row r="196" ht="21" spans="1:3">
       <c r="A196" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B196" s="15" t="s">
+      <c r="B196" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="C196" s="14"/>
+      <c r="C196" s="13"/>
     </row>
     <row r="197" ht="21" spans="1:3">
       <c r="A197" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B197" s="15" t="s">
+      <c r="B197" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="C197" s="14"/>
+      <c r="C197" s="13"/>
     </row>
     <row r="198" ht="21" spans="1:3">
       <c r="A198" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B198" s="15" t="s">
+      <c r="B198" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="C198" s="14"/>
+      <c r="C198" s="13"/>
     </row>
     <row r="199" ht="21" spans="1:3">
       <c r="A199" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B199" s="15" t="s">
+      <c r="B199" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="C199" s="14"/>
+      <c r="C199" s="13"/>
     </row>
     <row r="200" ht="21" spans="1:3">
       <c r="A200" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B200" s="15" t="s">
+      <c r="B200" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="C200" s="14"/>
+      <c r="C200" s="13"/>
     </row>
     <row r="201" ht="21" spans="1:3">
       <c r="A201" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B201" s="15" t="s">
+      <c r="B201" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="C201" s="14"/>
+      <c r="C201" s="13"/>
     </row>
     <row r="202" ht="21" spans="1:3">
       <c r="A202" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B202" s="15" t="s">
+      <c r="B202" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="C202" s="14"/>
+      <c r="C202" s="13"/>
     </row>
     <row r="203" ht="21" spans="1:3">
       <c r="A203" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B203" s="15" t="s">
+      <c r="B203" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="C203" s="14"/>
+      <c r="C203" s="13"/>
     </row>
     <row r="204" ht="21" spans="1:3">
       <c r="A204" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B204" s="15" t="s">
+      <c r="B204" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C204" s="14"/>
+      <c r="C204" s="13"/>
     </row>
     <row r="205" ht="21" spans="1:3">
       <c r="A205" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B205" s="15" t="s">
+      <c r="B205" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="C205" s="14"/>
+      <c r="C205" s="13"/>
     </row>
     <row r="206" ht="21" spans="1:3">
       <c r="A206" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B206" s="15" t="s">
+      <c r="B206" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="C206" s="14"/>
+      <c r="C206" s="13"/>
     </row>
     <row r="207" ht="21" spans="1:3">
       <c r="A207" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B207" s="15" t="s">
+      <c r="B207" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="C207" s="14"/>
+      <c r="C207" s="13"/>
     </row>
     <row r="208" ht="21" spans="1:3">
       <c r="A208" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B208" s="15" t="s">
+      <c r="B208" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="C208" s="14"/>
+      <c r="C208" s="13"/>
     </row>
     <row r="209" ht="21" spans="1:3">
       <c r="A209" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B209" s="15" t="s">
+      <c r="B209" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="C209" s="14"/>
+      <c r="C209" s="13"/>
     </row>
     <row r="210" ht="21" spans="1:3">
       <c r="A210" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B210" s="15" t="s">
+      <c r="B210" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="C210" s="14"/>
+      <c r="C210" s="13"/>
     </row>
     <row r="211" ht="21" spans="1:3">
       <c r="A211" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B211" s="15" t="s">
+      <c r="B211" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="C211" s="14"/>
+      <c r="C211" s="13"/>
     </row>
     <row r="212" ht="21" spans="1:3">
-      <c r="A212" s="18"/>
-      <c r="B212" s="16"/>
-      <c r="C212" s="17"/>
+      <c r="A212" s="17"/>
+      <c r="B212" s="15"/>
+      <c r="C212" s="16"/>
     </row>
     <row r="213" ht="21" spans="1:3">
-      <c r="A213" s="18"/>
-      <c r="B213" s="16"/>
-      <c r="C213" s="17"/>
+      <c r="A213" s="17"/>
+      <c r="B213" s="15"/>
+      <c r="C213" s="16"/>
     </row>
     <row r="214" ht="21" spans="1:3">
       <c r="A214" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B214" s="15" t="s">
+      <c r="B214" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="C214" s="14"/>
+      <c r="C214" s="13"/>
     </row>
     <row r="215" ht="21" spans="1:3">
       <c r="A215" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B215" s="15" t="s">
+      <c r="B215" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="C215" s="14"/>
+      <c r="C215" s="13"/>
     </row>
     <row r="216" ht="21" spans="1:3">
       <c r="A216" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B216" s="15" t="s">
+      <c r="B216" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="C216" s="14"/>
+      <c r="C216" s="13"/>
     </row>
     <row r="217" ht="21" spans="1:3">
       <c r="A217" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B217" s="15" t="s">
+      <c r="B217" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="C217" s="14"/>
+      <c r="C217" s="13"/>
     </row>
     <row r="218" ht="21" spans="1:3">
       <c r="A218" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B218" s="15" t="s">
+      <c r="B218" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="C218" s="14"/>
+      <c r="C218" s="13"/>
     </row>
     <row r="219" ht="21" spans="1:3">
       <c r="A219" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B219" s="15" t="s">
+      <c r="B219" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="C219" s="14"/>
+      <c r="C219" s="13"/>
     </row>
     <row r="220" ht="21" spans="1:3">
       <c r="A220" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B220" s="19" t="s">
+      <c r="B220" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="C220" s="14"/>
+      <c r="C220" s="13"/>
     </row>
     <row r="221" ht="21" spans="1:3">
       <c r="A221" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B221" s="15" t="s">
+      <c r="B221" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="C221" s="14"/>
+      <c r="C221" s="13"/>
     </row>
     <row r="222" ht="21" spans="1:3">
       <c r="A222" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B222" s="15" t="s">
+      <c r="B222" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="C222" s="14"/>
+      <c r="C222" s="13"/>
     </row>
     <row r="223" ht="21" spans="1:3">
       <c r="A223" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B223" s="15" t="s">
+      <c r="B223" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C223" s="14"/>
+      <c r="C223" s="13"/>
     </row>
     <row r="224" ht="21" spans="1:3">
       <c r="A224" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B224" s="15" t="s">
+      <c r="B224" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="C224" s="14"/>
+      <c r="C224" s="13"/>
     </row>
     <row r="225" ht="21" spans="1:3">
       <c r="A225" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B225" s="15" t="s">
+      <c r="B225" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="C225" s="14"/>
+      <c r="C225" s="13"/>
     </row>
     <row r="226" ht="21" spans="1:3">
       <c r="A226" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B226" s="15" t="s">
+      <c r="B226" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="C226" s="14"/>
+      <c r="C226" s="13"/>
     </row>
     <row r="227" ht="21" spans="1:3">
       <c r="A227" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B227" s="15" t="s">
+      <c r="B227" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="C227" s="14"/>
+      <c r="C227" s="13"/>
     </row>
     <row r="228" ht="21" spans="1:3">
       <c r="A228" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B228" s="15" t="s">
+      <c r="B228" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="C228" s="14"/>
+      <c r="C228" s="13"/>
     </row>
     <row r="229" ht="21" spans="1:3">
       <c r="A229" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B229" s="15" t="s">
+      <c r="B229" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="C229" s="14"/>
+      <c r="C229" s="13"/>
     </row>
     <row r="230" ht="21" spans="1:3">
       <c r="A230" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B230" s="15" t="s">
+      <c r="B230" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="C230" s="14"/>
+      <c r="C230" s="13"/>
     </row>
     <row r="231" ht="21" spans="1:3">
       <c r="A231" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B231" s="15" t="s">
+      <c r="B231" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="C231" s="14"/>
+      <c r="C231" s="13"/>
     </row>
     <row r="232" ht="21" spans="1:3">
       <c r="A232" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B232" s="15" t="s">
+      <c r="B232" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="C232" s="14"/>
+      <c r="C232" s="13"/>
     </row>
     <row r="233" ht="21" spans="1:3">
       <c r="A233" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B233" s="15" t="s">
+      <c r="B233" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="C233" s="14"/>
+      <c r="C233" s="13"/>
     </row>
     <row r="234" ht="21" spans="1:3">
       <c r="A234" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B234" s="15" t="s">
+      <c r="B234" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="C234" s="14"/>
+      <c r="C234" s="13"/>
     </row>
     <row r="235" ht="21" spans="1:3">
       <c r="A235" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B235" s="15" t="s">
+      <c r="B235" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="C235" s="14"/>
+      <c r="C235" s="13"/>
     </row>
     <row r="236" ht="21" spans="2:3">
-      <c r="B236" s="16"/>
-      <c r="C236" s="17"/>
+      <c r="B236" s="15"/>
+      <c r="C236" s="16"/>
     </row>
     <row r="237" ht="21" spans="2:3">
-      <c r="B237" s="16"/>
-      <c r="C237" s="17"/>
+      <c r="B237" s="15"/>
+      <c r="C237" s="16"/>
     </row>
     <row r="238" ht="21" spans="1:3">
       <c r="A238" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B238" s="15" t="s">
+      <c r="B238" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="C238" s="14"/>
+      <c r="C238" s="13"/>
     </row>
     <row r="239" ht="21" spans="1:3">
       <c r="A239" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B239" s="15" t="s">
+      <c r="B239" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="C239" s="14"/>
+      <c r="C239" s="13"/>
     </row>
     <row r="240" ht="21" spans="1:3">
       <c r="A240" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B240" s="15" t="s">
+      <c r="B240" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="C240" s="14"/>
+      <c r="C240" s="13"/>
     </row>
     <row r="241" ht="21" spans="1:3">
       <c r="A241" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B241" s="15" t="s">
+      <c r="B241" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="C241" s="14"/>
+      <c r="C241" s="13"/>
     </row>
     <row r="242" ht="21" spans="1:3">
       <c r="A242" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B242" s="15" t="s">
+      <c r="B242" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="C242" s="14"/>
+      <c r="C242" s="13"/>
     </row>
     <row r="243" ht="21" spans="1:3">
       <c r="A243" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B243" s="15" t="s">
+      <c r="B243" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="C243" s="14"/>
+      <c r="C243" s="13"/>
     </row>
     <row r="244" ht="21" spans="1:3">
       <c r="A244" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B244" s="15" t="s">
+      <c r="B244" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C244" s="14"/>
+      <c r="C244" s="13"/>
     </row>
     <row r="245" ht="21" spans="1:3">
       <c r="A245" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B245" s="15" t="s">
+      <c r="B245" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="C245" s="14"/>
+      <c r="C245" s="13"/>
     </row>
     <row r="246" ht="21" spans="1:3">
       <c r="A246" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B246" s="15" t="s">
+      <c r="B246" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="C246" s="14"/>
+      <c r="C246" s="13"/>
     </row>
     <row r="247" ht="21" spans="1:3">
       <c r="A247" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B247" s="15" t="s">
+      <c r="B247" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="C247" s="14"/>
+      <c r="C247" s="13"/>
     </row>
     <row r="248" ht="21" spans="1:3">
       <c r="A248" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B248" s="15" t="s">
+      <c r="B248" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="C248" s="14"/>
+      <c r="C248" s="13"/>
     </row>
     <row r="249" ht="21" spans="1:3">
       <c r="A249" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B249" s="15" t="s">
+      <c r="B249" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="C249" s="14"/>
+      <c r="C249" s="13"/>
     </row>
     <row r="250" ht="21" spans="1:3">
       <c r="A250" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B250" s="15" t="s">
+      <c r="B250" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="C250" s="14"/>
+      <c r="C250" s="13"/>
     </row>
     <row r="251" ht="21" spans="1:3">
       <c r="A251" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B251" s="15" t="s">
+      <c r="B251" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="C251" s="14"/>
+      <c r="C251" s="13"/>
     </row>
     <row r="252" ht="21" spans="1:3">
       <c r="A252" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B252" s="15" t="s">
+      <c r="B252" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="C252" s="14"/>
+      <c r="C252" s="13"/>
     </row>
     <row r="253" ht="21" spans="1:3">
       <c r="A253" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B253" s="15" t="s">
+      <c r="B253" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="C253" s="14"/>
+      <c r="C253" s="13"/>
     </row>
     <row r="254" ht="21" spans="1:3">
       <c r="A254" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B254" s="15" t="s">
+      <c r="B254" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="C254" s="14"/>
+      <c r="C254" s="13"/>
     </row>
     <row r="255" ht="21" spans="1:3">
       <c r="A255" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B255" s="15" t="s">
+      <c r="B255" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="C255" s="14"/>
+      <c r="C255" s="13"/>
     </row>
     <row r="256" ht="21" spans="1:3">
       <c r="A256" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B256" s="15" t="s">
+      <c r="B256" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="C256" s="14"/>
+      <c r="C256" s="13"/>
     </row>
     <row r="257" ht="21" spans="1:3">
       <c r="A257" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B257" s="15" t="s">
+      <c r="B257" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="C257" s="14"/>
+      <c r="C257" s="13"/>
     </row>
     <row r="258" ht="21" spans="1:3">
       <c r="A258" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B258" s="15" t="s">
+      <c r="B258" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="C258" s="14"/>
+      <c r="C258" s="13"/>
     </row>
     <row r="259" ht="21" spans="1:3">
       <c r="A259" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B259" s="15" t="s">
+      <c r="B259" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="C259" s="14"/>
+      <c r="C259" s="13"/>
     </row>
     <row r="260" ht="21" spans="1:3">
       <c r="A260" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B260" s="15" t="s">
+      <c r="B260" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="C260" s="14"/>
+      <c r="C260" s="13"/>
     </row>
     <row r="261" ht="21" spans="1:3">
       <c r="A261" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B261" s="15" t="s">
+      <c r="B261" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="C261" s="14"/>
+      <c r="C261" s="13"/>
     </row>
     <row r="262" ht="21" spans="1:3">
       <c r="A262" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B262" s="15" t="s">
+      <c r="B262" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="C262" s="14"/>
+      <c r="C262" s="13"/>
     </row>
     <row r="263" ht="21" spans="1:3">
       <c r="A263" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B263" s="15" t="s">
+      <c r="B263" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="C263" s="14"/>
+      <c r="C263" s="13"/>
     </row>
     <row r="264" ht="21" spans="1:3">
       <c r="A264" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B264" s="15" t="s">
+      <c r="B264" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="C264" s="14"/>
+      <c r="C264" s="13"/>
     </row>
     <row r="265" ht="21" spans="1:3">
       <c r="A265" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B265" s="15" t="s">
+      <c r="B265" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="C265" s="14"/>
+      <c r="C265" s="13"/>
     </row>
     <row r="266" ht="21" spans="1:3">
       <c r="A266" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B266" s="15" t="s">
+      <c r="B266" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="C266" s="14"/>
+      <c r="C266" s="13"/>
     </row>
     <row r="267" ht="21" spans="1:3">
       <c r="A267" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B267" s="15" t="s">
+      <c r="B267" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="C267" s="14"/>
+      <c r="C267" s="13"/>
     </row>
     <row r="268" ht="21" spans="1:3">
       <c r="A268" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B268" s="15" t="s">
+      <c r="B268" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="C268" s="14"/>
+      <c r="C268" s="13"/>
     </row>
     <row r="269" ht="21" spans="1:3">
       <c r="A269" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B269" s="15" t="s">
+      <c r="B269" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="C269" s="14"/>
+      <c r="C269" s="13"/>
     </row>
     <row r="270" ht="21" spans="1:3">
       <c r="A270" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B270" s="15" t="s">
+      <c r="B270" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="C270" s="14"/>
+      <c r="C270" s="13"/>
     </row>
     <row r="271" ht="21" spans="1:3">
       <c r="A271" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B271" s="15" t="s">
+      <c r="B271" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C271" s="14"/>
+      <c r="C271" s="13"/>
     </row>
     <row r="272" ht="21" spans="1:3">
       <c r="A272" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B272" s="15" t="s">
+      <c r="B272" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C272" s="14"/>
+      <c r="C272" s="13"/>
     </row>
     <row r="273" ht="21" spans="2:3">
-      <c r="B273" s="16"/>
-      <c r="C273" s="17"/>
+      <c r="B273" s="15"/>
+      <c r="C273" s="16"/>
     </row>
     <row r="274" ht="21" spans="2:3">
-      <c r="B274" s="16"/>
-      <c r="C274" s="17"/>
+      <c r="B274" s="15"/>
+      <c r="C274" s="16"/>
     </row>
     <row r="275" ht="21" spans="1:3">
       <c r="A275" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B275" s="15" t="s">
+      <c r="B275" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="C275" s="14"/>
+      <c r="C275" s="13"/>
     </row>
     <row r="276" ht="21" spans="1:3">
       <c r="A276" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B276" s="15" t="s">
+      <c r="B276" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="C276" s="14"/>
+      <c r="C276" s="13"/>
     </row>
     <row r="277" ht="21" spans="1:3">
       <c r="A277" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B277" s="15" t="s">
+      <c r="B277" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="C277" s="14"/>
+      <c r="C277" s="13"/>
     </row>
     <row r="278" ht="21" spans="1:3">
       <c r="A278" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B278" s="15" t="s">
+      <c r="B278" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="C278" s="14"/>
+      <c r="C278" s="13"/>
     </row>
     <row r="279" ht="21" spans="1:3">
       <c r="A279" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B279" s="15" t="s">
+      <c r="B279" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="C279" s="14"/>
+      <c r="C279" s="13"/>
     </row>
     <row r="280" ht="21" spans="1:3">
       <c r="A280" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B280" s="15" t="s">
+      <c r="B280" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="C280" s="14"/>
+      <c r="C280" s="13"/>
     </row>
     <row r="281" ht="21" spans="1:3">
       <c r="A281" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B281" s="15" t="s">
+      <c r="B281" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="C281" s="14"/>
+      <c r="C281" s="13"/>
     </row>
     <row r="282" ht="21" spans="1:3">
       <c r="A282" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B282" s="15" t="s">
+      <c r="B282" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="C282" s="14"/>
+      <c r="C282" s="13"/>
     </row>
     <row r="283" ht="21" spans="1:3">
       <c r="A283" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B283" s="15" t="s">
+      <c r="B283" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="C283" s="14"/>
+      <c r="C283" s="13"/>
     </row>
     <row r="284" ht="21" spans="1:3">
       <c r="A284" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B284" s="15" t="s">
+      <c r="B284" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="C284" s="14"/>
+      <c r="C284" s="13"/>
     </row>
     <row r="285" ht="21" spans="1:3">
       <c r="A285" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B285" s="15" t="s">
+      <c r="B285" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="C285" s="14"/>
+      <c r="C285" s="13"/>
     </row>
     <row r="286" ht="21" spans="1:3">
       <c r="A286" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B286" s="15" t="s">
+      <c r="B286" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="C286" s="14"/>
+      <c r="C286" s="13"/>
     </row>
     <row r="287" ht="21" spans="1:3">
       <c r="A287" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B287" s="15" t="s">
+      <c r="B287" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="C287" s="14"/>
+      <c r="C287" s="13"/>
     </row>
     <row r="288" ht="21" spans="1:3">
       <c r="A288" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B288" s="15" t="s">
+      <c r="B288" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="C288" s="14"/>
+      <c r="C288" s="13"/>
     </row>
     <row r="289" ht="21" spans="1:3">
       <c r="A289" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B289" s="15" t="s">
+      <c r="B289" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="C289" s="14"/>
+      <c r="C289" s="13"/>
     </row>
     <row r="290" ht="21" spans="1:3">
       <c r="A290" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B290" s="15" t="s">
+      <c r="B290" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="C290" s="14"/>
+      <c r="C290" s="13"/>
     </row>
     <row r="291" ht="21" spans="1:3">
       <c r="A291" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B291" s="15" t="s">
+      <c r="B291" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="C291" s="14"/>
+      <c r="C291" s="13"/>
     </row>
     <row r="292" ht="21" spans="1:3">
       <c r="A292" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B292" s="15" t="s">
+      <c r="B292" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="C292" s="14"/>
+      <c r="C292" s="13"/>
     </row>
     <row r="293" ht="21" spans="1:3">
       <c r="A293" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B293" s="15" t="s">
+      <c r="B293" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="C293" s="14"/>
+      <c r="C293" s="13"/>
     </row>
     <row r="294" ht="21" spans="2:3">
-      <c r="B294" s="16"/>
-      <c r="C294" s="17"/>
+      <c r="B294" s="15"/>
+      <c r="C294" s="16"/>
     </row>
     <row r="295" ht="21" spans="2:3">
-      <c r="B295" s="16"/>
-      <c r="C295" s="17"/>
+      <c r="B295" s="15"/>
+      <c r="C295" s="16"/>
     </row>
     <row r="296" ht="21" spans="1:3">
       <c r="A296" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B296" s="15" t="s">
+      <c r="B296" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="C296" s="14"/>
+      <c r="C296" s="13"/>
     </row>
     <row r="297" ht="21" spans="1:3">
       <c r="A297" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B297" s="15" t="s">
+      <c r="B297" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="C297" s="14"/>
+      <c r="C297" s="13"/>
     </row>
     <row r="298" ht="21" spans="1:3">
       <c r="A298" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B298" s="15" t="s">
+      <c r="B298" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="C298" s="14"/>
+      <c r="C298" s="13"/>
     </row>
     <row r="299" ht="21" spans="1:3">
       <c r="A299" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B299" s="15" t="s">
+      <c r="B299" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="C299" s="14"/>
+      <c r="C299" s="13"/>
     </row>
     <row r="300" ht="21" spans="1:3">
       <c r="A300" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B300" s="15" t="s">
+      <c r="B300" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="C300" s="14"/>
+      <c r="C300" s="13"/>
     </row>
     <row r="301" ht="21" spans="1:3">
       <c r="A301" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B301" s="15" t="s">
+      <c r="B301" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="C301" s="14"/>
+      <c r="C301" s="13"/>
     </row>
     <row r="302" ht="21" spans="1:3">
       <c r="A302" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B302" s="15" t="s">
+      <c r="B302" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="C302" s="14"/>
+      <c r="C302" s="13"/>
     </row>
     <row r="303" ht="21" spans="1:3">
       <c r="A303" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B303" s="15" t="s">
+      <c r="B303" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="C303" s="14"/>
+      <c r="C303" s="13"/>
     </row>
     <row r="304" ht="21" spans="1:3">
       <c r="A304" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B304" s="15" t="s">
+      <c r="B304" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="C304" s="14"/>
+      <c r="C304" s="13"/>
     </row>
     <row r="305" ht="21" spans="1:3">
       <c r="A305" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B305" s="15" t="s">
+      <c r="B305" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="C305" s="14"/>
+      <c r="C305" s="13"/>
     </row>
     <row r="306" ht="21" spans="1:3">
       <c r="A306" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B306" s="15" t="s">
+      <c r="B306" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="C306" s="14"/>
+      <c r="C306" s="13"/>
     </row>
     <row r="307" ht="21" spans="1:3">
       <c r="A307" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B307" s="15" t="s">
+      <c r="B307" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="C307" s="14"/>
+      <c r="C307" s="13"/>
     </row>
     <row r="308" ht="21" spans="1:3">
       <c r="A308" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B308" s="15" t="s">
+      <c r="B308" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="C308" s="14"/>
+      <c r="C308" s="13"/>
     </row>
     <row r="309" ht="21" spans="1:3">
       <c r="A309" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B309" s="19" t="s">
+      <c r="B309" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="C309" s="14"/>
+      <c r="C309" s="13"/>
     </row>
     <row r="310" ht="21" spans="1:3">
       <c r="A310" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B310" s="15" t="s">
+      <c r="B310" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="C310" s="14"/>
+      <c r="C310" s="13"/>
     </row>
     <row r="311" ht="21" spans="1:3">
       <c r="A311" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B311" s="15" t="s">
+      <c r="B311" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="C311" s="14"/>
+      <c r="C311" s="13"/>
     </row>
     <row r="312" ht="21" spans="1:3">
       <c r="A312" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B312" s="15" t="s">
+      <c r="B312" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="C312" s="14"/>
+      <c r="C312" s="13"/>
     </row>
     <row r="313" ht="21" spans="1:3">
       <c r="A313" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B313" s="15" t="s">
+      <c r="B313" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="C313" s="14"/>
+      <c r="C313" s="13"/>
     </row>
     <row r="314" ht="21" spans="1:3">
       <c r="A314" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B314" s="15" t="s">
+      <c r="B314" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="C314" s="14"/>
+      <c r="C314" s="13"/>
     </row>
     <row r="315" ht="21" spans="1:3">
       <c r="A315" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B315" s="15" t="s">
+      <c r="B315" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="C315" s="14"/>
+      <c r="C315" s="13"/>
     </row>
     <row r="316" ht="21" spans="1:3">
       <c r="A316" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B316" s="15" t="s">
+      <c r="B316" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="C316" s="14"/>
+      <c r="C316" s="13"/>
     </row>
     <row r="317" ht="21" spans="1:3">
       <c r="A317" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B317" s="15" t="s">
+      <c r="B317" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="C317" s="14"/>
+      <c r="C317" s="13"/>
     </row>
     <row r="318" ht="21" spans="1:3">
       <c r="A318" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B318" s="15" t="s">
+      <c r="B318" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="C318" s="14"/>
+      <c r="C318" s="13"/>
     </row>
     <row r="319" ht="21" spans="1:3">
       <c r="A319" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B319" s="15" t="s">
+      <c r="B319" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="C319" s="14"/>
+      <c r="C319" s="13"/>
     </row>
     <row r="320" ht="21" spans="1:3">
       <c r="A320" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B320" s="15" t="s">
+      <c r="B320" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="C320" s="14"/>
+      <c r="C320" s="13"/>
     </row>
     <row r="321" ht="21" spans="1:3">
       <c r="A321" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B321" s="15" t="s">
+      <c r="B321" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="C321" s="14"/>
+      <c r="C321" s="13"/>
     </row>
     <row r="322" ht="21" spans="1:3">
       <c r="A322" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B322" s="15" t="s">
+      <c r="B322" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="C322" s="14"/>
+      <c r="C322" s="13"/>
     </row>
     <row r="323" ht="21" spans="1:3">
       <c r="A323" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B323" s="15" t="s">
+      <c r="B323" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="C323" s="14"/>
+      <c r="C323" s="13"/>
     </row>
     <row r="324" ht="21" spans="1:3">
       <c r="A324" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B324" s="15" t="s">
+      <c r="B324" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="C324" s="14"/>
+      <c r="C324" s="13"/>
     </row>
     <row r="325" ht="21" spans="1:3">
       <c r="A325" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B325" s="15" t="s">
+      <c r="B325" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="C325" s="14"/>
+      <c r="C325" s="13"/>
     </row>
     <row r="326" ht="21" spans="1:3">
       <c r="A326" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B326" s="15" t="s">
+      <c r="B326" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="C326" s="14"/>
+      <c r="C326" s="13"/>
     </row>
     <row r="327" ht="21" spans="1:3">
       <c r="A327" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B327" s="15" t="s">
+      <c r="B327" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="C327" s="14"/>
+      <c r="C327" s="13"/>
     </row>
     <row r="328" ht="21" spans="1:3">
       <c r="A328" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B328" s="15" t="s">
+      <c r="B328" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="C328" s="14"/>
+      <c r="C328" s="13"/>
     </row>
     <row r="329" ht="21" spans="1:3">
       <c r="A329" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B329" s="15" t="s">
+      <c r="B329" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="C329" s="14"/>
+      <c r="C329" s="13"/>
     </row>
     <row r="330" ht="21" spans="1:3">
       <c r="A330" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B330" s="15" t="s">
+      <c r="B330" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="C330" s="14"/>
+      <c r="C330" s="13"/>
     </row>
     <row r="331" ht="21" spans="1:3">
       <c r="A331" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B331" s="15" t="s">
+      <c r="B331" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="C331" s="14"/>
+      <c r="C331" s="13"/>
     </row>
     <row r="332" ht="21" spans="1:3">
       <c r="A332" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B332" s="15" t="s">
+      <c r="B332" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="C332" s="14"/>
+      <c r="C332" s="13"/>
     </row>
     <row r="333" ht="21" spans="1:3">
       <c r="A333" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B333" s="15" t="s">
+      <c r="B333" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="C333" s="14"/>
+      <c r="C333" s="13"/>
     </row>
     <row r="334" ht="21" spans="2:3">
-      <c r="B334" s="16"/>
-      <c r="C334" s="17"/>
+      <c r="B334" s="15"/>
+      <c r="C334" s="16"/>
     </row>
     <row r="335" ht="21" spans="2:3">
-      <c r="B335" s="16"/>
-      <c r="C335" s="17"/>
+      <c r="B335" s="15"/>
+      <c r="C335" s="16"/>
     </row>
     <row r="336" ht="21" spans="1:3">
-      <c r="A336" s="18" t="s">
+      <c r="A336" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="B336" s="15" t="s">
+      <c r="B336" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="C336" s="14"/>
+      <c r="C336" s="13"/>
     </row>
     <row r="337" ht="21" spans="1:3">
-      <c r="A337" s="18" t="s">
+      <c r="A337" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="B337" s="15" t="s">
+      <c r="B337" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="C337" s="14"/>
+      <c r="C337" s="13"/>
     </row>
     <row r="338" ht="21" spans="1:3">
-      <c r="A338" s="18" t="s">
+      <c r="A338" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="B338" s="15" t="s">
+      <c r="B338" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="C338" s="14"/>
+      <c r="C338" s="13"/>
     </row>
     <row r="339" ht="21" spans="1:3">
-      <c r="A339" s="18" t="s">
+      <c r="A339" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="B339" s="15" t="s">
+      <c r="B339" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="C339" s="14"/>
+      <c r="C339" s="13"/>
     </row>
     <row r="340" ht="21" spans="1:3">
-      <c r="A340" s="18" t="s">
+      <c r="A340" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="B340" s="15" t="s">
+      <c r="B340" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="C340" s="14"/>
+      <c r="C340" s="13"/>
     </row>
     <row r="341" ht="21" spans="1:3">
-      <c r="A341" s="18" t="s">
+      <c r="A341" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="B341" s="15" t="s">
+      <c r="B341" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="C341" s="14"/>
+      <c r="C341" s="13"/>
     </row>
     <row r="342" ht="21" spans="1:3">
-      <c r="A342" s="18" t="s">
+      <c r="A342" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="B342" s="15" t="s">
+      <c r="B342" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="C342" s="14"/>
+      <c r="C342" s="13"/>
     </row>
     <row r="343" ht="21" spans="1:3">
-      <c r="A343" s="18" t="s">
+      <c r="A343" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="B343" s="15" t="s">
+      <c r="B343" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="C343" s="14"/>
+      <c r="C343" s="13"/>
     </row>
     <row r="344" ht="21" spans="1:3">
-      <c r="A344" s="18" t="s">
+      <c r="A344" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="B344" s="19" t="s">
+      <c r="B344" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="C344" s="14"/>
+      <c r="C344" s="13"/>
     </row>
     <row r="345" ht="21" spans="1:3">
-      <c r="A345" s="18" t="s">
+      <c r="A345" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="B345" s="15" t="s">
+      <c r="B345" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="C345" s="14"/>
+      <c r="C345" s="13"/>
     </row>
     <row r="346" ht="21" spans="1:3">
-      <c r="A346" s="18" t="s">
+      <c r="A346" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="B346" s="15" t="s">
+      <c r="B346" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="C346" s="14"/>
+      <c r="C346" s="13"/>
     </row>
     <row r="347" ht="21" spans="1:3">
-      <c r="A347" s="18" t="s">
+      <c r="A347" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="B347" s="15" t="s">
+      <c r="B347" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="C347" s="14"/>
+      <c r="C347" s="13"/>
     </row>
     <row r="348" ht="21" spans="1:3">
-      <c r="A348" s="18" t="s">
+      <c r="A348" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="B348" s="15" t="s">
+      <c r="B348" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="C348" s="14"/>
+      <c r="C348" s="13"/>
     </row>
     <row r="349" ht="21" spans="1:3">
-      <c r="A349" s="18" t="s">
+      <c r="A349" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="B349" s="15" t="s">
+      <c r="B349" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="C349" s="14"/>
+      <c r="C349" s="13"/>
     </row>
     <row r="350" ht="21" spans="1:3">
-      <c r="A350" s="18" t="s">
+      <c r="A350" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="B350" s="15" t="s">
+      <c r="B350" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="C350" s="14"/>
+      <c r="C350" s="13"/>
     </row>
     <row r="351" ht="21" spans="1:3">
-      <c r="A351" s="18" t="s">
+      <c r="A351" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="B351" s="15" t="s">
+      <c r="B351" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="C351" s="14"/>
+      <c r="C351" s="13"/>
     </row>
     <row r="352" ht="21" spans="1:3">
-      <c r="A352" s="18" t="s">
+      <c r="A352" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="B352" s="15" t="s">
+      <c r="B352" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="C352" s="14"/>
+      <c r="C352" s="13"/>
     </row>
     <row r="353" ht="21" spans="1:3">
-      <c r="A353" s="18" t="s">
+      <c r="A353" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="B353" s="15" t="s">
+      <c r="B353" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="C353" s="14"/>
+      <c r="C353" s="13"/>
     </row>
     <row r="354" ht="21" spans="2:3">
-      <c r="B354" s="16"/>
-      <c r="C354" s="17"/>
+      <c r="B354" s="15"/>
+      <c r="C354" s="16"/>
     </row>
     <row r="355" ht="21" spans="2:3">
-      <c r="B355" s="16"/>
-      <c r="C355" s="17"/>
+      <c r="B355" s="15"/>
+      <c r="C355" s="16"/>
     </row>
     <row r="356" ht="21" spans="1:3">
-      <c r="A356" s="18" t="s">
+      <c r="A356" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B356" s="15" t="s">
+      <c r="B356" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="C356" s="14"/>
+      <c r="C356" s="13"/>
     </row>
     <row r="357" ht="21" spans="1:3">
-      <c r="A357" s="18" t="s">
+      <c r="A357" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B357" s="15" t="s">
+      <c r="B357" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="C357" s="14"/>
+      <c r="C357" s="13"/>
     </row>
     <row r="358" ht="21" spans="1:3">
-      <c r="A358" s="18" t="s">
+      <c r="A358" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B358" s="15" t="s">
+      <c r="B358" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="C358" s="14"/>
+      <c r="C358" s="13"/>
     </row>
     <row r="359" ht="21" spans="1:3">
-      <c r="A359" s="18" t="s">
+      <c r="A359" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B359" s="15" t="s">
+      <c r="B359" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="C359" s="14"/>
+      <c r="C359" s="13"/>
     </row>
     <row r="360" ht="21" spans="1:3">
-      <c r="A360" s="18" t="s">
+      <c r="A360" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B360" s="15" t="s">
+      <c r="B360" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="C360" s="14"/>
+      <c r="C360" s="13"/>
     </row>
     <row r="361" ht="21" spans="1:3">
-      <c r="A361" s="18" t="s">
+      <c r="A361" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B361" s="15" t="s">
+      <c r="B361" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="C361" s="14"/>
+      <c r="C361" s="13"/>
     </row>
     <row r="362" ht="21" spans="1:3">
-      <c r="A362" s="18" t="s">
+      <c r="A362" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B362" s="15" t="s">
+      <c r="B362" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="C362" s="14"/>
+      <c r="C362" s="13"/>
     </row>
     <row r="363" ht="21" spans="1:3">
-      <c r="A363" s="18" t="s">
+      <c r="A363" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B363" s="15" t="s">
+      <c r="B363" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="C363" s="14"/>
+      <c r="C363" s="13"/>
     </row>
     <row r="364" ht="21" spans="1:3">
-      <c r="A364" s="18" t="s">
+      <c r="A364" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B364" s="15" t="s">
+      <c r="B364" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="C364" s="14"/>
+      <c r="C364" s="13"/>
     </row>
     <row r="365" ht="21" spans="1:3">
-      <c r="A365" s="18" t="s">
+      <c r="A365" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B365" s="15" t="s">
+      <c r="B365" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="C365" s="14"/>
+      <c r="C365" s="13"/>
     </row>
     <row r="366" ht="21" spans="1:3">
-      <c r="A366" s="18" t="s">
+      <c r="A366" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B366" s="15" t="s">
+      <c r="B366" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="C366" s="14"/>
+      <c r="C366" s="13"/>
     </row>
     <row r="367" ht="21" spans="1:3">
-      <c r="A367" s="18" t="s">
+      <c r="A367" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B367" s="15" t="s">
+      <c r="B367" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="C367" s="14"/>
+      <c r="C367" s="13"/>
     </row>
     <row r="368" ht="21" spans="1:3">
-      <c r="A368" s="18" t="s">
+      <c r="A368" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B368" s="15" t="s">
+      <c r="B368" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="C368" s="14"/>
+      <c r="C368" s="13"/>
     </row>
     <row r="369" ht="21" spans="1:3">
-      <c r="A369" s="18" t="s">
+      <c r="A369" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B369" s="15" t="s">
+      <c r="B369" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="C369" s="14"/>
+      <c r="C369" s="13"/>
     </row>
     <row r="370" ht="21" spans="1:3">
-      <c r="A370" s="18" t="s">
+      <c r="A370" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B370" s="15" t="s">
+      <c r="B370" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="C370" s="14"/>
+      <c r="C370" s="13"/>
     </row>
     <row r="371" ht="21" spans="1:3">
-      <c r="A371" s="18" t="s">
+      <c r="A371" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B371" s="15" t="s">
+      <c r="B371" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="C371" s="14"/>
+      <c r="C371" s="13"/>
     </row>
     <row r="372" ht="21" spans="1:3">
-      <c r="A372" s="18" t="s">
+      <c r="A372" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B372" s="15" t="s">
+      <c r="B372" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="C372" s="14"/>
+      <c r="C372" s="13"/>
     </row>
     <row r="373" ht="21" spans="1:3">
-      <c r="A373" s="18" t="s">
+      <c r="A373" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B373" s="15" t="s">
+      <c r="B373" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="C373" s="14"/>
+      <c r="C373" s="13"/>
     </row>
     <row r="374" ht="21" spans="1:3">
-      <c r="A374" s="18" t="s">
+      <c r="A374" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B374" s="15" t="s">
+      <c r="B374" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="C374" s="14"/>
+      <c r="C374" s="13"/>
     </row>
     <row r="375" ht="21" spans="1:3">
-      <c r="A375" s="18" t="s">
+      <c r="A375" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B375" s="15" t="s">
+      <c r="B375" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="C375" s="14"/>
+      <c r="C375" s="13"/>
     </row>
     <row r="376" ht="21" spans="1:3">
-      <c r="A376" s="18" t="s">
+      <c r="A376" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B376" s="15" t="s">
+      <c r="B376" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="C376" s="14"/>
+      <c r="C376" s="13"/>
     </row>
     <row r="377" ht="21" spans="1:3">
-      <c r="A377" s="18" t="s">
+      <c r="A377" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B377" s="15" t="s">
+      <c r="B377" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="C377" s="14"/>
+      <c r="C377" s="13"/>
     </row>
     <row r="378" ht="21" spans="1:3">
-      <c r="A378" s="18" t="s">
+      <c r="A378" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B378" s="15" t="s">
+      <c r="B378" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="C378" s="14"/>
+      <c r="C378" s="13"/>
     </row>
     <row r="379" ht="21" spans="1:3">
-      <c r="A379" s="18" t="s">
+      <c r="A379" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B379" s="15" t="s">
+      <c r="B379" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="C379" s="14"/>
+      <c r="C379" s="13"/>
     </row>
     <row r="380" ht="21" spans="1:3">
-      <c r="A380" s="18" t="s">
+      <c r="A380" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B380" s="15" t="s">
+      <c r="B380" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="C380" s="14"/>
+      <c r="C380" s="13"/>
     </row>
     <row r="381" ht="21" spans="1:3">
-      <c r="A381" s="18" t="s">
+      <c r="A381" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B381" s="15" t="s">
+      <c r="B381" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="C381" s="14"/>
+      <c r="C381" s="13"/>
     </row>
     <row r="382" ht="21" spans="1:3">
-      <c r="A382" s="18" t="s">
+      <c r="A382" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B382" s="15" t="s">
+      <c r="B382" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="C382" s="14"/>
+      <c r="C382" s="13"/>
     </row>
     <row r="383" ht="21" spans="1:3">
-      <c r="A383" s="18" t="s">
+      <c r="A383" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B383" s="15" t="s">
+      <c r="B383" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="C383" s="14"/>
+      <c r="C383" s="13"/>
     </row>
     <row r="384" ht="21" spans="1:3">
-      <c r="A384" s="18" t="s">
+      <c r="A384" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B384" s="15" t="s">
+      <c r="B384" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="C384" s="14"/>
+      <c r="C384" s="13"/>
     </row>
     <row r="385" ht="21" spans="1:3">
-      <c r="A385" s="18" t="s">
+      <c r="A385" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B385" s="15" t="s">
+      <c r="B385" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="C385" s="14"/>
+      <c r="C385" s="13"/>
     </row>
     <row r="386" ht="21" spans="1:3">
-      <c r="A386" s="18" t="s">
+      <c r="A386" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B386" s="15" t="s">
+      <c r="B386" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="C386" s="14"/>
+      <c r="C386" s="13"/>
     </row>
     <row r="387" ht="21" spans="1:3">
-      <c r="A387" s="18" t="s">
+      <c r="A387" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B387" s="15" t="s">
+      <c r="B387" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="C387" s="14"/>
+      <c r="C387" s="13"/>
     </row>
     <row r="388" ht="21" spans="1:3">
-      <c r="A388" s="18" t="s">
+      <c r="A388" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B388" s="15" t="s">
+      <c r="B388" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="C388" s="14"/>
+      <c r="C388" s="13"/>
     </row>
     <row r="389" ht="21" spans="1:3">
-      <c r="A389" s="18" t="s">
+      <c r="A389" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B389" s="15" t="s">
+      <c r="B389" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="C389" s="14"/>
+      <c r="C389" s="13"/>
     </row>
     <row r="390" ht="21" spans="1:3">
-      <c r="A390" s="18" t="s">
+      <c r="A390" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B390" s="15" t="s">
+      <c r="B390" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="C390" s="14"/>
+      <c r="C390" s="13"/>
     </row>
     <row r="391" ht="21" spans="1:3">
-      <c r="A391" s="18" t="s">
+      <c r="A391" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B391" s="15" t="s">
+      <c r="B391" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="C391" s="14"/>
+      <c r="C391" s="13"/>
     </row>
     <row r="392" ht="21" spans="1:3">
-      <c r="A392" s="18" t="s">
+      <c r="A392" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B392" s="15" t="s">
+      <c r="B392" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="C392" s="14"/>
+      <c r="C392" s="13"/>
     </row>
     <row r="393" ht="21" spans="1:3">
-      <c r="A393" s="18" t="s">
+      <c r="A393" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B393" s="15" t="s">
+      <c r="B393" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="C393" s="14"/>
+      <c r="C393" s="13"/>
     </row>
     <row r="394" ht="21" spans="1:3">
-      <c r="A394" s="18" t="s">
+      <c r="A394" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B394" s="15" t="s">
+      <c r="B394" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="C394" s="14"/>
+      <c r="C394" s="13"/>
     </row>
     <row r="395" ht="21" spans="1:3">
-      <c r="A395" s="18" t="s">
+      <c r="A395" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B395" s="15" t="s">
+      <c r="B395" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="C395" s="14"/>
+      <c r="C395" s="13"/>
     </row>
     <row r="396" ht="21" spans="1:3">
-      <c r="A396" s="18" t="s">
+      <c r="A396" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B396" s="15" t="s">
+      <c r="B396" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="C396" s="14"/>
+      <c r="C396" s="13"/>
     </row>
     <row r="397" ht="21" spans="1:3">
-      <c r="A397" s="18" t="s">
+      <c r="A397" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B397" s="15" t="s">
+      <c r="B397" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="C397" s="14"/>
+      <c r="C397" s="13"/>
     </row>
     <row r="398" ht="21" spans="1:3">
-      <c r="A398" s="18" t="s">
+      <c r="A398" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B398" s="15" t="s">
+      <c r="B398" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="C398" s="14"/>
+      <c r="C398" s="13"/>
     </row>
     <row r="399" ht="21" spans="1:3">
-      <c r="A399" s="18" t="s">
+      <c r="A399" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B399" s="15" t="s">
+      <c r="B399" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="C399" s="14"/>
+      <c r="C399" s="13"/>
     </row>
     <row r="400" ht="21" spans="2:3">
-      <c r="B400" s="16"/>
-      <c r="C400" s="17"/>
+      <c r="B400" s="15"/>
+      <c r="C400" s="16"/>
     </row>
     <row r="401" ht="21" spans="2:3">
-      <c r="B401" s="16"/>
-      <c r="C401" s="17"/>
+      <c r="B401" s="15"/>
+      <c r="C401" s="16"/>
     </row>
     <row r="402" ht="21" spans="1:3">
-      <c r="A402" s="18" t="s">
+      <c r="A402" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="B402" s="15" t="s">
+      <c r="B402" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="C402" s="14"/>
+      <c r="C402" s="13"/>
     </row>
     <row r="403" ht="21" spans="1:3">
-      <c r="A403" s="18" t="s">
+      <c r="A403" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="B403" s="15" t="s">
+      <c r="B403" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="C403" s="14"/>
+      <c r="C403" s="13"/>
     </row>
     <row r="404" ht="21" spans="1:3">
-      <c r="A404" s="18" t="s">
+      <c r="A404" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="B404" s="15" t="s">
+      <c r="B404" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="C404" s="14"/>
+      <c r="C404" s="13"/>
     </row>
     <row r="405" ht="21" spans="1:3">
-      <c r="A405" s="18" t="s">
+      <c r="A405" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="B405" s="15" t="s">
+      <c r="B405" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C405" s="14"/>
+      <c r="C405" s="13"/>
     </row>
     <row r="406" ht="21" spans="1:3">
-      <c r="A406" s="18" t="s">
+      <c r="A406" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="B406" s="15" t="s">
+      <c r="B406" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="C406" s="14"/>
+      <c r="C406" s="13"/>
     </row>
     <row r="407" ht="21" spans="1:3">
-      <c r="A407" s="18" t="s">
+      <c r="A407" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="B407" s="15" t="s">
+      <c r="B407" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="C407" s="14"/>
+      <c r="C407" s="13"/>
     </row>
     <row r="408" ht="21" spans="2:3">
-      <c r="B408" s="16"/>
-      <c r="C408" s="17"/>
+      <c r="B408" s="15"/>
+      <c r="C408" s="16"/>
     </row>
     <row r="409" ht="21" spans="2:3">
-      <c r="B409" s="16"/>
-      <c r="C409" s="17"/>
+      <c r="B409" s="15"/>
+      <c r="C409" s="16"/>
     </row>
     <row r="410" ht="21" spans="1:3">
       <c r="A410" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B410" s="15" t="s">
+      <c r="B410" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="C410" s="14"/>
+      <c r="C410" s="13"/>
     </row>
     <row r="411" ht="21" spans="1:3">
       <c r="A411" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B411" s="15" t="s">
+      <c r="B411" s="14" t="s">
         <v>396</v>
       </c>
-      <c r="C411" s="14"/>
+      <c r="C411" s="13"/>
     </row>
     <row r="412" ht="21" spans="1:3">
       <c r="A412" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B412" s="15" t="s">
+      <c r="B412" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="C412" s="14"/>
+      <c r="C412" s="13"/>
     </row>
     <row r="413" ht="21" spans="1:3">
       <c r="A413" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B413" s="15" t="s">
+      <c r="B413" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="C413" s="14"/>
+      <c r="C413" s="13"/>
     </row>
     <row r="414" ht="21" spans="1:3">
       <c r="A414" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B414" s="15" t="s">
+      <c r="B414" s="14" t="s">
         <v>399</v>
       </c>
-      <c r="C414" s="14"/>
+      <c r="C414" s="13"/>
     </row>
     <row r="415" ht="21" spans="1:3">
       <c r="A415" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B415" s="15" t="s">
+      <c r="B415" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="C415" s="14"/>
+      <c r="C415" s="13"/>
     </row>
     <row r="416" ht="21" spans="1:3">
       <c r="A416" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B416" s="15" t="s">
+      <c r="B416" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="C416" s="14"/>
+      <c r="C416" s="13"/>
     </row>
     <row r="417" ht="21" spans="1:3">
       <c r="A417" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B417" s="15" t="s">
+      <c r="B417" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="C417" s="14"/>
+      <c r="C417" s="13"/>
     </row>
     <row r="418" ht="21" spans="1:3">
       <c r="A418" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B418" s="15" t="s">
+      <c r="B418" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="C418" s="14"/>
+      <c r="C418" s="13"/>
     </row>
     <row r="419" ht="21" spans="1:3">
       <c r="A419" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B419" s="15" t="s">
+      <c r="B419" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="C419" s="14"/>
+      <c r="C419" s="13"/>
     </row>
     <row r="420" ht="21" spans="1:3">
       <c r="A420" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B420" s="15" t="s">
+      <c r="B420" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="C420" s="14"/>
+      <c r="C420" s="13"/>
     </row>
     <row r="421" ht="21" spans="1:3">
       <c r="A421" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B421" s="15" t="s">
+      <c r="B421" s="14" t="s">
         <v>405</v>
       </c>
-      <c r="C421" s="14"/>
+      <c r="C421" s="13"/>
     </row>
     <row r="422" ht="21" spans="1:3">
       <c r="A422" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B422" s="15" t="s">
+      <c r="B422" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="C422" s="14"/>
+      <c r="C422" s="13"/>
     </row>
     <row r="423" ht="21" spans="1:3">
       <c r="A423" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B423" s="15" t="s">
+      <c r="B423" s="14" t="s">
         <v>407</v>
       </c>
-      <c r="C423" s="14"/>
+      <c r="C423" s="13"/>
     </row>
     <row r="424" ht="21" spans="1:3">
       <c r="A424" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B424" s="15" t="s">
+      <c r="B424" s="14" t="s">
         <v>408</v>
       </c>
-      <c r="C424" s="14"/>
+      <c r="C424" s="13"/>
     </row>
     <row r="425" ht="21" spans="1:3">
       <c r="A425" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B425" s="15" t="s">
+      <c r="B425" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="C425" s="14"/>
+      <c r="C425" s="13"/>
     </row>
     <row r="426" ht="21" spans="1:3">
       <c r="A426" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B426" s="15" t="s">
+      <c r="B426" s="14" t="s">
         <v>410</v>
       </c>
-      <c r="C426" s="14"/>
+      <c r="C426" s="13"/>
     </row>
     <row r="427" ht="21" spans="1:3">
       <c r="A427" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B427" s="15" t="s">
+      <c r="B427" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="C427" s="14"/>
+      <c r="C427" s="13"/>
     </row>
     <row r="428" ht="21" spans="1:3">
       <c r="A428" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B428" s="15" t="s">
+      <c r="B428" s="14" t="s">
         <v>412</v>
       </c>
-      <c r="C428" s="14"/>
+      <c r="C428" s="13"/>
     </row>
     <row r="429" ht="21" spans="1:3">
       <c r="A429" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B429" s="15" t="s">
+      <c r="B429" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="C429" s="14"/>
+      <c r="C429" s="13"/>
     </row>
     <row r="430" ht="21" spans="1:3">
       <c r="A430" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B430" s="15" t="s">
+      <c r="B430" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="C430" s="14"/>
+      <c r="C430" s="13"/>
     </row>
     <row r="431" ht="21" spans="1:3">
       <c r="A431" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B431" s="15" t="s">
+      <c r="B431" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="C431" s="14"/>
+      <c r="C431" s="13"/>
     </row>
     <row r="432" ht="21" spans="1:3">
       <c r="A432" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B432" s="15" t="s">
+      <c r="B432" s="14" t="s">
         <v>416</v>
       </c>
-      <c r="C432" s="14"/>
+      <c r="C432" s="13"/>
     </row>
     <row r="433" ht="21" spans="1:3">
       <c r="A433" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B433" s="15" t="s">
+      <c r="B433" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="C433" s="14"/>
+      <c r="C433" s="13"/>
     </row>
     <row r="434" ht="21" spans="1:3">
       <c r="A434" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B434" s="15" t="s">
+      <c r="B434" s="14" t="s">
         <v>418</v>
       </c>
-      <c r="C434" s="14"/>
+      <c r="C434" s="13"/>
     </row>
     <row r="435" ht="21" spans="1:3">
       <c r="A435" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B435" s="15" t="s">
+      <c r="B435" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="C435" s="14"/>
+      <c r="C435" s="13"/>
     </row>
     <row r="436" ht="21" spans="1:3">
       <c r="A436" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B436" s="15" t="s">
+      <c r="B436" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="C436" s="14"/>
+      <c r="C436" s="13"/>
     </row>
     <row r="437" ht="21" spans="1:3">
       <c r="A437" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B437" s="15" t="s">
+      <c r="B437" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="C437" s="14"/>
+      <c r="C437" s="13"/>
     </row>
     <row r="438" ht="21" spans="1:3">
       <c r="A438" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B438" s="15" t="s">
+      <c r="B438" s="14" t="s">
         <v>422</v>
       </c>
-      <c r="C438" s="14"/>
+      <c r="C438" s="13"/>
     </row>
     <row r="439" ht="21" spans="1:3">
       <c r="A439" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B439" s="15" t="s">
+      <c r="B439" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="C439" s="14"/>
+      <c r="C439" s="13"/>
     </row>
     <row r="440" ht="21" spans="1:3">
       <c r="A440" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B440" s="15" t="s">
+      <c r="B440" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="C440" s="14"/>
+      <c r="C440" s="13"/>
     </row>
     <row r="441" ht="21" spans="1:3">
       <c r="A441" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B441" s="15" t="s">
+      <c r="B441" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="C441" s="14"/>
+      <c r="C441" s="13"/>
     </row>
     <row r="442" ht="21" spans="1:3">
       <c r="A442" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B442" s="15" t="s">
+      <c r="B442" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="C442" s="14"/>
+      <c r="C442" s="13"/>
     </row>
     <row r="443" ht="21" spans="1:3">
       <c r="A443" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B443" s="15" t="s">
+      <c r="B443" s="14" t="s">
         <v>427</v>
       </c>
-      <c r="C443" s="14"/>
+      <c r="C443" s="13"/>
     </row>
     <row r="444" ht="21" spans="1:3">
       <c r="A444" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B444" s="15" t="s">
+      <c r="B444" s="14" t="s">
         <v>428</v>
       </c>
-      <c r="C444" s="14"/>
+      <c r="C444" s="13"/>
     </row>
     <row r="445" ht="21" spans="1:3">
       <c r="A445" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B445" s="15" t="s">
+      <c r="B445" s="14" t="s">
         <v>429</v>
       </c>
-      <c r="C445" s="14"/>
+      <c r="C445" s="13"/>
     </row>
     <row r="446" ht="21" spans="1:3">
       <c r="A446" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B446" s="15" t="s">
+      <c r="B446" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="C446" s="14"/>
+      <c r="C446" s="13"/>
     </row>
     <row r="447" ht="21" spans="1:3">
       <c r="A447" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B447" s="15" t="s">
+      <c r="B447" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="C447" s="14"/>
+      <c r="C447" s="13"/>
     </row>
     <row r="448" ht="21" spans="1:3">
       <c r="A448" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B448" s="15" t="s">
+      <c r="B448" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="C448" s="14"/>
+      <c r="C448" s="13"/>
     </row>
     <row r="449" ht="21" spans="1:3">
       <c r="A449" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B449" s="15" t="s">
+      <c r="B449" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="C449" s="14"/>
+      <c r="C449" s="13"/>
     </row>
     <row r="450" ht="21" spans="1:3">
       <c r="A450" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B450" s="15" t="s">
+      <c r="B450" s="14" t="s">
         <v>434</v>
       </c>
-      <c r="C450" s="14"/>
+      <c r="C450" s="13"/>
     </row>
     <row r="451" ht="21" spans="1:3">
       <c r="A451" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B451" s="15" t="s">
+      <c r="B451" s="14" t="s">
         <v>435</v>
       </c>
-      <c r="C451" s="14"/>
+      <c r="C451" s="13"/>
     </row>
     <row r="452" ht="21" spans="1:3">
       <c r="A452" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B452" s="15" t="s">
+      <c r="B452" s="14" t="s">
         <v>436</v>
       </c>
-      <c r="C452" s="14"/>
+      <c r="C452" s="13"/>
     </row>
     <row r="453" ht="21" spans="1:3">
       <c r="A453" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B453" s="15" t="s">
+      <c r="B453" s="14" t="s">
         <v>437</v>
       </c>
-      <c r="C453" s="14"/>
+      <c r="C453" s="13"/>
     </row>
     <row r="454" ht="21" spans="1:3">
       <c r="A454" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B454" s="15" t="s">
+      <c r="B454" s="14" t="s">
         <v>438</v>
       </c>
-      <c r="C454" s="14"/>
+      <c r="C454" s="13"/>
     </row>
     <row r="455" ht="21" spans="1:3">
       <c r="A455" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B455" s="15" t="s">
+      <c r="B455" s="14" t="s">
         <v>439</v>
       </c>
-      <c r="C455" s="14"/>
+      <c r="C455" s="13"/>
     </row>
     <row r="456" ht="21" spans="1:3">
       <c r="A456" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B456" s="15" t="s">
+      <c r="B456" s="14" t="s">
         <v>440</v>
       </c>
-      <c r="C456" s="14"/>
+      <c r="C456" s="13"/>
     </row>
     <row r="457" ht="21" spans="1:3">
       <c r="A457" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B457" s="15" t="s">
+      <c r="B457" s="14" t="s">
         <v>441</v>
       </c>
-      <c r="C457" s="14"/>
+      <c r="C457" s="13"/>
     </row>
     <row r="458" ht="21" spans="1:3">
       <c r="A458" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B458" s="15" t="s">
+      <c r="B458" s="14" t="s">
         <v>442</v>
       </c>
-      <c r="C458" s="14"/>
+      <c r="C458" s="13"/>
     </row>
     <row r="459" ht="21" spans="1:3">
       <c r="A459" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B459" s="15" t="s">
+      <c r="B459" s="14" t="s">
         <v>443</v>
       </c>
-      <c r="C459" s="14"/>
+      <c r="C459" s="13"/>
     </row>
     <row r="460" ht="21" spans="1:3">
       <c r="A460" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B460" s="15" t="s">
+      <c r="B460" s="14" t="s">
         <v>444</v>
       </c>
-      <c r="C460" s="14"/>
+      <c r="C460" s="13"/>
     </row>
     <row r="461" ht="21" spans="1:3">
       <c r="A461" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B461" s="15" t="s">
+      <c r="B461" s="14" t="s">
         <v>445</v>
       </c>
-      <c r="C461" s="14"/>
+      <c r="C461" s="13"/>
     </row>
     <row r="462" ht="21" spans="1:3">
       <c r="A462" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B462" s="15" t="s">
+      <c r="B462" s="14" t="s">
         <v>446</v>
       </c>
-      <c r="C462" s="14"/>
+      <c r="C462" s="13"/>
     </row>
     <row r="463" ht="21" spans="1:3">
       <c r="A463" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B463" s="15" t="s">
+      <c r="B463" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="C463" s="14"/>
+      <c r="C463" s="13"/>
     </row>
     <row r="464" ht="21" spans="1:3">
       <c r="A464" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B464" s="15" t="s">
+      <c r="B464" s="14" t="s">
         <v>448</v>
       </c>
-      <c r="C464" s="14"/>
+      <c r="C464" s="13"/>
     </row>
     <row r="465" ht="21" spans="1:3">
       <c r="A465" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B465" s="15" t="s">
+      <c r="B465" s="14" t="s">
         <v>449</v>
       </c>
-      <c r="C465" s="14"/>
+      <c r="C465" s="13"/>
     </row>
     <row r="466" ht="21" spans="1:3">
       <c r="A466" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B466" s="15" t="s">
+      <c r="B466" s="14" t="s">
         <v>450</v>
       </c>
-      <c r="C466" s="14"/>
+      <c r="C466" s="13"/>
     </row>
     <row r="467" ht="21" spans="1:3">
       <c r="A467" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B467" s="15" t="s">
+      <c r="B467" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="C467" s="14"/>
+      <c r="C467" s="13"/>
     </row>
     <row r="468" ht="21" spans="1:3">
       <c r="A468" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B468" s="15" t="s">
+      <c r="B468" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="C468" s="14"/>
+      <c r="C468" s="13"/>
     </row>
     <row r="469" ht="21" spans="1:3">
       <c r="A469" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B469" s="15" t="s">
+      <c r="B469" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="C469" s="14"/>
+      <c r="C469" s="13"/>
     </row>
     <row r="470" ht="21" spans="2:3">
-      <c r="B470" s="16"/>
-      <c r="C470" s="17"/>
+      <c r="B470" s="15"/>
+      <c r="C470" s="16"/>
     </row>
     <row r="471" ht="21" spans="1:3">
-      <c r="A471" s="18"/>
-      <c r="B471" s="16"/>
-      <c r="C471" s="17"/>
+      <c r="A471" s="17"/>
+      <c r="B471" s="15"/>
+      <c r="C471" s="16"/>
     </row>
     <row r="472" ht="21" spans="1:3">
       <c r="A472" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="B472" s="15" t="s">
+      <c r="B472" s="14" t="s">
         <v>455</v>
       </c>
-      <c r="C472" s="14"/>
+      <c r="C472" s="13"/>
     </row>
     <row r="473" ht="21" spans="1:3">
       <c r="A473" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="B473" s="15" t="s">
+      <c r="B473" s="14" t="s">
         <v>456</v>
       </c>
-      <c r="C473" s="14"/>
+      <c r="C473" s="13"/>
     </row>
     <row r="474" ht="21" spans="1:3">
       <c r="A474" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="B474" s="15" t="s">
+      <c r="B474" s="14" t="s">
         <v>457</v>
       </c>
-      <c r="C474" s="14"/>
+      <c r="C474" s="13"/>
     </row>
     <row r="475" ht="21" spans="1:3">
       <c r="A475" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="B475" s="15" t="s">
+      <c r="B475" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="C475" s="14"/>
+      <c r="C475" s="13"/>
     </row>
     <row r="476" ht="21" spans="1:3">
       <c r="A476" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="B476" s="15" t="s">
+      <c r="B476" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="C476" s="14"/>
+      <c r="C476" s="13"/>
     </row>
     <row r="477" ht="21" spans="1:3">
       <c r="A477" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="B477" s="15" t="s">
+      <c r="B477" s="14" t="s">
         <v>460</v>
       </c>
-      <c r="C477" s="14"/>
+      <c r="C477" s="13"/>
     </row>
     <row r="478" ht="21" spans="1:3">
       <c r="A478" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="B478" s="15" t="s">
+      <c r="B478" s="14" t="s">
         <v>461</v>
       </c>
-      <c r="C478" s="14"/>
+      <c r="C478" s="13"/>
     </row>
     <row r="479" ht="21" spans="1:3">
       <c r="A479" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="B479" s="15" t="s">
+      <c r="B479" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="C479" s="14"/>
+      <c r="C479" s="13"/>
     </row>
     <row r="480" ht="21" spans="1:3">
       <c r="A480" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="B480" s="15" t="s">
+      <c r="B480" s="14" t="s">
         <v>463</v>
       </c>
-      <c r="C480" s="14"/>
+      <c r="C480" s="13"/>
     </row>
     <row r="481" ht="21" spans="1:3">
       <c r="A481" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="B481" s="15" t="s">
+      <c r="B481" s="14" t="s">
         <v>464</v>
       </c>
-      <c r="C481" s="14"/>
+      <c r="C481" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="465">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1475,9 +1475,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
@@ -1544,17 +1544,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="16"/>
-      <color theme="10"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1568,8 +1568,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1583,14 +1614,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1604,9 +1628,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1627,9 +1650,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1637,14 +1659,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1657,14 +1680,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1672,32 +1687,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1748,13 +1748,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1772,31 +1784,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1808,7 +1844,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1826,7 +1862,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1838,91 +1922,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1988,15 +1988,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2008,6 +1999,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2026,183 +2061,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2235,18 +2235,18 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="48" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="48" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2570,8 +2570,8 @@
   <sheetPr/>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -2758,7 +2758,7 @@
       <c r="B21" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2854,16 +2854,18 @@
       <c r="B31" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="12" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="32" ht="21" spans="1:3">
       <c r="A32" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="13"/>
+      <c r="C32" s="12"/>
     </row>
     <row r="33" ht="21" spans="1:3">
       <c r="A33" s="8" t="s">
@@ -2878,19 +2880,19 @@
       <c r="A34" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="13"/>
+      <c r="C34" s="12"/>
     </row>
     <row r="35" ht="21" spans="1:3">
       <c r="A35" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="13"/>
+      <c r="C35" s="12"/>
     </row>
     <row r="36" ht="21" spans="1:3">
       <c r="A36" s="8" t="s">
@@ -2905,1589 +2907,1597 @@
       <c r="A37" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="13"/>
+      <c r="C37" s="12"/>
     </row>
     <row r="38" ht="21" spans="1:3">
       <c r="A38" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="13"/>
+      <c r="C38" s="12" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="39" ht="21" spans="1:3">
       <c r="A39" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="13"/>
+      <c r="C39" s="12" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="40" ht="21" spans="1:3">
       <c r="A40" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="13"/>
+      <c r="C40" s="12" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="41" ht="21" spans="1:3">
       <c r="A41" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="13"/>
+      <c r="C41" s="12" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="42" ht="21" spans="2:3">
-      <c r="B42" s="15"/>
-      <c r="C42" s="16"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
     </row>
     <row r="43" ht="21" spans="1:3">
       <c r="A43" s="8"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="16"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
     </row>
     <row r="44" ht="21" spans="1:3">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="13"/>
+      <c r="C44" s="17"/>
     </row>
     <row r="45" ht="21" spans="1:3">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="13"/>
+      <c r="C45" s="17"/>
     </row>
     <row r="46" ht="21" spans="1:3">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="13"/>
+      <c r="C46" s="17"/>
     </row>
     <row r="47" ht="21" spans="1:3">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="13"/>
+      <c r="C47" s="17"/>
     </row>
     <row r="48" ht="21" spans="1:3">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="13"/>
+      <c r="C48" s="17"/>
     </row>
     <row r="49" ht="21" spans="1:3">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="13"/>
+      <c r="C49" s="17"/>
     </row>
     <row r="50" ht="21" spans="1:3">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="13"/>
+      <c r="C50" s="17"/>
     </row>
     <row r="51" ht="21" spans="1:3">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="13"/>
+      <c r="C51" s="17"/>
     </row>
     <row r="52" ht="21" spans="1:3">
-      <c r="A52" s="17" t="s">
+      <c r="A52" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="13"/>
+      <c r="C52" s="17"/>
     </row>
     <row r="53" ht="21" spans="1:3">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="13"/>
+      <c r="C53" s="17"/>
     </row>
     <row r="54" ht="21" spans="3:3">
-      <c r="C54" s="16"/>
+      <c r="C54" s="14"/>
     </row>
     <row r="55" ht="21" spans="1:3">
       <c r="A55" s="8"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="14"/>
     </row>
     <row r="56" ht="21" spans="1:3">
       <c r="A56" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="13"/>
+      <c r="C56" s="17"/>
     </row>
     <row r="57" ht="21" spans="1:3">
       <c r="A57" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="13"/>
+      <c r="C57" s="17"/>
     </row>
     <row r="58" ht="21" spans="1:3">
       <c r="A58" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C58" s="13"/>
+      <c r="C58" s="17"/>
     </row>
     <row r="59" ht="21" spans="1:3">
       <c r="A59" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="13"/>
+      <c r="C59" s="17"/>
     </row>
     <row r="60" ht="21" spans="1:3">
       <c r="A60" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="13"/>
+      <c r="C60" s="17"/>
     </row>
     <row r="61" ht="21" spans="1:3">
       <c r="A61" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="13"/>
+      <c r="C61" s="17"/>
     </row>
     <row r="62" ht="21" spans="1:3">
       <c r="A62" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C62" s="13"/>
+      <c r="C62" s="17"/>
     </row>
     <row r="63" ht="21" spans="1:3">
       <c r="A63" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="13"/>
+      <c r="C63" s="17"/>
     </row>
     <row r="64" ht="21" spans="1:3">
       <c r="A64" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="13"/>
+      <c r="C64" s="17"/>
     </row>
     <row r="65" ht="21" spans="1:3">
       <c r="A65" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C65" s="13"/>
+      <c r="C65" s="17"/>
     </row>
     <row r="66" ht="21" spans="1:3">
       <c r="A66" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="13"/>
+      <c r="C66" s="17"/>
     </row>
     <row r="67" ht="21" spans="1:3">
       <c r="A67" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="13"/>
+      <c r="C67" s="17"/>
     </row>
     <row r="68" ht="21" spans="1:3">
       <c r="A68" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="13"/>
+      <c r="C68" s="17"/>
     </row>
     <row r="69" ht="21" spans="1:3">
       <c r="A69" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C69" s="13"/>
+      <c r="C69" s="17"/>
     </row>
     <row r="70" ht="21" spans="1:3">
       <c r="A70" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B70" s="14" t="s">
+      <c r="B70" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C70" s="13"/>
+      <c r="C70" s="17"/>
     </row>
     <row r="71" ht="21" spans="1:3">
       <c r="A71" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C71" s="13"/>
+      <c r="C71" s="17"/>
     </row>
     <row r="72" ht="21" spans="1:3">
       <c r="A72" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C72" s="13"/>
+      <c r="C72" s="17"/>
     </row>
     <row r="73" ht="21" spans="1:3">
       <c r="A73" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C73" s="13"/>
+      <c r="C73" s="17"/>
     </row>
     <row r="74" ht="21" spans="1:3">
       <c r="A74" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C74" s="13"/>
+      <c r="C74" s="17"/>
     </row>
     <row r="75" ht="21" spans="1:3">
       <c r="A75" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C75" s="13"/>
+      <c r="C75" s="17"/>
     </row>
     <row r="76" ht="21" spans="1:3">
       <c r="A76" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C76" s="13"/>
+      <c r="C76" s="17"/>
     </row>
     <row r="77" ht="21" spans="1:3">
       <c r="A77" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C77" s="13"/>
+      <c r="C77" s="17"/>
     </row>
     <row r="78" ht="21" spans="1:3">
       <c r="A78" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C78" s="13"/>
+      <c r="C78" s="17"/>
     </row>
     <row r="79" ht="21" spans="1:3">
       <c r="A79" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C79" s="13"/>
+      <c r="C79" s="17"/>
     </row>
     <row r="80" ht="21" spans="1:3">
       <c r="A80" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C80" s="13"/>
+      <c r="C80" s="17"/>
     </row>
     <row r="81" ht="21" spans="1:3">
       <c r="A81" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C81" s="13"/>
+      <c r="C81" s="17"/>
     </row>
     <row r="82" ht="21" spans="1:3">
       <c r="A82" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C82" s="13"/>
+      <c r="C82" s="17"/>
     </row>
     <row r="83" ht="21" spans="1:3">
       <c r="A83" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C83" s="13"/>
+      <c r="C83" s="17"/>
     </row>
     <row r="84" ht="21" spans="1:3">
       <c r="A84" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B84" s="14" t="s">
+      <c r="B84" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C84" s="13"/>
+      <c r="C84" s="17"/>
     </row>
     <row r="85" ht="21" spans="1:3">
       <c r="A85" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C85" s="13"/>
+      <c r="C85" s="17"/>
     </row>
     <row r="86" ht="21" spans="1:3">
       <c r="A86" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C86" s="13"/>
+      <c r="C86" s="17"/>
     </row>
     <row r="87" ht="21" spans="1:3">
       <c r="A87" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="B87" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C87" s="13"/>
+      <c r="C87" s="17"/>
     </row>
     <row r="88" ht="21" spans="1:3">
       <c r="A88" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B88" s="14" t="s">
+      <c r="B88" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C88" s="13"/>
+      <c r="C88" s="17"/>
     </row>
     <row r="89" ht="21" spans="1:3">
       <c r="A89" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B89" s="14" t="s">
+      <c r="B89" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C89" s="13"/>
+      <c r="C89" s="17"/>
     </row>
     <row r="90" ht="21" spans="1:3">
       <c r="A90" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B90" s="14" t="s">
+      <c r="B90" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C90" s="13"/>
+      <c r="C90" s="17"/>
     </row>
     <row r="91" ht="21" spans="1:3">
       <c r="A91" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C91" s="13"/>
+      <c r="C91" s="17"/>
     </row>
     <row r="92" ht="21" spans="1:3">
       <c r="A92" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B92" s="14" t="s">
+      <c r="B92" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C92" s="13"/>
+      <c r="C92" s="17"/>
     </row>
     <row r="93" ht="21" spans="1:3">
       <c r="A93" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C93" s="13"/>
+      <c r="C93" s="17"/>
     </row>
     <row r="94" ht="21" spans="1:3">
       <c r="A94" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B94" s="14" t="s">
+      <c r="B94" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C94" s="13"/>
+      <c r="C94" s="17"/>
     </row>
     <row r="95" ht="21" spans="1:3">
       <c r="A95" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C95" s="13"/>
+      <c r="C95" s="17"/>
     </row>
     <row r="96" ht="21" spans="1:3">
       <c r="A96" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B96" s="14" t="s">
+      <c r="B96" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C96" s="13"/>
+      <c r="C96" s="17"/>
     </row>
     <row r="97" ht="21" spans="1:3">
       <c r="A97" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B97" s="14" t="s">
+      <c r="B97" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C97" s="13"/>
+      <c r="C97" s="17"/>
     </row>
     <row r="98" ht="21" spans="1:3">
       <c r="A98" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B98" s="14" t="s">
+      <c r="B98" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C98" s="13"/>
+      <c r="C98" s="17"/>
     </row>
     <row r="99" ht="21" spans="3:3">
-      <c r="C99" s="16"/>
+      <c r="C99" s="14"/>
     </row>
     <row r="100" ht="21" spans="1:3">
-      <c r="A100" s="17"/>
-      <c r="B100" s="15"/>
-      <c r="C100" s="16"/>
+      <c r="A100" s="15"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="14"/>
     </row>
     <row r="101" ht="21" spans="1:3">
       <c r="A101" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B101" s="14" t="s">
+      <c r="B101" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C101" s="13"/>
+      <c r="C101" s="17"/>
     </row>
     <row r="102" ht="21" spans="1:3">
       <c r="A102" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B102" s="14" t="s">
+      <c r="B102" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C102" s="13"/>
+      <c r="C102" s="17"/>
     </row>
     <row r="103" ht="21" spans="1:3">
       <c r="A103" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B103" s="14" t="s">
+      <c r="B103" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C103" s="13"/>
+      <c r="C103" s="17"/>
     </row>
     <row r="104" ht="21" spans="1:3">
       <c r="A104" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B104" s="14" t="s">
+      <c r="B104" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C104" s="13"/>
+      <c r="C104" s="17"/>
     </row>
     <row r="105" ht="21" spans="1:3">
       <c r="A105" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B105" s="14" t="s">
+      <c r="B105" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C105" s="13"/>
+      <c r="C105" s="17"/>
     </row>
     <row r="106" ht="21" spans="1:3">
       <c r="A106" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B106" s="14" t="s">
+      <c r="B106" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C106" s="13"/>
+      <c r="C106" s="17"/>
     </row>
     <row r="107" ht="21" spans="1:3">
       <c r="A107" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B107" s="14" t="s">
+      <c r="B107" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C107" s="13"/>
+      <c r="C107" s="17"/>
     </row>
     <row r="108" ht="21" spans="1:3">
       <c r="A108" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B108" s="14" t="s">
+      <c r="B108" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C108" s="13"/>
+      <c r="C108" s="17"/>
     </row>
     <row r="109" ht="21" spans="1:3">
       <c r="A109" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B109" s="14" t="s">
+      <c r="B109" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C109" s="13"/>
+      <c r="C109" s="17"/>
     </row>
     <row r="110" ht="21" spans="1:3">
       <c r="A110" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B110" s="14" t="s">
+      <c r="B110" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C110" s="13"/>
+      <c r="C110" s="17"/>
     </row>
     <row r="111" ht="21" spans="1:3">
       <c r="A111" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B111" s="14" t="s">
+      <c r="B111" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C111" s="13"/>
+      <c r="C111" s="17"/>
     </row>
     <row r="112" ht="21" spans="1:3">
       <c r="A112" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B112" s="14" t="s">
+      <c r="B112" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C112" s="13"/>
+      <c r="C112" s="17"/>
     </row>
     <row r="113" ht="21" spans="1:3">
       <c r="A113" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B113" s="14" t="s">
+      <c r="B113" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C113" s="13"/>
+      <c r="C113" s="17"/>
     </row>
     <row r="114" ht="21" spans="1:3">
       <c r="A114" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B114" s="14" t="s">
+      <c r="B114" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C114" s="13"/>
+      <c r="C114" s="17"/>
     </row>
     <row r="115" ht="21" spans="1:3">
       <c r="A115" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B115" s="14" t="s">
+      <c r="B115" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C115" s="13"/>
+      <c r="C115" s="17"/>
     </row>
     <row r="116" ht="21" spans="1:3">
       <c r="A116" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B116" s="14" t="s">
+      <c r="B116" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C116" s="13"/>
+      <c r="C116" s="17"/>
     </row>
     <row r="117" ht="21" spans="1:3">
       <c r="A117" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B117" s="14" t="s">
+      <c r="B117" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C117" s="13"/>
+      <c r="C117" s="17"/>
     </row>
     <row r="118" ht="21" spans="1:3">
       <c r="A118" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B118" s="14" t="s">
+      <c r="B118" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C118" s="13"/>
+      <c r="C118" s="17"/>
     </row>
     <row r="119" ht="21" spans="1:3">
       <c r="A119" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B119" s="14" t="s">
+      <c r="B119" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C119" s="13"/>
+      <c r="C119" s="17"/>
     </row>
     <row r="120" ht="21" spans="1:3">
       <c r="A120" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B120" s="14" t="s">
+      <c r="B120" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C120" s="13"/>
+      <c r="C120" s="17"/>
     </row>
     <row r="121" ht="21" spans="1:3">
       <c r="A121" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B121" s="14" t="s">
+      <c r="B121" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C121" s="13"/>
+      <c r="C121" s="17"/>
     </row>
     <row r="122" ht="21" spans="1:3">
       <c r="A122" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B122" s="14" t="s">
+      <c r="B122" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C122" s="13"/>
+      <c r="C122" s="17"/>
     </row>
     <row r="123" ht="21" spans="1:3">
       <c r="A123" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B123" s="14" t="s">
+      <c r="B123" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C123" s="13"/>
+      <c r="C123" s="17"/>
     </row>
     <row r="124" ht="21" spans="1:3">
       <c r="A124" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B124" s="14" t="s">
+      <c r="B124" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="C124" s="13"/>
+      <c r="C124" s="17"/>
     </row>
     <row r="125" ht="21" spans="1:3">
       <c r="A125" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B125" s="14" t="s">
+      <c r="B125" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="C125" s="13"/>
+      <c r="C125" s="17"/>
     </row>
     <row r="126" ht="21" spans="1:3">
       <c r="A126" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B126" s="14" t="s">
+      <c r="B126" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C126" s="13"/>
+      <c r="C126" s="17"/>
     </row>
     <row r="127" ht="21" spans="1:3">
       <c r="A127" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B127" s="14" t="s">
+      <c r="B127" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="C127" s="13"/>
+      <c r="C127" s="17"/>
     </row>
     <row r="128" ht="21" spans="1:3">
       <c r="A128" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B128" s="14" t="s">
+      <c r="B128" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C128" s="13"/>
+      <c r="C128" s="17"/>
     </row>
     <row r="129" ht="21" spans="1:3">
       <c r="A129" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B129" s="14" t="s">
+      <c r="B129" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="C129" s="13"/>
+      <c r="C129" s="17"/>
     </row>
     <row r="130" ht="21" spans="1:3">
       <c r="A130" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B130" s="14" t="s">
+      <c r="B130" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="C130" s="13"/>
+      <c r="C130" s="17"/>
     </row>
     <row r="131" ht="21" spans="1:3">
       <c r="A131" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B131" s="14" t="s">
+      <c r="B131" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C131" s="13"/>
+      <c r="C131" s="17"/>
     </row>
     <row r="132" ht="21" spans="1:3">
       <c r="A132" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B132" s="14" t="s">
+      <c r="B132" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="C132" s="13"/>
+      <c r="C132" s="17"/>
     </row>
     <row r="133" ht="21" spans="1:3">
       <c r="A133" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B133" s="14" t="s">
+      <c r="B133" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="C133" s="13"/>
+      <c r="C133" s="17"/>
     </row>
     <row r="134" ht="21" spans="1:3">
       <c r="A134" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B134" s="14" t="s">
+      <c r="B134" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C134" s="13"/>
+      <c r="C134" s="17"/>
     </row>
     <row r="135" ht="21" spans="1:3">
       <c r="A135" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B135" s="14" t="s">
+      <c r="B135" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C135" s="13"/>
+      <c r="C135" s="17"/>
     </row>
     <row r="136" ht="21" spans="1:3">
       <c r="A136" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B136" s="14" t="s">
+      <c r="B136" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="C136" s="13"/>
+      <c r="C136" s="17"/>
     </row>
     <row r="137" ht="21" spans="3:3">
-      <c r="C137" s="16"/>
+      <c r="C137" s="14"/>
     </row>
     <row r="138" ht="21" spans="2:3">
-      <c r="B138" s="15"/>
-      <c r="C138" s="16"/>
+      <c r="B138" s="13"/>
+      <c r="C138" s="14"/>
     </row>
     <row r="139" ht="21" spans="1:3">
-      <c r="A139" s="17" t="s">
+      <c r="A139" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B139" s="14" t="s">
+      <c r="B139" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="C139" s="13"/>
+      <c r="C139" s="17"/>
     </row>
     <row r="140" ht="21" spans="1:3">
-      <c r="A140" s="17" t="s">
+      <c r="A140" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B140" s="14" t="s">
+      <c r="B140" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="C140" s="13"/>
+      <c r="C140" s="17"/>
     </row>
     <row r="141" ht="21" spans="1:3">
-      <c r="A141" s="17" t="s">
+      <c r="A141" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B141" s="14" t="s">
+      <c r="B141" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="C141" s="13"/>
+      <c r="C141" s="17"/>
     </row>
     <row r="142" ht="21" spans="1:3">
-      <c r="A142" s="17" t="s">
+      <c r="A142" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B142" s="14" t="s">
+      <c r="B142" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="C142" s="13"/>
+      <c r="C142" s="17"/>
     </row>
     <row r="143" ht="21" spans="1:3">
-      <c r="A143" s="17" t="s">
+      <c r="A143" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B143" s="14" t="s">
+      <c r="B143" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="C143" s="13"/>
+      <c r="C143" s="17"/>
     </row>
     <row r="144" ht="21" spans="1:3">
-      <c r="A144" s="17" t="s">
+      <c r="A144" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B144" s="14" t="s">
+      <c r="B144" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C144" s="13"/>
+      <c r="C144" s="17"/>
     </row>
     <row r="145" ht="21" spans="1:3">
-      <c r="A145" s="17" t="s">
+      <c r="A145" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B145" s="14" t="s">
+      <c r="B145" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="C145" s="13"/>
+      <c r="C145" s="17"/>
     </row>
     <row r="146" ht="21" spans="1:3">
-      <c r="A146" s="17" t="s">
+      <c r="A146" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B146" s="14" t="s">
+      <c r="B146" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="C146" s="13"/>
+      <c r="C146" s="17"/>
     </row>
     <row r="147" ht="21" spans="1:3">
-      <c r="A147" s="17" t="s">
+      <c r="A147" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B147" s="14" t="s">
+      <c r="B147" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="C147" s="13"/>
+      <c r="C147" s="17"/>
     </row>
     <row r="148" ht="21" spans="1:3">
-      <c r="A148" s="17" t="s">
+      <c r="A148" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B148" s="14" t="s">
+      <c r="B148" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="C148" s="13"/>
+      <c r="C148" s="17"/>
     </row>
     <row r="149" ht="21" spans="1:3">
-      <c r="A149" s="17" t="s">
+      <c r="A149" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B149" s="14" t="s">
+      <c r="B149" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="C149" s="13"/>
+      <c r="C149" s="17"/>
     </row>
     <row r="150" ht="21" spans="1:3">
-      <c r="A150" s="17" t="s">
+      <c r="A150" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B150" s="14" t="s">
+      <c r="B150" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C150" s="13"/>
+      <c r="C150" s="17"/>
     </row>
     <row r="151" ht="21" spans="1:3">
-      <c r="A151" s="17" t="s">
+      <c r="A151" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B151" s="14" t="s">
+      <c r="B151" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="C151" s="13"/>
+      <c r="C151" s="17"/>
     </row>
     <row r="152" ht="21" spans="1:3">
-      <c r="A152" s="17" t="s">
+      <c r="A152" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B152" s="14" t="s">
+      <c r="B152" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="C152" s="13"/>
+      <c r="C152" s="17"/>
     </row>
     <row r="153" ht="21" spans="1:3">
-      <c r="A153" s="17" t="s">
+      <c r="A153" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B153" s="14" t="s">
+      <c r="B153" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="C153" s="13"/>
+      <c r="C153" s="17"/>
     </row>
     <row r="154" ht="21" spans="1:3">
-      <c r="A154" s="17" t="s">
+      <c r="A154" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B154" s="14" t="s">
+      <c r="B154" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="C154" s="13"/>
+      <c r="C154" s="17"/>
     </row>
     <row r="155" ht="21" spans="1:3">
-      <c r="A155" s="17" t="s">
+      <c r="A155" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B155" s="14" t="s">
+      <c r="B155" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="C155" s="13"/>
+      <c r="C155" s="17"/>
     </row>
     <row r="156" ht="21" spans="1:3">
-      <c r="A156" s="17" t="s">
+      <c r="A156" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B156" s="14" t="s">
+      <c r="B156" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="C156" s="13"/>
+      <c r="C156" s="17"/>
     </row>
     <row r="157" ht="21" spans="1:3">
-      <c r="A157" s="17" t="s">
+      <c r="A157" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B157" s="14" t="s">
+      <c r="B157" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="C157" s="13"/>
+      <c r="C157" s="17"/>
     </row>
     <row r="158" ht="21" spans="1:3">
-      <c r="A158" s="17" t="s">
+      <c r="A158" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B158" s="14" t="s">
+      <c r="B158" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="C158" s="13"/>
+      <c r="C158" s="17"/>
     </row>
     <row r="159" ht="21" spans="1:3">
-      <c r="A159" s="17" t="s">
+      <c r="A159" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B159" s="14" t="s">
+      <c r="B159" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="C159" s="13"/>
+      <c r="C159" s="17"/>
     </row>
     <row r="160" ht="21" spans="1:3">
-      <c r="A160" s="17" t="s">
+      <c r="A160" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B160" s="14" t="s">
+      <c r="B160" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="C160" s="13"/>
+      <c r="C160" s="17"/>
     </row>
     <row r="161" ht="21" spans="1:3">
-      <c r="A161" s="17" t="s">
+      <c r="A161" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B161" s="14" t="s">
+      <c r="B161" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="C161" s="13"/>
+      <c r="C161" s="17"/>
     </row>
     <row r="162" ht="21" spans="1:3">
-      <c r="A162" s="17" t="s">
+      <c r="A162" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B162" s="14" t="s">
+      <c r="B162" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="C162" s="13"/>
+      <c r="C162" s="17"/>
     </row>
     <row r="163" ht="21" spans="1:3">
-      <c r="A163" s="17" t="s">
+      <c r="A163" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B163" s="14" t="s">
+      <c r="B163" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="C163" s="13"/>
+      <c r="C163" s="17"/>
     </row>
     <row r="164" ht="21" spans="1:3">
-      <c r="A164" s="17" t="s">
+      <c r="A164" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B164" s="15" t="s">
+      <c r="B164" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C164" s="13"/>
+      <c r="C164" s="17"/>
     </row>
     <row r="165" ht="21" spans="1:3">
-      <c r="A165" s="17" t="s">
+      <c r="A165" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B165" s="15" t="s">
+      <c r="B165" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C165" s="13"/>
+      <c r="C165" s="17"/>
     </row>
     <row r="166" ht="21" spans="1:3">
-      <c r="A166" s="17" t="s">
+      <c r="A166" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B166" s="14" t="s">
+      <c r="B166" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="C166" s="13"/>
+      <c r="C166" s="17"/>
     </row>
     <row r="167" ht="21" spans="1:3">
-      <c r="A167" s="17" t="s">
+      <c r="A167" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B167" s="14" t="s">
+      <c r="B167" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C167" s="13"/>
+      <c r="C167" s="17"/>
     </row>
     <row r="168" ht="21" spans="1:3">
-      <c r="A168" s="17" t="s">
+      <c r="A168" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B168" s="14" t="s">
+      <c r="B168" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C168" s="13"/>
+      <c r="C168" s="17"/>
     </row>
     <row r="169" ht="21" spans="1:3">
-      <c r="A169" s="17" t="s">
+      <c r="A169" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B169" s="14" t="s">
+      <c r="B169" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="C169" s="13"/>
+      <c r="C169" s="17"/>
     </row>
     <row r="170" ht="21" spans="1:3">
-      <c r="A170" s="17" t="s">
+      <c r="A170" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B170" s="14" t="s">
+      <c r="B170" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="C170" s="13"/>
+      <c r="C170" s="17"/>
     </row>
     <row r="171" ht="21" spans="1:3">
-      <c r="A171" s="17" t="s">
+      <c r="A171" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B171" s="14" t="s">
+      <c r="B171" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C171" s="13"/>
+      <c r="C171" s="17"/>
     </row>
     <row r="172" ht="21" spans="1:3">
-      <c r="A172" s="17" t="s">
+      <c r="A172" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B172" s="14" t="s">
+      <c r="B172" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C172" s="13"/>
+      <c r="C172" s="17"/>
     </row>
     <row r="173" ht="21" spans="1:3">
-      <c r="A173" s="17" t="s">
+      <c r="A173" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B173" s="14" t="s">
+      <c r="B173" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C173" s="13"/>
+      <c r="C173" s="17"/>
     </row>
     <row r="174" ht="21" spans="1:3">
-      <c r="A174" s="17" t="s">
+      <c r="A174" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B174" s="14" t="s">
+      <c r="B174" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="C174" s="13"/>
+      <c r="C174" s="17"/>
     </row>
     <row r="175" ht="21" spans="3:3">
-      <c r="C175" s="16"/>
+      <c r="C175" s="14"/>
     </row>
     <row r="176" ht="21" spans="2:3">
-      <c r="B176" s="15"/>
-      <c r="C176" s="16"/>
+      <c r="B176" s="13"/>
+      <c r="C176" s="14"/>
     </row>
     <row r="177" ht="21" spans="1:3">
       <c r="A177" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B177" s="14" t="s">
+      <c r="B177" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="C177" s="13"/>
+      <c r="C177" s="17"/>
     </row>
     <row r="178" ht="21" spans="1:3">
       <c r="A178" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B178" s="14" t="s">
+      <c r="B178" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="C178" s="13"/>
+      <c r="C178" s="17"/>
     </row>
     <row r="179" ht="21" spans="1:3">
       <c r="A179" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B179" s="14" t="s">
+      <c r="B179" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="C179" s="13"/>
+      <c r="C179" s="17"/>
     </row>
     <row r="180" ht="21" spans="1:3">
       <c r="A180" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B180" s="14" t="s">
+      <c r="B180" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="C180" s="13"/>
+      <c r="C180" s="17"/>
     </row>
     <row r="181" ht="21" spans="1:3">
       <c r="A181" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B181" s="14" t="s">
+      <c r="B181" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="C181" s="13"/>
+      <c r="C181" s="17"/>
     </row>
     <row r="182" ht="21" spans="1:3">
       <c r="A182" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B182" s="14" t="s">
+      <c r="B182" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="C182" s="13"/>
+      <c r="C182" s="17"/>
     </row>
     <row r="183" ht="21" spans="1:3">
       <c r="A183" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B183" s="14" t="s">
+      <c r="B183" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="C183" s="13"/>
+      <c r="C183" s="17"/>
     </row>
     <row r="184" ht="21" spans="1:3">
       <c r="A184" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B184" s="14" t="s">
+      <c r="B184" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="C184" s="13"/>
+      <c r="C184" s="17"/>
     </row>
     <row r="185" ht="21" spans="1:3">
       <c r="A185" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B185" s="14" t="s">
+      <c r="B185" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="C185" s="13"/>
+      <c r="C185" s="17"/>
     </row>
     <row r="186" ht="21" spans="1:3">
       <c r="A186" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B186" s="14" t="s">
+      <c r="B186" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="C186" s="13"/>
+      <c r="C186" s="17"/>
     </row>
     <row r="187" ht="21" spans="1:3">
       <c r="A187" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B187" s="14" t="s">
+      <c r="B187" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="C187" s="13"/>
+      <c r="C187" s="17"/>
     </row>
     <row r="188" ht="21" spans="1:3">
       <c r="A188" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B188" s="14" t="s">
+      <c r="B188" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="C188" s="13"/>
+      <c r="C188" s="17"/>
     </row>
     <row r="189" ht="21" spans="1:3">
       <c r="A189" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B189" s="14" t="s">
+      <c r="B189" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="C189" s="13"/>
+      <c r="C189" s="17"/>
     </row>
     <row r="190" ht="21" spans="1:3">
       <c r="A190" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B190" s="14" t="s">
+      <c r="B190" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="C190" s="13"/>
+      <c r="C190" s="17"/>
     </row>
     <row r="191" ht="21" spans="1:3">
       <c r="A191" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B191" s="14" t="s">
+      <c r="B191" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="C191" s="13"/>
+      <c r="C191" s="17"/>
     </row>
     <row r="192" ht="21" spans="1:3">
       <c r="A192" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B192" s="14" t="s">
+      <c r="B192" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="C192" s="13"/>
+      <c r="C192" s="17"/>
     </row>
     <row r="193" ht="21" spans="1:3">
       <c r="A193" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B193" s="14" t="s">
+      <c r="B193" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="C193" s="13"/>
+      <c r="C193" s="17"/>
     </row>
     <row r="194" ht="21" spans="1:3">
       <c r="A194" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B194" s="14" t="s">
+      <c r="B194" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="C194" s="13"/>
+      <c r="C194" s="17"/>
     </row>
     <row r="195" ht="21" spans="1:3">
       <c r="A195" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B195" s="14" t="s">
+      <c r="B195" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="C195" s="13"/>
+      <c r="C195" s="17"/>
     </row>
     <row r="196" ht="21" spans="1:3">
       <c r="A196" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B196" s="14" t="s">
+      <c r="B196" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="C196" s="13"/>
+      <c r="C196" s="17"/>
     </row>
     <row r="197" ht="21" spans="1:3">
       <c r="A197" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B197" s="14" t="s">
+      <c r="B197" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="C197" s="13"/>
+      <c r="C197" s="17"/>
     </row>
     <row r="198" ht="21" spans="1:3">
       <c r="A198" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B198" s="14" t="s">
+      <c r="B198" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="C198" s="13"/>
+      <c r="C198" s="17"/>
     </row>
     <row r="199" ht="21" spans="1:3">
       <c r="A199" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B199" s="14" t="s">
+      <c r="B199" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="C199" s="13"/>
+      <c r="C199" s="17"/>
     </row>
     <row r="200" ht="21" spans="1:3">
       <c r="A200" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B200" s="14" t="s">
+      <c r="B200" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="C200" s="13"/>
+      <c r="C200" s="17"/>
     </row>
     <row r="201" ht="21" spans="1:3">
       <c r="A201" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B201" s="14" t="s">
+      <c r="B201" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="C201" s="13"/>
+      <c r="C201" s="17"/>
     </row>
     <row r="202" ht="21" spans="1:3">
       <c r="A202" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B202" s="14" t="s">
+      <c r="B202" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="C202" s="13"/>
+      <c r="C202" s="17"/>
     </row>
     <row r="203" ht="21" spans="1:3">
       <c r="A203" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B203" s="14" t="s">
+      <c r="B203" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="C203" s="13"/>
+      <c r="C203" s="17"/>
     </row>
     <row r="204" ht="21" spans="1:3">
       <c r="A204" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B204" s="14" t="s">
+      <c r="B204" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C204" s="13"/>
+      <c r="C204" s="17"/>
     </row>
     <row r="205" ht="21" spans="1:3">
       <c r="A205" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B205" s="14" t="s">
+      <c r="B205" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="C205" s="13"/>
+      <c r="C205" s="17"/>
     </row>
     <row r="206" ht="21" spans="1:3">
       <c r="A206" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B206" s="14" t="s">
+      <c r="B206" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="C206" s="13"/>
+      <c r="C206" s="17"/>
     </row>
     <row r="207" ht="21" spans="1:3">
       <c r="A207" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B207" s="14" t="s">
+      <c r="B207" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="C207" s="13"/>
+      <c r="C207" s="17"/>
     </row>
     <row r="208" ht="21" spans="1:3">
       <c r="A208" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B208" s="14" t="s">
+      <c r="B208" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="C208" s="13"/>
+      <c r="C208" s="17"/>
     </row>
     <row r="209" ht="21" spans="1:3">
       <c r="A209" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B209" s="14" t="s">
+      <c r="B209" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="C209" s="13"/>
+      <c r="C209" s="17"/>
     </row>
     <row r="210" ht="21" spans="1:3">
       <c r="A210" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B210" s="14" t="s">
+      <c r="B210" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="C210" s="13"/>
+      <c r="C210" s="17"/>
     </row>
     <row r="211" ht="21" spans="1:3">
       <c r="A211" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B211" s="14" t="s">
+      <c r="B211" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="C211" s="13"/>
+      <c r="C211" s="17"/>
     </row>
     <row r="212" ht="21" spans="1:3">
-      <c r="A212" s="17"/>
-      <c r="B212" s="15"/>
-      <c r="C212" s="16"/>
+      <c r="A212" s="15"/>
+      <c r="B212" s="13"/>
+      <c r="C212" s="14"/>
     </row>
     <row r="213" ht="21" spans="1:3">
-      <c r="A213" s="17"/>
-      <c r="B213" s="15"/>
-      <c r="C213" s="16"/>
+      <c r="A213" s="15"/>
+      <c r="B213" s="13"/>
+      <c r="C213" s="14"/>
     </row>
     <row r="214" ht="21" spans="1:3">
       <c r="A214" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B214" s="14" t="s">
+      <c r="B214" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="C214" s="13"/>
+      <c r="C214" s="17"/>
     </row>
     <row r="215" ht="21" spans="1:3">
       <c r="A215" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B215" s="14" t="s">
+      <c r="B215" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="C215" s="13"/>
+      <c r="C215" s="17"/>
     </row>
     <row r="216" ht="21" spans="1:3">
       <c r="A216" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B216" s="14" t="s">
+      <c r="B216" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="C216" s="13"/>
+      <c r="C216" s="17"/>
     </row>
     <row r="217" ht="21" spans="1:3">
       <c r="A217" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B217" s="14" t="s">
+      <c r="B217" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="C217" s="13"/>
+      <c r="C217" s="17"/>
     </row>
     <row r="218" ht="21" spans="1:3">
       <c r="A218" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B218" s="14" t="s">
+      <c r="B218" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="C218" s="13"/>
+      <c r="C218" s="17"/>
     </row>
     <row r="219" ht="21" spans="1:3">
       <c r="A219" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B219" s="14" t="s">
+      <c r="B219" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="C219" s="13"/>
+      <c r="C219" s="17"/>
     </row>
     <row r="220" ht="21" spans="1:3">
       <c r="A220" s="8" t="s">
@@ -4496,769 +4506,769 @@
       <c r="B220" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="C220" s="13"/>
+      <c r="C220" s="17"/>
     </row>
     <row r="221" ht="21" spans="1:3">
       <c r="A221" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B221" s="14" t="s">
+      <c r="B221" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="C221" s="13"/>
+      <c r="C221" s="17"/>
     </row>
     <row r="222" ht="21" spans="1:3">
       <c r="A222" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B222" s="14" t="s">
+      <c r="B222" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="C222" s="13"/>
+      <c r="C222" s="17"/>
     </row>
     <row r="223" ht="21" spans="1:3">
       <c r="A223" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B223" s="14" t="s">
+      <c r="B223" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="C223" s="13"/>
+      <c r="C223" s="17"/>
     </row>
     <row r="224" ht="21" spans="1:3">
       <c r="A224" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B224" s="14" t="s">
+      <c r="B224" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="C224" s="13"/>
+      <c r="C224" s="17"/>
     </row>
     <row r="225" ht="21" spans="1:3">
       <c r="A225" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B225" s="14" t="s">
+      <c r="B225" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="C225" s="13"/>
+      <c r="C225" s="17"/>
     </row>
     <row r="226" ht="21" spans="1:3">
       <c r="A226" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B226" s="14" t="s">
+      <c r="B226" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="C226" s="13"/>
+      <c r="C226" s="17"/>
     </row>
     <row r="227" ht="21" spans="1:3">
       <c r="A227" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B227" s="14" t="s">
+      <c r="B227" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="C227" s="13"/>
+      <c r="C227" s="17"/>
     </row>
     <row r="228" ht="21" spans="1:3">
       <c r="A228" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B228" s="14" t="s">
+      <c r="B228" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="C228" s="13"/>
+      <c r="C228" s="17"/>
     </row>
     <row r="229" ht="21" spans="1:3">
       <c r="A229" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B229" s="14" t="s">
+      <c r="B229" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="C229" s="13"/>
+      <c r="C229" s="17"/>
     </row>
     <row r="230" ht="21" spans="1:3">
       <c r="A230" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B230" s="14" t="s">
+      <c r="B230" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="C230" s="13"/>
+      <c r="C230" s="17"/>
     </row>
     <row r="231" ht="21" spans="1:3">
       <c r="A231" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B231" s="14" t="s">
+      <c r="B231" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="C231" s="13"/>
+      <c r="C231" s="17"/>
     </row>
     <row r="232" ht="21" spans="1:3">
       <c r="A232" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B232" s="14" t="s">
+      <c r="B232" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="C232" s="13"/>
+      <c r="C232" s="17"/>
     </row>
     <row r="233" ht="21" spans="1:3">
       <c r="A233" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B233" s="14" t="s">
+      <c r="B233" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="C233" s="13"/>
+      <c r="C233" s="17"/>
     </row>
     <row r="234" ht="21" spans="1:3">
       <c r="A234" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B234" s="14" t="s">
+      <c r="B234" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="C234" s="13"/>
+      <c r="C234" s="17"/>
     </row>
     <row r="235" ht="21" spans="1:3">
       <c r="A235" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B235" s="14" t="s">
+      <c r="B235" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="C235" s="13"/>
+      <c r="C235" s="17"/>
     </row>
     <row r="236" ht="21" spans="2:3">
-      <c r="B236" s="15"/>
-      <c r="C236" s="16"/>
+      <c r="B236" s="13"/>
+      <c r="C236" s="14"/>
     </row>
     <row r="237" ht="21" spans="2:3">
-      <c r="B237" s="15"/>
-      <c r="C237" s="16"/>
+      <c r="B237" s="13"/>
+      <c r="C237" s="14"/>
     </row>
     <row r="238" ht="21" spans="1:3">
       <c r="A238" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B238" s="14" t="s">
+      <c r="B238" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="C238" s="13"/>
+      <c r="C238" s="17"/>
     </row>
     <row r="239" ht="21" spans="1:3">
       <c r="A239" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B239" s="14" t="s">
+      <c r="B239" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="C239" s="13"/>
+      <c r="C239" s="17"/>
     </row>
     <row r="240" ht="21" spans="1:3">
       <c r="A240" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B240" s="14" t="s">
+      <c r="B240" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="C240" s="13"/>
+      <c r="C240" s="17"/>
     </row>
     <row r="241" ht="21" spans="1:3">
       <c r="A241" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B241" s="14" t="s">
+      <c r="B241" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="C241" s="13"/>
+      <c r="C241" s="17"/>
     </row>
     <row r="242" ht="21" spans="1:3">
       <c r="A242" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B242" s="14" t="s">
+      <c r="B242" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="C242" s="13"/>
+      <c r="C242" s="17"/>
     </row>
     <row r="243" ht="21" spans="1:3">
       <c r="A243" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B243" s="14" t="s">
+      <c r="B243" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="C243" s="13"/>
+      <c r="C243" s="17"/>
     </row>
     <row r="244" ht="21" spans="1:3">
       <c r="A244" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B244" s="14" t="s">
+      <c r="B244" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="C244" s="13"/>
+      <c r="C244" s="17"/>
     </row>
     <row r="245" ht="21" spans="1:3">
       <c r="A245" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B245" s="14" t="s">
+      <c r="B245" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="C245" s="13"/>
+      <c r="C245" s="17"/>
     </row>
     <row r="246" ht="21" spans="1:3">
       <c r="A246" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B246" s="14" t="s">
+      <c r="B246" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="C246" s="13"/>
+      <c r="C246" s="17"/>
     </row>
     <row r="247" ht="21" spans="1:3">
       <c r="A247" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B247" s="14" t="s">
+      <c r="B247" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="C247" s="13"/>
+      <c r="C247" s="17"/>
     </row>
     <row r="248" ht="21" spans="1:3">
       <c r="A248" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B248" s="14" t="s">
+      <c r="B248" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="C248" s="13"/>
+      <c r="C248" s="17"/>
     </row>
     <row r="249" ht="21" spans="1:3">
       <c r="A249" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B249" s="14" t="s">
+      <c r="B249" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="C249" s="13"/>
+      <c r="C249" s="17"/>
     </row>
     <row r="250" ht="21" spans="1:3">
       <c r="A250" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B250" s="14" t="s">
+      <c r="B250" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="C250" s="13"/>
+      <c r="C250" s="17"/>
     </row>
     <row r="251" ht="21" spans="1:3">
       <c r="A251" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B251" s="14" t="s">
+      <c r="B251" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="C251" s="13"/>
+      <c r="C251" s="17"/>
     </row>
     <row r="252" ht="21" spans="1:3">
       <c r="A252" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B252" s="14" t="s">
+      <c r="B252" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="C252" s="13"/>
+      <c r="C252" s="17"/>
     </row>
     <row r="253" ht="21" spans="1:3">
       <c r="A253" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B253" s="14" t="s">
+      <c r="B253" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="C253" s="13"/>
+      <c r="C253" s="17"/>
     </row>
     <row r="254" ht="21" spans="1:3">
       <c r="A254" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B254" s="14" t="s">
+      <c r="B254" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="C254" s="13"/>
+      <c r="C254" s="17"/>
     </row>
     <row r="255" ht="21" spans="1:3">
       <c r="A255" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B255" s="14" t="s">
+      <c r="B255" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="C255" s="13"/>
+      <c r="C255" s="17"/>
     </row>
     <row r="256" ht="21" spans="1:3">
       <c r="A256" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B256" s="14" t="s">
+      <c r="B256" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="C256" s="13"/>
+      <c r="C256" s="17"/>
     </row>
     <row r="257" ht="21" spans="1:3">
       <c r="A257" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B257" s="14" t="s">
+      <c r="B257" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="C257" s="13"/>
+      <c r="C257" s="17"/>
     </row>
     <row r="258" ht="21" spans="1:3">
       <c r="A258" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B258" s="14" t="s">
+      <c r="B258" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="C258" s="13"/>
+      <c r="C258" s="17"/>
     </row>
     <row r="259" ht="21" spans="1:3">
       <c r="A259" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B259" s="14" t="s">
+      <c r="B259" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="C259" s="13"/>
+      <c r="C259" s="17"/>
     </row>
     <row r="260" ht="21" spans="1:3">
       <c r="A260" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B260" s="14" t="s">
+      <c r="B260" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="C260" s="13"/>
+      <c r="C260" s="17"/>
     </row>
     <row r="261" ht="21" spans="1:3">
       <c r="A261" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B261" s="14" t="s">
+      <c r="B261" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="C261" s="13"/>
+      <c r="C261" s="17"/>
     </row>
     <row r="262" ht="21" spans="1:3">
       <c r="A262" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B262" s="14" t="s">
+      <c r="B262" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="C262" s="13"/>
+      <c r="C262" s="17"/>
     </row>
     <row r="263" ht="21" spans="1:3">
       <c r="A263" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B263" s="14" t="s">
+      <c r="B263" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="C263" s="13"/>
+      <c r="C263" s="17"/>
     </row>
     <row r="264" ht="21" spans="1:3">
       <c r="A264" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B264" s="14" t="s">
+      <c r="B264" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="C264" s="13"/>
+      <c r="C264" s="17"/>
     </row>
     <row r="265" ht="21" spans="1:3">
       <c r="A265" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B265" s="14" t="s">
+      <c r="B265" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="C265" s="13"/>
+      <c r="C265" s="17"/>
     </row>
     <row r="266" ht="21" spans="1:3">
       <c r="A266" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B266" s="14" t="s">
+      <c r="B266" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="C266" s="13"/>
+      <c r="C266" s="17"/>
     </row>
     <row r="267" ht="21" spans="1:3">
       <c r="A267" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B267" s="14" t="s">
+      <c r="B267" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="C267" s="13"/>
+      <c r="C267" s="17"/>
     </row>
     <row r="268" ht="21" spans="1:3">
       <c r="A268" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B268" s="14" t="s">
+      <c r="B268" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="C268" s="13"/>
+      <c r="C268" s="17"/>
     </row>
     <row r="269" ht="21" spans="1:3">
       <c r="A269" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B269" s="14" t="s">
+      <c r="B269" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="C269" s="13"/>
+      <c r="C269" s="17"/>
     </row>
     <row r="270" ht="21" spans="1:3">
       <c r="A270" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B270" s="14" t="s">
+      <c r="B270" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="C270" s="13"/>
+      <c r="C270" s="17"/>
     </row>
     <row r="271" ht="21" spans="1:3">
       <c r="A271" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B271" s="14" t="s">
+      <c r="B271" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C271" s="13"/>
+      <c r="C271" s="17"/>
     </row>
     <row r="272" ht="21" spans="1:3">
       <c r="A272" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B272" s="14" t="s">
+      <c r="B272" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="C272" s="13"/>
+      <c r="C272" s="17"/>
     </row>
     <row r="273" ht="21" spans="2:3">
-      <c r="B273" s="15"/>
-      <c r="C273" s="16"/>
+      <c r="B273" s="13"/>
+      <c r="C273" s="14"/>
     </row>
     <row r="274" ht="21" spans="2:3">
-      <c r="B274" s="15"/>
-      <c r="C274" s="16"/>
+      <c r="B274" s="13"/>
+      <c r="C274" s="14"/>
     </row>
     <row r="275" ht="21" spans="1:3">
       <c r="A275" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B275" s="14" t="s">
+      <c r="B275" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="C275" s="13"/>
+      <c r="C275" s="17"/>
     </row>
     <row r="276" ht="21" spans="1:3">
       <c r="A276" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B276" s="14" t="s">
+      <c r="B276" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="C276" s="13"/>
+      <c r="C276" s="17"/>
     </row>
     <row r="277" ht="21" spans="1:3">
       <c r="A277" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B277" s="14" t="s">
+      <c r="B277" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="C277" s="13"/>
+      <c r="C277" s="17"/>
     </row>
     <row r="278" ht="21" spans="1:3">
       <c r="A278" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B278" s="14" t="s">
+      <c r="B278" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="C278" s="13"/>
+      <c r="C278" s="17"/>
     </row>
     <row r="279" ht="21" spans="1:3">
       <c r="A279" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B279" s="14" t="s">
+      <c r="B279" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="C279" s="13"/>
+      <c r="C279" s="17"/>
     </row>
     <row r="280" ht="21" spans="1:3">
       <c r="A280" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B280" s="14" t="s">
+      <c r="B280" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="C280" s="13"/>
+      <c r="C280" s="17"/>
     </row>
     <row r="281" ht="21" spans="1:3">
       <c r="A281" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B281" s="14" t="s">
+      <c r="B281" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="C281" s="13"/>
+      <c r="C281" s="17"/>
     </row>
     <row r="282" ht="21" spans="1:3">
       <c r="A282" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B282" s="14" t="s">
+      <c r="B282" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="C282" s="13"/>
+      <c r="C282" s="17"/>
     </row>
     <row r="283" ht="21" spans="1:3">
       <c r="A283" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B283" s="14" t="s">
+      <c r="B283" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="C283" s="13"/>
+      <c r="C283" s="17"/>
     </row>
     <row r="284" ht="21" spans="1:3">
       <c r="A284" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B284" s="14" t="s">
+      <c r="B284" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="C284" s="13"/>
+      <c r="C284" s="17"/>
     </row>
     <row r="285" ht="21" spans="1:3">
       <c r="A285" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B285" s="14" t="s">
+      <c r="B285" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C285" s="13"/>
+      <c r="C285" s="17"/>
     </row>
     <row r="286" ht="21" spans="1:3">
       <c r="A286" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B286" s="14" t="s">
+      <c r="B286" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="C286" s="13"/>
+      <c r="C286" s="17"/>
     </row>
     <row r="287" ht="21" spans="1:3">
       <c r="A287" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B287" s="14" t="s">
+      <c r="B287" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="C287" s="13"/>
+      <c r="C287" s="17"/>
     </row>
     <row r="288" ht="21" spans="1:3">
       <c r="A288" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B288" s="14" t="s">
+      <c r="B288" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="C288" s="13"/>
+      <c r="C288" s="17"/>
     </row>
     <row r="289" ht="21" spans="1:3">
       <c r="A289" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B289" s="14" t="s">
+      <c r="B289" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="C289" s="13"/>
+      <c r="C289" s="17"/>
     </row>
     <row r="290" ht="21" spans="1:3">
       <c r="A290" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B290" s="14" t="s">
+      <c r="B290" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="C290" s="13"/>
+      <c r="C290" s="17"/>
     </row>
     <row r="291" ht="21" spans="1:3">
       <c r="A291" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B291" s="14" t="s">
+      <c r="B291" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="C291" s="13"/>
+      <c r="C291" s="17"/>
     </row>
     <row r="292" ht="21" spans="1:3">
       <c r="A292" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B292" s="14" t="s">
+      <c r="B292" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="C292" s="13"/>
+      <c r="C292" s="17"/>
     </row>
     <row r="293" ht="21" spans="1:3">
       <c r="A293" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B293" s="14" t="s">
+      <c r="B293" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="C293" s="13"/>
+      <c r="C293" s="17"/>
     </row>
     <row r="294" ht="21" spans="2:3">
-      <c r="B294" s="15"/>
-      <c r="C294" s="16"/>
+      <c r="B294" s="13"/>
+      <c r="C294" s="14"/>
     </row>
     <row r="295" ht="21" spans="2:3">
-      <c r="B295" s="15"/>
-      <c r="C295" s="16"/>
+      <c r="B295" s="13"/>
+      <c r="C295" s="14"/>
     </row>
     <row r="296" ht="21" spans="1:3">
       <c r="A296" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B296" s="14" t="s">
+      <c r="B296" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="C296" s="13"/>
+      <c r="C296" s="17"/>
     </row>
     <row r="297" ht="21" spans="1:3">
       <c r="A297" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B297" s="14" t="s">
+      <c r="B297" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="C297" s="13"/>
+      <c r="C297" s="17"/>
     </row>
     <row r="298" ht="21" spans="1:3">
       <c r="A298" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B298" s="14" t="s">
+      <c r="B298" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="C298" s="13"/>
+      <c r="C298" s="17"/>
     </row>
     <row r="299" ht="21" spans="1:3">
       <c r="A299" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B299" s="14" t="s">
+      <c r="B299" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="C299" s="13"/>
+      <c r="C299" s="17"/>
     </row>
     <row r="300" ht="21" spans="1:3">
       <c r="A300" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B300" s="14" t="s">
+      <c r="B300" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="C300" s="13"/>
+      <c r="C300" s="17"/>
     </row>
     <row r="301" ht="21" spans="1:3">
       <c r="A301" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B301" s="14" t="s">
+      <c r="B301" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="C301" s="13"/>
+      <c r="C301" s="17"/>
     </row>
     <row r="302" ht="21" spans="1:3">
       <c r="A302" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B302" s="14" t="s">
+      <c r="B302" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="C302" s="13"/>
+      <c r="C302" s="17"/>
     </row>
     <row r="303" ht="21" spans="1:3">
       <c r="A303" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B303" s="14" t="s">
+      <c r="B303" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="C303" s="13"/>
+      <c r="C303" s="17"/>
     </row>
     <row r="304" ht="21" spans="1:3">
       <c r="A304" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B304" s="14" t="s">
+      <c r="B304" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="C304" s="13"/>
+      <c r="C304" s="17"/>
     </row>
     <row r="305" ht="21" spans="1:3">
       <c r="A305" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B305" s="14" t="s">
+      <c r="B305" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="C305" s="13"/>
+      <c r="C305" s="17"/>
     </row>
     <row r="306" ht="21" spans="1:3">
       <c r="A306" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B306" s="14" t="s">
+      <c r="B306" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C306" s="13"/>
+      <c r="C306" s="17"/>
     </row>
     <row r="307" ht="21" spans="1:3">
       <c r="A307" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B307" s="14" t="s">
+      <c r="B307" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="C307" s="13"/>
+      <c r="C307" s="17"/>
     </row>
     <row r="308" ht="21" spans="1:3">
       <c r="A308" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B308" s="14" t="s">
+      <c r="B308" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="C308" s="13"/>
+      <c r="C308" s="17"/>
     </row>
     <row r="309" ht="21" spans="1:3">
       <c r="A309" s="8" t="s">
@@ -5267,1506 +5277,1506 @@
       <c r="B309" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="C309" s="13"/>
+      <c r="C309" s="17"/>
     </row>
     <row r="310" ht="21" spans="1:3">
       <c r="A310" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B310" s="14" t="s">
+      <c r="B310" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="C310" s="13"/>
+      <c r="C310" s="17"/>
     </row>
     <row r="311" ht="21" spans="1:3">
       <c r="A311" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B311" s="14" t="s">
+      <c r="B311" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="C311" s="13"/>
+      <c r="C311" s="17"/>
     </row>
     <row r="312" ht="21" spans="1:3">
       <c r="A312" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B312" s="14" t="s">
+      <c r="B312" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="C312" s="13"/>
+      <c r="C312" s="17"/>
     </row>
     <row r="313" ht="21" spans="1:3">
       <c r="A313" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B313" s="14" t="s">
+      <c r="B313" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="C313" s="13"/>
+      <c r="C313" s="17"/>
     </row>
     <row r="314" ht="21" spans="1:3">
       <c r="A314" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B314" s="14" t="s">
+      <c r="B314" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="C314" s="13"/>
+      <c r="C314" s="17"/>
     </row>
     <row r="315" ht="21" spans="1:3">
       <c r="A315" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B315" s="14" t="s">
+      <c r="B315" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="C315" s="13"/>
+      <c r="C315" s="17"/>
     </row>
     <row r="316" ht="21" spans="1:3">
       <c r="A316" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B316" s="14" t="s">
+      <c r="B316" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="C316" s="13"/>
+      <c r="C316" s="17"/>
     </row>
     <row r="317" ht="21" spans="1:3">
       <c r="A317" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B317" s="14" t="s">
+      <c r="B317" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="C317" s="13"/>
+      <c r="C317" s="17"/>
     </row>
     <row r="318" ht="21" spans="1:3">
       <c r="A318" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B318" s="14" t="s">
+      <c r="B318" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="C318" s="13"/>
+      <c r="C318" s="17"/>
     </row>
     <row r="319" ht="21" spans="1:3">
       <c r="A319" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B319" s="14" t="s">
+      <c r="B319" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="C319" s="13"/>
+      <c r="C319" s="17"/>
     </row>
     <row r="320" ht="21" spans="1:3">
       <c r="A320" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B320" s="14" t="s">
+      <c r="B320" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="C320" s="13"/>
+      <c r="C320" s="17"/>
     </row>
     <row r="321" ht="21" spans="1:3">
       <c r="A321" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B321" s="14" t="s">
+      <c r="B321" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="C321" s="13"/>
+      <c r="C321" s="17"/>
     </row>
     <row r="322" ht="21" spans="1:3">
       <c r="A322" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B322" s="14" t="s">
+      <c r="B322" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="C322" s="13"/>
+      <c r="C322" s="17"/>
     </row>
     <row r="323" ht="21" spans="1:3">
       <c r="A323" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B323" s="14" t="s">
+      <c r="B323" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="C323" s="13"/>
+      <c r="C323" s="17"/>
     </row>
     <row r="324" ht="21" spans="1:3">
       <c r="A324" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B324" s="14" t="s">
+      <c r="B324" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="C324" s="13"/>
+      <c r="C324" s="17"/>
     </row>
     <row r="325" ht="21" spans="1:3">
       <c r="A325" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B325" s="14" t="s">
+      <c r="B325" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="C325" s="13"/>
+      <c r="C325" s="17"/>
     </row>
     <row r="326" ht="21" spans="1:3">
       <c r="A326" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B326" s="14" t="s">
+      <c r="B326" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="C326" s="13"/>
+      <c r="C326" s="17"/>
     </row>
     <row r="327" ht="21" spans="1:3">
       <c r="A327" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B327" s="14" t="s">
+      <c r="B327" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="C327" s="13"/>
+      <c r="C327" s="17"/>
     </row>
     <row r="328" ht="21" spans="1:3">
       <c r="A328" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B328" s="14" t="s">
+      <c r="B328" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="C328" s="13"/>
+      <c r="C328" s="17"/>
     </row>
     <row r="329" ht="21" spans="1:3">
       <c r="A329" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B329" s="14" t="s">
+      <c r="B329" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="C329" s="13"/>
+      <c r="C329" s="17"/>
     </row>
     <row r="330" ht="21" spans="1:3">
       <c r="A330" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B330" s="14" t="s">
+      <c r="B330" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="C330" s="13"/>
+      <c r="C330" s="17"/>
     </row>
     <row r="331" ht="21" spans="1:3">
       <c r="A331" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B331" s="14" t="s">
+      <c r="B331" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="C331" s="13"/>
+      <c r="C331" s="17"/>
     </row>
     <row r="332" ht="21" spans="1:3">
       <c r="A332" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B332" s="14" t="s">
+      <c r="B332" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="C332" s="13"/>
+      <c r="C332" s="17"/>
     </row>
     <row r="333" ht="21" spans="1:3">
       <c r="A333" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B333" s="14" t="s">
+      <c r="B333" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="C333" s="13"/>
+      <c r="C333" s="17"/>
     </row>
     <row r="334" ht="21" spans="2:3">
-      <c r="B334" s="15"/>
-      <c r="C334" s="16"/>
+      <c r="B334" s="13"/>
+      <c r="C334" s="14"/>
     </row>
     <row r="335" ht="21" spans="2:3">
-      <c r="B335" s="15"/>
-      <c r="C335" s="16"/>
+      <c r="B335" s="13"/>
+      <c r="C335" s="14"/>
     </row>
     <row r="336" ht="21" spans="1:3">
-      <c r="A336" s="17" t="s">
+      <c r="A336" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="B336" s="14" t="s">
+      <c r="B336" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="C336" s="13"/>
+      <c r="C336" s="17"/>
     </row>
     <row r="337" ht="21" spans="1:3">
-      <c r="A337" s="17" t="s">
+      <c r="A337" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="B337" s="14" t="s">
+      <c r="B337" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="C337" s="13"/>
+      <c r="C337" s="17"/>
     </row>
     <row r="338" ht="21" spans="1:3">
-      <c r="A338" s="17" t="s">
+      <c r="A338" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="B338" s="14" t="s">
+      <c r="B338" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="C338" s="13"/>
+      <c r="C338" s="17"/>
     </row>
     <row r="339" ht="21" spans="1:3">
-      <c r="A339" s="17" t="s">
+      <c r="A339" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="B339" s="14" t="s">
+      <c r="B339" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="C339" s="13"/>
+      <c r="C339" s="17"/>
     </row>
     <row r="340" ht="21" spans="1:3">
-      <c r="A340" s="17" t="s">
+      <c r="A340" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="B340" s="14" t="s">
+      <c r="B340" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="C340" s="13"/>
+      <c r="C340" s="17"/>
     </row>
     <row r="341" ht="21" spans="1:3">
-      <c r="A341" s="17" t="s">
+      <c r="A341" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="B341" s="14" t="s">
+      <c r="B341" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="C341" s="13"/>
+      <c r="C341" s="17"/>
     </row>
     <row r="342" ht="21" spans="1:3">
-      <c r="A342" s="17" t="s">
+      <c r="A342" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="B342" s="14" t="s">
+      <c r="B342" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="C342" s="13"/>
+      <c r="C342" s="17"/>
     </row>
     <row r="343" ht="21" spans="1:3">
-      <c r="A343" s="17" t="s">
+      <c r="A343" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="B343" s="14" t="s">
+      <c r="B343" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="C343" s="13"/>
+      <c r="C343" s="17"/>
     </row>
     <row r="344" ht="21" spans="1:3">
-      <c r="A344" s="17" t="s">
+      <c r="A344" s="15" t="s">
         <v>325</v>
       </c>
       <c r="B344" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="C344" s="13"/>
+      <c r="C344" s="17"/>
     </row>
     <row r="345" ht="21" spans="1:3">
-      <c r="A345" s="17" t="s">
+      <c r="A345" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="B345" s="14" t="s">
+      <c r="B345" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="C345" s="13"/>
+      <c r="C345" s="17"/>
     </row>
     <row r="346" ht="21" spans="1:3">
-      <c r="A346" s="17" t="s">
+      <c r="A346" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="B346" s="14" t="s">
+      <c r="B346" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="C346" s="13"/>
+      <c r="C346" s="17"/>
     </row>
     <row r="347" ht="21" spans="1:3">
-      <c r="A347" s="17" t="s">
+      <c r="A347" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="B347" s="14" t="s">
+      <c r="B347" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="C347" s="13"/>
+      <c r="C347" s="17"/>
     </row>
     <row r="348" ht="21" spans="1:3">
-      <c r="A348" s="17" t="s">
+      <c r="A348" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="B348" s="14" t="s">
+      <c r="B348" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="C348" s="13"/>
+      <c r="C348" s="17"/>
     </row>
     <row r="349" ht="21" spans="1:3">
-      <c r="A349" s="17" t="s">
+      <c r="A349" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="B349" s="14" t="s">
+      <c r="B349" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="C349" s="13"/>
+      <c r="C349" s="17"/>
     </row>
     <row r="350" ht="21" spans="1:3">
-      <c r="A350" s="17" t="s">
+      <c r="A350" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="B350" s="14" t="s">
+      <c r="B350" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="C350" s="13"/>
+      <c r="C350" s="17"/>
     </row>
     <row r="351" ht="21" spans="1:3">
-      <c r="A351" s="17" t="s">
+      <c r="A351" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="B351" s="14" t="s">
+      <c r="B351" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="C351" s="13"/>
+      <c r="C351" s="17"/>
     </row>
     <row r="352" ht="21" spans="1:3">
-      <c r="A352" s="17" t="s">
+      <c r="A352" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="B352" s="14" t="s">
+      <c r="B352" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="C352" s="13"/>
+      <c r="C352" s="17"/>
     </row>
     <row r="353" ht="21" spans="1:3">
-      <c r="A353" s="17" t="s">
+      <c r="A353" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="B353" s="14" t="s">
+      <c r="B353" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="C353" s="13"/>
+      <c r="C353" s="17"/>
     </row>
     <row r="354" ht="21" spans="2:3">
-      <c r="B354" s="15"/>
-      <c r="C354" s="16"/>
+      <c r="B354" s="13"/>
+      <c r="C354" s="14"/>
     </row>
     <row r="355" ht="21" spans="2:3">
-      <c r="B355" s="15"/>
-      <c r="C355" s="16"/>
+      <c r="B355" s="13"/>
+      <c r="C355" s="14"/>
     </row>
     <row r="356" ht="21" spans="1:3">
-      <c r="A356" s="17" t="s">
+      <c r="A356" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B356" s="14" t="s">
+      <c r="B356" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="C356" s="13"/>
+      <c r="C356" s="17"/>
     </row>
     <row r="357" ht="21" spans="1:3">
-      <c r="A357" s="17" t="s">
+      <c r="A357" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B357" s="14" t="s">
+      <c r="B357" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="C357" s="13"/>
+      <c r="C357" s="17"/>
     </row>
     <row r="358" ht="21" spans="1:3">
-      <c r="A358" s="17" t="s">
+      <c r="A358" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B358" s="14" t="s">
+      <c r="B358" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="C358" s="13"/>
+      <c r="C358" s="17"/>
     </row>
     <row r="359" ht="21" spans="1:3">
-      <c r="A359" s="17" t="s">
+      <c r="A359" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B359" s="14" t="s">
+      <c r="B359" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="C359" s="13"/>
+      <c r="C359" s="17"/>
     </row>
     <row r="360" ht="21" spans="1:3">
-      <c r="A360" s="17" t="s">
+      <c r="A360" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B360" s="14" t="s">
+      <c r="B360" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="C360" s="13"/>
+      <c r="C360" s="17"/>
     </row>
     <row r="361" ht="21" spans="1:3">
-      <c r="A361" s="17" t="s">
+      <c r="A361" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B361" s="14" t="s">
+      <c r="B361" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="C361" s="13"/>
+      <c r="C361" s="17"/>
     </row>
     <row r="362" ht="21" spans="1:3">
-      <c r="A362" s="17" t="s">
+      <c r="A362" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B362" s="14" t="s">
+      <c r="B362" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="C362" s="13"/>
+      <c r="C362" s="17"/>
     </row>
     <row r="363" ht="21" spans="1:3">
-      <c r="A363" s="17" t="s">
+      <c r="A363" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B363" s="14" t="s">
+      <c r="B363" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="C363" s="13"/>
+      <c r="C363" s="17"/>
     </row>
     <row r="364" ht="21" spans="1:3">
-      <c r="A364" s="17" t="s">
+      <c r="A364" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B364" s="14" t="s">
+      <c r="B364" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="C364" s="13"/>
+      <c r="C364" s="17"/>
     </row>
     <row r="365" ht="21" spans="1:3">
-      <c r="A365" s="17" t="s">
+      <c r="A365" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B365" s="14" t="s">
+      <c r="B365" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="C365" s="13"/>
+      <c r="C365" s="17"/>
     </row>
     <row r="366" ht="21" spans="1:3">
-      <c r="A366" s="17" t="s">
+      <c r="A366" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B366" s="14" t="s">
+      <c r="B366" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="C366" s="13"/>
+      <c r="C366" s="17"/>
     </row>
     <row r="367" ht="21" spans="1:3">
-      <c r="A367" s="17" t="s">
+      <c r="A367" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B367" s="14" t="s">
+      <c r="B367" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="C367" s="13"/>
+      <c r="C367" s="17"/>
     </row>
     <row r="368" ht="21" spans="1:3">
-      <c r="A368" s="17" t="s">
+      <c r="A368" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B368" s="14" t="s">
+      <c r="B368" s="16" t="s">
         <v>357</v>
       </c>
-      <c r="C368" s="13"/>
+      <c r="C368" s="17"/>
     </row>
     <row r="369" ht="21" spans="1:3">
-      <c r="A369" s="17" t="s">
+      <c r="A369" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B369" s="14" t="s">
+      <c r="B369" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="C369" s="13"/>
+      <c r="C369" s="17"/>
     </row>
     <row r="370" ht="21" spans="1:3">
-      <c r="A370" s="17" t="s">
+      <c r="A370" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B370" s="14" t="s">
+      <c r="B370" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="C370" s="13"/>
+      <c r="C370" s="17"/>
     </row>
     <row r="371" ht="21" spans="1:3">
-      <c r="A371" s="17" t="s">
+      <c r="A371" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B371" s="14" t="s">
+      <c r="B371" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="C371" s="13"/>
+      <c r="C371" s="17"/>
     </row>
     <row r="372" ht="21" spans="1:3">
-      <c r="A372" s="17" t="s">
+      <c r="A372" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B372" s="14" t="s">
+      <c r="B372" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="C372" s="13"/>
+      <c r="C372" s="17"/>
     </row>
     <row r="373" ht="21" spans="1:3">
-      <c r="A373" s="17" t="s">
+      <c r="A373" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B373" s="14" t="s">
+      <c r="B373" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="C373" s="13"/>
+      <c r="C373" s="17"/>
     </row>
     <row r="374" ht="21" spans="1:3">
-      <c r="A374" s="17" t="s">
+      <c r="A374" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B374" s="14" t="s">
+      <c r="B374" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="C374" s="13"/>
+      <c r="C374" s="17"/>
     </row>
     <row r="375" ht="21" spans="1:3">
-      <c r="A375" s="17" t="s">
+      <c r="A375" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B375" s="14" t="s">
+      <c r="B375" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="C375" s="13"/>
+      <c r="C375" s="17"/>
     </row>
     <row r="376" ht="21" spans="1:3">
-      <c r="A376" s="17" t="s">
+      <c r="A376" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B376" s="14" t="s">
+      <c r="B376" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="C376" s="13"/>
+      <c r="C376" s="17"/>
     </row>
     <row r="377" ht="21" spans="1:3">
-      <c r="A377" s="17" t="s">
+      <c r="A377" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B377" s="14" t="s">
+      <c r="B377" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="C377" s="13"/>
+      <c r="C377" s="17"/>
     </row>
     <row r="378" ht="21" spans="1:3">
-      <c r="A378" s="17" t="s">
+      <c r="A378" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B378" s="14" t="s">
+      <c r="B378" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="C378" s="13"/>
+      <c r="C378" s="17"/>
     </row>
     <row r="379" ht="21" spans="1:3">
-      <c r="A379" s="17" t="s">
+      <c r="A379" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B379" s="14" t="s">
+      <c r="B379" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="C379" s="13"/>
+      <c r="C379" s="17"/>
     </row>
     <row r="380" ht="21" spans="1:3">
-      <c r="A380" s="17" t="s">
+      <c r="A380" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B380" s="14" t="s">
+      <c r="B380" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="C380" s="13"/>
+      <c r="C380" s="17"/>
     </row>
     <row r="381" ht="21" spans="1:3">
-      <c r="A381" s="17" t="s">
+      <c r="A381" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B381" s="14" t="s">
+      <c r="B381" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="C381" s="13"/>
+      <c r="C381" s="17"/>
     </row>
     <row r="382" ht="21" spans="1:3">
-      <c r="A382" s="17" t="s">
+      <c r="A382" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B382" s="14" t="s">
+      <c r="B382" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="C382" s="13"/>
+      <c r="C382" s="17"/>
     </row>
     <row r="383" ht="21" spans="1:3">
-      <c r="A383" s="17" t="s">
+      <c r="A383" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B383" s="14" t="s">
+      <c r="B383" s="16" t="s">
         <v>372</v>
       </c>
-      <c r="C383" s="13"/>
+      <c r="C383" s="17"/>
     </row>
     <row r="384" ht="21" spans="1:3">
-      <c r="A384" s="17" t="s">
+      <c r="A384" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B384" s="14" t="s">
+      <c r="B384" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="C384" s="13"/>
+      <c r="C384" s="17"/>
     </row>
     <row r="385" ht="21" spans="1:3">
-      <c r="A385" s="17" t="s">
+      <c r="A385" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B385" s="14" t="s">
+      <c r="B385" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="C385" s="13"/>
+      <c r="C385" s="17"/>
     </row>
     <row r="386" ht="21" spans="1:3">
-      <c r="A386" s="17" t="s">
+      <c r="A386" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B386" s="14" t="s">
+      <c r="B386" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="C386" s="13"/>
+      <c r="C386" s="17"/>
     </row>
     <row r="387" ht="21" spans="1:3">
-      <c r="A387" s="17" t="s">
+      <c r="A387" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B387" s="14" t="s">
+      <c r="B387" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="C387" s="13"/>
+      <c r="C387" s="17"/>
     </row>
     <row r="388" ht="21" spans="1:3">
-      <c r="A388" s="17" t="s">
+      <c r="A388" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B388" s="14" t="s">
+      <c r="B388" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="C388" s="13"/>
+      <c r="C388" s="17"/>
     </row>
     <row r="389" ht="21" spans="1:3">
-      <c r="A389" s="17" t="s">
+      <c r="A389" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B389" s="14" t="s">
+      <c r="B389" s="16" t="s">
         <v>378</v>
       </c>
-      <c r="C389" s="13"/>
+      <c r="C389" s="17"/>
     </row>
     <row r="390" ht="21" spans="1:3">
-      <c r="A390" s="17" t="s">
+      <c r="A390" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B390" s="14" t="s">
+      <c r="B390" s="16" t="s">
         <v>378</v>
       </c>
-      <c r="C390" s="13"/>
+      <c r="C390" s="17"/>
     </row>
     <row r="391" ht="21" spans="1:3">
-      <c r="A391" s="17" t="s">
+      <c r="A391" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B391" s="14" t="s">
+      <c r="B391" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="C391" s="13"/>
+      <c r="C391" s="17"/>
     </row>
     <row r="392" ht="21" spans="1:3">
-      <c r="A392" s="17" t="s">
+      <c r="A392" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B392" s="14" t="s">
+      <c r="B392" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="C392" s="13"/>
+      <c r="C392" s="17"/>
     </row>
     <row r="393" ht="21" spans="1:3">
-      <c r="A393" s="17" t="s">
+      <c r="A393" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B393" s="14" t="s">
+      <c r="B393" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="C393" s="13"/>
+      <c r="C393" s="17"/>
     </row>
     <row r="394" ht="21" spans="1:3">
-      <c r="A394" s="17" t="s">
+      <c r="A394" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B394" s="14" t="s">
+      <c r="B394" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="C394" s="13"/>
+      <c r="C394" s="17"/>
     </row>
     <row r="395" ht="21" spans="1:3">
-      <c r="A395" s="17" t="s">
+      <c r="A395" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B395" s="14" t="s">
+      <c r="B395" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="C395" s="13"/>
+      <c r="C395" s="17"/>
     </row>
     <row r="396" ht="21" spans="1:3">
-      <c r="A396" s="17" t="s">
+      <c r="A396" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B396" s="14" t="s">
+      <c r="B396" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="C396" s="13"/>
+      <c r="C396" s="17"/>
     </row>
     <row r="397" ht="21" spans="1:3">
-      <c r="A397" s="17" t="s">
+      <c r="A397" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B397" s="14" t="s">
+      <c r="B397" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="C397" s="13"/>
+      <c r="C397" s="17"/>
     </row>
     <row r="398" ht="21" spans="1:3">
-      <c r="A398" s="17" t="s">
+      <c r="A398" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B398" s="14" t="s">
+      <c r="B398" s="16" t="s">
         <v>386</v>
       </c>
-      <c r="C398" s="13"/>
+      <c r="C398" s="17"/>
     </row>
     <row r="399" ht="21" spans="1:3">
-      <c r="A399" s="17" t="s">
+      <c r="A399" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B399" s="14" t="s">
+      <c r="B399" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="C399" s="13"/>
+      <c r="C399" s="17"/>
     </row>
     <row r="400" ht="21" spans="2:3">
-      <c r="B400" s="15"/>
-      <c r="C400" s="16"/>
+      <c r="B400" s="13"/>
+      <c r="C400" s="14"/>
     </row>
     <row r="401" ht="21" spans="2:3">
-      <c r="B401" s="15"/>
-      <c r="C401" s="16"/>
+      <c r="B401" s="13"/>
+      <c r="C401" s="14"/>
     </row>
     <row r="402" ht="21" spans="1:3">
-      <c r="A402" s="17" t="s">
+      <c r="A402" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="B402" s="14" t="s">
+      <c r="B402" s="16" t="s">
         <v>389</v>
       </c>
-      <c r="C402" s="13"/>
+      <c r="C402" s="17"/>
     </row>
     <row r="403" ht="21" spans="1:3">
-      <c r="A403" s="17" t="s">
+      <c r="A403" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="B403" s="14" t="s">
+      <c r="B403" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="C403" s="13"/>
+      <c r="C403" s="17"/>
     </row>
     <row r="404" ht="21" spans="1:3">
-      <c r="A404" s="17" t="s">
+      <c r="A404" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="B404" s="14" t="s">
+      <c r="B404" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="C404" s="13"/>
+      <c r="C404" s="17"/>
     </row>
     <row r="405" ht="21" spans="1:3">
-      <c r="A405" s="17" t="s">
+      <c r="A405" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="B405" s="14" t="s">
+      <c r="B405" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C405" s="13"/>
+      <c r="C405" s="17"/>
     </row>
     <row r="406" ht="21" spans="1:3">
-      <c r="A406" s="17" t="s">
+      <c r="A406" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="B406" s="14" t="s">
+      <c r="B406" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="C406" s="13"/>
+      <c r="C406" s="17"/>
     </row>
     <row r="407" ht="21" spans="1:3">
-      <c r="A407" s="17" t="s">
+      <c r="A407" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="B407" s="14" t="s">
+      <c r="B407" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="C407" s="13"/>
+      <c r="C407" s="17"/>
     </row>
     <row r="408" ht="21" spans="2:3">
-      <c r="B408" s="15"/>
-      <c r="C408" s="16"/>
+      <c r="B408" s="13"/>
+      <c r="C408" s="14"/>
     </row>
     <row r="409" ht="21" spans="2:3">
-      <c r="B409" s="15"/>
-      <c r="C409" s="16"/>
+      <c r="B409" s="13"/>
+      <c r="C409" s="14"/>
     </row>
     <row r="410" ht="21" spans="1:3">
       <c r="A410" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B410" s="14" t="s">
+      <c r="B410" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="C410" s="13"/>
+      <c r="C410" s="17"/>
     </row>
     <row r="411" ht="21" spans="1:3">
       <c r="A411" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B411" s="14" t="s">
+      <c r="B411" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="C411" s="13"/>
+      <c r="C411" s="17"/>
     </row>
     <row r="412" ht="21" spans="1:3">
       <c r="A412" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B412" s="14" t="s">
+      <c r="B412" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="C412" s="13"/>
+      <c r="C412" s="17"/>
     </row>
     <row r="413" ht="21" spans="1:3">
       <c r="A413" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B413" s="14" t="s">
+      <c r="B413" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="C413" s="13"/>
+      <c r="C413" s="17"/>
     </row>
     <row r="414" ht="21" spans="1:3">
       <c r="A414" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B414" s="14" t="s">
+      <c r="B414" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="C414" s="13"/>
+      <c r="C414" s="17"/>
     </row>
     <row r="415" ht="21" spans="1:3">
       <c r="A415" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B415" s="14" t="s">
+      <c r="B415" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="C415" s="13"/>
+      <c r="C415" s="17"/>
     </row>
     <row r="416" ht="21" spans="1:3">
       <c r="A416" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B416" s="14" t="s">
+      <c r="B416" s="16" t="s">
         <v>401</v>
       </c>
-      <c r="C416" s="13"/>
+      <c r="C416" s="17"/>
     </row>
     <row r="417" ht="21" spans="1:3">
       <c r="A417" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B417" s="14" t="s">
+      <c r="B417" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="C417" s="13"/>
+      <c r="C417" s="17"/>
     </row>
     <row r="418" ht="21" spans="1:3">
       <c r="A418" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B418" s="14" t="s">
+      <c r="B418" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="C418" s="13"/>
+      <c r="C418" s="17"/>
     </row>
     <row r="419" ht="21" spans="1:3">
       <c r="A419" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B419" s="14" t="s">
+      <c r="B419" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="C419" s="13"/>
+      <c r="C419" s="17"/>
     </row>
     <row r="420" ht="21" spans="1:3">
       <c r="A420" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B420" s="14" t="s">
+      <c r="B420" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="C420" s="13"/>
+      <c r="C420" s="17"/>
     </row>
     <row r="421" ht="21" spans="1:3">
       <c r="A421" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B421" s="14" t="s">
+      <c r="B421" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="C421" s="13"/>
+      <c r="C421" s="17"/>
     </row>
     <row r="422" ht="21" spans="1:3">
       <c r="A422" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B422" s="14" t="s">
+      <c r="B422" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="C422" s="13"/>
+      <c r="C422" s="17"/>
     </row>
     <row r="423" ht="21" spans="1:3">
       <c r="A423" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B423" s="14" t="s">
+      <c r="B423" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="C423" s="13"/>
+      <c r="C423" s="17"/>
     </row>
     <row r="424" ht="21" spans="1:3">
       <c r="A424" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B424" s="14" t="s">
+      <c r="B424" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="C424" s="13"/>
+      <c r="C424" s="17"/>
     </row>
     <row r="425" ht="21" spans="1:3">
       <c r="A425" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B425" s="14" t="s">
+      <c r="B425" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="C425" s="13"/>
+      <c r="C425" s="17"/>
     </row>
     <row r="426" ht="21" spans="1:3">
       <c r="A426" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B426" s="14" t="s">
+      <c r="B426" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="C426" s="13"/>
+      <c r="C426" s="17"/>
     </row>
     <row r="427" ht="21" spans="1:3">
       <c r="A427" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B427" s="14" t="s">
+      <c r="B427" s="16" t="s">
         <v>411</v>
       </c>
-      <c r="C427" s="13"/>
+      <c r="C427" s="17"/>
     </row>
     <row r="428" ht="21" spans="1:3">
       <c r="A428" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B428" s="14" t="s">
+      <c r="B428" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="C428" s="13"/>
+      <c r="C428" s="17"/>
     </row>
     <row r="429" ht="21" spans="1:3">
       <c r="A429" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B429" s="14" t="s">
+      <c r="B429" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="C429" s="13"/>
+      <c r="C429" s="17"/>
     </row>
     <row r="430" ht="21" spans="1:3">
       <c r="A430" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B430" s="14" t="s">
+      <c r="B430" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="C430" s="13"/>
+      <c r="C430" s="17"/>
     </row>
     <row r="431" ht="21" spans="1:3">
       <c r="A431" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B431" s="14" t="s">
+      <c r="B431" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="C431" s="13"/>
+      <c r="C431" s="17"/>
     </row>
     <row r="432" ht="21" spans="1:3">
       <c r="A432" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B432" s="14" t="s">
+      <c r="B432" s="16" t="s">
         <v>416</v>
       </c>
-      <c r="C432" s="13"/>
+      <c r="C432" s="17"/>
     </row>
     <row r="433" ht="21" spans="1:3">
       <c r="A433" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B433" s="14" t="s">
+      <c r="B433" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="C433" s="13"/>
+      <c r="C433" s="17"/>
     </row>
     <row r="434" ht="21" spans="1:3">
       <c r="A434" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B434" s="14" t="s">
+      <c r="B434" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="C434" s="13"/>
+      <c r="C434" s="17"/>
     </row>
     <row r="435" ht="21" spans="1:3">
       <c r="A435" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B435" s="14" t="s">
+      <c r="B435" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="C435" s="13"/>
+      <c r="C435" s="17"/>
     </row>
     <row r="436" ht="21" spans="1:3">
       <c r="A436" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B436" s="14" t="s">
+      <c r="B436" s="16" t="s">
         <v>420</v>
       </c>
-      <c r="C436" s="13"/>
+      <c r="C436" s="17"/>
     </row>
     <row r="437" ht="21" spans="1:3">
       <c r="A437" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B437" s="14" t="s">
+      <c r="B437" s="16" t="s">
         <v>421</v>
       </c>
-      <c r="C437" s="13"/>
+      <c r="C437" s="17"/>
     </row>
     <row r="438" ht="21" spans="1:3">
       <c r="A438" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B438" s="14" t="s">
+      <c r="B438" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="C438" s="13"/>
+      <c r="C438" s="17"/>
     </row>
     <row r="439" ht="21" spans="1:3">
       <c r="A439" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B439" s="14" t="s">
+      <c r="B439" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="C439" s="13"/>
+      <c r="C439" s="17"/>
     </row>
     <row r="440" ht="21" spans="1:3">
       <c r="A440" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B440" s="14" t="s">
+      <c r="B440" s="16" t="s">
         <v>424</v>
       </c>
-      <c r="C440" s="13"/>
+      <c r="C440" s="17"/>
     </row>
     <row r="441" ht="21" spans="1:3">
       <c r="A441" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B441" s="14" t="s">
+      <c r="B441" s="16" t="s">
         <v>425</v>
       </c>
-      <c r="C441" s="13"/>
+      <c r="C441" s="17"/>
     </row>
     <row r="442" ht="21" spans="1:3">
       <c r="A442" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B442" s="14" t="s">
+      <c r="B442" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="C442" s="13"/>
+      <c r="C442" s="17"/>
     </row>
     <row r="443" ht="21" spans="1:3">
       <c r="A443" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B443" s="14" t="s">
+      <c r="B443" s="16" t="s">
         <v>427</v>
       </c>
-      <c r="C443" s="13"/>
+      <c r="C443" s="17"/>
     </row>
     <row r="444" ht="21" spans="1:3">
       <c r="A444" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B444" s="14" t="s">
+      <c r="B444" s="16" t="s">
         <v>428</v>
       </c>
-      <c r="C444" s="13"/>
+      <c r="C444" s="17"/>
     </row>
     <row r="445" ht="21" spans="1:3">
       <c r="A445" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B445" s="14" t="s">
+      <c r="B445" s="16" t="s">
         <v>429</v>
       </c>
-      <c r="C445" s="13"/>
+      <c r="C445" s="17"/>
     </row>
     <row r="446" ht="21" spans="1:3">
       <c r="A446" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B446" s="14" t="s">
+      <c r="B446" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="C446" s="13"/>
+      <c r="C446" s="17"/>
     </row>
     <row r="447" ht="21" spans="1:3">
       <c r="A447" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B447" s="14" t="s">
+      <c r="B447" s="16" t="s">
         <v>431</v>
       </c>
-      <c r="C447" s="13"/>
+      <c r="C447" s="17"/>
     </row>
     <row r="448" ht="21" spans="1:3">
       <c r="A448" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B448" s="14" t="s">
+      <c r="B448" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="C448" s="13"/>
+      <c r="C448" s="17"/>
     </row>
     <row r="449" ht="21" spans="1:3">
       <c r="A449" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B449" s="14" t="s">
+      <c r="B449" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="C449" s="13"/>
+      <c r="C449" s="17"/>
     </row>
     <row r="450" ht="21" spans="1:3">
       <c r="A450" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B450" s="14" t="s">
+      <c r="B450" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="C450" s="13"/>
+      <c r="C450" s="17"/>
     </row>
     <row r="451" ht="21" spans="1:3">
       <c r="A451" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B451" s="14" t="s">
+      <c r="B451" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="C451" s="13"/>
+      <c r="C451" s="17"/>
     </row>
     <row r="452" ht="21" spans="1:3">
       <c r="A452" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B452" s="14" t="s">
+      <c r="B452" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="C452" s="13"/>
+      <c r="C452" s="17"/>
     </row>
     <row r="453" ht="21" spans="1:3">
       <c r="A453" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B453" s="14" t="s">
+      <c r="B453" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="C453" s="13"/>
+      <c r="C453" s="17"/>
     </row>
     <row r="454" ht="21" spans="1:3">
       <c r="A454" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B454" s="14" t="s">
+      <c r="B454" s="16" t="s">
         <v>438</v>
       </c>
-      <c r="C454" s="13"/>
+      <c r="C454" s="17"/>
     </row>
     <row r="455" ht="21" spans="1:3">
       <c r="A455" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B455" s="14" t="s">
+      <c r="B455" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="C455" s="13"/>
+      <c r="C455" s="17"/>
     </row>
     <row r="456" ht="21" spans="1:3">
       <c r="A456" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B456" s="14" t="s">
+      <c r="B456" s="16" t="s">
         <v>440</v>
       </c>
-      <c r="C456" s="13"/>
+      <c r="C456" s="17"/>
     </row>
     <row r="457" ht="21" spans="1:3">
       <c r="A457" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B457" s="14" t="s">
+      <c r="B457" s="16" t="s">
         <v>441</v>
       </c>
-      <c r="C457" s="13"/>
+      <c r="C457" s="17"/>
     </row>
     <row r="458" ht="21" spans="1:3">
       <c r="A458" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B458" s="14" t="s">
+      <c r="B458" s="16" t="s">
         <v>442</v>
       </c>
-      <c r="C458" s="13"/>
+      <c r="C458" s="17"/>
     </row>
     <row r="459" ht="21" spans="1:3">
       <c r="A459" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B459" s="14" t="s">
+      <c r="B459" s="16" t="s">
         <v>443</v>
       </c>
-      <c r="C459" s="13"/>
+      <c r="C459" s="17"/>
     </row>
     <row r="460" ht="21" spans="1:3">
       <c r="A460" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B460" s="14" t="s">
+      <c r="B460" s="16" t="s">
         <v>444</v>
       </c>
-      <c r="C460" s="13"/>
+      <c r="C460" s="17"/>
     </row>
     <row r="461" ht="21" spans="1:3">
       <c r="A461" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B461" s="14" t="s">
+      <c r="B461" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="C461" s="13"/>
+      <c r="C461" s="17"/>
     </row>
     <row r="462" ht="21" spans="1:3">
       <c r="A462" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B462" s="14" t="s">
+      <c r="B462" s="16" t="s">
         <v>446</v>
       </c>
-      <c r="C462" s="13"/>
+      <c r="C462" s="17"/>
     </row>
     <row r="463" ht="21" spans="1:3">
       <c r="A463" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B463" s="14" t="s">
+      <c r="B463" s="16" t="s">
         <v>447</v>
       </c>
-      <c r="C463" s="13"/>
+      <c r="C463" s="17"/>
     </row>
     <row r="464" ht="21" spans="1:3">
       <c r="A464" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B464" s="14" t="s">
+      <c r="B464" s="16" t="s">
         <v>448</v>
       </c>
-      <c r="C464" s="13"/>
+      <c r="C464" s="17"/>
     </row>
     <row r="465" ht="21" spans="1:3">
       <c r="A465" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B465" s="14" t="s">
+      <c r="B465" s="16" t="s">
         <v>449</v>
       </c>
-      <c r="C465" s="13"/>
+      <c r="C465" s="17"/>
     </row>
     <row r="466" ht="21" spans="1:3">
       <c r="A466" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B466" s="14" t="s">
+      <c r="B466" s="16" t="s">
         <v>450</v>
       </c>
-      <c r="C466" s="13"/>
+      <c r="C466" s="17"/>
     </row>
     <row r="467" ht="21" spans="1:3">
       <c r="A467" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B467" s="14" t="s">
+      <c r="B467" s="16" t="s">
         <v>451</v>
       </c>
-      <c r="C467" s="13"/>
+      <c r="C467" s="17"/>
     </row>
     <row r="468" ht="21" spans="1:3">
       <c r="A468" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B468" s="14" t="s">
+      <c r="B468" s="16" t="s">
         <v>452</v>
       </c>
-      <c r="C468" s="13"/>
+      <c r="C468" s="17"/>
     </row>
     <row r="469" ht="21" spans="1:3">
       <c r="A469" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B469" s="14" t="s">
+      <c r="B469" s="16" t="s">
         <v>453</v>
       </c>
-      <c r="C469" s="13"/>
+      <c r="C469" s="17"/>
     </row>
     <row r="470" ht="21" spans="2:3">
-      <c r="B470" s="15"/>
-      <c r="C470" s="16"/>
+      <c r="B470" s="13"/>
+      <c r="C470" s="14"/>
     </row>
     <row r="471" ht="21" spans="1:3">
-      <c r="A471" s="17"/>
-      <c r="B471" s="15"/>
-      <c r="C471" s="16"/>
+      <c r="A471" s="15"/>
+      <c r="B471" s="13"/>
+      <c r="C471" s="14"/>
     </row>
     <row r="472" ht="21" spans="1:3">
       <c r="A472" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="B472" s="14" t="s">
+      <c r="B472" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="C472" s="13"/>
+      <c r="C472" s="17"/>
     </row>
     <row r="473" ht="21" spans="1:3">
       <c r="A473" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="B473" s="14" t="s">
+      <c r="B473" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="C473" s="13"/>
+      <c r="C473" s="17"/>
     </row>
     <row r="474" ht="21" spans="1:3">
       <c r="A474" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="B474" s="14" t="s">
+      <c r="B474" s="16" t="s">
         <v>457</v>
       </c>
-      <c r="C474" s="13"/>
+      <c r="C474" s="17"/>
     </row>
     <row r="475" ht="21" spans="1:3">
       <c r="A475" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="B475" s="14" t="s">
+      <c r="B475" s="16" t="s">
         <v>458</v>
       </c>
-      <c r="C475" s="13"/>
+      <c r="C475" s="17"/>
     </row>
     <row r="476" ht="21" spans="1:3">
       <c r="A476" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="B476" s="14" t="s">
+      <c r="B476" s="16" t="s">
         <v>459</v>
       </c>
-      <c r="C476" s="13"/>
+      <c r="C476" s="17"/>
     </row>
     <row r="477" ht="21" spans="1:3">
       <c r="A477" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="B477" s="14" t="s">
+      <c r="B477" s="16" t="s">
         <v>460</v>
       </c>
-      <c r="C477" s="13"/>
+      <c r="C477" s="17"/>
     </row>
     <row r="478" ht="21" spans="1:3">
       <c r="A478" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="B478" s="14" t="s">
+      <c r="B478" s="16" t="s">
         <v>461</v>
       </c>
-      <c r="C478" s="13"/>
+      <c r="C478" s="17"/>
     </row>
     <row r="479" ht="21" spans="1:3">
       <c r="A479" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="B479" s="14" t="s">
+      <c r="B479" s="16" t="s">
         <v>462</v>
       </c>
-      <c r="C479" s="13"/>
+      <c r="C479" s="17"/>
     </row>
     <row r="480" ht="21" spans="1:3">
       <c r="A480" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="B480" s="14" t="s">
+      <c r="B480" s="16" t="s">
         <v>463</v>
       </c>
-      <c r="C480" s="13"/>
+      <c r="C480" s="17"/>
     </row>
     <row r="481" ht="21" spans="1:3">
       <c r="A481" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="B481" s="14" t="s">
+      <c r="B481" s="16" t="s">
         <v>464</v>
       </c>
-      <c r="C481" s="13"/>
+      <c r="C481" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6802,419 +6812,419 @@
     <hyperlink ref="B35" r:id="rId29" display="Chocolate Distribution problem"/>
     <hyperlink ref="B36" r:id="rId30" display="Smallest Subarray with sum greater than a given value"/>
     <hyperlink ref="B37" r:id="rId31" display="Three way partitioning of an array around a given value"/>
-    <hyperlink ref="B38" r:id="rId32" display="Minimum swaps required bring elements less equal K together"/>
-    <hyperlink ref="B39" r:id="rId33" display="Minimum no. of operations required to make an array palindrome"/>
-    <hyperlink ref="B40" r:id="rId34" display="Median of 2 sorted arrays of equal size"/>
-    <hyperlink ref="B41" r:id="rId35" display="Median of 2 sorted arrays of different size"/>
-    <hyperlink ref="B44" r:id="rId36" display="Spiral traversal on a Matrix"/>
-    <hyperlink ref="B45" r:id="rId37" display="Search an element in a matriix"/>
-    <hyperlink ref="B46" r:id="rId38" display="Find median in a row wise sorted matrix"/>
-    <hyperlink ref="B47" r:id="rId39" display="Find row with maximum no. of 1's"/>
-    <hyperlink ref="B48" r:id="rId40" display="Print elements in sorted order using row-column wise sorted matrix"/>
-    <hyperlink ref="B49" r:id="rId41" display="Maximum size rectangle"/>
-    <hyperlink ref="B50" r:id="rId42" display="Find a specific pair in matrix"/>
-    <hyperlink ref="B51" r:id="rId43" display="Rotate matrix by 90 degrees"/>
-    <hyperlink ref="B52" r:id="rId44" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
-    <hyperlink ref="B53" r:id="rId45" display="Common elements in all rows of a given matrix"/>
-    <hyperlink ref="B56" r:id="rId46" display="Reverse a String"/>
-    <hyperlink ref="B57" r:id="rId47" display="Check whether a String is Palindrome or not"/>
-    <hyperlink ref="B58" r:id="rId48" display="Find Duplicate characters in a string"/>
-    <hyperlink ref="B60" r:id="rId49" display="Write a Code to check whether one string is a rotation of another"/>
-    <hyperlink ref="B61" r:id="rId50" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
-    <hyperlink ref="B62" r:id="rId51" display="Count and Say problem"/>
-    <hyperlink ref="B63" r:id="rId52" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
-    <hyperlink ref="B64" r:id="rId53" display="Find Longest Recurring Subsequence in String"/>
-    <hyperlink ref="B65" r:id="rId54" display="Print all Subsequences of a string."/>
-    <hyperlink ref="B66" r:id="rId55" display="Print all the permutations of the given string"/>
-    <hyperlink ref="B67" r:id="rId56" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
-    <hyperlink ref="B68" r:id="rId57" display="Word Wrap Problem [VERY IMP]."/>
-    <hyperlink ref="B69" r:id="rId58" display="EDIT Distance [Very Imp]"/>
-    <hyperlink ref="B70" r:id="rId59" display="Find next greater number with same set of digits. [Very Very IMP]"/>
-    <hyperlink ref="B71" r:id="rId60" display="Balanced Parenthesis problem.[Imp]"/>
-    <hyperlink ref="B72" r:id="rId61" display="Word break Problem[ Very Imp]"/>
-    <hyperlink ref="B73" r:id="rId62" display="Rabin Karp Algo"/>
-    <hyperlink ref="B74" r:id="rId63" display="KMP Algo"/>
-    <hyperlink ref="B75" r:id="rId64" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
-    <hyperlink ref="B76" r:id="rId65" display="Minimum number of bracket reversals needed to make an expression balanced."/>
-    <hyperlink ref="B77" r:id="rId66" display="Count All Palindromic Subsequence in a given String."/>
-    <hyperlink ref="B78" r:id="rId67" display="Count of number of given string in 2D character array"/>
-    <hyperlink ref="B79" r:id="rId68" display="Search a Word in a 2D Grid of characters."/>
-    <hyperlink ref="B80" r:id="rId69" display="Boyer Moore Algorithm for Pattern Searching."/>
-    <hyperlink ref="B81" r:id="rId70" display="Converting Roman Numerals to Decimal"/>
-    <hyperlink ref="B82" r:id="rId71" display="Longest Common Prefix"/>
-    <hyperlink ref="B83" r:id="rId72" display="Number of flips to make binary string alternate"/>
-    <hyperlink ref="B84" r:id="rId73" display="Find the first repeated word in string."/>
-    <hyperlink ref="B85" r:id="rId74" display="Minimum number of swaps for bracket balancing."/>
-    <hyperlink ref="B86" r:id="rId75" display="Find the longest common subsequence between two strings."/>
-    <hyperlink ref="B87" r:id="rId76" display="Program to generate all possible valid IP addresses from given  string."/>
-    <hyperlink ref="B88" r:id="rId77" display="Write a program tofind the smallest window that contains all characters of string itself."/>
-    <hyperlink ref="B89" r:id="rId78" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B90" r:id="rId79" display="Minimum characters to be added at front to make string palindrome"/>
-    <hyperlink ref="B91" r:id="rId80" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B92" r:id="rId81" display="Find the smallest window in a string containing all characters of another string"/>
-    <hyperlink ref="B93" r:id="rId82" display="Recursively remove all adjacent duplicates"/>
-    <hyperlink ref="B94" r:id="rId83" display="String matching where one string contains wildcard characters"/>
-    <hyperlink ref="B95" r:id="rId84" display="Function to find Number of customers who could not get a computer"/>
-    <hyperlink ref="B96" r:id="rId85" display="Transform One String to Another using Minimum Number of Given Operation"/>
-    <hyperlink ref="B97" r:id="rId86" display="Check if two given strings are isomorphic to each other"/>
-    <hyperlink ref="B98" r:id="rId87" display="Recursively print all sentences that can be formed from list of word lists"/>
-    <hyperlink ref="B101" r:id="rId88" display="Find first and last positions of an element in a sorted array"/>
-    <hyperlink ref="B102" r:id="rId89" display="Find a Fixed Point (Value equal to index) in a given array"/>
-    <hyperlink ref="B103" r:id="rId90" display="Search in a rotated sorted array"/>
-    <hyperlink ref="B104" r:id="rId91" display="square root of an integer"/>
-    <hyperlink ref="B106" r:id="rId92" display="Optimum location of point to minimize total distance"/>
-    <hyperlink ref="B107" r:id="rId93" display="Find the repeating and the missing"/>
-    <hyperlink ref="B108" r:id="rId94" display="find majority element"/>
-    <hyperlink ref="B109" r:id="rId95" display="Searching in an array where adjacent differ by at most k"/>
-    <hyperlink ref="B110" r:id="rId96" display="find a pair with a given difference"/>
-    <hyperlink ref="B111" r:id="rId97" display="find four elements that sum to a given value"/>
-    <hyperlink ref="B113" r:id="rId98" display="Count triplet with sum smaller than a given value"/>
+    <hyperlink ref="B39" r:id="rId32" display="Minimum no. of operations required to make an array palindrome"/>
+    <hyperlink ref="B40" r:id="rId33" display="Median of 2 sorted arrays of equal size"/>
+    <hyperlink ref="B41" r:id="rId34" display="Median of 2 sorted arrays of different size"/>
+    <hyperlink ref="B44" r:id="rId35" display="Spiral traversal on a Matrix"/>
+    <hyperlink ref="B45" r:id="rId36" display="Search an element in a matriix"/>
+    <hyperlink ref="B46" r:id="rId37" display="Find median in a row wise sorted matrix"/>
+    <hyperlink ref="B47" r:id="rId38" display="Find row with maximum no. of 1's"/>
+    <hyperlink ref="B48" r:id="rId39" display="Print elements in sorted order using row-column wise sorted matrix"/>
+    <hyperlink ref="B49" r:id="rId40" display="Maximum size rectangle"/>
+    <hyperlink ref="B50" r:id="rId41" display="Find a specific pair in matrix"/>
+    <hyperlink ref="B51" r:id="rId42" display="Rotate matrix by 90 degrees"/>
+    <hyperlink ref="B52" r:id="rId43" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
+    <hyperlink ref="B53" r:id="rId44" display="Common elements in all rows of a given matrix"/>
+    <hyperlink ref="B56" r:id="rId45" display="Reverse a String"/>
+    <hyperlink ref="B57" r:id="rId46" display="Check whether a String is Palindrome or not"/>
+    <hyperlink ref="B58" r:id="rId47" display="Find Duplicate characters in a string"/>
+    <hyperlink ref="B60" r:id="rId48" display="Write a Code to check whether one string is a rotation of another"/>
+    <hyperlink ref="B61" r:id="rId49" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
+    <hyperlink ref="B62" r:id="rId50" display="Count and Say problem"/>
+    <hyperlink ref="B63" r:id="rId51" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
+    <hyperlink ref="B64" r:id="rId52" display="Find Longest Recurring Subsequence in String"/>
+    <hyperlink ref="B65" r:id="rId53" display="Print all Subsequences of a string."/>
+    <hyperlink ref="B66" r:id="rId54" display="Print all the permutations of the given string"/>
+    <hyperlink ref="B67" r:id="rId55" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
+    <hyperlink ref="B68" r:id="rId56" display="Word Wrap Problem [VERY IMP]."/>
+    <hyperlink ref="B69" r:id="rId57" display="EDIT Distance [Very Imp]"/>
+    <hyperlink ref="B70" r:id="rId58" display="Find next greater number with same set of digits. [Very Very IMP]"/>
+    <hyperlink ref="B71" r:id="rId59" display="Balanced Parenthesis problem.[Imp]"/>
+    <hyperlink ref="B72" r:id="rId60" display="Word break Problem[ Very Imp]"/>
+    <hyperlink ref="B73" r:id="rId61" display="Rabin Karp Algo"/>
+    <hyperlink ref="B74" r:id="rId62" display="KMP Algo"/>
+    <hyperlink ref="B75" r:id="rId63" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
+    <hyperlink ref="B76" r:id="rId64" display="Minimum number of bracket reversals needed to make an expression balanced."/>
+    <hyperlink ref="B77" r:id="rId65" display="Count All Palindromic Subsequence in a given String."/>
+    <hyperlink ref="B78" r:id="rId66" display="Count of number of given string in 2D character array"/>
+    <hyperlink ref="B79" r:id="rId67" display="Search a Word in a 2D Grid of characters."/>
+    <hyperlink ref="B80" r:id="rId68" display="Boyer Moore Algorithm for Pattern Searching."/>
+    <hyperlink ref="B81" r:id="rId69" display="Converting Roman Numerals to Decimal"/>
+    <hyperlink ref="B82" r:id="rId70" display="Longest Common Prefix"/>
+    <hyperlink ref="B83" r:id="rId71" display="Number of flips to make binary string alternate"/>
+    <hyperlink ref="B84" r:id="rId72" display="Find the first repeated word in string."/>
+    <hyperlink ref="B85" r:id="rId73" display="Minimum number of swaps for bracket balancing."/>
+    <hyperlink ref="B86" r:id="rId74" display="Find the longest common subsequence between two strings."/>
+    <hyperlink ref="B87" r:id="rId75" display="Program to generate all possible valid IP addresses from given  string."/>
+    <hyperlink ref="B88" r:id="rId76" display="Write a program tofind the smallest window that contains all characters of string itself."/>
+    <hyperlink ref="B89" r:id="rId77" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="B90" r:id="rId78" display="Minimum characters to be added at front to make string palindrome"/>
+    <hyperlink ref="B91" r:id="rId79" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="B92" r:id="rId80" display="Find the smallest window in a string containing all characters of another string"/>
+    <hyperlink ref="B93" r:id="rId81" display="Recursively remove all adjacent duplicates"/>
+    <hyperlink ref="B94" r:id="rId82" display="String matching where one string contains wildcard characters"/>
+    <hyperlink ref="B95" r:id="rId83" display="Function to find Number of customers who could not get a computer"/>
+    <hyperlink ref="B96" r:id="rId84" display="Transform One String to Another using Minimum Number of Given Operation"/>
+    <hyperlink ref="B97" r:id="rId85" display="Check if two given strings are isomorphic to each other"/>
+    <hyperlink ref="B98" r:id="rId86" display="Recursively print all sentences that can be formed from list of word lists"/>
+    <hyperlink ref="B101" r:id="rId87" display="Find first and last positions of an element in a sorted array"/>
+    <hyperlink ref="B102" r:id="rId88" display="Find a Fixed Point (Value equal to index) in a given array"/>
+    <hyperlink ref="B103" r:id="rId89" display="Search in a rotated sorted array"/>
+    <hyperlink ref="B104" r:id="rId90" display="square root of an integer"/>
+    <hyperlink ref="B106" r:id="rId91" display="Optimum location of point to minimize total distance"/>
+    <hyperlink ref="B107" r:id="rId92" display="Find the repeating and the missing"/>
+    <hyperlink ref="B108" r:id="rId93" display="find majority element"/>
+    <hyperlink ref="B109" r:id="rId94" display="Searching in an array where adjacent differ by at most k"/>
+    <hyperlink ref="B110" r:id="rId95" display="find a pair with a given difference"/>
+    <hyperlink ref="B111" r:id="rId96" display="find four elements that sum to a given value"/>
+    <hyperlink ref="B113" r:id="rId97" display="Count triplet with sum smaller than a given value"/>
     <hyperlink ref="B114" r:id="rId12" display="merge 2 sorted arrays"/>
-    <hyperlink ref="B115" r:id="rId99" display="print all subarrays with 0 sum"/>
-    <hyperlink ref="B116" r:id="rId100" display="Product array Puzzle"/>
-    <hyperlink ref="B117" r:id="rId101" display="Sort array according to count of set bits"/>
-    <hyperlink ref="B118" r:id="rId102" display="minimum no. of swaps required to sort the array"/>
-    <hyperlink ref="B119" r:id="rId103" display="Bishu and Soldiers"/>
-    <hyperlink ref="B120" r:id="rId104" display="Rasta and Kheshtak"/>
-    <hyperlink ref="B121" r:id="rId105" display="Kth smallest number again"/>
-    <hyperlink ref="B122" r:id="rId106" display="Find pivot element in a sorted array"/>
-    <hyperlink ref="B123" r:id="rId107" display="K-th Element of Two Sorted Arrays"/>
-    <hyperlink ref="B124" r:id="rId108" display="Aggressive cows"/>
-    <hyperlink ref="B125" r:id="rId109" display="Book Allocation Problem"/>
-    <hyperlink ref="B126" r:id="rId110" display="EKOSPOJ:"/>
-    <hyperlink ref="B127" r:id="rId111" display="Job Scheduling Algo"/>
-    <hyperlink ref="B128" r:id="rId112" display="Missing Number in AP"/>
-    <hyperlink ref="B129" r:id="rId113" display="Smallest number with atleastn trailing zeroes infactorial"/>
-    <hyperlink ref="B130" r:id="rId109" display="Painters Partition Problem:"/>
-    <hyperlink ref="B131" r:id="rId114" display="ROTI-Prata SPOJ"/>
-    <hyperlink ref="B132" r:id="rId115" display="DoubleHelix SPOJ"/>
-    <hyperlink ref="B133" r:id="rId116" display="Subset Sums"/>
+    <hyperlink ref="B115" r:id="rId98" display="print all subarrays with 0 sum"/>
+    <hyperlink ref="B116" r:id="rId99" display="Product array Puzzle"/>
+    <hyperlink ref="B117" r:id="rId100" display="Sort array according to count of set bits"/>
+    <hyperlink ref="B118" r:id="rId101" display="minimum no. of swaps required to sort the array"/>
+    <hyperlink ref="B119" r:id="rId102" display="Bishu and Soldiers"/>
+    <hyperlink ref="B120" r:id="rId103" display="Rasta and Kheshtak"/>
+    <hyperlink ref="B121" r:id="rId104" display="Kth smallest number again"/>
+    <hyperlink ref="B122" r:id="rId105" display="Find pivot element in a sorted array"/>
+    <hyperlink ref="B123" r:id="rId106" display="K-th Element of Two Sorted Arrays"/>
+    <hyperlink ref="B124" r:id="rId107" display="Aggressive cows"/>
+    <hyperlink ref="B125" r:id="rId108" display="Book Allocation Problem"/>
+    <hyperlink ref="B126" r:id="rId109" display="EKOSPOJ:"/>
+    <hyperlink ref="B127" r:id="rId110" display="Job Scheduling Algo"/>
+    <hyperlink ref="B128" r:id="rId111" display="Missing Number in AP"/>
+    <hyperlink ref="B129" r:id="rId112" display="Smallest number with atleastn trailing zeroes infactorial"/>
+    <hyperlink ref="B130" r:id="rId108" display="Painters Partition Problem:"/>
+    <hyperlink ref="B131" r:id="rId113" display="ROTI-Prata SPOJ"/>
+    <hyperlink ref="B132" r:id="rId114" display="DoubleHelix SPOJ"/>
+    <hyperlink ref="B133" r:id="rId115" display="Subset Sums"/>
     <hyperlink ref="B134" r:id="rId15" display="Findthe inversion count"/>
-    <hyperlink ref="B135" r:id="rId117" display="Implement Merge-sort in-place"/>
-    <hyperlink ref="B136" r:id="rId118" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
-    <hyperlink ref="B105" r:id="rId119" display="Maximum and minimum of an array using minimum number of comparisons"/>
-    <hyperlink ref="B112" r:id="rId120" display="maximum sum such that no 2 elements are adjacent"/>
-    <hyperlink ref="B139" r:id="rId121" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
-    <hyperlink ref="B140" r:id="rId122" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
-    <hyperlink ref="B141" r:id="rId123" display="Write a program to Detect loop in a linked list."/>
-    <hyperlink ref="B142" r:id="rId124" display="Write a program to Delete loop in a linked list."/>
-    <hyperlink ref="B143" r:id="rId125" display="Find the starting point of the loop. "/>
-    <hyperlink ref="B144" r:id="rId126" display="Remove Duplicates in a sorted Linked List."/>
-    <hyperlink ref="B145" r:id="rId127" display="Remove Duplicates in a Un-sorted Linked List."/>
-    <hyperlink ref="B146" r:id="rId128" display="Write a Program to Move the last element to Front in a Linked List."/>
-    <hyperlink ref="B147" r:id="rId129" display="Add “1” to a number represented as a Linked List."/>
-    <hyperlink ref="B148" r:id="rId130" display="Add two numbers represented by linked lists."/>
-    <hyperlink ref="B149" r:id="rId131" display="Intersection of two Sorted Linked List."/>
-    <hyperlink ref="B150" r:id="rId132" display="Intersection Point of two Linked Lists."/>
-    <hyperlink ref="B151" r:id="rId133" display="Merge Sort For Linked lists.[Very Important]"/>
-    <hyperlink ref="B152" r:id="rId134" display="Quicksort for Linked Lists.[Very Important]"/>
-    <hyperlink ref="B153" r:id="rId135" display="Find the middle Element of a linked list."/>
-    <hyperlink ref="B154" r:id="rId136" display="Check if a linked list is a circular linked list."/>
-    <hyperlink ref="B155" r:id="rId137" display="Split a Circular linked list into two halves."/>
-    <hyperlink ref="B156" r:id="rId138" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
-    <hyperlink ref="B157" r:id="rId139" display="Deletion from a Circular Linked List."/>
-    <hyperlink ref="B158" r:id="rId140" display="Reverse a Doubly Linked list."/>
-    <hyperlink ref="B159" r:id="rId141" display="Find pairs with a given sum in a DLL."/>
-    <hyperlink ref="B160" r:id="rId142" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
-    <hyperlink ref="B161" r:id="rId143" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
-    <hyperlink ref="B162" r:id="rId144" display="Rotate DoublyLinked list by N nodes."/>
-    <hyperlink ref="B163" r:id="rId145" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
-    <hyperlink ref="B166" r:id="rId146" display="Flatten a Linked List"/>
-    <hyperlink ref="B167" r:id="rId147" display="Sort a LL of 0's, 1's and 2's"/>
-    <hyperlink ref="B168" r:id="rId148" display="Clone a linked list with next and random pointer"/>
-    <hyperlink ref="B169" r:id="rId149" display="Merge K sorted Linked list"/>
-    <hyperlink ref="B170" r:id="rId150" display="Multiply 2 no. represented by LL"/>
-    <hyperlink ref="B171" r:id="rId151" display="Delete nodes which have a greater value on right side"/>
-    <hyperlink ref="B172" r:id="rId152" display="Segregate even and odd nodes in a Linked List"/>
-    <hyperlink ref="B173" r:id="rId153" display="Program for n’th node from the end of a Linked List"/>
-    <hyperlink ref="B174" r:id="rId154" display="Find the first non-repeating character from a stream of characters"/>
-    <hyperlink ref="B177" r:id="rId155" display="level order traversal"/>
-    <hyperlink ref="B178" r:id="rId156" display="Reverse Level Order traversal"/>
-    <hyperlink ref="B179" r:id="rId157" display="Height of a tree"/>
-    <hyperlink ref="B180" r:id="rId158" display="Diameter of a tree"/>
-    <hyperlink ref="B181" r:id="rId159" display="Mirror of a tree"/>
-    <hyperlink ref="B182" r:id="rId160" display="Inorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B183" r:id="rId161" display="Preorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B184" r:id="rId162" display="Postorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B185" r:id="rId163" display="Left View of a tree"/>
-    <hyperlink ref="B186" r:id="rId164" display="Right View of Tree"/>
-    <hyperlink ref="B187" r:id="rId165" display="Top View of a tree"/>
-    <hyperlink ref="B188" r:id="rId166" display="Bottom View of a tree"/>
-    <hyperlink ref="B189" r:id="rId167" display="Zig-Zag traversal of a binary tree"/>
-    <hyperlink ref="B190" r:id="rId168" display="Check if a tree is balanced or not"/>
-    <hyperlink ref="B191" r:id="rId169" display="Diagnol Traversal of a Binary tree"/>
-    <hyperlink ref="B192" r:id="rId170" display="Boundary traversal of a Binary tree"/>
-    <hyperlink ref="B193" r:id="rId171" display="Construct Binary Tree from String with Bracket Representation"/>
-    <hyperlink ref="B194" r:id="rId172" display="Convert Binary tree into Doubly Linked List"/>
-    <hyperlink ref="B195" r:id="rId173" display="Convert Binary tree into Sum tree"/>
-    <hyperlink ref="B196" r:id="rId174" display="Construct Binary tree from Inorder and preorder traversal"/>
-    <hyperlink ref="B197" r:id="rId175" display="Find minimum swaps required to convert a Binary tree into BST"/>
-    <hyperlink ref="B198" r:id="rId176" display="Check if Binary tree is Sum tree or not"/>
-    <hyperlink ref="B199" r:id="rId177" display="Check if all leaf nodes are at same level or not"/>
-    <hyperlink ref="B200" r:id="rId178" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
-    <hyperlink ref="B201" r:id="rId179" display="Check if 2 trees are mirror or not"/>
-    <hyperlink ref="B202" r:id="rId180" display="Sum of Nodes on the Longest path from root to leaf node "/>
-    <hyperlink ref="B203" r:id="rId181" display="Check if given graph is tree or not.  [ IMP ]"/>
-    <hyperlink ref="B204" r:id="rId182" display="Find Largest subtree sum in a tree"/>
-    <hyperlink ref="B205" r:id="rId183" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
-    <hyperlink ref="B206" r:id="rId184" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
-    <hyperlink ref="B207" r:id="rId185" display="Find LCA in a Binary tree"/>
-    <hyperlink ref="B208" r:id="rId186" display="Find distance between 2 nodes in a Binary tree"/>
-    <hyperlink ref="B209" r:id="rId187" display="Kth Ancestor of node in a Binary tree"/>
-    <hyperlink ref="B210" r:id="rId188" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
-    <hyperlink ref="B211" r:id="rId189" display="Tree Isomorphism Problem"/>
-    <hyperlink ref="B214" r:id="rId190" display="Fina a value in a BST"/>
-    <hyperlink ref="B215" r:id="rId191" display="Deletion of a node in a BST"/>
-    <hyperlink ref="B216" r:id="rId192" display="Find min and max value in a BST"/>
-    <hyperlink ref="B217" r:id="rId193" display="Find inorder successor and inorder predecessor in a BST"/>
-    <hyperlink ref="B218" r:id="rId194" display="Check if a tree is a BST or not "/>
-    <hyperlink ref="B219" r:id="rId195" display="Populate Inorder successor of all nodes"/>
-    <hyperlink ref="B220" r:id="rId196" display="Find LCA  of 2 nodes in a BST"/>
-    <hyperlink ref="B221" r:id="rId197" display="Construct BST from preorder traversal"/>
-    <hyperlink ref="B222" r:id="rId198" display="Convert Binary tree into BST"/>
-    <hyperlink ref="B223" r:id="rId199" display="Convert a normal BST into a Balanced BST"/>
-    <hyperlink ref="B224" r:id="rId200" display="Merge two BST [ V.V.V&gt;IMP ]"/>
-    <hyperlink ref="B225" r:id="rId201" display="Find Kth largest element in a BST"/>
-    <hyperlink ref="B226" r:id="rId202" display="Find Kth smallest element in a BST"/>
-    <hyperlink ref="B227" r:id="rId203" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
-    <hyperlink ref="B228" r:id="rId204" display="Find the median of BST in O(n) time and O(1) space"/>
-    <hyperlink ref="B229" r:id="rId205" display="Count BST ndoes that lie in a given range"/>
-    <hyperlink ref="B230" r:id="rId206" display="Replace every element with the least greater element on its right"/>
-    <hyperlink ref="B231" r:id="rId207" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
-    <hyperlink ref="B232" r:id="rId208" display="Check preorder is valid or not"/>
-    <hyperlink ref="B233" r:id="rId209" display="Check whether BST contains Dead end"/>
-    <hyperlink ref="B234" r:id="rId210" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
-    <hyperlink ref="B235" r:id="rId211" display="Flatten BST to sorted list"/>
-    <hyperlink ref="B238" r:id="rId212" display="Activity Selection Problem"/>
-    <hyperlink ref="B239" r:id="rId213" display="Job SequencingProblem"/>
-    <hyperlink ref="B240" r:id="rId214" display="Huffman Coding"/>
-    <hyperlink ref="B241" r:id="rId215" display="Water Connection Problem"/>
-    <hyperlink ref="B242" r:id="rId216" display="Fractional Knapsack Problem"/>
-    <hyperlink ref="B243" r:id="rId217" display="Greedy Algorithm to find Minimum number of Coins"/>
-    <hyperlink ref="B244" r:id="rId218" display="Maximum trains for which stoppage can be provided"/>
-    <hyperlink ref="B245" r:id="rId219" display="Minimum Platforms Problem"/>
-    <hyperlink ref="B246" r:id="rId220" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
-    <hyperlink ref="B247" r:id="rId221" display="Find the minimum and maximum amount to buy all N candies"/>
-    <hyperlink ref="B248" r:id="rId222" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B249" r:id="rId223" display="Minimum Cost to cut a board into squares"/>
-    <hyperlink ref="B250" r:id="rId224" display="Check if it is possible to survive on Island"/>
-    <hyperlink ref="B251" r:id="rId225" display="Find maximum meetings in one room"/>
-    <hyperlink ref="B252" r:id="rId226" display="Maximum product subset of an array"/>
-    <hyperlink ref="B253" r:id="rId227" display="Maximize array sum after K negations"/>
-    <hyperlink ref="B254" r:id="rId228" display="Maximize the sum of arr[i]*i"/>
-    <hyperlink ref="B255" r:id="rId229" display="Maximum sum of absolute difference of an array"/>
-    <hyperlink ref="B256" r:id="rId230" display="Maximize sum of consecutive differences in a circular array"/>
-    <hyperlink ref="B257" r:id="rId231" display="Minimum sum of absolute difference of pairs of two arrays"/>
-    <hyperlink ref="B258" r:id="rId232" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
-    <hyperlink ref="B259" r:id="rId233" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
-    <hyperlink ref="B260" r:id="rId234" display="Smallest subset with sum greater than all other elements"/>
+    <hyperlink ref="B135" r:id="rId116" display="Implement Merge-sort in-place"/>
+    <hyperlink ref="B136" r:id="rId117" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
+    <hyperlink ref="B105" r:id="rId118" display="Maximum and minimum of an array using minimum number of comparisons"/>
+    <hyperlink ref="B112" r:id="rId119" display="maximum sum such that no 2 elements are adjacent"/>
+    <hyperlink ref="B139" r:id="rId120" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
+    <hyperlink ref="B140" r:id="rId121" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
+    <hyperlink ref="B141" r:id="rId122" display="Write a program to Detect loop in a linked list."/>
+    <hyperlink ref="B142" r:id="rId123" display="Write a program to Delete loop in a linked list."/>
+    <hyperlink ref="B143" r:id="rId124" display="Find the starting point of the loop. "/>
+    <hyperlink ref="B144" r:id="rId125" display="Remove Duplicates in a sorted Linked List."/>
+    <hyperlink ref="B145" r:id="rId126" display="Remove Duplicates in a Un-sorted Linked List."/>
+    <hyperlink ref="B146" r:id="rId127" display="Write a Program to Move the last element to Front in a Linked List."/>
+    <hyperlink ref="B147" r:id="rId128" display="Add “1” to a number represented as a Linked List."/>
+    <hyperlink ref="B148" r:id="rId129" display="Add two numbers represented by linked lists."/>
+    <hyperlink ref="B149" r:id="rId130" display="Intersection of two Sorted Linked List."/>
+    <hyperlink ref="B150" r:id="rId131" display="Intersection Point of two Linked Lists."/>
+    <hyperlink ref="B151" r:id="rId132" display="Merge Sort For Linked lists.[Very Important]"/>
+    <hyperlink ref="B152" r:id="rId133" display="Quicksort for Linked Lists.[Very Important]"/>
+    <hyperlink ref="B153" r:id="rId134" display="Find the middle Element of a linked list."/>
+    <hyperlink ref="B154" r:id="rId135" display="Check if a linked list is a circular linked list."/>
+    <hyperlink ref="B155" r:id="rId136" display="Split a Circular linked list into two halves."/>
+    <hyperlink ref="B156" r:id="rId137" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
+    <hyperlink ref="B157" r:id="rId138" display="Deletion from a Circular Linked List."/>
+    <hyperlink ref="B158" r:id="rId139" display="Reverse a Doubly Linked list."/>
+    <hyperlink ref="B159" r:id="rId140" display="Find pairs with a given sum in a DLL."/>
+    <hyperlink ref="B160" r:id="rId141" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
+    <hyperlink ref="B161" r:id="rId142" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
+    <hyperlink ref="B162" r:id="rId143" display="Rotate DoublyLinked list by N nodes."/>
+    <hyperlink ref="B163" r:id="rId144" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
+    <hyperlink ref="B166" r:id="rId145" display="Flatten a Linked List"/>
+    <hyperlink ref="B167" r:id="rId146" display="Sort a LL of 0's, 1's and 2's"/>
+    <hyperlink ref="B168" r:id="rId147" display="Clone a linked list with next and random pointer"/>
+    <hyperlink ref="B169" r:id="rId148" display="Merge K sorted Linked list"/>
+    <hyperlink ref="B170" r:id="rId149" display="Multiply 2 no. represented by LL"/>
+    <hyperlink ref="B171" r:id="rId150" display="Delete nodes which have a greater value on right side"/>
+    <hyperlink ref="B172" r:id="rId151" display="Segregate even and odd nodes in a Linked List"/>
+    <hyperlink ref="B173" r:id="rId152" display="Program for n’th node from the end of a Linked List"/>
+    <hyperlink ref="B174" r:id="rId153" display="Find the first non-repeating character from a stream of characters"/>
+    <hyperlink ref="B177" r:id="rId154" display="level order traversal"/>
+    <hyperlink ref="B178" r:id="rId155" display="Reverse Level Order traversal"/>
+    <hyperlink ref="B179" r:id="rId156" display="Height of a tree"/>
+    <hyperlink ref="B180" r:id="rId157" display="Diameter of a tree"/>
+    <hyperlink ref="B181" r:id="rId158" display="Mirror of a tree"/>
+    <hyperlink ref="B182" r:id="rId159" display="Inorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B183" r:id="rId160" display="Preorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B184" r:id="rId161" display="Postorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B185" r:id="rId162" display="Left View of a tree"/>
+    <hyperlink ref="B186" r:id="rId163" display="Right View of Tree"/>
+    <hyperlink ref="B187" r:id="rId164" display="Top View of a tree"/>
+    <hyperlink ref="B188" r:id="rId165" display="Bottom View of a tree"/>
+    <hyperlink ref="B189" r:id="rId166" display="Zig-Zag traversal of a binary tree"/>
+    <hyperlink ref="B190" r:id="rId167" display="Check if a tree is balanced or not"/>
+    <hyperlink ref="B191" r:id="rId168" display="Diagnol Traversal of a Binary tree"/>
+    <hyperlink ref="B192" r:id="rId169" display="Boundary traversal of a Binary tree"/>
+    <hyperlink ref="B193" r:id="rId170" display="Construct Binary Tree from String with Bracket Representation"/>
+    <hyperlink ref="B194" r:id="rId171" display="Convert Binary tree into Doubly Linked List"/>
+    <hyperlink ref="B195" r:id="rId172" display="Convert Binary tree into Sum tree"/>
+    <hyperlink ref="B196" r:id="rId173" display="Construct Binary tree from Inorder and preorder traversal"/>
+    <hyperlink ref="B197" r:id="rId174" display="Find minimum swaps required to convert a Binary tree into BST"/>
+    <hyperlink ref="B198" r:id="rId175" display="Check if Binary tree is Sum tree or not"/>
+    <hyperlink ref="B199" r:id="rId176" display="Check if all leaf nodes are at same level or not"/>
+    <hyperlink ref="B200" r:id="rId177" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
+    <hyperlink ref="B201" r:id="rId178" display="Check if 2 trees are mirror or not"/>
+    <hyperlink ref="B202" r:id="rId179" display="Sum of Nodes on the Longest path from root to leaf node "/>
+    <hyperlink ref="B203" r:id="rId180" display="Check if given graph is tree or not.  [ IMP ]"/>
+    <hyperlink ref="B204" r:id="rId181" display="Find Largest subtree sum in a tree"/>
+    <hyperlink ref="B205" r:id="rId182" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
+    <hyperlink ref="B206" r:id="rId183" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
+    <hyperlink ref="B207" r:id="rId184" display="Find LCA in a Binary tree"/>
+    <hyperlink ref="B208" r:id="rId185" display="Find distance between 2 nodes in a Binary tree"/>
+    <hyperlink ref="B209" r:id="rId186" display="Kth Ancestor of node in a Binary tree"/>
+    <hyperlink ref="B210" r:id="rId187" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
+    <hyperlink ref="B211" r:id="rId188" display="Tree Isomorphism Problem"/>
+    <hyperlink ref="B214" r:id="rId189" display="Fina a value in a BST"/>
+    <hyperlink ref="B215" r:id="rId190" display="Deletion of a node in a BST"/>
+    <hyperlink ref="B216" r:id="rId191" display="Find min and max value in a BST"/>
+    <hyperlink ref="B217" r:id="rId192" display="Find inorder successor and inorder predecessor in a BST"/>
+    <hyperlink ref="B218" r:id="rId193" display="Check if a tree is a BST or not "/>
+    <hyperlink ref="B219" r:id="rId194" display="Populate Inorder successor of all nodes"/>
+    <hyperlink ref="B220" r:id="rId195" display="Find LCA  of 2 nodes in a BST"/>
+    <hyperlink ref="B221" r:id="rId196" display="Construct BST from preorder traversal"/>
+    <hyperlink ref="B222" r:id="rId197" display="Convert Binary tree into BST"/>
+    <hyperlink ref="B223" r:id="rId198" display="Convert a normal BST into a Balanced BST"/>
+    <hyperlink ref="B224" r:id="rId199" display="Merge two BST [ V.V.V&gt;IMP ]"/>
+    <hyperlink ref="B225" r:id="rId200" display="Find Kth largest element in a BST"/>
+    <hyperlink ref="B226" r:id="rId201" display="Find Kth smallest element in a BST"/>
+    <hyperlink ref="B227" r:id="rId202" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
+    <hyperlink ref="B228" r:id="rId203" display="Find the median of BST in O(n) time and O(1) space"/>
+    <hyperlink ref="B229" r:id="rId204" display="Count BST ndoes that lie in a given range"/>
+    <hyperlink ref="B230" r:id="rId205" display="Replace every element with the least greater element on its right"/>
+    <hyperlink ref="B231" r:id="rId206" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
+    <hyperlink ref="B232" r:id="rId207" display="Check preorder is valid or not"/>
+    <hyperlink ref="B233" r:id="rId208" display="Check whether BST contains Dead end"/>
+    <hyperlink ref="B234" r:id="rId209" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
+    <hyperlink ref="B235" r:id="rId210" display="Flatten BST to sorted list"/>
+    <hyperlink ref="B238" r:id="rId211" display="Activity Selection Problem"/>
+    <hyperlink ref="B239" r:id="rId212" display="Job SequencingProblem"/>
+    <hyperlink ref="B240" r:id="rId213" display="Huffman Coding"/>
+    <hyperlink ref="B241" r:id="rId214" display="Water Connection Problem"/>
+    <hyperlink ref="B242" r:id="rId215" display="Fractional Knapsack Problem"/>
+    <hyperlink ref="B243" r:id="rId216" display="Greedy Algorithm to find Minimum number of Coins"/>
+    <hyperlink ref="B244" r:id="rId217" display="Maximum trains for which stoppage can be provided"/>
+    <hyperlink ref="B245" r:id="rId218" display="Minimum Platforms Problem"/>
+    <hyperlink ref="B246" r:id="rId219" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
+    <hyperlink ref="B247" r:id="rId220" display="Find the minimum and maximum amount to buy all N candies"/>
+    <hyperlink ref="B248" r:id="rId221" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="B249" r:id="rId222" display="Minimum Cost to cut a board into squares"/>
+    <hyperlink ref="B250" r:id="rId223" display="Check if it is possible to survive on Island"/>
+    <hyperlink ref="B251" r:id="rId224" display="Find maximum meetings in one room"/>
+    <hyperlink ref="B252" r:id="rId225" display="Maximum product subset of an array"/>
+    <hyperlink ref="B253" r:id="rId226" display="Maximize array sum after K negations"/>
+    <hyperlink ref="B254" r:id="rId227" display="Maximize the sum of arr[i]*i"/>
+    <hyperlink ref="B255" r:id="rId228" display="Maximum sum of absolute difference of an array"/>
+    <hyperlink ref="B256" r:id="rId229" display="Maximize sum of consecutive differences in a circular array"/>
+    <hyperlink ref="B257" r:id="rId230" display="Minimum sum of absolute difference of pairs of two arrays"/>
+    <hyperlink ref="B258" r:id="rId231" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
+    <hyperlink ref="B259" r:id="rId232" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
+    <hyperlink ref="B260" r:id="rId233" display="Smallest subset with sum greater than all other elements"/>
     <hyperlink ref="B261" r:id="rId29" display="Chocolate Distribution Problem"/>
-    <hyperlink ref="B262" r:id="rId235" display="DEFKIN -Defense of a Kingdom"/>
-    <hyperlink ref="B263" r:id="rId236" display="DIEHARD -DIE HARD"/>
-    <hyperlink ref="B264" r:id="rId237" display="GERGOVIA -Wine trading in Gergovia"/>
-    <hyperlink ref="B265" r:id="rId238" display="Picking Up Chicks"/>
-    <hyperlink ref="B266" r:id="rId239" display="CHOCOLA –Chocolate"/>
-    <hyperlink ref="B267" r:id="rId240" display="ARRANGE -Arranging Amplifiers"/>
-    <hyperlink ref="B268" r:id="rId241" display="K Centers Problem"/>
-    <hyperlink ref="B269" r:id="rId242" display="Minimum Cost of ropes"/>
-    <hyperlink ref="B270" r:id="rId243" display="Find smallest number with given number of digits and sum of digits"/>
-    <hyperlink ref="B271" r:id="rId78" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B272" r:id="rId244" display="Find maximum sum possible equal sum of three stacks"/>
-    <hyperlink ref="B275" r:id="rId245" display="Rat in a maze Problem"/>
-    <hyperlink ref="B276" r:id="rId246" display="Printing all solutions in N-Queen Problem"/>
-    <hyperlink ref="B277" r:id="rId247" display="Word Break Problem using Backtracking"/>
-    <hyperlink ref="B278" r:id="rId248" display="Remove Invalid Parentheses"/>
-    <hyperlink ref="B279" r:id="rId249" display="Sudoku Solver"/>
-    <hyperlink ref="B280" r:id="rId250" display="m Coloring Problem"/>
-    <hyperlink ref="B281" r:id="rId251" display="Print all palindromic partitions of a string"/>
-    <hyperlink ref="B282" r:id="rId252" display="Subset Sum Problem"/>
-    <hyperlink ref="B283" r:id="rId253" display="The Knight’s tour problem"/>
-    <hyperlink ref="B284" r:id="rId254" display="Tug of War"/>
-    <hyperlink ref="B285" r:id="rId255" display="Find shortest safe route in a path with landmines"/>
-    <hyperlink ref="B286" r:id="rId256" display="Combinational Sum"/>
-    <hyperlink ref="B287" r:id="rId257" display="Find Maximum number possible by doing at-most K swaps"/>
-    <hyperlink ref="B288" r:id="rId55" display="Print all permutations of a string "/>
-    <hyperlink ref="B289" r:id="rId258" display="Find if there is a path of more than k length from a source"/>
-    <hyperlink ref="B290" r:id="rId259" display="Longest Possible Route in a Matrix with Hurdles"/>
-    <hyperlink ref="B291" r:id="rId260" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
-    <hyperlink ref="B292" r:id="rId261" display="Partition of a set intoK subsets with equal sum"/>
-    <hyperlink ref="B293" r:id="rId262" display="Find the K-th Permutation Sequence of first N natural numbers"/>
-    <hyperlink ref="B296" r:id="rId263" display=" Implement Stack from Scratch"/>
-    <hyperlink ref="B297" r:id="rId264" display=" Implement Queue from Scratch"/>
-    <hyperlink ref="B298" r:id="rId265" display="Implement 2 stack in an array"/>
-    <hyperlink ref="B299" r:id="rId266" display="find the middle element of a stack"/>
-    <hyperlink ref="B300" r:id="rId267" display="Implement &quot;N&quot; stacks in an Array"/>
-    <hyperlink ref="B301" r:id="rId60" display="Check the expression has valid or Balanced parenthesis or not."/>
-    <hyperlink ref="B302" r:id="rId268" display="Reverse a String using Stack"/>
-    <hyperlink ref="B303" r:id="rId269" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
-    <hyperlink ref="B304" r:id="rId270" display="Find the next Greater element"/>
-    <hyperlink ref="B305" r:id="rId271" display="The celebrity Problem"/>
-    <hyperlink ref="B306" r:id="rId272" display="Arithmetic Expression evaluation"/>
-    <hyperlink ref="B307" r:id="rId273" display="Evaluation of Postfix expression"/>
-    <hyperlink ref="B308" r:id="rId274" display="Implement a method to insert an element at its bottom without using any other data structure."/>
-    <hyperlink ref="B309" r:id="rId275" display="Reverse a stack using recursion"/>
-    <hyperlink ref="B310" r:id="rId276" display="Sort a Stack using recursion"/>
-    <hyperlink ref="B311" r:id="rId277" display="Merge Overlapping Intervals"/>
-    <hyperlink ref="B312" r:id="rId278" display="Largest rectangular Area in Histogram"/>
-    <hyperlink ref="B313" r:id="rId279" display="Length of the Longest Valid Substring"/>
-    <hyperlink ref="B314" r:id="rId280" display="Expression contains redundant bracket or not"/>
-    <hyperlink ref="B315" r:id="rId281" display="Implement Stack using Queue"/>
-    <hyperlink ref="B316" r:id="rId282" display="Implement Stack using Deque"/>
-    <hyperlink ref="B317" r:id="rId283" display="Stack Permutations (Check if an array is stack permutation of other)"/>
-    <hyperlink ref="B318" r:id="rId284" display="Implement Queue using Stack  "/>
-    <hyperlink ref="B319" r:id="rId285" display="Implement &quot;n&quot; queue in an array"/>
-    <hyperlink ref="B320" r:id="rId286" display="Implement a Circular queue"/>
-    <hyperlink ref="B321" r:id="rId287" display="LRU Cache Implementationa"/>
-    <hyperlink ref="B322" r:id="rId288" display="Reverse a Queue using recursion"/>
-    <hyperlink ref="B323" r:id="rId289" display="Reverse the first “K” elements of a queue"/>
-    <hyperlink ref="B324" r:id="rId290" display="Interleave the first half of the queue with second half"/>
-    <hyperlink ref="B325" r:id="rId291" display="Find the first circular tour that visits all Petrol Pumps"/>
-    <hyperlink ref="B326" r:id="rId292" display="Minimum time required to rot all oranges"/>
-    <hyperlink ref="B327" r:id="rId293" display="Distance of nearest cell having 1 in a binary matrix"/>
-    <hyperlink ref="B328" r:id="rId294" display="First negative integer in every window of size “k”"/>
-    <hyperlink ref="B329" r:id="rId295" display="Check if all levels of two trees are anagrams or not."/>
-    <hyperlink ref="B330" r:id="rId296" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
-    <hyperlink ref="B331" r:id="rId297" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
-    <hyperlink ref="B332" r:id="rId154" display="Queue based approach or first non-repeating character in a stream."/>
-    <hyperlink ref="B333" r:id="rId298" display="Next Smaller Element"/>
-    <hyperlink ref="B336" r:id="rId299" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
-    <hyperlink ref="B337" r:id="rId300" display="Sort an Array using heap. (HeapSort)"/>
-    <hyperlink ref="B338" r:id="rId301" display="Maximum of all subarrays of size k."/>
-    <hyperlink ref="B339" r:id="rId302" display="“k” largest element in an array"/>
-    <hyperlink ref="B340" r:id="rId303" display="Kth smallest and largest element in an unsorted array"/>
-    <hyperlink ref="B341" r:id="rId304" display="Merge “K” sorted arrays. [ IMP ]"/>
-    <hyperlink ref="B342" r:id="rId305" display="Merge 2 Binary Max Heaps"/>
-    <hyperlink ref="B343" r:id="rId306" display="Kth largest sum continuous subarrays"/>
-    <hyperlink ref="B344" r:id="rId307" display="Leetcode- reorganize strings"/>
-    <hyperlink ref="B345" r:id="rId149" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
-    <hyperlink ref="B346" r:id="rId308" display="Smallest range in “K” Lists"/>
-    <hyperlink ref="B347" r:id="rId309" display="Median in a stream of Integers"/>
-    <hyperlink ref="B348" r:id="rId310" display="Check if a Binary Tree is Heap"/>
-    <hyperlink ref="B349" r:id="rId242" display="Connect “n” ropes with minimum cost"/>
-    <hyperlink ref="B350" r:id="rId311" display="Convert BST to Min Heap"/>
-    <hyperlink ref="B351" r:id="rId312" display="Convert min heap to max heap"/>
-    <hyperlink ref="B352" r:id="rId78" display="Rearrange characters in a string such that no two adjacent are same."/>
-    <hyperlink ref="B353" r:id="rId313" display="Minimum sum of two numbers formed from digits of an array"/>
-    <hyperlink ref="B357" r:id="rId314" display="Implement BFS algorithm "/>
-    <hyperlink ref="B358" r:id="rId315" display="Implement DFS Algo "/>
-    <hyperlink ref="B359" r:id="rId316" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B360" r:id="rId317" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B361" r:id="rId245" display="Search in a Maze"/>
-    <hyperlink ref="B362" r:id="rId318" display="Minimum Step by Knight"/>
-    <hyperlink ref="B363" r:id="rId319" display="flood fill algo"/>
-    <hyperlink ref="B364" r:id="rId320" display="Clone a graph"/>
-    <hyperlink ref="B365" r:id="rId321" display="Making wired Connections"/>
-    <hyperlink ref="B366" r:id="rId322" display="word Ladder "/>
-    <hyperlink ref="B367" r:id="rId323" display="Dijkstra algo"/>
-    <hyperlink ref="B368" r:id="rId324" display="Implement Topological Sort "/>
-    <hyperlink ref="B369" r:id="rId325" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
-    <hyperlink ref="B370" r:id="rId326" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
-    <hyperlink ref="B371" r:id="rId327" display="Find the no. of Isalnds"/>
-    <hyperlink ref="B372" r:id="rId328" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
-    <hyperlink ref="B373" r:id="rId329" display="Implement Kruksal’sAlgorithm"/>
-    <hyperlink ref="B374" r:id="rId330" display="Implement Prim’s Algorithm"/>
-    <hyperlink ref="B375" r:id="rId331" display="Total no. of Spanning tree in a graph"/>
-    <hyperlink ref="B376" r:id="rId332" display="Implement Bellman Ford Algorithm"/>
-    <hyperlink ref="B377" r:id="rId333" display="Implement Floyd warshallAlgorithm"/>
-    <hyperlink ref="B378" r:id="rId334" display="Travelling Salesman Problem"/>
-    <hyperlink ref="B379" r:id="rId335" display="Graph ColouringProblem"/>
-    <hyperlink ref="B380" r:id="rId336" display="Snake and Ladders Problem"/>
-    <hyperlink ref="B381" r:id="rId337" display="Find bridge in a graph"/>
-    <hyperlink ref="B382" r:id="rId338" display="Count Strongly connected Components(Kosaraju Algo)"/>
-    <hyperlink ref="B383" r:id="rId339" display="Check whether a graph is Bipartite or Not"/>
-    <hyperlink ref="B384" r:id="rId340" display="Detect Negative cycle in a graph"/>
-    <hyperlink ref="B385" r:id="rId341" display="Longest path in a Directed Acyclic Graph"/>
-    <hyperlink ref="B386" r:id="rId342" display="Journey to the Moon"/>
-    <hyperlink ref="B387" r:id="rId343" display="Cheapest Flights Within K Stops"/>
-    <hyperlink ref="B388" r:id="rId344" display="Oliver and the Game"/>
-    <hyperlink ref="B389" r:id="rId345" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B390" r:id="rId345" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B391" r:id="rId258" display="Find if there is a path of more thank length from a source"/>
-    <hyperlink ref="B392" r:id="rId250" display="M-ColouringProblem"/>
-    <hyperlink ref="B393" r:id="rId346" display="Minimum edges to reverse o make path from source to destination"/>
-    <hyperlink ref="B394" r:id="rId347" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
-    <hyperlink ref="B396" r:id="rId348" display="Chinese Postman or Route Inspection"/>
-    <hyperlink ref="B395" r:id="rId349" display="Vertex Cover Problem"/>
-    <hyperlink ref="B397" r:id="rId350" display="Number of Triangles in a Directed and Undirected Graph"/>
-    <hyperlink ref="B398" r:id="rId222" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B399" r:id="rId351" display="Two Clique Problem"/>
-    <hyperlink ref="B402" r:id="rId352" display="Construct a trie from scratch"/>
-    <hyperlink ref="B403" r:id="rId353" display="Find shortest unique prefix for every word in a given list"/>
-    <hyperlink ref="B404" r:id="rId354" display="Word Break Problem | (Trie solution)"/>
-    <hyperlink ref="B405" r:id="rId80" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B406" r:id="rId355" display="Implement a Phone Directory"/>
-    <hyperlink ref="B407" r:id="rId356" display="Print unique rows in a given boolean matrix"/>
-    <hyperlink ref="B410" r:id="rId357" display="Coin ChangeProblem"/>
-    <hyperlink ref="B411" r:id="rId358" display="Knapsack Problem"/>
-    <hyperlink ref="B412" r:id="rId359" display="Binomial CoefficientProblem"/>
-    <hyperlink ref="B413" r:id="rId360" display="Permutation CoefficientProblem"/>
-    <hyperlink ref="B414" r:id="rId361" display="Program for nth Catalan Number"/>
-    <hyperlink ref="B415" r:id="rId362" display="Matrix Chain Multiplication "/>
-    <hyperlink ref="B416" r:id="rId58" display="Edit Distance"/>
-    <hyperlink ref="B417" r:id="rId252" display="Subset Sum Problem"/>
-    <hyperlink ref="B418" r:id="rId363" display="Friends Pairing Problem"/>
-    <hyperlink ref="B419" r:id="rId364" display="Gold Mine Problem"/>
-    <hyperlink ref="B420" r:id="rId365" display="Assembly Line SchedulingProblem"/>
-    <hyperlink ref="B421" r:id="rId366" display="Painting the Fenceproblem"/>
-    <hyperlink ref="B422" r:id="rId367" display="Maximize The Cut Segments"/>
-    <hyperlink ref="B423" r:id="rId75" display="Longest Common Subsequence"/>
-    <hyperlink ref="B424" r:id="rId53" display="Longest Repeated Subsequence"/>
-    <hyperlink ref="B425" r:id="rId368" display="Longest Increasing Subsequence"/>
-    <hyperlink ref="B426" r:id="rId369" display="Space Optimized Solution of LCS"/>
-    <hyperlink ref="B427" r:id="rId370" display="LCS (Longest Common Subsequence) of three strings"/>
-    <hyperlink ref="B428" r:id="rId371" display="Maximum Sum Increasing Subsequence"/>
-    <hyperlink ref="B429" r:id="rId372" display="Count all subsequences having product less than K"/>
-    <hyperlink ref="B430" r:id="rId373" display="Longest subsequence such that difference between adjacent is one"/>
-    <hyperlink ref="B431" r:id="rId374" display="Maximum subsequence sum such that no three are consecutive"/>
-    <hyperlink ref="B432" r:id="rId375" display="Egg Dropping Problem"/>
-    <hyperlink ref="B433" r:id="rId376" display="Maximum Length Chain of Pairs"/>
-    <hyperlink ref="B434" r:id="rId377" display="Maximum size square sub-matrix with all 1s"/>
-    <hyperlink ref="B435" r:id="rId378" display="Maximum sum of pairs with specific difference"/>
-    <hyperlink ref="B436" r:id="rId379" display="Min Cost PathProblem"/>
-    <hyperlink ref="B437" r:id="rId380" display="Maximum difference of zeros and ones in binary string"/>
+    <hyperlink ref="B262" r:id="rId234" display="DEFKIN -Defense of a Kingdom"/>
+    <hyperlink ref="B263" r:id="rId235" display="DIEHARD -DIE HARD"/>
+    <hyperlink ref="B264" r:id="rId236" display="GERGOVIA -Wine trading in Gergovia"/>
+    <hyperlink ref="B265" r:id="rId237" display="Picking Up Chicks"/>
+    <hyperlink ref="B266" r:id="rId238" display="CHOCOLA –Chocolate"/>
+    <hyperlink ref="B267" r:id="rId239" display="ARRANGE -Arranging Amplifiers"/>
+    <hyperlink ref="B268" r:id="rId240" display="K Centers Problem"/>
+    <hyperlink ref="B269" r:id="rId241" display="Minimum Cost of ropes"/>
+    <hyperlink ref="B270" r:id="rId242" display="Find smallest number with given number of digits and sum of digits"/>
+    <hyperlink ref="B271" r:id="rId77" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="B272" r:id="rId243" display="Find maximum sum possible equal sum of three stacks"/>
+    <hyperlink ref="B275" r:id="rId244" display="Rat in a maze Problem"/>
+    <hyperlink ref="B276" r:id="rId245" display="Printing all solutions in N-Queen Problem"/>
+    <hyperlink ref="B277" r:id="rId246" display="Word Break Problem using Backtracking"/>
+    <hyperlink ref="B278" r:id="rId247" display="Remove Invalid Parentheses"/>
+    <hyperlink ref="B279" r:id="rId248" display="Sudoku Solver"/>
+    <hyperlink ref="B280" r:id="rId249" display="m Coloring Problem"/>
+    <hyperlink ref="B281" r:id="rId250" display="Print all palindromic partitions of a string"/>
+    <hyperlink ref="B282" r:id="rId251" display="Subset Sum Problem"/>
+    <hyperlink ref="B283" r:id="rId252" display="The Knight’s tour problem"/>
+    <hyperlink ref="B284" r:id="rId253" display="Tug of War"/>
+    <hyperlink ref="B285" r:id="rId254" display="Find shortest safe route in a path with landmines"/>
+    <hyperlink ref="B286" r:id="rId255" display="Combinational Sum"/>
+    <hyperlink ref="B287" r:id="rId256" display="Find Maximum number possible by doing at-most K swaps"/>
+    <hyperlink ref="B288" r:id="rId54" display="Print all permutations of a string "/>
+    <hyperlink ref="B289" r:id="rId257" display="Find if there is a path of more than k length from a source"/>
+    <hyperlink ref="B290" r:id="rId258" display="Longest Possible Route in a Matrix with Hurdles"/>
+    <hyperlink ref="B291" r:id="rId259" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
+    <hyperlink ref="B292" r:id="rId260" display="Partition of a set intoK subsets with equal sum"/>
+    <hyperlink ref="B293" r:id="rId261" display="Find the K-th Permutation Sequence of first N natural numbers"/>
+    <hyperlink ref="B296" r:id="rId262" display=" Implement Stack from Scratch"/>
+    <hyperlink ref="B297" r:id="rId263" display=" Implement Queue from Scratch"/>
+    <hyperlink ref="B298" r:id="rId264" display="Implement 2 stack in an array"/>
+    <hyperlink ref="B299" r:id="rId265" display="find the middle element of a stack"/>
+    <hyperlink ref="B300" r:id="rId266" display="Implement &quot;N&quot; stacks in an Array"/>
+    <hyperlink ref="B301" r:id="rId59" display="Check the expression has valid or Balanced parenthesis or not."/>
+    <hyperlink ref="B302" r:id="rId267" display="Reverse a String using Stack"/>
+    <hyperlink ref="B303" r:id="rId268" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
+    <hyperlink ref="B304" r:id="rId269" display="Find the next Greater element"/>
+    <hyperlink ref="B305" r:id="rId270" display="The celebrity Problem"/>
+    <hyperlink ref="B306" r:id="rId271" display="Arithmetic Expression evaluation"/>
+    <hyperlink ref="B307" r:id="rId272" display="Evaluation of Postfix expression"/>
+    <hyperlink ref="B308" r:id="rId273" display="Implement a method to insert an element at its bottom without using any other data structure."/>
+    <hyperlink ref="B309" r:id="rId274" display="Reverse a stack using recursion"/>
+    <hyperlink ref="B310" r:id="rId275" display="Sort a Stack using recursion"/>
+    <hyperlink ref="B311" r:id="rId276" display="Merge Overlapping Intervals"/>
+    <hyperlink ref="B312" r:id="rId277" display="Largest rectangular Area in Histogram"/>
+    <hyperlink ref="B313" r:id="rId278" display="Length of the Longest Valid Substring"/>
+    <hyperlink ref="B314" r:id="rId279" display="Expression contains redundant bracket or not"/>
+    <hyperlink ref="B315" r:id="rId280" display="Implement Stack using Queue"/>
+    <hyperlink ref="B316" r:id="rId281" display="Implement Stack using Deque"/>
+    <hyperlink ref="B317" r:id="rId282" display="Stack Permutations (Check if an array is stack permutation of other)"/>
+    <hyperlink ref="B318" r:id="rId283" display="Implement Queue using Stack  "/>
+    <hyperlink ref="B319" r:id="rId284" display="Implement &quot;n&quot; queue in an array"/>
+    <hyperlink ref="B320" r:id="rId285" display="Implement a Circular queue"/>
+    <hyperlink ref="B321" r:id="rId286" display="LRU Cache Implementationa"/>
+    <hyperlink ref="B322" r:id="rId287" display="Reverse a Queue using recursion"/>
+    <hyperlink ref="B323" r:id="rId288" display="Reverse the first “K” elements of a queue"/>
+    <hyperlink ref="B324" r:id="rId289" display="Interleave the first half of the queue with second half"/>
+    <hyperlink ref="B325" r:id="rId290" display="Find the first circular tour that visits all Petrol Pumps"/>
+    <hyperlink ref="B326" r:id="rId291" display="Minimum time required to rot all oranges"/>
+    <hyperlink ref="B327" r:id="rId292" display="Distance of nearest cell having 1 in a binary matrix"/>
+    <hyperlink ref="B328" r:id="rId293" display="First negative integer in every window of size “k”"/>
+    <hyperlink ref="B329" r:id="rId294" display="Check if all levels of two trees are anagrams or not."/>
+    <hyperlink ref="B330" r:id="rId295" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
+    <hyperlink ref="B331" r:id="rId296" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
+    <hyperlink ref="B332" r:id="rId153" display="Queue based approach or first non-repeating character in a stream."/>
+    <hyperlink ref="B333" r:id="rId297" display="Next Smaller Element"/>
+    <hyperlink ref="B336" r:id="rId298" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
+    <hyperlink ref="B337" r:id="rId299" display="Sort an Array using heap. (HeapSort)"/>
+    <hyperlink ref="B338" r:id="rId300" display="Maximum of all subarrays of size k."/>
+    <hyperlink ref="B339" r:id="rId301" display="“k” largest element in an array"/>
+    <hyperlink ref="B340" r:id="rId302" display="Kth smallest and largest element in an unsorted array"/>
+    <hyperlink ref="B341" r:id="rId303" display="Merge “K” sorted arrays. [ IMP ]"/>
+    <hyperlink ref="B342" r:id="rId304" display="Merge 2 Binary Max Heaps"/>
+    <hyperlink ref="B343" r:id="rId305" display="Kth largest sum continuous subarrays"/>
+    <hyperlink ref="B344" r:id="rId306" display="Leetcode- reorganize strings"/>
+    <hyperlink ref="B345" r:id="rId148" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
+    <hyperlink ref="B346" r:id="rId307" display="Smallest range in “K” Lists"/>
+    <hyperlink ref="B347" r:id="rId308" display="Median in a stream of Integers"/>
+    <hyperlink ref="B348" r:id="rId309" display="Check if a Binary Tree is Heap"/>
+    <hyperlink ref="B349" r:id="rId241" display="Connect “n” ropes with minimum cost"/>
+    <hyperlink ref="B350" r:id="rId310" display="Convert BST to Min Heap"/>
+    <hyperlink ref="B351" r:id="rId311" display="Convert min heap to max heap"/>
+    <hyperlink ref="B352" r:id="rId77" display="Rearrange characters in a string such that no two adjacent are same."/>
+    <hyperlink ref="B353" r:id="rId312" display="Minimum sum of two numbers formed from digits of an array"/>
+    <hyperlink ref="B357" r:id="rId313" display="Implement BFS algorithm "/>
+    <hyperlink ref="B358" r:id="rId314" display="Implement DFS Algo "/>
+    <hyperlink ref="B359" r:id="rId315" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
+    <hyperlink ref="B360" r:id="rId316" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
+    <hyperlink ref="B361" r:id="rId244" display="Search in a Maze"/>
+    <hyperlink ref="B362" r:id="rId317" display="Minimum Step by Knight"/>
+    <hyperlink ref="B363" r:id="rId318" display="flood fill algo"/>
+    <hyperlink ref="B364" r:id="rId319" display="Clone a graph"/>
+    <hyperlink ref="B365" r:id="rId320" display="Making wired Connections"/>
+    <hyperlink ref="B366" r:id="rId321" display="word Ladder "/>
+    <hyperlink ref="B367" r:id="rId322" display="Dijkstra algo"/>
+    <hyperlink ref="B368" r:id="rId323" display="Implement Topological Sort "/>
+    <hyperlink ref="B369" r:id="rId324" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
+    <hyperlink ref="B370" r:id="rId325" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
+    <hyperlink ref="B371" r:id="rId326" display="Find the no. of Isalnds"/>
+    <hyperlink ref="B372" r:id="rId327" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
+    <hyperlink ref="B373" r:id="rId328" display="Implement Kruksal’sAlgorithm"/>
+    <hyperlink ref="B374" r:id="rId329" display="Implement Prim’s Algorithm"/>
+    <hyperlink ref="B375" r:id="rId330" display="Total no. of Spanning tree in a graph"/>
+    <hyperlink ref="B376" r:id="rId331" display="Implement Bellman Ford Algorithm"/>
+    <hyperlink ref="B377" r:id="rId332" display="Implement Floyd warshallAlgorithm"/>
+    <hyperlink ref="B378" r:id="rId333" display="Travelling Salesman Problem"/>
+    <hyperlink ref="B379" r:id="rId334" display="Graph ColouringProblem"/>
+    <hyperlink ref="B380" r:id="rId335" display="Snake and Ladders Problem"/>
+    <hyperlink ref="B381" r:id="rId336" display="Find bridge in a graph"/>
+    <hyperlink ref="B382" r:id="rId337" display="Count Strongly connected Components(Kosaraju Algo)"/>
+    <hyperlink ref="B383" r:id="rId338" display="Check whether a graph is Bipartite or Not"/>
+    <hyperlink ref="B384" r:id="rId339" display="Detect Negative cycle in a graph"/>
+    <hyperlink ref="B385" r:id="rId340" display="Longest path in a Directed Acyclic Graph"/>
+    <hyperlink ref="B386" r:id="rId341" display="Journey to the Moon"/>
+    <hyperlink ref="B387" r:id="rId342" display="Cheapest Flights Within K Stops"/>
+    <hyperlink ref="B388" r:id="rId343" display="Oliver and the Game"/>
+    <hyperlink ref="B389" r:id="rId344" display="Water Jug problem using BFS"/>
+    <hyperlink ref="B390" r:id="rId344" display="Water Jug problem using BFS"/>
+    <hyperlink ref="B391" r:id="rId257" display="Find if there is a path of more thank length from a source"/>
+    <hyperlink ref="B392" r:id="rId249" display="M-ColouringProblem"/>
+    <hyperlink ref="B393" r:id="rId345" display="Minimum edges to reverse o make path from source to destination"/>
+    <hyperlink ref="B394" r:id="rId346" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
+    <hyperlink ref="B396" r:id="rId347" display="Chinese Postman or Route Inspection"/>
+    <hyperlink ref="B395" r:id="rId348" display="Vertex Cover Problem"/>
+    <hyperlink ref="B397" r:id="rId349" display="Number of Triangles in a Directed and Undirected Graph"/>
+    <hyperlink ref="B398" r:id="rId221" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="B399" r:id="rId350" display="Two Clique Problem"/>
+    <hyperlink ref="B402" r:id="rId351" display="Construct a trie from scratch"/>
+    <hyperlink ref="B403" r:id="rId352" display="Find shortest unique prefix for every word in a given list"/>
+    <hyperlink ref="B404" r:id="rId353" display="Word Break Problem | (Trie solution)"/>
+    <hyperlink ref="B405" r:id="rId79" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="B406" r:id="rId354" display="Implement a Phone Directory"/>
+    <hyperlink ref="B407" r:id="rId355" display="Print unique rows in a given boolean matrix"/>
+    <hyperlink ref="B410" r:id="rId356" display="Coin ChangeProblem"/>
+    <hyperlink ref="B411" r:id="rId357" display="Knapsack Problem"/>
+    <hyperlink ref="B412" r:id="rId358" display="Binomial CoefficientProblem"/>
+    <hyperlink ref="B413" r:id="rId359" display="Permutation CoefficientProblem"/>
+    <hyperlink ref="B414" r:id="rId360" display="Program for nth Catalan Number"/>
+    <hyperlink ref="B415" r:id="rId361" display="Matrix Chain Multiplication "/>
+    <hyperlink ref="B416" r:id="rId57" display="Edit Distance"/>
+    <hyperlink ref="B417" r:id="rId251" display="Subset Sum Problem"/>
+    <hyperlink ref="B418" r:id="rId362" display="Friends Pairing Problem"/>
+    <hyperlink ref="B419" r:id="rId363" display="Gold Mine Problem"/>
+    <hyperlink ref="B420" r:id="rId364" display="Assembly Line SchedulingProblem"/>
+    <hyperlink ref="B421" r:id="rId365" display="Painting the Fenceproblem"/>
+    <hyperlink ref="B422" r:id="rId366" display="Maximize The Cut Segments"/>
+    <hyperlink ref="B423" r:id="rId74" display="Longest Common Subsequence"/>
+    <hyperlink ref="B424" r:id="rId52" display="Longest Repeated Subsequence"/>
+    <hyperlink ref="B425" r:id="rId367" display="Longest Increasing Subsequence"/>
+    <hyperlink ref="B426" r:id="rId368" display="Space Optimized Solution of LCS"/>
+    <hyperlink ref="B427" r:id="rId369" display="LCS (Longest Common Subsequence) of three strings"/>
+    <hyperlink ref="B428" r:id="rId370" display="Maximum Sum Increasing Subsequence"/>
+    <hyperlink ref="B429" r:id="rId371" display="Count all subsequences having product less than K"/>
+    <hyperlink ref="B430" r:id="rId372" display="Longest subsequence such that difference between adjacent is one"/>
+    <hyperlink ref="B431" r:id="rId373" display="Maximum subsequence sum such that no three are consecutive"/>
+    <hyperlink ref="B432" r:id="rId374" display="Egg Dropping Problem"/>
+    <hyperlink ref="B433" r:id="rId375" display="Maximum Length Chain of Pairs"/>
+    <hyperlink ref="B434" r:id="rId376" display="Maximum size square sub-matrix with all 1s"/>
+    <hyperlink ref="B435" r:id="rId377" display="Maximum sum of pairs with specific difference"/>
+    <hyperlink ref="B436" r:id="rId378" display="Min Cost PathProblem"/>
+    <hyperlink ref="B437" r:id="rId379" display="Maximum difference of zeros and ones in binary string"/>
     <hyperlink ref="B438" r:id="rId10" display="Minimum number of jumps to reach end"/>
-    <hyperlink ref="B439" r:id="rId381" display="Minimum cost to fill given weight in a bag"/>
-    <hyperlink ref="B440" r:id="rId382" display="Minimum removals from array to make max –min &lt;= K"/>
-    <hyperlink ref="B441" r:id="rId383" display="Longest Common Substring"/>
-    <hyperlink ref="B442" r:id="rId384" display="Count number of ways to reacha given score in a game"/>
-    <hyperlink ref="B443" r:id="rId385" display="Count Balanced Binary Trees of Height h"/>
+    <hyperlink ref="B439" r:id="rId380" display="Minimum cost to fill given weight in a bag"/>
+    <hyperlink ref="B440" r:id="rId381" display="Minimum removals from array to make max –min &lt;= K"/>
+    <hyperlink ref="B441" r:id="rId382" display="Longest Common Substring"/>
+    <hyperlink ref="B442" r:id="rId383" display="Count number of ways to reacha given score in a game"/>
+    <hyperlink ref="B443" r:id="rId384" display="Count Balanced Binary Trees of Height h"/>
     <hyperlink ref="B444" r:id="rId8" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
-    <hyperlink ref="B445" r:id="rId386" display="Smallest sum contiguous subarray"/>
-    <hyperlink ref="B446" r:id="rId387" display="Unbounded Knapsack (Repetition of items allowed)"/>
-    <hyperlink ref="B447" r:id="rId61" display="Word Break Problem"/>
-    <hyperlink ref="B448" r:id="rId388" display="Largest Independent Set Problem"/>
-    <hyperlink ref="B449" r:id="rId252" display="Partition problem"/>
-    <hyperlink ref="B451" r:id="rId66" display="Count All Palindromic Subsequence in a given String"/>
-    <hyperlink ref="B450" r:id="rId389" display="Longest Palindromic Subsequence"/>
-    <hyperlink ref="B452" r:id="rId390" display="Longest Palindromic Substring"/>
-    <hyperlink ref="B453" r:id="rId391" display="Longest alternating subsequence"/>
-    <hyperlink ref="B454" r:id="rId392" display="Weighted Job Scheduling"/>
-    <hyperlink ref="B455" r:id="rId393" display="Coin game winner where every player has three choices"/>
-    <hyperlink ref="B456" r:id="rId394" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
+    <hyperlink ref="B445" r:id="rId385" display="Smallest sum contiguous subarray"/>
+    <hyperlink ref="B446" r:id="rId386" display="Unbounded Knapsack (Repetition of items allowed)"/>
+    <hyperlink ref="B447" r:id="rId60" display="Word Break Problem"/>
+    <hyperlink ref="B448" r:id="rId387" display="Largest Independent Set Problem"/>
+    <hyperlink ref="B449" r:id="rId251" display="Partition problem"/>
+    <hyperlink ref="B451" r:id="rId65" display="Count All Palindromic Subsequence in a given String"/>
+    <hyperlink ref="B450" r:id="rId388" display="Longest Palindromic Subsequence"/>
+    <hyperlink ref="B452" r:id="rId389" display="Longest Palindromic Substring"/>
+    <hyperlink ref="B453" r:id="rId390" display="Longest alternating subsequence"/>
+    <hyperlink ref="B454" r:id="rId391" display="Weighted Job Scheduling"/>
+    <hyperlink ref="B455" r:id="rId392" display="Coin game winner where every player has three choices"/>
+    <hyperlink ref="B456" r:id="rId393" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
     <hyperlink ref="B457" r:id="rId25" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
-    <hyperlink ref="B458" r:id="rId395" display="Optimal Strategy for a Game"/>
-    <hyperlink ref="B459" r:id="rId396" display="Optimal Binary Search Tree"/>
-    <hyperlink ref="B460" r:id="rId397" display="Palindrome PartitioningProblem"/>
-    <hyperlink ref="B461" r:id="rId57" display="Word Wrap Problem"/>
-    <hyperlink ref="B462" r:id="rId398" display="Mobile Numeric Keypad Problem [ IMP ]"/>
-    <hyperlink ref="B469" r:id="rId399" display="Maximum Length of Pair Chain"/>
-    <hyperlink ref="B468" r:id="rId400" display="Find if a string is interleaved of two other strings"/>
-    <hyperlink ref="B467" r:id="rId401" display="Maximum profit by buying and selling a share at most k times"/>
-    <hyperlink ref="B466" r:id="rId402" display="Maximum sum rectangle in a 2D matrix"/>
-    <hyperlink ref="B465" r:id="rId403" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
-    <hyperlink ref="B464" r:id="rId404" display="Largest rectangular sub-matrix whose sum is 0"/>
-    <hyperlink ref="B463" r:id="rId405" display="Boolean Parenthesization Problem"/>
-    <hyperlink ref="B472" r:id="rId406" display="Count set bits in an integer"/>
-    <hyperlink ref="B473" r:id="rId407" display="Find the two non-repeating elements in an array of repeating elements"/>
-    <hyperlink ref="B474" r:id="rId408" display="Count number of bits to be flipped to convert A to B"/>
-    <hyperlink ref="B475" r:id="rId409" display="Count total set bits in all numbers from 1 to n"/>
-    <hyperlink ref="B476" r:id="rId410" display="Program to find whether a no is power of two"/>
-    <hyperlink ref="B477" r:id="rId411" display="Find position of the only set bit"/>
-    <hyperlink ref="B478" r:id="rId412" display="Copy set bits in a range"/>
-    <hyperlink ref="B481" r:id="rId413" display="Power Set"/>
-    <hyperlink ref="B479" r:id="rId414" display="Divide two integers without using multiplication, division and mod operator"/>
-    <hyperlink ref="B480" r:id="rId415" display="Calculate square of a number without using *, / and pow()"/>
-    <hyperlink ref="B356" r:id="rId416" display="Create a Graph, print it"/>
+    <hyperlink ref="B458" r:id="rId394" display="Optimal Strategy for a Game"/>
+    <hyperlink ref="B459" r:id="rId395" display="Optimal Binary Search Tree"/>
+    <hyperlink ref="B460" r:id="rId396" display="Palindrome PartitioningProblem"/>
+    <hyperlink ref="B461" r:id="rId56" display="Word Wrap Problem"/>
+    <hyperlink ref="B462" r:id="rId397" display="Mobile Numeric Keypad Problem [ IMP ]"/>
+    <hyperlink ref="B469" r:id="rId398" display="Maximum Length of Pair Chain"/>
+    <hyperlink ref="B468" r:id="rId399" display="Find if a string is interleaved of two other strings"/>
+    <hyperlink ref="B467" r:id="rId400" display="Maximum profit by buying and selling a share at most k times"/>
+    <hyperlink ref="B466" r:id="rId401" display="Maximum sum rectangle in a 2D matrix"/>
+    <hyperlink ref="B465" r:id="rId402" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
+    <hyperlink ref="B464" r:id="rId403" display="Largest rectangular sub-matrix whose sum is 0"/>
+    <hyperlink ref="B463" r:id="rId404" display="Boolean Parenthesization Problem"/>
+    <hyperlink ref="B472" r:id="rId405" display="Count set bits in an integer"/>
+    <hyperlink ref="B473" r:id="rId406" display="Find the two non-repeating elements in an array of repeating elements"/>
+    <hyperlink ref="B474" r:id="rId407" display="Count number of bits to be flipped to convert A to B"/>
+    <hyperlink ref="B475" r:id="rId408" display="Count total set bits in all numbers from 1 to n"/>
+    <hyperlink ref="B476" r:id="rId409" display="Program to find whether a no is power of two"/>
+    <hyperlink ref="B477" r:id="rId410" display="Find position of the only set bit"/>
+    <hyperlink ref="B478" r:id="rId411" display="Copy set bits in a range"/>
+    <hyperlink ref="B481" r:id="rId412" display="Power Set"/>
+    <hyperlink ref="B479" r:id="rId413" display="Divide two integers without using multiplication, division and mod operator"/>
+    <hyperlink ref="B480" r:id="rId414" display="Calculate square of a number without using *, / and pow()"/>
+    <hyperlink ref="B356" r:id="rId415" display="Create a Graph, print it"/>
+    <hyperlink ref="B38" r:id="rId416" display="Minimum swaps required bring elements less equal K together"/>
     <hyperlink ref="B2" r:id="rId417" display="Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw "/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="522">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -381,37 +381,70 @@
     <t>Reverse a String</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/String/Reverse%20a%20String.cpp</t>
+  </si>
+  <si>
     <t>Check whether a String is Palindrome or not</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/String/Check%20palindrome%20string.cpp</t>
+  </si>
+  <si>
     <t>Find Duplicate characters in a string</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/String/Duplicates%20in%20input%20string.cpp</t>
+  </si>
+  <si>
     <t>Why strings are immutable in Java?</t>
   </si>
   <si>
     <t>Write a Code to check whether one string is a rotation of another</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/String/Check%20if%20string%20is%20rotation%20of%20other.cpp</t>
+  </si>
+  <si>
     <t>Write a Program to check whether a string is a valid shuffle of two strings or not</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/String/Check%20valid%20shuffle%20of%202%20strings.cpp</t>
+  </si>
+  <si>
     <t>Count and Say problem</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/String/Count%20and%20Say.cpp</t>
+  </si>
+  <si>
     <t>Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/String/Longest%20Palindrome%20in%20a%20String.cpp</t>
+  </si>
+  <si>
     <t>Find Longest Recurring Subsequence in String</t>
   </si>
   <si>
+    <t>* [DP]</t>
+  </si>
+  <si>
     <t>Print all Subsequences of a string.</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/String/Print%20all%20subsequences%20of%20a%20string.cpp</t>
+  </si>
+  <si>
     <t>Print all the permutations of the given string</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/String/Permutations%20of%20a%20given%20string.cpp</t>
+  </si>
+  <si>
     <t>Split the Binary string into two substring with equal 0’s and 1’s</t>
+  </si>
+  <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/String/Split%20string%20into%20substrings%20of%200%20and%201.cpp</t>
   </si>
   <si>
     <t>Word Wrap Problem [VERY IMP].</t>
@@ -2717,8 +2750,8 @@
   <sheetPr/>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B57" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -3375,34 +3408,40 @@
         <v>101</v>
       </c>
       <c r="C56" s="14"/>
-      <c r="D56" s="8"/>
+      <c r="D56" s="13" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="57" ht="21" spans="1:4">
       <c r="A57" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C57" s="14"/>
-      <c r="D57" s="8"/>
+      <c r="D57" s="13" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="58" ht="21" spans="1:4">
       <c r="A58" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C58" s="14"/>
-      <c r="D58" s="8"/>
+      <c r="D58" s="13" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="59" ht="21" spans="1:4">
       <c r="A59" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C59" s="17"/>
       <c r="D59" s="8"/>
@@ -3412,51 +3451,61 @@
         <v>100</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C60" s="14"/>
-      <c r="D60" s="8"/>
+      <c r="D60" s="13" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="61" ht="21" spans="1:4">
       <c r="A61" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C61" s="14"/>
-      <c r="D61" s="8"/>
+      <c r="D61" s="13" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="62" ht="21" spans="1:4">
       <c r="A62" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C62" s="14"/>
-      <c r="D62" s="8"/>
+      <c r="D62" s="13" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="63" ht="21" spans="1:4">
       <c r="A63" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C63" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D63" s="8"/>
+      <c r="D63" s="13" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="64" ht="21" spans="1:4">
       <c r="A64" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C64" s="18"/>
+        <v>116</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>117</v>
+      </c>
       <c r="D64" s="8"/>
     </row>
     <row r="65" ht="21" spans="1:4">
@@ -3464,39 +3513,49 @@
         <v>100</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C65" s="14"/>
-      <c r="D65" s="8"/>
+      <c r="D65" s="13" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="66" ht="21" spans="1:4">
       <c r="A66" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B66" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C66" s="18"/>
-      <c r="D66" s="8"/>
+      <c r="B66" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="67" ht="21" spans="1:4">
       <c r="A67" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C67" s="14"/>
-      <c r="D67" s="8"/>
+      <c r="D67" s="13" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="68" ht="21" spans="1:4">
       <c r="A68" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B68" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C68" s="18"/>
+      <c r="B68" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>117</v>
+      </c>
       <c r="D68" s="8"/>
     </row>
     <row r="69" ht="21" spans="1:4">
@@ -3504,39 +3563,45 @@
         <v>100</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C69" s="18"/>
+        <v>125</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>117</v>
+      </c>
       <c r="D69" s="8"/>
     </row>
     <row r="70" ht="21" spans="1:4">
       <c r="A70" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B70" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C70" s="18"/>
+      <c r="B70" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D70" s="8"/>
     </row>
     <row r="71" ht="21" spans="1:4">
       <c r="A71" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B71" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C71" s="18"/>
+      <c r="B71" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" s="14"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" ht="21" spans="1:4">
       <c r="A72" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B72" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C72" s="18"/>
+      <c r="B72" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D72" s="8"/>
     </row>
     <row r="73" ht="21" spans="1:4">
@@ -3544,7 +3609,7 @@
         <v>100</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C73" s="18"/>
       <c r="D73" s="8"/>
@@ -3554,7 +3619,7 @@
         <v>100</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C74" s="18"/>
       <c r="D74" s="8"/>
@@ -3564,7 +3629,7 @@
         <v>100</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="C75" s="18"/>
       <c r="D75" s="8"/>
@@ -3574,7 +3639,7 @@
         <v>100</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C76" s="18"/>
       <c r="D76" s="8"/>
@@ -3584,7 +3649,7 @@
         <v>100</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C77" s="18"/>
       <c r="D77" s="8"/>
@@ -3594,7 +3659,7 @@
         <v>100</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C78" s="18"/>
       <c r="D78" s="8"/>
@@ -3604,7 +3669,7 @@
         <v>100</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C79" s="18"/>
       <c r="D79" s="8"/>
@@ -3614,7 +3679,7 @@
         <v>100</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="C80" s="18"/>
       <c r="D80" s="8"/>
@@ -3624,7 +3689,7 @@
         <v>100</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C81" s="18"/>
       <c r="D81" s="8"/>
@@ -3634,7 +3699,7 @@
         <v>100</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="C82" s="18"/>
       <c r="D82" s="8"/>
@@ -3644,7 +3709,7 @@
         <v>100</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="C83" s="18"/>
       <c r="D83" s="8"/>
@@ -3654,7 +3719,7 @@
         <v>100</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C84" s="18"/>
       <c r="D84" s="8"/>
@@ -3664,7 +3729,7 @@
         <v>100</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C85" s="18"/>
       <c r="D85" s="8"/>
@@ -3674,7 +3739,7 @@
         <v>100</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="C86" s="18"/>
       <c r="D86" s="8"/>
@@ -3684,7 +3749,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="C87" s="18"/>
       <c r="D87" s="8"/>
@@ -3694,7 +3759,7 @@
         <v>100</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="C88" s="18"/>
       <c r="D88" s="8"/>
@@ -3704,7 +3769,7 @@
         <v>100</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C89" s="18"/>
       <c r="D89" s="8"/>
@@ -3714,7 +3779,7 @@
         <v>100</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C90" s="18"/>
       <c r="D90" s="8"/>
@@ -3724,7 +3789,7 @@
         <v>100</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C91" s="18"/>
       <c r="D91" s="8"/>
@@ -3734,7 +3799,7 @@
         <v>100</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C92" s="18"/>
       <c r="D92" s="8"/>
@@ -3744,7 +3809,7 @@
         <v>100</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C93" s="18"/>
       <c r="D93" s="8"/>
@@ -3754,7 +3819,7 @@
         <v>100</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C94" s="18"/>
       <c r="D94" s="8"/>
@@ -3764,7 +3829,7 @@
         <v>100</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="C95" s="18"/>
       <c r="D95" s="8"/>
@@ -3774,7 +3839,7 @@
         <v>100</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C96" s="18"/>
       <c r="D96" s="8"/>
@@ -3784,7 +3849,7 @@
         <v>100</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C97" s="18"/>
       <c r="D97" s="8"/>
@@ -3794,7 +3859,7 @@
         <v>100</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C98" s="18"/>
       <c r="D98" s="8"/>
@@ -3811,360 +3876,360 @@
     </row>
     <row r="101" ht="21" spans="1:4">
       <c r="A101" s="9" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C101" s="18"/>
       <c r="D101" s="8"/>
     </row>
     <row r="102" ht="21" spans="1:4">
       <c r="A102" s="9" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C102" s="18"/>
       <c r="D102" s="8"/>
     </row>
     <row r="103" ht="21" spans="1:4">
       <c r="A103" s="9" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="C103" s="18"/>
       <c r="D103" s="8"/>
     </row>
     <row r="104" ht="21" spans="1:4">
       <c r="A104" s="9" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C104" s="18"/>
       <c r="D104" s="8"/>
     </row>
     <row r="105" ht="21" spans="1:4">
       <c r="A105" s="9" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C105" s="18"/>
       <c r="D105" s="8"/>
     </row>
     <row r="106" ht="21" spans="1:4">
       <c r="A106" s="9" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C106" s="18"/>
       <c r="D106" s="8"/>
     </row>
     <row r="107" ht="21" spans="1:4">
       <c r="A107" s="9" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C107" s="18"/>
       <c r="D107" s="8"/>
     </row>
     <row r="108" ht="21" spans="1:4">
       <c r="A108" s="9" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C108" s="18"/>
       <c r="D108" s="8"/>
     </row>
     <row r="109" ht="21" spans="1:4">
       <c r="A109" s="9" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C109" s="18"/>
       <c r="D109" s="8"/>
     </row>
     <row r="110" ht="21" spans="1:4">
       <c r="A110" s="9" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C110" s="18"/>
       <c r="D110" s="8"/>
     </row>
     <row r="111" ht="21" spans="1:4">
       <c r="A111" s="9" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C111" s="18"/>
       <c r="D111" s="8"/>
     </row>
     <row r="112" ht="21" spans="1:4">
       <c r="A112" s="9" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C112" s="18"/>
       <c r="D112" s="8"/>
     </row>
     <row r="113" ht="21" spans="1:4">
       <c r="A113" s="9" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C113" s="18"/>
       <c r="D113" s="8"/>
     </row>
     <row r="114" ht="21" spans="1:4">
       <c r="A114" s="9" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="C114" s="18"/>
       <c r="D114" s="8"/>
     </row>
     <row r="115" ht="21" spans="1:4">
       <c r="A115" s="9" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C115" s="18"/>
       <c r="D115" s="8"/>
     </row>
     <row r="116" ht="21" spans="1:4">
       <c r="A116" s="9" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C116" s="18"/>
       <c r="D116" s="8"/>
     </row>
     <row r="117" ht="21" spans="1:4">
       <c r="A117" s="9" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C117" s="18"/>
       <c r="D117" s="8"/>
     </row>
     <row r="118" ht="21" spans="1:4">
       <c r="A118" s="9" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="C118" s="18"/>
       <c r="D118" s="8"/>
     </row>
     <row r="119" ht="21" spans="1:4">
       <c r="A119" s="9" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="C119" s="18"/>
       <c r="D119" s="8"/>
     </row>
     <row r="120" ht="21" spans="1:4">
       <c r="A120" s="9" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C120" s="18"/>
       <c r="D120" s="8"/>
     </row>
     <row r="121" ht="21" spans="1:4">
       <c r="A121" s="9" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C121" s="18"/>
       <c r="D121" s="8"/>
     </row>
     <row r="122" ht="21" spans="1:4">
       <c r="A122" s="9" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C122" s="18"/>
       <c r="D122" s="8"/>
     </row>
     <row r="123" ht="21" spans="1:4">
       <c r="A123" s="9" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C123" s="18"/>
       <c r="D123" s="8"/>
     </row>
     <row r="124" ht="21" spans="1:4">
       <c r="A124" s="9" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="C124" s="18"/>
       <c r="D124" s="8"/>
     </row>
     <row r="125" ht="21" spans="1:4">
       <c r="A125" s="9" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="C125" s="18"/>
       <c r="D125" s="8"/>
     </row>
     <row r="126" ht="21" spans="1:4">
       <c r="A126" s="9" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C126" s="18"/>
       <c r="D126" s="8"/>
     </row>
     <row r="127" ht="21" spans="1:4">
       <c r="A127" s="9" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C127" s="18"/>
       <c r="D127" s="8"/>
     </row>
     <row r="128" ht="21" spans="1:4">
       <c r="A128" s="9" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C128" s="18"/>
       <c r="D128" s="8"/>
     </row>
     <row r="129" ht="21" spans="1:4">
       <c r="A129" s="9" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="C129" s="18"/>
       <c r="D129" s="8"/>
     </row>
     <row r="130" ht="21" spans="1:4">
       <c r="A130" s="9" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="C130" s="18"/>
       <c r="D130" s="8"/>
     </row>
     <row r="131" ht="21" spans="1:4">
       <c r="A131" s="9" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="C131" s="18"/>
       <c r="D131" s="8"/>
     </row>
     <row r="132" ht="21" spans="1:4">
       <c r="A132" s="9" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C132" s="18"/>
       <c r="D132" s="8"/>
     </row>
     <row r="133" ht="21" spans="1:4">
       <c r="A133" s="9" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="C133" s="18"/>
       <c r="D133" s="8"/>
     </row>
     <row r="134" ht="21" spans="1:4">
       <c r="A134" s="9" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="C134" s="18"/>
       <c r="D134" s="8"/>
     </row>
     <row r="135" ht="21" spans="1:4">
       <c r="A135" s="9" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="C135" s="18"/>
       <c r="D135" s="8"/>
     </row>
     <row r="136" ht="21" spans="1:4">
       <c r="A136" s="9" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="C136" s="18"/>
       <c r="D136" s="8"/>
@@ -4180,360 +4245,360 @@
     </row>
     <row r="139" ht="21" spans="1:4">
       <c r="A139" s="16" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C139" s="18"/>
       <c r="D139" s="8"/>
     </row>
     <row r="140" ht="21" spans="1:4">
       <c r="A140" s="16" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="C140" s="18"/>
       <c r="D140" s="8"/>
     </row>
     <row r="141" ht="21" spans="1:4">
       <c r="A141" s="16" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C141" s="18"/>
       <c r="D141" s="8"/>
     </row>
     <row r="142" ht="21" spans="1:4">
       <c r="A142" s="16" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="C142" s="18"/>
       <c r="D142" s="8"/>
     </row>
     <row r="143" ht="21" spans="1:4">
       <c r="A143" s="16" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="C143" s="18"/>
       <c r="D143" s="8"/>
     </row>
     <row r="144" ht="21" spans="1:4">
       <c r="A144" s="16" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="C144" s="18"/>
       <c r="D144" s="8"/>
     </row>
     <row r="145" ht="21" spans="1:4">
       <c r="A145" s="16" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C145" s="18"/>
       <c r="D145" s="8"/>
     </row>
     <row r="146" ht="21" spans="1:4">
       <c r="A146" s="16" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="C146" s="18"/>
       <c r="D146" s="8"/>
     </row>
     <row r="147" ht="21" spans="1:4">
       <c r="A147" s="16" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="C147" s="18"/>
       <c r="D147" s="8"/>
     </row>
     <row r="148" ht="21" spans="1:4">
       <c r="A148" s="16" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C148" s="18"/>
       <c r="D148" s="8"/>
     </row>
     <row r="149" ht="21" spans="1:4">
       <c r="A149" s="16" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C149" s="18"/>
       <c r="D149" s="8"/>
     </row>
     <row r="150" ht="21" spans="1:4">
       <c r="A150" s="16" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C150" s="18"/>
       <c r="D150" s="8"/>
     </row>
     <row r="151" ht="21" spans="1:4">
       <c r="A151" s="16" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="C151" s="18"/>
       <c r="D151" s="8"/>
     </row>
     <row r="152" ht="21" spans="1:4">
       <c r="A152" s="16" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="C152" s="18"/>
       <c r="D152" s="8"/>
     </row>
     <row r="153" ht="21" spans="1:4">
       <c r="A153" s="16" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="C153" s="18"/>
       <c r="D153" s="8"/>
     </row>
     <row r="154" ht="21" spans="1:4">
       <c r="A154" s="16" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C154" s="18"/>
       <c r="D154" s="8"/>
     </row>
     <row r="155" ht="21" spans="1:4">
       <c r="A155" s="16" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C155" s="18"/>
       <c r="D155" s="8"/>
     </row>
     <row r="156" ht="21" spans="1:4">
       <c r="A156" s="16" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C156" s="18"/>
       <c r="D156" s="8"/>
     </row>
     <row r="157" ht="21" spans="1:4">
       <c r="A157" s="16" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C157" s="18"/>
       <c r="D157" s="8"/>
     </row>
     <row r="158" ht="21" spans="1:4">
       <c r="A158" s="16" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C158" s="18"/>
       <c r="D158" s="8"/>
     </row>
     <row r="159" ht="21" spans="1:4">
       <c r="A159" s="16" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C159" s="18"/>
       <c r="D159" s="8"/>
     </row>
     <row r="160" ht="21" spans="1:4">
       <c r="A160" s="16" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C160" s="18"/>
       <c r="D160" s="8"/>
     </row>
     <row r="161" ht="21" spans="1:4">
       <c r="A161" s="16" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C161" s="18"/>
       <c r="D161" s="8"/>
     </row>
     <row r="162" ht="21" spans="1:4">
       <c r="A162" s="16" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C162" s="18"/>
       <c r="D162" s="8"/>
     </row>
     <row r="163" ht="21" spans="1:4">
       <c r="A163" s="16" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C163" s="18"/>
       <c r="D163" s="8"/>
     </row>
     <row r="164" ht="21" spans="1:4">
       <c r="A164" s="16" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="C164" s="17"/>
       <c r="D164" s="8"/>
     </row>
     <row r="165" ht="21" spans="1:4">
       <c r="A165" s="16" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="C165" s="17"/>
       <c r="D165" s="8"/>
     </row>
     <row r="166" ht="21" spans="1:4">
       <c r="A166" s="16" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="C166" s="18"/>
       <c r="D166" s="8"/>
     </row>
     <row r="167" ht="21" spans="1:4">
       <c r="A167" s="16" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C167" s="18"/>
       <c r="D167" s="8"/>
     </row>
     <row r="168" ht="21" spans="1:4">
       <c r="A168" s="16" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="C168" s="18"/>
       <c r="D168" s="8"/>
     </row>
     <row r="169" ht="21" spans="1:4">
       <c r="A169" s="16" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B169" s="13" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C169" s="18"/>
       <c r="D169" s="8"/>
     </row>
     <row r="170" ht="21" spans="1:4">
       <c r="A170" s="16" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="C170" s="18"/>
       <c r="D170" s="8"/>
     </row>
     <row r="171" ht="21" spans="1:4">
       <c r="A171" s="16" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B171" s="13" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="C171" s="18"/>
       <c r="D171" s="8"/>
     </row>
     <row r="172" ht="21" spans="1:4">
       <c r="A172" s="16" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="C172" s="18"/>
       <c r="D172" s="8"/>
     </row>
     <row r="173" ht="21" spans="1:4">
       <c r="A173" s="16" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="C173" s="18"/>
       <c r="D173" s="8"/>
     </row>
     <row r="174" ht="21" spans="1:4">
       <c r="A174" s="16" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="C174" s="18"/>
       <c r="D174" s="8"/>
@@ -4549,350 +4614,350 @@
     </row>
     <row r="177" ht="21" spans="1:4">
       <c r="A177" s="9" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B177" s="13" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="C177" s="18"/>
       <c r="D177" s="8"/>
     </row>
     <row r="178" ht="21" spans="1:4">
       <c r="A178" s="9" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="C178" s="18"/>
       <c r="D178" s="8"/>
     </row>
     <row r="179" ht="21" spans="1:4">
       <c r="A179" s="9" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B179" s="13" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="C179" s="18"/>
       <c r="D179" s="8"/>
     </row>
     <row r="180" ht="21" spans="1:4">
       <c r="A180" s="9" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="C180" s="18"/>
       <c r="D180" s="8"/>
     </row>
     <row r="181" ht="21" spans="1:4">
       <c r="A181" s="9" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B181" s="13" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="C181" s="18"/>
       <c r="D181" s="8"/>
     </row>
     <row r="182" ht="21" spans="1:4">
       <c r="A182" s="9" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="C182" s="18"/>
       <c r="D182" s="8"/>
     </row>
     <row r="183" ht="21" spans="1:4">
       <c r="A183" s="9" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B183" s="13" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="C183" s="18"/>
       <c r="D183" s="8"/>
     </row>
     <row r="184" ht="21" spans="1:4">
       <c r="A184" s="9" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="C184" s="18"/>
       <c r="D184" s="8"/>
     </row>
     <row r="185" ht="21" spans="1:4">
       <c r="A185" s="9" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B185" s="13" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="C185" s="18"/>
       <c r="D185" s="8"/>
     </row>
     <row r="186" ht="21" spans="1:4">
       <c r="A186" s="9" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="C186" s="18"/>
       <c r="D186" s="8"/>
     </row>
     <row r="187" ht="21" spans="1:4">
       <c r="A187" s="9" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B187" s="13" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="C187" s="18"/>
       <c r="D187" s="8"/>
     </row>
     <row r="188" ht="21" spans="1:4">
       <c r="A188" s="9" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C188" s="18"/>
       <c r="D188" s="8"/>
     </row>
     <row r="189" ht="21" spans="1:4">
       <c r="A189" s="9" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B189" s="13" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="C189" s="18"/>
       <c r="D189" s="8"/>
     </row>
     <row r="190" ht="21" spans="1:4">
       <c r="A190" s="9" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="C190" s="18"/>
       <c r="D190" s="8"/>
     </row>
     <row r="191" ht="21" spans="1:4">
       <c r="A191" s="9" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B191" s="13" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="C191" s="18"/>
       <c r="D191" s="8"/>
     </row>
     <row r="192" ht="21" spans="1:4">
       <c r="A192" s="9" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="C192" s="18"/>
       <c r="D192" s="8"/>
     </row>
     <row r="193" ht="21" spans="1:4">
       <c r="A193" s="9" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="C193" s="18"/>
       <c r="D193" s="8"/>
     </row>
     <row r="194" ht="21" spans="1:4">
       <c r="A194" s="9" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="C194" s="18"/>
       <c r="D194" s="8"/>
     </row>
     <row r="195" ht="21" spans="1:4">
       <c r="A195" s="9" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="C195" s="18"/>
       <c r="D195" s="8"/>
     </row>
     <row r="196" ht="21" spans="1:4">
       <c r="A196" s="9" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="C196" s="18"/>
       <c r="D196" s="8"/>
     </row>
     <row r="197" ht="21" spans="1:4">
       <c r="A197" s="9" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B197" s="13" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="C197" s="18"/>
       <c r="D197" s="8"/>
     </row>
     <row r="198" ht="21" spans="1:4">
       <c r="A198" s="9" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="C198" s="18"/>
       <c r="D198" s="8"/>
     </row>
     <row r="199" ht="21" spans="1:4">
       <c r="A199" s="9" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B199" s="13" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="C199" s="18"/>
       <c r="D199" s="8"/>
     </row>
     <row r="200" ht="21" spans="1:4">
       <c r="A200" s="9" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="C200" s="18"/>
       <c r="D200" s="8"/>
     </row>
     <row r="201" ht="21" spans="1:4">
       <c r="A201" s="9" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B201" s="13" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="C201" s="18"/>
       <c r="D201" s="8"/>
     </row>
     <row r="202" ht="21" spans="1:4">
       <c r="A202" s="9" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B202" s="13" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="C202" s="18"/>
       <c r="D202" s="8"/>
     </row>
     <row r="203" ht="21" spans="1:4">
       <c r="A203" s="9" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B203" s="13" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="C203" s="18"/>
       <c r="D203" s="8"/>
     </row>
     <row r="204" ht="21" spans="1:4">
       <c r="A204" s="9" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B204" s="13" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="C204" s="18"/>
       <c r="D204" s="8"/>
     </row>
     <row r="205" ht="21" spans="1:4">
       <c r="A205" s="9" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B205" s="13" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="C205" s="18"/>
       <c r="D205" s="8"/>
     </row>
     <row r="206" ht="21" spans="1:4">
       <c r="A206" s="9" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B206" s="13" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C206" s="18"/>
       <c r="D206" s="8"/>
     </row>
     <row r="207" ht="21" spans="1:4">
       <c r="A207" s="9" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B207" s="13" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="C207" s="18"/>
       <c r="D207" s="8"/>
     </row>
     <row r="208" ht="21" spans="1:4">
       <c r="A208" s="9" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C208" s="18"/>
       <c r="D208" s="8"/>
     </row>
     <row r="209" ht="21" spans="1:4">
       <c r="A209" s="9" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="C209" s="18"/>
       <c r="D209" s="8"/>
     </row>
     <row r="210" ht="21" spans="1:4">
       <c r="A210" s="9" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B210" s="13" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="C210" s="18"/>
       <c r="D210" s="8"/>
     </row>
     <row r="211" ht="21" spans="1:4">
       <c r="A211" s="9" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B211" s="13" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="C211" s="18"/>
       <c r="D211" s="8"/>
@@ -4911,220 +4976,220 @@
     </row>
     <row r="214" ht="21" spans="1:4">
       <c r="A214" s="9" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B214" s="13" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="C214" s="18"/>
       <c r="D214" s="8"/>
     </row>
     <row r="215" ht="21" spans="1:4">
       <c r="A215" s="9" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B215" s="13" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="C215" s="18"/>
       <c r="D215" s="8"/>
     </row>
     <row r="216" ht="21" spans="1:4">
       <c r="A216" s="9" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="C216" s="18"/>
       <c r="D216" s="8"/>
     </row>
     <row r="217" ht="21" spans="1:4">
       <c r="A217" s="9" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="C217" s="18"/>
       <c r="D217" s="8"/>
     </row>
     <row r="218" ht="21" spans="1:4">
       <c r="A218" s="9" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B218" s="13" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="C218" s="18"/>
       <c r="D218" s="8"/>
     </row>
     <row r="219" ht="21" spans="1:4">
       <c r="A219" s="9" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="C219" s="18"/>
       <c r="D219" s="8"/>
     </row>
     <row r="220" ht="21" spans="1:4">
       <c r="A220" s="9" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B220" s="19" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="C220" s="18"/>
       <c r="D220" s="8"/>
     </row>
     <row r="221" ht="21" spans="1:4">
       <c r="A221" s="9" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="C221" s="18"/>
       <c r="D221" s="8"/>
     </row>
     <row r="222" ht="21" spans="1:4">
       <c r="A222" s="9" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="C222" s="18"/>
       <c r="D222" s="8"/>
     </row>
     <row r="223" ht="21" spans="1:4">
       <c r="A223" s="9" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B223" s="13" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="C223" s="18"/>
       <c r="D223" s="8"/>
     </row>
     <row r="224" ht="21" spans="1:4">
       <c r="A224" s="9" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="C224" s="18"/>
       <c r="D224" s="8"/>
     </row>
     <row r="225" ht="21" spans="1:4">
       <c r="A225" s="9" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B225" s="13" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="C225" s="18"/>
       <c r="D225" s="8"/>
     </row>
     <row r="226" ht="21" spans="1:4">
       <c r="A226" s="9" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B226" s="13" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="C226" s="18"/>
       <c r="D226" s="8"/>
     </row>
     <row r="227" ht="21" spans="1:4">
       <c r="A227" s="9" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B227" s="13" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="C227" s="18"/>
       <c r="D227" s="8"/>
     </row>
     <row r="228" ht="21" spans="1:4">
       <c r="A228" s="9" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B228" s="13" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C228" s="18"/>
       <c r="D228" s="8"/>
     </row>
     <row r="229" ht="21" spans="1:4">
       <c r="A229" s="9" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B229" s="13" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="C229" s="18"/>
       <c r="D229" s="8"/>
     </row>
     <row r="230" ht="21" spans="1:4">
       <c r="A230" s="9" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B230" s="13" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="C230" s="18"/>
       <c r="D230" s="8"/>
     </row>
     <row r="231" ht="21" spans="1:4">
       <c r="A231" s="9" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B231" s="13" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="C231" s="18"/>
       <c r="D231" s="8"/>
     </row>
     <row r="232" ht="21" spans="1:4">
       <c r="A232" s="9" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B232" s="13" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="C232" s="18"/>
       <c r="D232" s="8"/>
     </row>
     <row r="233" ht="21" spans="1:4">
       <c r="A233" s="9" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B233" s="13" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="C233" s="18"/>
       <c r="D233" s="8"/>
     </row>
     <row r="234" ht="21" spans="1:4">
       <c r="A234" s="9" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="C234" s="18"/>
       <c r="D234" s="8"/>
     </row>
     <row r="235" ht="21" spans="1:4">
       <c r="A235" s="9" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B235" s="13" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C235" s="18"/>
       <c r="D235" s="8"/>
@@ -5141,350 +5206,350 @@
     </row>
     <row r="238" ht="21" spans="1:4">
       <c r="A238" s="9" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="C238" s="18"/>
       <c r="D238" s="8"/>
     </row>
     <row r="239" ht="21" spans="1:4">
       <c r="A239" s="9" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B239" s="13" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="C239" s="18"/>
       <c r="D239" s="8"/>
     </row>
     <row r="240" ht="21" spans="1:4">
       <c r="A240" s="9" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B240" s="13" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="C240" s="18"/>
       <c r="D240" s="8"/>
     </row>
     <row r="241" ht="21" spans="1:4">
       <c r="A241" s="9" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B241" s="13" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="C241" s="18"/>
       <c r="D241" s="8"/>
     </row>
     <row r="242" ht="21" spans="1:4">
       <c r="A242" s="9" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B242" s="13" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="C242" s="18"/>
       <c r="D242" s="8"/>
     </row>
     <row r="243" ht="21" spans="1:4">
       <c r="A243" s="9" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B243" s="13" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="C243" s="18"/>
       <c r="D243" s="8"/>
     </row>
     <row r="244" ht="21" spans="1:4">
       <c r="A244" s="9" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B244" s="13" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="C244" s="18"/>
       <c r="D244" s="8"/>
     </row>
     <row r="245" ht="21" spans="1:4">
       <c r="A245" s="9" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B245" s="13" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="C245" s="18"/>
       <c r="D245" s="8"/>
     </row>
     <row r="246" ht="21" spans="1:4">
       <c r="A246" s="9" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B246" s="13" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="C246" s="18"/>
       <c r="D246" s="8"/>
     </row>
     <row r="247" ht="21" spans="1:4">
       <c r="A247" s="9" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B247" s="13" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="C247" s="18"/>
       <c r="D247" s="8"/>
     </row>
     <row r="248" ht="21" spans="1:4">
       <c r="A248" s="9" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B248" s="13" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="C248" s="18"/>
       <c r="D248" s="8"/>
     </row>
     <row r="249" ht="21" spans="1:4">
       <c r="A249" s="9" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B249" s="13" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="C249" s="18"/>
       <c r="D249" s="8"/>
     </row>
     <row r="250" ht="21" spans="1:4">
       <c r="A250" s="9" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B250" s="13" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="C250" s="18"/>
       <c r="D250" s="8"/>
     </row>
     <row r="251" ht="21" spans="1:4">
       <c r="A251" s="9" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B251" s="13" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="C251" s="18"/>
       <c r="D251" s="8"/>
     </row>
     <row r="252" ht="21" spans="1:4">
       <c r="A252" s="9" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B252" s="13" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="C252" s="18"/>
       <c r="D252" s="8"/>
     </row>
     <row r="253" ht="21" spans="1:4">
       <c r="A253" s="9" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B253" s="13" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="C253" s="18"/>
       <c r="D253" s="8"/>
     </row>
     <row r="254" ht="21" spans="1:4">
       <c r="A254" s="9" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B254" s="13" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="C254" s="18"/>
       <c r="D254" s="8"/>
     </row>
     <row r="255" ht="21" spans="1:4">
       <c r="A255" s="9" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B255" s="13" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="C255" s="18"/>
       <c r="D255" s="8"/>
     </row>
     <row r="256" ht="21" spans="1:4">
       <c r="A256" s="9" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B256" s="13" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="C256" s="18"/>
       <c r="D256" s="8"/>
     </row>
     <row r="257" ht="21" spans="1:4">
       <c r="A257" s="9" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B257" s="13" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="C257" s="18"/>
       <c r="D257" s="8"/>
     </row>
     <row r="258" ht="21" spans="1:4">
       <c r="A258" s="9" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B258" s="13" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="C258" s="18"/>
       <c r="D258" s="8"/>
     </row>
     <row r="259" ht="21" spans="1:4">
       <c r="A259" s="9" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B259" s="13" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C259" s="18"/>
       <c r="D259" s="8"/>
     </row>
     <row r="260" ht="21" spans="1:4">
       <c r="A260" s="9" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B260" s="13" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="C260" s="18"/>
       <c r="D260" s="8"/>
     </row>
     <row r="261" ht="21" spans="1:4">
       <c r="A261" s="9" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B261" s="13" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="C261" s="18"/>
       <c r="D261" s="8"/>
     </row>
     <row r="262" ht="21" spans="1:4">
       <c r="A262" s="9" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B262" s="13" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="C262" s="18"/>
       <c r="D262" s="8"/>
     </row>
     <row r="263" ht="21" spans="1:4">
       <c r="A263" s="9" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B263" s="13" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="C263" s="18"/>
       <c r="D263" s="8"/>
     </row>
     <row r="264" ht="21" spans="1:4">
       <c r="A264" s="9" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B264" s="13" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="C264" s="18"/>
       <c r="D264" s="8"/>
     </row>
     <row r="265" ht="21" spans="1:4">
       <c r="A265" s="9" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B265" s="13" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="C265" s="18"/>
       <c r="D265" s="8"/>
     </row>
     <row r="266" ht="21" spans="1:4">
       <c r="A266" s="9" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B266" s="13" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="C266" s="18"/>
       <c r="D266" s="8"/>
     </row>
     <row r="267" ht="21" spans="1:4">
       <c r="A267" s="9" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B267" s="13" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="C267" s="18"/>
       <c r="D267" s="8"/>
     </row>
     <row r="268" ht="21" spans="1:4">
       <c r="A268" s="9" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B268" s="13" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="C268" s="18"/>
       <c r="D268" s="8"/>
     </row>
     <row r="269" ht="21" spans="1:4">
       <c r="A269" s="9" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B269" s="13" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="C269" s="18"/>
       <c r="D269" s="8"/>
     </row>
     <row r="270" ht="21" spans="1:4">
       <c r="A270" s="9" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B270" s="13" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="C270" s="18"/>
       <c r="D270" s="8"/>
     </row>
     <row r="271" ht="21" spans="1:4">
       <c r="A271" s="9" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B271" s="13" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C271" s="18"/>
       <c r="D271" s="8"/>
     </row>
     <row r="272" ht="21" spans="1:4">
       <c r="A272" s="9" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B272" s="13" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="C272" s="18"/>
       <c r="D272" s="8"/>
@@ -5501,190 +5566,190 @@
     </row>
     <row r="275" ht="21" spans="1:4">
       <c r="A275" s="9" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="B275" s="13" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="C275" s="18"/>
       <c r="D275" s="8"/>
     </row>
     <row r="276" ht="21" spans="1:4">
       <c r="A276" s="9" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="B276" s="13" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="C276" s="18"/>
       <c r="D276" s="8"/>
     </row>
     <row r="277" ht="21" spans="1:4">
       <c r="A277" s="9" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="B277" s="13" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="C277" s="18"/>
       <c r="D277" s="8"/>
     </row>
     <row r="278" ht="21" spans="1:4">
       <c r="A278" s="9" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="B278" s="13" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="C278" s="18"/>
       <c r="D278" s="8"/>
     </row>
     <row r="279" ht="21" spans="1:4">
       <c r="A279" s="9" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="B279" s="13" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="C279" s="18"/>
       <c r="D279" s="8"/>
     </row>
     <row r="280" ht="21" spans="1:4">
       <c r="A280" s="9" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="B280" s="13" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="C280" s="18"/>
       <c r="D280" s="8"/>
     </row>
     <row r="281" ht="21" spans="1:4">
       <c r="A281" s="9" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="B281" s="13" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="C281" s="18"/>
       <c r="D281" s="8"/>
     </row>
     <row r="282" ht="21" spans="1:4">
       <c r="A282" s="9" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="B282" s="13" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="C282" s="18"/>
       <c r="D282" s="8"/>
     </row>
     <row r="283" ht="21" spans="1:4">
       <c r="A283" s="9" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="B283" s="13" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="C283" s="18"/>
       <c r="D283" s="8"/>
     </row>
     <row r="284" ht="21" spans="1:4">
       <c r="A284" s="9" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="B284" s="13" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="C284" s="18"/>
       <c r="D284" s="8"/>
     </row>
     <row r="285" ht="21" spans="1:4">
       <c r="A285" s="9" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="B285" s="13" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="C285" s="18"/>
       <c r="D285" s="8"/>
     </row>
     <row r="286" ht="21" spans="1:4">
       <c r="A286" s="9" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="B286" s="13" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="C286" s="18"/>
       <c r="D286" s="8"/>
     </row>
     <row r="287" ht="21" spans="1:4">
       <c r="A287" s="9" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="B287" s="13" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="C287" s="18"/>
       <c r="D287" s="8"/>
     </row>
     <row r="288" ht="21" spans="1:4">
       <c r="A288" s="9" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="B288" s="13" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="C288" s="18"/>
       <c r="D288" s="8"/>
     </row>
     <row r="289" ht="21" spans="1:4">
       <c r="A289" s="9" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="B289" s="13" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="C289" s="18"/>
       <c r="D289" s="8"/>
     </row>
     <row r="290" ht="21" spans="1:4">
       <c r="A290" s="9" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="B290" s="13" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="C290" s="18"/>
       <c r="D290" s="8"/>
     </row>
     <row r="291" ht="21" spans="1:4">
       <c r="A291" s="9" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="B291" s="13" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="C291" s="18"/>
       <c r="D291" s="8"/>
     </row>
     <row r="292" ht="21" spans="1:4">
       <c r="A292" s="9" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="B292" s="13" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="C292" s="18"/>
       <c r="D292" s="8"/>
     </row>
     <row r="293" ht="21" spans="1:4">
       <c r="A293" s="9" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="B293" s="13" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="C293" s="18"/>
       <c r="D293" s="8"/>
@@ -5701,380 +5766,380 @@
     </row>
     <row r="296" ht="21" spans="1:4">
       <c r="A296" s="9" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B296" s="13" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="C296" s="18"/>
       <c r="D296" s="8"/>
     </row>
     <row r="297" ht="21" spans="1:4">
       <c r="A297" s="9" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B297" s="13" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="C297" s="18"/>
       <c r="D297" s="8"/>
     </row>
     <row r="298" ht="21" spans="1:4">
       <c r="A298" s="9" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B298" s="13" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="C298" s="18"/>
       <c r="D298" s="8"/>
     </row>
     <row r="299" ht="21" spans="1:4">
       <c r="A299" s="9" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B299" s="13" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="C299" s="18"/>
       <c r="D299" s="8"/>
     </row>
     <row r="300" ht="21" spans="1:4">
       <c r="A300" s="9" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B300" s="13" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="C300" s="18"/>
       <c r="D300" s="8"/>
     </row>
     <row r="301" ht="21" spans="1:4">
       <c r="A301" s="9" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B301" s="13" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="C301" s="18"/>
       <c r="D301" s="8"/>
     </row>
     <row r="302" ht="21" spans="1:4">
       <c r="A302" s="9" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B302" s="13" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="C302" s="18"/>
       <c r="D302" s="8"/>
     </row>
     <row r="303" ht="21" spans="1:4">
       <c r="A303" s="9" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B303" s="13" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="C303" s="18"/>
       <c r="D303" s="8"/>
     </row>
     <row r="304" ht="21" spans="1:4">
       <c r="A304" s="9" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B304" s="13" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="C304" s="18"/>
       <c r="D304" s="8"/>
     </row>
     <row r="305" ht="21" spans="1:4">
       <c r="A305" s="9" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B305" s="13" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="C305" s="18"/>
       <c r="D305" s="8"/>
     </row>
     <row r="306" ht="21" spans="1:4">
       <c r="A306" s="9" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B306" s="13" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="C306" s="18"/>
       <c r="D306" s="8"/>
     </row>
     <row r="307" ht="21" spans="1:4">
       <c r="A307" s="9" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B307" s="13" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="C307" s="18"/>
       <c r="D307" s="8"/>
     </row>
     <row r="308" ht="21" spans="1:4">
       <c r="A308" s="9" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B308" s="13" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="C308" s="18"/>
       <c r="D308" s="8"/>
     </row>
     <row r="309" ht="21" spans="1:4">
       <c r="A309" s="9" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B309" s="19" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="C309" s="18"/>
       <c r="D309" s="8"/>
     </row>
     <row r="310" ht="21" spans="1:4">
       <c r="A310" s="9" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B310" s="13" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="C310" s="18"/>
       <c r="D310" s="8"/>
     </row>
     <row r="311" ht="21" spans="1:4">
       <c r="A311" s="9" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B311" s="13" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="C311" s="18"/>
       <c r="D311" s="8"/>
     </row>
     <row r="312" ht="21" spans="1:4">
       <c r="A312" s="9" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B312" s="13" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="C312" s="18"/>
       <c r="D312" s="8"/>
     </row>
     <row r="313" ht="21" spans="1:4">
       <c r="A313" s="9" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B313" s="13" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="C313" s="18"/>
       <c r="D313" s="8"/>
     </row>
     <row r="314" ht="21" spans="1:4">
       <c r="A314" s="9" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B314" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="C314" s="18"/>
       <c r="D314" s="8"/>
     </row>
     <row r="315" ht="21" spans="1:4">
       <c r="A315" s="9" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B315" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="C315" s="18"/>
       <c r="D315" s="8"/>
     </row>
     <row r="316" ht="21" spans="1:4">
       <c r="A316" s="9" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B316" s="13" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="C316" s="18"/>
       <c r="D316" s="8"/>
     </row>
     <row r="317" ht="21" spans="1:4">
       <c r="A317" s="9" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B317" s="13" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="C317" s="18"/>
       <c r="D317" s="8"/>
     </row>
     <row r="318" ht="21" spans="1:4">
       <c r="A318" s="9" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B318" s="13" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="C318" s="18"/>
       <c r="D318" s="8"/>
     </row>
     <row r="319" ht="21" spans="1:4">
       <c r="A319" s="9" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B319" s="13" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="C319" s="18"/>
       <c r="D319" s="8"/>
     </row>
     <row r="320" ht="21" spans="1:4">
       <c r="A320" s="9" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B320" s="13" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="C320" s="18"/>
       <c r="D320" s="8"/>
     </row>
     <row r="321" ht="21" spans="1:4">
       <c r="A321" s="9" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B321" s="13" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="C321" s="18"/>
       <c r="D321" s="8"/>
     </row>
     <row r="322" ht="21" spans="1:4">
       <c r="A322" s="9" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B322" s="13" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="C322" s="18"/>
       <c r="D322" s="8"/>
     </row>
     <row r="323" ht="21" spans="1:4">
       <c r="A323" s="9" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B323" s="13" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="C323" s="18"/>
       <c r="D323" s="8"/>
     </row>
     <row r="324" ht="21" spans="1:4">
       <c r="A324" s="9" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B324" s="13" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="C324" s="18"/>
       <c r="D324" s="8"/>
     </row>
     <row r="325" ht="21" spans="1:4">
       <c r="A325" s="9" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B325" s="13" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="C325" s="18"/>
       <c r="D325" s="8"/>
     </row>
     <row r="326" ht="21" spans="1:4">
       <c r="A326" s="9" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B326" s="13" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="C326" s="18"/>
       <c r="D326" s="8"/>
     </row>
     <row r="327" ht="21" spans="1:4">
       <c r="A327" s="9" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B327" s="13" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="C327" s="18"/>
       <c r="D327" s="8"/>
     </row>
     <row r="328" ht="21" spans="1:4">
       <c r="A328" s="9" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B328" s="13" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="C328" s="18"/>
       <c r="D328" s="8"/>
     </row>
     <row r="329" ht="21" spans="1:4">
       <c r="A329" s="9" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B329" s="13" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="C329" s="18"/>
       <c r="D329" s="8"/>
     </row>
     <row r="330" ht="21" spans="1:4">
       <c r="A330" s="9" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B330" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="C330" s="18"/>
       <c r="D330" s="8"/>
     </row>
     <row r="331" ht="21" spans="1:4">
       <c r="A331" s="9" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B331" s="13" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="C331" s="18"/>
       <c r="D331" s="8"/>
     </row>
     <row r="332" ht="21" spans="1:4">
       <c r="A332" s="9" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B332" s="13" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="C332" s="18"/>
       <c r="D332" s="8"/>
     </row>
     <row r="333" ht="21" spans="1:4">
       <c r="A333" s="9" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B333" s="13" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="C333" s="18"/>
       <c r="D333" s="8"/>
@@ -6091,180 +6156,180 @@
     </row>
     <row r="336" ht="21" spans="1:4">
       <c r="A336" s="16" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="B336" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="C336" s="18"/>
       <c r="D336" s="8"/>
     </row>
     <row r="337" ht="21" spans="1:4">
       <c r="A337" s="16" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="B337" s="13" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="C337" s="18"/>
       <c r="D337" s="8"/>
     </row>
     <row r="338" ht="21" spans="1:4">
       <c r="A338" s="16" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="B338" s="13" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="C338" s="18"/>
       <c r="D338" s="8"/>
     </row>
     <row r="339" ht="21" spans="1:4">
       <c r="A339" s="16" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="B339" s="13" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="C339" s="18"/>
       <c r="D339" s="8"/>
     </row>
     <row r="340" ht="21" spans="1:4">
       <c r="A340" s="16" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="B340" s="13" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="C340" s="18"/>
       <c r="D340" s="8"/>
     </row>
     <row r="341" ht="21" spans="1:4">
       <c r="A341" s="16" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="B341" s="13" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="C341" s="18"/>
       <c r="D341" s="8"/>
     </row>
     <row r="342" ht="21" spans="1:4">
       <c r="A342" s="16" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="B342" s="13" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="C342" s="18"/>
       <c r="D342" s="8"/>
     </row>
     <row r="343" ht="21" spans="1:4">
       <c r="A343" s="16" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="B343" s="13" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="C343" s="18"/>
       <c r="D343" s="8"/>
     </row>
     <row r="344" ht="21" spans="1:4">
       <c r="A344" s="16" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="B344" s="19" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="C344" s="18"/>
       <c r="D344" s="8"/>
     </row>
     <row r="345" ht="21" spans="1:4">
       <c r="A345" s="16" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="B345" s="13" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="C345" s="18"/>
       <c r="D345" s="8"/>
     </row>
     <row r="346" ht="21" spans="1:4">
       <c r="A346" s="16" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="B346" s="13" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C346" s="18"/>
       <c r="D346" s="8"/>
     </row>
     <row r="347" ht="21" spans="1:4">
       <c r="A347" s="16" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="B347" s="13" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="C347" s="18"/>
       <c r="D347" s="8"/>
     </row>
     <row r="348" ht="21" spans="1:4">
       <c r="A348" s="16" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="B348" s="13" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="C348" s="18"/>
       <c r="D348" s="8"/>
     </row>
     <row r="349" ht="21" spans="1:4">
       <c r="A349" s="16" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="B349" s="13" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C349" s="18"/>
       <c r="D349" s="8"/>
     </row>
     <row r="350" ht="21" spans="1:4">
       <c r="A350" s="16" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="B350" s="13" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="C350" s="18"/>
       <c r="D350" s="8"/>
     </row>
     <row r="351" ht="21" spans="1:4">
       <c r="A351" s="16" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="B351" s="13" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="C351" s="18"/>
       <c r="D351" s="8"/>
     </row>
     <row r="352" ht="21" spans="1:4">
       <c r="A352" s="16" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="B352" s="13" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="C352" s="18"/>
       <c r="D352" s="8"/>
     </row>
     <row r="353" ht="21" spans="1:4">
       <c r="A353" s="16" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="B353" s="13" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="C353" s="18"/>
       <c r="D353" s="8"/>
@@ -6281,440 +6346,440 @@
     </row>
     <row r="356" ht="21" spans="1:4">
       <c r="A356" s="16" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B356" s="13" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="C356" s="18"/>
       <c r="D356" s="8"/>
     </row>
     <row r="357" ht="21" spans="1:4">
       <c r="A357" s="16" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B357" s="13" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="C357" s="18"/>
       <c r="D357" s="8"/>
     </row>
     <row r="358" ht="21" spans="1:4">
       <c r="A358" s="16" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B358" s="13" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="C358" s="18"/>
       <c r="D358" s="8"/>
     </row>
     <row r="359" ht="21" spans="1:4">
       <c r="A359" s="16" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B359" s="13" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="C359" s="18"/>
       <c r="D359" s="8"/>
     </row>
     <row r="360" ht="21" spans="1:4">
       <c r="A360" s="16" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B360" s="13" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="C360" s="18"/>
       <c r="D360" s="8"/>
     </row>
     <row r="361" ht="21" spans="1:4">
       <c r="A361" s="16" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B361" s="13" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="C361" s="18"/>
       <c r="D361" s="8"/>
     </row>
     <row r="362" ht="21" spans="1:4">
       <c r="A362" s="16" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B362" s="13" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="C362" s="18"/>
       <c r="D362" s="8"/>
     </row>
     <row r="363" ht="21" spans="1:4">
       <c r="A363" s="16" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B363" s="13" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="C363" s="18"/>
       <c r="D363" s="8"/>
     </row>
     <row r="364" ht="21" spans="1:4">
       <c r="A364" s="16" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B364" s="13" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="C364" s="18"/>
       <c r="D364" s="8"/>
     </row>
     <row r="365" ht="21" spans="1:4">
       <c r="A365" s="16" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B365" s="13" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="C365" s="18"/>
       <c r="D365" s="8"/>
     </row>
     <row r="366" ht="21" spans="1:4">
       <c r="A366" s="16" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B366" s="13" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="C366" s="18"/>
       <c r="D366" s="8"/>
     </row>
     <row r="367" ht="21" spans="1:4">
       <c r="A367" s="16" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B367" s="13" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="C367" s="18"/>
       <c r="D367" s="8"/>
     </row>
     <row r="368" ht="21" spans="1:4">
       <c r="A368" s="16" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B368" s="13" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="C368" s="18"/>
       <c r="D368" s="8"/>
     </row>
     <row r="369" ht="21" spans="1:4">
       <c r="A369" s="16" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B369" s="13" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="C369" s="18"/>
       <c r="D369" s="8"/>
     </row>
     <row r="370" ht="21" spans="1:4">
       <c r="A370" s="16" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B370" s="13" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="C370" s="18"/>
       <c r="D370" s="8"/>
     </row>
     <row r="371" ht="21" spans="1:4">
       <c r="A371" s="16" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B371" s="13" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="C371" s="18"/>
       <c r="D371" s="8"/>
     </row>
     <row r="372" ht="21" spans="1:4">
       <c r="A372" s="16" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B372" s="13" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="C372" s="18"/>
       <c r="D372" s="8"/>
     </row>
     <row r="373" ht="21" spans="1:4">
       <c r="A373" s="16" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B373" s="13" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="C373" s="18"/>
       <c r="D373" s="8"/>
     </row>
     <row r="374" ht="21" spans="1:4">
       <c r="A374" s="16" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B374" s="13" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="C374" s="18"/>
       <c r="D374" s="8"/>
     </row>
     <row r="375" ht="21" spans="1:4">
       <c r="A375" s="16" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B375" s="13" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="C375" s="18"/>
       <c r="D375" s="8"/>
     </row>
     <row r="376" ht="21" spans="1:4">
       <c r="A376" s="16" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B376" s="13" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="C376" s="18"/>
       <c r="D376" s="8"/>
     </row>
     <row r="377" ht="21" spans="1:4">
       <c r="A377" s="16" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B377" s="13" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="C377" s="18"/>
       <c r="D377" s="8"/>
     </row>
     <row r="378" ht="21" spans="1:4">
       <c r="A378" s="16" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B378" s="13" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="C378" s="18"/>
       <c r="D378" s="8"/>
     </row>
     <row r="379" ht="21" spans="1:4">
       <c r="A379" s="16" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B379" s="13" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="C379" s="18"/>
       <c r="D379" s="8"/>
     </row>
     <row r="380" ht="21" spans="1:4">
       <c r="A380" s="16" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B380" s="13" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="C380" s="18"/>
       <c r="D380" s="8"/>
     </row>
     <row r="381" ht="21" spans="1:4">
       <c r="A381" s="16" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B381" s="13" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="C381" s="18"/>
       <c r="D381" s="8"/>
     </row>
     <row r="382" ht="21" spans="1:4">
       <c r="A382" s="16" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B382" s="13" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="C382" s="18"/>
       <c r="D382" s="8"/>
     </row>
     <row r="383" ht="21" spans="1:4">
       <c r="A383" s="16" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B383" s="13" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="C383" s="18"/>
       <c r="D383" s="8"/>
     </row>
     <row r="384" ht="21" spans="1:4">
       <c r="A384" s="16" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B384" s="13" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="C384" s="18"/>
       <c r="D384" s="8"/>
     </row>
     <row r="385" ht="21" spans="1:4">
       <c r="A385" s="16" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B385" s="13" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="C385" s="18"/>
       <c r="D385" s="8"/>
     </row>
     <row r="386" ht="21" spans="1:4">
       <c r="A386" s="16" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B386" s="13" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="C386" s="18"/>
       <c r="D386" s="8"/>
     </row>
     <row r="387" ht="21" spans="1:4">
       <c r="A387" s="16" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B387" s="13" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="C387" s="18"/>
       <c r="D387" s="8"/>
     </row>
     <row r="388" ht="21" spans="1:4">
       <c r="A388" s="16" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B388" s="13" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="C388" s="18"/>
       <c r="D388" s="8"/>
     </row>
     <row r="389" ht="21" spans="1:4">
       <c r="A389" s="16" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B389" s="13" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="C389" s="18"/>
       <c r="D389" s="8"/>
     </row>
     <row r="390" ht="21" spans="1:4">
       <c r="A390" s="16" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B390" s="13" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="C390" s="18"/>
       <c r="D390" s="8"/>
     </row>
     <row r="391" ht="21" spans="1:4">
       <c r="A391" s="16" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B391" s="13" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="C391" s="18"/>
       <c r="D391" s="8"/>
     </row>
     <row r="392" ht="21" spans="1:4">
       <c r="A392" s="16" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B392" s="13" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="C392" s="18"/>
       <c r="D392" s="8"/>
     </row>
     <row r="393" ht="21" spans="1:4">
       <c r="A393" s="16" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B393" s="13" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="C393" s="18"/>
       <c r="D393" s="8"/>
     </row>
     <row r="394" ht="21" spans="1:4">
       <c r="A394" s="16" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B394" s="13" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="C394" s="18"/>
       <c r="D394" s="8"/>
     </row>
     <row r="395" ht="21" spans="1:4">
       <c r="A395" s="16" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B395" s="13" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="C395" s="18"/>
       <c r="D395" s="8"/>
     </row>
     <row r="396" ht="21" spans="1:4">
       <c r="A396" s="16" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B396" s="13" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="C396" s="18"/>
       <c r="D396" s="8"/>
     </row>
     <row r="397" ht="21" spans="1:4">
       <c r="A397" s="16" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B397" s="13" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="C397" s="18"/>
       <c r="D397" s="8"/>
     </row>
     <row r="398" ht="21" spans="1:4">
       <c r="A398" s="16" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B398" s="13" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="C398" s="18"/>
       <c r="D398" s="8"/>
     </row>
     <row r="399" ht="21" spans="1:4">
       <c r="A399" s="16" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B399" s="13" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="C399" s="18"/>
       <c r="D399" s="8"/>
@@ -6731,60 +6796,60 @@
     </row>
     <row r="402" ht="21" spans="1:4">
       <c r="A402" s="16" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="B402" s="13" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="C402" s="18"/>
       <c r="D402" s="8"/>
     </row>
     <row r="403" ht="21" spans="1:4">
       <c r="A403" s="16" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="B403" s="13" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="C403" s="18"/>
       <c r="D403" s="8"/>
     </row>
     <row r="404" ht="21" spans="1:4">
       <c r="A404" s="16" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="B404" s="13" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="C404" s="18"/>
       <c r="D404" s="8"/>
     </row>
     <row r="405" ht="21" spans="1:4">
       <c r="A405" s="16" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="B405" s="13" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C405" s="18"/>
       <c r="D405" s="8"/>
     </row>
     <row r="406" ht="21" spans="1:4">
       <c r="A406" s="16" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="B406" s="13" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="C406" s="18"/>
       <c r="D406" s="8"/>
     </row>
     <row r="407" ht="21" spans="1:4">
       <c r="A407" s="16" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="B407" s="13" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="C407" s="18"/>
       <c r="D407" s="8"/>
@@ -6801,600 +6866,600 @@
     </row>
     <row r="410" ht="21" spans="1:4">
       <c r="A410" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B410" s="13" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="C410" s="18"/>
       <c r="D410" s="8"/>
     </row>
     <row r="411" ht="21" spans="1:4">
       <c r="A411" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B411" s="13" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="C411" s="18"/>
       <c r="D411" s="8"/>
     </row>
     <row r="412" ht="21" spans="1:4">
       <c r="A412" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B412" s="13" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="C412" s="18"/>
       <c r="D412" s="8"/>
     </row>
     <row r="413" ht="21" spans="1:4">
       <c r="A413" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B413" s="13" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="C413" s="18"/>
       <c r="D413" s="8"/>
     </row>
     <row r="414" ht="21" spans="1:4">
       <c r="A414" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B414" s="13" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="C414" s="18"/>
       <c r="D414" s="8"/>
     </row>
     <row r="415" ht="21" spans="1:4">
       <c r="A415" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B415" s="13" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="C415" s="18"/>
       <c r="D415" s="8"/>
     </row>
     <row r="416" ht="21" spans="1:4">
       <c r="A416" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B416" s="13" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="C416" s="18"/>
       <c r="D416" s="8"/>
     </row>
     <row r="417" ht="21" spans="1:4">
       <c r="A417" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B417" s="13" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="C417" s="18"/>
       <c r="D417" s="8"/>
     </row>
     <row r="418" ht="21" spans="1:4">
       <c r="A418" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B418" s="13" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="C418" s="18"/>
       <c r="D418" s="8"/>
     </row>
     <row r="419" ht="21" spans="1:4">
       <c r="A419" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B419" s="13" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="C419" s="18"/>
       <c r="D419" s="8"/>
     </row>
     <row r="420" ht="21" spans="1:4">
       <c r="A420" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B420" s="13" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="C420" s="18"/>
       <c r="D420" s="8"/>
     </row>
     <row r="421" ht="21" spans="1:4">
       <c r="A421" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B421" s="13" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="C421" s="18"/>
       <c r="D421" s="8"/>
     </row>
     <row r="422" ht="21" spans="1:4">
       <c r="A422" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B422" s="13" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="C422" s="18"/>
       <c r="D422" s="8"/>
     </row>
     <row r="423" ht="21" spans="1:4">
       <c r="A423" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B423" s="13" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="C423" s="18"/>
       <c r="D423" s="8"/>
     </row>
     <row r="424" ht="21" spans="1:4">
       <c r="A424" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B424" s="13" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="C424" s="18"/>
       <c r="D424" s="8"/>
     </row>
     <row r="425" ht="21" spans="1:4">
       <c r="A425" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B425" s="13" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="C425" s="18"/>
       <c r="D425" s="8"/>
     </row>
     <row r="426" ht="21" spans="1:4">
       <c r="A426" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B426" s="13" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="C426" s="18"/>
       <c r="D426" s="8"/>
     </row>
     <row r="427" ht="21" spans="1:4">
       <c r="A427" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B427" s="13" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="C427" s="18"/>
       <c r="D427" s="8"/>
     </row>
     <row r="428" ht="21" spans="1:4">
       <c r="A428" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B428" s="13" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="C428" s="18"/>
       <c r="D428" s="8"/>
     </row>
     <row r="429" ht="21" spans="1:4">
       <c r="A429" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B429" s="13" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="C429" s="18"/>
       <c r="D429" s="8"/>
     </row>
     <row r="430" ht="21" spans="1:4">
       <c r="A430" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B430" s="13" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="C430" s="18"/>
       <c r="D430" s="8"/>
     </row>
     <row r="431" ht="21" spans="1:4">
       <c r="A431" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B431" s="13" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="C431" s="18"/>
       <c r="D431" s="8"/>
     </row>
     <row r="432" ht="21" spans="1:4">
       <c r="A432" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B432" s="13" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="C432" s="18"/>
       <c r="D432" s="8"/>
     </row>
     <row r="433" ht="21" spans="1:4">
       <c r="A433" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B433" s="13" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="C433" s="18"/>
       <c r="D433" s="8"/>
     </row>
     <row r="434" ht="21" spans="1:4">
       <c r="A434" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B434" s="13" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="C434" s="18"/>
       <c r="D434" s="8"/>
     </row>
     <row r="435" ht="21" spans="1:4">
       <c r="A435" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B435" s="13" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="C435" s="18"/>
       <c r="D435" s="8"/>
     </row>
     <row r="436" ht="21" spans="1:4">
       <c r="A436" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B436" s="13" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="C436" s="18"/>
       <c r="D436" s="8"/>
     </row>
     <row r="437" ht="21" spans="1:4">
       <c r="A437" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B437" s="13" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="C437" s="18"/>
       <c r="D437" s="8"/>
     </row>
     <row r="438" ht="21" spans="1:4">
       <c r="A438" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B438" s="13" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="C438" s="18"/>
       <c r="D438" s="8"/>
     </row>
     <row r="439" ht="21" spans="1:4">
       <c r="A439" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B439" s="13" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="C439" s="18"/>
       <c r="D439" s="8"/>
     </row>
     <row r="440" ht="21" spans="1:4">
       <c r="A440" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B440" s="13" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="C440" s="18"/>
       <c r="D440" s="8"/>
     </row>
     <row r="441" ht="21" spans="1:4">
       <c r="A441" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B441" s="13" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="C441" s="18"/>
       <c r="D441" s="8"/>
     </row>
     <row r="442" ht="21" spans="1:4">
       <c r="A442" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B442" s="13" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="C442" s="18"/>
       <c r="D442" s="8"/>
     </row>
     <row r="443" ht="21" spans="1:4">
       <c r="A443" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B443" s="13" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="C443" s="18"/>
       <c r="D443" s="8"/>
     </row>
     <row r="444" ht="21" spans="1:4">
       <c r="A444" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B444" s="13" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="C444" s="18"/>
       <c r="D444" s="8"/>
     </row>
     <row r="445" ht="21" spans="1:4">
       <c r="A445" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B445" s="13" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="C445" s="18"/>
       <c r="D445" s="8"/>
     </row>
     <row r="446" ht="21" spans="1:4">
       <c r="A446" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B446" s="13" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="C446" s="18"/>
       <c r="D446" s="8"/>
     </row>
     <row r="447" ht="21" spans="1:4">
       <c r="A447" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B447" s="13" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="C447" s="18"/>
       <c r="D447" s="8"/>
     </row>
     <row r="448" ht="21" spans="1:4">
       <c r="A448" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B448" s="13" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="C448" s="18"/>
       <c r="D448" s="8"/>
     </row>
     <row r="449" ht="21" spans="1:4">
       <c r="A449" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B449" s="13" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="C449" s="18"/>
       <c r="D449" s="8"/>
     </row>
     <row r="450" ht="21" spans="1:4">
       <c r="A450" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B450" s="13" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="C450" s="18"/>
       <c r="D450" s="8"/>
     </row>
     <row r="451" ht="21" spans="1:4">
       <c r="A451" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B451" s="13" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="C451" s="18"/>
       <c r="D451" s="8"/>
     </row>
     <row r="452" ht="21" spans="1:4">
       <c r="A452" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B452" s="13" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="C452" s="18"/>
       <c r="D452" s="8"/>
     </row>
     <row r="453" ht="21" spans="1:4">
       <c r="A453" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B453" s="13" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="C453" s="18"/>
       <c r="D453" s="8"/>
     </row>
     <row r="454" ht="21" spans="1:4">
       <c r="A454" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B454" s="13" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="C454" s="18"/>
       <c r="D454" s="8"/>
     </row>
     <row r="455" ht="21" spans="1:4">
       <c r="A455" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B455" s="13" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="C455" s="18"/>
       <c r="D455" s="8"/>
     </row>
     <row r="456" ht="21" spans="1:4">
       <c r="A456" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B456" s="13" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="C456" s="18"/>
       <c r="D456" s="8"/>
     </row>
     <row r="457" ht="21" spans="1:4">
       <c r="A457" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B457" s="13" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="C457" s="18"/>
       <c r="D457" s="8"/>
     </row>
     <row r="458" ht="21" spans="1:4">
       <c r="A458" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B458" s="13" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="C458" s="18"/>
       <c r="D458" s="8"/>
     </row>
     <row r="459" ht="21" spans="1:4">
       <c r="A459" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B459" s="13" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="C459" s="18"/>
       <c r="D459" s="8"/>
     </row>
     <row r="460" ht="21" spans="1:4">
       <c r="A460" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B460" s="13" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="C460" s="18"/>
       <c r="D460" s="8"/>
     </row>
     <row r="461" ht="21" spans="1:4">
       <c r="A461" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B461" s="13" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="C461" s="18"/>
       <c r="D461" s="8"/>
     </row>
     <row r="462" ht="21" spans="1:4">
       <c r="A462" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B462" s="13" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="C462" s="18"/>
       <c r="D462" s="8"/>
     </row>
     <row r="463" ht="21" spans="1:4">
       <c r="A463" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B463" s="13" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="C463" s="18"/>
       <c r="D463" s="8"/>
     </row>
     <row r="464" ht="21" spans="1:4">
       <c r="A464" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B464" s="13" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="C464" s="18"/>
       <c r="D464" s="8"/>
     </row>
     <row r="465" ht="21" spans="1:4">
       <c r="A465" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B465" s="13" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="C465" s="18"/>
       <c r="D465" s="8"/>
     </row>
     <row r="466" ht="21" spans="1:4">
       <c r="A466" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B466" s="13" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="C466" s="18"/>
       <c r="D466" s="8"/>
     </row>
     <row r="467" ht="21" spans="1:4">
       <c r="A467" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B467" s="13" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="C467" s="18"/>
       <c r="D467" s="8"/>
     </row>
     <row r="468" ht="21" spans="1:4">
       <c r="A468" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B468" s="13" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="C468" s="18"/>
       <c r="D468" s="8"/>
     </row>
     <row r="469" ht="21" spans="1:4">
       <c r="A469" s="9" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B469" s="13" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="C469" s="18"/>
       <c r="D469" s="8"/>
@@ -7412,100 +7477,100 @@
     </row>
     <row r="472" ht="21" spans="1:4">
       <c r="A472" s="9" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="B472" s="13" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C472" s="18"/>
       <c r="D472" s="8"/>
     </row>
     <row r="473" ht="21" spans="1:4">
       <c r="A473" s="9" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="B473" s="13" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C473" s="18"/>
       <c r="D473" s="8"/>
     </row>
     <row r="474" ht="21" spans="1:4">
       <c r="A474" s="9" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="B474" s="13" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="C474" s="18"/>
       <c r="D474" s="8"/>
     </row>
     <row r="475" ht="21" spans="1:4">
       <c r="A475" s="9" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="B475" s="13" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C475" s="18"/>
       <c r="D475" s="8"/>
     </row>
     <row r="476" ht="21" spans="1:4">
       <c r="A476" s="9" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="B476" s="13" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="C476" s="18"/>
       <c r="D476" s="8"/>
     </row>
     <row r="477" ht="21" spans="1:4">
       <c r="A477" s="9" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="B477" s="13" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="C477" s="18"/>
       <c r="D477" s="8"/>
     </row>
     <row r="478" ht="21" spans="1:4">
       <c r="A478" s="9" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="B478" s="13" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="C478" s="18"/>
       <c r="D478" s="8"/>
     </row>
     <row r="479" ht="21" spans="1:4">
       <c r="A479" s="9" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="B479" s="13" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="C479" s="18"/>
       <c r="D479" s="8"/>
     </row>
     <row r="480" ht="21" spans="1:4">
       <c r="A480" s="9" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="B480" s="13" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C480" s="18"/>
       <c r="D480" s="8"/>
     </row>
     <row r="481" ht="21" spans="1:4">
       <c r="A481" s="9" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="B481" s="13" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C481" s="18"/>
       <c r="D481" s="8"/>
@@ -7565,445 +7630,455 @@
     <hyperlink ref="B62" r:id="rId50" display="Count and Say problem"/>
     <hyperlink ref="B63" r:id="rId51" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
     <hyperlink ref="B64" r:id="rId52" display="Find Longest Recurring Subsequence in String"/>
-    <hyperlink ref="B65" r:id="rId53" display="Print all Subsequences of a string."/>
-    <hyperlink ref="B66" r:id="rId54" display="Print all the permutations of the given string"/>
-    <hyperlink ref="B67" r:id="rId55" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
-    <hyperlink ref="B68" r:id="rId56" display="Word Wrap Problem [VERY IMP]."/>
-    <hyperlink ref="B69" r:id="rId57" display="EDIT Distance [Very Imp]"/>
-    <hyperlink ref="B70" r:id="rId58" display="Find next greater number with same set of digits. [Very Very IMP]"/>
-    <hyperlink ref="B71" r:id="rId59" display="Balanced Parenthesis problem.[Imp]"/>
-    <hyperlink ref="B72" r:id="rId60" display="Word break Problem[ Very Imp]"/>
-    <hyperlink ref="B73" r:id="rId61" display="Rabin Karp Algo"/>
-    <hyperlink ref="B74" r:id="rId62" display="KMP Algo"/>
-    <hyperlink ref="B75" r:id="rId63" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
-    <hyperlink ref="B76" r:id="rId64" display="Minimum number of bracket reversals needed to make an expression balanced."/>
-    <hyperlink ref="B77" r:id="rId65" display="Count All Palindromic Subsequence in a given String."/>
-    <hyperlink ref="B78" r:id="rId66" display="Count of number of given string in 2D character array"/>
-    <hyperlink ref="B79" r:id="rId67" display="Search a Word in a 2D Grid of characters."/>
-    <hyperlink ref="B80" r:id="rId68" display="Boyer Moore Algorithm for Pattern Searching."/>
-    <hyperlink ref="B81" r:id="rId69" display="Converting Roman Numerals to Decimal"/>
-    <hyperlink ref="B82" r:id="rId70" display="Longest Common Prefix"/>
-    <hyperlink ref="B83" r:id="rId71" display="Number of flips to make binary string alternate"/>
-    <hyperlink ref="B84" r:id="rId72" display="Find the first repeated word in string."/>
-    <hyperlink ref="B85" r:id="rId73" display="Minimum number of swaps for bracket balancing."/>
-    <hyperlink ref="B86" r:id="rId74" display="Find the longest common subsequence between two strings."/>
-    <hyperlink ref="B87" r:id="rId75" display="Program to generate all possible valid IP addresses from given  string."/>
-    <hyperlink ref="B88" r:id="rId76" display="Write a program tofind the smallest window that contains all characters of string itself."/>
-    <hyperlink ref="B89" r:id="rId77" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B90" r:id="rId78" display="Minimum characters to be added at front to make string palindrome"/>
-    <hyperlink ref="B91" r:id="rId79" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B92" r:id="rId80" display="Find the smallest window in a string containing all characters of another string"/>
-    <hyperlink ref="B93" r:id="rId81" display="Recursively remove all adjacent duplicates"/>
-    <hyperlink ref="B94" r:id="rId82" display="String matching where one string contains wildcard characters"/>
-    <hyperlink ref="B95" r:id="rId83" display="Function to find Number of customers who could not get a computer"/>
-    <hyperlink ref="B96" r:id="rId84" display="Transform One String to Another using Minimum Number of Given Operation"/>
-    <hyperlink ref="B97" r:id="rId85" display="Check if two given strings are isomorphic to each other"/>
-    <hyperlink ref="B98" r:id="rId86" display="Recursively print all sentences that can be formed from list of word lists"/>
-    <hyperlink ref="B101" r:id="rId87" display="Find first and last positions of an element in a sorted array"/>
-    <hyperlink ref="B102" r:id="rId88" display="Find a Fixed Point (Value equal to index) in a given array"/>
-    <hyperlink ref="B103" r:id="rId89" display="Search in a rotated sorted array"/>
-    <hyperlink ref="B104" r:id="rId90" display="square root of an integer"/>
-    <hyperlink ref="B106" r:id="rId91" display="Optimum location of point to minimize total distance"/>
-    <hyperlink ref="B107" r:id="rId92" display="Find the repeating and the missing"/>
-    <hyperlink ref="B108" r:id="rId93" display="find majority element"/>
-    <hyperlink ref="B109" r:id="rId94" display="Searching in an array where adjacent differ by at most k"/>
-    <hyperlink ref="B110" r:id="rId95" display="find a pair with a given difference"/>
-    <hyperlink ref="B111" r:id="rId96" display="find four elements that sum to a given value"/>
-    <hyperlink ref="B113" r:id="rId97" display="Count triplet with sum smaller than a given value"/>
+    <hyperlink ref="B66" r:id="rId53" display="Print all the permutations of the given string"/>
+    <hyperlink ref="B67" r:id="rId54" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
+    <hyperlink ref="B68" r:id="rId55" display="Word Wrap Problem [VERY IMP]."/>
+    <hyperlink ref="B69" r:id="rId56" display="EDIT Distance [Very Imp]"/>
+    <hyperlink ref="B70" r:id="rId57" display="Find next greater number with same set of digits. [Very Very IMP]"/>
+    <hyperlink ref="B71" r:id="rId58" display="Balanced Parenthesis problem.[Imp]"/>
+    <hyperlink ref="B72" r:id="rId59" display="Word break Problem[ Very Imp]"/>
+    <hyperlink ref="B73" r:id="rId60" display="Rabin Karp Algo"/>
+    <hyperlink ref="B74" r:id="rId61" display="KMP Algo"/>
+    <hyperlink ref="B75" r:id="rId62" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
+    <hyperlink ref="B76" r:id="rId63" display="Minimum number of bracket reversals needed to make an expression balanced."/>
+    <hyperlink ref="B77" r:id="rId64" display="Count All Palindromic Subsequence in a given String."/>
+    <hyperlink ref="B78" r:id="rId65" display="Count of number of given string in 2D character array"/>
+    <hyperlink ref="B79" r:id="rId66" display="Search a Word in a 2D Grid of characters."/>
+    <hyperlink ref="B80" r:id="rId67" display="Boyer Moore Algorithm for Pattern Searching."/>
+    <hyperlink ref="B81" r:id="rId68" display="Converting Roman Numerals to Decimal"/>
+    <hyperlink ref="B82" r:id="rId69" display="Longest Common Prefix"/>
+    <hyperlink ref="B83" r:id="rId70" display="Number of flips to make binary string alternate"/>
+    <hyperlink ref="B84" r:id="rId71" display="Find the first repeated word in string."/>
+    <hyperlink ref="B85" r:id="rId72" display="Minimum number of swaps for bracket balancing."/>
+    <hyperlink ref="B86" r:id="rId73" display="Find the longest common subsequence between two strings."/>
+    <hyperlink ref="B87" r:id="rId74" display="Program to generate all possible valid IP addresses from given  string."/>
+    <hyperlink ref="B88" r:id="rId75" display="Write a program tofind the smallest window that contains all characters of string itself."/>
+    <hyperlink ref="B89" r:id="rId76" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="B90" r:id="rId77" display="Minimum characters to be added at front to make string palindrome"/>
+    <hyperlink ref="B91" r:id="rId78" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="B92" r:id="rId79" display="Find the smallest window in a string containing all characters of another string"/>
+    <hyperlink ref="B93" r:id="rId80" display="Recursively remove all adjacent duplicates"/>
+    <hyperlink ref="B94" r:id="rId81" display="String matching where one string contains wildcard characters"/>
+    <hyperlink ref="B95" r:id="rId82" display="Function to find Number of customers who could not get a computer"/>
+    <hyperlink ref="B96" r:id="rId83" display="Transform One String to Another using Minimum Number of Given Operation"/>
+    <hyperlink ref="B97" r:id="rId84" display="Check if two given strings are isomorphic to each other"/>
+    <hyperlink ref="B98" r:id="rId85" display="Recursively print all sentences that can be formed from list of word lists"/>
+    <hyperlink ref="B101" r:id="rId86" display="Find first and last positions of an element in a sorted array"/>
+    <hyperlink ref="B102" r:id="rId87" display="Find a Fixed Point (Value equal to index) in a given array"/>
+    <hyperlink ref="B103" r:id="rId88" display="Search in a rotated sorted array"/>
+    <hyperlink ref="B104" r:id="rId89" display="square root of an integer"/>
+    <hyperlink ref="B106" r:id="rId90" display="Optimum location of point to minimize total distance"/>
+    <hyperlink ref="B107" r:id="rId91" display="Find the repeating and the missing"/>
+    <hyperlink ref="B108" r:id="rId92" display="find majority element"/>
+    <hyperlink ref="B109" r:id="rId93" display="Searching in an array where adjacent differ by at most k"/>
+    <hyperlink ref="B110" r:id="rId94" display="find a pair with a given difference"/>
+    <hyperlink ref="B111" r:id="rId95" display="find four elements that sum to a given value"/>
+    <hyperlink ref="B113" r:id="rId96" display="Count triplet with sum smaller than a given value"/>
     <hyperlink ref="B114" r:id="rId12" display="merge 2 sorted arrays"/>
-    <hyperlink ref="B115" r:id="rId98" display="print all subarrays with 0 sum"/>
-    <hyperlink ref="B116" r:id="rId99" display="Product array Puzzle"/>
-    <hyperlink ref="B117" r:id="rId100" display="Sort array according to count of set bits"/>
-    <hyperlink ref="B118" r:id="rId101" display="minimum no. of swaps required to sort the array"/>
-    <hyperlink ref="B119" r:id="rId102" display="Bishu and Soldiers"/>
-    <hyperlink ref="B120" r:id="rId103" display="Rasta and Kheshtak"/>
-    <hyperlink ref="B121" r:id="rId104" display="Kth smallest number again"/>
-    <hyperlink ref="B122" r:id="rId105" display="Find pivot element in a sorted array"/>
-    <hyperlink ref="B123" r:id="rId106" display="K-th Element of Two Sorted Arrays"/>
-    <hyperlink ref="B124" r:id="rId107" display="Aggressive cows"/>
-    <hyperlink ref="B125" r:id="rId108" display="Book Allocation Problem"/>
-    <hyperlink ref="B126" r:id="rId109" display="EKOSPOJ:"/>
-    <hyperlink ref="B127" r:id="rId110" display="Job Scheduling Algo"/>
-    <hyperlink ref="B128" r:id="rId111" display="Missing Number in AP"/>
-    <hyperlink ref="B129" r:id="rId112" display="Smallest number with atleastn trailing zeroes infactorial"/>
-    <hyperlink ref="B130" r:id="rId108" display="Painters Partition Problem:"/>
-    <hyperlink ref="B131" r:id="rId113" display="ROTI-Prata SPOJ"/>
-    <hyperlink ref="B132" r:id="rId114" display="DoubleHelix SPOJ"/>
-    <hyperlink ref="B133" r:id="rId115" display="Subset Sums"/>
+    <hyperlink ref="B115" r:id="rId97" display="print all subarrays with 0 sum"/>
+    <hyperlink ref="B116" r:id="rId98" display="Product array Puzzle"/>
+    <hyperlink ref="B117" r:id="rId99" display="Sort array according to count of set bits"/>
+    <hyperlink ref="B118" r:id="rId100" display="minimum no. of swaps required to sort the array"/>
+    <hyperlink ref="B119" r:id="rId101" display="Bishu and Soldiers"/>
+    <hyperlink ref="B120" r:id="rId102" display="Rasta and Kheshtak"/>
+    <hyperlink ref="B121" r:id="rId103" display="Kth smallest number again"/>
+    <hyperlink ref="B122" r:id="rId104" display="Find pivot element in a sorted array"/>
+    <hyperlink ref="B123" r:id="rId105" display="K-th Element of Two Sorted Arrays"/>
+    <hyperlink ref="B124" r:id="rId106" display="Aggressive cows"/>
+    <hyperlink ref="B125" r:id="rId107" display="Book Allocation Problem"/>
+    <hyperlink ref="B126" r:id="rId108" display="EKOSPOJ:"/>
+    <hyperlink ref="B127" r:id="rId109" display="Job Scheduling Algo"/>
+    <hyperlink ref="B128" r:id="rId110" display="Missing Number in AP"/>
+    <hyperlink ref="B129" r:id="rId111" display="Smallest number with atleastn trailing zeroes infactorial"/>
+    <hyperlink ref="B130" r:id="rId107" display="Painters Partition Problem:"/>
+    <hyperlink ref="B131" r:id="rId112" display="ROTI-Prata SPOJ"/>
+    <hyperlink ref="B132" r:id="rId113" display="DoubleHelix SPOJ"/>
+    <hyperlink ref="B133" r:id="rId114" display="Subset Sums"/>
     <hyperlink ref="B134" r:id="rId15" display="Findthe inversion count"/>
-    <hyperlink ref="B135" r:id="rId116" display="Implement Merge-sort in-place"/>
-    <hyperlink ref="B136" r:id="rId117" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
-    <hyperlink ref="B105" r:id="rId118" display="Maximum and minimum of an array using minimum number of comparisons"/>
-    <hyperlink ref="B112" r:id="rId119" display="maximum sum such that no 2 elements are adjacent"/>
-    <hyperlink ref="B139" r:id="rId120" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
-    <hyperlink ref="B140" r:id="rId121" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
-    <hyperlink ref="B141" r:id="rId122" display="Write a program to Detect loop in a linked list."/>
-    <hyperlink ref="B142" r:id="rId123" display="Write a program to Delete loop in a linked list."/>
-    <hyperlink ref="B143" r:id="rId124" display="Find the starting point of the loop. "/>
-    <hyperlink ref="B144" r:id="rId125" display="Remove Duplicates in a sorted Linked List."/>
-    <hyperlink ref="B145" r:id="rId126" display="Remove Duplicates in a Un-sorted Linked List."/>
-    <hyperlink ref="B146" r:id="rId127" display="Write a Program to Move the last element to Front in a Linked List."/>
-    <hyperlink ref="B147" r:id="rId128" display="Add “1” to a number represented as a Linked List."/>
-    <hyperlink ref="B148" r:id="rId129" display="Add two numbers represented by linked lists."/>
-    <hyperlink ref="B149" r:id="rId130" display="Intersection of two Sorted Linked List."/>
-    <hyperlink ref="B150" r:id="rId131" display="Intersection Point of two Linked Lists."/>
-    <hyperlink ref="B151" r:id="rId132" display="Merge Sort For Linked lists.[Very Important]"/>
-    <hyperlink ref="B152" r:id="rId133" display="Quicksort for Linked Lists.[Very Important]"/>
-    <hyperlink ref="B153" r:id="rId134" display="Find the middle Element of a linked list."/>
-    <hyperlink ref="B154" r:id="rId135" display="Check if a linked list is a circular linked list."/>
-    <hyperlink ref="B155" r:id="rId136" display="Split a Circular linked list into two halves."/>
-    <hyperlink ref="B156" r:id="rId137" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
-    <hyperlink ref="B157" r:id="rId138" display="Deletion from a Circular Linked List."/>
-    <hyperlink ref="B158" r:id="rId139" display="Reverse a Doubly Linked list."/>
-    <hyperlink ref="B159" r:id="rId140" display="Find pairs with a given sum in a DLL."/>
-    <hyperlink ref="B160" r:id="rId141" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
-    <hyperlink ref="B161" r:id="rId142" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
-    <hyperlink ref="B162" r:id="rId143" display="Rotate DoublyLinked list by N nodes."/>
-    <hyperlink ref="B163" r:id="rId144" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
-    <hyperlink ref="B166" r:id="rId145" display="Flatten a Linked List"/>
-    <hyperlink ref="B167" r:id="rId146" display="Sort a LL of 0's, 1's and 2's"/>
-    <hyperlink ref="B168" r:id="rId147" display="Clone a linked list with next and random pointer"/>
-    <hyperlink ref="B169" r:id="rId148" display="Merge K sorted Linked list"/>
-    <hyperlink ref="B170" r:id="rId149" display="Multiply 2 no. represented by LL"/>
-    <hyperlink ref="B171" r:id="rId150" display="Delete nodes which have a greater value on right side"/>
-    <hyperlink ref="B172" r:id="rId151" display="Segregate even and odd nodes in a Linked List"/>
-    <hyperlink ref="B173" r:id="rId152" display="Program for n’th node from the end of a Linked List"/>
-    <hyperlink ref="B174" r:id="rId153" display="Find the first non-repeating character from a stream of characters"/>
-    <hyperlink ref="B177" r:id="rId154" display="level order traversal"/>
-    <hyperlink ref="B178" r:id="rId155" display="Reverse Level Order traversal"/>
-    <hyperlink ref="B179" r:id="rId156" display="Height of a tree"/>
-    <hyperlink ref="B180" r:id="rId157" display="Diameter of a tree"/>
-    <hyperlink ref="B181" r:id="rId158" display="Mirror of a tree"/>
-    <hyperlink ref="B182" r:id="rId159" display="Inorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B183" r:id="rId160" display="Preorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B184" r:id="rId161" display="Postorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B185" r:id="rId162" display="Left View of a tree"/>
-    <hyperlink ref="B186" r:id="rId163" display="Right View of Tree"/>
-    <hyperlink ref="B187" r:id="rId164" display="Top View of a tree"/>
-    <hyperlink ref="B188" r:id="rId165" display="Bottom View of a tree"/>
-    <hyperlink ref="B189" r:id="rId166" display="Zig-Zag traversal of a binary tree"/>
-    <hyperlink ref="B190" r:id="rId167" display="Check if a tree is balanced or not"/>
-    <hyperlink ref="B191" r:id="rId168" display="Diagnol Traversal of a Binary tree"/>
-    <hyperlink ref="B192" r:id="rId169" display="Boundary traversal of a Binary tree"/>
-    <hyperlink ref="B193" r:id="rId170" display="Construct Binary Tree from String with Bracket Representation"/>
-    <hyperlink ref="B194" r:id="rId171" display="Convert Binary tree into Doubly Linked List"/>
-    <hyperlink ref="B195" r:id="rId172" display="Convert Binary tree into Sum tree"/>
-    <hyperlink ref="B196" r:id="rId173" display="Construct Binary tree from Inorder and preorder traversal"/>
-    <hyperlink ref="B197" r:id="rId174" display="Find minimum swaps required to convert a Binary tree into BST"/>
-    <hyperlink ref="B198" r:id="rId175" display="Check if Binary tree is Sum tree or not"/>
-    <hyperlink ref="B199" r:id="rId176" display="Check if all leaf nodes are at same level or not"/>
-    <hyperlink ref="B200" r:id="rId177" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
-    <hyperlink ref="B201" r:id="rId178" display="Check if 2 trees are mirror or not"/>
-    <hyperlink ref="B202" r:id="rId179" display="Sum of Nodes on the Longest path from root to leaf node "/>
-    <hyperlink ref="B203" r:id="rId180" display="Check if given graph is tree or not.  [ IMP ]"/>
-    <hyperlink ref="B204" r:id="rId181" display="Find Largest subtree sum in a tree"/>
-    <hyperlink ref="B205" r:id="rId182" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
-    <hyperlink ref="B206" r:id="rId183" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
-    <hyperlink ref="B207" r:id="rId184" display="Find LCA in a Binary tree"/>
-    <hyperlink ref="B208" r:id="rId185" display="Find distance between 2 nodes in a Binary tree"/>
-    <hyperlink ref="B209" r:id="rId186" display="Kth Ancestor of node in a Binary tree"/>
-    <hyperlink ref="B210" r:id="rId187" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
-    <hyperlink ref="B211" r:id="rId188" display="Tree Isomorphism Problem"/>
-    <hyperlink ref="B214" r:id="rId189" display="Fina a value in a BST"/>
-    <hyperlink ref="B215" r:id="rId190" display="Deletion of a node in a BST"/>
-    <hyperlink ref="B216" r:id="rId191" display="Find min and max value in a BST"/>
-    <hyperlink ref="B217" r:id="rId192" display="Find inorder successor and inorder predecessor in a BST"/>
-    <hyperlink ref="B218" r:id="rId193" display="Check if a tree is a BST or not "/>
-    <hyperlink ref="B219" r:id="rId194" display="Populate Inorder successor of all nodes"/>
-    <hyperlink ref="B220" r:id="rId195" display="Find LCA  of 2 nodes in a BST"/>
-    <hyperlink ref="B221" r:id="rId196" display="Construct BST from preorder traversal"/>
-    <hyperlink ref="B222" r:id="rId197" display="Convert Binary tree into BST"/>
-    <hyperlink ref="B223" r:id="rId198" display="Convert a normal BST into a Balanced BST"/>
-    <hyperlink ref="B224" r:id="rId199" display="Merge two BST [ V.V.V&gt;IMP ]"/>
-    <hyperlink ref="B225" r:id="rId200" display="Find Kth largest element in a BST"/>
-    <hyperlink ref="B226" r:id="rId201" display="Find Kth smallest element in a BST"/>
-    <hyperlink ref="B227" r:id="rId202" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
-    <hyperlink ref="B228" r:id="rId203" display="Find the median of BST in O(n) time and O(1) space"/>
-    <hyperlink ref="B229" r:id="rId204" display="Count BST ndoes that lie in a given range"/>
-    <hyperlink ref="B230" r:id="rId205" display="Replace every element with the least greater element on its right"/>
-    <hyperlink ref="B231" r:id="rId206" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
-    <hyperlink ref="B232" r:id="rId207" display="Check preorder is valid or not"/>
-    <hyperlink ref="B233" r:id="rId208" display="Check whether BST contains Dead end"/>
-    <hyperlink ref="B234" r:id="rId209" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
-    <hyperlink ref="B235" r:id="rId210" display="Flatten BST to sorted list"/>
-    <hyperlink ref="B238" r:id="rId211" display="Activity Selection Problem"/>
-    <hyperlink ref="B239" r:id="rId212" display="Job SequencingProblem"/>
-    <hyperlink ref="B240" r:id="rId213" display="Huffman Coding"/>
-    <hyperlink ref="B241" r:id="rId214" display="Water Connection Problem"/>
-    <hyperlink ref="B242" r:id="rId215" display="Fractional Knapsack Problem"/>
-    <hyperlink ref="B243" r:id="rId216" display="Greedy Algorithm to find Minimum number of Coins"/>
-    <hyperlink ref="B244" r:id="rId217" display="Maximum trains for which stoppage can be provided"/>
-    <hyperlink ref="B245" r:id="rId218" display="Minimum Platforms Problem"/>
-    <hyperlink ref="B246" r:id="rId219" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
-    <hyperlink ref="B247" r:id="rId220" display="Find the minimum and maximum amount to buy all N candies"/>
-    <hyperlink ref="B248" r:id="rId221" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B249" r:id="rId222" display="Minimum Cost to cut a board into squares"/>
-    <hyperlink ref="B250" r:id="rId223" display="Check if it is possible to survive on Island"/>
-    <hyperlink ref="B251" r:id="rId224" display="Find maximum meetings in one room"/>
-    <hyperlink ref="B252" r:id="rId225" display="Maximum product subset of an array"/>
-    <hyperlink ref="B253" r:id="rId226" display="Maximize array sum after K negations"/>
-    <hyperlink ref="B254" r:id="rId227" display="Maximize the sum of arr[i]*i"/>
-    <hyperlink ref="B255" r:id="rId228" display="Maximum sum of absolute difference of an array"/>
-    <hyperlink ref="B256" r:id="rId229" display="Maximize sum of consecutive differences in a circular array"/>
-    <hyperlink ref="B257" r:id="rId230" display="Minimum sum of absolute difference of pairs of two arrays"/>
-    <hyperlink ref="B258" r:id="rId231" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
-    <hyperlink ref="B259" r:id="rId232" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
-    <hyperlink ref="B260" r:id="rId233" display="Smallest subset with sum greater than all other elements"/>
+    <hyperlink ref="B135" r:id="rId115" display="Implement Merge-sort in-place"/>
+    <hyperlink ref="B136" r:id="rId116" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
+    <hyperlink ref="B105" r:id="rId117" display="Maximum and minimum of an array using minimum number of comparisons"/>
+    <hyperlink ref="B112" r:id="rId118" display="maximum sum such that no 2 elements are adjacent"/>
+    <hyperlink ref="B139" r:id="rId119" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
+    <hyperlink ref="B140" r:id="rId120" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
+    <hyperlink ref="B141" r:id="rId121" display="Write a program to Detect loop in a linked list."/>
+    <hyperlink ref="B142" r:id="rId122" display="Write a program to Delete loop in a linked list."/>
+    <hyperlink ref="B143" r:id="rId123" display="Find the starting point of the loop. "/>
+    <hyperlink ref="B144" r:id="rId124" display="Remove Duplicates in a sorted Linked List."/>
+    <hyperlink ref="B145" r:id="rId125" display="Remove Duplicates in a Un-sorted Linked List."/>
+    <hyperlink ref="B146" r:id="rId126" display="Write a Program to Move the last element to Front in a Linked List."/>
+    <hyperlink ref="B147" r:id="rId127" display="Add “1” to a number represented as a Linked List."/>
+    <hyperlink ref="B148" r:id="rId128" display="Add two numbers represented by linked lists."/>
+    <hyperlink ref="B149" r:id="rId129" display="Intersection of two Sorted Linked List."/>
+    <hyperlink ref="B150" r:id="rId130" display="Intersection Point of two Linked Lists."/>
+    <hyperlink ref="B151" r:id="rId131" display="Merge Sort For Linked lists.[Very Important]"/>
+    <hyperlink ref="B152" r:id="rId132" display="Quicksort for Linked Lists.[Very Important]"/>
+    <hyperlink ref="B153" r:id="rId133" display="Find the middle Element of a linked list."/>
+    <hyperlink ref="B154" r:id="rId134" display="Check if a linked list is a circular linked list."/>
+    <hyperlink ref="B155" r:id="rId135" display="Split a Circular linked list into two halves."/>
+    <hyperlink ref="B156" r:id="rId136" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
+    <hyperlink ref="B157" r:id="rId137" display="Deletion from a Circular Linked List."/>
+    <hyperlink ref="B158" r:id="rId138" display="Reverse a Doubly Linked list."/>
+    <hyperlink ref="B159" r:id="rId139" display="Find pairs with a given sum in a DLL."/>
+    <hyperlink ref="B160" r:id="rId140" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
+    <hyperlink ref="B161" r:id="rId141" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
+    <hyperlink ref="B162" r:id="rId142" display="Rotate DoublyLinked list by N nodes."/>
+    <hyperlink ref="B163" r:id="rId143" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
+    <hyperlink ref="B166" r:id="rId144" display="Flatten a Linked List"/>
+    <hyperlink ref="B167" r:id="rId145" display="Sort a LL of 0's, 1's and 2's"/>
+    <hyperlink ref="B168" r:id="rId146" display="Clone a linked list with next and random pointer"/>
+    <hyperlink ref="B169" r:id="rId147" display="Merge K sorted Linked list"/>
+    <hyperlink ref="B170" r:id="rId148" display="Multiply 2 no. represented by LL"/>
+    <hyperlink ref="B171" r:id="rId149" display="Delete nodes which have a greater value on right side"/>
+    <hyperlink ref="B172" r:id="rId150" display="Segregate even and odd nodes in a Linked List"/>
+    <hyperlink ref="B173" r:id="rId151" display="Program for n’th node from the end of a Linked List"/>
+    <hyperlink ref="B174" r:id="rId152" display="Find the first non-repeating character from a stream of characters"/>
+    <hyperlink ref="B177" r:id="rId153" display="level order traversal"/>
+    <hyperlink ref="B178" r:id="rId154" display="Reverse Level Order traversal"/>
+    <hyperlink ref="B179" r:id="rId155" display="Height of a tree"/>
+    <hyperlink ref="B180" r:id="rId156" display="Diameter of a tree"/>
+    <hyperlink ref="B181" r:id="rId157" display="Mirror of a tree"/>
+    <hyperlink ref="B182" r:id="rId158" display="Inorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B183" r:id="rId159" display="Preorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B184" r:id="rId160" display="Postorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B185" r:id="rId161" display="Left View of a tree"/>
+    <hyperlink ref="B186" r:id="rId162" display="Right View of Tree"/>
+    <hyperlink ref="B187" r:id="rId163" display="Top View of a tree"/>
+    <hyperlink ref="B188" r:id="rId164" display="Bottom View of a tree"/>
+    <hyperlink ref="B189" r:id="rId165" display="Zig-Zag traversal of a binary tree"/>
+    <hyperlink ref="B190" r:id="rId166" display="Check if a tree is balanced or not"/>
+    <hyperlink ref="B191" r:id="rId167" display="Diagnol Traversal of a Binary tree"/>
+    <hyperlink ref="B192" r:id="rId168" display="Boundary traversal of a Binary tree"/>
+    <hyperlink ref="B193" r:id="rId169" display="Construct Binary Tree from String with Bracket Representation"/>
+    <hyperlink ref="B194" r:id="rId170" display="Convert Binary tree into Doubly Linked List"/>
+    <hyperlink ref="B195" r:id="rId171" display="Convert Binary tree into Sum tree"/>
+    <hyperlink ref="B196" r:id="rId172" display="Construct Binary tree from Inorder and preorder traversal"/>
+    <hyperlink ref="B197" r:id="rId173" display="Find minimum swaps required to convert a Binary tree into BST"/>
+    <hyperlink ref="B198" r:id="rId174" display="Check if Binary tree is Sum tree or not"/>
+    <hyperlink ref="B199" r:id="rId175" display="Check if all leaf nodes are at same level or not"/>
+    <hyperlink ref="B200" r:id="rId176" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
+    <hyperlink ref="B201" r:id="rId177" display="Check if 2 trees are mirror or not"/>
+    <hyperlink ref="B202" r:id="rId178" display="Sum of Nodes on the Longest path from root to leaf node "/>
+    <hyperlink ref="B203" r:id="rId179" display="Check if given graph is tree or not.  [ IMP ]"/>
+    <hyperlink ref="B204" r:id="rId180" display="Find Largest subtree sum in a tree"/>
+    <hyperlink ref="B205" r:id="rId181" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
+    <hyperlink ref="B206" r:id="rId182" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
+    <hyperlink ref="B207" r:id="rId183" display="Find LCA in a Binary tree"/>
+    <hyperlink ref="B208" r:id="rId184" display="Find distance between 2 nodes in a Binary tree"/>
+    <hyperlink ref="B209" r:id="rId185" display="Kth Ancestor of node in a Binary tree"/>
+    <hyperlink ref="B210" r:id="rId186" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
+    <hyperlink ref="B211" r:id="rId187" display="Tree Isomorphism Problem"/>
+    <hyperlink ref="B214" r:id="rId188" display="Fina a value in a BST"/>
+    <hyperlink ref="B215" r:id="rId189" display="Deletion of a node in a BST"/>
+    <hyperlink ref="B216" r:id="rId190" display="Find min and max value in a BST"/>
+    <hyperlink ref="B217" r:id="rId191" display="Find inorder successor and inorder predecessor in a BST"/>
+    <hyperlink ref="B218" r:id="rId192" display="Check if a tree is a BST or not "/>
+    <hyperlink ref="B219" r:id="rId193" display="Populate Inorder successor of all nodes"/>
+    <hyperlink ref="B220" r:id="rId194" display="Find LCA  of 2 nodes in a BST"/>
+    <hyperlink ref="B221" r:id="rId195" display="Construct BST from preorder traversal"/>
+    <hyperlink ref="B222" r:id="rId196" display="Convert Binary tree into BST"/>
+    <hyperlink ref="B223" r:id="rId197" display="Convert a normal BST into a Balanced BST"/>
+    <hyperlink ref="B224" r:id="rId198" display="Merge two BST [ V.V.V&gt;IMP ]"/>
+    <hyperlink ref="B225" r:id="rId199" display="Find Kth largest element in a BST"/>
+    <hyperlink ref="B226" r:id="rId200" display="Find Kth smallest element in a BST"/>
+    <hyperlink ref="B227" r:id="rId201" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
+    <hyperlink ref="B228" r:id="rId202" display="Find the median of BST in O(n) time and O(1) space"/>
+    <hyperlink ref="B229" r:id="rId203" display="Count BST ndoes that lie in a given range"/>
+    <hyperlink ref="B230" r:id="rId204" display="Replace every element with the least greater element on its right"/>
+    <hyperlink ref="B231" r:id="rId205" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
+    <hyperlink ref="B232" r:id="rId206" display="Check preorder is valid or not"/>
+    <hyperlink ref="B233" r:id="rId207" display="Check whether BST contains Dead end"/>
+    <hyperlink ref="B234" r:id="rId208" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
+    <hyperlink ref="B235" r:id="rId209" display="Flatten BST to sorted list"/>
+    <hyperlink ref="B238" r:id="rId210" display="Activity Selection Problem"/>
+    <hyperlink ref="B239" r:id="rId211" display="Job SequencingProblem"/>
+    <hyperlink ref="B240" r:id="rId212" display="Huffman Coding"/>
+    <hyperlink ref="B241" r:id="rId213" display="Water Connection Problem"/>
+    <hyperlink ref="B242" r:id="rId214" display="Fractional Knapsack Problem"/>
+    <hyperlink ref="B243" r:id="rId215" display="Greedy Algorithm to find Minimum number of Coins"/>
+    <hyperlink ref="B244" r:id="rId216" display="Maximum trains for which stoppage can be provided"/>
+    <hyperlink ref="B245" r:id="rId217" display="Minimum Platforms Problem"/>
+    <hyperlink ref="B246" r:id="rId218" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
+    <hyperlink ref="B247" r:id="rId219" display="Find the minimum and maximum amount to buy all N candies"/>
+    <hyperlink ref="B248" r:id="rId220" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="B249" r:id="rId221" display="Minimum Cost to cut a board into squares"/>
+    <hyperlink ref="B250" r:id="rId222" display="Check if it is possible to survive on Island"/>
+    <hyperlink ref="B251" r:id="rId223" display="Find maximum meetings in one room"/>
+    <hyperlink ref="B252" r:id="rId224" display="Maximum product subset of an array"/>
+    <hyperlink ref="B253" r:id="rId225" display="Maximize array sum after K negations"/>
+    <hyperlink ref="B254" r:id="rId226" display="Maximize the sum of arr[i]*i"/>
+    <hyperlink ref="B255" r:id="rId227" display="Maximum sum of absolute difference of an array"/>
+    <hyperlink ref="B256" r:id="rId228" display="Maximize sum of consecutive differences in a circular array"/>
+    <hyperlink ref="B257" r:id="rId229" display="Minimum sum of absolute difference of pairs of two arrays"/>
+    <hyperlink ref="B258" r:id="rId230" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
+    <hyperlink ref="B259" r:id="rId231" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
+    <hyperlink ref="B260" r:id="rId232" display="Smallest subset with sum greater than all other elements"/>
     <hyperlink ref="B261" r:id="rId29" display="Chocolate Distribution Problem"/>
-    <hyperlink ref="B262" r:id="rId234" display="DEFKIN -Defense of a Kingdom"/>
-    <hyperlink ref="B263" r:id="rId235" display="DIEHARD -DIE HARD"/>
-    <hyperlink ref="B264" r:id="rId236" display="GERGOVIA -Wine trading in Gergovia"/>
-    <hyperlink ref="B265" r:id="rId237" display="Picking Up Chicks"/>
-    <hyperlink ref="B266" r:id="rId238" display="CHOCOLA –Chocolate"/>
-    <hyperlink ref="B267" r:id="rId239" display="ARRANGE -Arranging Amplifiers"/>
-    <hyperlink ref="B268" r:id="rId240" display="K Centers Problem"/>
-    <hyperlink ref="B269" r:id="rId241" display="Minimum Cost of ropes"/>
-    <hyperlink ref="B270" r:id="rId242" display="Find smallest number with given number of digits and sum of digits"/>
-    <hyperlink ref="B271" r:id="rId77" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B272" r:id="rId243" display="Find maximum sum possible equal sum of three stacks"/>
-    <hyperlink ref="B275" r:id="rId244" display="Rat in a maze Problem"/>
-    <hyperlink ref="B276" r:id="rId245" display="Printing all solutions in N-Queen Problem"/>
-    <hyperlink ref="B277" r:id="rId246" display="Word Break Problem using Backtracking"/>
-    <hyperlink ref="B278" r:id="rId247" display="Remove Invalid Parentheses"/>
-    <hyperlink ref="B279" r:id="rId248" display="Sudoku Solver"/>
-    <hyperlink ref="B280" r:id="rId249" display="m Coloring Problem"/>
-    <hyperlink ref="B281" r:id="rId250" display="Print all palindromic partitions of a string"/>
-    <hyperlink ref="B282" r:id="rId251" display="Subset Sum Problem"/>
-    <hyperlink ref="B283" r:id="rId252" display="The Knight’s tour problem"/>
-    <hyperlink ref="B284" r:id="rId253" display="Tug of War"/>
-    <hyperlink ref="B285" r:id="rId254" display="Find shortest safe route in a path with landmines"/>
-    <hyperlink ref="B286" r:id="rId255" display="Combinational Sum"/>
-    <hyperlink ref="B287" r:id="rId256" display="Find Maximum number possible by doing at-most K swaps"/>
-    <hyperlink ref="B288" r:id="rId54" display="Print all permutations of a string "/>
-    <hyperlink ref="B289" r:id="rId257" display="Find if there is a path of more than k length from a source"/>
-    <hyperlink ref="B290" r:id="rId258" display="Longest Possible Route in a Matrix with Hurdles"/>
-    <hyperlink ref="B291" r:id="rId259" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
-    <hyperlink ref="B292" r:id="rId260" display="Partition of a set intoK subsets with equal sum"/>
-    <hyperlink ref="B293" r:id="rId261" display="Find the K-th Permutation Sequence of first N natural numbers"/>
-    <hyperlink ref="B296" r:id="rId262" display=" Implement Stack from Scratch"/>
-    <hyperlink ref="B297" r:id="rId263" display=" Implement Queue from Scratch"/>
-    <hyperlink ref="B298" r:id="rId264" display="Implement 2 stack in an array"/>
-    <hyperlink ref="B299" r:id="rId265" display="find the middle element of a stack"/>
-    <hyperlink ref="B300" r:id="rId266" display="Implement &quot;N&quot; stacks in an Array"/>
-    <hyperlink ref="B301" r:id="rId59" display="Check the expression has valid or Balanced parenthesis or not."/>
-    <hyperlink ref="B302" r:id="rId267" display="Reverse a String using Stack"/>
-    <hyperlink ref="B303" r:id="rId268" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
-    <hyperlink ref="B304" r:id="rId269" display="Find the next Greater element"/>
-    <hyperlink ref="B305" r:id="rId270" display="The celebrity Problem"/>
-    <hyperlink ref="B306" r:id="rId271" display="Arithmetic Expression evaluation"/>
-    <hyperlink ref="B307" r:id="rId272" display="Evaluation of Postfix expression"/>
-    <hyperlink ref="B308" r:id="rId273" display="Implement a method to insert an element at its bottom without using any other data structure."/>
-    <hyperlink ref="B309" r:id="rId274" display="Reverse a stack using recursion"/>
-    <hyperlink ref="B310" r:id="rId275" display="Sort a Stack using recursion"/>
-    <hyperlink ref="B311" r:id="rId276" display="Merge Overlapping Intervals"/>
-    <hyperlink ref="B312" r:id="rId277" display="Largest rectangular Area in Histogram"/>
-    <hyperlink ref="B313" r:id="rId278" display="Length of the Longest Valid Substring"/>
-    <hyperlink ref="B314" r:id="rId279" display="Expression contains redundant bracket or not"/>
-    <hyperlink ref="B315" r:id="rId280" display="Implement Stack using Queue"/>
-    <hyperlink ref="B316" r:id="rId281" display="Implement Stack using Deque"/>
-    <hyperlink ref="B317" r:id="rId282" display="Stack Permutations (Check if an array is stack permutation of other)"/>
-    <hyperlink ref="B318" r:id="rId283" display="Implement Queue using Stack  "/>
-    <hyperlink ref="B319" r:id="rId284" display="Implement &quot;n&quot; queue in an array"/>
-    <hyperlink ref="B320" r:id="rId285" display="Implement a Circular queue"/>
-    <hyperlink ref="B321" r:id="rId286" display="LRU Cache Implementationa"/>
-    <hyperlink ref="B322" r:id="rId287" display="Reverse a Queue using recursion"/>
-    <hyperlink ref="B323" r:id="rId288" display="Reverse the first “K” elements of a queue"/>
-    <hyperlink ref="B324" r:id="rId289" display="Interleave the first half of the queue with second half"/>
-    <hyperlink ref="B325" r:id="rId290" display="Find the first circular tour that visits all Petrol Pumps"/>
-    <hyperlink ref="B326" r:id="rId291" display="Minimum time required to rot all oranges"/>
-    <hyperlink ref="B327" r:id="rId292" display="Distance of nearest cell having 1 in a binary matrix"/>
-    <hyperlink ref="B328" r:id="rId293" display="First negative integer in every window of size “k”"/>
-    <hyperlink ref="B329" r:id="rId294" display="Check if all levels of two trees are anagrams or not."/>
-    <hyperlink ref="B330" r:id="rId295" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
-    <hyperlink ref="B331" r:id="rId296" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
-    <hyperlink ref="B332" r:id="rId153" display="Queue based approach or first non-repeating character in a stream."/>
-    <hyperlink ref="B333" r:id="rId297" display="Next Smaller Element"/>
-    <hyperlink ref="B336" r:id="rId298" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
-    <hyperlink ref="B337" r:id="rId299" display="Sort an Array using heap. (HeapSort)"/>
-    <hyperlink ref="B338" r:id="rId300" display="Maximum of all subarrays of size k."/>
-    <hyperlink ref="B339" r:id="rId301" display="“k” largest element in an array"/>
-    <hyperlink ref="B340" r:id="rId302" display="Kth smallest and largest element in an unsorted array"/>
-    <hyperlink ref="B341" r:id="rId303" display="Merge “K” sorted arrays. [ IMP ]"/>
-    <hyperlink ref="B342" r:id="rId304" display="Merge 2 Binary Max Heaps"/>
-    <hyperlink ref="B343" r:id="rId305" display="Kth largest sum continuous subarrays"/>
-    <hyperlink ref="B344" r:id="rId306" display="Leetcode- reorganize strings"/>
-    <hyperlink ref="B345" r:id="rId148" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
-    <hyperlink ref="B346" r:id="rId307" display="Smallest range in “K” Lists"/>
-    <hyperlink ref="B347" r:id="rId308" display="Median in a stream of Integers"/>
-    <hyperlink ref="B348" r:id="rId309" display="Check if a Binary Tree is Heap"/>
-    <hyperlink ref="B349" r:id="rId241" display="Connect “n” ropes with minimum cost"/>
-    <hyperlink ref="B350" r:id="rId310" display="Convert BST to Min Heap"/>
-    <hyperlink ref="B351" r:id="rId311" display="Convert min heap to max heap"/>
-    <hyperlink ref="B352" r:id="rId77" display="Rearrange characters in a string such that no two adjacent are same."/>
-    <hyperlink ref="B353" r:id="rId312" display="Minimum sum of two numbers formed from digits of an array"/>
-    <hyperlink ref="B357" r:id="rId313" display="Implement BFS algorithm "/>
-    <hyperlink ref="B358" r:id="rId314" display="Implement DFS Algo "/>
-    <hyperlink ref="B359" r:id="rId315" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B360" r:id="rId316" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B361" r:id="rId244" display="Search in a Maze"/>
-    <hyperlink ref="B362" r:id="rId317" display="Minimum Step by Knight"/>
-    <hyperlink ref="B363" r:id="rId318" display="flood fill algo"/>
-    <hyperlink ref="B364" r:id="rId319" display="Clone a graph"/>
-    <hyperlink ref="B365" r:id="rId320" display="Making wired Connections"/>
-    <hyperlink ref="B366" r:id="rId321" display="word Ladder "/>
-    <hyperlink ref="B367" r:id="rId322" display="Dijkstra algo"/>
-    <hyperlink ref="B368" r:id="rId323" display="Implement Topological Sort "/>
-    <hyperlink ref="B369" r:id="rId324" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
-    <hyperlink ref="B370" r:id="rId325" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
-    <hyperlink ref="B371" r:id="rId326" display="Find the no. of Isalnds"/>
-    <hyperlink ref="B372" r:id="rId327" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
-    <hyperlink ref="B373" r:id="rId328" display="Implement Kruksal’sAlgorithm"/>
-    <hyperlink ref="B374" r:id="rId329" display="Implement Prim’s Algorithm"/>
-    <hyperlink ref="B375" r:id="rId330" display="Total no. of Spanning tree in a graph"/>
-    <hyperlink ref="B376" r:id="rId331" display="Implement Bellman Ford Algorithm"/>
-    <hyperlink ref="B377" r:id="rId332" display="Implement Floyd warshallAlgorithm"/>
-    <hyperlink ref="B378" r:id="rId333" display="Travelling Salesman Problem"/>
-    <hyperlink ref="B379" r:id="rId334" display="Graph ColouringProblem"/>
-    <hyperlink ref="B380" r:id="rId335" display="Snake and Ladders Problem"/>
-    <hyperlink ref="B381" r:id="rId336" display="Find bridge in a graph"/>
-    <hyperlink ref="B382" r:id="rId337" display="Count Strongly connected Components(Kosaraju Algo)"/>
-    <hyperlink ref="B383" r:id="rId338" display="Check whether a graph is Bipartite or Not"/>
-    <hyperlink ref="B384" r:id="rId339" display="Detect Negative cycle in a graph"/>
-    <hyperlink ref="B385" r:id="rId340" display="Longest path in a Directed Acyclic Graph"/>
-    <hyperlink ref="B386" r:id="rId341" display="Journey to the Moon"/>
-    <hyperlink ref="B387" r:id="rId342" display="Cheapest Flights Within K Stops"/>
-    <hyperlink ref="B388" r:id="rId343" display="Oliver and the Game"/>
-    <hyperlink ref="B389" r:id="rId344" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B390" r:id="rId344" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B391" r:id="rId257" display="Find if there is a path of more thank length from a source"/>
-    <hyperlink ref="B392" r:id="rId249" display="M-ColouringProblem"/>
-    <hyperlink ref="B393" r:id="rId345" display="Minimum edges to reverse o make path from source to destination"/>
-    <hyperlink ref="B394" r:id="rId346" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
-    <hyperlink ref="B396" r:id="rId347" display="Chinese Postman or Route Inspection"/>
-    <hyperlink ref="B395" r:id="rId348" display="Vertex Cover Problem"/>
-    <hyperlink ref="B397" r:id="rId349" display="Number of Triangles in a Directed and Undirected Graph"/>
-    <hyperlink ref="B398" r:id="rId221" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B399" r:id="rId350" display="Two Clique Problem"/>
-    <hyperlink ref="B402" r:id="rId351" display="Construct a trie from scratch"/>
-    <hyperlink ref="B403" r:id="rId352" display="Find shortest unique prefix for every word in a given list"/>
-    <hyperlink ref="B404" r:id="rId353" display="Word Break Problem | (Trie solution)"/>
-    <hyperlink ref="B405" r:id="rId79" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B406" r:id="rId354" display="Implement a Phone Directory"/>
-    <hyperlink ref="B407" r:id="rId355" display="Print unique rows in a given boolean matrix"/>
-    <hyperlink ref="B410" r:id="rId356" display="Coin ChangeProblem"/>
-    <hyperlink ref="B411" r:id="rId357" display="Knapsack Problem"/>
-    <hyperlink ref="B412" r:id="rId358" display="Binomial CoefficientProblem"/>
-    <hyperlink ref="B413" r:id="rId359" display="Permutation CoefficientProblem"/>
-    <hyperlink ref="B414" r:id="rId360" display="Program for nth Catalan Number"/>
-    <hyperlink ref="B415" r:id="rId361" display="Matrix Chain Multiplication "/>
-    <hyperlink ref="B416" r:id="rId57" display="Edit Distance"/>
-    <hyperlink ref="B417" r:id="rId251" display="Subset Sum Problem"/>
-    <hyperlink ref="B418" r:id="rId362" display="Friends Pairing Problem"/>
-    <hyperlink ref="B419" r:id="rId363" display="Gold Mine Problem"/>
-    <hyperlink ref="B420" r:id="rId364" display="Assembly Line SchedulingProblem"/>
-    <hyperlink ref="B421" r:id="rId365" display="Painting the Fenceproblem"/>
-    <hyperlink ref="B422" r:id="rId366" display="Maximize The Cut Segments"/>
-    <hyperlink ref="B423" r:id="rId74" display="Longest Common Subsequence"/>
+    <hyperlink ref="B262" r:id="rId233" display="DEFKIN -Defense of a Kingdom"/>
+    <hyperlink ref="B263" r:id="rId234" display="DIEHARD -DIE HARD"/>
+    <hyperlink ref="B264" r:id="rId235" display="GERGOVIA -Wine trading in Gergovia"/>
+    <hyperlink ref="B265" r:id="rId236" display="Picking Up Chicks"/>
+    <hyperlink ref="B266" r:id="rId237" display="CHOCOLA –Chocolate"/>
+    <hyperlink ref="B267" r:id="rId238" display="ARRANGE -Arranging Amplifiers"/>
+    <hyperlink ref="B268" r:id="rId239" display="K Centers Problem"/>
+    <hyperlink ref="B269" r:id="rId240" display="Minimum Cost of ropes"/>
+    <hyperlink ref="B270" r:id="rId241" display="Find smallest number with given number of digits and sum of digits"/>
+    <hyperlink ref="B271" r:id="rId76" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="B272" r:id="rId242" display="Find maximum sum possible equal sum of three stacks"/>
+    <hyperlink ref="B275" r:id="rId243" display="Rat in a maze Problem"/>
+    <hyperlink ref="B276" r:id="rId244" display="Printing all solutions in N-Queen Problem"/>
+    <hyperlink ref="B277" r:id="rId245" display="Word Break Problem using Backtracking"/>
+    <hyperlink ref="B278" r:id="rId246" display="Remove Invalid Parentheses"/>
+    <hyperlink ref="B279" r:id="rId247" display="Sudoku Solver"/>
+    <hyperlink ref="B280" r:id="rId248" display="m Coloring Problem"/>
+    <hyperlink ref="B281" r:id="rId249" display="Print all palindromic partitions of a string"/>
+    <hyperlink ref="B282" r:id="rId250" display="Subset Sum Problem"/>
+    <hyperlink ref="B283" r:id="rId251" display="The Knight’s tour problem"/>
+    <hyperlink ref="B284" r:id="rId252" display="Tug of War"/>
+    <hyperlink ref="B285" r:id="rId253" display="Find shortest safe route in a path with landmines"/>
+    <hyperlink ref="B286" r:id="rId254" display="Combinational Sum"/>
+    <hyperlink ref="B287" r:id="rId255" display="Find Maximum number possible by doing at-most K swaps"/>
+    <hyperlink ref="B288" r:id="rId53" display="Print all permutations of a string "/>
+    <hyperlink ref="B289" r:id="rId256" display="Find if there is a path of more than k length from a source"/>
+    <hyperlink ref="B290" r:id="rId257" display="Longest Possible Route in a Matrix with Hurdles"/>
+    <hyperlink ref="B291" r:id="rId258" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
+    <hyperlink ref="B292" r:id="rId259" display="Partition of a set intoK subsets with equal sum"/>
+    <hyperlink ref="B293" r:id="rId260" display="Find the K-th Permutation Sequence of first N natural numbers"/>
+    <hyperlink ref="B296" r:id="rId261" display=" Implement Stack from Scratch"/>
+    <hyperlink ref="B297" r:id="rId262" display=" Implement Queue from Scratch"/>
+    <hyperlink ref="B298" r:id="rId263" display="Implement 2 stack in an array"/>
+    <hyperlink ref="B299" r:id="rId264" display="find the middle element of a stack"/>
+    <hyperlink ref="B300" r:id="rId265" display="Implement &quot;N&quot; stacks in an Array"/>
+    <hyperlink ref="B301" r:id="rId58" display="Check the expression has valid or Balanced parenthesis or not."/>
+    <hyperlink ref="B302" r:id="rId266" display="Reverse a String using Stack"/>
+    <hyperlink ref="B303" r:id="rId267" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
+    <hyperlink ref="B304" r:id="rId268" display="Find the next Greater element"/>
+    <hyperlink ref="B305" r:id="rId269" display="The celebrity Problem"/>
+    <hyperlink ref="B306" r:id="rId270" display="Arithmetic Expression evaluation"/>
+    <hyperlink ref="B307" r:id="rId271" display="Evaluation of Postfix expression"/>
+    <hyperlink ref="B308" r:id="rId272" display="Implement a method to insert an element at its bottom without using any other data structure."/>
+    <hyperlink ref="B309" r:id="rId273" display="Reverse a stack using recursion"/>
+    <hyperlink ref="B310" r:id="rId274" display="Sort a Stack using recursion"/>
+    <hyperlink ref="B311" r:id="rId275" display="Merge Overlapping Intervals"/>
+    <hyperlink ref="B312" r:id="rId276" display="Largest rectangular Area in Histogram"/>
+    <hyperlink ref="B313" r:id="rId277" display="Length of the Longest Valid Substring"/>
+    <hyperlink ref="B314" r:id="rId278" display="Expression contains redundant bracket or not"/>
+    <hyperlink ref="B315" r:id="rId279" display="Implement Stack using Queue"/>
+    <hyperlink ref="B316" r:id="rId280" display="Implement Stack using Deque"/>
+    <hyperlink ref="B317" r:id="rId281" display="Stack Permutations (Check if an array is stack permutation of other)"/>
+    <hyperlink ref="B318" r:id="rId282" display="Implement Queue using Stack  "/>
+    <hyperlink ref="B319" r:id="rId283" display="Implement &quot;n&quot; queue in an array"/>
+    <hyperlink ref="B320" r:id="rId284" display="Implement a Circular queue"/>
+    <hyperlink ref="B321" r:id="rId285" display="LRU Cache Implementationa"/>
+    <hyperlink ref="B322" r:id="rId286" display="Reverse a Queue using recursion"/>
+    <hyperlink ref="B323" r:id="rId287" display="Reverse the first “K” elements of a queue"/>
+    <hyperlink ref="B324" r:id="rId288" display="Interleave the first half of the queue with second half"/>
+    <hyperlink ref="B325" r:id="rId289" display="Find the first circular tour that visits all Petrol Pumps"/>
+    <hyperlink ref="B326" r:id="rId290" display="Minimum time required to rot all oranges"/>
+    <hyperlink ref="B327" r:id="rId291" display="Distance of nearest cell having 1 in a binary matrix"/>
+    <hyperlink ref="B328" r:id="rId292" display="First negative integer in every window of size “k”"/>
+    <hyperlink ref="B329" r:id="rId293" display="Check if all levels of two trees are anagrams or not."/>
+    <hyperlink ref="B330" r:id="rId294" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
+    <hyperlink ref="B331" r:id="rId295" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
+    <hyperlink ref="B332" r:id="rId152" display="Queue based approach or first non-repeating character in a stream."/>
+    <hyperlink ref="B333" r:id="rId296" display="Next Smaller Element"/>
+    <hyperlink ref="B336" r:id="rId297" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
+    <hyperlink ref="B337" r:id="rId298" display="Sort an Array using heap. (HeapSort)"/>
+    <hyperlink ref="B338" r:id="rId299" display="Maximum of all subarrays of size k."/>
+    <hyperlink ref="B339" r:id="rId300" display="“k” largest element in an array"/>
+    <hyperlink ref="B340" r:id="rId301" display="Kth smallest and largest element in an unsorted array"/>
+    <hyperlink ref="B341" r:id="rId302" display="Merge “K” sorted arrays. [ IMP ]"/>
+    <hyperlink ref="B342" r:id="rId303" display="Merge 2 Binary Max Heaps"/>
+    <hyperlink ref="B343" r:id="rId304" display="Kth largest sum continuous subarrays"/>
+    <hyperlink ref="B344" r:id="rId305" display="Leetcode- reorganize strings"/>
+    <hyperlink ref="B345" r:id="rId147" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
+    <hyperlink ref="B346" r:id="rId306" display="Smallest range in “K” Lists"/>
+    <hyperlink ref="B347" r:id="rId307" display="Median in a stream of Integers"/>
+    <hyperlink ref="B348" r:id="rId308" display="Check if a Binary Tree is Heap"/>
+    <hyperlink ref="B349" r:id="rId240" display="Connect “n” ropes with minimum cost"/>
+    <hyperlink ref="B350" r:id="rId309" display="Convert BST to Min Heap"/>
+    <hyperlink ref="B351" r:id="rId310" display="Convert min heap to max heap"/>
+    <hyperlink ref="B352" r:id="rId76" display="Rearrange characters in a string such that no two adjacent are same."/>
+    <hyperlink ref="B353" r:id="rId311" display="Minimum sum of two numbers formed from digits of an array"/>
+    <hyperlink ref="B357" r:id="rId312" display="Implement BFS algorithm "/>
+    <hyperlink ref="B358" r:id="rId313" display="Implement DFS Algo "/>
+    <hyperlink ref="B359" r:id="rId314" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
+    <hyperlink ref="B360" r:id="rId315" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
+    <hyperlink ref="B361" r:id="rId243" display="Search in a Maze"/>
+    <hyperlink ref="B362" r:id="rId316" display="Minimum Step by Knight"/>
+    <hyperlink ref="B363" r:id="rId317" display="flood fill algo"/>
+    <hyperlink ref="B364" r:id="rId318" display="Clone a graph"/>
+    <hyperlink ref="B365" r:id="rId319" display="Making wired Connections"/>
+    <hyperlink ref="B366" r:id="rId320" display="word Ladder "/>
+    <hyperlink ref="B367" r:id="rId321" display="Dijkstra algo"/>
+    <hyperlink ref="B368" r:id="rId322" display="Implement Topological Sort "/>
+    <hyperlink ref="B369" r:id="rId323" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
+    <hyperlink ref="B370" r:id="rId324" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
+    <hyperlink ref="B371" r:id="rId325" display="Find the no. of Isalnds"/>
+    <hyperlink ref="B372" r:id="rId326" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
+    <hyperlink ref="B373" r:id="rId327" display="Implement Kruksal’sAlgorithm"/>
+    <hyperlink ref="B374" r:id="rId328" display="Implement Prim’s Algorithm"/>
+    <hyperlink ref="B375" r:id="rId329" display="Total no. of Spanning tree in a graph"/>
+    <hyperlink ref="B376" r:id="rId330" display="Implement Bellman Ford Algorithm"/>
+    <hyperlink ref="B377" r:id="rId331" display="Implement Floyd warshallAlgorithm"/>
+    <hyperlink ref="B378" r:id="rId332" display="Travelling Salesman Problem"/>
+    <hyperlink ref="B379" r:id="rId333" display="Graph ColouringProblem"/>
+    <hyperlink ref="B380" r:id="rId334" display="Snake and Ladders Problem"/>
+    <hyperlink ref="B381" r:id="rId335" display="Find bridge in a graph"/>
+    <hyperlink ref="B382" r:id="rId336" display="Count Strongly connected Components(Kosaraju Algo)"/>
+    <hyperlink ref="B383" r:id="rId337" display="Check whether a graph is Bipartite or Not"/>
+    <hyperlink ref="B384" r:id="rId338" display="Detect Negative cycle in a graph"/>
+    <hyperlink ref="B385" r:id="rId339" display="Longest path in a Directed Acyclic Graph"/>
+    <hyperlink ref="B386" r:id="rId340" display="Journey to the Moon"/>
+    <hyperlink ref="B387" r:id="rId341" display="Cheapest Flights Within K Stops"/>
+    <hyperlink ref="B388" r:id="rId342" display="Oliver and the Game"/>
+    <hyperlink ref="B389" r:id="rId343" display="Water Jug problem using BFS"/>
+    <hyperlink ref="B390" r:id="rId343" display="Water Jug problem using BFS"/>
+    <hyperlink ref="B391" r:id="rId256" display="Find if there is a path of more thank length from a source"/>
+    <hyperlink ref="B392" r:id="rId248" display="M-ColouringProblem"/>
+    <hyperlink ref="B393" r:id="rId344" display="Minimum edges to reverse o make path from source to destination"/>
+    <hyperlink ref="B394" r:id="rId345" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
+    <hyperlink ref="B396" r:id="rId346" display="Chinese Postman or Route Inspection"/>
+    <hyperlink ref="B395" r:id="rId347" display="Vertex Cover Problem"/>
+    <hyperlink ref="B397" r:id="rId348" display="Number of Triangles in a Directed and Undirected Graph"/>
+    <hyperlink ref="B398" r:id="rId220" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="B399" r:id="rId349" display="Two Clique Problem"/>
+    <hyperlink ref="B402" r:id="rId350" display="Construct a trie from scratch"/>
+    <hyperlink ref="B403" r:id="rId351" display="Find shortest unique prefix for every word in a given list"/>
+    <hyperlink ref="B404" r:id="rId352" display="Word Break Problem | (Trie solution)"/>
+    <hyperlink ref="B405" r:id="rId78" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="B406" r:id="rId353" display="Implement a Phone Directory"/>
+    <hyperlink ref="B407" r:id="rId354" display="Print unique rows in a given boolean matrix"/>
+    <hyperlink ref="B410" r:id="rId355" display="Coin ChangeProblem"/>
+    <hyperlink ref="B411" r:id="rId356" display="Knapsack Problem"/>
+    <hyperlink ref="B412" r:id="rId357" display="Binomial CoefficientProblem"/>
+    <hyperlink ref="B413" r:id="rId358" display="Permutation CoefficientProblem"/>
+    <hyperlink ref="B414" r:id="rId359" display="Program for nth Catalan Number"/>
+    <hyperlink ref="B415" r:id="rId360" display="Matrix Chain Multiplication "/>
+    <hyperlink ref="B416" r:id="rId56" display="Edit Distance"/>
+    <hyperlink ref="B417" r:id="rId250" display="Subset Sum Problem"/>
+    <hyperlink ref="B418" r:id="rId361" display="Friends Pairing Problem"/>
+    <hyperlink ref="B419" r:id="rId362" display="Gold Mine Problem"/>
+    <hyperlink ref="B420" r:id="rId363" display="Assembly Line SchedulingProblem"/>
+    <hyperlink ref="B421" r:id="rId364" display="Painting the Fenceproblem"/>
+    <hyperlink ref="B422" r:id="rId365" display="Maximize The Cut Segments"/>
+    <hyperlink ref="B423" r:id="rId73" display="Longest Common Subsequence"/>
     <hyperlink ref="B424" r:id="rId52" display="Longest Repeated Subsequence"/>
-    <hyperlink ref="B425" r:id="rId367" display="Longest Increasing Subsequence"/>
-    <hyperlink ref="B426" r:id="rId368" display="Space Optimized Solution of LCS"/>
-    <hyperlink ref="B427" r:id="rId369" display="LCS (Longest Common Subsequence) of three strings"/>
-    <hyperlink ref="B428" r:id="rId370" display="Maximum Sum Increasing Subsequence"/>
-    <hyperlink ref="B429" r:id="rId371" display="Count all subsequences having product less than K"/>
-    <hyperlink ref="B430" r:id="rId372" display="Longest subsequence such that difference between adjacent is one"/>
-    <hyperlink ref="B431" r:id="rId373" display="Maximum subsequence sum such that no three are consecutive"/>
-    <hyperlink ref="B432" r:id="rId374" display="Egg Dropping Problem"/>
-    <hyperlink ref="B433" r:id="rId375" display="Maximum Length Chain of Pairs"/>
-    <hyperlink ref="B434" r:id="rId376" display="Maximum size square sub-matrix with all 1s"/>
-    <hyperlink ref="B435" r:id="rId377" display="Maximum sum of pairs with specific difference"/>
-    <hyperlink ref="B436" r:id="rId378" display="Min Cost PathProblem"/>
-    <hyperlink ref="B437" r:id="rId379" display="Maximum difference of zeros and ones in binary string"/>
+    <hyperlink ref="B425" r:id="rId366" display="Longest Increasing Subsequence"/>
+    <hyperlink ref="B426" r:id="rId367" display="Space Optimized Solution of LCS"/>
+    <hyperlink ref="B427" r:id="rId368" display="LCS (Longest Common Subsequence) of three strings"/>
+    <hyperlink ref="B428" r:id="rId369" display="Maximum Sum Increasing Subsequence"/>
+    <hyperlink ref="B429" r:id="rId370" display="Count all subsequences having product less than K"/>
+    <hyperlink ref="B430" r:id="rId371" display="Longest subsequence such that difference between adjacent is one"/>
+    <hyperlink ref="B431" r:id="rId372" display="Maximum subsequence sum such that no three are consecutive"/>
+    <hyperlink ref="B432" r:id="rId373" display="Egg Dropping Problem"/>
+    <hyperlink ref="B433" r:id="rId374" display="Maximum Length Chain of Pairs"/>
+    <hyperlink ref="B434" r:id="rId375" display="Maximum size square sub-matrix with all 1s"/>
+    <hyperlink ref="B435" r:id="rId376" display="Maximum sum of pairs with specific difference"/>
+    <hyperlink ref="B436" r:id="rId377" display="Min Cost PathProblem"/>
+    <hyperlink ref="B437" r:id="rId378" display="Maximum difference of zeros and ones in binary string"/>
     <hyperlink ref="B438" r:id="rId10" display="Minimum number of jumps to reach end"/>
-    <hyperlink ref="B439" r:id="rId380" display="Minimum cost to fill given weight in a bag"/>
-    <hyperlink ref="B440" r:id="rId381" display="Minimum removals from array to make max –min &lt;= K"/>
-    <hyperlink ref="B441" r:id="rId382" display="Longest Common Substring"/>
-    <hyperlink ref="B442" r:id="rId383" display="Count number of ways to reacha given score in a game"/>
-    <hyperlink ref="B443" r:id="rId384" display="Count Balanced Binary Trees of Height h"/>
+    <hyperlink ref="B439" r:id="rId379" display="Minimum cost to fill given weight in a bag"/>
+    <hyperlink ref="B440" r:id="rId380" display="Minimum removals from array to make max –min &lt;= K"/>
+    <hyperlink ref="B441" r:id="rId381" display="Longest Common Substring"/>
+    <hyperlink ref="B442" r:id="rId382" display="Count number of ways to reacha given score in a game"/>
+    <hyperlink ref="B443" r:id="rId383" display="Count Balanced Binary Trees of Height h"/>
     <hyperlink ref="B444" r:id="rId8" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
-    <hyperlink ref="B445" r:id="rId385" display="Smallest sum contiguous subarray"/>
-    <hyperlink ref="B446" r:id="rId386" display="Unbounded Knapsack (Repetition of items allowed)"/>
-    <hyperlink ref="B447" r:id="rId60" display="Word Break Problem"/>
-    <hyperlink ref="B448" r:id="rId387" display="Largest Independent Set Problem"/>
-    <hyperlink ref="B449" r:id="rId251" display="Partition problem"/>
-    <hyperlink ref="B451" r:id="rId65" display="Count All Palindromic Subsequence in a given String"/>
-    <hyperlink ref="B450" r:id="rId388" display="Longest Palindromic Subsequence"/>
-    <hyperlink ref="B452" r:id="rId389" display="Longest Palindromic Substring"/>
-    <hyperlink ref="B453" r:id="rId390" display="Longest alternating subsequence"/>
-    <hyperlink ref="B454" r:id="rId391" display="Weighted Job Scheduling"/>
-    <hyperlink ref="B455" r:id="rId392" display="Coin game winner where every player has three choices"/>
-    <hyperlink ref="B456" r:id="rId393" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
+    <hyperlink ref="B445" r:id="rId384" display="Smallest sum contiguous subarray"/>
+    <hyperlink ref="B446" r:id="rId385" display="Unbounded Knapsack (Repetition of items allowed)"/>
+    <hyperlink ref="B447" r:id="rId59" display="Word Break Problem"/>
+    <hyperlink ref="B448" r:id="rId386" display="Largest Independent Set Problem"/>
+    <hyperlink ref="B449" r:id="rId250" display="Partition problem"/>
+    <hyperlink ref="B451" r:id="rId64" display="Count All Palindromic Subsequence in a given String"/>
+    <hyperlink ref="B450" r:id="rId387" display="Longest Palindromic Subsequence"/>
+    <hyperlink ref="B452" r:id="rId388" display="Longest Palindromic Substring"/>
+    <hyperlink ref="B453" r:id="rId389" display="Longest alternating subsequence"/>
+    <hyperlink ref="B454" r:id="rId390" display="Weighted Job Scheduling"/>
+    <hyperlink ref="B455" r:id="rId391" display="Coin game winner where every player has three choices"/>
+    <hyperlink ref="B456" r:id="rId392" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
     <hyperlink ref="B457" r:id="rId25" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
-    <hyperlink ref="B458" r:id="rId394" display="Optimal Strategy for a Game"/>
-    <hyperlink ref="B459" r:id="rId395" display="Optimal Binary Search Tree"/>
-    <hyperlink ref="B460" r:id="rId396" display="Palindrome PartitioningProblem"/>
-    <hyperlink ref="B461" r:id="rId56" display="Word Wrap Problem"/>
-    <hyperlink ref="B462" r:id="rId397" display="Mobile Numeric Keypad Problem [ IMP ]"/>
-    <hyperlink ref="B469" r:id="rId398" display="Maximum Length of Pair Chain"/>
-    <hyperlink ref="B468" r:id="rId399" display="Find if a string is interleaved of two other strings"/>
-    <hyperlink ref="B467" r:id="rId400" display="Maximum profit by buying and selling a share at most k times"/>
-    <hyperlink ref="B466" r:id="rId401" display="Maximum sum rectangle in a 2D matrix"/>
-    <hyperlink ref="B465" r:id="rId402" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
-    <hyperlink ref="B464" r:id="rId403" display="Largest rectangular sub-matrix whose sum is 0"/>
-    <hyperlink ref="B463" r:id="rId404" display="Boolean Parenthesization Problem"/>
-    <hyperlink ref="B472" r:id="rId405" display="Count set bits in an integer"/>
-    <hyperlink ref="B473" r:id="rId406" display="Find the two non-repeating elements in an array of repeating elements"/>
-    <hyperlink ref="B474" r:id="rId407" display="Count number of bits to be flipped to convert A to B"/>
-    <hyperlink ref="B475" r:id="rId408" display="Count total set bits in all numbers from 1 to n"/>
-    <hyperlink ref="B476" r:id="rId409" display="Program to find whether a no is power of two"/>
-    <hyperlink ref="B477" r:id="rId410" display="Find position of the only set bit"/>
-    <hyperlink ref="B478" r:id="rId411" display="Copy set bits in a range"/>
-    <hyperlink ref="B481" r:id="rId412" display="Power Set"/>
-    <hyperlink ref="B479" r:id="rId413" display="Divide two integers without using multiplication, division and mod operator"/>
-    <hyperlink ref="B480" r:id="rId414" display="Calculate square of a number without using *, / and pow()"/>
-    <hyperlink ref="B356" r:id="rId415" display="Create a Graph, print it"/>
-    <hyperlink ref="B38" r:id="rId416" display="Minimum swaps required bring elements less equal K together"/>
-    <hyperlink ref="B2" r:id="rId417" display="Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw "/>
-    <hyperlink ref="D6" r:id="rId418" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Reverse%20the%20Array.cpp"/>
-    <hyperlink ref="D7" r:id="rId419" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Find%20the%20maximum%20and%20minimum%20element%20in%20an%20array.cpp" tooltip="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Find%20the%20maximum%20and%20minimum%20element%20in%20an%20array.cpp"/>
-    <hyperlink ref="D8" r:id="rId420" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Kth%20smallest%20element.cpp"/>
-    <hyperlink ref="D9" r:id="rId421" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Sort%20an%20arrays%20of%200s%201s%20and%202s.cpp"/>
-    <hyperlink ref="D10" r:id="rId422" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Move%20all%20the%20negative%20elements%20to%20one%20side%20of%20the%20array.cpp"/>
-    <hyperlink ref="D11" r:id="rId423" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Union%20of%20two%20arrays.cpp"/>
-    <hyperlink ref="D12" r:id="rId424" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Cyclically%20Rotate%20array.cpp"/>
-    <hyperlink ref="D13" r:id="rId425" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Largest%20Sum%20contiguous%20subarray.cpp"/>
-    <hyperlink ref="D14" r:id="rId426" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Minimize%20the%20height.cpp"/>
-    <hyperlink ref="D15" r:id="rId427" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Minimum%20number%20of%20jumps.cpp"/>
-    <hyperlink ref="D16" r:id="rId428" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Find%20the%20duplicate%20number.cpp"/>
-    <hyperlink ref="D17" r:id="rId429" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Merge%20without%20Extra%20space.cpp"/>
-    <hyperlink ref="D18" r:id="rId425" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Largest%20Sum%20contiguous%20subarray.cpp"/>
-    <hyperlink ref="D19" r:id="rId430" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Merge%20Intervals.cpp"/>
-    <hyperlink ref="D20" r:id="rId431" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Next%20Permutation.cpp"/>
-    <hyperlink ref="D21" r:id="rId432" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Count%20Inversions.cpp"/>
-    <hyperlink ref="D22" r:id="rId433" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Best%20Time%20to%20Buy%20and%20Sell%20Stock.cpp"/>
-    <hyperlink ref="D23" r:id="rId434" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Count%20pairs%20with%20given%20sum.cpp"/>
-    <hyperlink ref="D24" r:id="rId435" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Common%20elements.cpp"/>
-    <hyperlink ref="D25" r:id="rId436" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Rearrange%20alternate%20positive%20and%20negative.cpp"/>
-    <hyperlink ref="D26" r:id="rId437" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Subarray%20with%200%20sum.cpp"/>
-    <hyperlink ref="D27" r:id="rId438" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Factorial%20of%20large%20numbers.cpp"/>
-    <hyperlink ref="D28" r:id="rId439" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Maximum%20Product%20Subarray.cpp"/>
-    <hyperlink ref="D29" r:id="rId440" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Longest%20Consecutive%20subsequence.cpp"/>
-    <hyperlink ref="D30" r:id="rId441" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Find%20elements%20appearing%20more%20than%20n_k%20times.cpp"/>
-    <hyperlink ref="D31" r:id="rId442" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Stock%20buy%20sell%20atmost%202.cpp"/>
-    <hyperlink ref="D32" r:id="rId443" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Array%20subset%20of%20another%20array.cpp"/>
-    <hyperlink ref="D33" r:id="rId444" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Triplet%20Sum.cpp"/>
-    <hyperlink ref="D34" r:id="rId445" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Trapping%20Rain%20Water.cpp"/>
-    <hyperlink ref="D35" r:id="rId446" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Chocolate%20Distribution%20Problem.cpp"/>
-    <hyperlink ref="D36" r:id="rId447" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Minimum%20Size%20subarray%20sum.cpp"/>
-    <hyperlink ref="D37" r:id="rId448" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Three%20way%20partitioning.cpp"/>
-    <hyperlink ref="D38" r:id="rId449" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Minimum%20swaps%20and%20K%20together.cpp"/>
-    <hyperlink ref="D39" r:id="rId450" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Minimum%20operations%20to%20make%20array%20palindrome.cpp"/>
-    <hyperlink ref="D40" r:id="rId451" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Median%20of%20sorted%20arrays%20of%20same%20size.cpp"/>
-    <hyperlink ref="D41" r:id="rId452" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Median%20of%20sorted%20arrays%20of%20different%20size.cpp"/>
-    <hyperlink ref="D44" r:id="rId453" display="https://github.com/zee-bit/FINAL450/blob/main/Matrix/Spirally%20traversing%20a%20matrix.cpp"/>
-    <hyperlink ref="D45" r:id="rId454" display="https://github.com/zee-bit/FINAL450/blob/main/Matrix/Search%20a%202D%20Matrix.cpp"/>
-    <hyperlink ref="D46" r:id="rId455" display="https://github.com/zee-bit/FINAL450/blob/main/Matrix/Median%20in%20a%20row-wise%20sorted%20Matrix.cpp"/>
-    <hyperlink ref="D47" r:id="rId456" display="https://github.com/zee-bit/FINAL450/blob/main/Matrix/Row%20with%20max%201s.cpp"/>
-    <hyperlink ref="D49" r:id="rId457" display="https://github.com/zee-bit/FINAL450/blob/main/Matrix/Max%20rectangle.cpp"/>
-    <hyperlink ref="D50" r:id="rId458" display="https://github.com/zee-bit/FINAL450/blob/main/Matrix/Find%20a%20specific%20pair%20in%20Matrix.cpp"/>
-    <hyperlink ref="D51" r:id="rId459" display="https://github.com/zee-bit/FINAL450/blob/main/Matrix/Rotate%20the%20matrix%20by%2090%20deg.cpp"/>
-    <hyperlink ref="D52" r:id="rId460" display="https://github.com/zee-bit/FINAL450/blob/main/Matrix/Kth%20element%20in%20Matrix.cpp"/>
-    <hyperlink ref="D53" r:id="rId461" display="https://github.com/zee-bit/FINAL450/blob/main/Matrix/Common%20elements%20in%20all%20rows%20of%20a%20given%20matrix.cpp"/>
-    <hyperlink ref="D48" r:id="rId462" display="https://github.com/zee-bit/FINAL450/blob/main/Matrix/Sorted%20Matrix.cpp"/>
+    <hyperlink ref="B458" r:id="rId393" display="Optimal Strategy for a Game"/>
+    <hyperlink ref="B459" r:id="rId394" display="Optimal Binary Search Tree"/>
+    <hyperlink ref="B460" r:id="rId395" display="Palindrome PartitioningProblem"/>
+    <hyperlink ref="B461" r:id="rId55" display="Word Wrap Problem"/>
+    <hyperlink ref="B462" r:id="rId396" display="Mobile Numeric Keypad Problem [ IMP ]"/>
+    <hyperlink ref="B469" r:id="rId397" display="Maximum Length of Pair Chain"/>
+    <hyperlink ref="B468" r:id="rId398" display="Find if a string is interleaved of two other strings"/>
+    <hyperlink ref="B467" r:id="rId399" display="Maximum profit by buying and selling a share at most k times"/>
+    <hyperlink ref="B466" r:id="rId400" display="Maximum sum rectangle in a 2D matrix"/>
+    <hyperlink ref="B465" r:id="rId401" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
+    <hyperlink ref="B464" r:id="rId402" display="Largest rectangular sub-matrix whose sum is 0"/>
+    <hyperlink ref="B463" r:id="rId403" display="Boolean Parenthesization Problem"/>
+    <hyperlink ref="B472" r:id="rId404" display="Count set bits in an integer"/>
+    <hyperlink ref="B473" r:id="rId405" display="Find the two non-repeating elements in an array of repeating elements"/>
+    <hyperlink ref="B474" r:id="rId406" display="Count number of bits to be flipped to convert A to B"/>
+    <hyperlink ref="B475" r:id="rId407" display="Count total set bits in all numbers from 1 to n"/>
+    <hyperlink ref="B476" r:id="rId408" display="Program to find whether a no is power of two"/>
+    <hyperlink ref="B477" r:id="rId409" display="Find position of the only set bit"/>
+    <hyperlink ref="B478" r:id="rId410" display="Copy set bits in a range"/>
+    <hyperlink ref="B481" r:id="rId411" display="Power Set"/>
+    <hyperlink ref="B479" r:id="rId412" display="Divide two integers without using multiplication, division and mod operator"/>
+    <hyperlink ref="B480" r:id="rId413" display="Calculate square of a number without using *, / and pow()"/>
+    <hyperlink ref="B356" r:id="rId414" display="Create a Graph, print it"/>
+    <hyperlink ref="B38" r:id="rId415" display="Minimum swaps required bring elements less equal K together"/>
+    <hyperlink ref="B2" r:id="rId416" display="Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw "/>
+    <hyperlink ref="D6" r:id="rId417" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Reverse%20the%20Array.cpp"/>
+    <hyperlink ref="D7" r:id="rId418" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Find%20the%20maximum%20and%20minimum%20element%20in%20an%20array.cpp" tooltip="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Find%20the%20maximum%20and%20minimum%20element%20in%20an%20array.cpp"/>
+    <hyperlink ref="D8" r:id="rId419" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Kth%20smallest%20element.cpp"/>
+    <hyperlink ref="D9" r:id="rId420" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Sort%20an%20arrays%20of%200s%201s%20and%202s.cpp"/>
+    <hyperlink ref="D10" r:id="rId421" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Move%20all%20the%20negative%20elements%20to%20one%20side%20of%20the%20array.cpp"/>
+    <hyperlink ref="D11" r:id="rId422" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Union%20of%20two%20arrays.cpp"/>
+    <hyperlink ref="D12" r:id="rId423" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Cyclically%20Rotate%20array.cpp"/>
+    <hyperlink ref="D13" r:id="rId424" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Largest%20Sum%20contiguous%20subarray.cpp"/>
+    <hyperlink ref="D14" r:id="rId425" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Minimize%20the%20height.cpp"/>
+    <hyperlink ref="D15" r:id="rId426" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Minimum%20number%20of%20jumps.cpp"/>
+    <hyperlink ref="D16" r:id="rId427" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Find%20the%20duplicate%20number.cpp"/>
+    <hyperlink ref="D17" r:id="rId428" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Merge%20without%20Extra%20space.cpp"/>
+    <hyperlink ref="D18" r:id="rId424" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Largest%20Sum%20contiguous%20subarray.cpp"/>
+    <hyperlink ref="D19" r:id="rId429" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Merge%20Intervals.cpp"/>
+    <hyperlink ref="D20" r:id="rId430" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Next%20Permutation.cpp"/>
+    <hyperlink ref="D21" r:id="rId431" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Count%20Inversions.cpp"/>
+    <hyperlink ref="D22" r:id="rId432" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Best%20Time%20to%20Buy%20and%20Sell%20Stock.cpp"/>
+    <hyperlink ref="D23" r:id="rId433" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Count%20pairs%20with%20given%20sum.cpp"/>
+    <hyperlink ref="D24" r:id="rId434" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Common%20elements.cpp"/>
+    <hyperlink ref="D25" r:id="rId435" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Rearrange%20alternate%20positive%20and%20negative.cpp"/>
+    <hyperlink ref="D26" r:id="rId436" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Subarray%20with%200%20sum.cpp"/>
+    <hyperlink ref="D27" r:id="rId437" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Factorial%20of%20large%20numbers.cpp"/>
+    <hyperlink ref="D28" r:id="rId438" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Maximum%20Product%20Subarray.cpp"/>
+    <hyperlink ref="D29" r:id="rId439" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Longest%20Consecutive%20subsequence.cpp"/>
+    <hyperlink ref="D30" r:id="rId440" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Find%20elements%20appearing%20more%20than%20n_k%20times.cpp"/>
+    <hyperlink ref="D31" r:id="rId441" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Stock%20buy%20sell%20atmost%202.cpp"/>
+    <hyperlink ref="D32" r:id="rId442" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Array%20subset%20of%20another%20array.cpp"/>
+    <hyperlink ref="D33" r:id="rId443" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Triplet%20Sum.cpp"/>
+    <hyperlink ref="D34" r:id="rId444" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Trapping%20Rain%20Water.cpp"/>
+    <hyperlink ref="D35" r:id="rId445" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Chocolate%20Distribution%20Problem.cpp"/>
+    <hyperlink ref="D36" r:id="rId446" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Minimum%20Size%20subarray%20sum.cpp"/>
+    <hyperlink ref="D37" r:id="rId447" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Three%20way%20partitioning.cpp"/>
+    <hyperlink ref="D38" r:id="rId448" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Minimum%20swaps%20and%20K%20together.cpp"/>
+    <hyperlink ref="D39" r:id="rId449" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Minimum%20operations%20to%20make%20array%20palindrome.cpp"/>
+    <hyperlink ref="D40" r:id="rId450" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Median%20of%20sorted%20arrays%20of%20same%20size.cpp"/>
+    <hyperlink ref="D41" r:id="rId451" display="https://github.com/zee-bit/FINAL450/blob/main/Arrays/Median%20of%20sorted%20arrays%20of%20different%20size.cpp"/>
+    <hyperlink ref="D44" r:id="rId452" display="https://github.com/zee-bit/FINAL450/blob/main/Matrix/Spirally%20traversing%20a%20matrix.cpp"/>
+    <hyperlink ref="D45" r:id="rId453" display="https://github.com/zee-bit/FINAL450/blob/main/Matrix/Search%20a%202D%20Matrix.cpp"/>
+    <hyperlink ref="D46" r:id="rId454" display="https://github.com/zee-bit/FINAL450/blob/main/Matrix/Median%20in%20a%20row-wise%20sorted%20Matrix.cpp"/>
+    <hyperlink ref="D47" r:id="rId455" display="https://github.com/zee-bit/FINAL450/blob/main/Matrix/Row%20with%20max%201s.cpp"/>
+    <hyperlink ref="D49" r:id="rId456" display="https://github.com/zee-bit/FINAL450/blob/main/Matrix/Max%20rectangle.cpp"/>
+    <hyperlink ref="D50" r:id="rId457" display="https://github.com/zee-bit/FINAL450/blob/main/Matrix/Find%20a%20specific%20pair%20in%20Matrix.cpp"/>
+    <hyperlink ref="D51" r:id="rId458" display="https://github.com/zee-bit/FINAL450/blob/main/Matrix/Rotate%20the%20matrix%20by%2090%20deg.cpp"/>
+    <hyperlink ref="D52" r:id="rId459" display="https://github.com/zee-bit/FINAL450/blob/main/Matrix/Kth%20element%20in%20Matrix.cpp"/>
+    <hyperlink ref="D53" r:id="rId460" display="https://github.com/zee-bit/FINAL450/blob/main/Matrix/Common%20elements%20in%20all%20rows%20of%20a%20given%20matrix.cpp"/>
+    <hyperlink ref="D48" r:id="rId461" display="https://github.com/zee-bit/FINAL450/blob/main/Matrix/Sorted%20Matrix.cpp"/>
+    <hyperlink ref="D56" r:id="rId462" display="https://github.com/zee-bit/FINAL450/blob/main/String/Reverse%20a%20String.cpp"/>
+    <hyperlink ref="D57" r:id="rId463" display="https://github.com/zee-bit/FINAL450/blob/main/String/Check%20palindrome%20string.cpp"/>
+    <hyperlink ref="D58" r:id="rId464" display="https://github.com/zee-bit/FINAL450/blob/main/String/Duplicates%20in%20input%20string.cpp"/>
+    <hyperlink ref="D60" r:id="rId465" display="https://github.com/zee-bit/FINAL450/blob/main/String/Check%20if%20string%20is%20rotation%20of%20other.cpp"/>
+    <hyperlink ref="D61" r:id="rId466" display="https://github.com/zee-bit/FINAL450/blob/main/String/Check%20valid%20shuffle%20of%202%20strings.cpp"/>
+    <hyperlink ref="D62" r:id="rId467" display="https://github.com/zee-bit/FINAL450/blob/main/String/Count%20and%20Say.cpp"/>
+    <hyperlink ref="D63" r:id="rId468" display="https://github.com/zee-bit/FINAL450/blob/main/String/Longest%20Palindrome%20in%20a%20String.cpp"/>
+    <hyperlink ref="D65" r:id="rId469" display="https://github.com/zee-bit/FINAL450/blob/main/String/Print%20all%20subsequences%20of%20a%20string.cpp"/>
+    <hyperlink ref="D66" r:id="rId470" display="https://github.com/zee-bit/FINAL450/blob/main/String/Permutations%20of%20a%20given%20string.cpp"/>
+    <hyperlink ref="B65" r:id="rId471" display="Print all Subsequences of a string."/>
+    <hyperlink ref="D67" r:id="rId472" display="https://github.com/zee-bit/FINAL450/blob/main/String/Split%20string%20into%20substrings%20of%200%20and%201.cpp"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12555"/>
+    <workbookView windowWidth="28800" windowHeight="12510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="528">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -429,6 +429,9 @@
     <t>* [DP]</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/String/Longest%20Repeating%20Subsequence.cpp</t>
+  </si>
+  <si>
     <t>Print all Subsequences of a string.</t>
   </si>
   <si>
@@ -453,16 +456,31 @@
     <t>EDIT Distance [Very Imp]</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/String/Edit%20Distance.cpp</t>
+  </si>
+  <si>
     <t>Find next greater number with same set of digits. [Very Very IMP]</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/String/Next%20Permutation.cpp</t>
+  </si>
+  <si>
     <t>Balanced Parenthesis problem.[Imp]</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/String/Parenthesis%20Checker.cpp</t>
+  </si>
+  <si>
     <t>Word break Problem[ Very Imp]</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/String/Word%20Break.cpp</t>
+  </si>
+  <si>
     <t>Rabin Karp Algo</t>
+  </si>
+  <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/String/Rabin%20Karp.cpp</t>
   </si>
   <si>
     <t>KMP Algo</t>
@@ -1646,10 +1664,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1731,8 +1749,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1749,42 +1791,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1795,6 +1814,14 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1814,16 +1841,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1836,25 +1855,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1867,10 +1869,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1919,7 +1937,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1931,175 +2117,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2141,51 +2159,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2202,6 +2179,41 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2224,162 +2236,168 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2750,8 +2768,8 @@
   <sheetPr/>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -3506,18 +3524,20 @@
       <c r="C64" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D64" s="8"/>
+      <c r="D64" s="13" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="65" ht="21" spans="1:4">
       <c r="A65" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C65" s="14"/>
       <c r="D65" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" ht="21" spans="1:4">
@@ -3525,13 +3545,13 @@
         <v>100</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C66" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" ht="21" spans="1:4">
@@ -3539,11 +3559,11 @@
         <v>100</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C67" s="14"/>
       <c r="D67" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" ht="21" spans="1:4">
@@ -3551,7 +3571,7 @@
         <v>100</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C68" s="18" t="s">
         <v>117</v>
@@ -3563,63 +3583,73 @@
         <v>100</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C69" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D69" s="8"/>
+      <c r="D69" s="13" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="70" ht="21" spans="1:4">
       <c r="A70" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C70" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="8"/>
+      <c r="D70" s="13" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="71" ht="21" spans="1:4">
       <c r="A71" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C71" s="14"/>
-      <c r="D71" s="8"/>
+      <c r="D71" s="13" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="72" ht="21" spans="1:4">
       <c r="A72" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C72" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D72" s="8"/>
+      <c r="D72" s="13" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="73" ht="21" spans="1:4">
       <c r="A73" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B73" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C73" s="18"/>
-      <c r="D73" s="8"/>
+      <c r="B73" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C73" s="14"/>
+      <c r="D73" s="13" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="74" ht="21" spans="1:4">
       <c r="A74" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C74" s="18"/>
       <c r="D74" s="8"/>
@@ -3628,50 +3658,56 @@
       <c r="A75" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B75" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C75" s="18"/>
+      <c r="B75" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C75" s="14"/>
       <c r="D75" s="8"/>
     </row>
     <row r="76" ht="21" spans="1:4">
       <c r="A76" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B76" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C76" s="18"/>
+      <c r="B76" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D76" s="8"/>
     </row>
     <row r="77" ht="21" spans="1:4">
       <c r="A77" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B77" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C77" s="18"/>
+      <c r="B77" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>117</v>
+      </c>
       <c r="D77" s="8"/>
     </row>
     <row r="78" ht="21" spans="1:4">
       <c r="A78" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B78" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C78" s="18"/>
+      <c r="B78" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C78" s="14"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" ht="21" spans="1:4">
       <c r="A79" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B79" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C79" s="18"/>
+      <c r="B79" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D79" s="8"/>
     </row>
     <row r="80" ht="21" spans="1:4">
@@ -3679,7 +3715,7 @@
         <v>100</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C80" s="18"/>
       <c r="D80" s="8"/>
@@ -3689,7 +3725,7 @@
         <v>100</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C81" s="18"/>
       <c r="D81" s="8"/>
@@ -3699,7 +3735,7 @@
         <v>100</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C82" s="18"/>
       <c r="D82" s="8"/>
@@ -3709,7 +3745,7 @@
         <v>100</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C83" s="18"/>
       <c r="D83" s="8"/>
@@ -3719,7 +3755,7 @@
         <v>100</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C84" s="18"/>
       <c r="D84" s="8"/>
@@ -3729,7 +3765,7 @@
         <v>100</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C85" s="18"/>
       <c r="D85" s="8"/>
@@ -3739,7 +3775,7 @@
         <v>100</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C86" s="18"/>
       <c r="D86" s="8"/>
@@ -3749,7 +3785,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C87" s="18"/>
       <c r="D87" s="8"/>
@@ -3759,7 +3795,7 @@
         <v>100</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C88" s="18"/>
       <c r="D88" s="8"/>
@@ -3769,7 +3805,7 @@
         <v>100</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C89" s="18"/>
       <c r="D89" s="8"/>
@@ -3779,7 +3815,7 @@
         <v>100</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C90" s="18"/>
       <c r="D90" s="8"/>
@@ -3789,7 +3825,7 @@
         <v>100</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C91" s="18"/>
       <c r="D91" s="8"/>
@@ -3799,7 +3835,7 @@
         <v>100</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C92" s="18"/>
       <c r="D92" s="8"/>
@@ -3809,7 +3845,7 @@
         <v>100</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C93" s="18"/>
       <c r="D93" s="8"/>
@@ -3819,7 +3855,7 @@
         <v>100</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C94" s="18"/>
       <c r="D94" s="8"/>
@@ -3829,7 +3865,7 @@
         <v>100</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C95" s="18"/>
       <c r="D95" s="8"/>
@@ -3839,7 +3875,7 @@
         <v>100</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C96" s="18"/>
       <c r="D96" s="8"/>
@@ -3849,7 +3885,7 @@
         <v>100</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C97" s="18"/>
       <c r="D97" s="8"/>
@@ -3859,7 +3895,7 @@
         <v>100</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C98" s="18"/>
       <c r="D98" s="8"/>
@@ -3876,360 +3912,360 @@
     </row>
     <row r="101" ht="21" spans="1:4">
       <c r="A101" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C101" s="18"/>
       <c r="D101" s="8"/>
     </row>
     <row r="102" ht="21" spans="1:4">
       <c r="A102" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C102" s="18"/>
       <c r="D102" s="8"/>
     </row>
     <row r="103" ht="21" spans="1:4">
       <c r="A103" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C103" s="18"/>
       <c r="D103" s="8"/>
     </row>
     <row r="104" ht="21" spans="1:4">
       <c r="A104" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C104" s="18"/>
       <c r="D104" s="8"/>
     </row>
     <row r="105" ht="21" spans="1:4">
       <c r="A105" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C105" s="18"/>
       <c r="D105" s="8"/>
     </row>
     <row r="106" ht="21" spans="1:4">
       <c r="A106" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C106" s="18"/>
       <c r="D106" s="8"/>
     </row>
     <row r="107" ht="21" spans="1:4">
       <c r="A107" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C107" s="18"/>
       <c r="D107" s="8"/>
     </row>
     <row r="108" ht="21" spans="1:4">
       <c r="A108" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C108" s="18"/>
       <c r="D108" s="8"/>
     </row>
     <row r="109" ht="21" spans="1:4">
       <c r="A109" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C109" s="18"/>
       <c r="D109" s="8"/>
     </row>
     <row r="110" ht="21" spans="1:4">
       <c r="A110" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C110" s="18"/>
       <c r="D110" s="8"/>
     </row>
     <row r="111" ht="21" spans="1:4">
       <c r="A111" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C111" s="18"/>
       <c r="D111" s="8"/>
     </row>
     <row r="112" ht="21" spans="1:4">
       <c r="A112" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C112" s="18"/>
       <c r="D112" s="8"/>
     </row>
     <row r="113" ht="21" spans="1:4">
       <c r="A113" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C113" s="18"/>
       <c r="D113" s="8"/>
     </row>
     <row r="114" ht="21" spans="1:4">
       <c r="A114" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C114" s="18"/>
       <c r="D114" s="8"/>
     </row>
     <row r="115" ht="21" spans="1:4">
       <c r="A115" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C115" s="18"/>
       <c r="D115" s="8"/>
     </row>
     <row r="116" ht="21" spans="1:4">
       <c r="A116" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C116" s="18"/>
       <c r="D116" s="8"/>
     </row>
     <row r="117" ht="21" spans="1:4">
       <c r="A117" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C117" s="18"/>
       <c r="D117" s="8"/>
     </row>
     <row r="118" ht="21" spans="1:4">
       <c r="A118" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C118" s="18"/>
       <c r="D118" s="8"/>
     </row>
     <row r="119" ht="21" spans="1:4">
       <c r="A119" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C119" s="18"/>
       <c r="D119" s="8"/>
     </row>
     <row r="120" ht="21" spans="1:4">
       <c r="A120" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C120" s="18"/>
       <c r="D120" s="8"/>
     </row>
     <row r="121" ht="21" spans="1:4">
       <c r="A121" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C121" s="18"/>
       <c r="D121" s="8"/>
     </row>
     <row r="122" ht="21" spans="1:4">
       <c r="A122" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C122" s="18"/>
       <c r="D122" s="8"/>
     </row>
     <row r="123" ht="21" spans="1:4">
       <c r="A123" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C123" s="18"/>
       <c r="D123" s="8"/>
     </row>
     <row r="124" ht="21" spans="1:4">
       <c r="A124" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C124" s="18"/>
       <c r="D124" s="8"/>
     </row>
     <row r="125" ht="21" spans="1:4">
       <c r="A125" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C125" s="18"/>
       <c r="D125" s="8"/>
     </row>
     <row r="126" ht="21" spans="1:4">
       <c r="A126" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C126" s="18"/>
       <c r="D126" s="8"/>
     </row>
     <row r="127" ht="21" spans="1:4">
       <c r="A127" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C127" s="18"/>
       <c r="D127" s="8"/>
     </row>
     <row r="128" ht="21" spans="1:4">
       <c r="A128" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C128" s="18"/>
       <c r="D128" s="8"/>
     </row>
     <row r="129" ht="21" spans="1:4">
       <c r="A129" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C129" s="18"/>
       <c r="D129" s="8"/>
     </row>
     <row r="130" ht="21" spans="1:4">
       <c r="A130" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C130" s="18"/>
       <c r="D130" s="8"/>
     </row>
     <row r="131" ht="21" spans="1:4">
       <c r="A131" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C131" s="18"/>
       <c r="D131" s="8"/>
     </row>
     <row r="132" ht="21" spans="1:4">
       <c r="A132" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C132" s="18"/>
       <c r="D132" s="8"/>
     </row>
     <row r="133" ht="21" spans="1:4">
       <c r="A133" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C133" s="18"/>
       <c r="D133" s="8"/>
     </row>
     <row r="134" ht="21" spans="1:4">
       <c r="A134" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C134" s="18"/>
       <c r="D134" s="8"/>
     </row>
     <row r="135" ht="21" spans="1:4">
       <c r="A135" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C135" s="18"/>
       <c r="D135" s="8"/>
     </row>
     <row r="136" ht="21" spans="1:4">
       <c r="A136" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C136" s="18"/>
       <c r="D136" s="8"/>
@@ -4245,360 +4281,360 @@
     </row>
     <row r="139" ht="21" spans="1:4">
       <c r="A139" s="16" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C139" s="18"/>
       <c r="D139" s="8"/>
     </row>
     <row r="140" ht="21" spans="1:4">
       <c r="A140" s="16" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C140" s="18"/>
       <c r="D140" s="8"/>
     </row>
     <row r="141" ht="21" spans="1:4">
       <c r="A141" s="16" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C141" s="18"/>
       <c r="D141" s="8"/>
     </row>
     <row r="142" ht="21" spans="1:4">
       <c r="A142" s="16" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C142" s="18"/>
       <c r="D142" s="8"/>
     </row>
     <row r="143" ht="21" spans="1:4">
       <c r="A143" s="16" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C143" s="18"/>
       <c r="D143" s="8"/>
     </row>
     <row r="144" ht="21" spans="1:4">
       <c r="A144" s="16" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C144" s="18"/>
       <c r="D144" s="8"/>
     </row>
     <row r="145" ht="21" spans="1:4">
       <c r="A145" s="16" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C145" s="18"/>
       <c r="D145" s="8"/>
     </row>
     <row r="146" ht="21" spans="1:4">
       <c r="A146" s="16" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C146" s="18"/>
       <c r="D146" s="8"/>
     </row>
     <row r="147" ht="21" spans="1:4">
       <c r="A147" s="16" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C147" s="18"/>
       <c r="D147" s="8"/>
     </row>
     <row r="148" ht="21" spans="1:4">
       <c r="A148" s="16" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C148" s="18"/>
       <c r="D148" s="8"/>
     </row>
     <row r="149" ht="21" spans="1:4">
       <c r="A149" s="16" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C149" s="18"/>
       <c r="D149" s="8"/>
     </row>
     <row r="150" ht="21" spans="1:4">
       <c r="A150" s="16" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C150" s="18"/>
       <c r="D150" s="8"/>
     </row>
     <row r="151" ht="21" spans="1:4">
       <c r="A151" s="16" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C151" s="18"/>
       <c r="D151" s="8"/>
     </row>
     <row r="152" ht="21" spans="1:4">
       <c r="A152" s="16" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C152" s="18"/>
       <c r="D152" s="8"/>
     </row>
     <row r="153" ht="21" spans="1:4">
       <c r="A153" s="16" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C153" s="18"/>
       <c r="D153" s="8"/>
     </row>
     <row r="154" ht="21" spans="1:4">
       <c r="A154" s="16" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C154" s="18"/>
       <c r="D154" s="8"/>
     </row>
     <row r="155" ht="21" spans="1:4">
       <c r="A155" s="16" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C155" s="18"/>
       <c r="D155" s="8"/>
     </row>
     <row r="156" ht="21" spans="1:4">
       <c r="A156" s="16" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C156" s="18"/>
       <c r="D156" s="8"/>
     </row>
     <row r="157" ht="21" spans="1:4">
       <c r="A157" s="16" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C157" s="18"/>
       <c r="D157" s="8"/>
     </row>
     <row r="158" ht="21" spans="1:4">
       <c r="A158" s="16" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C158" s="18"/>
       <c r="D158" s="8"/>
     </row>
     <row r="159" ht="21" spans="1:4">
       <c r="A159" s="16" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C159" s="18"/>
       <c r="D159" s="8"/>
     </row>
     <row r="160" ht="21" spans="1:4">
       <c r="A160" s="16" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C160" s="18"/>
       <c r="D160" s="8"/>
     </row>
     <row r="161" ht="21" spans="1:4">
       <c r="A161" s="16" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C161" s="18"/>
       <c r="D161" s="8"/>
     </row>
     <row r="162" ht="21" spans="1:4">
       <c r="A162" s="16" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C162" s="18"/>
       <c r="D162" s="8"/>
     </row>
     <row r="163" ht="21" spans="1:4">
       <c r="A163" s="16" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C163" s="18"/>
       <c r="D163" s="8"/>
     </row>
     <row r="164" ht="21" spans="1:4">
       <c r="A164" s="16" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C164" s="17"/>
       <c r="D164" s="8"/>
     </row>
     <row r="165" ht="21" spans="1:4">
       <c r="A165" s="16" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C165" s="17"/>
       <c r="D165" s="8"/>
     </row>
     <row r="166" ht="21" spans="1:4">
       <c r="A166" s="16" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C166" s="18"/>
       <c r="D166" s="8"/>
     </row>
     <row r="167" ht="21" spans="1:4">
       <c r="A167" s="16" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C167" s="18"/>
       <c r="D167" s="8"/>
     </row>
     <row r="168" ht="21" spans="1:4">
       <c r="A168" s="16" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C168" s="18"/>
       <c r="D168" s="8"/>
     </row>
     <row r="169" ht="21" spans="1:4">
       <c r="A169" s="16" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B169" s="13" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C169" s="18"/>
       <c r="D169" s="8"/>
     </row>
     <row r="170" ht="21" spans="1:4">
       <c r="A170" s="16" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C170" s="18"/>
       <c r="D170" s="8"/>
     </row>
     <row r="171" ht="21" spans="1:4">
       <c r="A171" s="16" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B171" s="13" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C171" s="18"/>
       <c r="D171" s="8"/>
     </row>
     <row r="172" ht="21" spans="1:4">
       <c r="A172" s="16" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C172" s="18"/>
       <c r="D172" s="8"/>
     </row>
     <row r="173" ht="21" spans="1:4">
       <c r="A173" s="16" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C173" s="18"/>
       <c r="D173" s="8"/>
     </row>
     <row r="174" ht="21" spans="1:4">
       <c r="A174" s="16" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C174" s="18"/>
       <c r="D174" s="8"/>
@@ -4614,350 +4650,350 @@
     </row>
     <row r="177" ht="21" spans="1:4">
       <c r="A177" s="9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B177" s="13" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C177" s="18"/>
       <c r="D177" s="8"/>
     </row>
     <row r="178" ht="21" spans="1:4">
       <c r="A178" s="9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C178" s="18"/>
       <c r="D178" s="8"/>
     </row>
     <row r="179" ht="21" spans="1:4">
       <c r="A179" s="9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B179" s="13" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C179" s="18"/>
       <c r="D179" s="8"/>
     </row>
     <row r="180" ht="21" spans="1:4">
       <c r="A180" s="9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C180" s="18"/>
       <c r="D180" s="8"/>
     </row>
     <row r="181" ht="21" spans="1:4">
       <c r="A181" s="9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B181" s="13" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C181" s="18"/>
       <c r="D181" s="8"/>
     </row>
     <row r="182" ht="21" spans="1:4">
       <c r="A182" s="9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C182" s="18"/>
       <c r="D182" s="8"/>
     </row>
     <row r="183" ht="21" spans="1:4">
       <c r="A183" s="9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B183" s="13" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C183" s="18"/>
       <c r="D183" s="8"/>
     </row>
     <row r="184" ht="21" spans="1:4">
       <c r="A184" s="9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C184" s="18"/>
       <c r="D184" s="8"/>
     </row>
     <row r="185" ht="21" spans="1:4">
       <c r="A185" s="9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B185" s="13" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C185" s="18"/>
       <c r="D185" s="8"/>
     </row>
     <row r="186" ht="21" spans="1:4">
       <c r="A186" s="9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C186" s="18"/>
       <c r="D186" s="8"/>
     </row>
     <row r="187" ht="21" spans="1:4">
       <c r="A187" s="9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B187" s="13" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C187" s="18"/>
       <c r="D187" s="8"/>
     </row>
     <row r="188" ht="21" spans="1:4">
       <c r="A188" s="9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C188" s="18"/>
       <c r="D188" s="8"/>
     </row>
     <row r="189" ht="21" spans="1:4">
       <c r="A189" s="9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B189" s="13" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C189" s="18"/>
       <c r="D189" s="8"/>
     </row>
     <row r="190" ht="21" spans="1:4">
       <c r="A190" s="9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C190" s="18"/>
       <c r="D190" s="8"/>
     </row>
     <row r="191" ht="21" spans="1:4">
       <c r="A191" s="9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B191" s="13" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C191" s="18"/>
       <c r="D191" s="8"/>
     </row>
     <row r="192" ht="21" spans="1:4">
       <c r="A192" s="9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C192" s="18"/>
       <c r="D192" s="8"/>
     </row>
     <row r="193" ht="21" spans="1:4">
       <c r="A193" s="9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C193" s="18"/>
       <c r="D193" s="8"/>
     </row>
     <row r="194" ht="21" spans="1:4">
       <c r="A194" s="9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C194" s="18"/>
       <c r="D194" s="8"/>
     </row>
     <row r="195" ht="21" spans="1:4">
       <c r="A195" s="9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C195" s="18"/>
       <c r="D195" s="8"/>
     </row>
     <row r="196" ht="21" spans="1:4">
       <c r="A196" s="9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C196" s="18"/>
       <c r="D196" s="8"/>
     </row>
     <row r="197" ht="21" spans="1:4">
       <c r="A197" s="9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B197" s="13" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C197" s="18"/>
       <c r="D197" s="8"/>
     </row>
     <row r="198" ht="21" spans="1:4">
       <c r="A198" s="9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C198" s="18"/>
       <c r="D198" s="8"/>
     </row>
     <row r="199" ht="21" spans="1:4">
       <c r="A199" s="9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B199" s="13" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C199" s="18"/>
       <c r="D199" s="8"/>
     </row>
     <row r="200" ht="21" spans="1:4">
       <c r="A200" s="9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C200" s="18"/>
       <c r="D200" s="8"/>
     </row>
     <row r="201" ht="21" spans="1:4">
       <c r="A201" s="9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B201" s="13" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C201" s="18"/>
       <c r="D201" s="8"/>
     </row>
     <row r="202" ht="21" spans="1:4">
       <c r="A202" s="9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B202" s="13" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C202" s="18"/>
       <c r="D202" s="8"/>
     </row>
     <row r="203" ht="21" spans="1:4">
       <c r="A203" s="9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B203" s="13" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C203" s="18"/>
       <c r="D203" s="8"/>
     </row>
     <row r="204" ht="21" spans="1:4">
       <c r="A204" s="9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B204" s="13" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C204" s="18"/>
       <c r="D204" s="8"/>
     </row>
     <row r="205" ht="21" spans="1:4">
       <c r="A205" s="9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B205" s="13" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C205" s="18"/>
       <c r="D205" s="8"/>
     </row>
     <row r="206" ht="21" spans="1:4">
       <c r="A206" s="9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B206" s="13" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C206" s="18"/>
       <c r="D206" s="8"/>
     </row>
     <row r="207" ht="21" spans="1:4">
       <c r="A207" s="9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B207" s="13" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C207" s="18"/>
       <c r="D207" s="8"/>
     </row>
     <row r="208" ht="21" spans="1:4">
       <c r="A208" s="9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C208" s="18"/>
       <c r="D208" s="8"/>
     </row>
     <row r="209" ht="21" spans="1:4">
       <c r="A209" s="9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C209" s="18"/>
       <c r="D209" s="8"/>
     </row>
     <row r="210" ht="21" spans="1:4">
       <c r="A210" s="9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B210" s="13" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C210" s="18"/>
       <c r="D210" s="8"/>
     </row>
     <row r="211" ht="21" spans="1:4">
       <c r="A211" s="9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B211" s="13" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C211" s="18"/>
       <c r="D211" s="8"/>
@@ -4976,220 +5012,220 @@
     </row>
     <row r="214" ht="21" spans="1:4">
       <c r="A214" s="9" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B214" s="13" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C214" s="18"/>
       <c r="D214" s="8"/>
     </row>
     <row r="215" ht="21" spans="1:4">
       <c r="A215" s="9" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B215" s="13" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C215" s="18"/>
       <c r="D215" s="8"/>
     </row>
     <row r="216" ht="21" spans="1:4">
       <c r="A216" s="9" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C216" s="18"/>
       <c r="D216" s="8"/>
     </row>
     <row r="217" ht="21" spans="1:4">
       <c r="A217" s="9" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C217" s="18"/>
       <c r="D217" s="8"/>
     </row>
     <row r="218" ht="21" spans="1:4">
       <c r="A218" s="9" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B218" s="13" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C218" s="18"/>
       <c r="D218" s="8"/>
     </row>
     <row r="219" ht="21" spans="1:4">
       <c r="A219" s="9" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C219" s="18"/>
       <c r="D219" s="8"/>
     </row>
     <row r="220" ht="21" spans="1:4">
       <c r="A220" s="9" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B220" s="19" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C220" s="18"/>
       <c r="D220" s="8"/>
     </row>
     <row r="221" ht="21" spans="1:4">
       <c r="A221" s="9" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C221" s="18"/>
       <c r="D221" s="8"/>
     </row>
     <row r="222" ht="21" spans="1:4">
       <c r="A222" s="9" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C222" s="18"/>
       <c r="D222" s="8"/>
     </row>
     <row r="223" ht="21" spans="1:4">
       <c r="A223" s="9" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B223" s="13" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C223" s="18"/>
       <c r="D223" s="8"/>
     </row>
     <row r="224" ht="21" spans="1:4">
       <c r="A224" s="9" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C224" s="18"/>
       <c r="D224" s="8"/>
     </row>
     <row r="225" ht="21" spans="1:4">
       <c r="A225" s="9" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B225" s="13" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C225" s="18"/>
       <c r="D225" s="8"/>
     </row>
     <row r="226" ht="21" spans="1:4">
       <c r="A226" s="9" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B226" s="13" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C226" s="18"/>
       <c r="D226" s="8"/>
     </row>
     <row r="227" ht="21" spans="1:4">
       <c r="A227" s="9" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B227" s="13" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C227" s="18"/>
       <c r="D227" s="8"/>
     </row>
     <row r="228" ht="21" spans="1:4">
       <c r="A228" s="9" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B228" s="13" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C228" s="18"/>
       <c r="D228" s="8"/>
     </row>
     <row r="229" ht="21" spans="1:4">
       <c r="A229" s="9" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B229" s="13" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C229" s="18"/>
       <c r="D229" s="8"/>
     </row>
     <row r="230" ht="21" spans="1:4">
       <c r="A230" s="9" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B230" s="13" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C230" s="18"/>
       <c r="D230" s="8"/>
     </row>
     <row r="231" ht="21" spans="1:4">
       <c r="A231" s="9" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B231" s="13" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C231" s="18"/>
       <c r="D231" s="8"/>
     </row>
     <row r="232" ht="21" spans="1:4">
       <c r="A232" s="9" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B232" s="13" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C232" s="18"/>
       <c r="D232" s="8"/>
     </row>
     <row r="233" ht="21" spans="1:4">
       <c r="A233" s="9" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B233" s="13" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C233" s="18"/>
       <c r="D233" s="8"/>
     </row>
     <row r="234" ht="21" spans="1:4">
       <c r="A234" s="9" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C234" s="18"/>
       <c r="D234" s="8"/>
     </row>
     <row r="235" ht="21" spans="1:4">
       <c r="A235" s="9" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B235" s="13" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C235" s="18"/>
       <c r="D235" s="8"/>
@@ -5206,350 +5242,350 @@
     </row>
     <row r="238" ht="21" spans="1:4">
       <c r="A238" s="9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C238" s="18"/>
       <c r="D238" s="8"/>
     </row>
     <row r="239" ht="21" spans="1:4">
       <c r="A239" s="9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B239" s="13" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C239" s="18"/>
       <c r="D239" s="8"/>
     </row>
     <row r="240" ht="21" spans="1:4">
       <c r="A240" s="9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B240" s="13" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C240" s="18"/>
       <c r="D240" s="8"/>
     </row>
     <row r="241" ht="21" spans="1:4">
       <c r="A241" s="9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B241" s="13" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C241" s="18"/>
       <c r="D241" s="8"/>
     </row>
     <row r="242" ht="21" spans="1:4">
       <c r="A242" s="9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B242" s="13" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C242" s="18"/>
       <c r="D242" s="8"/>
     </row>
     <row r="243" ht="21" spans="1:4">
       <c r="A243" s="9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B243" s="13" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C243" s="18"/>
       <c r="D243" s="8"/>
     </row>
     <row r="244" ht="21" spans="1:4">
       <c r="A244" s="9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B244" s="13" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C244" s="18"/>
       <c r="D244" s="8"/>
     </row>
     <row r="245" ht="21" spans="1:4">
       <c r="A245" s="9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B245" s="13" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C245" s="18"/>
       <c r="D245" s="8"/>
     </row>
     <row r="246" ht="21" spans="1:4">
       <c r="A246" s="9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B246" s="13" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C246" s="18"/>
       <c r="D246" s="8"/>
     </row>
     <row r="247" ht="21" spans="1:4">
       <c r="A247" s="9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B247" s="13" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C247" s="18"/>
       <c r="D247" s="8"/>
     </row>
     <row r="248" ht="21" spans="1:4">
       <c r="A248" s="9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B248" s="13" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C248" s="18"/>
       <c r="D248" s="8"/>
     </row>
     <row r="249" ht="21" spans="1:4">
       <c r="A249" s="9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B249" s="13" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C249" s="18"/>
       <c r="D249" s="8"/>
     </row>
     <row r="250" ht="21" spans="1:4">
       <c r="A250" s="9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B250" s="13" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C250" s="18"/>
       <c r="D250" s="8"/>
     </row>
     <row r="251" ht="21" spans="1:4">
       <c r="A251" s="9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B251" s="13" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C251" s="18"/>
       <c r="D251" s="8"/>
     </row>
     <row r="252" ht="21" spans="1:4">
       <c r="A252" s="9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B252" s="13" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C252" s="18"/>
       <c r="D252" s="8"/>
     </row>
     <row r="253" ht="21" spans="1:4">
       <c r="A253" s="9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B253" s="13" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C253" s="18"/>
       <c r="D253" s="8"/>
     </row>
     <row r="254" ht="21" spans="1:4">
       <c r="A254" s="9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B254" s="13" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C254" s="18"/>
       <c r="D254" s="8"/>
     </row>
     <row r="255" ht="21" spans="1:4">
       <c r="A255" s="9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B255" s="13" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C255" s="18"/>
       <c r="D255" s="8"/>
     </row>
     <row r="256" ht="21" spans="1:4">
       <c r="A256" s="9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B256" s="13" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C256" s="18"/>
       <c r="D256" s="8"/>
     </row>
     <row r="257" ht="21" spans="1:4">
       <c r="A257" s="9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B257" s="13" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C257" s="18"/>
       <c r="D257" s="8"/>
     </row>
     <row r="258" ht="21" spans="1:4">
       <c r="A258" s="9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B258" s="13" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C258" s="18"/>
       <c r="D258" s="8"/>
     </row>
     <row r="259" ht="21" spans="1:4">
       <c r="A259" s="9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B259" s="13" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C259" s="18"/>
       <c r="D259" s="8"/>
     </row>
     <row r="260" ht="21" spans="1:4">
       <c r="A260" s="9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B260" s="13" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C260" s="18"/>
       <c r="D260" s="8"/>
     </row>
     <row r="261" ht="21" spans="1:4">
       <c r="A261" s="9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B261" s="13" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C261" s="18"/>
       <c r="D261" s="8"/>
     </row>
     <row r="262" ht="21" spans="1:4">
       <c r="A262" s="9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B262" s="13" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C262" s="18"/>
       <c r="D262" s="8"/>
     </row>
     <row r="263" ht="21" spans="1:4">
       <c r="A263" s="9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B263" s="13" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C263" s="18"/>
       <c r="D263" s="8"/>
     </row>
     <row r="264" ht="21" spans="1:4">
       <c r="A264" s="9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B264" s="13" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C264" s="18"/>
       <c r="D264" s="8"/>
     </row>
     <row r="265" ht="21" spans="1:4">
       <c r="A265" s="9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B265" s="13" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C265" s="18"/>
       <c r="D265" s="8"/>
     </row>
     <row r="266" ht="21" spans="1:4">
       <c r="A266" s="9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B266" s="13" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C266" s="18"/>
       <c r="D266" s="8"/>
     </row>
     <row r="267" ht="21" spans="1:4">
       <c r="A267" s="9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B267" s="13" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C267" s="18"/>
       <c r="D267" s="8"/>
     </row>
     <row r="268" ht="21" spans="1:4">
       <c r="A268" s="9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B268" s="13" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C268" s="18"/>
       <c r="D268" s="8"/>
     </row>
     <row r="269" ht="21" spans="1:4">
       <c r="A269" s="9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B269" s="13" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C269" s="18"/>
       <c r="D269" s="8"/>
     </row>
     <row r="270" ht="21" spans="1:4">
       <c r="A270" s="9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B270" s="13" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C270" s="18"/>
       <c r="D270" s="8"/>
     </row>
     <row r="271" ht="21" spans="1:4">
       <c r="A271" s="9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B271" s="13" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C271" s="18"/>
       <c r="D271" s="8"/>
     </row>
     <row r="272" ht="21" spans="1:4">
       <c r="A272" s="9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B272" s="13" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C272" s="18"/>
       <c r="D272" s="8"/>
@@ -5566,190 +5602,190 @@
     </row>
     <row r="275" ht="21" spans="1:4">
       <c r="A275" s="9" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B275" s="13" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C275" s="18"/>
       <c r="D275" s="8"/>
     </row>
     <row r="276" ht="21" spans="1:4">
       <c r="A276" s="9" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B276" s="13" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C276" s="18"/>
       <c r="D276" s="8"/>
     </row>
     <row r="277" ht="21" spans="1:4">
       <c r="A277" s="9" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B277" s="13" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C277" s="18"/>
       <c r="D277" s="8"/>
     </row>
     <row r="278" ht="21" spans="1:4">
       <c r="A278" s="9" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B278" s="13" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C278" s="18"/>
       <c r="D278" s="8"/>
     </row>
     <row r="279" ht="21" spans="1:4">
       <c r="A279" s="9" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B279" s="13" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C279" s="18"/>
       <c r="D279" s="8"/>
     </row>
     <row r="280" ht="21" spans="1:4">
       <c r="A280" s="9" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B280" s="13" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C280" s="18"/>
       <c r="D280" s="8"/>
     </row>
     <row r="281" ht="21" spans="1:4">
       <c r="A281" s="9" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B281" s="13" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C281" s="18"/>
       <c r="D281" s="8"/>
     </row>
     <row r="282" ht="21" spans="1:4">
       <c r="A282" s="9" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B282" s="13" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C282" s="18"/>
       <c r="D282" s="8"/>
     </row>
     <row r="283" ht="21" spans="1:4">
       <c r="A283" s="9" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B283" s="13" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C283" s="18"/>
       <c r="D283" s="8"/>
     </row>
     <row r="284" ht="21" spans="1:4">
       <c r="A284" s="9" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B284" s="13" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C284" s="18"/>
       <c r="D284" s="8"/>
     </row>
     <row r="285" ht="21" spans="1:4">
       <c r="A285" s="9" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B285" s="13" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C285" s="18"/>
       <c r="D285" s="8"/>
     </row>
     <row r="286" ht="21" spans="1:4">
       <c r="A286" s="9" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B286" s="13" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C286" s="18"/>
       <c r="D286" s="8"/>
     </row>
     <row r="287" ht="21" spans="1:4">
       <c r="A287" s="9" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B287" s="13" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C287" s="18"/>
       <c r="D287" s="8"/>
     </row>
     <row r="288" ht="21" spans="1:4">
       <c r="A288" s="9" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B288" s="13" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C288" s="18"/>
       <c r="D288" s="8"/>
     </row>
     <row r="289" ht="21" spans="1:4">
       <c r="A289" s="9" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B289" s="13" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C289" s="18"/>
       <c r="D289" s="8"/>
     </row>
     <row r="290" ht="21" spans="1:4">
       <c r="A290" s="9" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B290" s="13" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C290" s="18"/>
       <c r="D290" s="8"/>
     </row>
     <row r="291" ht="21" spans="1:4">
       <c r="A291" s="9" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B291" s="13" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C291" s="18"/>
       <c r="D291" s="8"/>
     </row>
     <row r="292" ht="21" spans="1:4">
       <c r="A292" s="9" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B292" s="13" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C292" s="18"/>
       <c r="D292" s="8"/>
     </row>
     <row r="293" ht="21" spans="1:4">
       <c r="A293" s="9" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B293" s="13" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="C293" s="18"/>
       <c r="D293" s="8"/>
@@ -5766,380 +5802,380 @@
     </row>
     <row r="296" ht="21" spans="1:4">
       <c r="A296" s="9" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B296" s="13" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C296" s="18"/>
       <c r="D296" s="8"/>
     </row>
     <row r="297" ht="21" spans="1:4">
       <c r="A297" s="9" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B297" s="13" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C297" s="18"/>
       <c r="D297" s="8"/>
     </row>
     <row r="298" ht="21" spans="1:4">
       <c r="A298" s="9" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B298" s="13" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C298" s="18"/>
       <c r="D298" s="8"/>
     </row>
     <row r="299" ht="21" spans="1:4">
       <c r="A299" s="9" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B299" s="13" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C299" s="18"/>
       <c r="D299" s="8"/>
     </row>
     <row r="300" ht="21" spans="1:4">
       <c r="A300" s="9" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B300" s="13" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C300" s="18"/>
       <c r="D300" s="8"/>
     </row>
     <row r="301" ht="21" spans="1:4">
       <c r="A301" s="9" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B301" s="13" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C301" s="18"/>
       <c r="D301" s="8"/>
     </row>
     <row r="302" ht="21" spans="1:4">
       <c r="A302" s="9" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B302" s="13" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C302" s="18"/>
       <c r="D302" s="8"/>
     </row>
     <row r="303" ht="21" spans="1:4">
       <c r="A303" s="9" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B303" s="13" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C303" s="18"/>
       <c r="D303" s="8"/>
     </row>
     <row r="304" ht="21" spans="1:4">
       <c r="A304" s="9" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B304" s="13" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C304" s="18"/>
       <c r="D304" s="8"/>
     </row>
     <row r="305" ht="21" spans="1:4">
       <c r="A305" s="9" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B305" s="13" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C305" s="18"/>
       <c r="D305" s="8"/>
     </row>
     <row r="306" ht="21" spans="1:4">
       <c r="A306" s="9" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B306" s="13" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C306" s="18"/>
       <c r="D306" s="8"/>
     </row>
     <row r="307" ht="21" spans="1:4">
       <c r="A307" s="9" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B307" s="13" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C307" s="18"/>
       <c r="D307" s="8"/>
     </row>
     <row r="308" ht="21" spans="1:4">
       <c r="A308" s="9" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B308" s="13" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C308" s="18"/>
       <c r="D308" s="8"/>
     </row>
     <row r="309" ht="21" spans="1:4">
       <c r="A309" s="9" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B309" s="19" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C309" s="18"/>
       <c r="D309" s="8"/>
     </row>
     <row r="310" ht="21" spans="1:4">
       <c r="A310" s="9" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B310" s="13" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C310" s="18"/>
       <c r="D310" s="8"/>
     </row>
     <row r="311" ht="21" spans="1:4">
       <c r="A311" s="9" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B311" s="13" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C311" s="18"/>
       <c r="D311" s="8"/>
     </row>
     <row r="312" ht="21" spans="1:4">
       <c r="A312" s="9" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B312" s="13" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C312" s="18"/>
       <c r="D312" s="8"/>
     </row>
     <row r="313" ht="21" spans="1:4">
       <c r="A313" s="9" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B313" s="13" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C313" s="18"/>
       <c r="D313" s="8"/>
     </row>
     <row r="314" ht="21" spans="1:4">
       <c r="A314" s="9" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B314" s="13" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C314" s="18"/>
       <c r="D314" s="8"/>
     </row>
     <row r="315" ht="21" spans="1:4">
       <c r="A315" s="9" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B315" s="13" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C315" s="18"/>
       <c r="D315" s="8"/>
     </row>
     <row r="316" ht="21" spans="1:4">
       <c r="A316" s="9" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B316" s="13" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C316" s="18"/>
       <c r="D316" s="8"/>
     </row>
     <row r="317" ht="21" spans="1:4">
       <c r="A317" s="9" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B317" s="13" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C317" s="18"/>
       <c r="D317" s="8"/>
     </row>
     <row r="318" ht="21" spans="1:4">
       <c r="A318" s="9" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B318" s="13" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C318" s="18"/>
       <c r="D318" s="8"/>
     </row>
     <row r="319" ht="21" spans="1:4">
       <c r="A319" s="9" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B319" s="13" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="C319" s="18"/>
       <c r="D319" s="8"/>
     </row>
     <row r="320" ht="21" spans="1:4">
       <c r="A320" s="9" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B320" s="13" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="C320" s="18"/>
       <c r="D320" s="8"/>
     </row>
     <row r="321" ht="21" spans="1:4">
       <c r="A321" s="9" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B321" s="13" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C321" s="18"/>
       <c r="D321" s="8"/>
     </row>
     <row r="322" ht="21" spans="1:4">
       <c r="A322" s="9" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B322" s="13" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C322" s="18"/>
       <c r="D322" s="8"/>
     </row>
     <row r="323" ht="21" spans="1:4">
       <c r="A323" s="9" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B323" s="13" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C323" s="18"/>
       <c r="D323" s="8"/>
     </row>
     <row r="324" ht="21" spans="1:4">
       <c r="A324" s="9" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B324" s="13" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C324" s="18"/>
       <c r="D324" s="8"/>
     </row>
     <row r="325" ht="21" spans="1:4">
       <c r="A325" s="9" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B325" s="13" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="C325" s="18"/>
       <c r="D325" s="8"/>
     </row>
     <row r="326" ht="21" spans="1:4">
       <c r="A326" s="9" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B326" s="13" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C326" s="18"/>
       <c r="D326" s="8"/>
     </row>
     <row r="327" ht="21" spans="1:4">
       <c r="A327" s="9" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B327" s="13" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C327" s="18"/>
       <c r="D327" s="8"/>
     </row>
     <row r="328" ht="21" spans="1:4">
       <c r="A328" s="9" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B328" s="13" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C328" s="18"/>
       <c r="D328" s="8"/>
     </row>
     <row r="329" ht="21" spans="1:4">
       <c r="A329" s="9" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B329" s="13" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C329" s="18"/>
       <c r="D329" s="8"/>
     </row>
     <row r="330" ht="21" spans="1:4">
       <c r="A330" s="9" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B330" s="13" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="C330" s="18"/>
       <c r="D330" s="8"/>
     </row>
     <row r="331" ht="21" spans="1:4">
       <c r="A331" s="9" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B331" s="13" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C331" s="18"/>
       <c r="D331" s="8"/>
     </row>
     <row r="332" ht="21" spans="1:4">
       <c r="A332" s="9" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B332" s="13" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C332" s="18"/>
       <c r="D332" s="8"/>
     </row>
     <row r="333" ht="21" spans="1:4">
       <c r="A333" s="9" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B333" s="13" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="C333" s="18"/>
       <c r="D333" s="8"/>
@@ -6156,180 +6192,180 @@
     </row>
     <row r="336" ht="21" spans="1:4">
       <c r="A336" s="16" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B336" s="13" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="C336" s="18"/>
       <c r="D336" s="8"/>
     </row>
     <row r="337" ht="21" spans="1:4">
       <c r="A337" s="16" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B337" s="13" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C337" s="18"/>
       <c r="D337" s="8"/>
     </row>
     <row r="338" ht="21" spans="1:4">
       <c r="A338" s="16" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B338" s="13" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C338" s="18"/>
       <c r="D338" s="8"/>
     </row>
     <row r="339" ht="21" spans="1:4">
       <c r="A339" s="16" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B339" s="13" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C339" s="18"/>
       <c r="D339" s="8"/>
     </row>
     <row r="340" ht="21" spans="1:4">
       <c r="A340" s="16" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B340" s="13" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C340" s="18"/>
       <c r="D340" s="8"/>
     </row>
     <row r="341" ht="21" spans="1:4">
       <c r="A341" s="16" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B341" s="13" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C341" s="18"/>
       <c r="D341" s="8"/>
     </row>
     <row r="342" ht="21" spans="1:4">
       <c r="A342" s="16" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B342" s="13" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C342" s="18"/>
       <c r="D342" s="8"/>
     </row>
     <row r="343" ht="21" spans="1:4">
       <c r="A343" s="16" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B343" s="13" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C343" s="18"/>
       <c r="D343" s="8"/>
     </row>
     <row r="344" ht="21" spans="1:4">
       <c r="A344" s="16" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B344" s="19" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C344" s="18"/>
       <c r="D344" s="8"/>
     </row>
     <row r="345" ht="21" spans="1:4">
       <c r="A345" s="16" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B345" s="13" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="C345" s="18"/>
       <c r="D345" s="8"/>
     </row>
     <row r="346" ht="21" spans="1:4">
       <c r="A346" s="16" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B346" s="13" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C346" s="18"/>
       <c r="D346" s="8"/>
     </row>
     <row r="347" ht="21" spans="1:4">
       <c r="A347" s="16" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B347" s="13" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C347" s="18"/>
       <c r="D347" s="8"/>
     </row>
     <row r="348" ht="21" spans="1:4">
       <c r="A348" s="16" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B348" s="13" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C348" s="18"/>
       <c r="D348" s="8"/>
     </row>
     <row r="349" ht="21" spans="1:4">
       <c r="A349" s="16" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B349" s="13" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="C349" s="18"/>
       <c r="D349" s="8"/>
     </row>
     <row r="350" ht="21" spans="1:4">
       <c r="A350" s="16" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B350" s="13" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="C350" s="18"/>
       <c r="D350" s="8"/>
     </row>
     <row r="351" ht="21" spans="1:4">
       <c r="A351" s="16" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B351" s="13" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C351" s="18"/>
       <c r="D351" s="8"/>
     </row>
     <row r="352" ht="21" spans="1:4">
       <c r="A352" s="16" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B352" s="13" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C352" s="18"/>
       <c r="D352" s="8"/>
     </row>
     <row r="353" ht="21" spans="1:4">
       <c r="A353" s="16" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B353" s="13" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C353" s="18"/>
       <c r="D353" s="8"/>
@@ -6346,440 +6382,440 @@
     </row>
     <row r="356" ht="21" spans="1:4">
       <c r="A356" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B356" s="13" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C356" s="18"/>
       <c r="D356" s="8"/>
     </row>
     <row r="357" ht="21" spans="1:4">
       <c r="A357" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B357" s="13" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C357" s="18"/>
       <c r="D357" s="8"/>
     </row>
     <row r="358" ht="21" spans="1:4">
       <c r="A358" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B358" s="13" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C358" s="18"/>
       <c r="D358" s="8"/>
     </row>
     <row r="359" ht="21" spans="1:4">
       <c r="A359" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B359" s="13" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C359" s="18"/>
       <c r="D359" s="8"/>
     </row>
     <row r="360" ht="21" spans="1:4">
       <c r="A360" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B360" s="13" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C360" s="18"/>
       <c r="D360" s="8"/>
     </row>
     <row r="361" ht="21" spans="1:4">
       <c r="A361" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B361" s="13" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C361" s="18"/>
       <c r="D361" s="8"/>
     </row>
     <row r="362" ht="21" spans="1:4">
       <c r="A362" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B362" s="13" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C362" s="18"/>
       <c r="D362" s="8"/>
     </row>
     <row r="363" ht="21" spans="1:4">
       <c r="A363" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B363" s="13" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="C363" s="18"/>
       <c r="D363" s="8"/>
     </row>
     <row r="364" ht="21" spans="1:4">
       <c r="A364" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B364" s="13" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C364" s="18"/>
       <c r="D364" s="8"/>
     </row>
     <row r="365" ht="21" spans="1:4">
       <c r="A365" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B365" s="13" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C365" s="18"/>
       <c r="D365" s="8"/>
     </row>
     <row r="366" ht="21" spans="1:4">
       <c r="A366" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B366" s="13" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C366" s="18"/>
       <c r="D366" s="8"/>
     </row>
     <row r="367" ht="21" spans="1:4">
       <c r="A367" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B367" s="13" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="C367" s="18"/>
       <c r="D367" s="8"/>
     </row>
     <row r="368" ht="21" spans="1:4">
       <c r="A368" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B368" s="13" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="C368" s="18"/>
       <c r="D368" s="8"/>
     </row>
     <row r="369" ht="21" spans="1:4">
       <c r="A369" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B369" s="13" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="C369" s="18"/>
       <c r="D369" s="8"/>
     </row>
     <row r="370" ht="21" spans="1:4">
       <c r="A370" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B370" s="13" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="C370" s="18"/>
       <c r="D370" s="8"/>
     </row>
     <row r="371" ht="21" spans="1:4">
       <c r="A371" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B371" s="13" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="C371" s="18"/>
       <c r="D371" s="8"/>
     </row>
     <row r="372" ht="21" spans="1:4">
       <c r="A372" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B372" s="13" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="C372" s="18"/>
       <c r="D372" s="8"/>
     </row>
     <row r="373" ht="21" spans="1:4">
       <c r="A373" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B373" s="13" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="C373" s="18"/>
       <c r="D373" s="8"/>
     </row>
     <row r="374" ht="21" spans="1:4">
       <c r="A374" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B374" s="13" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="C374" s="18"/>
       <c r="D374" s="8"/>
     </row>
     <row r="375" ht="21" spans="1:4">
       <c r="A375" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B375" s="13" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="C375" s="18"/>
       <c r="D375" s="8"/>
     </row>
     <row r="376" ht="21" spans="1:4">
       <c r="A376" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B376" s="13" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="C376" s="18"/>
       <c r="D376" s="8"/>
     </row>
     <row r="377" ht="21" spans="1:4">
       <c r="A377" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B377" s="13" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="C377" s="18"/>
       <c r="D377" s="8"/>
     </row>
     <row r="378" ht="21" spans="1:4">
       <c r="A378" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B378" s="13" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="C378" s="18"/>
       <c r="D378" s="8"/>
     </row>
     <row r="379" ht="21" spans="1:4">
       <c r="A379" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B379" s="13" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C379" s="18"/>
       <c r="D379" s="8"/>
     </row>
     <row r="380" ht="21" spans="1:4">
       <c r="A380" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B380" s="13" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="C380" s="18"/>
       <c r="D380" s="8"/>
     </row>
     <row r="381" ht="21" spans="1:4">
       <c r="A381" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B381" s="13" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="C381" s="18"/>
       <c r="D381" s="8"/>
     </row>
     <row r="382" ht="21" spans="1:4">
       <c r="A382" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B382" s="13" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="C382" s="18"/>
       <c r="D382" s="8"/>
     </row>
     <row r="383" ht="21" spans="1:4">
       <c r="A383" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B383" s="13" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C383" s="18"/>
       <c r="D383" s="8"/>
     </row>
     <row r="384" ht="21" spans="1:4">
       <c r="A384" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B384" s="13" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="C384" s="18"/>
       <c r="D384" s="8"/>
     </row>
     <row r="385" ht="21" spans="1:4">
       <c r="A385" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B385" s="13" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="C385" s="18"/>
       <c r="D385" s="8"/>
     </row>
     <row r="386" ht="21" spans="1:4">
       <c r="A386" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B386" s="13" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="C386" s="18"/>
       <c r="D386" s="8"/>
     </row>
     <row r="387" ht="21" spans="1:4">
       <c r="A387" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B387" s="13" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="C387" s="18"/>
       <c r="D387" s="8"/>
     </row>
     <row r="388" ht="21" spans="1:4">
       <c r="A388" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B388" s="13" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="C388" s="18"/>
       <c r="D388" s="8"/>
     </row>
     <row r="389" ht="21" spans="1:4">
       <c r="A389" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B389" s="13" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C389" s="18"/>
       <c r="D389" s="8"/>
     </row>
     <row r="390" ht="21" spans="1:4">
       <c r="A390" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B390" s="13" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C390" s="18"/>
       <c r="D390" s="8"/>
     </row>
     <row r="391" ht="21" spans="1:4">
       <c r="A391" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B391" s="13" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="C391" s="18"/>
       <c r="D391" s="8"/>
     </row>
     <row r="392" ht="21" spans="1:4">
       <c r="A392" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B392" s="13" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="C392" s="18"/>
       <c r="D392" s="8"/>
     </row>
     <row r="393" ht="21" spans="1:4">
       <c r="A393" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B393" s="13" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C393" s="18"/>
       <c r="D393" s="8"/>
     </row>
     <row r="394" ht="21" spans="1:4">
       <c r="A394" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B394" s="13" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="C394" s="18"/>
       <c r="D394" s="8"/>
     </row>
     <row r="395" ht="21" spans="1:4">
       <c r="A395" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B395" s="13" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C395" s="18"/>
       <c r="D395" s="8"/>
     </row>
     <row r="396" ht="21" spans="1:4">
       <c r="A396" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B396" s="13" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C396" s="18"/>
       <c r="D396" s="8"/>
     </row>
     <row r="397" ht="21" spans="1:4">
       <c r="A397" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B397" s="13" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C397" s="18"/>
       <c r="D397" s="8"/>
     </row>
     <row r="398" ht="21" spans="1:4">
       <c r="A398" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B398" s="13" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="C398" s="18"/>
       <c r="D398" s="8"/>
     </row>
     <row r="399" ht="21" spans="1:4">
       <c r="A399" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B399" s="13" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C399" s="18"/>
       <c r="D399" s="8"/>
@@ -6796,60 +6832,60 @@
     </row>
     <row r="402" ht="21" spans="1:4">
       <c r="A402" s="16" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B402" s="13" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C402" s="18"/>
       <c r="D402" s="8"/>
     </row>
     <row r="403" ht="21" spans="1:4">
       <c r="A403" s="16" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B403" s="13" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="C403" s="18"/>
       <c r="D403" s="8"/>
     </row>
     <row r="404" ht="21" spans="1:4">
       <c r="A404" s="16" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B404" s="13" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C404" s="18"/>
       <c r="D404" s="8"/>
     </row>
     <row r="405" ht="21" spans="1:4">
       <c r="A405" s="16" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B405" s="13" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C405" s="18"/>
       <c r="D405" s="8"/>
     </row>
     <row r="406" ht="21" spans="1:4">
       <c r="A406" s="16" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B406" s="13" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="C406" s="18"/>
       <c r="D406" s="8"/>
     </row>
     <row r="407" ht="21" spans="1:4">
       <c r="A407" s="16" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B407" s="13" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C407" s="18"/>
       <c r="D407" s="8"/>
@@ -6866,600 +6902,600 @@
     </row>
     <row r="410" ht="21" spans="1:4">
       <c r="A410" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B410" s="13" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="C410" s="18"/>
       <c r="D410" s="8"/>
     </row>
     <row r="411" ht="21" spans="1:4">
       <c r="A411" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B411" s="13" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="C411" s="18"/>
       <c r="D411" s="8"/>
     </row>
     <row r="412" ht="21" spans="1:4">
       <c r="A412" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B412" s="13" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="C412" s="18"/>
       <c r="D412" s="8"/>
     </row>
     <row r="413" ht="21" spans="1:4">
       <c r="A413" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B413" s="13" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="C413" s="18"/>
       <c r="D413" s="8"/>
     </row>
     <row r="414" ht="21" spans="1:4">
       <c r="A414" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B414" s="13" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="C414" s="18"/>
       <c r="D414" s="8"/>
     </row>
     <row r="415" ht="21" spans="1:4">
       <c r="A415" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B415" s="13" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="C415" s="18"/>
       <c r="D415" s="8"/>
     </row>
     <row r="416" ht="21" spans="1:4">
       <c r="A416" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B416" s="13" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="C416" s="18"/>
       <c r="D416" s="8"/>
     </row>
     <row r="417" ht="21" spans="1:4">
       <c r="A417" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B417" s="13" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C417" s="18"/>
       <c r="D417" s="8"/>
     </row>
     <row r="418" ht="21" spans="1:4">
       <c r="A418" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B418" s="13" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="C418" s="18"/>
       <c r="D418" s="8"/>
     </row>
     <row r="419" ht="21" spans="1:4">
       <c r="A419" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B419" s="13" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="C419" s="18"/>
       <c r="D419" s="8"/>
     </row>
     <row r="420" ht="21" spans="1:4">
       <c r="A420" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B420" s="13" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="C420" s="18"/>
       <c r="D420" s="8"/>
     </row>
     <row r="421" ht="21" spans="1:4">
       <c r="A421" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B421" s="13" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="C421" s="18"/>
       <c r="D421" s="8"/>
     </row>
     <row r="422" ht="21" spans="1:4">
       <c r="A422" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B422" s="13" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C422" s="18"/>
       <c r="D422" s="8"/>
     </row>
     <row r="423" ht="21" spans="1:4">
       <c r="A423" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B423" s="13" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="C423" s="18"/>
       <c r="D423" s="8"/>
     </row>
     <row r="424" ht="21" spans="1:4">
       <c r="A424" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B424" s="13" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="C424" s="18"/>
       <c r="D424" s="8"/>
     </row>
     <row r="425" ht="21" spans="1:4">
       <c r="A425" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B425" s="13" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C425" s="18"/>
       <c r="D425" s="8"/>
     </row>
     <row r="426" ht="21" spans="1:4">
       <c r="A426" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B426" s="13" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="C426" s="18"/>
       <c r="D426" s="8"/>
     </row>
     <row r="427" ht="21" spans="1:4">
       <c r="A427" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B427" s="13" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="C427" s="18"/>
       <c r="D427" s="8"/>
     </row>
     <row r="428" ht="21" spans="1:4">
       <c r="A428" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B428" s="13" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="C428" s="18"/>
       <c r="D428" s="8"/>
     </row>
     <row r="429" ht="21" spans="1:4">
       <c r="A429" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B429" s="13" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C429" s="18"/>
       <c r="D429" s="8"/>
     </row>
     <row r="430" ht="21" spans="1:4">
       <c r="A430" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B430" s="13" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="C430" s="18"/>
       <c r="D430" s="8"/>
     </row>
     <row r="431" ht="21" spans="1:4">
       <c r="A431" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B431" s="13" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="C431" s="18"/>
       <c r="D431" s="8"/>
     </row>
     <row r="432" ht="21" spans="1:4">
       <c r="A432" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B432" s="13" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="C432" s="18"/>
       <c r="D432" s="8"/>
     </row>
     <row r="433" ht="21" spans="1:4">
       <c r="A433" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B433" s="13" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="C433" s="18"/>
       <c r="D433" s="8"/>
     </row>
     <row r="434" ht="21" spans="1:4">
       <c r="A434" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B434" s="13" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="C434" s="18"/>
       <c r="D434" s="8"/>
     </row>
     <row r="435" ht="21" spans="1:4">
       <c r="A435" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B435" s="13" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="C435" s="18"/>
       <c r="D435" s="8"/>
     </row>
     <row r="436" ht="21" spans="1:4">
       <c r="A436" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B436" s="13" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="C436" s="18"/>
       <c r="D436" s="8"/>
     </row>
     <row r="437" ht="21" spans="1:4">
       <c r="A437" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B437" s="13" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="C437" s="18"/>
       <c r="D437" s="8"/>
     </row>
     <row r="438" ht="21" spans="1:4">
       <c r="A438" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B438" s="13" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="C438" s="18"/>
       <c r="D438" s="8"/>
     </row>
     <row r="439" ht="21" spans="1:4">
       <c r="A439" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B439" s="13" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="C439" s="18"/>
       <c r="D439" s="8"/>
     </row>
     <row r="440" ht="21" spans="1:4">
       <c r="A440" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B440" s="13" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="C440" s="18"/>
       <c r="D440" s="8"/>
     </row>
     <row r="441" ht="21" spans="1:4">
       <c r="A441" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B441" s="13" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="C441" s="18"/>
       <c r="D441" s="8"/>
     </row>
     <row r="442" ht="21" spans="1:4">
       <c r="A442" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B442" s="13" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="C442" s="18"/>
       <c r="D442" s="8"/>
     </row>
     <row r="443" ht="21" spans="1:4">
       <c r="A443" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B443" s="13" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="C443" s="18"/>
       <c r="D443" s="8"/>
     </row>
     <row r="444" ht="21" spans="1:4">
       <c r="A444" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B444" s="13" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="C444" s="18"/>
       <c r="D444" s="8"/>
     </row>
     <row r="445" ht="21" spans="1:4">
       <c r="A445" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B445" s="13" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="C445" s="18"/>
       <c r="D445" s="8"/>
     </row>
     <row r="446" ht="21" spans="1:4">
       <c r="A446" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B446" s="13" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="C446" s="18"/>
       <c r="D446" s="8"/>
     </row>
     <row r="447" ht="21" spans="1:4">
       <c r="A447" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B447" s="13" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="C447" s="18"/>
       <c r="D447" s="8"/>
     </row>
     <row r="448" ht="21" spans="1:4">
       <c r="A448" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B448" s="13" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="C448" s="18"/>
       <c r="D448" s="8"/>
     </row>
     <row r="449" ht="21" spans="1:4">
       <c r="A449" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B449" s="13" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="C449" s="18"/>
       <c r="D449" s="8"/>
     </row>
     <row r="450" ht="21" spans="1:4">
       <c r="A450" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B450" s="13" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="C450" s="18"/>
       <c r="D450" s="8"/>
     </row>
     <row r="451" ht="21" spans="1:4">
       <c r="A451" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B451" s="13" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="C451" s="18"/>
       <c r="D451" s="8"/>
     </row>
     <row r="452" ht="21" spans="1:4">
       <c r="A452" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B452" s="13" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="C452" s="18"/>
       <c r="D452" s="8"/>
     </row>
     <row r="453" ht="21" spans="1:4">
       <c r="A453" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B453" s="13" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="C453" s="18"/>
       <c r="D453" s="8"/>
     </row>
     <row r="454" ht="21" spans="1:4">
       <c r="A454" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B454" s="13" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="C454" s="18"/>
       <c r="D454" s="8"/>
     </row>
     <row r="455" ht="21" spans="1:4">
       <c r="A455" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B455" s="13" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="C455" s="18"/>
       <c r="D455" s="8"/>
     </row>
     <row r="456" ht="21" spans="1:4">
       <c r="A456" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B456" s="13" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="C456" s="18"/>
       <c r="D456" s="8"/>
     </row>
     <row r="457" ht="21" spans="1:4">
       <c r="A457" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B457" s="13" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="C457" s="18"/>
       <c r="D457" s="8"/>
     </row>
     <row r="458" ht="21" spans="1:4">
       <c r="A458" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B458" s="13" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="C458" s="18"/>
       <c r="D458" s="8"/>
     </row>
     <row r="459" ht="21" spans="1:4">
       <c r="A459" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B459" s="13" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="C459" s="18"/>
       <c r="D459" s="8"/>
     </row>
     <row r="460" ht="21" spans="1:4">
       <c r="A460" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B460" s="13" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="C460" s="18"/>
       <c r="D460" s="8"/>
     </row>
     <row r="461" ht="21" spans="1:4">
       <c r="A461" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B461" s="13" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="C461" s="18"/>
       <c r="D461" s="8"/>
     </row>
     <row r="462" ht="21" spans="1:4">
       <c r="A462" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B462" s="13" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="C462" s="18"/>
       <c r="D462" s="8"/>
     </row>
     <row r="463" ht="21" spans="1:4">
       <c r="A463" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B463" s="13" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="C463" s="18"/>
       <c r="D463" s="8"/>
     </row>
     <row r="464" ht="21" spans="1:4">
       <c r="A464" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B464" s="13" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="C464" s="18"/>
       <c r="D464" s="8"/>
     </row>
     <row r="465" ht="21" spans="1:4">
       <c r="A465" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B465" s="13" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="C465" s="18"/>
       <c r="D465" s="8"/>
     </row>
     <row r="466" ht="21" spans="1:4">
       <c r="A466" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B466" s="13" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="C466" s="18"/>
       <c r="D466" s="8"/>
     </row>
     <row r="467" ht="21" spans="1:4">
       <c r="A467" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B467" s="13" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="C467" s="18"/>
       <c r="D467" s="8"/>
     </row>
     <row r="468" ht="21" spans="1:4">
       <c r="A468" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B468" s="13" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="C468" s="18"/>
       <c r="D468" s="8"/>
     </row>
     <row r="469" ht="21" spans="1:4">
       <c r="A469" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B469" s="13" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="C469" s="18"/>
       <c r="D469" s="8"/>
@@ -7477,100 +7513,100 @@
     </row>
     <row r="472" ht="21" spans="1:4">
       <c r="A472" s="9" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="B472" s="13" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="C472" s="18"/>
       <c r="D472" s="8"/>
     </row>
     <row r="473" ht="21" spans="1:4">
       <c r="A473" s="9" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="B473" s="13" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="C473" s="18"/>
       <c r="D473" s="8"/>
     </row>
     <row r="474" ht="21" spans="1:4">
       <c r="A474" s="9" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="B474" s="13" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="C474" s="18"/>
       <c r="D474" s="8"/>
     </row>
     <row r="475" ht="21" spans="1:4">
       <c r="A475" s="9" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="B475" s="13" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="C475" s="18"/>
       <c r="D475" s="8"/>
     </row>
     <row r="476" ht="21" spans="1:4">
       <c r="A476" s="9" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="B476" s="13" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="C476" s="18"/>
       <c r="D476" s="8"/>
     </row>
     <row r="477" ht="21" spans="1:4">
       <c r="A477" s="9" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="B477" s="13" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="C477" s="18"/>
       <c r="D477" s="8"/>
     </row>
     <row r="478" ht="21" spans="1:4">
       <c r="A478" s="9" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="B478" s="13" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="C478" s="18"/>
       <c r="D478" s="8"/>
     </row>
     <row r="479" ht="21" spans="1:4">
       <c r="A479" s="9" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="B479" s="13" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="C479" s="18"/>
       <c r="D479" s="8"/>
     </row>
     <row r="480" ht="21" spans="1:4">
       <c r="A480" s="9" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="B480" s="13" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="C480" s="18"/>
       <c r="D480" s="8"/>
     </row>
     <row r="481" ht="21" spans="1:4">
       <c r="A481" s="9" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="B481" s="13" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="C481" s="18"/>
       <c r="D481" s="8"/>
@@ -8079,6 +8115,12 @@
     <hyperlink ref="D66" r:id="rId470" display="https://github.com/zee-bit/FINAL450/blob/main/String/Permutations%20of%20a%20given%20string.cpp"/>
     <hyperlink ref="B65" r:id="rId471" display="Print all Subsequences of a string."/>
     <hyperlink ref="D67" r:id="rId472" display="https://github.com/zee-bit/FINAL450/blob/main/String/Split%20string%20into%20substrings%20of%200%20and%201.cpp"/>
+    <hyperlink ref="D64" r:id="rId473" display="https://github.com/zee-bit/FINAL450/blob/main/String/Longest%20Repeating%20Subsequence.cpp"/>
+    <hyperlink ref="D69" r:id="rId474" display="https://github.com/zee-bit/FINAL450/blob/main/String/Edit%20Distance.cpp"/>
+    <hyperlink ref="D70" r:id="rId475" display="https://github.com/zee-bit/FINAL450/blob/main/String/Next%20Permutation.cpp"/>
+    <hyperlink ref="D71" r:id="rId476" display="https://github.com/zee-bit/FINAL450/blob/main/String/Parenthesis%20Checker.cpp"/>
+    <hyperlink ref="D72" r:id="rId477" display="https://github.com/zee-bit/FINAL450/blob/main/String/Word%20Break.cpp"/>
+    <hyperlink ref="D73" r:id="rId478" display="https://github.com/zee-bit/FINAL450/blob/main/String/Rabin%20Karp.cpp"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="528">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -2768,8 +2768,8 @@
   <sheetPr/>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -3651,7 +3651,7 @@
       <c r="B74" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C74" s="18"/>
+      <c r="C74" s="17"/>
       <c r="D74" s="8"/>
     </row>
     <row r="75" ht="21" spans="1:4">
@@ -3717,87 +3717,95 @@
       <c r="B80" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C80" s="18"/>
+      <c r="C80" s="17"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" ht="21" spans="1:4">
       <c r="A81" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C81" s="18"/>
+      <c r="C81" s="14"/>
       <c r="D81" s="8"/>
     </row>
     <row r="82" ht="21" spans="1:4">
       <c r="A82" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B82" s="13" t="s">
+      <c r="B82" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C82" s="18"/>
+      <c r="C82" s="14"/>
       <c r="D82" s="8"/>
     </row>
     <row r="83" ht="21" spans="1:4">
       <c r="A83" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B83" s="13" t="s">
+      <c r="B83" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C83" s="18"/>
+      <c r="C83" s="14"/>
       <c r="D83" s="8"/>
     </row>
     <row r="84" ht="21" spans="1:4">
       <c r="A84" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B84" s="13" t="s">
+      <c r="B84" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C84" s="18"/>
+      <c r="C84" s="14"/>
       <c r="D84" s="8"/>
     </row>
     <row r="85" ht="21" spans="1:4">
       <c r="A85" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B85" s="13" t="s">
+      <c r="B85" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C85" s="18"/>
+      <c r="C85" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D85" s="8"/>
     </row>
     <row r="86" ht="21" spans="1:4">
       <c r="A86" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B86" s="13" t="s">
+      <c r="B86" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C86" s="18"/>
+      <c r="C86" s="14" t="s">
+        <v>117</v>
+      </c>
       <c r="D86" s="8"/>
     </row>
     <row r="87" ht="21" spans="1:4">
       <c r="A87" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B87" s="13" t="s">
+      <c r="B87" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C87" s="18"/>
+      <c r="C87" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D87" s="8"/>
     </row>
     <row r="88" ht="21" spans="1:4">
       <c r="A88" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B88" s="13" t="s">
+      <c r="B88" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C88" s="18"/>
+      <c r="C88" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D88" s="8"/>
     </row>
     <row r="89" ht="21" spans="1:4">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="529">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -540,6 +540,9 @@
     <t>Find the smallest window in a string containing all characters of another string</t>
   </si>
   <si>
+    <t>Similar to 88</t>
+  </si>
+  <si>
     <t>Recursively remove all adjacent duplicates</t>
   </si>
   <si>
@@ -1665,9 +1668,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1749,6 +1752,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1757,17 +1767,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1781,8 +1790,31 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1796,45 +1828,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1855,8 +1857,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1871,24 +1882,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1937,37 +1940,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1985,19 +1988,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2009,7 +2006,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2021,19 +2048,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2051,7 +2066,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2063,25 +2078,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2093,31 +2120,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2168,6 +2171,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2202,202 +2259,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2768,8 +2771,8 @@
   <sheetPr/>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -3573,7 +3576,7 @@
       <c r="B68" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="14" t="s">
         <v>117</v>
       </c>
       <c r="D68" s="8"/>
@@ -3812,100 +3815,110 @@
       <c r="A89" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B89" s="13" t="s">
+      <c r="B89" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C89" s="18"/>
+      <c r="C89" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D89" s="8"/>
     </row>
     <row r="90" ht="21" spans="1:4">
       <c r="A90" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B90" s="13" t="s">
+      <c r="B90" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C90" s="18"/>
+      <c r="C90" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D90" s="8"/>
     </row>
     <row r="91" ht="21" spans="1:4">
       <c r="A91" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B91" s="13" t="s">
+      <c r="B91" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C91" s="18"/>
+      <c r="C91" s="14"/>
       <c r="D91" s="8"/>
     </row>
     <row r="92" ht="21" spans="1:4">
       <c r="A92" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B92" s="13" t="s">
+      <c r="B92" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C92" s="18"/>
+      <c r="C92" s="14" t="s">
+        <v>155</v>
+      </c>
       <c r="D92" s="8"/>
     </row>
     <row r="93" ht="21" spans="1:4">
       <c r="A93" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B93" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C93" s="18"/>
+      <c r="B93" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C93" s="14"/>
       <c r="D93" s="8"/>
     </row>
     <row r="94" ht="21" spans="1:4">
       <c r="A94" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B94" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="C94" s="18"/>
+      <c r="B94" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D94" s="8"/>
     </row>
     <row r="95" ht="21" spans="1:4">
       <c r="A95" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B95" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C95" s="18"/>
+      <c r="B95" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C95" s="14"/>
       <c r="D95" s="8"/>
     </row>
     <row r="96" ht="21" spans="1:4">
       <c r="A96" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B96" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C96" s="18"/>
+      <c r="B96" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D96" s="8"/>
     </row>
     <row r="97" ht="21" spans="1:4">
       <c r="A97" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B97" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="C97" s="18"/>
+      <c r="B97" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C97" s="14"/>
       <c r="D97" s="8"/>
     </row>
     <row r="98" ht="21" spans="1:4">
       <c r="A98" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B98" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C98" s="18"/>
+      <c r="B98" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C98" s="14"/>
       <c r="D98" s="8"/>
     </row>
     <row r="99" ht="21" spans="3:4">
@@ -3920,360 +3933,360 @@
     </row>
     <row r="101" ht="21" spans="1:4">
       <c r="A101" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C101" s="18"/>
       <c r="D101" s="8"/>
     </row>
     <row r="102" ht="21" spans="1:4">
       <c r="A102" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C102" s="18"/>
       <c r="D102" s="8"/>
     </row>
     <row r="103" ht="21" spans="1:4">
       <c r="A103" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C103" s="18"/>
       <c r="D103" s="8"/>
     </row>
     <row r="104" ht="21" spans="1:4">
       <c r="A104" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C104" s="18"/>
       <c r="D104" s="8"/>
     </row>
     <row r="105" ht="21" spans="1:4">
       <c r="A105" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C105" s="18"/>
       <c r="D105" s="8"/>
     </row>
     <row r="106" ht="21" spans="1:4">
       <c r="A106" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C106" s="18"/>
       <c r="D106" s="8"/>
     </row>
     <row r="107" ht="21" spans="1:4">
       <c r="A107" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C107" s="18"/>
       <c r="D107" s="8"/>
     </row>
     <row r="108" ht="21" spans="1:4">
       <c r="A108" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C108" s="18"/>
       <c r="D108" s="8"/>
     </row>
     <row r="109" ht="21" spans="1:4">
       <c r="A109" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C109" s="18"/>
       <c r="D109" s="8"/>
     </row>
     <row r="110" ht="21" spans="1:4">
       <c r="A110" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C110" s="18"/>
       <c r="D110" s="8"/>
     </row>
     <row r="111" ht="21" spans="1:4">
       <c r="A111" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C111" s="18"/>
       <c r="D111" s="8"/>
     </row>
     <row r="112" ht="21" spans="1:4">
       <c r="A112" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C112" s="18"/>
       <c r="D112" s="8"/>
     </row>
     <row r="113" ht="21" spans="1:4">
       <c r="A113" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C113" s="18"/>
       <c r="D113" s="8"/>
     </row>
     <row r="114" ht="21" spans="1:4">
       <c r="A114" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C114" s="18"/>
       <c r="D114" s="8"/>
     </row>
     <row r="115" ht="21" spans="1:4">
       <c r="A115" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C115" s="18"/>
       <c r="D115" s="8"/>
     </row>
     <row r="116" ht="21" spans="1:4">
       <c r="A116" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C116" s="18"/>
       <c r="D116" s="8"/>
     </row>
     <row r="117" ht="21" spans="1:4">
       <c r="A117" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C117" s="18"/>
       <c r="D117" s="8"/>
     </row>
     <row r="118" ht="21" spans="1:4">
       <c r="A118" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C118" s="18"/>
       <c r="D118" s="8"/>
     </row>
     <row r="119" ht="21" spans="1:4">
       <c r="A119" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C119" s="18"/>
       <c r="D119" s="8"/>
     </row>
     <row r="120" ht="21" spans="1:4">
       <c r="A120" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C120" s="18"/>
       <c r="D120" s="8"/>
     </row>
     <row r="121" ht="21" spans="1:4">
       <c r="A121" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C121" s="18"/>
       <c r="D121" s="8"/>
     </row>
     <row r="122" ht="21" spans="1:4">
       <c r="A122" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C122" s="18"/>
       <c r="D122" s="8"/>
     </row>
     <row r="123" ht="21" spans="1:4">
       <c r="A123" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C123" s="18"/>
       <c r="D123" s="8"/>
     </row>
     <row r="124" ht="21" spans="1:4">
       <c r="A124" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C124" s="18"/>
       <c r="D124" s="8"/>
     </row>
     <row r="125" ht="21" spans="1:4">
       <c r="A125" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C125" s="18"/>
       <c r="D125" s="8"/>
     </row>
     <row r="126" ht="21" spans="1:4">
       <c r="A126" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C126" s="18"/>
       <c r="D126" s="8"/>
     </row>
     <row r="127" ht="21" spans="1:4">
       <c r="A127" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C127" s="18"/>
       <c r="D127" s="8"/>
     </row>
     <row r="128" ht="21" spans="1:4">
       <c r="A128" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C128" s="18"/>
       <c r="D128" s="8"/>
     </row>
     <row r="129" ht="21" spans="1:4">
       <c r="A129" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C129" s="18"/>
       <c r="D129" s="8"/>
     </row>
     <row r="130" ht="21" spans="1:4">
       <c r="A130" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C130" s="18"/>
       <c r="D130" s="8"/>
     </row>
     <row r="131" ht="21" spans="1:4">
       <c r="A131" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C131" s="18"/>
       <c r="D131" s="8"/>
     </row>
     <row r="132" ht="21" spans="1:4">
       <c r="A132" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C132" s="18"/>
       <c r="D132" s="8"/>
     </row>
     <row r="133" ht="21" spans="1:4">
       <c r="A133" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C133" s="18"/>
       <c r="D133" s="8"/>
     </row>
     <row r="134" ht="21" spans="1:4">
       <c r="A134" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C134" s="18"/>
       <c r="D134" s="8"/>
     </row>
     <row r="135" ht="21" spans="1:4">
       <c r="A135" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C135" s="18"/>
       <c r="D135" s="8"/>
     </row>
     <row r="136" ht="21" spans="1:4">
       <c r="A136" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C136" s="18"/>
       <c r="D136" s="8"/>
@@ -4289,360 +4302,360 @@
     </row>
     <row r="139" ht="21" spans="1:4">
       <c r="A139" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C139" s="18"/>
       <c r="D139" s="8"/>
     </row>
     <row r="140" ht="21" spans="1:4">
       <c r="A140" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C140" s="18"/>
       <c r="D140" s="8"/>
     </row>
     <row r="141" ht="21" spans="1:4">
       <c r="A141" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C141" s="18"/>
       <c r="D141" s="8"/>
     </row>
     <row r="142" ht="21" spans="1:4">
       <c r="A142" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C142" s="18"/>
       <c r="D142" s="8"/>
     </row>
     <row r="143" ht="21" spans="1:4">
       <c r="A143" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C143" s="18"/>
       <c r="D143" s="8"/>
     </row>
     <row r="144" ht="21" spans="1:4">
       <c r="A144" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C144" s="18"/>
       <c r="D144" s="8"/>
     </row>
     <row r="145" ht="21" spans="1:4">
       <c r="A145" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C145" s="18"/>
       <c r="D145" s="8"/>
     </row>
     <row r="146" ht="21" spans="1:4">
       <c r="A146" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C146" s="18"/>
       <c r="D146" s="8"/>
     </row>
     <row r="147" ht="21" spans="1:4">
       <c r="A147" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C147" s="18"/>
       <c r="D147" s="8"/>
     </row>
     <row r="148" ht="21" spans="1:4">
       <c r="A148" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C148" s="18"/>
       <c r="D148" s="8"/>
     </row>
     <row r="149" ht="21" spans="1:4">
       <c r="A149" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C149" s="18"/>
       <c r="D149" s="8"/>
     </row>
     <row r="150" ht="21" spans="1:4">
       <c r="A150" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C150" s="18"/>
       <c r="D150" s="8"/>
     </row>
     <row r="151" ht="21" spans="1:4">
       <c r="A151" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C151" s="18"/>
       <c r="D151" s="8"/>
     </row>
     <row r="152" ht="21" spans="1:4">
       <c r="A152" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C152" s="18"/>
       <c r="D152" s="8"/>
     </row>
     <row r="153" ht="21" spans="1:4">
       <c r="A153" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C153" s="18"/>
       <c r="D153" s="8"/>
     </row>
     <row r="154" ht="21" spans="1:4">
       <c r="A154" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C154" s="18"/>
       <c r="D154" s="8"/>
     </row>
     <row r="155" ht="21" spans="1:4">
       <c r="A155" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C155" s="18"/>
       <c r="D155" s="8"/>
     </row>
     <row r="156" ht="21" spans="1:4">
       <c r="A156" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C156" s="18"/>
       <c r="D156" s="8"/>
     </row>
     <row r="157" ht="21" spans="1:4">
       <c r="A157" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C157" s="18"/>
       <c r="D157" s="8"/>
     </row>
     <row r="158" ht="21" spans="1:4">
       <c r="A158" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C158" s="18"/>
       <c r="D158" s="8"/>
     </row>
     <row r="159" ht="21" spans="1:4">
       <c r="A159" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C159" s="18"/>
       <c r="D159" s="8"/>
     </row>
     <row r="160" ht="21" spans="1:4">
       <c r="A160" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C160" s="18"/>
       <c r="D160" s="8"/>
     </row>
     <row r="161" ht="21" spans="1:4">
       <c r="A161" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C161" s="18"/>
       <c r="D161" s="8"/>
     </row>
     <row r="162" ht="21" spans="1:4">
       <c r="A162" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C162" s="18"/>
       <c r="D162" s="8"/>
     </row>
     <row r="163" ht="21" spans="1:4">
       <c r="A163" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C163" s="18"/>
       <c r="D163" s="8"/>
     </row>
     <row r="164" ht="21" spans="1:4">
       <c r="A164" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C164" s="17"/>
       <c r="D164" s="8"/>
     </row>
     <row r="165" ht="21" spans="1:4">
       <c r="A165" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C165" s="17"/>
       <c r="D165" s="8"/>
     </row>
     <row r="166" ht="21" spans="1:4">
       <c r="A166" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C166" s="18"/>
       <c r="D166" s="8"/>
     </row>
     <row r="167" ht="21" spans="1:4">
       <c r="A167" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C167" s="18"/>
       <c r="D167" s="8"/>
     </row>
     <row r="168" ht="21" spans="1:4">
       <c r="A168" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C168" s="18"/>
       <c r="D168" s="8"/>
     </row>
     <row r="169" ht="21" spans="1:4">
       <c r="A169" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B169" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C169" s="18"/>
       <c r="D169" s="8"/>
     </row>
     <row r="170" ht="21" spans="1:4">
       <c r="A170" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C170" s="18"/>
       <c r="D170" s="8"/>
     </row>
     <row r="171" ht="21" spans="1:4">
       <c r="A171" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B171" s="13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C171" s="18"/>
       <c r="D171" s="8"/>
     </row>
     <row r="172" ht="21" spans="1:4">
       <c r="A172" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C172" s="18"/>
       <c r="D172" s="8"/>
     </row>
     <row r="173" ht="21" spans="1:4">
       <c r="A173" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C173" s="18"/>
       <c r="D173" s="8"/>
     </row>
     <row r="174" ht="21" spans="1:4">
       <c r="A174" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C174" s="18"/>
       <c r="D174" s="8"/>
@@ -4658,350 +4671,350 @@
     </row>
     <row r="177" ht="21" spans="1:4">
       <c r="A177" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B177" s="13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C177" s="18"/>
       <c r="D177" s="8"/>
     </row>
     <row r="178" ht="21" spans="1:4">
       <c r="A178" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C178" s="18"/>
       <c r="D178" s="8"/>
     </row>
     <row r="179" ht="21" spans="1:4">
       <c r="A179" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B179" s="13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C179" s="18"/>
       <c r="D179" s="8"/>
     </row>
     <row r="180" ht="21" spans="1:4">
       <c r="A180" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C180" s="18"/>
       <c r="D180" s="8"/>
     </row>
     <row r="181" ht="21" spans="1:4">
       <c r="A181" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B181" s="13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C181" s="18"/>
       <c r="D181" s="8"/>
     </row>
     <row r="182" ht="21" spans="1:4">
       <c r="A182" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C182" s="18"/>
       <c r="D182" s="8"/>
     </row>
     <row r="183" ht="21" spans="1:4">
       <c r="A183" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B183" s="13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C183" s="18"/>
       <c r="D183" s="8"/>
     </row>
     <row r="184" ht="21" spans="1:4">
       <c r="A184" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C184" s="18"/>
       <c r="D184" s="8"/>
     </row>
     <row r="185" ht="21" spans="1:4">
       <c r="A185" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B185" s="13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C185" s="18"/>
       <c r="D185" s="8"/>
     </row>
     <row r="186" ht="21" spans="1:4">
       <c r="A186" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C186" s="18"/>
       <c r="D186" s="8"/>
     </row>
     <row r="187" ht="21" spans="1:4">
       <c r="A187" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B187" s="13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C187" s="18"/>
       <c r="D187" s="8"/>
     </row>
     <row r="188" ht="21" spans="1:4">
       <c r="A188" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C188" s="18"/>
       <c r="D188" s="8"/>
     </row>
     <row r="189" ht="21" spans="1:4">
       <c r="A189" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B189" s="13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C189" s="18"/>
       <c r="D189" s="8"/>
     </row>
     <row r="190" ht="21" spans="1:4">
       <c r="A190" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C190" s="18"/>
       <c r="D190" s="8"/>
     </row>
     <row r="191" ht="21" spans="1:4">
       <c r="A191" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B191" s="13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C191" s="18"/>
       <c r="D191" s="8"/>
     </row>
     <row r="192" ht="21" spans="1:4">
       <c r="A192" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C192" s="18"/>
       <c r="D192" s="8"/>
     </row>
     <row r="193" ht="21" spans="1:4">
       <c r="A193" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C193" s="18"/>
       <c r="D193" s="8"/>
     </row>
     <row r="194" ht="21" spans="1:4">
       <c r="A194" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C194" s="18"/>
       <c r="D194" s="8"/>
     </row>
     <row r="195" ht="21" spans="1:4">
       <c r="A195" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C195" s="18"/>
       <c r="D195" s="8"/>
     </row>
     <row r="196" ht="21" spans="1:4">
       <c r="A196" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C196" s="18"/>
       <c r="D196" s="8"/>
     </row>
     <row r="197" ht="21" spans="1:4">
       <c r="A197" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B197" s="13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C197" s="18"/>
       <c r="D197" s="8"/>
     </row>
     <row r="198" ht="21" spans="1:4">
       <c r="A198" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C198" s="18"/>
       <c r="D198" s="8"/>
     </row>
     <row r="199" ht="21" spans="1:4">
       <c r="A199" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B199" s="13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C199" s="18"/>
       <c r="D199" s="8"/>
     </row>
     <row r="200" ht="21" spans="1:4">
       <c r="A200" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C200" s="18"/>
       <c r="D200" s="8"/>
     </row>
     <row r="201" ht="21" spans="1:4">
       <c r="A201" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B201" s="13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C201" s="18"/>
       <c r="D201" s="8"/>
     </row>
     <row r="202" ht="21" spans="1:4">
       <c r="A202" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B202" s="13" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C202" s="18"/>
       <c r="D202" s="8"/>
     </row>
     <row r="203" ht="21" spans="1:4">
       <c r="A203" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B203" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C203" s="18"/>
       <c r="D203" s="8"/>
     </row>
     <row r="204" ht="21" spans="1:4">
       <c r="A204" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B204" s="13" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C204" s="18"/>
       <c r="D204" s="8"/>
     </row>
     <row r="205" ht="21" spans="1:4">
       <c r="A205" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B205" s="13" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C205" s="18"/>
       <c r="D205" s="8"/>
     </row>
     <row r="206" ht="21" spans="1:4">
       <c r="A206" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B206" s="13" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C206" s="18"/>
       <c r="D206" s="8"/>
     </row>
     <row r="207" ht="21" spans="1:4">
       <c r="A207" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B207" s="13" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C207" s="18"/>
       <c r="D207" s="8"/>
     </row>
     <row r="208" ht="21" spans="1:4">
       <c r="A208" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C208" s="18"/>
       <c r="D208" s="8"/>
     </row>
     <row r="209" ht="21" spans="1:4">
       <c r="A209" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C209" s="18"/>
       <c r="D209" s="8"/>
     </row>
     <row r="210" ht="21" spans="1:4">
       <c r="A210" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B210" s="13" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C210" s="18"/>
       <c r="D210" s="8"/>
     </row>
     <row r="211" ht="21" spans="1:4">
       <c r="A211" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B211" s="13" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C211" s="18"/>
       <c r="D211" s="8"/>
@@ -5020,220 +5033,220 @@
     </row>
     <row r="214" ht="21" spans="1:4">
       <c r="A214" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B214" s="13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C214" s="18"/>
       <c r="D214" s="8"/>
     </row>
     <row r="215" ht="21" spans="1:4">
       <c r="A215" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B215" s="13" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C215" s="18"/>
       <c r="D215" s="8"/>
     </row>
     <row r="216" ht="21" spans="1:4">
       <c r="A216" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C216" s="18"/>
       <c r="D216" s="8"/>
     </row>
     <row r="217" ht="21" spans="1:4">
       <c r="A217" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C217" s="18"/>
       <c r="D217" s="8"/>
     </row>
     <row r="218" ht="21" spans="1:4">
       <c r="A218" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B218" s="13" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C218" s="18"/>
       <c r="D218" s="8"/>
     </row>
     <row r="219" ht="21" spans="1:4">
       <c r="A219" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C219" s="18"/>
       <c r="D219" s="8"/>
     </row>
     <row r="220" ht="21" spans="1:4">
       <c r="A220" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B220" s="19" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C220" s="18"/>
       <c r="D220" s="8"/>
     </row>
     <row r="221" ht="21" spans="1:4">
       <c r="A221" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C221" s="18"/>
       <c r="D221" s="8"/>
     </row>
     <row r="222" ht="21" spans="1:4">
       <c r="A222" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C222" s="18"/>
       <c r="D222" s="8"/>
     </row>
     <row r="223" ht="21" spans="1:4">
       <c r="A223" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B223" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C223" s="18"/>
       <c r="D223" s="8"/>
     </row>
     <row r="224" ht="21" spans="1:4">
       <c r="A224" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C224" s="18"/>
       <c r="D224" s="8"/>
     </row>
     <row r="225" ht="21" spans="1:4">
       <c r="A225" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B225" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C225" s="18"/>
       <c r="D225" s="8"/>
     </row>
     <row r="226" ht="21" spans="1:4">
       <c r="A226" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B226" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C226" s="18"/>
       <c r="D226" s="8"/>
     </row>
     <row r="227" ht="21" spans="1:4">
       <c r="A227" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B227" s="13" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C227" s="18"/>
       <c r="D227" s="8"/>
     </row>
     <row r="228" ht="21" spans="1:4">
       <c r="A228" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B228" s="13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C228" s="18"/>
       <c r="D228" s="8"/>
     </row>
     <row r="229" ht="21" spans="1:4">
       <c r="A229" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B229" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C229" s="18"/>
       <c r="D229" s="8"/>
     </row>
     <row r="230" ht="21" spans="1:4">
       <c r="A230" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B230" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C230" s="18"/>
       <c r="D230" s="8"/>
     </row>
     <row r="231" ht="21" spans="1:4">
       <c r="A231" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B231" s="13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C231" s="18"/>
       <c r="D231" s="8"/>
     </row>
     <row r="232" ht="21" spans="1:4">
       <c r="A232" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B232" s="13" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C232" s="18"/>
       <c r="D232" s="8"/>
     </row>
     <row r="233" ht="21" spans="1:4">
       <c r="A233" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B233" s="13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C233" s="18"/>
       <c r="D233" s="8"/>
     </row>
     <row r="234" ht="21" spans="1:4">
       <c r="A234" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C234" s="18"/>
       <c r="D234" s="8"/>
     </row>
     <row r="235" ht="21" spans="1:4">
       <c r="A235" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B235" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C235" s="18"/>
       <c r="D235" s="8"/>
@@ -5250,337 +5263,337 @@
     </row>
     <row r="238" ht="21" spans="1:4">
       <c r="A238" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C238" s="18"/>
       <c r="D238" s="8"/>
     </row>
     <row r="239" ht="21" spans="1:4">
       <c r="A239" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B239" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C239" s="18"/>
       <c r="D239" s="8"/>
     </row>
     <row r="240" ht="21" spans="1:4">
       <c r="A240" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B240" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C240" s="18"/>
       <c r="D240" s="8"/>
     </row>
     <row r="241" ht="21" spans="1:4">
       <c r="A241" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B241" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C241" s="18"/>
       <c r="D241" s="8"/>
     </row>
     <row r="242" ht="21" spans="1:4">
       <c r="A242" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B242" s="13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C242" s="18"/>
       <c r="D242" s="8"/>
     </row>
     <row r="243" ht="21" spans="1:4">
       <c r="A243" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B243" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C243" s="18"/>
       <c r="D243" s="8"/>
     </row>
     <row r="244" ht="21" spans="1:4">
       <c r="A244" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B244" s="13" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C244" s="18"/>
       <c r="D244" s="8"/>
     </row>
     <row r="245" ht="21" spans="1:4">
       <c r="A245" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B245" s="13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C245" s="18"/>
       <c r="D245" s="8"/>
     </row>
     <row r="246" ht="21" spans="1:4">
       <c r="A246" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B246" s="13" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C246" s="18"/>
       <c r="D246" s="8"/>
     </row>
     <row r="247" ht="21" spans="1:4">
       <c r="A247" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B247" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C247" s="18"/>
       <c r="D247" s="8"/>
     </row>
     <row r="248" ht="21" spans="1:4">
       <c r="A248" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B248" s="13" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C248" s="18"/>
       <c r="D248" s="8"/>
     </row>
     <row r="249" ht="21" spans="1:4">
       <c r="A249" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B249" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C249" s="18"/>
       <c r="D249" s="8"/>
     </row>
     <row r="250" ht="21" spans="1:4">
       <c r="A250" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B250" s="13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C250" s="18"/>
       <c r="D250" s="8"/>
     </row>
     <row r="251" ht="21" spans="1:4">
       <c r="A251" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B251" s="13" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C251" s="18"/>
       <c r="D251" s="8"/>
     </row>
     <row r="252" ht="21" spans="1:4">
       <c r="A252" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B252" s="13" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C252" s="18"/>
       <c r="D252" s="8"/>
     </row>
     <row r="253" ht="21" spans="1:4">
       <c r="A253" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B253" s="13" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C253" s="18"/>
       <c r="D253" s="8"/>
     </row>
     <row r="254" ht="21" spans="1:4">
       <c r="A254" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B254" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C254" s="18"/>
       <c r="D254" s="8"/>
     </row>
     <row r="255" ht="21" spans="1:4">
       <c r="A255" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B255" s="13" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C255" s="18"/>
       <c r="D255" s="8"/>
     </row>
     <row r="256" ht="21" spans="1:4">
       <c r="A256" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B256" s="13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C256" s="18"/>
       <c r="D256" s="8"/>
     </row>
     <row r="257" ht="21" spans="1:4">
       <c r="A257" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B257" s="13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C257" s="18"/>
       <c r="D257" s="8"/>
     </row>
     <row r="258" ht="21" spans="1:4">
       <c r="A258" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B258" s="13" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C258" s="18"/>
       <c r="D258" s="8"/>
     </row>
     <row r="259" ht="21" spans="1:4">
       <c r="A259" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B259" s="13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C259" s="18"/>
       <c r="D259" s="8"/>
     </row>
     <row r="260" ht="21" spans="1:4">
       <c r="A260" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B260" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C260" s="18"/>
       <c r="D260" s="8"/>
     </row>
     <row r="261" ht="21" spans="1:4">
       <c r="A261" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B261" s="13" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C261" s="18"/>
       <c r="D261" s="8"/>
     </row>
     <row r="262" ht="21" spans="1:4">
       <c r="A262" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B262" s="13" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C262" s="18"/>
       <c r="D262" s="8"/>
     </row>
     <row r="263" ht="21" spans="1:4">
       <c r="A263" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B263" s="13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C263" s="18"/>
       <c r="D263" s="8"/>
     </row>
     <row r="264" ht="21" spans="1:4">
       <c r="A264" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B264" s="13" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C264" s="18"/>
       <c r="D264" s="8"/>
     </row>
     <row r="265" ht="21" spans="1:4">
       <c r="A265" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B265" s="13" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C265" s="18"/>
       <c r="D265" s="8"/>
     </row>
     <row r="266" ht="21" spans="1:4">
       <c r="A266" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B266" s="13" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C266" s="18"/>
       <c r="D266" s="8"/>
     </row>
     <row r="267" ht="21" spans="1:4">
       <c r="A267" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B267" s="13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C267" s="18"/>
       <c r="D267" s="8"/>
     </row>
     <row r="268" ht="21" spans="1:4">
       <c r="A268" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B268" s="13" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C268" s="18"/>
       <c r="D268" s="8"/>
     </row>
     <row r="269" ht="21" spans="1:4">
       <c r="A269" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B269" s="13" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C269" s="18"/>
       <c r="D269" s="8"/>
     </row>
     <row r="270" ht="21" spans="1:4">
       <c r="A270" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B270" s="13" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C270" s="18"/>
       <c r="D270" s="8"/>
     </row>
     <row r="271" ht="21" spans="1:4">
       <c r="A271" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B271" s="13" t="s">
         <v>151</v>
@@ -5590,10 +5603,10 @@
     </row>
     <row r="272" ht="21" spans="1:4">
       <c r="A272" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B272" s="13" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C272" s="18"/>
       <c r="D272" s="8"/>
@@ -5610,190 +5623,190 @@
     </row>
     <row r="275" ht="21" spans="1:4">
       <c r="A275" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B275" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C275" s="18"/>
       <c r="D275" s="8"/>
     </row>
     <row r="276" ht="21" spans="1:4">
       <c r="A276" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B276" s="13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C276" s="18"/>
       <c r="D276" s="8"/>
     </row>
     <row r="277" ht="21" spans="1:4">
       <c r="A277" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B277" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C277" s="18"/>
       <c r="D277" s="8"/>
     </row>
     <row r="278" ht="21" spans="1:4">
       <c r="A278" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B278" s="13" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C278" s="18"/>
       <c r="D278" s="8"/>
     </row>
     <row r="279" ht="21" spans="1:4">
       <c r="A279" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B279" s="13" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C279" s="18"/>
       <c r="D279" s="8"/>
     </row>
     <row r="280" ht="21" spans="1:4">
       <c r="A280" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B280" s="13" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C280" s="18"/>
       <c r="D280" s="8"/>
     </row>
     <row r="281" ht="21" spans="1:4">
       <c r="A281" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B281" s="13" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C281" s="18"/>
       <c r="D281" s="8"/>
     </row>
     <row r="282" ht="21" spans="1:4">
       <c r="A282" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B282" s="13" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C282" s="18"/>
       <c r="D282" s="8"/>
     </row>
     <row r="283" ht="21" spans="1:4">
       <c r="A283" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B283" s="13" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C283" s="18"/>
       <c r="D283" s="8"/>
     </row>
     <row r="284" ht="21" spans="1:4">
       <c r="A284" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B284" s="13" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C284" s="18"/>
       <c r="D284" s="8"/>
     </row>
     <row r="285" ht="21" spans="1:4">
       <c r="A285" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B285" s="13" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C285" s="18"/>
       <c r="D285" s="8"/>
     </row>
     <row r="286" ht="21" spans="1:4">
       <c r="A286" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B286" s="13" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C286" s="18"/>
       <c r="D286" s="8"/>
     </row>
     <row r="287" ht="21" spans="1:4">
       <c r="A287" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B287" s="13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C287" s="18"/>
       <c r="D287" s="8"/>
     </row>
     <row r="288" ht="21" spans="1:4">
       <c r="A288" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B288" s="13" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C288" s="18"/>
       <c r="D288" s="8"/>
     </row>
     <row r="289" ht="21" spans="1:4">
       <c r="A289" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B289" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C289" s="18"/>
       <c r="D289" s="8"/>
     </row>
     <row r="290" ht="21" spans="1:4">
       <c r="A290" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B290" s="13" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C290" s="18"/>
       <c r="D290" s="8"/>
     </row>
     <row r="291" ht="21" spans="1:4">
       <c r="A291" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B291" s="13" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C291" s="18"/>
       <c r="D291" s="8"/>
     </row>
     <row r="292" ht="21" spans="1:4">
       <c r="A292" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B292" s="13" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C292" s="18"/>
       <c r="D292" s="8"/>
     </row>
     <row r="293" ht="21" spans="1:4">
       <c r="A293" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B293" s="13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C293" s="18"/>
       <c r="D293" s="8"/>
@@ -5810,380 +5823,380 @@
     </row>
     <row r="296" ht="21" spans="1:4">
       <c r="A296" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B296" s="13" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C296" s="18"/>
       <c r="D296" s="8"/>
     </row>
     <row r="297" ht="21" spans="1:4">
       <c r="A297" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B297" s="13" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C297" s="18"/>
       <c r="D297" s="8"/>
     </row>
     <row r="298" ht="21" spans="1:4">
       <c r="A298" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B298" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C298" s="18"/>
       <c r="D298" s="8"/>
     </row>
     <row r="299" ht="21" spans="1:4">
       <c r="A299" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B299" s="13" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C299" s="18"/>
       <c r="D299" s="8"/>
     </row>
     <row r="300" ht="21" spans="1:4">
       <c r="A300" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B300" s="13" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C300" s="18"/>
       <c r="D300" s="8"/>
     </row>
     <row r="301" ht="21" spans="1:4">
       <c r="A301" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B301" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C301" s="18"/>
       <c r="D301" s="8"/>
     </row>
     <row r="302" ht="21" spans="1:4">
       <c r="A302" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B302" s="13" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C302" s="18"/>
       <c r="D302" s="8"/>
     </row>
     <row r="303" ht="21" spans="1:4">
       <c r="A303" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B303" s="13" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C303" s="18"/>
       <c r="D303" s="8"/>
     </row>
     <row r="304" ht="21" spans="1:4">
       <c r="A304" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B304" s="13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C304" s="18"/>
       <c r="D304" s="8"/>
     </row>
     <row r="305" ht="21" spans="1:4">
       <c r="A305" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B305" s="13" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C305" s="18"/>
       <c r="D305" s="8"/>
     </row>
     <row r="306" ht="21" spans="1:4">
       <c r="A306" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B306" s="13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C306" s="18"/>
       <c r="D306" s="8"/>
     </row>
     <row r="307" ht="21" spans="1:4">
       <c r="A307" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B307" s="13" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C307" s="18"/>
       <c r="D307" s="8"/>
     </row>
     <row r="308" ht="21" spans="1:4">
       <c r="A308" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B308" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C308" s="18"/>
       <c r="D308" s="8"/>
     </row>
     <row r="309" ht="21" spans="1:4">
       <c r="A309" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B309" s="19" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C309" s="18"/>
       <c r="D309" s="8"/>
     </row>
     <row r="310" ht="21" spans="1:4">
       <c r="A310" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B310" s="13" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C310" s="18"/>
       <c r="D310" s="8"/>
     </row>
     <row r="311" ht="21" spans="1:4">
       <c r="A311" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B311" s="13" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C311" s="18"/>
       <c r="D311" s="8"/>
     </row>
     <row r="312" ht="21" spans="1:4">
       <c r="A312" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B312" s="13" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C312" s="18"/>
       <c r="D312" s="8"/>
     </row>
     <row r="313" ht="21" spans="1:4">
       <c r="A313" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B313" s="13" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C313" s="18"/>
       <c r="D313" s="8"/>
     </row>
     <row r="314" ht="21" spans="1:4">
       <c r="A314" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B314" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C314" s="18"/>
       <c r="D314" s="8"/>
     </row>
     <row r="315" ht="21" spans="1:4">
       <c r="A315" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B315" s="13" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C315" s="18"/>
       <c r="D315" s="8"/>
     </row>
     <row r="316" ht="21" spans="1:4">
       <c r="A316" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B316" s="13" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C316" s="18"/>
       <c r="D316" s="8"/>
     </row>
     <row r="317" ht="21" spans="1:4">
       <c r="A317" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B317" s="13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C317" s="18"/>
       <c r="D317" s="8"/>
     </row>
     <row r="318" ht="21" spans="1:4">
       <c r="A318" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B318" s="13" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C318" s="18"/>
       <c r="D318" s="8"/>
     </row>
     <row r="319" ht="21" spans="1:4">
       <c r="A319" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B319" s="13" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C319" s="18"/>
       <c r="D319" s="8"/>
     </row>
     <row r="320" ht="21" spans="1:4">
       <c r="A320" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B320" s="13" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C320" s="18"/>
       <c r="D320" s="8"/>
     </row>
     <row r="321" ht="21" spans="1:4">
       <c r="A321" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B321" s="13" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C321" s="18"/>
       <c r="D321" s="8"/>
     </row>
     <row r="322" ht="21" spans="1:4">
       <c r="A322" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B322" s="13" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C322" s="18"/>
       <c r="D322" s="8"/>
     </row>
     <row r="323" ht="21" spans="1:4">
       <c r="A323" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B323" s="13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C323" s="18"/>
       <c r="D323" s="8"/>
     </row>
     <row r="324" ht="21" spans="1:4">
       <c r="A324" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B324" s="13" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C324" s="18"/>
       <c r="D324" s="8"/>
     </row>
     <row r="325" ht="21" spans="1:4">
       <c r="A325" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B325" s="13" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C325" s="18"/>
       <c r="D325" s="8"/>
     </row>
     <row r="326" ht="21" spans="1:4">
       <c r="A326" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B326" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C326" s="18"/>
       <c r="D326" s="8"/>
     </row>
     <row r="327" ht="21" spans="1:4">
       <c r="A327" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B327" s="13" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C327" s="18"/>
       <c r="D327" s="8"/>
     </row>
     <row r="328" ht="21" spans="1:4">
       <c r="A328" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B328" s="13" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C328" s="18"/>
       <c r="D328" s="8"/>
     </row>
     <row r="329" ht="21" spans="1:4">
       <c r="A329" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B329" s="13" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C329" s="18"/>
       <c r="D329" s="8"/>
     </row>
     <row r="330" ht="21" spans="1:4">
       <c r="A330" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B330" s="13" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C330" s="18"/>
       <c r="D330" s="8"/>
     </row>
     <row r="331" ht="21" spans="1:4">
       <c r="A331" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B331" s="13" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C331" s="18"/>
       <c r="D331" s="8"/>
     </row>
     <row r="332" ht="21" spans="1:4">
       <c r="A332" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B332" s="13" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C332" s="18"/>
       <c r="D332" s="8"/>
     </row>
     <row r="333" ht="21" spans="1:4">
       <c r="A333" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B333" s="13" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C333" s="18"/>
       <c r="D333" s="8"/>
@@ -6200,180 +6213,180 @@
     </row>
     <row r="336" ht="21" spans="1:4">
       <c r="A336" s="16" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B336" s="13" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C336" s="18"/>
       <c r="D336" s="8"/>
     </row>
     <row r="337" ht="21" spans="1:4">
       <c r="A337" s="16" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B337" s="13" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C337" s="18"/>
       <c r="D337" s="8"/>
     </row>
     <row r="338" ht="21" spans="1:4">
       <c r="A338" s="16" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B338" s="13" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C338" s="18"/>
       <c r="D338" s="8"/>
     </row>
     <row r="339" ht="21" spans="1:4">
       <c r="A339" s="16" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B339" s="13" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C339" s="18"/>
       <c r="D339" s="8"/>
     </row>
     <row r="340" ht="21" spans="1:4">
       <c r="A340" s="16" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B340" s="13" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C340" s="18"/>
       <c r="D340" s="8"/>
     </row>
     <row r="341" ht="21" spans="1:4">
       <c r="A341" s="16" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B341" s="13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C341" s="18"/>
       <c r="D341" s="8"/>
     </row>
     <row r="342" ht="21" spans="1:4">
       <c r="A342" s="16" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B342" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C342" s="18"/>
       <c r="D342" s="8"/>
     </row>
     <row r="343" ht="21" spans="1:4">
       <c r="A343" s="16" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B343" s="13" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C343" s="18"/>
       <c r="D343" s="8"/>
     </row>
     <row r="344" ht="21" spans="1:4">
       <c r="A344" s="16" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B344" s="19" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C344" s="18"/>
       <c r="D344" s="8"/>
     </row>
     <row r="345" ht="21" spans="1:4">
       <c r="A345" s="16" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B345" s="13" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C345" s="18"/>
       <c r="D345" s="8"/>
     </row>
     <row r="346" ht="21" spans="1:4">
       <c r="A346" s="16" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B346" s="13" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C346" s="18"/>
       <c r="D346" s="8"/>
     </row>
     <row r="347" ht="21" spans="1:4">
       <c r="A347" s="16" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B347" s="13" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C347" s="18"/>
       <c r="D347" s="8"/>
     </row>
     <row r="348" ht="21" spans="1:4">
       <c r="A348" s="16" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B348" s="13" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C348" s="18"/>
       <c r="D348" s="8"/>
     </row>
     <row r="349" ht="21" spans="1:4">
       <c r="A349" s="16" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B349" s="13" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C349" s="18"/>
       <c r="D349" s="8"/>
     </row>
     <row r="350" ht="21" spans="1:4">
       <c r="A350" s="16" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B350" s="13" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C350" s="18"/>
       <c r="D350" s="8"/>
     </row>
     <row r="351" ht="21" spans="1:4">
       <c r="A351" s="16" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B351" s="13" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C351" s="18"/>
       <c r="D351" s="8"/>
     </row>
     <row r="352" ht="21" spans="1:4">
       <c r="A352" s="16" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B352" s="13" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C352" s="18"/>
       <c r="D352" s="8"/>
     </row>
     <row r="353" ht="21" spans="1:4">
       <c r="A353" s="16" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B353" s="13" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C353" s="18"/>
       <c r="D353" s="8"/>
@@ -6390,440 +6403,440 @@
     </row>
     <row r="356" ht="21" spans="1:4">
       <c r="A356" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B356" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C356" s="18"/>
       <c r="D356" s="8"/>
     </row>
     <row r="357" ht="21" spans="1:4">
       <c r="A357" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B357" s="13" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C357" s="18"/>
       <c r="D357" s="8"/>
     </row>
     <row r="358" ht="21" spans="1:4">
       <c r="A358" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B358" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C358" s="18"/>
       <c r="D358" s="8"/>
     </row>
     <row r="359" ht="21" spans="1:4">
       <c r="A359" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B359" s="13" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C359" s="18"/>
       <c r="D359" s="8"/>
     </row>
     <row r="360" ht="21" spans="1:4">
       <c r="A360" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B360" s="13" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C360" s="18"/>
       <c r="D360" s="8"/>
     </row>
     <row r="361" ht="21" spans="1:4">
       <c r="A361" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B361" s="13" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C361" s="18"/>
       <c r="D361" s="8"/>
     </row>
     <row r="362" ht="21" spans="1:4">
       <c r="A362" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B362" s="13" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C362" s="18"/>
       <c r="D362" s="8"/>
     </row>
     <row r="363" ht="21" spans="1:4">
       <c r="A363" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B363" s="13" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C363" s="18"/>
       <c r="D363" s="8"/>
     </row>
     <row r="364" ht="21" spans="1:4">
       <c r="A364" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B364" s="13" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C364" s="18"/>
       <c r="D364" s="8"/>
     </row>
     <row r="365" ht="21" spans="1:4">
       <c r="A365" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B365" s="13" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C365" s="18"/>
       <c r="D365" s="8"/>
     </row>
     <row r="366" ht="21" spans="1:4">
       <c r="A366" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B366" s="13" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C366" s="18"/>
       <c r="D366" s="8"/>
     </row>
     <row r="367" ht="21" spans="1:4">
       <c r="A367" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B367" s="13" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C367" s="18"/>
       <c r="D367" s="8"/>
     </row>
     <row r="368" ht="21" spans="1:4">
       <c r="A368" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B368" s="13" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C368" s="18"/>
       <c r="D368" s="8"/>
     </row>
     <row r="369" ht="21" spans="1:4">
       <c r="A369" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B369" s="13" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C369" s="18"/>
       <c r="D369" s="8"/>
     </row>
     <row r="370" ht="21" spans="1:4">
       <c r="A370" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B370" s="13" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C370" s="18"/>
       <c r="D370" s="8"/>
     </row>
     <row r="371" ht="21" spans="1:4">
       <c r="A371" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B371" s="13" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C371" s="18"/>
       <c r="D371" s="8"/>
     </row>
     <row r="372" ht="21" spans="1:4">
       <c r="A372" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B372" s="13" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C372" s="18"/>
       <c r="D372" s="8"/>
     </row>
     <row r="373" ht="21" spans="1:4">
       <c r="A373" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B373" s="13" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C373" s="18"/>
       <c r="D373" s="8"/>
     </row>
     <row r="374" ht="21" spans="1:4">
       <c r="A374" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B374" s="13" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C374" s="18"/>
       <c r="D374" s="8"/>
     </row>
     <row r="375" ht="21" spans="1:4">
       <c r="A375" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B375" s="13" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C375" s="18"/>
       <c r="D375" s="8"/>
     </row>
     <row r="376" ht="21" spans="1:4">
       <c r="A376" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B376" s="13" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C376" s="18"/>
       <c r="D376" s="8"/>
     </row>
     <row r="377" ht="21" spans="1:4">
       <c r="A377" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B377" s="13" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C377" s="18"/>
       <c r="D377" s="8"/>
     </row>
     <row r="378" ht="21" spans="1:4">
       <c r="A378" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B378" s="13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C378" s="18"/>
       <c r="D378" s="8"/>
     </row>
     <row r="379" ht="21" spans="1:4">
       <c r="A379" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B379" s="13" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C379" s="18"/>
       <c r="D379" s="8"/>
     </row>
     <row r="380" ht="21" spans="1:4">
       <c r="A380" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B380" s="13" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C380" s="18"/>
       <c r="D380" s="8"/>
     </row>
     <row r="381" ht="21" spans="1:4">
       <c r="A381" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B381" s="13" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C381" s="18"/>
       <c r="D381" s="8"/>
     </row>
     <row r="382" ht="21" spans="1:4">
       <c r="A382" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B382" s="13" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C382" s="18"/>
       <c r="D382" s="8"/>
     </row>
     <row r="383" ht="21" spans="1:4">
       <c r="A383" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B383" s="13" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C383" s="18"/>
       <c r="D383" s="8"/>
     </row>
     <row r="384" ht="21" spans="1:4">
       <c r="A384" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B384" s="13" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C384" s="18"/>
       <c r="D384" s="8"/>
     </row>
     <row r="385" ht="21" spans="1:4">
       <c r="A385" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B385" s="13" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C385" s="18"/>
       <c r="D385" s="8"/>
     </row>
     <row r="386" ht="21" spans="1:4">
       <c r="A386" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B386" s="13" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C386" s="18"/>
       <c r="D386" s="8"/>
     </row>
     <row r="387" ht="21" spans="1:4">
       <c r="A387" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B387" s="13" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C387" s="18"/>
       <c r="D387" s="8"/>
     </row>
     <row r="388" ht="21" spans="1:4">
       <c r="A388" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B388" s="13" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C388" s="18"/>
       <c r="D388" s="8"/>
     </row>
     <row r="389" ht="21" spans="1:4">
       <c r="A389" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B389" s="13" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C389" s="18"/>
       <c r="D389" s="8"/>
     </row>
     <row r="390" ht="21" spans="1:4">
       <c r="A390" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B390" s="13" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C390" s="18"/>
       <c r="D390" s="8"/>
     </row>
     <row r="391" ht="21" spans="1:4">
       <c r="A391" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B391" s="13" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C391" s="18"/>
       <c r="D391" s="8"/>
     </row>
     <row r="392" ht="21" spans="1:4">
       <c r="A392" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B392" s="13" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C392" s="18"/>
       <c r="D392" s="8"/>
     </row>
     <row r="393" ht="21" spans="1:4">
       <c r="A393" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B393" s="13" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C393" s="18"/>
       <c r="D393" s="8"/>
     </row>
     <row r="394" ht="21" spans="1:4">
       <c r="A394" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B394" s="13" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C394" s="18"/>
       <c r="D394" s="8"/>
     </row>
     <row r="395" ht="21" spans="1:4">
       <c r="A395" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B395" s="13" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C395" s="18"/>
       <c r="D395" s="8"/>
     </row>
     <row r="396" ht="21" spans="1:4">
       <c r="A396" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B396" s="13" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C396" s="18"/>
       <c r="D396" s="8"/>
     </row>
     <row r="397" ht="21" spans="1:4">
       <c r="A397" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B397" s="13" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C397" s="18"/>
       <c r="D397" s="8"/>
     </row>
     <row r="398" ht="21" spans="1:4">
       <c r="A398" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B398" s="13" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C398" s="18"/>
       <c r="D398" s="8"/>
     </row>
     <row r="399" ht="21" spans="1:4">
       <c r="A399" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B399" s="13" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C399" s="18"/>
       <c r="D399" s="8"/>
@@ -6840,37 +6853,37 @@
     </row>
     <row r="402" ht="21" spans="1:4">
       <c r="A402" s="16" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B402" s="13" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C402" s="18"/>
       <c r="D402" s="8"/>
     </row>
     <row r="403" ht="21" spans="1:4">
       <c r="A403" s="16" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B403" s="13" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C403" s="18"/>
       <c r="D403" s="8"/>
     </row>
     <row r="404" ht="21" spans="1:4">
       <c r="A404" s="16" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B404" s="13" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C404" s="18"/>
       <c r="D404" s="8"/>
     </row>
     <row r="405" ht="21" spans="1:4">
       <c r="A405" s="16" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B405" s="13" t="s">
         <v>153</v>
@@ -6880,20 +6893,20 @@
     </row>
     <row r="406" ht="21" spans="1:4">
       <c r="A406" s="16" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B406" s="13" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C406" s="18"/>
       <c r="D406" s="8"/>
     </row>
     <row r="407" ht="21" spans="1:4">
       <c r="A407" s="16" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B407" s="13" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C407" s="18"/>
       <c r="D407" s="8"/>
@@ -6910,600 +6923,600 @@
     </row>
     <row r="410" ht="21" spans="1:4">
       <c r="A410" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B410" s="13" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C410" s="18"/>
       <c r="D410" s="8"/>
     </row>
     <row r="411" ht="21" spans="1:4">
       <c r="A411" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B411" s="13" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C411" s="18"/>
       <c r="D411" s="8"/>
     </row>
     <row r="412" ht="21" spans="1:4">
       <c r="A412" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B412" s="13" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C412" s="18"/>
       <c r="D412" s="8"/>
     </row>
     <row r="413" ht="21" spans="1:4">
       <c r="A413" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B413" s="13" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C413" s="18"/>
       <c r="D413" s="8"/>
     </row>
     <row r="414" ht="21" spans="1:4">
       <c r="A414" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B414" s="13" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C414" s="18"/>
       <c r="D414" s="8"/>
     </row>
     <row r="415" ht="21" spans="1:4">
       <c r="A415" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B415" s="13" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C415" s="18"/>
       <c r="D415" s="8"/>
     </row>
     <row r="416" ht="21" spans="1:4">
       <c r="A416" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B416" s="13" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C416" s="18"/>
       <c r="D416" s="8"/>
     </row>
     <row r="417" ht="21" spans="1:4">
       <c r="A417" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B417" s="13" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C417" s="18"/>
       <c r="D417" s="8"/>
     </row>
     <row r="418" ht="21" spans="1:4">
       <c r="A418" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B418" s="13" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C418" s="18"/>
       <c r="D418" s="8"/>
     </row>
     <row r="419" ht="21" spans="1:4">
       <c r="A419" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B419" s="13" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C419" s="18"/>
       <c r="D419" s="8"/>
     </row>
     <row r="420" ht="21" spans="1:4">
       <c r="A420" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B420" s="13" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C420" s="18"/>
       <c r="D420" s="8"/>
     </row>
     <row r="421" ht="21" spans="1:4">
       <c r="A421" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B421" s="13" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C421" s="18"/>
       <c r="D421" s="8"/>
     </row>
     <row r="422" ht="21" spans="1:4">
       <c r="A422" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B422" s="13" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C422" s="18"/>
       <c r="D422" s="8"/>
     </row>
     <row r="423" ht="21" spans="1:4">
       <c r="A423" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B423" s="13" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C423" s="18"/>
       <c r="D423" s="8"/>
     </row>
     <row r="424" ht="21" spans="1:4">
       <c r="A424" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B424" s="13" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C424" s="18"/>
       <c r="D424" s="8"/>
     </row>
     <row r="425" ht="21" spans="1:4">
       <c r="A425" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B425" s="13" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C425" s="18"/>
       <c r="D425" s="8"/>
     </row>
     <row r="426" ht="21" spans="1:4">
       <c r="A426" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B426" s="13" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C426" s="18"/>
       <c r="D426" s="8"/>
     </row>
     <row r="427" ht="21" spans="1:4">
       <c r="A427" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B427" s="13" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C427" s="18"/>
       <c r="D427" s="8"/>
     </row>
     <row r="428" ht="21" spans="1:4">
       <c r="A428" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B428" s="13" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C428" s="18"/>
       <c r="D428" s="8"/>
     </row>
     <row r="429" ht="21" spans="1:4">
       <c r="A429" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B429" s="13" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C429" s="18"/>
       <c r="D429" s="8"/>
     </row>
     <row r="430" ht="21" spans="1:4">
       <c r="A430" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B430" s="13" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C430" s="18"/>
       <c r="D430" s="8"/>
     </row>
     <row r="431" ht="21" spans="1:4">
       <c r="A431" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B431" s="13" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C431" s="18"/>
       <c r="D431" s="8"/>
     </row>
     <row r="432" ht="21" spans="1:4">
       <c r="A432" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B432" s="13" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C432" s="18"/>
       <c r="D432" s="8"/>
     </row>
     <row r="433" ht="21" spans="1:4">
       <c r="A433" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B433" s="13" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C433" s="18"/>
       <c r="D433" s="8"/>
     </row>
     <row r="434" ht="21" spans="1:4">
       <c r="A434" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B434" s="13" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C434" s="18"/>
       <c r="D434" s="8"/>
     </row>
     <row r="435" ht="21" spans="1:4">
       <c r="A435" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B435" s="13" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C435" s="18"/>
       <c r="D435" s="8"/>
     </row>
     <row r="436" ht="21" spans="1:4">
       <c r="A436" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B436" s="13" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C436" s="18"/>
       <c r="D436" s="8"/>
     </row>
     <row r="437" ht="21" spans="1:4">
       <c r="A437" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B437" s="13" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C437" s="18"/>
       <c r="D437" s="8"/>
     </row>
     <row r="438" ht="21" spans="1:4">
       <c r="A438" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B438" s="13" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C438" s="18"/>
       <c r="D438" s="8"/>
     </row>
     <row r="439" ht="21" spans="1:4">
       <c r="A439" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B439" s="13" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C439" s="18"/>
       <c r="D439" s="8"/>
     </row>
     <row r="440" ht="21" spans="1:4">
       <c r="A440" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B440" s="13" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C440" s="18"/>
       <c r="D440" s="8"/>
     </row>
     <row r="441" ht="21" spans="1:4">
       <c r="A441" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B441" s="13" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C441" s="18"/>
       <c r="D441" s="8"/>
     </row>
     <row r="442" ht="21" spans="1:4">
       <c r="A442" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B442" s="13" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C442" s="18"/>
       <c r="D442" s="8"/>
     </row>
     <row r="443" ht="21" spans="1:4">
       <c r="A443" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B443" s="13" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C443" s="18"/>
       <c r="D443" s="8"/>
     </row>
     <row r="444" ht="21" spans="1:4">
       <c r="A444" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B444" s="13" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C444" s="18"/>
       <c r="D444" s="8"/>
     </row>
     <row r="445" ht="21" spans="1:4">
       <c r="A445" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B445" s="13" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C445" s="18"/>
       <c r="D445" s="8"/>
     </row>
     <row r="446" ht="21" spans="1:4">
       <c r="A446" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B446" s="13" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C446" s="18"/>
       <c r="D446" s="8"/>
     </row>
     <row r="447" ht="21" spans="1:4">
       <c r="A447" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B447" s="13" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C447" s="18"/>
       <c r="D447" s="8"/>
     </row>
     <row r="448" ht="21" spans="1:4">
       <c r="A448" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B448" s="13" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C448" s="18"/>
       <c r="D448" s="8"/>
     </row>
     <row r="449" ht="21" spans="1:4">
       <c r="A449" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B449" s="13" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C449" s="18"/>
       <c r="D449" s="8"/>
     </row>
     <row r="450" ht="21" spans="1:4">
       <c r="A450" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B450" s="13" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C450" s="18"/>
       <c r="D450" s="8"/>
     </row>
     <row r="451" ht="21" spans="1:4">
       <c r="A451" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B451" s="13" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C451" s="18"/>
       <c r="D451" s="8"/>
     </row>
     <row r="452" ht="21" spans="1:4">
       <c r="A452" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B452" s="13" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C452" s="18"/>
       <c r="D452" s="8"/>
     </row>
     <row r="453" ht="21" spans="1:4">
       <c r="A453" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B453" s="13" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C453" s="18"/>
       <c r="D453" s="8"/>
     </row>
     <row r="454" ht="21" spans="1:4">
       <c r="A454" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B454" s="13" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C454" s="18"/>
       <c r="D454" s="8"/>
     </row>
     <row r="455" ht="21" spans="1:4">
       <c r="A455" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B455" s="13" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C455" s="18"/>
       <c r="D455" s="8"/>
     </row>
     <row r="456" ht="21" spans="1:4">
       <c r="A456" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B456" s="13" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C456" s="18"/>
       <c r="D456" s="8"/>
     </row>
     <row r="457" ht="21" spans="1:4">
       <c r="A457" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B457" s="13" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C457" s="18"/>
       <c r="D457" s="8"/>
     </row>
     <row r="458" ht="21" spans="1:4">
       <c r="A458" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B458" s="13" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C458" s="18"/>
       <c r="D458" s="8"/>
     </row>
     <row r="459" ht="21" spans="1:4">
       <c r="A459" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B459" s="13" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C459" s="18"/>
       <c r="D459" s="8"/>
     </row>
     <row r="460" ht="21" spans="1:4">
       <c r="A460" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B460" s="13" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C460" s="18"/>
       <c r="D460" s="8"/>
     </row>
     <row r="461" ht="21" spans="1:4">
       <c r="A461" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B461" s="13" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C461" s="18"/>
       <c r="D461" s="8"/>
     </row>
     <row r="462" ht="21" spans="1:4">
       <c r="A462" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B462" s="13" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C462" s="18"/>
       <c r="D462" s="8"/>
     </row>
     <row r="463" ht="21" spans="1:4">
       <c r="A463" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B463" s="13" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C463" s="18"/>
       <c r="D463" s="8"/>
     </row>
     <row r="464" ht="21" spans="1:4">
       <c r="A464" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B464" s="13" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C464" s="18"/>
       <c r="D464" s="8"/>
     </row>
     <row r="465" ht="21" spans="1:4">
       <c r="A465" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B465" s="13" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C465" s="18"/>
       <c r="D465" s="8"/>
     </row>
     <row r="466" ht="21" spans="1:4">
       <c r="A466" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B466" s="13" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C466" s="18"/>
       <c r="D466" s="8"/>
     </row>
     <row r="467" ht="21" spans="1:4">
       <c r="A467" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B467" s="13" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C467" s="18"/>
       <c r="D467" s="8"/>
     </row>
     <row r="468" ht="21" spans="1:4">
       <c r="A468" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B468" s="13" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C468" s="18"/>
       <c r="D468" s="8"/>
     </row>
     <row r="469" ht="21" spans="1:4">
       <c r="A469" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B469" s="13" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C469" s="18"/>
       <c r="D469" s="8"/>
@@ -7521,100 +7534,100 @@
     </row>
     <row r="472" ht="21" spans="1:4">
       <c r="A472" s="9" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B472" s="13" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C472" s="18"/>
       <c r="D472" s="8"/>
     </row>
     <row r="473" ht="21" spans="1:4">
       <c r="A473" s="9" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B473" s="13" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C473" s="18"/>
       <c r="D473" s="8"/>
     </row>
     <row r="474" ht="21" spans="1:4">
       <c r="A474" s="9" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B474" s="13" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C474" s="18"/>
       <c r="D474" s="8"/>
     </row>
     <row r="475" ht="21" spans="1:4">
       <c r="A475" s="9" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B475" s="13" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C475" s="18"/>
       <c r="D475" s="8"/>
     </row>
     <row r="476" ht="21" spans="1:4">
       <c r="A476" s="9" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B476" s="13" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C476" s="18"/>
       <c r="D476" s="8"/>
     </row>
     <row r="477" ht="21" spans="1:4">
       <c r="A477" s="9" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B477" s="13" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C477" s="18"/>
       <c r="D477" s="8"/>
     </row>
     <row r="478" ht="21" spans="1:4">
       <c r="A478" s="9" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B478" s="13" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C478" s="18"/>
       <c r="D478" s="8"/>
     </row>
     <row r="479" ht="21" spans="1:4">
       <c r="A479" s="9" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B479" s="13" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C479" s="18"/>
       <c r="D479" s="8"/>
     </row>
     <row r="480" ht="21" spans="1:4">
       <c r="A480" s="9" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B480" s="13" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C480" s="18"/>
       <c r="D480" s="8"/>
     </row>
     <row r="481" ht="21" spans="1:4">
       <c r="A481" s="9" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B481" s="13" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C481" s="18"/>
       <c r="D481" s="8"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="529">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1667,10 +1667,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1759,38 +1759,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1813,52 +1805,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1867,14 +1830,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1889,7 +1845,51 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1940,7 +1940,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1952,175 +2108,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2162,6 +2162,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2171,26 +2186,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2211,6 +2211,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2225,30 +2240,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2259,148 +2250,157 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2771,8 +2771,8 @@
   <sheetPr/>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -3935,110 +3935,116 @@
       <c r="A101" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B101" s="13" t="s">
+      <c r="B101" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C101" s="18"/>
+      <c r="C101" s="14"/>
       <c r="D101" s="8"/>
     </row>
     <row r="102" ht="21" spans="1:4">
       <c r="A102" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B102" s="13" t="s">
+      <c r="B102" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C102" s="18"/>
+      <c r="C102" s="14"/>
       <c r="D102" s="8"/>
     </row>
     <row r="103" ht="21" spans="1:4">
       <c r="A103" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B103" s="13" t="s">
+      <c r="B103" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C103" s="18"/>
+      <c r="C103" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D103" s="8"/>
     </row>
     <row r="104" ht="21" spans="1:4">
       <c r="A104" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B104" s="13" t="s">
+      <c r="B104" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C104" s="18"/>
+      <c r="C104" s="14"/>
       <c r="D104" s="8"/>
     </row>
     <row r="105" ht="21" spans="1:4">
       <c r="A105" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B105" s="13" t="s">
+      <c r="B105" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C105" s="18"/>
+      <c r="C105" s="14"/>
       <c r="D105" s="8"/>
     </row>
     <row r="106" ht="21" spans="1:4">
       <c r="A106" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B106" s="13" t="s">
+      <c r="B106" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C106" s="18"/>
+      <c r="C106" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="D106" s="8"/>
     </row>
     <row r="107" ht="21" spans="1:4">
       <c r="A107" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B107" s="13" t="s">
+      <c r="B107" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C107" s="18"/>
+      <c r="C107" s="14"/>
       <c r="D107" s="8"/>
     </row>
     <row r="108" ht="21" spans="1:4">
       <c r="A108" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B108" s="13" t="s">
+      <c r="B108" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C108" s="18"/>
+      <c r="C108" s="14"/>
       <c r="D108" s="8"/>
     </row>
     <row r="109" ht="21" spans="1:4">
       <c r="A109" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B109" s="13" t="s">
+      <c r="B109" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C109" s="18"/>
+      <c r="C109" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D109" s="8"/>
     </row>
     <row r="110" ht="21" spans="1:4">
       <c r="A110" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B110" s="13" t="s">
+      <c r="B110" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C110" s="18"/>
+      <c r="C110" s="14"/>
       <c r="D110" s="8"/>
     </row>
     <row r="111" ht="21" spans="1:4">
       <c r="A111" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B111" s="13" t="s">
+      <c r="B111" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C111" s="18"/>
+      <c r="C111" s="14"/>
       <c r="D111" s="8"/>
     </row>
     <row r="112" ht="21" spans="1:4">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="556">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -489,42 +489,75 @@
     <t>Convert a Sentence into its equivalent mobile numeric keypad sequence.</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/String/Sentence%20to%20mobile%20keybad%20sequence.cpp</t>
+  </si>
+  <si>
     <t>Minimum number of bracket reversals needed to make an expression balanced.</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/String/Bracket%20reversal%20to%20make%20expression%20balanced.cpp</t>
+  </si>
+  <si>
     <t>Count All Palindromic Subsequence in a given String.</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/String/Count%20Palindromic%20Subsequences.cpp</t>
+  </si>
+  <si>
     <t>Count of number of given string in 2D character array</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/String/Number%20of%20given%20string%20in%20Matrix.cpp</t>
+  </si>
+  <si>
     <t>Search a Word in a 2D Grid of characters.</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/String/Find%20the%20string%20in%20grid.cpp</t>
+  </si>
+  <si>
     <t>Boyer Moore Algorithm for Pattern Searching.</t>
   </si>
   <si>
     <t>Converting Roman Numerals to Decimal</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/String/Roman%20Number%20to%20Integer.cpp</t>
+  </si>
+  <si>
     <t>Longest Common Prefix</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/String/Longest%20Common%20Prefix.cpp</t>
+  </si>
+  <si>
     <t>Number of flips to make binary string alternate</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/String/Min%20Number%20of%20Flips.cpp</t>
+  </si>
+  <si>
     <t>Find the first repeated word in string.</t>
   </si>
   <si>
     <t>Minimum number of swaps for bracket balancing.</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/String/Minimum%20Swaps%20for%20Bracket%20Balancing.cpp</t>
+  </si>
+  <si>
     <t>Find the longest common subsequence between two strings.</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/String/Longest%20Common%20Subsequence.cpp</t>
+  </si>
+  <si>
     <t>Program to generate all possible valid IP addresses from given  string.</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/String/Restore%20IP%20Address.cpp</t>
+  </si>
+  <si>
     <t>Write a program tofind the smallest window that contains all characters of string itself.</t>
   </si>
   <si>
@@ -534,9 +567,15 @@
     <t>Minimum characters to be added at front to make string palindrome</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/String/Minimum%20characters%20to%20prepend%20to%20make%20palindrome.cpp</t>
+  </si>
+  <si>
     <t>Given a sequence of words, print all anagrams together</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/String/Print%20Anagrams%20Together.cpp</t>
+  </si>
+  <si>
     <t>Find the smallest window in a string containing all characters of another string</t>
   </si>
   <si>
@@ -549,33 +588,60 @@
     <t>String matching where one string contains wildcard characters</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/String/Wildcard%20Pattern%20Matching.cpp</t>
+  </si>
+  <si>
     <t>Function to find Number of customers who could not get a computer</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/String/Check%20if%20all%20customers%20can%20get%20computer.cpp</t>
+  </si>
+  <si>
     <t>Transform One String to Another using Minimum Number of Given Operation</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/String/Transform%20string%20with%20minimum%20operations.cpp</t>
+  </si>
+  <si>
     <t>Check if two given strings are isomorphic to each other</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/String/Isomorphic%20Strings.cpp</t>
+  </si>
+  <si>
     <t>Recursively print all sentences that can be formed from list of word lists</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/String/Recursive%20print%20all%20strings%20from%20list%20of%20words.cpp</t>
+  </si>
+  <si>
     <t>Searching &amp; Sorting</t>
   </si>
   <si>
     <t>Find first and last positions of an element in a sorted array</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/First%20and%20last%20occurrences%20of%20x.cpp</t>
+  </si>
+  <si>
     <t>Find a Fixed Point (Value equal to index) in a given array</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Value%20equal%20to%20index%20value.cpp</t>
+  </si>
+  <si>
     <t>Search in a rotated sorted array</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Search%20in%20Rotated%20Sorted%20Array.cpp</t>
+  </si>
+  <si>
     <t>square root of an integer</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Count%20Sqaures.cpp</t>
+  </si>
+  <si>
     <t>Maximum and minimum of an array using minimum number of comparisons</t>
   </si>
   <si>
@@ -585,18 +651,33 @@
     <t>Find the repeating and the missing</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Find%20Missing%20And%20Repeating.cpp</t>
+  </si>
+  <si>
     <t>find majority element</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Find%20Majority%20element.cpp</t>
+  </si>
+  <si>
     <t>Searching in an array where adjacent differ by at most k</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Search%20in%20array%20if%20adjacent%20differ%20by%20k.cpp</t>
+  </si>
+  <si>
     <t>find a pair with a given difference</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Find%20Pair%20given%20difference.cpp</t>
+  </si>
+  <si>
     <t>find four elements that sum to a given value</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Four%20sum.cpp</t>
+  </si>
+  <si>
     <t>maximum sum such that no 2 elements are adjacent</t>
   </si>
   <si>
@@ -1587,7 +1668,7 @@
     <t>Coin game winner where every player has three choices</t>
   </si>
   <si>
-    <t>Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]</t>
+    <t>Count Derangements (Permutation such that no element appears in its original position) [ IMP ]</t>
   </si>
   <si>
     <t>Maximum profit by buying and selling a share at most twice [ IMP ]</t>
@@ -2771,14 +2852,14 @@
   <sheetPr/>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B456" sqref="B456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
-    <col min="2" max="2" width="114" customWidth="1"/>
+    <col min="2" max="2" width="109.125" customWidth="1"/>
     <col min="3" max="3" width="20.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="91.375" customWidth="1"/>
   </cols>
@@ -3665,60 +3746,70 @@
         <v>137</v>
       </c>
       <c r="C75" s="14"/>
-      <c r="D75" s="8"/>
+      <c r="D75" s="13" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="76" ht="21" spans="1:4">
       <c r="A76" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C76" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="8"/>
+      <c r="D76" s="13" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="77" ht="21" spans="1:4">
       <c r="A77" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C77" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D77" s="8"/>
+      <c r="D77" s="13" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="78" ht="21" spans="1:4">
       <c r="A78" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C78" s="14"/>
-      <c r="D78" s="8"/>
+      <c r="D78" s="13" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="79" ht="21" spans="1:4">
       <c r="A79" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C79" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D79" s="8"/>
+      <c r="D79" s="13" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="80" ht="21" spans="1:4">
       <c r="A80" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C80" s="17"/>
       <c r="D80" s="8"/>
@@ -3728,37 +3819,43 @@
         <v>100</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C81" s="14"/>
-      <c r="D81" s="8"/>
+      <c r="D81" s="13" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="82" ht="21" spans="1:4">
       <c r="A82" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C82" s="14"/>
-      <c r="D82" s="8"/>
+      <c r="D82" s="13" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="83" ht="21" spans="1:4">
       <c r="A83" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C83" s="14"/>
-      <c r="D83" s="8"/>
+      <c r="D83" s="13" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="84" ht="21" spans="1:4">
       <c r="A84" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C84" s="14"/>
       <c r="D84" s="8"/>
@@ -3768,43 +3865,49 @@
         <v>100</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C85" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D85" s="8"/>
+      <c r="D85" s="13" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="86" ht="21" spans="1:4">
       <c r="A86" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C86" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D86" s="8"/>
+      <c r="D86" s="13" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="87" ht="21" spans="1:4">
       <c r="A87" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D87" s="8"/>
+      <c r="D87" s="13" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="88" ht="21" spans="1:4">
       <c r="A88" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C88" s="14" t="s">
         <v>12</v>
@@ -3816,7 +3919,7 @@
         <v>100</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C89" s="14" t="s">
         <v>12</v>
@@ -3828,32 +3931,36 @@
         <v>100</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C90" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D90" s="8"/>
+      <c r="D90" s="13" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="91" ht="21" spans="1:4">
       <c r="A91" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="C91" s="14"/>
-      <c r="D91" s="8"/>
+      <c r="D91" s="13" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="92" ht="21" spans="1:4">
       <c r="A92" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="D92" s="8"/>
     </row>
@@ -3862,64 +3969,76 @@
         <v>100</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="C93" s="14"/>
-      <c r="D93" s="8"/>
+      <c r="D93" s="13" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="94" ht="21" spans="1:4">
       <c r="A94" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="C94" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D94" s="8"/>
+      <c r="D94" s="13" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="95" ht="21" spans="1:4">
       <c r="A95" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="C95" s="14"/>
-      <c r="D95" s="8"/>
+      <c r="D95" s="13" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="96" ht="21" spans="1:4">
       <c r="A96" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="C96" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D96" s="8"/>
+      <c r="D96" s="13" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="97" ht="21" spans="1:4">
       <c r="A97" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="C97" s="14"/>
-      <c r="D97" s="8"/>
+      <c r="D97" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="98" ht="21" spans="1:4">
       <c r="A98" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="C98" s="14"/>
-      <c r="D98" s="8"/>
+      <c r="D98" s="13" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="99" ht="21" spans="3:4">
       <c r="C99" s="15"/>
@@ -3933,62 +4052,70 @@
     </row>
     <row r="101" ht="21" spans="1:4">
       <c r="A101" s="9" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="C101" s="14"/>
-      <c r="D101" s="8"/>
+      <c r="D101" s="13" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="102" ht="21" spans="1:4">
       <c r="A102" s="9" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="C102" s="14"/>
-      <c r="D102" s="8"/>
+      <c r="D102" s="13" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="103" ht="21" spans="1:4">
       <c r="A103" s="9" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="C103" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D103" s="8"/>
+      <c r="D103" s="13" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="104" ht="21" spans="1:4">
       <c r="A104" s="9" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="C104" s="14"/>
-      <c r="D104" s="8"/>
+      <c r="D104" s="13" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="105" ht="21" spans="1:4">
       <c r="A105" s="9" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="C105" s="14"/>
       <c r="D105" s="8"/>
     </row>
     <row r="106" ht="21" spans="1:4">
       <c r="A106" s="9" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="C106" s="18" t="s">
         <v>12</v>
@@ -3997,302 +4124,324 @@
     </row>
     <row r="107" ht="21" spans="1:4">
       <c r="A107" s="9" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="C107" s="14"/>
-      <c r="D107" s="8"/>
+      <c r="D107" s="13" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="108" ht="21" spans="1:4">
       <c r="A108" s="9" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="C108" s="14"/>
-      <c r="D108" s="8"/>
+      <c r="D108" s="13" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="109" ht="21" spans="1:4">
       <c r="A109" s="9" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="C109" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D109" s="8"/>
+      <c r="D109" s="13" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="110" ht="21" spans="1:4">
       <c r="A110" s="9" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="C110" s="14"/>
-      <c r="D110" s="8"/>
+      <c r="D110" s="13" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="111" ht="21" spans="1:4">
       <c r="A111" s="9" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="C111" s="14"/>
-      <c r="D111" s="8"/>
+      <c r="D111" s="13" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="112" ht="21" spans="1:4">
       <c r="A112" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B112" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C112" s="18"/>
+        <v>180</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C112" s="14"/>
       <c r="D112" s="8"/>
     </row>
     <row r="113" ht="21" spans="1:4">
       <c r="A113" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B113" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="C113" s="18"/>
+        <v>180</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C113" s="14"/>
       <c r="D113" s="8"/>
     </row>
     <row r="114" ht="21" spans="1:4">
       <c r="A114" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B114" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="C114" s="18"/>
+        <v>180</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C114" s="14"/>
       <c r="D114" s="8"/>
     </row>
     <row r="115" ht="21" spans="1:4">
       <c r="A115" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B115" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="C115" s="18"/>
+        <v>180</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C115" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D115" s="8"/>
     </row>
     <row r="116" ht="21" spans="1:4">
       <c r="A116" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B116" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="C116" s="18"/>
+        <v>180</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C116" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D116" s="8"/>
     </row>
     <row r="117" ht="21" spans="1:4">
       <c r="A117" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B117" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C117" s="18"/>
+        <v>180</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C117" s="14"/>
       <c r="D117" s="8"/>
     </row>
     <row r="118" ht="21" spans="1:4">
       <c r="A118" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B118" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="C118" s="18"/>
+      <c r="B118" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C118" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D118" s="8"/>
     </row>
     <row r="119" ht="21" spans="1:4">
       <c r="A119" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B119" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="C119" s="18"/>
+        <v>180</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C119" s="14"/>
       <c r="D119" s="8"/>
     </row>
     <row r="120" ht="21" spans="1:4">
       <c r="A120" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B120" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="C120" s="18"/>
       <c r="D120" s="8"/>
     </row>
     <row r="121" ht="21" spans="1:4">
       <c r="A121" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B121" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C121" s="18"/>
+        <v>180</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C121" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D121" s="8"/>
     </row>
     <row r="122" ht="21" spans="1:4">
       <c r="A122" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B122" s="13" t="s">
-        <v>184</v>
+        <v>180</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>211</v>
       </c>
       <c r="C122" s="18"/>
       <c r="D122" s="8"/>
     </row>
     <row r="123" ht="21" spans="1:4">
       <c r="A123" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B123" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C123" s="18"/>
+        <v>180</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C123" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D123" s="8"/>
     </row>
     <row r="124" ht="21" spans="1:4">
       <c r="A124" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B124" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="C124" s="18"/>
+        <v>180</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C124" s="14"/>
       <c r="D124" s="8"/>
     </row>
     <row r="125" ht="21" spans="1:4">
       <c r="A125" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B125" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="C125" s="18"/>
+        <v>180</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C125" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D125" s="8"/>
     </row>
     <row r="126" ht="21" spans="1:4">
       <c r="A126" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B126" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="C126" s="18"/>
+        <v>180</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C126" s="14"/>
       <c r="D126" s="8"/>
     </row>
     <row r="127" ht="21" spans="1:4">
       <c r="A127" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B127" s="13" t="s">
-        <v>189</v>
+        <v>180</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="C127" s="18"/>
       <c r="D127" s="8"/>
     </row>
     <row r="128" ht="21" spans="1:4">
       <c r="A128" s="9" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="C128" s="18"/>
       <c r="D128" s="8"/>
     </row>
     <row r="129" ht="21" spans="1:4">
       <c r="A129" s="9" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="C129" s="18"/>
       <c r="D129" s="8"/>
     </row>
     <row r="130" ht="21" spans="1:4">
       <c r="A130" s="9" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="C130" s="18"/>
       <c r="D130" s="8"/>
     </row>
     <row r="131" ht="21" spans="1:4">
       <c r="A131" s="9" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="C131" s="18"/>
       <c r="D131" s="8"/>
     </row>
     <row r="132" ht="21" spans="1:4">
       <c r="A132" s="9" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="C132" s="18"/>
       <c r="D132" s="8"/>
     </row>
     <row r="133" ht="21" spans="1:4">
       <c r="A133" s="9" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="C133" s="18"/>
       <c r="D133" s="8"/>
     </row>
     <row r="134" ht="21" spans="1:4">
       <c r="A134" s="9" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="C134" s="18"/>
       <c r="D134" s="8"/>
     </row>
     <row r="135" ht="21" spans="1:4">
       <c r="A135" s="9" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="C135" s="18"/>
       <c r="D135" s="8"/>
     </row>
     <row r="136" ht="21" spans="1:4">
       <c r="A136" s="9" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="C136" s="18"/>
       <c r="D136" s="8"/>
@@ -4308,360 +4457,360 @@
     </row>
     <row r="139" ht="21" spans="1:4">
       <c r="A139" s="16" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="C139" s="18"/>
       <c r="D139" s="8"/>
     </row>
     <row r="140" ht="21" spans="1:4">
       <c r="A140" s="16" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="C140" s="18"/>
       <c r="D140" s="8"/>
     </row>
     <row r="141" ht="21" spans="1:4">
       <c r="A141" s="16" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="C141" s="18"/>
       <c r="D141" s="8"/>
     </row>
     <row r="142" ht="21" spans="1:4">
       <c r="A142" s="16" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="C142" s="18"/>
       <c r="D142" s="8"/>
     </row>
     <row r="143" ht="21" spans="1:4">
       <c r="A143" s="16" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="C143" s="18"/>
       <c r="D143" s="8"/>
     </row>
     <row r="144" ht="21" spans="1:4">
       <c r="A144" s="16" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="C144" s="18"/>
       <c r="D144" s="8"/>
     </row>
     <row r="145" ht="21" spans="1:4">
       <c r="A145" s="16" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="C145" s="18"/>
       <c r="D145" s="8"/>
     </row>
     <row r="146" ht="21" spans="1:4">
       <c r="A146" s="16" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="C146" s="18"/>
       <c r="D146" s="8"/>
     </row>
     <row r="147" ht="21" spans="1:4">
       <c r="A147" s="16" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="C147" s="18"/>
       <c r="D147" s="8"/>
     </row>
     <row r="148" ht="21" spans="1:4">
       <c r="A148" s="16" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="C148" s="18"/>
       <c r="D148" s="8"/>
     </row>
     <row r="149" ht="21" spans="1:4">
       <c r="A149" s="16" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="C149" s="18"/>
       <c r="D149" s="8"/>
     </row>
     <row r="150" ht="21" spans="1:4">
       <c r="A150" s="16" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="C150" s="18"/>
       <c r="D150" s="8"/>
     </row>
     <row r="151" ht="21" spans="1:4">
       <c r="A151" s="16" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="C151" s="18"/>
       <c r="D151" s="8"/>
     </row>
     <row r="152" ht="21" spans="1:4">
       <c r="A152" s="16" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="C152" s="18"/>
       <c r="D152" s="8"/>
     </row>
     <row r="153" ht="21" spans="1:4">
       <c r="A153" s="16" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="C153" s="18"/>
       <c r="D153" s="8"/>
     </row>
     <row r="154" ht="21" spans="1:4">
       <c r="A154" s="16" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="C154" s="18"/>
       <c r="D154" s="8"/>
     </row>
     <row r="155" ht="21" spans="1:4">
       <c r="A155" s="16" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="C155" s="18"/>
       <c r="D155" s="8"/>
     </row>
     <row r="156" ht="21" spans="1:4">
       <c r="A156" s="16" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="C156" s="18"/>
       <c r="D156" s="8"/>
     </row>
     <row r="157" ht="21" spans="1:4">
       <c r="A157" s="16" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="C157" s="18"/>
       <c r="D157" s="8"/>
     </row>
     <row r="158" ht="21" spans="1:4">
       <c r="A158" s="16" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="C158" s="18"/>
       <c r="D158" s="8"/>
     </row>
     <row r="159" ht="21" spans="1:4">
       <c r="A159" s="16" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="C159" s="18"/>
       <c r="D159" s="8"/>
     </row>
     <row r="160" ht="21" spans="1:4">
       <c r="A160" s="16" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="C160" s="18"/>
       <c r="D160" s="8"/>
     </row>
     <row r="161" ht="21" spans="1:4">
       <c r="A161" s="16" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="C161" s="18"/>
       <c r="D161" s="8"/>
     </row>
     <row r="162" ht="21" spans="1:4">
       <c r="A162" s="16" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="C162" s="18"/>
       <c r="D162" s="8"/>
     </row>
     <row r="163" ht="21" spans="1:4">
       <c r="A163" s="16" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="C163" s="18"/>
       <c r="D163" s="8"/>
     </row>
     <row r="164" ht="21" spans="1:4">
       <c r="A164" s="16" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="C164" s="17"/>
       <c r="D164" s="8"/>
     </row>
     <row r="165" ht="21" spans="1:4">
       <c r="A165" s="16" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="C165" s="17"/>
       <c r="D165" s="8"/>
     </row>
     <row r="166" ht="21" spans="1:4">
       <c r="A166" s="16" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="C166" s="18"/>
       <c r="D166" s="8"/>
     </row>
     <row r="167" ht="21" spans="1:4">
       <c r="A167" s="16" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="C167" s="18"/>
       <c r="D167" s="8"/>
     </row>
     <row r="168" ht="21" spans="1:4">
       <c r="A168" s="16" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="C168" s="18"/>
       <c r="D168" s="8"/>
     </row>
     <row r="169" ht="21" spans="1:4">
       <c r="A169" s="16" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="B169" s="13" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="C169" s="18"/>
       <c r="D169" s="8"/>
     </row>
     <row r="170" ht="21" spans="1:4">
       <c r="A170" s="16" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="C170" s="18"/>
       <c r="D170" s="8"/>
     </row>
     <row r="171" ht="21" spans="1:4">
       <c r="A171" s="16" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="B171" s="13" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="C171" s="18"/>
       <c r="D171" s="8"/>
     </row>
     <row r="172" ht="21" spans="1:4">
       <c r="A172" s="16" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="C172" s="18"/>
       <c r="D172" s="8"/>
     </row>
     <row r="173" ht="21" spans="1:4">
       <c r="A173" s="16" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="C173" s="18"/>
       <c r="D173" s="8"/>
     </row>
     <row r="174" ht="21" spans="1:4">
       <c r="A174" s="16" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="C174" s="18"/>
       <c r="D174" s="8"/>
@@ -4677,350 +4826,350 @@
     </row>
     <row r="177" ht="21" spans="1:4">
       <c r="A177" s="9" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="B177" s="13" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="C177" s="18"/>
       <c r="D177" s="8"/>
     </row>
     <row r="178" ht="21" spans="1:4">
       <c r="A178" s="9" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="C178" s="18"/>
       <c r="D178" s="8"/>
     </row>
     <row r="179" ht="21" spans="1:4">
       <c r="A179" s="9" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="B179" s="13" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="C179" s="18"/>
       <c r="D179" s="8"/>
     </row>
     <row r="180" ht="21" spans="1:4">
       <c r="A180" s="9" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="C180" s="18"/>
       <c r="D180" s="8"/>
     </row>
     <row r="181" ht="21" spans="1:4">
       <c r="A181" s="9" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="B181" s="13" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="C181" s="18"/>
       <c r="D181" s="8"/>
     </row>
     <row r="182" ht="21" spans="1:4">
       <c r="A182" s="9" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="C182" s="18"/>
       <c r="D182" s="8"/>
     </row>
     <row r="183" ht="21" spans="1:4">
       <c r="A183" s="9" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="B183" s="13" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="C183" s="18"/>
       <c r="D183" s="8"/>
     </row>
     <row r="184" ht="21" spans="1:4">
       <c r="A184" s="9" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="C184" s="18"/>
       <c r="D184" s="8"/>
     </row>
     <row r="185" ht="21" spans="1:4">
       <c r="A185" s="9" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="B185" s="13" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C185" s="18"/>
       <c r="D185" s="8"/>
     </row>
     <row r="186" ht="21" spans="1:4">
       <c r="A186" s="9" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="C186" s="18"/>
       <c r="D186" s="8"/>
     </row>
     <row r="187" ht="21" spans="1:4">
       <c r="A187" s="9" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="B187" s="13" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="C187" s="18"/>
       <c r="D187" s="8"/>
     </row>
     <row r="188" ht="21" spans="1:4">
       <c r="A188" s="9" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="C188" s="18"/>
       <c r="D188" s="8"/>
     </row>
     <row r="189" ht="21" spans="1:4">
       <c r="A189" s="9" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="B189" s="13" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="C189" s="18"/>
       <c r="D189" s="8"/>
     </row>
     <row r="190" ht="21" spans="1:4">
       <c r="A190" s="9" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="C190" s="18"/>
       <c r="D190" s="8"/>
     </row>
     <row r="191" ht="21" spans="1:4">
       <c r="A191" s="9" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="B191" s="13" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="C191" s="18"/>
       <c r="D191" s="8"/>
     </row>
     <row r="192" ht="21" spans="1:4">
       <c r="A192" s="9" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="C192" s="18"/>
       <c r="D192" s="8"/>
     </row>
     <row r="193" ht="21" spans="1:4">
       <c r="A193" s="9" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="C193" s="18"/>
       <c r="D193" s="8"/>
     </row>
     <row r="194" ht="21" spans="1:4">
       <c r="A194" s="9" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="C194" s="18"/>
       <c r="D194" s="8"/>
     </row>
     <row r="195" ht="21" spans="1:4">
       <c r="A195" s="9" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="C195" s="18"/>
       <c r="D195" s="8"/>
     </row>
     <row r="196" ht="21" spans="1:4">
       <c r="A196" s="9" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="C196" s="18"/>
       <c r="D196" s="8"/>
     </row>
     <row r="197" ht="21" spans="1:4">
       <c r="A197" s="9" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="B197" s="13" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="C197" s="18"/>
       <c r="D197" s="8"/>
     </row>
     <row r="198" ht="21" spans="1:4">
       <c r="A198" s="9" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="C198" s="18"/>
       <c r="D198" s="8"/>
     </row>
     <row r="199" ht="21" spans="1:4">
       <c r="A199" s="9" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="B199" s="13" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="C199" s="18"/>
       <c r="D199" s="8"/>
     </row>
     <row r="200" ht="21" spans="1:4">
       <c r="A200" s="9" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="C200" s="18"/>
       <c r="D200" s="8"/>
     </row>
     <row r="201" ht="21" spans="1:4">
       <c r="A201" s="9" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="B201" s="13" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="C201" s="18"/>
       <c r="D201" s="8"/>
     </row>
     <row r="202" ht="21" spans="1:4">
       <c r="A202" s="9" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="B202" s="13" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="C202" s="18"/>
       <c r="D202" s="8"/>
     </row>
     <row r="203" ht="21" spans="1:4">
       <c r="A203" s="9" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="B203" s="13" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="C203" s="18"/>
       <c r="D203" s="8"/>
     </row>
     <row r="204" ht="21" spans="1:4">
       <c r="A204" s="9" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="B204" s="13" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="C204" s="18"/>
       <c r="D204" s="8"/>
     </row>
     <row r="205" ht="21" spans="1:4">
       <c r="A205" s="9" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="B205" s="13" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="C205" s="18"/>
       <c r="D205" s="8"/>
     </row>
     <row r="206" ht="21" spans="1:4">
       <c r="A206" s="9" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="B206" s="13" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="C206" s="18"/>
       <c r="D206" s="8"/>
     </row>
     <row r="207" ht="21" spans="1:4">
       <c r="A207" s="9" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="B207" s="13" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="C207" s="18"/>
       <c r="D207" s="8"/>
     </row>
     <row r="208" ht="21" spans="1:4">
       <c r="A208" s="9" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="C208" s="18"/>
       <c r="D208" s="8"/>
     </row>
     <row r="209" ht="21" spans="1:4">
       <c r="A209" s="9" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="C209" s="18"/>
       <c r="D209" s="8"/>
     </row>
     <row r="210" ht="21" spans="1:4">
       <c r="A210" s="9" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="B210" s="13" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="C210" s="18"/>
       <c r="D210" s="8"/>
     </row>
     <row r="211" ht="21" spans="1:4">
       <c r="A211" s="9" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="B211" s="13" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="C211" s="18"/>
       <c r="D211" s="8"/>
@@ -5039,220 +5188,220 @@
     </row>
     <row r="214" ht="21" spans="1:4">
       <c r="A214" s="9" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="B214" s="13" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="C214" s="18"/>
       <c r="D214" s="8"/>
     </row>
     <row r="215" ht="21" spans="1:4">
       <c r="A215" s="9" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="B215" s="13" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="C215" s="18"/>
       <c r="D215" s="8"/>
     </row>
     <row r="216" ht="21" spans="1:4">
       <c r="A216" s="9" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="C216" s="18"/>
       <c r="D216" s="8"/>
     </row>
     <row r="217" ht="21" spans="1:4">
       <c r="A217" s="9" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="C217" s="18"/>
       <c r="D217" s="8"/>
     </row>
     <row r="218" ht="21" spans="1:4">
       <c r="A218" s="9" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="B218" s="13" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="C218" s="18"/>
       <c r="D218" s="8"/>
     </row>
     <row r="219" ht="21" spans="1:4">
       <c r="A219" s="9" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="C219" s="18"/>
       <c r="D219" s="8"/>
     </row>
     <row r="220" ht="21" spans="1:4">
       <c r="A220" s="9" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="B220" s="19" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="C220" s="18"/>
       <c r="D220" s="8"/>
     </row>
     <row r="221" ht="21" spans="1:4">
       <c r="A221" s="9" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="C221" s="18"/>
       <c r="D221" s="8"/>
     </row>
     <row r="222" ht="21" spans="1:4">
       <c r="A222" s="9" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="C222" s="18"/>
       <c r="D222" s="8"/>
     </row>
     <row r="223" ht="21" spans="1:4">
       <c r="A223" s="9" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="B223" s="13" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="C223" s="18"/>
       <c r="D223" s="8"/>
     </row>
     <row r="224" ht="21" spans="1:4">
       <c r="A224" s="9" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="C224" s="18"/>
       <c r="D224" s="8"/>
     </row>
     <row r="225" ht="21" spans="1:4">
       <c r="A225" s="9" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="B225" s="13" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="C225" s="18"/>
       <c r="D225" s="8"/>
     </row>
     <row r="226" ht="21" spans="1:4">
       <c r="A226" s="9" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="B226" s="13" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="C226" s="18"/>
       <c r="D226" s="8"/>
     </row>
     <row r="227" ht="21" spans="1:4">
       <c r="A227" s="9" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="B227" s="13" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="C227" s="18"/>
       <c r="D227" s="8"/>
     </row>
     <row r="228" ht="21" spans="1:4">
       <c r="A228" s="9" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="B228" s="13" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="C228" s="18"/>
       <c r="D228" s="8"/>
     </row>
     <row r="229" ht="21" spans="1:4">
       <c r="A229" s="9" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="B229" s="13" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="C229" s="18"/>
       <c r="D229" s="8"/>
     </row>
     <row r="230" ht="21" spans="1:4">
       <c r="A230" s="9" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="B230" s="13" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="C230" s="18"/>
       <c r="D230" s="8"/>
     </row>
     <row r="231" ht="21" spans="1:4">
       <c r="A231" s="9" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="B231" s="13" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="C231" s="18"/>
       <c r="D231" s="8"/>
     </row>
     <row r="232" ht="21" spans="1:4">
       <c r="A232" s="9" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="B232" s="13" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="C232" s="18"/>
       <c r="D232" s="8"/>
     </row>
     <row r="233" ht="21" spans="1:4">
       <c r="A233" s="9" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="B233" s="13" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="C233" s="18"/>
       <c r="D233" s="8"/>
     </row>
     <row r="234" ht="21" spans="1:4">
       <c r="A234" s="9" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="C234" s="18"/>
       <c r="D234" s="8"/>
     </row>
     <row r="235" ht="21" spans="1:4">
       <c r="A235" s="9" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="B235" s="13" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="C235" s="18"/>
       <c r="D235" s="8"/>
@@ -5269,350 +5418,350 @@
     </row>
     <row r="238" ht="21" spans="1:4">
       <c r="A238" s="9" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="C238" s="18"/>
       <c r="D238" s="8"/>
     </row>
     <row r="239" ht="21" spans="1:4">
       <c r="A239" s="9" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="B239" s="13" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="C239" s="18"/>
       <c r="D239" s="8"/>
     </row>
     <row r="240" ht="21" spans="1:4">
       <c r="A240" s="9" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="B240" s="13" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="C240" s="18"/>
       <c r="D240" s="8"/>
     </row>
     <row r="241" ht="21" spans="1:4">
       <c r="A241" s="9" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="B241" s="13" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="C241" s="18"/>
       <c r="D241" s="8"/>
     </row>
     <row r="242" ht="21" spans="1:4">
       <c r="A242" s="9" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="B242" s="13" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="C242" s="18"/>
       <c r="D242" s="8"/>
     </row>
     <row r="243" ht="21" spans="1:4">
       <c r="A243" s="9" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="B243" s="13" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="C243" s="18"/>
       <c r="D243" s="8"/>
     </row>
     <row r="244" ht="21" spans="1:4">
       <c r="A244" s="9" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="B244" s="13" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="C244" s="18"/>
       <c r="D244" s="8"/>
     </row>
     <row r="245" ht="21" spans="1:4">
       <c r="A245" s="9" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="B245" s="13" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="C245" s="18"/>
       <c r="D245" s="8"/>
     </row>
     <row r="246" ht="21" spans="1:4">
       <c r="A246" s="9" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="B246" s="13" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="C246" s="18"/>
       <c r="D246" s="8"/>
     </row>
     <row r="247" ht="21" spans="1:4">
       <c r="A247" s="9" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="B247" s="13" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="C247" s="18"/>
       <c r="D247" s="8"/>
     </row>
     <row r="248" ht="21" spans="1:4">
       <c r="A248" s="9" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="B248" s="13" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="C248" s="18"/>
       <c r="D248" s="8"/>
     </row>
     <row r="249" ht="21" spans="1:4">
       <c r="A249" s="9" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="B249" s="13" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="C249" s="18"/>
       <c r="D249" s="8"/>
     </row>
     <row r="250" ht="21" spans="1:4">
       <c r="A250" s="9" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="B250" s="13" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="C250" s="18"/>
       <c r="D250" s="8"/>
     </row>
     <row r="251" ht="21" spans="1:4">
       <c r="A251" s="9" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="B251" s="13" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="C251" s="18"/>
       <c r="D251" s="8"/>
     </row>
     <row r="252" ht="21" spans="1:4">
       <c r="A252" s="9" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="B252" s="13" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="C252" s="18"/>
       <c r="D252" s="8"/>
     </row>
     <row r="253" ht="21" spans="1:4">
       <c r="A253" s="9" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="B253" s="13" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="C253" s="18"/>
       <c r="D253" s="8"/>
     </row>
     <row r="254" ht="21" spans="1:4">
       <c r="A254" s="9" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="B254" s="13" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="C254" s="18"/>
       <c r="D254" s="8"/>
     </row>
     <row r="255" ht="21" spans="1:4">
       <c r="A255" s="9" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="B255" s="13" t="s">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="C255" s="18"/>
       <c r="D255" s="8"/>
     </row>
     <row r="256" ht="21" spans="1:4">
       <c r="A256" s="9" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="B256" s="13" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="C256" s="18"/>
       <c r="D256" s="8"/>
     </row>
     <row r="257" ht="21" spans="1:4">
       <c r="A257" s="9" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="B257" s="13" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="C257" s="18"/>
       <c r="D257" s="8"/>
     </row>
     <row r="258" ht="21" spans="1:4">
       <c r="A258" s="9" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="B258" s="13" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="C258" s="18"/>
       <c r="D258" s="8"/>
     </row>
     <row r="259" ht="21" spans="1:4">
       <c r="A259" s="9" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="B259" s="13" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="C259" s="18"/>
       <c r="D259" s="8"/>
     </row>
     <row r="260" ht="21" spans="1:4">
       <c r="A260" s="9" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="B260" s="13" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="C260" s="18"/>
       <c r="D260" s="8"/>
     </row>
     <row r="261" ht="21" spans="1:4">
       <c r="A261" s="9" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="B261" s="13" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="C261" s="18"/>
       <c r="D261" s="8"/>
     </row>
     <row r="262" ht="21" spans="1:4">
       <c r="A262" s="9" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="B262" s="13" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="C262" s="18"/>
       <c r="D262" s="8"/>
     </row>
     <row r="263" ht="21" spans="1:4">
       <c r="A263" s="9" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="B263" s="13" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="C263" s="18"/>
       <c r="D263" s="8"/>
     </row>
     <row r="264" ht="21" spans="1:4">
       <c r="A264" s="9" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="B264" s="13" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="C264" s="18"/>
       <c r="D264" s="8"/>
     </row>
     <row r="265" ht="21" spans="1:4">
       <c r="A265" s="9" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="B265" s="13" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="C265" s="18"/>
       <c r="D265" s="8"/>
     </row>
     <row r="266" ht="21" spans="1:4">
       <c r="A266" s="9" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="B266" s="13" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="C266" s="18"/>
       <c r="D266" s="8"/>
     </row>
     <row r="267" ht="21" spans="1:4">
       <c r="A267" s="9" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="B267" s="13" t="s">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="C267" s="18"/>
       <c r="D267" s="8"/>
     </row>
     <row r="268" ht="21" spans="1:4">
       <c r="A268" s="9" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="B268" s="13" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="C268" s="18"/>
       <c r="D268" s="8"/>
     </row>
     <row r="269" ht="21" spans="1:4">
       <c r="A269" s="9" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="B269" s="13" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="C269" s="18"/>
       <c r="D269" s="8"/>
     </row>
     <row r="270" ht="21" spans="1:4">
       <c r="A270" s="9" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="B270" s="13" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="C270" s="18"/>
       <c r="D270" s="8"/>
     </row>
     <row r="271" ht="21" spans="1:4">
       <c r="A271" s="9" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="B271" s="13" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C271" s="18"/>
       <c r="D271" s="8"/>
     </row>
     <row r="272" ht="21" spans="1:4">
       <c r="A272" s="9" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="B272" s="13" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="C272" s="18"/>
       <c r="D272" s="8"/>
@@ -5629,190 +5778,190 @@
     </row>
     <row r="275" ht="21" spans="1:4">
       <c r="A275" s="9" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="B275" s="13" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="C275" s="18"/>
       <c r="D275" s="8"/>
     </row>
     <row r="276" ht="21" spans="1:4">
       <c r="A276" s="9" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="B276" s="13" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="C276" s="18"/>
       <c r="D276" s="8"/>
     </row>
     <row r="277" ht="21" spans="1:4">
       <c r="A277" s="9" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="B277" s="13" t="s">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="C277" s="18"/>
       <c r="D277" s="8"/>
     </row>
     <row r="278" ht="21" spans="1:4">
       <c r="A278" s="9" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="B278" s="13" t="s">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="C278" s="18"/>
       <c r="D278" s="8"/>
     </row>
     <row r="279" ht="21" spans="1:4">
       <c r="A279" s="9" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="B279" s="13" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="C279" s="18"/>
       <c r="D279" s="8"/>
     </row>
     <row r="280" ht="21" spans="1:4">
       <c r="A280" s="9" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="B280" s="13" t="s">
-        <v>336</v>
+        <v>363</v>
       </c>
       <c r="C280" s="18"/>
       <c r="D280" s="8"/>
     </row>
     <row r="281" ht="21" spans="1:4">
       <c r="A281" s="9" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="B281" s="13" t="s">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="C281" s="18"/>
       <c r="D281" s="8"/>
     </row>
     <row r="282" ht="21" spans="1:4">
       <c r="A282" s="9" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="B282" s="13" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="C282" s="18"/>
       <c r="D282" s="8"/>
     </row>
     <row r="283" ht="21" spans="1:4">
       <c r="A283" s="9" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="B283" s="13" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="C283" s="18"/>
       <c r="D283" s="8"/>
     </row>
     <row r="284" ht="21" spans="1:4">
       <c r="A284" s="9" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="B284" s="13" t="s">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="C284" s="18"/>
       <c r="D284" s="8"/>
     </row>
     <row r="285" ht="21" spans="1:4">
       <c r="A285" s="9" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="B285" s="13" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="C285" s="18"/>
       <c r="D285" s="8"/>
     </row>
     <row r="286" ht="21" spans="1:4">
       <c r="A286" s="9" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="B286" s="13" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="C286" s="18"/>
       <c r="D286" s="8"/>
     </row>
     <row r="287" ht="21" spans="1:4">
       <c r="A287" s="9" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="B287" s="13" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="C287" s="18"/>
       <c r="D287" s="8"/>
     </row>
     <row r="288" ht="21" spans="1:4">
       <c r="A288" s="9" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="B288" s="13" t="s">
-        <v>344</v>
+        <v>371</v>
       </c>
       <c r="C288" s="18"/>
       <c r="D288" s="8"/>
     </row>
     <row r="289" ht="21" spans="1:4">
       <c r="A289" s="9" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="B289" s="13" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="C289" s="18"/>
       <c r="D289" s="8"/>
     </row>
     <row r="290" ht="21" spans="1:4">
       <c r="A290" s="9" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="B290" s="13" t="s">
-        <v>346</v>
+        <v>373</v>
       </c>
       <c r="C290" s="18"/>
       <c r="D290" s="8"/>
     </row>
     <row r="291" ht="21" spans="1:4">
       <c r="A291" s="9" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="B291" s="13" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="C291" s="18"/>
       <c r="D291" s="8"/>
     </row>
     <row r="292" ht="21" spans="1:4">
       <c r="A292" s="9" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="B292" s="13" t="s">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="C292" s="18"/>
       <c r="D292" s="8"/>
     </row>
     <row r="293" ht="21" spans="1:4">
       <c r="A293" s="9" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="B293" s="13" t="s">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="C293" s="18"/>
       <c r="D293" s="8"/>
@@ -5829,380 +5978,380 @@
     </row>
     <row r="296" ht="21" spans="1:4">
       <c r="A296" s="9" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="B296" s="13" t="s">
-        <v>351</v>
+        <v>378</v>
       </c>
       <c r="C296" s="18"/>
       <c r="D296" s="8"/>
     </row>
     <row r="297" ht="21" spans="1:4">
       <c r="A297" s="9" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="B297" s="13" t="s">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="C297" s="18"/>
       <c r="D297" s="8"/>
     </row>
     <row r="298" ht="21" spans="1:4">
       <c r="A298" s="9" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="B298" s="13" t="s">
-        <v>353</v>
+        <v>380</v>
       </c>
       <c r="C298" s="18"/>
       <c r="D298" s="8"/>
     </row>
     <row r="299" ht="21" spans="1:4">
       <c r="A299" s="9" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="B299" s="13" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="C299" s="18"/>
       <c r="D299" s="8"/>
     </row>
     <row r="300" ht="21" spans="1:4">
       <c r="A300" s="9" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="B300" s="13" t="s">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="C300" s="18"/>
       <c r="D300" s="8"/>
     </row>
     <row r="301" ht="21" spans="1:4">
       <c r="A301" s="9" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="B301" s="13" t="s">
-        <v>356</v>
+        <v>383</v>
       </c>
       <c r="C301" s="18"/>
       <c r="D301" s="8"/>
     </row>
     <row r="302" ht="21" spans="1:4">
       <c r="A302" s="9" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="B302" s="13" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="C302" s="18"/>
       <c r="D302" s="8"/>
     </row>
     <row r="303" ht="21" spans="1:4">
       <c r="A303" s="9" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="B303" s="13" t="s">
-        <v>358</v>
+        <v>385</v>
       </c>
       <c r="C303" s="18"/>
       <c r="D303" s="8"/>
     </row>
     <row r="304" ht="21" spans="1:4">
       <c r="A304" s="9" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="B304" s="13" t="s">
-        <v>359</v>
+        <v>386</v>
       </c>
       <c r="C304" s="18"/>
       <c r="D304" s="8"/>
     </row>
     <row r="305" ht="21" spans="1:4">
       <c r="A305" s="9" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="B305" s="13" t="s">
-        <v>360</v>
+        <v>387</v>
       </c>
       <c r="C305" s="18"/>
       <c r="D305" s="8"/>
     </row>
     <row r="306" ht="21" spans="1:4">
       <c r="A306" s="9" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="B306" s="13" t="s">
-        <v>361</v>
+        <v>388</v>
       </c>
       <c r="C306" s="18"/>
       <c r="D306" s="8"/>
     </row>
     <row r="307" ht="21" spans="1:4">
       <c r="A307" s="9" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="B307" s="13" t="s">
-        <v>362</v>
+        <v>389</v>
       </c>
       <c r="C307" s="18"/>
       <c r="D307" s="8"/>
     </row>
     <row r="308" ht="21" spans="1:4">
       <c r="A308" s="9" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="B308" s="13" t="s">
-        <v>363</v>
+        <v>390</v>
       </c>
       <c r="C308" s="18"/>
       <c r="D308" s="8"/>
     </row>
     <row r="309" ht="21" spans="1:4">
       <c r="A309" s="9" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="B309" s="19" t="s">
-        <v>364</v>
+        <v>391</v>
       </c>
       <c r="C309" s="18"/>
       <c r="D309" s="8"/>
     </row>
     <row r="310" ht="21" spans="1:4">
       <c r="A310" s="9" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="B310" s="13" t="s">
-        <v>365</v>
+        <v>392</v>
       </c>
       <c r="C310" s="18"/>
       <c r="D310" s="8"/>
     </row>
     <row r="311" ht="21" spans="1:4">
       <c r="A311" s="9" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="B311" s="13" t="s">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="C311" s="18"/>
       <c r="D311" s="8"/>
     </row>
     <row r="312" ht="21" spans="1:4">
       <c r="A312" s="9" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="B312" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="C312" s="18"/>
+        <v>394</v>
+      </c>
+      <c r="C312" s="14"/>
       <c r="D312" s="8"/>
     </row>
     <row r="313" ht="21" spans="1:4">
       <c r="A313" s="9" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="B313" s="13" t="s">
-        <v>368</v>
+        <v>395</v>
       </c>
       <c r="C313" s="18"/>
       <c r="D313" s="8"/>
     </row>
     <row r="314" ht="21" spans="1:4">
       <c r="A314" s="9" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="B314" s="13" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="C314" s="18"/>
       <c r="D314" s="8"/>
     </row>
     <row r="315" ht="21" spans="1:4">
       <c r="A315" s="9" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="B315" s="13" t="s">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="C315" s="18"/>
       <c r="D315" s="8"/>
     </row>
     <row r="316" ht="21" spans="1:4">
       <c r="A316" s="9" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="B316" s="13" t="s">
-        <v>371</v>
+        <v>398</v>
       </c>
       <c r="C316" s="18"/>
       <c r="D316" s="8"/>
     </row>
     <row r="317" ht="21" spans="1:4">
       <c r="A317" s="9" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="B317" s="13" t="s">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="C317" s="18"/>
       <c r="D317" s="8"/>
     </row>
     <row r="318" ht="21" spans="1:4">
       <c r="A318" s="9" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="B318" s="13" t="s">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="C318" s="18"/>
       <c r="D318" s="8"/>
     </row>
     <row r="319" ht="21" spans="1:4">
       <c r="A319" s="9" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="B319" s="13" t="s">
-        <v>374</v>
+        <v>401</v>
       </c>
       <c r="C319" s="18"/>
       <c r="D319" s="8"/>
     </row>
     <row r="320" ht="21" spans="1:4">
       <c r="A320" s="9" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="B320" s="13" t="s">
-        <v>375</v>
+        <v>402</v>
       </c>
       <c r="C320" s="18"/>
       <c r="D320" s="8"/>
     </row>
     <row r="321" ht="21" spans="1:4">
       <c r="A321" s="9" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="B321" s="13" t="s">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="C321" s="18"/>
       <c r="D321" s="8"/>
     </row>
     <row r="322" ht="21" spans="1:4">
       <c r="A322" s="9" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="B322" s="13" t="s">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="C322" s="18"/>
       <c r="D322" s="8"/>
     </row>
     <row r="323" ht="21" spans="1:4">
       <c r="A323" s="9" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="B323" s="13" t="s">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="C323" s="18"/>
       <c r="D323" s="8"/>
     </row>
     <row r="324" ht="21" spans="1:4">
       <c r="A324" s="9" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="B324" s="13" t="s">
-        <v>379</v>
+        <v>406</v>
       </c>
       <c r="C324" s="18"/>
       <c r="D324" s="8"/>
     </row>
     <row r="325" ht="21" spans="1:4">
       <c r="A325" s="9" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="B325" s="13" t="s">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="C325" s="18"/>
       <c r="D325" s="8"/>
     </row>
     <row r="326" ht="21" spans="1:4">
       <c r="A326" s="9" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="B326" s="13" t="s">
-        <v>381</v>
+        <v>408</v>
       </c>
       <c r="C326" s="18"/>
       <c r="D326" s="8"/>
     </row>
     <row r="327" ht="21" spans="1:4">
       <c r="A327" s="9" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="B327" s="13" t="s">
-        <v>382</v>
+        <v>409</v>
       </c>
       <c r="C327" s="18"/>
       <c r="D327" s="8"/>
     </row>
     <row r="328" ht="21" spans="1:4">
       <c r="A328" s="9" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="B328" s="13" t="s">
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="C328" s="18"/>
       <c r="D328" s="8"/>
     </row>
     <row r="329" ht="21" spans="1:4">
       <c r="A329" s="9" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="B329" s="13" t="s">
-        <v>384</v>
+        <v>411</v>
       </c>
       <c r="C329" s="18"/>
       <c r="D329" s="8"/>
     </row>
     <row r="330" ht="21" spans="1:4">
       <c r="A330" s="9" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="B330" s="13" t="s">
-        <v>385</v>
+        <v>412</v>
       </c>
       <c r="C330" s="18"/>
       <c r="D330" s="8"/>
     </row>
     <row r="331" ht="21" spans="1:4">
       <c r="A331" s="9" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="B331" s="13" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="C331" s="18"/>
       <c r="D331" s="8"/>
     </row>
     <row r="332" ht="21" spans="1:4">
       <c r="A332" s="9" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="B332" s="13" t="s">
-        <v>387</v>
+        <v>414</v>
       </c>
       <c r="C332" s="18"/>
       <c r="D332" s="8"/>
     </row>
     <row r="333" ht="21" spans="1:4">
       <c r="A333" s="9" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="B333" s="13" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C333" s="18"/>
       <c r="D333" s="8"/>
@@ -6219,180 +6368,180 @@
     </row>
     <row r="336" ht="21" spans="1:4">
       <c r="A336" s="16" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="B336" s="13" t="s">
-        <v>390</v>
+        <v>417</v>
       </c>
       <c r="C336" s="18"/>
       <c r="D336" s="8"/>
     </row>
     <row r="337" ht="21" spans="1:4">
       <c r="A337" s="16" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="B337" s="13" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="C337" s="18"/>
       <c r="D337" s="8"/>
     </row>
     <row r="338" ht="21" spans="1:4">
       <c r="A338" s="16" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="B338" s="13" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="C338" s="18"/>
       <c r="D338" s="8"/>
     </row>
     <row r="339" ht="21" spans="1:4">
       <c r="A339" s="16" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="B339" s="13" t="s">
-        <v>393</v>
+        <v>420</v>
       </c>
       <c r="C339" s="18"/>
       <c r="D339" s="8"/>
     </row>
     <row r="340" ht="21" spans="1:4">
       <c r="A340" s="16" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="B340" s="13" t="s">
-        <v>394</v>
+        <v>421</v>
       </c>
       <c r="C340" s="18"/>
       <c r="D340" s="8"/>
     </row>
     <row r="341" ht="21" spans="1:4">
       <c r="A341" s="16" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="B341" s="13" t="s">
-        <v>395</v>
+        <v>422</v>
       </c>
       <c r="C341" s="18"/>
       <c r="D341" s="8"/>
     </row>
     <row r="342" ht="21" spans="1:4">
       <c r="A342" s="16" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="B342" s="13" t="s">
-        <v>396</v>
+        <v>423</v>
       </c>
       <c r="C342" s="18"/>
       <c r="D342" s="8"/>
     </row>
     <row r="343" ht="21" spans="1:4">
       <c r="A343" s="16" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="B343" s="13" t="s">
-        <v>397</v>
+        <v>424</v>
       </c>
       <c r="C343" s="18"/>
       <c r="D343" s="8"/>
     </row>
     <row r="344" ht="21" spans="1:4">
       <c r="A344" s="16" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="B344" s="19" t="s">
-        <v>398</v>
+        <v>425</v>
       </c>
       <c r="C344" s="18"/>
       <c r="D344" s="8"/>
     </row>
     <row r="345" ht="21" spans="1:4">
       <c r="A345" s="16" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="B345" s="13" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="C345" s="18"/>
       <c r="D345" s="8"/>
     </row>
     <row r="346" ht="21" spans="1:4">
       <c r="A346" s="16" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="B346" s="13" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="C346" s="18"/>
       <c r="D346" s="8"/>
     </row>
     <row r="347" ht="21" spans="1:4">
       <c r="A347" s="16" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="B347" s="13" t="s">
-        <v>401</v>
+        <v>428</v>
       </c>
       <c r="C347" s="18"/>
       <c r="D347" s="8"/>
     </row>
     <row r="348" ht="21" spans="1:4">
       <c r="A348" s="16" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="B348" s="13" t="s">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="C348" s="18"/>
       <c r="D348" s="8"/>
     </row>
     <row r="349" ht="21" spans="1:4">
       <c r="A349" s="16" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="B349" s="13" t="s">
-        <v>403</v>
+        <v>430</v>
       </c>
       <c r="C349" s="18"/>
       <c r="D349" s="8"/>
     </row>
     <row r="350" ht="21" spans="1:4">
       <c r="A350" s="16" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="B350" s="13" t="s">
-        <v>404</v>
+        <v>431</v>
       </c>
       <c r="C350" s="18"/>
       <c r="D350" s="8"/>
     </row>
     <row r="351" ht="21" spans="1:4">
       <c r="A351" s="16" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="B351" s="13" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="C351" s="18"/>
       <c r="D351" s="8"/>
     </row>
     <row r="352" ht="21" spans="1:4">
       <c r="A352" s="16" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="B352" s="13" t="s">
-        <v>406</v>
+        <v>433</v>
       </c>
       <c r="C352" s="18"/>
       <c r="D352" s="8"/>
     </row>
     <row r="353" ht="21" spans="1:4">
       <c r="A353" s="16" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="B353" s="13" t="s">
-        <v>407</v>
+        <v>434</v>
       </c>
       <c r="C353" s="18"/>
       <c r="D353" s="8"/>
@@ -6409,440 +6558,440 @@
     </row>
     <row r="356" ht="21" spans="1:4">
       <c r="A356" s="16" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B356" s="13" t="s">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="C356" s="18"/>
       <c r="D356" s="8"/>
     </row>
     <row r="357" ht="21" spans="1:4">
       <c r="A357" s="16" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B357" s="13" t="s">
-        <v>410</v>
+        <v>437</v>
       </c>
       <c r="C357" s="18"/>
       <c r="D357" s="8"/>
     </row>
     <row r="358" ht="21" spans="1:4">
       <c r="A358" s="16" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B358" s="13" t="s">
-        <v>411</v>
+        <v>438</v>
       </c>
       <c r="C358" s="18"/>
       <c r="D358" s="8"/>
     </row>
     <row r="359" ht="21" spans="1:4">
       <c r="A359" s="16" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B359" s="13" t="s">
-        <v>412</v>
+        <v>439</v>
       </c>
       <c r="C359" s="18"/>
       <c r="D359" s="8"/>
     </row>
     <row r="360" ht="21" spans="1:4">
       <c r="A360" s="16" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B360" s="13" t="s">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="C360" s="18"/>
       <c r="D360" s="8"/>
     </row>
     <row r="361" ht="21" spans="1:4">
       <c r="A361" s="16" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B361" s="13" t="s">
-        <v>414</v>
+        <v>441</v>
       </c>
       <c r="C361" s="18"/>
       <c r="D361" s="8"/>
     </row>
     <row r="362" ht="21" spans="1:4">
       <c r="A362" s="16" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B362" s="13" t="s">
-        <v>415</v>
+        <v>442</v>
       </c>
       <c r="C362" s="18"/>
       <c r="D362" s="8"/>
     </row>
     <row r="363" ht="21" spans="1:4">
       <c r="A363" s="16" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B363" s="13" t="s">
-        <v>416</v>
+        <v>443</v>
       </c>
       <c r="C363" s="18"/>
       <c r="D363" s="8"/>
     </row>
     <row r="364" ht="21" spans="1:4">
       <c r="A364" s="16" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B364" s="13" t="s">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="C364" s="18"/>
       <c r="D364" s="8"/>
     </row>
     <row r="365" ht="21" spans="1:4">
       <c r="A365" s="16" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B365" s="13" t="s">
-        <v>418</v>
+        <v>445</v>
       </c>
       <c r="C365" s="18"/>
       <c r="D365" s="8"/>
     </row>
     <row r="366" ht="21" spans="1:4">
       <c r="A366" s="16" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B366" s="13" t="s">
-        <v>419</v>
+        <v>446</v>
       </c>
       <c r="C366" s="18"/>
       <c r="D366" s="8"/>
     </row>
     <row r="367" ht="21" spans="1:4">
       <c r="A367" s="16" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B367" s="13" t="s">
-        <v>420</v>
+        <v>447</v>
       </c>
       <c r="C367" s="18"/>
       <c r="D367" s="8"/>
     </row>
     <row r="368" ht="21" spans="1:4">
       <c r="A368" s="16" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B368" s="13" t="s">
-        <v>421</v>
+        <v>448</v>
       </c>
       <c r="C368" s="18"/>
       <c r="D368" s="8"/>
     </row>
     <row r="369" ht="21" spans="1:4">
       <c r="A369" s="16" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B369" s="13" t="s">
-        <v>422</v>
+        <v>449</v>
       </c>
       <c r="C369" s="18"/>
       <c r="D369" s="8"/>
     </row>
     <row r="370" ht="21" spans="1:4">
       <c r="A370" s="16" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B370" s="13" t="s">
-        <v>423</v>
+        <v>450</v>
       </c>
       <c r="C370" s="18"/>
       <c r="D370" s="8"/>
     </row>
     <row r="371" ht="21" spans="1:4">
       <c r="A371" s="16" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B371" s="13" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="C371" s="18"/>
       <c r="D371" s="8"/>
     </row>
     <row r="372" ht="21" spans="1:4">
       <c r="A372" s="16" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B372" s="13" t="s">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="C372" s="18"/>
       <c r="D372" s="8"/>
     </row>
     <row r="373" ht="21" spans="1:4">
       <c r="A373" s="16" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B373" s="13" t="s">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="C373" s="18"/>
       <c r="D373" s="8"/>
     </row>
     <row r="374" ht="21" spans="1:4">
       <c r="A374" s="16" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B374" s="13" t="s">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="C374" s="18"/>
       <c r="D374" s="8"/>
     </row>
     <row r="375" ht="21" spans="1:4">
       <c r="A375" s="16" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B375" s="13" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="C375" s="18"/>
       <c r="D375" s="8"/>
     </row>
     <row r="376" ht="21" spans="1:4">
       <c r="A376" s="16" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B376" s="13" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="C376" s="18"/>
       <c r="D376" s="8"/>
     </row>
     <row r="377" ht="21" spans="1:4">
       <c r="A377" s="16" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B377" s="13" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="C377" s="18"/>
       <c r="D377" s="8"/>
     </row>
     <row r="378" ht="21" spans="1:4">
       <c r="A378" s="16" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B378" s="13" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="C378" s="18"/>
       <c r="D378" s="8"/>
     </row>
     <row r="379" ht="21" spans="1:4">
       <c r="A379" s="16" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B379" s="13" t="s">
-        <v>432</v>
+        <v>459</v>
       </c>
       <c r="C379" s="18"/>
       <c r="D379" s="8"/>
     </row>
     <row r="380" ht="21" spans="1:4">
       <c r="A380" s="16" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B380" s="13" t="s">
-        <v>433</v>
+        <v>460</v>
       </c>
       <c r="C380" s="18"/>
       <c r="D380" s="8"/>
     </row>
     <row r="381" ht="21" spans="1:4">
       <c r="A381" s="16" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B381" s="13" t="s">
-        <v>434</v>
+        <v>461</v>
       </c>
       <c r="C381" s="18"/>
       <c r="D381" s="8"/>
     </row>
     <row r="382" ht="21" spans="1:4">
       <c r="A382" s="16" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B382" s="13" t="s">
-        <v>435</v>
+        <v>462</v>
       </c>
       <c r="C382" s="18"/>
       <c r="D382" s="8"/>
     </row>
     <row r="383" ht="21" spans="1:4">
       <c r="A383" s="16" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B383" s="13" t="s">
-        <v>436</v>
+        <v>463</v>
       </c>
       <c r="C383" s="18"/>
       <c r="D383" s="8"/>
     </row>
     <row r="384" ht="21" spans="1:4">
       <c r="A384" s="16" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B384" s="13" t="s">
-        <v>437</v>
+        <v>464</v>
       </c>
       <c r="C384" s="18"/>
       <c r="D384" s="8"/>
     </row>
     <row r="385" ht="21" spans="1:4">
       <c r="A385" s="16" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B385" s="13" t="s">
-        <v>438</v>
+        <v>465</v>
       </c>
       <c r="C385" s="18"/>
       <c r="D385" s="8"/>
     </row>
     <row r="386" ht="21" spans="1:4">
       <c r="A386" s="16" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B386" s="13" t="s">
-        <v>439</v>
+        <v>466</v>
       </c>
       <c r="C386" s="18"/>
       <c r="D386" s="8"/>
     </row>
     <row r="387" ht="21" spans="1:4">
       <c r="A387" s="16" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B387" s="13" t="s">
-        <v>440</v>
+        <v>467</v>
       </c>
       <c r="C387" s="18"/>
       <c r="D387" s="8"/>
     </row>
     <row r="388" ht="21" spans="1:4">
       <c r="A388" s="16" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B388" s="13" t="s">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="C388" s="18"/>
       <c r="D388" s="8"/>
     </row>
     <row r="389" ht="21" spans="1:4">
       <c r="A389" s="16" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B389" s="13" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="C389" s="18"/>
       <c r="D389" s="8"/>
     </row>
     <row r="390" ht="21" spans="1:4">
       <c r="A390" s="16" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B390" s="13" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="C390" s="18"/>
       <c r="D390" s="8"/>
     </row>
     <row r="391" ht="21" spans="1:4">
       <c r="A391" s="16" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B391" s="13" t="s">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="C391" s="18"/>
       <c r="D391" s="8"/>
     </row>
     <row r="392" ht="21" spans="1:4">
       <c r="A392" s="16" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B392" s="13" t="s">
-        <v>444</v>
+        <v>471</v>
       </c>
       <c r="C392" s="18"/>
       <c r="D392" s="8"/>
     </row>
     <row r="393" ht="21" spans="1:4">
       <c r="A393" s="16" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B393" s="13" t="s">
-        <v>445</v>
+        <v>472</v>
       </c>
       <c r="C393" s="18"/>
       <c r="D393" s="8"/>
     </row>
     <row r="394" ht="21" spans="1:4">
       <c r="A394" s="16" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B394" s="13" t="s">
-        <v>446</v>
+        <v>473</v>
       </c>
       <c r="C394" s="18"/>
       <c r="D394" s="8"/>
     </row>
     <row r="395" ht="21" spans="1:4">
       <c r="A395" s="16" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B395" s="13" t="s">
-        <v>447</v>
+        <v>474</v>
       </c>
       <c r="C395" s="18"/>
       <c r="D395" s="8"/>
     </row>
     <row r="396" ht="21" spans="1:4">
       <c r="A396" s="16" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B396" s="13" t="s">
-        <v>448</v>
+        <v>475</v>
       </c>
       <c r="C396" s="18"/>
       <c r="D396" s="8"/>
     </row>
     <row r="397" ht="21" spans="1:4">
       <c r="A397" s="16" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B397" s="13" t="s">
-        <v>449</v>
+        <v>476</v>
       </c>
       <c r="C397" s="18"/>
       <c r="D397" s="8"/>
     </row>
     <row r="398" ht="21" spans="1:4">
       <c r="A398" s="16" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B398" s="13" t="s">
-        <v>450</v>
+        <v>477</v>
       </c>
       <c r="C398" s="18"/>
       <c r="D398" s="8"/>
     </row>
     <row r="399" ht="21" spans="1:4">
       <c r="A399" s="16" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B399" s="13" t="s">
-        <v>451</v>
+        <v>478</v>
       </c>
       <c r="C399" s="18"/>
       <c r="D399" s="8"/>
@@ -6859,60 +7008,60 @@
     </row>
     <row r="402" ht="21" spans="1:4">
       <c r="A402" s="16" t="s">
-        <v>452</v>
+        <v>479</v>
       </c>
       <c r="B402" s="13" t="s">
-        <v>453</v>
+        <v>480</v>
       </c>
       <c r="C402" s="18"/>
       <c r="D402" s="8"/>
     </row>
     <row r="403" ht="21" spans="1:4">
       <c r="A403" s="16" t="s">
-        <v>452</v>
+        <v>479</v>
       </c>
       <c r="B403" s="13" t="s">
-        <v>454</v>
+        <v>481</v>
       </c>
       <c r="C403" s="18"/>
       <c r="D403" s="8"/>
     </row>
     <row r="404" ht="21" spans="1:4">
       <c r="A404" s="16" t="s">
-        <v>452</v>
+        <v>479</v>
       </c>
       <c r="B404" s="13" t="s">
-        <v>455</v>
+        <v>482</v>
       </c>
       <c r="C404" s="18"/>
       <c r="D404" s="8"/>
     </row>
     <row r="405" ht="21" spans="1:4">
       <c r="A405" s="16" t="s">
-        <v>452</v>
+        <v>479</v>
       </c>
       <c r="B405" s="13" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="C405" s="18"/>
       <c r="D405" s="8"/>
     </row>
     <row r="406" ht="21" spans="1:4">
       <c r="A406" s="16" t="s">
-        <v>452</v>
+        <v>479</v>
       </c>
       <c r="B406" s="13" t="s">
-        <v>456</v>
+        <v>483</v>
       </c>
       <c r="C406" s="18"/>
       <c r="D406" s="8"/>
     </row>
     <row r="407" ht="21" spans="1:4">
       <c r="A407" s="16" t="s">
-        <v>452</v>
+        <v>479</v>
       </c>
       <c r="B407" s="13" t="s">
-        <v>457</v>
+        <v>484</v>
       </c>
       <c r="C407" s="18"/>
       <c r="D407" s="8"/>
@@ -6929,600 +7078,600 @@
     </row>
     <row r="410" ht="21" spans="1:4">
       <c r="A410" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B410" s="13" t="s">
-        <v>459</v>
+        <v>486</v>
       </c>
       <c r="C410" s="18"/>
       <c r="D410" s="8"/>
     </row>
     <row r="411" ht="21" spans="1:4">
       <c r="A411" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B411" s="13" t="s">
-        <v>460</v>
+        <v>487</v>
       </c>
       <c r="C411" s="18"/>
       <c r="D411" s="8"/>
     </row>
     <row r="412" ht="21" spans="1:4">
       <c r="A412" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B412" s="13" t="s">
-        <v>461</v>
+        <v>488</v>
       </c>
       <c r="C412" s="18"/>
       <c r="D412" s="8"/>
     </row>
     <row r="413" ht="21" spans="1:4">
       <c r="A413" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B413" s="13" t="s">
-        <v>462</v>
+        <v>489</v>
       </c>
       <c r="C413" s="18"/>
       <c r="D413" s="8"/>
     </row>
     <row r="414" ht="21" spans="1:4">
       <c r="A414" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B414" s="13" t="s">
-        <v>463</v>
+        <v>490</v>
       </c>
       <c r="C414" s="18"/>
       <c r="D414" s="8"/>
     </row>
     <row r="415" ht="21" spans="1:4">
       <c r="A415" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B415" s="13" t="s">
-        <v>464</v>
+        <v>491</v>
       </c>
       <c r="C415" s="18"/>
       <c r="D415" s="8"/>
     </row>
     <row r="416" ht="21" spans="1:4">
       <c r="A416" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B416" s="13" t="s">
-        <v>465</v>
+        <v>492</v>
       </c>
       <c r="C416" s="18"/>
       <c r="D416" s="8"/>
     </row>
     <row r="417" ht="21" spans="1:4">
       <c r="A417" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B417" s="13" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="C417" s="18"/>
       <c r="D417" s="8"/>
     </row>
     <row r="418" ht="21" spans="1:4">
       <c r="A418" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B418" s="13" t="s">
-        <v>466</v>
+        <v>493</v>
       </c>
       <c r="C418" s="18"/>
       <c r="D418" s="8"/>
     </row>
     <row r="419" ht="21" spans="1:4">
       <c r="A419" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B419" s="13" t="s">
-        <v>467</v>
+        <v>494</v>
       </c>
       <c r="C419" s="18"/>
       <c r="D419" s="8"/>
     </row>
     <row r="420" ht="21" spans="1:4">
       <c r="A420" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B420" s="13" t="s">
-        <v>468</v>
+        <v>495</v>
       </c>
       <c r="C420" s="18"/>
       <c r="D420" s="8"/>
     </row>
     <row r="421" ht="21" spans="1:4">
       <c r="A421" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B421" s="13" t="s">
-        <v>469</v>
+        <v>496</v>
       </c>
       <c r="C421" s="18"/>
       <c r="D421" s="8"/>
     </row>
     <row r="422" ht="21" spans="1:4">
       <c r="A422" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B422" s="13" t="s">
-        <v>470</v>
+        <v>497</v>
       </c>
       <c r="C422" s="18"/>
       <c r="D422" s="8"/>
     </row>
     <row r="423" ht="21" spans="1:4">
       <c r="A423" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B423" s="13" t="s">
-        <v>471</v>
+        <v>498</v>
       </c>
       <c r="C423" s="18"/>
       <c r="D423" s="8"/>
     </row>
     <row r="424" ht="21" spans="1:4">
       <c r="A424" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B424" s="13" t="s">
-        <v>472</v>
+        <v>499</v>
       </c>
       <c r="C424" s="18"/>
       <c r="D424" s="8"/>
     </row>
     <row r="425" ht="21" spans="1:4">
       <c r="A425" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B425" s="13" t="s">
-        <v>473</v>
+        <v>500</v>
       </c>
       <c r="C425" s="18"/>
       <c r="D425" s="8"/>
     </row>
     <row r="426" ht="21" spans="1:4">
       <c r="A426" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B426" s="13" t="s">
-        <v>474</v>
+        <v>501</v>
       </c>
       <c r="C426" s="18"/>
       <c r="D426" s="8"/>
     </row>
     <row r="427" ht="21" spans="1:4">
       <c r="A427" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B427" s="13" t="s">
-        <v>475</v>
+        <v>502</v>
       </c>
       <c r="C427" s="18"/>
       <c r="D427" s="8"/>
     </row>
     <row r="428" ht="21" spans="1:4">
       <c r="A428" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B428" s="13" t="s">
-        <v>476</v>
+        <v>503</v>
       </c>
       <c r="C428" s="18"/>
       <c r="D428" s="8"/>
     </row>
     <row r="429" ht="21" spans="1:4">
       <c r="A429" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B429" s="13" t="s">
-        <v>477</v>
+        <v>504</v>
       </c>
       <c r="C429" s="18"/>
       <c r="D429" s="8"/>
     </row>
     <row r="430" ht="21" spans="1:4">
       <c r="A430" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B430" s="13" t="s">
-        <v>478</v>
+        <v>505</v>
       </c>
       <c r="C430" s="18"/>
       <c r="D430" s="8"/>
     </row>
     <row r="431" ht="21" spans="1:4">
       <c r="A431" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B431" s="13" t="s">
-        <v>479</v>
+        <v>506</v>
       </c>
       <c r="C431" s="18"/>
       <c r="D431" s="8"/>
     </row>
     <row r="432" ht="21" spans="1:4">
       <c r="A432" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B432" s="13" t="s">
-        <v>480</v>
+        <v>507</v>
       </c>
       <c r="C432" s="18"/>
       <c r="D432" s="8"/>
     </row>
     <row r="433" ht="21" spans="1:4">
       <c r="A433" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B433" s="13" t="s">
-        <v>481</v>
+        <v>508</v>
       </c>
       <c r="C433" s="18"/>
       <c r="D433" s="8"/>
     </row>
     <row r="434" ht="21" spans="1:4">
       <c r="A434" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B434" s="13" t="s">
-        <v>482</v>
+        <v>509</v>
       </c>
       <c r="C434" s="18"/>
       <c r="D434" s="8"/>
     </row>
     <row r="435" ht="21" spans="1:4">
       <c r="A435" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B435" s="13" t="s">
-        <v>483</v>
+        <v>510</v>
       </c>
       <c r="C435" s="18"/>
       <c r="D435" s="8"/>
     </row>
     <row r="436" ht="21" spans="1:4">
       <c r="A436" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B436" s="13" t="s">
-        <v>484</v>
+        <v>511</v>
       </c>
       <c r="C436" s="18"/>
       <c r="D436" s="8"/>
     </row>
     <row r="437" ht="21" spans="1:4">
       <c r="A437" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B437" s="13" t="s">
-        <v>485</v>
+        <v>512</v>
       </c>
       <c r="C437" s="18"/>
       <c r="D437" s="8"/>
     </row>
     <row r="438" ht="21" spans="1:4">
       <c r="A438" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B438" s="13" t="s">
-        <v>486</v>
+        <v>513</v>
       </c>
       <c r="C438" s="18"/>
       <c r="D438" s="8"/>
     </row>
     <row r="439" ht="21" spans="1:4">
       <c r="A439" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B439" s="13" t="s">
-        <v>487</v>
+        <v>514</v>
       </c>
       <c r="C439" s="18"/>
       <c r="D439" s="8"/>
     </row>
     <row r="440" ht="21" spans="1:4">
       <c r="A440" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B440" s="13" t="s">
-        <v>488</v>
+        <v>515</v>
       </c>
       <c r="C440" s="18"/>
       <c r="D440" s="8"/>
     </row>
     <row r="441" ht="21" spans="1:4">
       <c r="A441" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B441" s="13" t="s">
-        <v>489</v>
+        <v>516</v>
       </c>
       <c r="C441" s="18"/>
       <c r="D441" s="8"/>
     </row>
     <row r="442" ht="21" spans="1:4">
       <c r="A442" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B442" s="13" t="s">
-        <v>490</v>
+        <v>517</v>
       </c>
       <c r="C442" s="18"/>
       <c r="D442" s="8"/>
     </row>
     <row r="443" ht="21" spans="1:4">
       <c r="A443" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B443" s="13" t="s">
-        <v>491</v>
+        <v>518</v>
       </c>
       <c r="C443" s="18"/>
       <c r="D443" s="8"/>
     </row>
     <row r="444" ht="21" spans="1:4">
       <c r="A444" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B444" s="13" t="s">
-        <v>492</v>
+        <v>519</v>
       </c>
       <c r="C444" s="18"/>
       <c r="D444" s="8"/>
     </row>
     <row r="445" ht="21" spans="1:4">
       <c r="A445" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B445" s="13" t="s">
-        <v>493</v>
+        <v>520</v>
       </c>
       <c r="C445" s="18"/>
       <c r="D445" s="8"/>
     </row>
     <row r="446" ht="21" spans="1:4">
       <c r="A446" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B446" s="13" t="s">
-        <v>494</v>
+        <v>521</v>
       </c>
       <c r="C446" s="18"/>
       <c r="D446" s="8"/>
     </row>
     <row r="447" ht="21" spans="1:4">
       <c r="A447" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B447" s="13" t="s">
-        <v>495</v>
+        <v>522</v>
       </c>
       <c r="C447" s="18"/>
       <c r="D447" s="8"/>
     </row>
     <row r="448" ht="21" spans="1:4">
       <c r="A448" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B448" s="13" t="s">
-        <v>496</v>
+        <v>523</v>
       </c>
       <c r="C448" s="18"/>
       <c r="D448" s="8"/>
     </row>
     <row r="449" ht="21" spans="1:4">
       <c r="A449" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B449" s="13" t="s">
-        <v>497</v>
+        <v>524</v>
       </c>
       <c r="C449" s="18"/>
       <c r="D449" s="8"/>
     </row>
     <row r="450" ht="21" spans="1:4">
       <c r="A450" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B450" s="13" t="s">
-        <v>498</v>
+        <v>525</v>
       </c>
       <c r="C450" s="18"/>
       <c r="D450" s="8"/>
     </row>
     <row r="451" ht="21" spans="1:4">
       <c r="A451" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B451" s="13" t="s">
-        <v>499</v>
+        <v>526</v>
       </c>
       <c r="C451" s="18"/>
       <c r="D451" s="8"/>
     </row>
     <row r="452" ht="21" spans="1:4">
       <c r="A452" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B452" s="13" t="s">
-        <v>500</v>
+        <v>527</v>
       </c>
       <c r="C452" s="18"/>
       <c r="D452" s="8"/>
     </row>
     <row r="453" ht="21" spans="1:4">
       <c r="A453" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B453" s="13" t="s">
-        <v>501</v>
+        <v>528</v>
       </c>
       <c r="C453" s="18"/>
       <c r="D453" s="8"/>
     </row>
     <row r="454" ht="21" spans="1:4">
       <c r="A454" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B454" s="13" t="s">
-        <v>502</v>
+        <v>529</v>
       </c>
       <c r="C454" s="18"/>
       <c r="D454" s="8"/>
     </row>
     <row r="455" ht="21" spans="1:4">
       <c r="A455" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B455" s="13" t="s">
-        <v>503</v>
+        <v>530</v>
       </c>
       <c r="C455" s="18"/>
       <c r="D455" s="8"/>
     </row>
     <row r="456" ht="21" spans="1:4">
       <c r="A456" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B456" s="13" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
       <c r="C456" s="18"/>
       <c r="D456" s="8"/>
     </row>
     <row r="457" ht="21" spans="1:4">
       <c r="A457" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B457" s="13" t="s">
-        <v>505</v>
+        <v>532</v>
       </c>
       <c r="C457" s="18"/>
       <c r="D457" s="8"/>
     </row>
     <row r="458" ht="21" spans="1:4">
       <c r="A458" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B458" s="13" t="s">
-        <v>506</v>
+        <v>533</v>
       </c>
       <c r="C458" s="18"/>
       <c r="D458" s="8"/>
     </row>
     <row r="459" ht="21" spans="1:4">
       <c r="A459" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B459" s="13" t="s">
-        <v>507</v>
+        <v>534</v>
       </c>
       <c r="C459" s="18"/>
       <c r="D459" s="8"/>
     </row>
     <row r="460" ht="21" spans="1:4">
       <c r="A460" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B460" s="13" t="s">
-        <v>508</v>
+        <v>535</v>
       </c>
       <c r="C460" s="18"/>
       <c r="D460" s="8"/>
     </row>
     <row r="461" ht="21" spans="1:4">
       <c r="A461" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B461" s="13" t="s">
-        <v>509</v>
+        <v>536</v>
       </c>
       <c r="C461" s="18"/>
       <c r="D461" s="8"/>
     </row>
     <row r="462" ht="21" spans="1:4">
       <c r="A462" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B462" s="13" t="s">
-        <v>510</v>
+        <v>537</v>
       </c>
       <c r="C462" s="18"/>
       <c r="D462" s="8"/>
     </row>
     <row r="463" ht="21" spans="1:4">
       <c r="A463" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B463" s="13" t="s">
-        <v>511</v>
+        <v>538</v>
       </c>
       <c r="C463" s="18"/>
       <c r="D463" s="8"/>
     </row>
     <row r="464" ht="21" spans="1:4">
       <c r="A464" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B464" s="13" t="s">
-        <v>512</v>
+        <v>539</v>
       </c>
       <c r="C464" s="18"/>
       <c r="D464" s="8"/>
     </row>
     <row r="465" ht="21" spans="1:4">
       <c r="A465" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B465" s="13" t="s">
-        <v>513</v>
+        <v>540</v>
       </c>
       <c r="C465" s="18"/>
       <c r="D465" s="8"/>
     </row>
     <row r="466" ht="21" spans="1:4">
       <c r="A466" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B466" s="13" t="s">
-        <v>514</v>
+        <v>541</v>
       </c>
       <c r="C466" s="18"/>
       <c r="D466" s="8"/>
     </row>
     <row r="467" ht="21" spans="1:4">
       <c r="A467" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B467" s="13" t="s">
-        <v>515</v>
+        <v>542</v>
       </c>
       <c r="C467" s="18"/>
       <c r="D467" s="8"/>
     </row>
     <row r="468" ht="21" spans="1:4">
       <c r="A468" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B468" s="13" t="s">
-        <v>516</v>
+        <v>543</v>
       </c>
       <c r="C468" s="18"/>
       <c r="D468" s="8"/>
     </row>
     <row r="469" ht="21" spans="1:4">
       <c r="A469" s="9" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B469" s="13" t="s">
-        <v>517</v>
+        <v>544</v>
       </c>
       <c r="C469" s="18"/>
       <c r="D469" s="8"/>
@@ -7540,100 +7689,100 @@
     </row>
     <row r="472" ht="21" spans="1:4">
       <c r="A472" s="9" t="s">
-        <v>518</v>
+        <v>545</v>
       </c>
       <c r="B472" s="13" t="s">
-        <v>519</v>
+        <v>546</v>
       </c>
       <c r="C472" s="18"/>
       <c r="D472" s="8"/>
     </row>
     <row r="473" ht="21" spans="1:4">
       <c r="A473" s="9" t="s">
-        <v>518</v>
+        <v>545</v>
       </c>
       <c r="B473" s="13" t="s">
-        <v>520</v>
+        <v>547</v>
       </c>
       <c r="C473" s="18"/>
       <c r="D473" s="8"/>
     </row>
     <row r="474" ht="21" spans="1:4">
       <c r="A474" s="9" t="s">
-        <v>518</v>
+        <v>545</v>
       </c>
       <c r="B474" s="13" t="s">
-        <v>521</v>
+        <v>548</v>
       </c>
       <c r="C474" s="18"/>
       <c r="D474" s="8"/>
     </row>
     <row r="475" ht="21" spans="1:4">
       <c r="A475" s="9" t="s">
-        <v>518</v>
+        <v>545</v>
       </c>
       <c r="B475" s="13" t="s">
-        <v>522</v>
+        <v>549</v>
       </c>
       <c r="C475" s="18"/>
       <c r="D475" s="8"/>
     </row>
     <row r="476" ht="21" spans="1:4">
       <c r="A476" s="9" t="s">
-        <v>518</v>
+        <v>545</v>
       </c>
       <c r="B476" s="13" t="s">
-        <v>523</v>
+        <v>550</v>
       </c>
       <c r="C476" s="18"/>
       <c r="D476" s="8"/>
     </row>
     <row r="477" ht="21" spans="1:4">
       <c r="A477" s="9" t="s">
-        <v>518</v>
+        <v>545</v>
       </c>
       <c r="B477" s="13" t="s">
-        <v>524</v>
+        <v>551</v>
       </c>
       <c r="C477" s="18"/>
       <c r="D477" s="8"/>
     </row>
     <row r="478" ht="21" spans="1:4">
       <c r="A478" s="9" t="s">
-        <v>518</v>
+        <v>545</v>
       </c>
       <c r="B478" s="13" t="s">
-        <v>525</v>
+        <v>552</v>
       </c>
       <c r="C478" s="18"/>
       <c r="D478" s="8"/>
     </row>
     <row r="479" ht="21" spans="1:4">
       <c r="A479" s="9" t="s">
-        <v>518</v>
+        <v>545</v>
       </c>
       <c r="B479" s="13" t="s">
-        <v>526</v>
+        <v>553</v>
       </c>
       <c r="C479" s="18"/>
       <c r="D479" s="8"/>
     </row>
     <row r="480" ht="21" spans="1:4">
       <c r="A480" s="9" t="s">
-        <v>518</v>
+        <v>545</v>
       </c>
       <c r="B480" s="13" t="s">
-        <v>527</v>
+        <v>554</v>
       </c>
       <c r="C480" s="18"/>
       <c r="D480" s="8"/>
     </row>
     <row r="481" ht="21" spans="1:4">
       <c r="A481" s="9" t="s">
-        <v>518</v>
+        <v>545</v>
       </c>
       <c r="B481" s="13" t="s">
-        <v>528</v>
+        <v>555</v>
       </c>
       <c r="C481" s="18"/>
       <c r="D481" s="8"/>
@@ -8058,7 +8207,7 @@
     <hyperlink ref="B453" r:id="rId389" display="Longest alternating subsequence"/>
     <hyperlink ref="B454" r:id="rId390" display="Weighted Job Scheduling"/>
     <hyperlink ref="B455" r:id="rId391" display="Coin game winner where every player has three choices"/>
-    <hyperlink ref="B456" r:id="rId392" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
+    <hyperlink ref="B456" r:id="rId392" display="Count Derangements (Permutation such that no element appears in its original position) [ IMP ]"/>
     <hyperlink ref="B457" r:id="rId25" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
     <hyperlink ref="B458" r:id="rId393" display="Optimal Strategy for a Game"/>
     <hyperlink ref="B459" r:id="rId394" display="Optimal Binary Search Tree"/>
@@ -8148,6 +8297,34 @@
     <hyperlink ref="D71" r:id="rId476" display="https://github.com/zee-bit/FINAL450/blob/main/String/Parenthesis%20Checker.cpp"/>
     <hyperlink ref="D72" r:id="rId477" display="https://github.com/zee-bit/FINAL450/blob/main/String/Word%20Break.cpp"/>
     <hyperlink ref="D73" r:id="rId478" display="https://github.com/zee-bit/FINAL450/blob/main/String/Rabin%20Karp.cpp"/>
+    <hyperlink ref="D75" r:id="rId479" display="https://github.com/zee-bit/FINAL450/blob/main/String/Sentence%20to%20mobile%20keybad%20sequence.cpp"/>
+    <hyperlink ref="D76" r:id="rId480" display="https://github.com/zee-bit/FINAL450/blob/main/String/Bracket%20reversal%20to%20make%20expression%20balanced.cpp"/>
+    <hyperlink ref="D77" r:id="rId481" display="https://github.com/zee-bit/FINAL450/blob/main/String/Count%20Palindromic%20Subsequences.cpp"/>
+    <hyperlink ref="D78" r:id="rId482" display="https://github.com/zee-bit/FINAL450/blob/main/String/Number%20of%20given%20string%20in%20Matrix.cpp"/>
+    <hyperlink ref="D79" r:id="rId483" display="https://github.com/zee-bit/FINAL450/blob/main/String/Find%20the%20string%20in%20grid.cpp"/>
+    <hyperlink ref="D81" r:id="rId484" display="https://github.com/zee-bit/FINAL450/blob/main/String/Roman%20Number%20to%20Integer.cpp"/>
+    <hyperlink ref="D82" r:id="rId485" display="https://github.com/zee-bit/FINAL450/blob/main/String/Longest%20Common%20Prefix.cpp"/>
+    <hyperlink ref="D83" r:id="rId486" display="https://github.com/zee-bit/FINAL450/blob/main/String/Min%20Number%20of%20Flips.cpp"/>
+    <hyperlink ref="D85" r:id="rId487" display="https://github.com/zee-bit/FINAL450/blob/main/String/Minimum%20Swaps%20for%20Bracket%20Balancing.cpp"/>
+    <hyperlink ref="D86" r:id="rId488" display="https://github.com/zee-bit/FINAL450/blob/main/String/Longest%20Common%20Subsequence.cpp"/>
+    <hyperlink ref="D87" r:id="rId489" display="https://github.com/zee-bit/FINAL450/blob/main/String/Restore%20IP%20Address.cpp"/>
+    <hyperlink ref="D90" r:id="rId490" display="https://github.com/zee-bit/FINAL450/blob/main/String/Minimum%20characters%20to%20prepend%20to%20make%20palindrome.cpp"/>
+    <hyperlink ref="D91" r:id="rId491" display="https://github.com/zee-bit/FINAL450/blob/main/String/Print%20Anagrams%20Together.cpp"/>
+    <hyperlink ref="D93" r:id="rId464" display="https://github.com/zee-bit/FINAL450/blob/main/String/Duplicates%20in%20input%20string.cpp"/>
+    <hyperlink ref="D94" r:id="rId492" display="https://github.com/zee-bit/FINAL450/blob/main/String/Wildcard%20Pattern%20Matching.cpp"/>
+    <hyperlink ref="D95" r:id="rId493" display="https://github.com/zee-bit/FINAL450/blob/main/String/Check%20if%20all%20customers%20can%20get%20computer.cpp"/>
+    <hyperlink ref="D96" r:id="rId494" display="https://github.com/zee-bit/FINAL450/blob/main/String/Transform%20string%20with%20minimum%20operations.cpp"/>
+    <hyperlink ref="D97" r:id="rId495" display="https://github.com/zee-bit/FINAL450/blob/main/String/Isomorphic%20Strings.cpp"/>
+    <hyperlink ref="D98" r:id="rId496" display="https://github.com/zee-bit/FINAL450/blob/main/String/Recursive%20print%20all%20strings%20from%20list%20of%20words.cpp"/>
+    <hyperlink ref="D101" r:id="rId497" display="https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/First%20and%20last%20occurrences%20of%20x.cpp"/>
+    <hyperlink ref="D102" r:id="rId498" display="https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Value%20equal%20to%20index%20value.cpp"/>
+    <hyperlink ref="D103" r:id="rId499" display="https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Search%20in%20Rotated%20Sorted%20Array.cpp"/>
+    <hyperlink ref="D104" r:id="rId500" display="https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Count%20Sqaures.cpp"/>
+    <hyperlink ref="D107" r:id="rId501" display="https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Find%20Missing%20And%20Repeating.cpp"/>
+    <hyperlink ref="D108" r:id="rId502" display="https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Find%20Majority%20element.cpp"/>
+    <hyperlink ref="D109" r:id="rId503" display="https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Search%20in%20array%20if%20adjacent%20differ%20by%20k.cpp"/>
+    <hyperlink ref="D110" r:id="rId504" display="https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Find%20Pair%20given%20difference.cpp"/>
+    <hyperlink ref="D111" r:id="rId505" display="https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Four%20sum.cpp"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="556">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -744,7 +744,7 @@
     <t>Subset Sums</t>
   </si>
   <si>
-    <t>Findthe inversion count</t>
+    <t>Find the inversion count</t>
   </si>
   <si>
     <t>Implement Merge-sort in-place</t>
@@ -2852,8 +2852,8 @@
   <sheetPr/>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B456" sqref="B456"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -4299,7 +4299,7 @@
       <c r="B122" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C122" s="18"/>
+      <c r="C122" s="17"/>
       <c r="D122" s="8"/>
     </row>
     <row r="123" ht="21" spans="1:4">
@@ -4353,94 +4353,100 @@
       <c r="B127" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C127" s="18"/>
+      <c r="C127" s="14" t="s">
+        <v>117</v>
+      </c>
       <c r="D127" s="8"/>
     </row>
     <row r="128" ht="21" spans="1:4">
       <c r="A128" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B128" s="13" t="s">
+      <c r="B128" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="C128" s="18"/>
+      <c r="C128" s="14"/>
       <c r="D128" s="8"/>
     </row>
     <row r="129" ht="21" spans="1:4">
       <c r="A129" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B129" s="13" t="s">
+      <c r="B129" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="C129" s="18"/>
+      <c r="C129" s="14"/>
       <c r="D129" s="8"/>
     </row>
     <row r="130" ht="21" spans="1:4">
       <c r="A130" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B130" s="13" t="s">
+      <c r="B130" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="C130" s="18"/>
+      <c r="C130" s="14"/>
       <c r="D130" s="8"/>
     </row>
     <row r="131" ht="21" spans="1:4">
       <c r="A131" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B131" s="13" t="s">
+      <c r="B131" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="C131" s="18"/>
+      <c r="C131" s="14"/>
       <c r="D131" s="8"/>
     </row>
     <row r="132" ht="21" spans="1:4">
       <c r="A132" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B132" s="13" t="s">
+      <c r="B132" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="C132" s="18"/>
+      <c r="C132" s="14"/>
       <c r="D132" s="8"/>
     </row>
     <row r="133" ht="21" spans="1:4">
       <c r="A133" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B133" s="13" t="s">
+      <c r="B133" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="C133" s="18"/>
+      <c r="C133" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D133" s="8"/>
     </row>
     <row r="134" ht="21" spans="1:4">
       <c r="A134" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B134" s="13" t="s">
+      <c r="B134" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C134" s="18"/>
+      <c r="C134" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D134" s="8"/>
     </row>
     <row r="135" ht="21" spans="1:4">
       <c r="A135" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B135" s="13" t="s">
+      <c r="B135" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C135" s="18"/>
+      <c r="C135" s="17"/>
       <c r="D135" s="8"/>
     </row>
     <row r="136" ht="21" spans="1:4">
       <c r="A136" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B136" s="13" t="s">
+      <c r="B136" s="10" t="s">
         <v>225</v>
       </c>
       <c r="C136" s="18"/>
@@ -7906,7 +7912,7 @@
     <hyperlink ref="B131" r:id="rId112" display="ROTI-Prata SPOJ"/>
     <hyperlink ref="B132" r:id="rId113" display="DoubleHelix SPOJ"/>
     <hyperlink ref="B133" r:id="rId114" display="Subset Sums"/>
-    <hyperlink ref="B134" r:id="rId15" display="Findthe inversion count"/>
+    <hyperlink ref="B134" r:id="rId15" display="Find the inversion count"/>
     <hyperlink ref="B135" r:id="rId115" display="Implement Merge-sort in-place"/>
     <hyperlink ref="B136" r:id="rId116" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
     <hyperlink ref="B105" r:id="rId117" display="Maximum and minimum of an array using minimum number of comparisons"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1748,9 +1748,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
@@ -1834,7 +1834,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1849,7 +1849,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1862,11 +1870,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1878,9 +1916,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1895,76 +1954,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2021,6 +2021,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2033,19 +2111,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2063,139 +2183,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2243,39 +2243,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2287,6 +2254,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2306,16 +2288,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2335,150 +2317,168 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2852,8 +2852,8 @@
   <sheetPr/>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -4449,7 +4449,7 @@
       <c r="B136" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="C136" s="18"/>
+      <c r="C136" s="17"/>
       <c r="D136" s="8"/>
     </row>
     <row r="137" ht="21" spans="3:4">
@@ -4465,17 +4465,17 @@
       <c r="A139" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B139" s="13" t="s">
+      <c r="B139" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="C139" s="18"/>
+      <c r="C139" s="14"/>
       <c r="D139" s="8"/>
     </row>
     <row r="140" ht="21" spans="1:4">
       <c r="A140" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B140" s="13" t="s">
+      <c r="B140" s="10" t="s">
         <v>228</v>
       </c>
       <c r="C140" s="18"/>
@@ -4485,40 +4485,40 @@
       <c r="A141" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B141" s="13" t="s">
+      <c r="B141" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="C141" s="18"/>
+      <c r="C141" s="14"/>
       <c r="D141" s="8"/>
     </row>
     <row r="142" ht="21" spans="1:4">
       <c r="A142" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B142" s="13" t="s">
+      <c r="B142" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C142" s="18"/>
+      <c r="C142" s="14"/>
       <c r="D142" s="8"/>
     </row>
     <row r="143" ht="21" spans="1:4">
       <c r="A143" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B143" s="13" t="s">
+      <c r="B143" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="C143" s="18"/>
+      <c r="C143" s="14"/>
       <c r="D143" s="8"/>
     </row>
     <row r="144" ht="21" spans="1:4">
       <c r="A144" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B144" s="13" t="s">
+      <c r="B144" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="C144" s="18"/>
+      <c r="C144" s="14"/>
       <c r="D144" s="8"/>
     </row>
     <row r="145" ht="21" spans="1:4">
@@ -4535,17 +4535,17 @@
       <c r="A146" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B146" s="13" t="s">
+      <c r="B146" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C146" s="18"/>
+      <c r="C146" s="14"/>
       <c r="D146" s="8"/>
     </row>
     <row r="147" ht="21" spans="1:4">
       <c r="A147" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B147" s="13" t="s">
+      <c r="B147" s="10" t="s">
         <v>235</v>
       </c>
       <c r="C147" s="18"/>
@@ -4555,30 +4555,30 @@
       <c r="A148" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B148" s="13" t="s">
+      <c r="B148" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="C148" s="18"/>
+      <c r="C148" s="14"/>
       <c r="D148" s="8"/>
     </row>
     <row r="149" ht="21" spans="1:4">
       <c r="A149" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B149" s="13" t="s">
+      <c r="B149" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="C149" s="18"/>
+      <c r="C149" s="14"/>
       <c r="D149" s="8"/>
     </row>
     <row r="150" ht="21" spans="1:4">
       <c r="A150" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B150" s="13" t="s">
+      <c r="B150" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="C150" s="18"/>
+      <c r="C150" s="14"/>
       <c r="D150" s="8"/>
     </row>
     <row r="151" ht="21" spans="1:4">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="556">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -2852,8 +2852,8 @@
   <sheetPr/>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="C150" sqref="C150"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="C160" sqref="C160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -4478,7 +4478,9 @@
       <c r="B140" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="C140" s="18"/>
+      <c r="C140" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D140" s="8"/>
     </row>
     <row r="141" ht="21" spans="1:4">
@@ -4525,10 +4527,10 @@
       <c r="A145" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B145" s="13" t="s">
+      <c r="B145" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="C145" s="18"/>
+      <c r="C145" s="14"/>
       <c r="D145" s="8"/>
     </row>
     <row r="146" ht="21" spans="1:4">
@@ -4585,7 +4587,7 @@
       <c r="A151" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B151" s="13" t="s">
+      <c r="B151" s="10" t="s">
         <v>239</v>
       </c>
       <c r="C151" s="18"/>
@@ -4605,80 +4607,86 @@
       <c r="A153" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B153" s="13" t="s">
+      <c r="B153" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="C153" s="18"/>
+      <c r="C153" s="14"/>
       <c r="D153" s="8"/>
     </row>
     <row r="154" ht="21" spans="1:4">
       <c r="A154" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B154" s="13" t="s">
+      <c r="B154" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="C154" s="18"/>
+      <c r="C154" s="14"/>
       <c r="D154" s="8"/>
     </row>
     <row r="155" ht="21" spans="1:4">
       <c r="A155" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B155" s="13" t="s">
+      <c r="B155" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C155" s="18"/>
+      <c r="C155" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D155" s="8"/>
     </row>
     <row r="156" ht="21" spans="1:4">
       <c r="A156" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B156" s="13" t="s">
+      <c r="B156" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C156" s="18"/>
+      <c r="C156" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D156" s="8"/>
     </row>
     <row r="157" ht="21" spans="1:4">
       <c r="A157" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B157" s="13" t="s">
+      <c r="B157" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="C157" s="18"/>
+      <c r="C157" s="14"/>
       <c r="D157" s="8"/>
     </row>
     <row r="158" ht="21" spans="1:4">
       <c r="A158" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B158" s="13" t="s">
+      <c r="B158" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="C158" s="18"/>
+      <c r="C158" s="14"/>
       <c r="D158" s="8"/>
     </row>
     <row r="159" ht="21" spans="1:4">
       <c r="A159" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B159" s="13" t="s">
+      <c r="B159" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="C159" s="18"/>
+      <c r="C159" s="14"/>
       <c r="D159" s="8"/>
     </row>
     <row r="160" ht="21" spans="1:4">
       <c r="A160" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B160" s="13" t="s">
+      <c r="B160" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C160" s="18"/>
+      <c r="C160" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D160" s="8"/>
     </row>
     <row r="161" ht="21" spans="1:4">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="556">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -828,7 +828,7 @@
     <t>Rotate DoublyLinked list by N nodes.</t>
   </si>
   <si>
-    <t>Rotate a Doubly Linked list in group of Given Size.[Very IMP]</t>
+    <t>Reverse a Doubly Linked list in group of Given Size.[Very IMP]</t>
   </si>
   <si>
     <t>Can we reverse a linked list in less than O(n) ?</t>
@@ -2852,8 +2852,8 @@
   <sheetPr/>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C160" sqref="C160"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="C174" sqref="C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -4693,7 +4693,7 @@
       <c r="A161" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B161" s="13" t="s">
+      <c r="B161" s="10" t="s">
         <v>249</v>
       </c>
       <c r="C161" s="18"/>
@@ -4703,20 +4703,22 @@
       <c r="A162" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B162" s="13" t="s">
+      <c r="B162" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C162" s="18"/>
+      <c r="C162" s="14"/>
       <c r="D162" s="8"/>
     </row>
     <row r="163" ht="21" spans="1:4">
       <c r="A163" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B163" s="13" t="s">
+      <c r="B163" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C163" s="18"/>
+      <c r="C163" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D163" s="8"/>
     </row>
     <row r="164" ht="21" spans="1:4">
@@ -4743,90 +4745,102 @@
       <c r="A166" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B166" s="13" t="s">
+      <c r="B166" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C166" s="18"/>
+      <c r="C166" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D166" s="8"/>
     </row>
     <row r="167" ht="21" spans="1:4">
       <c r="A167" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B167" s="13" t="s">
+      <c r="B167" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="C167" s="18"/>
+      <c r="C167" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D167" s="8"/>
     </row>
     <row r="168" ht="21" spans="1:4">
       <c r="A168" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B168" s="13" t="s">
+      <c r="B168" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="C168" s="18"/>
+      <c r="C168" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D168" s="8"/>
     </row>
     <row r="169" ht="21" spans="1:4">
       <c r="A169" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B169" s="13" t="s">
+      <c r="B169" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="C169" s="18"/>
+      <c r="C169" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="D169" s="8"/>
     </row>
     <row r="170" ht="21" spans="1:4">
       <c r="A170" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B170" s="13" t="s">
+      <c r="B170" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C170" s="18"/>
+      <c r="C170" s="14"/>
       <c r="D170" s="8"/>
     </row>
     <row r="171" ht="21" spans="1:4">
       <c r="A171" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B171" s="13" t="s">
+      <c r="B171" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="C171" s="18"/>
+      <c r="C171" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D171" s="8"/>
     </row>
     <row r="172" ht="21" spans="1:4">
       <c r="A172" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B172" s="13" t="s">
+      <c r="B172" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="C172" s="18"/>
+      <c r="C172" s="14"/>
       <c r="D172" s="8"/>
     </row>
     <row r="173" ht="21" spans="1:4">
       <c r="A173" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B173" s="13" t="s">
+      <c r="B173" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C173" s="18"/>
+      <c r="C173" s="14"/>
       <c r="D173" s="8"/>
     </row>
     <row r="174" ht="21" spans="1:4">
       <c r="A174" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B174" s="13" t="s">
+      <c r="B174" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C174" s="18"/>
+      <c r="C174" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D174" s="8"/>
     </row>
     <row r="175" ht="21" spans="3:4">
@@ -7949,7 +7963,7 @@
     <hyperlink ref="B160" r:id="rId140" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
     <hyperlink ref="B161" r:id="rId141" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
     <hyperlink ref="B162" r:id="rId142" display="Rotate DoublyLinked list by N nodes."/>
-    <hyperlink ref="B163" r:id="rId143" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
+    <hyperlink ref="B163" r:id="rId143" display="Reverse a Doubly Linked list in group of Given Size.[Very IMP]"/>
     <hyperlink ref="B166" r:id="rId144" display="Flatten a Linked List"/>
     <hyperlink ref="B167" r:id="rId145" display="Sort a LL of 0's, 1's and 2's"/>
     <hyperlink ref="B168" r:id="rId146" display="Clone a linked list with next and random pointer"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="600">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -681,33 +681,57 @@
     <t>maximum sum such that no 2 elements are adjacent</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Max%20sum%20with%20no%20adjacent%20element.cpp</t>
+  </si>
+  <si>
     <t>Count triplet with sum smaller than a given value</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Count%20triplets%20with%20sum%20smaller%20than%20X.cpp</t>
+  </si>
+  <si>
     <t>merge 2 sorted arrays</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Merge%20two%20sorted%20arrays.cpp</t>
+  </si>
+  <si>
     <t>print all subarrays with 0 sum</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Subarrays%20with%200%20sum.cpp</t>
+  </si>
+  <si>
     <t>Product array Puzzle</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Product%20array%20Puzzle.cpp</t>
+  </si>
+  <si>
     <t>Sort array according to count of set bits</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Sort%20by%20set%20bit%20count.cpp</t>
+  </si>
+  <si>
     <t>minimum no. of swaps required to sort the array</t>
   </si>
   <si>
     <t>Bishu and Soldiers</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Bishu%20and%20Soldiers.cpp</t>
+  </si>
+  <si>
     <t>Rasta and Kheshtak</t>
   </si>
   <si>
     <t>Kth smallest number again</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Kth%20smallest%20number%20again.cpp</t>
+  </si>
+  <si>
     <t>Find pivot element in a sorted array</t>
   </si>
   <si>
@@ -717,36 +741,63 @@
     <t>Aggressive cows</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Aggressive%20cows.cpp</t>
+  </si>
+  <si>
     <t>Book Allocation Problem</t>
   </si>
   <si>
     <t>EKOSPOJ:</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/EKOSPOJ.cpp</t>
+  </si>
+  <si>
     <t>Job Scheduling Algo</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Job%20Scheduling.cpp</t>
+  </si>
+  <si>
     <t>Missing Number in AP</t>
   </si>
   <si>
     <t>Smallest number with atleastn trailing zeroes infactorial</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Smallest%20factorial%20number.cpp</t>
+  </si>
+  <si>
     <t>Painters Partition Problem:</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Painter%20Partition%20problem.cpp</t>
+  </si>
+  <si>
     <t>ROTI-Prata SPOJ</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/PRATA%20-%20Roti%20Prata.cpp</t>
+  </si>
+  <si>
     <t>DoubleHelix SPOJ</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/ANARC05B%20-%20The%20Double%20HeLiX.cpp</t>
+  </si>
+  <si>
     <t>Subset Sums</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/SUBSUMS%20-%20Subset%20Sums.cpp</t>
+  </si>
+  <si>
     <t>Find the inversion count</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Count%20Inversions.cpp</t>
+  </si>
+  <si>
     <t>Implement Merge-sort in-place</t>
   </si>
   <si>
@@ -759,39 +810,69 @@
     <t>Write a Program to reverse the Linked List. (Both Iterative and recursive)</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Reverse%20a%20LinkedList.cpp</t>
+  </si>
+  <si>
     <t>Reverse a Linked List in group of Given Size. [Very Imp]</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Reverse%20a%20LinkedList%20in%20groups.cpp</t>
+  </si>
+  <si>
     <t>Write a program to Detect loop in a linked list.</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Detect%20loop%20in%20LinkedList.cpp</t>
+  </si>
+  <si>
     <t>Write a program to Delete loop in a linked list.</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Delete%20loop%20in%20a%20LinkedList.cpp</t>
+  </si>
+  <si>
     <t>Find the starting point of the loop. </t>
   </si>
   <si>
     <t>Remove Duplicates in a sorted Linked List.</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Remove%20duplicates%20in%20sorted%20LinkedList.cpp</t>
+  </si>
+  <si>
     <t>Remove Duplicates in a Un-sorted Linked List.</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Remove%20duplicates%20in%20unsorted%20LinkedList.cpp</t>
+  </si>
+  <si>
     <t>Write a Program to Move the last element to Front in a Linked List.</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Move%20last%20element%20to%20first.cpp</t>
+  </si>
+  <si>
     <t>Add “1” to a number represented as a Linked List.</t>
   </si>
   <si>
     <t>Add two numbers represented by linked lists.</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Add%20two%20numbers.cpp</t>
+  </si>
+  <si>
     <t>Intersection of two Sorted Linked List.</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Intersection%20of%20two%20sorted%20Linked%20lists.cpp</t>
+  </si>
+  <si>
     <t>Intersection Point of two Linked Lists.</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Intersection%20point%20in%20Y-shaped%20Linked%20lists.cpp</t>
+  </si>
+  <si>
     <t>Merge Sort For Linked lists.[Very Important]</t>
   </si>
   <si>
@@ -801,33 +882,60 @@
     <t>Find the middle Element of a linked list.</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Find%20the%20middle%20element%20of%20LinkedList.cpp</t>
+  </si>
+  <si>
     <t>Check if a linked list is a circular linked list.</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Check%20circular%20LinkedList.cpp</t>
+  </si>
+  <si>
     <t>Split a Circular linked list into two halves.</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Split%20Circular%20LinkedList%20into%20two%20halves.cpp</t>
+  </si>
+  <si>
     <t>Write a Program to check whether the Singly Linked list is a palindrome or not.</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Check%20palindrome%20LinkedList.cpp</t>
+  </si>
+  <si>
     <t>Deletion from a Circular Linked List.</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Delete%20Node%20of%20Circular%20LinkedList.cpp</t>
+  </si>
+  <si>
     <t>Reverse a Doubly Linked list.</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Reverse%20a%20Doubly%20Linked%20List.cpp</t>
+  </si>
+  <si>
     <t>Find pairs with a given sum in a DLL.</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Find%20pairs%20with%20given%20sum%20in%20DLL.cpp</t>
+  </si>
+  <si>
     <t>Count triplets in a sorted DLL whose sum is equal to given value “X”.</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Triplets%20with%20given%20sum%20in%20DLL.cpp</t>
+  </si>
+  <si>
     <t>Sort a “k”sorted Doubly Linked list.[Very IMP]</t>
   </si>
   <si>
     <t>Rotate DoublyLinked list by N nodes.</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Rotate%20Doubly%20linked%20list%20by%20N%20nodes.cpp</t>
+  </si>
+  <si>
     <t>Reverse a Doubly Linked list in group of Given Size.[Very IMP]</t>
   </si>
   <si>
@@ -840,28 +948,52 @@
     <t>Flatten a Linked List</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Flattening%20a%20Linked%20List.cpp</t>
+  </si>
+  <si>
     <t>Sort a LL of 0's, 1's and 2's</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Sort%20a%20LinkedList%20of%200s-1s-2s.cpp</t>
+  </si>
+  <si>
     <t>Clone a linked list with next and random pointer</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Copy%20LinkedList%20with%20next%20%26%20random%20ptr.cpp</t>
+  </si>
+  <si>
     <t>Merge K sorted Linked list</t>
   </si>
   <si>
     <t>Multiply 2 no. represented by LL</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Multiply%20two%20LinkedLists.cpp</t>
+  </si>
+  <si>
     <t>Delete nodes which have a greater value on right side</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Delete%20nodes%20having%20greater%20value%20on%20right.cpp</t>
+  </si>
+  <si>
     <t>Segregate even and odd nodes in a Linked List</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Separate%20even%20and%20odd%20nodes%20in%20LL.cpp</t>
+  </si>
+  <si>
     <t>Program for n’th node from the end of a Linked List</t>
   </si>
   <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Nth%20node%20from%20end%20of%20linked%20list.cpp</t>
+  </si>
+  <si>
     <t>Find the first non-repeating character from a stream of characters</t>
+  </si>
+  <si>
+    <t>https://github.com/zee-bit/FINAL450/blob/main/LinkedList/First%20non-repeating%20character%20in%20a%20stream.cpp</t>
   </si>
   <si>
     <t>Binary Trees</t>
@@ -1748,9 +1880,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
@@ -1834,22 +1966,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1863,18 +1987,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1886,14 +2003,13 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1909,6 +2025,59 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1916,8 +2085,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1931,46 +2101,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2021,103 +2153,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2135,7 +2177,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2147,31 +2279,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2189,19 +2297,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2243,6 +2375,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2254,21 +2395,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2288,16 +2414,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2318,7 +2444,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2332,156 +2458,162 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2852,8 +2984,8 @@
   <sheetPr/>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="C174" sqref="C174"/>
+    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="C186" sqref="C186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -3043,7 +3175,7 @@
         <v>30</v>
       </c>
       <c r="C17" s="14"/>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3067,7 +3199,7 @@
         <v>33</v>
       </c>
       <c r="C19" s="14"/>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4192,68 +4324,80 @@
         <v>201</v>
       </c>
       <c r="C112" s="14"/>
-      <c r="D112" s="8"/>
+      <c r="D112" s="13" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="113" ht="21" spans="1:4">
       <c r="A113" s="9" t="s">
         <v>180</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C113" s="14"/>
-      <c r="D113" s="8"/>
+      <c r="D113" s="13" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="114" ht="21" spans="1:4">
       <c r="A114" s="9" t="s">
         <v>180</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C114" s="14"/>
-      <c r="D114" s="8"/>
+      <c r="D114" s="13" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="115" ht="21" spans="1:4">
       <c r="A115" s="9" t="s">
         <v>180</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C115" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D115" s="8"/>
+      <c r="D115" s="13" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="116" ht="21" spans="1:4">
       <c r="A116" s="9" t="s">
         <v>180</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C116" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D116" s="8"/>
+      <c r="D116" s="13" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="117" ht="21" spans="1:4">
       <c r="A117" s="9" t="s">
         <v>180</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C117" s="14"/>
-      <c r="D117" s="8"/>
+      <c r="D117" s="13" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="118" ht="21" spans="1:4">
       <c r="A118" s="9" t="s">
         <v>180</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C118" s="14" t="s">
         <v>12</v>
@@ -4265,17 +4409,19 @@
         <v>180</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C119" s="14"/>
-      <c r="D119" s="8"/>
+      <c r="D119" s="13" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="120" ht="21" spans="1:4">
       <c r="A120" s="9" t="s">
         <v>180</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C120" s="18"/>
       <c r="D120" s="8"/>
@@ -4285,19 +4431,21 @@
         <v>180</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C121" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D121" s="8"/>
+      <c r="D121" s="13" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="122" ht="21" spans="1:4">
       <c r="A122" s="9" t="s">
         <v>180</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C122" s="17"/>
       <c r="D122" s="8"/>
@@ -4307,7 +4455,7 @@
         <v>180</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C123" s="14" t="s">
         <v>12</v>
@@ -4319,17 +4467,19 @@
         <v>180</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C124" s="14"/>
-      <c r="D124" s="8"/>
+      <c r="D124" s="13" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="125" ht="21" spans="1:4">
       <c r="A125" s="9" t="s">
         <v>180</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C125" s="14" t="s">
         <v>12</v>
@@ -4341,29 +4491,33 @@
         <v>180</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="C126" s="14"/>
-      <c r="D126" s="8"/>
+      <c r="D126" s="13" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="127" ht="21" spans="1:4">
       <c r="A127" s="9" t="s">
         <v>180</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="C127" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D127" s="8"/>
+      <c r="D127" s="13" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="128" ht="21" spans="1:4">
       <c r="A128" s="9" t="s">
         <v>180</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="C128" s="14"/>
       <c r="D128" s="8"/>
@@ -4373,71 +4527,83 @@
         <v>180</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="C129" s="14"/>
-      <c r="D129" s="8"/>
+      <c r="D129" s="13" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="130" ht="21" spans="1:4">
       <c r="A130" s="9" t="s">
         <v>180</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C130" s="14"/>
-      <c r="D130" s="8"/>
+      <c r="D130" s="13" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="131" ht="21" spans="1:4">
       <c r="A131" s="9" t="s">
         <v>180</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="C131" s="14"/>
-      <c r="D131" s="8"/>
+      <c r="D131" s="13" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="132" ht="21" spans="1:4">
       <c r="A132" s="9" t="s">
         <v>180</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="C132" s="14"/>
-      <c r="D132" s="8"/>
+      <c r="D132" s="13" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="133" ht="21" spans="1:4">
       <c r="A133" s="9" t="s">
         <v>180</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="C133" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D133" s="8"/>
+      <c r="D133" s="13" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="134" ht="21" spans="1:4">
       <c r="A134" s="9" t="s">
         <v>180</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="C134" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D134" s="8"/>
+      <c r="D134" s="13" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="135" ht="21" spans="1:4">
       <c r="A135" s="9" t="s">
         <v>180</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="C135" s="17"/>
       <c r="D135" s="8"/>
@@ -4447,7 +4613,7 @@
         <v>180</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="C136" s="17"/>
       <c r="D136" s="8"/>
@@ -4463,385 +4629,441 @@
     </row>
     <row r="139" ht="21" spans="1:4">
       <c r="A139" s="16" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="C139" s="14"/>
-      <c r="D139" s="8"/>
+      <c r="D139" s="13" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="140" ht="21" spans="1:4">
       <c r="A140" s="16" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="C140" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D140" s="8"/>
+      <c r="D140" s="13" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="141" ht="21" spans="1:4">
       <c r="A141" s="16" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="C141" s="14"/>
-      <c r="D141" s="8"/>
+      <c r="D141" s="13" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="142" ht="21" spans="1:4">
       <c r="A142" s="16" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="C142" s="14"/>
-      <c r="D142" s="8"/>
+      <c r="D142" s="13" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="143" ht="21" spans="1:4">
       <c r="A143" s="16" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="C143" s="14"/>
       <c r="D143" s="8"/>
     </row>
     <row r="144" ht="21" spans="1:4">
       <c r="A144" s="16" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="C144" s="14"/>
-      <c r="D144" s="8"/>
+      <c r="D144" s="13" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="145" ht="21" spans="1:4">
       <c r="A145" s="16" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="C145" s="14"/>
-      <c r="D145" s="8"/>
+      <c r="D145" s="13" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="146" ht="21" spans="1:4">
       <c r="A146" s="16" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="C146" s="14"/>
-      <c r="D146" s="8"/>
+      <c r="D146" s="13" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="147" ht="21" spans="1:4">
       <c r="A147" s="16" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="C147" s="18"/>
       <c r="D147" s="8"/>
     </row>
     <row r="148" ht="21" spans="1:4">
       <c r="A148" s="16" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="C148" s="14"/>
-      <c r="D148" s="8"/>
+      <c r="D148" s="13" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="149" ht="21" spans="1:4">
       <c r="A149" s="16" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="C149" s="14"/>
-      <c r="D149" s="8"/>
+      <c r="D149" s="13" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="150" ht="21" spans="1:4">
       <c r="A150" s="16" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="C150" s="14"/>
-      <c r="D150" s="8"/>
+      <c r="D150" s="13" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="151" ht="21" spans="1:4">
       <c r="A151" s="16" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="C151" s="18"/>
       <c r="D151" s="8"/>
     </row>
     <row r="152" ht="21" spans="1:4">
       <c r="A152" s="16" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="C152" s="18"/>
       <c r="D152" s="8"/>
     </row>
     <row r="153" ht="21" spans="1:4">
       <c r="A153" s="16" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="C153" s="14"/>
-      <c r="D153" s="8"/>
+      <c r="D153" s="13" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="154" ht="21" spans="1:4">
       <c r="A154" s="16" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="C154" s="14"/>
-      <c r="D154" s="8"/>
+      <c r="D154" s="13" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="155" ht="21" spans="1:4">
       <c r="A155" s="16" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="C155" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D155" s="8"/>
+      <c r="D155" s="13" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="156" ht="21" spans="1:4">
       <c r="A156" s="16" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="C156" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D156" s="8"/>
+      <c r="D156" s="13" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="157" ht="21" spans="1:4">
       <c r="A157" s="16" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="C157" s="14"/>
-      <c r="D157" s="8"/>
+      <c r="D157" s="13" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="158" ht="21" spans="1:4">
       <c r="A158" s="16" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="C158" s="14"/>
-      <c r="D158" s="8"/>
+      <c r="D158" s="13" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="159" ht="21" spans="1:4">
       <c r="A159" s="16" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="C159" s="14"/>
-      <c r="D159" s="8"/>
+      <c r="D159" s="13" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="160" ht="21" spans="1:4">
       <c r="A160" s="16" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="C160" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D160" s="8"/>
+      <c r="D160" s="13" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="161" ht="21" spans="1:4">
       <c r="A161" s="16" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="C161" s="18"/>
       <c r="D161" s="8"/>
     </row>
     <row r="162" ht="21" spans="1:4">
       <c r="A162" s="16" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="C162" s="14"/>
-      <c r="D162" s="8"/>
+      <c r="D162" s="13" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="163" ht="21" spans="1:4">
       <c r="A163" s="16" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="C163" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D163" s="8"/>
+      <c r="D163" s="13" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="164" ht="21" spans="1:4">
       <c r="A164" s="16" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="C164" s="17"/>
       <c r="D164" s="8"/>
     </row>
     <row r="165" ht="21" spans="1:4">
       <c r="A165" s="16" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="C165" s="17"/>
       <c r="D165" s="8"/>
     </row>
     <row r="166" ht="21" spans="1:4">
       <c r="A166" s="16" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="C166" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D166" s="8"/>
+      <c r="D166" s="13" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="167" ht="21" spans="1:4">
       <c r="A167" s="16" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="C167" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D167" s="8"/>
+      <c r="D167" s="13" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="168" ht="21" spans="1:4">
       <c r="A168" s="16" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="C168" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D168" s="8"/>
+      <c r="D168" s="13" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="169" ht="21" spans="1:4">
       <c r="A169" s="16" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="C169" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="C169" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D169" s="8"/>
     </row>
     <row r="170" ht="21" spans="1:4">
       <c r="A170" s="16" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>258</v>
+        <v>297</v>
       </c>
       <c r="C170" s="14"/>
-      <c r="D170" s="8"/>
+      <c r="D170" s="13" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="171" ht="21" spans="1:4">
       <c r="A171" s="16" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="C171" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D171" s="8"/>
+      <c r="D171" s="13" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="172" ht="21" spans="1:4">
       <c r="A172" s="16" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="C172" s="14"/>
-      <c r="D172" s="8"/>
+      <c r="D172" s="13" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="173" ht="21" spans="1:4">
       <c r="A173" s="16" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="C173" s="14"/>
-      <c r="D173" s="8"/>
+      <c r="D173" s="13" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="174" ht="21" spans="1:4">
       <c r="A174" s="16" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="C174" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D174" s="8"/>
+      <c r="D174" s="10" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="175" ht="21" spans="3:4">
       <c r="C175" s="15"/>
@@ -4854,350 +5076,354 @@
     </row>
     <row r="177" ht="21" spans="1:4">
       <c r="A177" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="B177" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="C177" s="18"/>
+        <v>307</v>
+      </c>
+      <c r="B177" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C177" s="14"/>
       <c r="D177" s="8"/>
     </row>
     <row r="178" ht="21" spans="1:4">
       <c r="A178" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="B178" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="C178" s="18"/>
+        <v>307</v>
+      </c>
+      <c r="B178" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C178" s="14"/>
       <c r="D178" s="8"/>
     </row>
     <row r="179" ht="21" spans="1:4">
       <c r="A179" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="B179" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="C179" s="18"/>
+        <v>307</v>
+      </c>
+      <c r="B179" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C179" s="14"/>
       <c r="D179" s="8"/>
     </row>
     <row r="180" ht="21" spans="1:4">
       <c r="A180" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="B180" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="C180" s="18"/>
+        <v>307</v>
+      </c>
+      <c r="B180" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="C180" s="14"/>
       <c r="D180" s="8"/>
     </row>
     <row r="181" ht="21" spans="1:4">
       <c r="A181" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="B181" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="C181" s="18"/>
+        <v>307</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="C181" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D181" s="8"/>
     </row>
     <row r="182" ht="21" spans="1:4">
       <c r="A182" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="B182" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="C182" s="18"/>
+        <v>307</v>
+      </c>
+      <c r="B182" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="C182" s="14"/>
       <c r="D182" s="8"/>
     </row>
     <row r="183" ht="21" spans="1:4">
       <c r="A183" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="B183" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="C183" s="18"/>
+        <v>307</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="C183" s="14"/>
       <c r="D183" s="8"/>
     </row>
     <row r="184" ht="21" spans="1:4">
       <c r="A184" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="B184" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="C184" s="18"/>
+        <v>307</v>
+      </c>
+      <c r="B184" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="C184" s="14"/>
       <c r="D184" s="8"/>
     </row>
     <row r="185" ht="21" spans="1:4">
       <c r="A185" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="B185" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="C185" s="18"/>
+        <v>307</v>
+      </c>
+      <c r="B185" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="C185" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D185" s="8"/>
     </row>
     <row r="186" ht="21" spans="1:4">
       <c r="A186" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="B186" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="C186" s="18"/>
+        <v>307</v>
+      </c>
+      <c r="B186" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C186" s="14"/>
       <c r="D186" s="8"/>
     </row>
     <row r="187" ht="21" spans="1:4">
       <c r="A187" s="9" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="B187" s="13" t="s">
-        <v>274</v>
+        <v>318</v>
       </c>
       <c r="C187" s="18"/>
       <c r="D187" s="8"/>
     </row>
     <row r="188" ht="21" spans="1:4">
       <c r="A188" s="9" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>275</v>
+        <v>319</v>
       </c>
       <c r="C188" s="18"/>
       <c r="D188" s="8"/>
     </row>
     <row r="189" ht="21" spans="1:4">
       <c r="A189" s="9" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="B189" s="13" t="s">
-        <v>276</v>
+        <v>320</v>
       </c>
       <c r="C189" s="18"/>
       <c r="D189" s="8"/>
     </row>
     <row r="190" ht="21" spans="1:4">
       <c r="A190" s="9" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>277</v>
+        <v>321</v>
       </c>
       <c r="C190" s="18"/>
       <c r="D190" s="8"/>
     </row>
     <row r="191" ht="21" spans="1:4">
       <c r="A191" s="9" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="B191" s="13" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="C191" s="18"/>
       <c r="D191" s="8"/>
     </row>
     <row r="192" ht="21" spans="1:4">
       <c r="A192" s="9" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="C192" s="18"/>
       <c r="D192" s="8"/>
     </row>
     <row r="193" ht="21" spans="1:4">
       <c r="A193" s="9" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="C193" s="18"/>
       <c r="D193" s="8"/>
     </row>
     <row r="194" ht="21" spans="1:4">
       <c r="A194" s="9" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="C194" s="18"/>
       <c r="D194" s="8"/>
     </row>
     <row r="195" ht="21" spans="1:4">
       <c r="A195" s="9" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>282</v>
+        <v>326</v>
       </c>
       <c r="C195" s="18"/>
       <c r="D195" s="8"/>
     </row>
     <row r="196" ht="21" spans="1:4">
       <c r="A196" s="9" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="C196" s="18"/>
       <c r="D196" s="8"/>
     </row>
     <row r="197" ht="21" spans="1:4">
       <c r="A197" s="9" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="B197" s="13" t="s">
-        <v>284</v>
+        <v>328</v>
       </c>
       <c r="C197" s="18"/>
       <c r="D197" s="8"/>
     </row>
     <row r="198" ht="21" spans="1:4">
       <c r="A198" s="9" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>285</v>
+        <v>329</v>
       </c>
       <c r="C198" s="18"/>
       <c r="D198" s="8"/>
     </row>
     <row r="199" ht="21" spans="1:4">
       <c r="A199" s="9" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="B199" s="13" t="s">
-        <v>286</v>
+        <v>330</v>
       </c>
       <c r="C199" s="18"/>
       <c r="D199" s="8"/>
     </row>
     <row r="200" ht="21" spans="1:4">
       <c r="A200" s="9" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>287</v>
+        <v>331</v>
       </c>
       <c r="C200" s="18"/>
       <c r="D200" s="8"/>
     </row>
     <row r="201" ht="21" spans="1:4">
       <c r="A201" s="9" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="B201" s="13" t="s">
-        <v>288</v>
+        <v>332</v>
       </c>
       <c r="C201" s="18"/>
       <c r="D201" s="8"/>
     </row>
     <row r="202" ht="21" spans="1:4">
       <c r="A202" s="9" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="B202" s="13" t="s">
-        <v>289</v>
+        <v>333</v>
       </c>
       <c r="C202" s="18"/>
       <c r="D202" s="8"/>
     </row>
     <row r="203" ht="21" spans="1:4">
       <c r="A203" s="9" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="B203" s="13" t="s">
-        <v>290</v>
+        <v>334</v>
       </c>
       <c r="C203" s="18"/>
       <c r="D203" s="8"/>
     </row>
     <row r="204" ht="21" spans="1:4">
       <c r="A204" s="9" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="B204" s="13" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
       <c r="C204" s="18"/>
       <c r="D204" s="8"/>
     </row>
     <row r="205" ht="21" spans="1:4">
       <c r="A205" s="9" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="B205" s="13" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="C205" s="18"/>
       <c r="D205" s="8"/>
     </row>
     <row r="206" ht="21" spans="1:4">
       <c r="A206" s="9" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="B206" s="13" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="C206" s="18"/>
       <c r="D206" s="8"/>
     </row>
     <row r="207" ht="21" spans="1:4">
       <c r="A207" s="9" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="B207" s="13" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="C207" s="18"/>
       <c r="D207" s="8"/>
     </row>
     <row r="208" ht="21" spans="1:4">
       <c r="A208" s="9" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="C208" s="18"/>
       <c r="D208" s="8"/>
     </row>
     <row r="209" ht="21" spans="1:4">
       <c r="A209" s="9" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="C209" s="18"/>
       <c r="D209" s="8"/>
     </row>
     <row r="210" ht="21" spans="1:4">
       <c r="A210" s="9" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="B210" s="13" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="C210" s="18"/>
       <c r="D210" s="8"/>
     </row>
     <row r="211" ht="21" spans="1:4">
       <c r="A211" s="9" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="B211" s="13" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="C211" s="18"/>
       <c r="D211" s="8"/>
@@ -5216,220 +5442,220 @@
     </row>
     <row r="214" ht="21" spans="1:4">
       <c r="A214" s="9" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="B214" s="13" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="C214" s="18"/>
       <c r="D214" s="8"/>
     </row>
     <row r="215" ht="21" spans="1:4">
       <c r="A215" s="9" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="B215" s="13" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="C215" s="18"/>
       <c r="D215" s="8"/>
     </row>
     <row r="216" ht="21" spans="1:4">
       <c r="A216" s="9" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="C216" s="18"/>
       <c r="D216" s="8"/>
     </row>
     <row r="217" ht="21" spans="1:4">
       <c r="A217" s="9" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
       <c r="C217" s="18"/>
       <c r="D217" s="8"/>
     </row>
     <row r="218" ht="21" spans="1:4">
       <c r="A218" s="9" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="B218" s="13" t="s">
-        <v>304</v>
+        <v>348</v>
       </c>
       <c r="C218" s="18"/>
       <c r="D218" s="8"/>
     </row>
     <row r="219" ht="21" spans="1:4">
       <c r="A219" s="9" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>305</v>
+        <v>349</v>
       </c>
       <c r="C219" s="18"/>
       <c r="D219" s="8"/>
     </row>
     <row r="220" ht="21" spans="1:4">
       <c r="A220" s="9" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="B220" s="19" t="s">
-        <v>306</v>
+        <v>350</v>
       </c>
       <c r="C220" s="18"/>
       <c r="D220" s="8"/>
     </row>
     <row r="221" ht="21" spans="1:4">
       <c r="A221" s="9" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>307</v>
+        <v>351</v>
       </c>
       <c r="C221" s="18"/>
       <c r="D221" s="8"/>
     </row>
     <row r="222" ht="21" spans="1:4">
       <c r="A222" s="9" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>308</v>
+        <v>352</v>
       </c>
       <c r="C222" s="18"/>
       <c r="D222" s="8"/>
     </row>
     <row r="223" ht="21" spans="1:4">
       <c r="A223" s="9" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="B223" s="13" t="s">
-        <v>309</v>
+        <v>353</v>
       </c>
       <c r="C223" s="18"/>
       <c r="D223" s="8"/>
     </row>
     <row r="224" ht="21" spans="1:4">
       <c r="A224" s="9" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C224" s="18"/>
       <c r="D224" s="8"/>
     </row>
     <row r="225" ht="21" spans="1:4">
       <c r="A225" s="9" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="B225" s="13" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="C225" s="18"/>
       <c r="D225" s="8"/>
     </row>
     <row r="226" ht="21" spans="1:4">
       <c r="A226" s="9" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="B226" s="13" t="s">
-        <v>312</v>
+        <v>356</v>
       </c>
       <c r="C226" s="18"/>
       <c r="D226" s="8"/>
     </row>
     <row r="227" ht="21" spans="1:4">
       <c r="A227" s="9" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="B227" s="13" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="C227" s="18"/>
       <c r="D227" s="8"/>
     </row>
     <row r="228" ht="21" spans="1:4">
       <c r="A228" s="9" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="B228" s="13" t="s">
-        <v>314</v>
+        <v>358</v>
       </c>
       <c r="C228" s="18"/>
       <c r="D228" s="8"/>
     </row>
     <row r="229" ht="21" spans="1:4">
       <c r="A229" s="9" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="B229" s="13" t="s">
-        <v>315</v>
+        <v>359</v>
       </c>
       <c r="C229" s="18"/>
       <c r="D229" s="8"/>
     </row>
     <row r="230" ht="21" spans="1:4">
       <c r="A230" s="9" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="B230" s="13" t="s">
-        <v>316</v>
+        <v>360</v>
       </c>
       <c r="C230" s="18"/>
       <c r="D230" s="8"/>
     </row>
     <row r="231" ht="21" spans="1:4">
       <c r="A231" s="9" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="B231" s="13" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="C231" s="18"/>
       <c r="D231" s="8"/>
     </row>
     <row r="232" ht="21" spans="1:4">
       <c r="A232" s="9" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="B232" s="13" t="s">
-        <v>318</v>
+        <v>362</v>
       </c>
       <c r="C232" s="18"/>
       <c r="D232" s="8"/>
     </row>
     <row r="233" ht="21" spans="1:4">
       <c r="A233" s="9" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="B233" s="13" t="s">
-        <v>319</v>
+        <v>363</v>
       </c>
       <c r="C233" s="18"/>
       <c r="D233" s="8"/>
     </row>
     <row r="234" ht="21" spans="1:4">
       <c r="A234" s="9" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>320</v>
+        <v>364</v>
       </c>
       <c r="C234" s="18"/>
       <c r="D234" s="8"/>
     </row>
     <row r="235" ht="21" spans="1:4">
       <c r="A235" s="9" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="B235" s="13" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="C235" s="18"/>
       <c r="D235" s="8"/>
@@ -5446,337 +5672,337 @@
     </row>
     <row r="238" ht="21" spans="1:4">
       <c r="A238" s="9" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>323</v>
+        <v>367</v>
       </c>
       <c r="C238" s="18"/>
       <c r="D238" s="8"/>
     </row>
     <row r="239" ht="21" spans="1:4">
       <c r="A239" s="9" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="B239" s="13" t="s">
-        <v>324</v>
+        <v>368</v>
       </c>
       <c r="C239" s="18"/>
       <c r="D239" s="8"/>
     </row>
     <row r="240" ht="21" spans="1:4">
       <c r="A240" s="9" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="B240" s="13" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="C240" s="18"/>
       <c r="D240" s="8"/>
     </row>
     <row r="241" ht="21" spans="1:4">
       <c r="A241" s="9" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="B241" s="13" t="s">
-        <v>326</v>
+        <v>370</v>
       </c>
       <c r="C241" s="18"/>
       <c r="D241" s="8"/>
     </row>
     <row r="242" ht="21" spans="1:4">
       <c r="A242" s="9" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="B242" s="13" t="s">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="C242" s="18"/>
       <c r="D242" s="8"/>
     </row>
     <row r="243" ht="21" spans="1:4">
       <c r="A243" s="9" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="B243" s="13" t="s">
-        <v>328</v>
+        <v>372</v>
       </c>
       <c r="C243" s="18"/>
       <c r="D243" s="8"/>
     </row>
     <row r="244" ht="21" spans="1:4">
       <c r="A244" s="9" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="B244" s="13" t="s">
-        <v>329</v>
+        <v>373</v>
       </c>
       <c r="C244" s="18"/>
       <c r="D244" s="8"/>
     </row>
     <row r="245" ht="21" spans="1:4">
       <c r="A245" s="9" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="B245" s="13" t="s">
-        <v>330</v>
+        <v>374</v>
       </c>
       <c r="C245" s="18"/>
       <c r="D245" s="8"/>
     </row>
     <row r="246" ht="21" spans="1:4">
       <c r="A246" s="9" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="B246" s="13" t="s">
-        <v>331</v>
+        <v>375</v>
       </c>
       <c r="C246" s="18"/>
       <c r="D246" s="8"/>
     </row>
     <row r="247" ht="21" spans="1:4">
       <c r="A247" s="9" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="B247" s="13" t="s">
-        <v>332</v>
+        <v>376</v>
       </c>
       <c r="C247" s="18"/>
       <c r="D247" s="8"/>
     </row>
     <row r="248" ht="21" spans="1:4">
       <c r="A248" s="9" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="B248" s="13" t="s">
-        <v>333</v>
+        <v>377</v>
       </c>
       <c r="C248" s="18"/>
       <c r="D248" s="8"/>
     </row>
     <row r="249" ht="21" spans="1:4">
       <c r="A249" s="9" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="B249" s="13" t="s">
-        <v>334</v>
+        <v>378</v>
       </c>
       <c r="C249" s="18"/>
       <c r="D249" s="8"/>
     </row>
     <row r="250" ht="21" spans="1:4">
       <c r="A250" s="9" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="B250" s="13" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
       <c r="C250" s="18"/>
       <c r="D250" s="8"/>
     </row>
     <row r="251" ht="21" spans="1:4">
       <c r="A251" s="9" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="B251" s="13" t="s">
-        <v>336</v>
+        <v>380</v>
       </c>
       <c r="C251" s="18"/>
       <c r="D251" s="8"/>
     </row>
     <row r="252" ht="21" spans="1:4">
       <c r="A252" s="9" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="B252" s="13" t="s">
-        <v>337</v>
+        <v>381</v>
       </c>
       <c r="C252" s="18"/>
       <c r="D252" s="8"/>
     </row>
     <row r="253" ht="21" spans="1:4">
       <c r="A253" s="9" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="B253" s="13" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
       <c r="C253" s="18"/>
       <c r="D253" s="8"/>
     </row>
     <row r="254" ht="21" spans="1:4">
       <c r="A254" s="9" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="B254" s="13" t="s">
-        <v>339</v>
+        <v>383</v>
       </c>
       <c r="C254" s="18"/>
       <c r="D254" s="8"/>
     </row>
     <row r="255" ht="21" spans="1:4">
       <c r="A255" s="9" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="B255" s="13" t="s">
-        <v>340</v>
+        <v>384</v>
       </c>
       <c r="C255" s="18"/>
       <c r="D255" s="8"/>
     </row>
     <row r="256" ht="21" spans="1:4">
       <c r="A256" s="9" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="B256" s="13" t="s">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="C256" s="18"/>
       <c r="D256" s="8"/>
     </row>
     <row r="257" ht="21" spans="1:4">
       <c r="A257" s="9" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="B257" s="13" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="C257" s="18"/>
       <c r="D257" s="8"/>
     </row>
     <row r="258" ht="21" spans="1:4">
       <c r="A258" s="9" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="B258" s="13" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
       <c r="C258" s="18"/>
       <c r="D258" s="8"/>
     </row>
     <row r="259" ht="21" spans="1:4">
       <c r="A259" s="9" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="B259" s="13" t="s">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="C259" s="18"/>
       <c r="D259" s="8"/>
     </row>
     <row r="260" ht="21" spans="1:4">
       <c r="A260" s="9" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="B260" s="13" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
       <c r="C260" s="18"/>
       <c r="D260" s="8"/>
     </row>
     <row r="261" ht="21" spans="1:4">
       <c r="A261" s="9" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="B261" s="13" t="s">
-        <v>346</v>
+        <v>390</v>
       </c>
       <c r="C261" s="18"/>
       <c r="D261" s="8"/>
     </row>
     <row r="262" ht="21" spans="1:4">
       <c r="A262" s="9" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="B262" s="13" t="s">
-        <v>347</v>
+        <v>391</v>
       </c>
       <c r="C262" s="18"/>
       <c r="D262" s="8"/>
     </row>
     <row r="263" ht="21" spans="1:4">
       <c r="A263" s="9" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="B263" s="13" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
       <c r="C263" s="18"/>
       <c r="D263" s="8"/>
     </row>
     <row r="264" ht="21" spans="1:4">
       <c r="A264" s="9" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="B264" s="13" t="s">
-        <v>349</v>
+        <v>393</v>
       </c>
       <c r="C264" s="18"/>
       <c r="D264" s="8"/>
     </row>
     <row r="265" ht="21" spans="1:4">
       <c r="A265" s="9" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="B265" s="13" t="s">
-        <v>350</v>
+        <v>394</v>
       </c>
       <c r="C265" s="18"/>
       <c r="D265" s="8"/>
     </row>
     <row r="266" ht="21" spans="1:4">
       <c r="A266" s="9" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="B266" s="13" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
       <c r="C266" s="18"/>
       <c r="D266" s="8"/>
     </row>
     <row r="267" ht="21" spans="1:4">
       <c r="A267" s="9" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="B267" s="13" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
       <c r="C267" s="18"/>
       <c r="D267" s="8"/>
     </row>
     <row r="268" ht="21" spans="1:4">
       <c r="A268" s="9" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="B268" s="13" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
       <c r="C268" s="18"/>
       <c r="D268" s="8"/>
     </row>
     <row r="269" ht="21" spans="1:4">
       <c r="A269" s="9" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="B269" s="13" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="C269" s="18"/>
       <c r="D269" s="8"/>
     </row>
     <row r="270" ht="21" spans="1:4">
       <c r="A270" s="9" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="B270" s="13" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="C270" s="18"/>
       <c r="D270" s="8"/>
     </row>
     <row r="271" ht="21" spans="1:4">
       <c r="A271" s="9" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="B271" s="13" t="s">
         <v>162</v>
@@ -5786,10 +6012,10 @@
     </row>
     <row r="272" ht="21" spans="1:4">
       <c r="A272" s="9" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="B272" s="13" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="C272" s="18"/>
       <c r="D272" s="8"/>
@@ -5806,190 +6032,190 @@
     </row>
     <row r="275" ht="21" spans="1:4">
       <c r="A275" s="9" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="B275" s="13" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="C275" s="18"/>
       <c r="D275" s="8"/>
     </row>
     <row r="276" ht="21" spans="1:4">
       <c r="A276" s="9" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="B276" s="13" t="s">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="C276" s="18"/>
       <c r="D276" s="8"/>
     </row>
     <row r="277" ht="21" spans="1:4">
       <c r="A277" s="9" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="B277" s="13" t="s">
-        <v>360</v>
+        <v>404</v>
       </c>
       <c r="C277" s="18"/>
       <c r="D277" s="8"/>
     </row>
     <row r="278" ht="21" spans="1:4">
       <c r="A278" s="9" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="B278" s="13" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="C278" s="18"/>
       <c r="D278" s="8"/>
     </row>
     <row r="279" ht="21" spans="1:4">
       <c r="A279" s="9" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="B279" s="13" t="s">
-        <v>362</v>
+        <v>406</v>
       </c>
       <c r="C279" s="18"/>
       <c r="D279" s="8"/>
     </row>
     <row r="280" ht="21" spans="1:4">
       <c r="A280" s="9" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="B280" s="13" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="C280" s="18"/>
       <c r="D280" s="8"/>
     </row>
     <row r="281" ht="21" spans="1:4">
       <c r="A281" s="9" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="B281" s="13" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="C281" s="18"/>
       <c r="D281" s="8"/>
     </row>
     <row r="282" ht="21" spans="1:4">
       <c r="A282" s="9" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="B282" s="13" t="s">
-        <v>365</v>
+        <v>409</v>
       </c>
       <c r="C282" s="18"/>
       <c r="D282" s="8"/>
     </row>
     <row r="283" ht="21" spans="1:4">
       <c r="A283" s="9" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="B283" s="13" t="s">
-        <v>366</v>
+        <v>410</v>
       </c>
       <c r="C283" s="18"/>
       <c r="D283" s="8"/>
     </row>
     <row r="284" ht="21" spans="1:4">
       <c r="A284" s="9" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="B284" s="13" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
       <c r="C284" s="18"/>
       <c r="D284" s="8"/>
     </row>
     <row r="285" ht="21" spans="1:4">
       <c r="A285" s="9" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="B285" s="13" t="s">
-        <v>368</v>
+        <v>412</v>
       </c>
       <c r="C285" s="18"/>
       <c r="D285" s="8"/>
     </row>
     <row r="286" ht="21" spans="1:4">
       <c r="A286" s="9" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="B286" s="13" t="s">
-        <v>369</v>
+        <v>413</v>
       </c>
       <c r="C286" s="18"/>
       <c r="D286" s="8"/>
     </row>
     <row r="287" ht="21" spans="1:4">
       <c r="A287" s="9" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="B287" s="13" t="s">
-        <v>370</v>
+        <v>414</v>
       </c>
       <c r="C287" s="18"/>
       <c r="D287" s="8"/>
     </row>
     <row r="288" ht="21" spans="1:4">
       <c r="A288" s="9" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="B288" s="13" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="C288" s="18"/>
       <c r="D288" s="8"/>
     </row>
     <row r="289" ht="21" spans="1:4">
       <c r="A289" s="9" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="B289" s="13" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="C289" s="18"/>
       <c r="D289" s="8"/>
     </row>
     <row r="290" ht="21" spans="1:4">
       <c r="A290" s="9" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="B290" s="13" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
       <c r="C290" s="18"/>
       <c r="D290" s="8"/>
     </row>
     <row r="291" ht="21" spans="1:4">
       <c r="A291" s="9" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="B291" s="13" t="s">
-        <v>374</v>
+        <v>418</v>
       </c>
       <c r="C291" s="18"/>
       <c r="D291" s="8"/>
     </row>
     <row r="292" ht="21" spans="1:4">
       <c r="A292" s="9" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="B292" s="13" t="s">
-        <v>375</v>
+        <v>419</v>
       </c>
       <c r="C292" s="18"/>
       <c r="D292" s="8"/>
     </row>
     <row r="293" ht="21" spans="1:4">
       <c r="A293" s="9" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="B293" s="13" t="s">
-        <v>376</v>
+        <v>420</v>
       </c>
       <c r="C293" s="18"/>
       <c r="D293" s="8"/>
@@ -6006,380 +6232,380 @@
     </row>
     <row r="296" ht="21" spans="1:4">
       <c r="A296" s="9" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="B296" s="13" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="C296" s="18"/>
       <c r="D296" s="8"/>
     </row>
     <row r="297" ht="21" spans="1:4">
       <c r="A297" s="9" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="B297" s="13" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="C297" s="18"/>
       <c r="D297" s="8"/>
     </row>
     <row r="298" ht="21" spans="1:4">
       <c r="A298" s="9" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="B298" s="13" t="s">
-        <v>380</v>
+        <v>424</v>
       </c>
       <c r="C298" s="18"/>
       <c r="D298" s="8"/>
     </row>
     <row r="299" ht="21" spans="1:4">
       <c r="A299" s="9" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="B299" s="13" t="s">
-        <v>381</v>
+        <v>425</v>
       </c>
       <c r="C299" s="18"/>
       <c r="D299" s="8"/>
     </row>
     <row r="300" ht="21" spans="1:4">
       <c r="A300" s="9" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="B300" s="13" t="s">
-        <v>382</v>
+        <v>426</v>
       </c>
       <c r="C300" s="18"/>
       <c r="D300" s="8"/>
     </row>
     <row r="301" ht="21" spans="1:4">
       <c r="A301" s="9" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="B301" s="13" t="s">
-        <v>383</v>
+        <v>427</v>
       </c>
       <c r="C301" s="18"/>
       <c r="D301" s="8"/>
     </row>
     <row r="302" ht="21" spans="1:4">
       <c r="A302" s="9" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="B302" s="13" t="s">
-        <v>384</v>
+        <v>428</v>
       </c>
       <c r="C302" s="18"/>
       <c r="D302" s="8"/>
     </row>
     <row r="303" ht="21" spans="1:4">
       <c r="A303" s="9" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="B303" s="13" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="C303" s="18"/>
       <c r="D303" s="8"/>
     </row>
     <row r="304" ht="21" spans="1:4">
       <c r="A304" s="9" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="B304" s="13" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
       <c r="C304" s="18"/>
       <c r="D304" s="8"/>
     </row>
     <row r="305" ht="21" spans="1:4">
       <c r="A305" s="9" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="B305" s="13" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="C305" s="18"/>
       <c r="D305" s="8"/>
     </row>
     <row r="306" ht="21" spans="1:4">
       <c r="A306" s="9" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="B306" s="13" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="C306" s="18"/>
       <c r="D306" s="8"/>
     </row>
     <row r="307" ht="21" spans="1:4">
       <c r="A307" s="9" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="B307" s="13" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="C307" s="18"/>
       <c r="D307" s="8"/>
     </row>
     <row r="308" ht="21" spans="1:4">
       <c r="A308" s="9" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="B308" s="13" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="C308" s="18"/>
       <c r="D308" s="8"/>
     </row>
     <row r="309" ht="21" spans="1:4">
       <c r="A309" s="9" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="B309" s="19" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="C309" s="18"/>
       <c r="D309" s="8"/>
     </row>
     <row r="310" ht="21" spans="1:4">
       <c r="A310" s="9" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="B310" s="13" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="C310" s="18"/>
       <c r="D310" s="8"/>
     </row>
     <row r="311" ht="21" spans="1:4">
       <c r="A311" s="9" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="B311" s="13" t="s">
-        <v>393</v>
+        <v>437</v>
       </c>
       <c r="C311" s="18"/>
       <c r="D311" s="8"/>
     </row>
     <row r="312" ht="21" spans="1:4">
       <c r="A312" s="9" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="B312" s="13" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
       <c r="C312" s="14"/>
       <c r="D312" s="8"/>
     </row>
     <row r="313" ht="21" spans="1:4">
       <c r="A313" s="9" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="B313" s="13" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="C313" s="18"/>
       <c r="D313" s="8"/>
     </row>
     <row r="314" ht="21" spans="1:4">
       <c r="A314" s="9" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="B314" s="13" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="C314" s="18"/>
       <c r="D314" s="8"/>
     </row>
     <row r="315" ht="21" spans="1:4">
       <c r="A315" s="9" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="B315" s="13" t="s">
-        <v>397</v>
+        <v>441</v>
       </c>
       <c r="C315" s="18"/>
       <c r="D315" s="8"/>
     </row>
     <row r="316" ht="21" spans="1:4">
       <c r="A316" s="9" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="B316" s="13" t="s">
-        <v>398</v>
+        <v>442</v>
       </c>
       <c r="C316" s="18"/>
       <c r="D316" s="8"/>
     </row>
     <row r="317" ht="21" spans="1:4">
       <c r="A317" s="9" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="B317" s="13" t="s">
-        <v>399</v>
+        <v>443</v>
       </c>
       <c r="C317" s="18"/>
       <c r="D317" s="8"/>
     </row>
     <row r="318" ht="21" spans="1:4">
       <c r="A318" s="9" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="B318" s="13" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="C318" s="18"/>
       <c r="D318" s="8"/>
     </row>
     <row r="319" ht="21" spans="1:4">
       <c r="A319" s="9" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="B319" s="13" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="C319" s="18"/>
       <c r="D319" s="8"/>
     </row>
     <row r="320" ht="21" spans="1:4">
       <c r="A320" s="9" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="B320" s="13" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="C320" s="18"/>
       <c r="D320" s="8"/>
     </row>
     <row r="321" ht="21" spans="1:4">
       <c r="A321" s="9" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="B321" s="13" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="C321" s="18"/>
       <c r="D321" s="8"/>
     </row>
     <row r="322" ht="21" spans="1:4">
       <c r="A322" s="9" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="B322" s="13" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="C322" s="18"/>
       <c r="D322" s="8"/>
     </row>
     <row r="323" ht="21" spans="1:4">
       <c r="A323" s="9" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="B323" s="13" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="C323" s="18"/>
       <c r="D323" s="8"/>
     </row>
     <row r="324" ht="21" spans="1:4">
       <c r="A324" s="9" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="B324" s="13" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="C324" s="18"/>
       <c r="D324" s="8"/>
     </row>
     <row r="325" ht="21" spans="1:4">
       <c r="A325" s="9" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="B325" s="13" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="C325" s="18"/>
       <c r="D325" s="8"/>
     </row>
     <row r="326" ht="21" spans="1:4">
       <c r="A326" s="9" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="B326" s="13" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="C326" s="18"/>
       <c r="D326" s="8"/>
     </row>
     <row r="327" ht="21" spans="1:4">
       <c r="A327" s="9" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="B327" s="13" t="s">
-        <v>409</v>
+        <v>453</v>
       </c>
       <c r="C327" s="18"/>
       <c r="D327" s="8"/>
     </row>
     <row r="328" ht="21" spans="1:4">
       <c r="A328" s="9" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="B328" s="13" t="s">
-        <v>410</v>
+        <v>454</v>
       </c>
       <c r="C328" s="18"/>
       <c r="D328" s="8"/>
     </row>
     <row r="329" ht="21" spans="1:4">
       <c r="A329" s="9" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="B329" s="13" t="s">
-        <v>411</v>
+        <v>455</v>
       </c>
       <c r="C329" s="18"/>
       <c r="D329" s="8"/>
     </row>
     <row r="330" ht="21" spans="1:4">
       <c r="A330" s="9" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="B330" s="13" t="s">
-        <v>412</v>
+        <v>456</v>
       </c>
       <c r="C330" s="18"/>
       <c r="D330" s="8"/>
     </row>
     <row r="331" ht="21" spans="1:4">
       <c r="A331" s="9" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="B331" s="13" t="s">
-        <v>413</v>
+        <v>457</v>
       </c>
       <c r="C331" s="18"/>
       <c r="D331" s="8"/>
     </row>
     <row r="332" ht="21" spans="1:4">
       <c r="A332" s="9" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="B332" s="13" t="s">
-        <v>414</v>
+        <v>458</v>
       </c>
       <c r="C332" s="18"/>
       <c r="D332" s="8"/>
     </row>
     <row r="333" ht="21" spans="1:4">
       <c r="A333" s="9" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="B333" s="13" t="s">
-        <v>415</v>
+        <v>459</v>
       </c>
       <c r="C333" s="18"/>
       <c r="D333" s="8"/>
@@ -6396,180 +6622,180 @@
     </row>
     <row r="336" ht="21" spans="1:4">
       <c r="A336" s="16" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="B336" s="13" t="s">
-        <v>417</v>
+        <v>461</v>
       </c>
       <c r="C336" s="18"/>
       <c r="D336" s="8"/>
     </row>
     <row r="337" ht="21" spans="1:4">
       <c r="A337" s="16" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="B337" s="13" t="s">
-        <v>418</v>
+        <v>462</v>
       </c>
       <c r="C337" s="18"/>
       <c r="D337" s="8"/>
     </row>
     <row r="338" ht="21" spans="1:4">
       <c r="A338" s="16" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="B338" s="13" t="s">
-        <v>419</v>
+        <v>463</v>
       </c>
       <c r="C338" s="18"/>
       <c r="D338" s="8"/>
     </row>
     <row r="339" ht="21" spans="1:4">
       <c r="A339" s="16" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="B339" s="13" t="s">
-        <v>420</v>
+        <v>464</v>
       </c>
       <c r="C339" s="18"/>
       <c r="D339" s="8"/>
     </row>
     <row r="340" ht="21" spans="1:4">
       <c r="A340" s="16" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="B340" s="13" t="s">
-        <v>421</v>
+        <v>465</v>
       </c>
       <c r="C340" s="18"/>
       <c r="D340" s="8"/>
     </row>
     <row r="341" ht="21" spans="1:4">
       <c r="A341" s="16" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="B341" s="13" t="s">
-        <v>422</v>
+        <v>466</v>
       </c>
       <c r="C341" s="18"/>
       <c r="D341" s="8"/>
     </row>
     <row r="342" ht="21" spans="1:4">
       <c r="A342" s="16" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="B342" s="13" t="s">
-        <v>423</v>
+        <v>467</v>
       </c>
       <c r="C342" s="18"/>
       <c r="D342" s="8"/>
     </row>
     <row r="343" ht="21" spans="1:4">
       <c r="A343" s="16" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="B343" s="13" t="s">
-        <v>424</v>
+        <v>468</v>
       </c>
       <c r="C343" s="18"/>
       <c r="D343" s="8"/>
     </row>
     <row r="344" ht="21" spans="1:4">
       <c r="A344" s="16" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="B344" s="19" t="s">
-        <v>425</v>
+        <v>469</v>
       </c>
       <c r="C344" s="18"/>
       <c r="D344" s="8"/>
     </row>
     <row r="345" ht="21" spans="1:4">
       <c r="A345" s="16" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="B345" s="13" t="s">
-        <v>426</v>
+        <v>470</v>
       </c>
       <c r="C345" s="18"/>
       <c r="D345" s="8"/>
     </row>
     <row r="346" ht="21" spans="1:4">
       <c r="A346" s="16" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="B346" s="13" t="s">
-        <v>427</v>
+        <v>471</v>
       </c>
       <c r="C346" s="18"/>
       <c r="D346" s="8"/>
     </row>
     <row r="347" ht="21" spans="1:4">
       <c r="A347" s="16" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="B347" s="13" t="s">
-        <v>428</v>
+        <v>472</v>
       </c>
       <c r="C347" s="18"/>
       <c r="D347" s="8"/>
     </row>
     <row r="348" ht="21" spans="1:4">
       <c r="A348" s="16" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="B348" s="13" t="s">
-        <v>429</v>
+        <v>473</v>
       </c>
       <c r="C348" s="18"/>
       <c r="D348" s="8"/>
     </row>
     <row r="349" ht="21" spans="1:4">
       <c r="A349" s="16" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="B349" s="13" t="s">
-        <v>430</v>
+        <v>474</v>
       </c>
       <c r="C349" s="18"/>
       <c r="D349" s="8"/>
     </row>
     <row r="350" ht="21" spans="1:4">
       <c r="A350" s="16" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="B350" s="13" t="s">
-        <v>431</v>
+        <v>475</v>
       </c>
       <c r="C350" s="18"/>
       <c r="D350" s="8"/>
     </row>
     <row r="351" ht="21" spans="1:4">
       <c r="A351" s="16" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="B351" s="13" t="s">
-        <v>432</v>
+        <v>476</v>
       </c>
       <c r="C351" s="18"/>
       <c r="D351" s="8"/>
     </row>
     <row r="352" ht="21" spans="1:4">
       <c r="A352" s="16" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="B352" s="13" t="s">
-        <v>433</v>
+        <v>477</v>
       </c>
       <c r="C352" s="18"/>
       <c r="D352" s="8"/>
     </row>
     <row r="353" ht="21" spans="1:4">
       <c r="A353" s="16" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="B353" s="13" t="s">
-        <v>434</v>
+        <v>478</v>
       </c>
       <c r="C353" s="18"/>
       <c r="D353" s="8"/>
@@ -6586,440 +6812,440 @@
     </row>
     <row r="356" ht="21" spans="1:4">
       <c r="A356" s="16" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B356" s="13" t="s">
-        <v>436</v>
+        <v>480</v>
       </c>
       <c r="C356" s="18"/>
       <c r="D356" s="8"/>
     </row>
     <row r="357" ht="21" spans="1:4">
       <c r="A357" s="16" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B357" s="13" t="s">
-        <v>437</v>
+        <v>481</v>
       </c>
       <c r="C357" s="18"/>
       <c r="D357" s="8"/>
     </row>
     <row r="358" ht="21" spans="1:4">
       <c r="A358" s="16" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B358" s="13" t="s">
-        <v>438</v>
+        <v>482</v>
       </c>
       <c r="C358" s="18"/>
       <c r="D358" s="8"/>
     </row>
     <row r="359" ht="21" spans="1:4">
       <c r="A359" s="16" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B359" s="13" t="s">
-        <v>439</v>
+        <v>483</v>
       </c>
       <c r="C359" s="18"/>
       <c r="D359" s="8"/>
     </row>
     <row r="360" ht="21" spans="1:4">
       <c r="A360" s="16" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B360" s="13" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="C360" s="18"/>
       <c r="D360" s="8"/>
     </row>
     <row r="361" ht="21" spans="1:4">
       <c r="A361" s="16" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B361" s="13" t="s">
-        <v>441</v>
+        <v>485</v>
       </c>
       <c r="C361" s="18"/>
       <c r="D361" s="8"/>
     </row>
     <row r="362" ht="21" spans="1:4">
       <c r="A362" s="16" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B362" s="13" t="s">
-        <v>442</v>
+        <v>486</v>
       </c>
       <c r="C362" s="18"/>
       <c r="D362" s="8"/>
     </row>
     <row r="363" ht="21" spans="1:4">
       <c r="A363" s="16" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B363" s="13" t="s">
-        <v>443</v>
+        <v>487</v>
       </c>
       <c r="C363" s="18"/>
       <c r="D363" s="8"/>
     </row>
     <row r="364" ht="21" spans="1:4">
       <c r="A364" s="16" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B364" s="13" t="s">
-        <v>444</v>
+        <v>488</v>
       </c>
       <c r="C364" s="18"/>
       <c r="D364" s="8"/>
     </row>
     <row r="365" ht="21" spans="1:4">
       <c r="A365" s="16" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B365" s="13" t="s">
-        <v>445</v>
+        <v>489</v>
       </c>
       <c r="C365" s="18"/>
       <c r="D365" s="8"/>
     </row>
     <row r="366" ht="21" spans="1:4">
       <c r="A366" s="16" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B366" s="13" t="s">
-        <v>446</v>
+        <v>490</v>
       </c>
       <c r="C366" s="18"/>
       <c r="D366" s="8"/>
     </row>
     <row r="367" ht="21" spans="1:4">
       <c r="A367" s="16" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B367" s="13" t="s">
-        <v>447</v>
+        <v>491</v>
       </c>
       <c r="C367" s="18"/>
       <c r="D367" s="8"/>
     </row>
     <row r="368" ht="21" spans="1:4">
       <c r="A368" s="16" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B368" s="13" t="s">
-        <v>448</v>
+        <v>492</v>
       </c>
       <c r="C368" s="18"/>
       <c r="D368" s="8"/>
     </row>
     <row r="369" ht="21" spans="1:4">
       <c r="A369" s="16" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B369" s="13" t="s">
-        <v>449</v>
+        <v>493</v>
       </c>
       <c r="C369" s="18"/>
       <c r="D369" s="8"/>
     </row>
     <row r="370" ht="21" spans="1:4">
       <c r="A370" s="16" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B370" s="13" t="s">
-        <v>450</v>
+        <v>494</v>
       </c>
       <c r="C370" s="18"/>
       <c r="D370" s="8"/>
     </row>
     <row r="371" ht="21" spans="1:4">
       <c r="A371" s="16" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B371" s="13" t="s">
-        <v>451</v>
+        <v>495</v>
       </c>
       <c r="C371" s="18"/>
       <c r="D371" s="8"/>
     </row>
     <row r="372" ht="21" spans="1:4">
       <c r="A372" s="16" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B372" s="13" t="s">
-        <v>452</v>
+        <v>496</v>
       </c>
       <c r="C372" s="18"/>
       <c r="D372" s="8"/>
     </row>
     <row r="373" ht="21" spans="1:4">
       <c r="A373" s="16" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B373" s="13" t="s">
-        <v>453</v>
+        <v>497</v>
       </c>
       <c r="C373" s="18"/>
       <c r="D373" s="8"/>
     </row>
     <row r="374" ht="21" spans="1:4">
       <c r="A374" s="16" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B374" s="13" t="s">
-        <v>454</v>
+        <v>498</v>
       </c>
       <c r="C374" s="18"/>
       <c r="D374" s="8"/>
     </row>
     <row r="375" ht="21" spans="1:4">
       <c r="A375" s="16" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B375" s="13" t="s">
-        <v>455</v>
+        <v>499</v>
       </c>
       <c r="C375" s="18"/>
       <c r="D375" s="8"/>
     </row>
     <row r="376" ht="21" spans="1:4">
       <c r="A376" s="16" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B376" s="13" t="s">
-        <v>456</v>
+        <v>500</v>
       </c>
       <c r="C376" s="18"/>
       <c r="D376" s="8"/>
     </row>
     <row r="377" ht="21" spans="1:4">
       <c r="A377" s="16" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B377" s="13" t="s">
-        <v>457</v>
+        <v>501</v>
       </c>
       <c r="C377" s="18"/>
       <c r="D377" s="8"/>
     </row>
     <row r="378" ht="21" spans="1:4">
       <c r="A378" s="16" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B378" s="13" t="s">
-        <v>458</v>
+        <v>502</v>
       </c>
       <c r="C378" s="18"/>
       <c r="D378" s="8"/>
     </row>
     <row r="379" ht="21" spans="1:4">
       <c r="A379" s="16" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B379" s="13" t="s">
-        <v>459</v>
+        <v>503</v>
       </c>
       <c r="C379" s="18"/>
       <c r="D379" s="8"/>
     </row>
     <row r="380" ht="21" spans="1:4">
       <c r="A380" s="16" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B380" s="13" t="s">
-        <v>460</v>
+        <v>504</v>
       </c>
       <c r="C380" s="18"/>
       <c r="D380" s="8"/>
     </row>
     <row r="381" ht="21" spans="1:4">
       <c r="A381" s="16" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B381" s="13" t="s">
-        <v>461</v>
+        <v>505</v>
       </c>
       <c r="C381" s="18"/>
       <c r="D381" s="8"/>
     </row>
     <row r="382" ht="21" spans="1:4">
       <c r="A382" s="16" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B382" s="13" t="s">
-        <v>462</v>
+        <v>506</v>
       </c>
       <c r="C382" s="18"/>
       <c r="D382" s="8"/>
     </row>
     <row r="383" ht="21" spans="1:4">
       <c r="A383" s="16" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B383" s="13" t="s">
-        <v>463</v>
+        <v>507</v>
       </c>
       <c r="C383" s="18"/>
       <c r="D383" s="8"/>
     </row>
     <row r="384" ht="21" spans="1:4">
       <c r="A384" s="16" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B384" s="13" t="s">
-        <v>464</v>
+        <v>508</v>
       </c>
       <c r="C384" s="18"/>
       <c r="D384" s="8"/>
     </row>
     <row r="385" ht="21" spans="1:4">
       <c r="A385" s="16" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B385" s="13" t="s">
-        <v>465</v>
+        <v>509</v>
       </c>
       <c r="C385" s="18"/>
       <c r="D385" s="8"/>
     </row>
     <row r="386" ht="21" spans="1:4">
       <c r="A386" s="16" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B386" s="13" t="s">
-        <v>466</v>
+        <v>510</v>
       </c>
       <c r="C386" s="18"/>
       <c r="D386" s="8"/>
     </row>
     <row r="387" ht="21" spans="1:4">
       <c r="A387" s="16" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B387" s="13" t="s">
-        <v>467</v>
+        <v>511</v>
       </c>
       <c r="C387" s="18"/>
       <c r="D387" s="8"/>
     </row>
     <row r="388" ht="21" spans="1:4">
       <c r="A388" s="16" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B388" s="13" t="s">
-        <v>468</v>
+        <v>512</v>
       </c>
       <c r="C388" s="18"/>
       <c r="D388" s="8"/>
     </row>
     <row r="389" ht="21" spans="1:4">
       <c r="A389" s="16" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B389" s="13" t="s">
-        <v>469</v>
+        <v>513</v>
       </c>
       <c r="C389" s="18"/>
       <c r="D389" s="8"/>
     </row>
     <row r="390" ht="21" spans="1:4">
       <c r="A390" s="16" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B390" s="13" t="s">
-        <v>469</v>
+        <v>513</v>
       </c>
       <c r="C390" s="18"/>
       <c r="D390" s="8"/>
     </row>
     <row r="391" ht="21" spans="1:4">
       <c r="A391" s="16" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B391" s="13" t="s">
-        <v>470</v>
+        <v>514</v>
       </c>
       <c r="C391" s="18"/>
       <c r="D391" s="8"/>
     </row>
     <row r="392" ht="21" spans="1:4">
       <c r="A392" s="16" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B392" s="13" t="s">
-        <v>471</v>
+        <v>515</v>
       </c>
       <c r="C392" s="18"/>
       <c r="D392" s="8"/>
     </row>
     <row r="393" ht="21" spans="1:4">
       <c r="A393" s="16" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B393" s="13" t="s">
-        <v>472</v>
+        <v>516</v>
       </c>
       <c r="C393" s="18"/>
       <c r="D393" s="8"/>
     </row>
     <row r="394" ht="21" spans="1:4">
       <c r="A394" s="16" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B394" s="13" t="s">
-        <v>473</v>
+        <v>517</v>
       </c>
       <c r="C394" s="18"/>
       <c r="D394" s="8"/>
     </row>
     <row r="395" ht="21" spans="1:4">
       <c r="A395" s="16" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B395" s="13" t="s">
-        <v>474</v>
+        <v>518</v>
       </c>
       <c r="C395" s="18"/>
       <c r="D395" s="8"/>
     </row>
     <row r="396" ht="21" spans="1:4">
       <c r="A396" s="16" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B396" s="13" t="s">
-        <v>475</v>
+        <v>519</v>
       </c>
       <c r="C396" s="18"/>
       <c r="D396" s="8"/>
     </row>
     <row r="397" ht="21" spans="1:4">
       <c r="A397" s="16" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B397" s="13" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="C397" s="18"/>
       <c r="D397" s="8"/>
     </row>
     <row r="398" ht="21" spans="1:4">
       <c r="A398" s="16" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B398" s="13" t="s">
-        <v>477</v>
+        <v>521</v>
       </c>
       <c r="C398" s="18"/>
       <c r="D398" s="8"/>
     </row>
     <row r="399" ht="21" spans="1:4">
       <c r="A399" s="16" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B399" s="13" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="C399" s="18"/>
       <c r="D399" s="8"/>
@@ -7036,37 +7262,37 @@
     </row>
     <row r="402" ht="21" spans="1:4">
       <c r="A402" s="16" t="s">
-        <v>479</v>
+        <v>523</v>
       </c>
       <c r="B402" s="13" t="s">
-        <v>480</v>
+        <v>524</v>
       </c>
       <c r="C402" s="18"/>
       <c r="D402" s="8"/>
     </row>
     <row r="403" ht="21" spans="1:4">
       <c r="A403" s="16" t="s">
-        <v>479</v>
+        <v>523</v>
       </c>
       <c r="B403" s="13" t="s">
-        <v>481</v>
+        <v>525</v>
       </c>
       <c r="C403" s="18"/>
       <c r="D403" s="8"/>
     </row>
     <row r="404" ht="21" spans="1:4">
       <c r="A404" s="16" t="s">
-        <v>479</v>
+        <v>523</v>
       </c>
       <c r="B404" s="13" t="s">
-        <v>482</v>
+        <v>526</v>
       </c>
       <c r="C404" s="18"/>
       <c r="D404" s="8"/>
     </row>
     <row r="405" ht="21" spans="1:4">
       <c r="A405" s="16" t="s">
-        <v>479</v>
+        <v>523</v>
       </c>
       <c r="B405" s="13" t="s">
         <v>165</v>
@@ -7076,20 +7302,20 @@
     </row>
     <row r="406" ht="21" spans="1:4">
       <c r="A406" s="16" t="s">
-        <v>479</v>
+        <v>523</v>
       </c>
       <c r="B406" s="13" t="s">
-        <v>483</v>
+        <v>527</v>
       </c>
       <c r="C406" s="18"/>
       <c r="D406" s="8"/>
     </row>
     <row r="407" ht="21" spans="1:4">
       <c r="A407" s="16" t="s">
-        <v>479</v>
+        <v>523</v>
       </c>
       <c r="B407" s="13" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
       <c r="C407" s="18"/>
       <c r="D407" s="8"/>
@@ -7106,600 +7332,600 @@
     </row>
     <row r="410" ht="21" spans="1:4">
       <c r="A410" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B410" s="13" t="s">
-        <v>486</v>
+        <v>530</v>
       </c>
       <c r="C410" s="18"/>
       <c r="D410" s="8"/>
     </row>
     <row r="411" ht="21" spans="1:4">
       <c r="A411" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B411" s="13" t="s">
-        <v>487</v>
+        <v>531</v>
       </c>
       <c r="C411" s="18"/>
       <c r="D411" s="8"/>
     </row>
     <row r="412" ht="21" spans="1:4">
       <c r="A412" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B412" s="13" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="C412" s="18"/>
       <c r="D412" s="8"/>
     </row>
     <row r="413" ht="21" spans="1:4">
       <c r="A413" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B413" s="13" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="C413" s="18"/>
       <c r="D413" s="8"/>
     </row>
     <row r="414" ht="21" spans="1:4">
       <c r="A414" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B414" s="13" t="s">
-        <v>490</v>
+        <v>534</v>
       </c>
       <c r="C414" s="18"/>
       <c r="D414" s="8"/>
     </row>
     <row r="415" ht="21" spans="1:4">
       <c r="A415" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B415" s="13" t="s">
-        <v>491</v>
+        <v>535</v>
       </c>
       <c r="C415" s="18"/>
       <c r="D415" s="8"/>
     </row>
     <row r="416" ht="21" spans="1:4">
       <c r="A416" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B416" s="13" t="s">
-        <v>492</v>
+        <v>536</v>
       </c>
       <c r="C416" s="18"/>
       <c r="D416" s="8"/>
     </row>
     <row r="417" ht="21" spans="1:4">
       <c r="A417" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B417" s="13" t="s">
-        <v>365</v>
+        <v>409</v>
       </c>
       <c r="C417" s="18"/>
       <c r="D417" s="8"/>
     </row>
     <row r="418" ht="21" spans="1:4">
       <c r="A418" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B418" s="13" t="s">
-        <v>493</v>
+        <v>537</v>
       </c>
       <c r="C418" s="18"/>
       <c r="D418" s="8"/>
     </row>
     <row r="419" ht="21" spans="1:4">
       <c r="A419" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B419" s="13" t="s">
-        <v>494</v>
+        <v>538</v>
       </c>
       <c r="C419" s="18"/>
       <c r="D419" s="8"/>
     </row>
     <row r="420" ht="21" spans="1:4">
       <c r="A420" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B420" s="13" t="s">
-        <v>495</v>
+        <v>539</v>
       </c>
       <c r="C420" s="18"/>
       <c r="D420" s="8"/>
     </row>
     <row r="421" ht="21" spans="1:4">
       <c r="A421" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B421" s="13" t="s">
-        <v>496</v>
+        <v>540</v>
       </c>
       <c r="C421" s="18"/>
       <c r="D421" s="8"/>
     </row>
     <row r="422" ht="21" spans="1:4">
       <c r="A422" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B422" s="13" t="s">
-        <v>497</v>
+        <v>541</v>
       </c>
       <c r="C422" s="18"/>
       <c r="D422" s="8"/>
     </row>
     <row r="423" ht="21" spans="1:4">
       <c r="A423" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B423" s="13" t="s">
-        <v>498</v>
+        <v>542</v>
       </c>
       <c r="C423" s="18"/>
       <c r="D423" s="8"/>
     </row>
     <row r="424" ht="21" spans="1:4">
       <c r="A424" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B424" s="13" t="s">
-        <v>499</v>
+        <v>543</v>
       </c>
       <c r="C424" s="18"/>
       <c r="D424" s="8"/>
     </row>
     <row r="425" ht="21" spans="1:4">
       <c r="A425" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B425" s="13" t="s">
-        <v>500</v>
+        <v>544</v>
       </c>
       <c r="C425" s="18"/>
       <c r="D425" s="8"/>
     </row>
     <row r="426" ht="21" spans="1:4">
       <c r="A426" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B426" s="13" t="s">
-        <v>501</v>
+        <v>545</v>
       </c>
       <c r="C426" s="18"/>
       <c r="D426" s="8"/>
     </row>
     <row r="427" ht="21" spans="1:4">
       <c r="A427" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B427" s="13" t="s">
-        <v>502</v>
+        <v>546</v>
       </c>
       <c r="C427" s="18"/>
       <c r="D427" s="8"/>
     </row>
     <row r="428" ht="21" spans="1:4">
       <c r="A428" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B428" s="13" t="s">
-        <v>503</v>
+        <v>547</v>
       </c>
       <c r="C428" s="18"/>
       <c r="D428" s="8"/>
     </row>
     <row r="429" ht="21" spans="1:4">
       <c r="A429" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B429" s="13" t="s">
-        <v>504</v>
+        <v>548</v>
       </c>
       <c r="C429" s="18"/>
       <c r="D429" s="8"/>
     </row>
     <row r="430" ht="21" spans="1:4">
       <c r="A430" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B430" s="13" t="s">
-        <v>505</v>
+        <v>549</v>
       </c>
       <c r="C430" s="18"/>
       <c r="D430" s="8"/>
     </row>
     <row r="431" ht="21" spans="1:4">
       <c r="A431" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B431" s="13" t="s">
-        <v>506</v>
+        <v>550</v>
       </c>
       <c r="C431" s="18"/>
       <c r="D431" s="8"/>
     </row>
     <row r="432" ht="21" spans="1:4">
       <c r="A432" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B432" s="13" t="s">
-        <v>507</v>
+        <v>551</v>
       </c>
       <c r="C432" s="18"/>
       <c r="D432" s="8"/>
     </row>
     <row r="433" ht="21" spans="1:4">
       <c r="A433" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B433" s="13" t="s">
-        <v>508</v>
+        <v>552</v>
       </c>
       <c r="C433" s="18"/>
       <c r="D433" s="8"/>
     </row>
     <row r="434" ht="21" spans="1:4">
       <c r="A434" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B434" s="13" t="s">
-        <v>509</v>
+        <v>553</v>
       </c>
       <c r="C434" s="18"/>
       <c r="D434" s="8"/>
     </row>
     <row r="435" ht="21" spans="1:4">
       <c r="A435" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B435" s="13" t="s">
-        <v>510</v>
+        <v>554</v>
       </c>
       <c r="C435" s="18"/>
       <c r="D435" s="8"/>
     </row>
     <row r="436" ht="21" spans="1:4">
       <c r="A436" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B436" s="13" t="s">
-        <v>511</v>
+        <v>555</v>
       </c>
       <c r="C436" s="18"/>
       <c r="D436" s="8"/>
     </row>
     <row r="437" ht="21" spans="1:4">
       <c r="A437" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B437" s="13" t="s">
-        <v>512</v>
+        <v>556</v>
       </c>
       <c r="C437" s="18"/>
       <c r="D437" s="8"/>
     </row>
     <row r="438" ht="21" spans="1:4">
       <c r="A438" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B438" s="13" t="s">
-        <v>513</v>
+        <v>557</v>
       </c>
       <c r="C438" s="18"/>
       <c r="D438" s="8"/>
     </row>
     <row r="439" ht="21" spans="1:4">
       <c r="A439" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B439" s="13" t="s">
-        <v>514</v>
+        <v>558</v>
       </c>
       <c r="C439" s="18"/>
       <c r="D439" s="8"/>
     </row>
     <row r="440" ht="21" spans="1:4">
       <c r="A440" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B440" s="13" t="s">
-        <v>515</v>
+        <v>559</v>
       </c>
       <c r="C440" s="18"/>
       <c r="D440" s="8"/>
     </row>
     <row r="441" ht="21" spans="1:4">
       <c r="A441" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B441" s="13" t="s">
-        <v>516</v>
+        <v>560</v>
       </c>
       <c r="C441" s="18"/>
       <c r="D441" s="8"/>
     </row>
     <row r="442" ht="21" spans="1:4">
       <c r="A442" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B442" s="13" t="s">
-        <v>517</v>
+        <v>561</v>
       </c>
       <c r="C442" s="18"/>
       <c r="D442" s="8"/>
     </row>
     <row r="443" ht="21" spans="1:4">
       <c r="A443" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B443" s="13" t="s">
-        <v>518</v>
+        <v>562</v>
       </c>
       <c r="C443" s="18"/>
       <c r="D443" s="8"/>
     </row>
     <row r="444" ht="21" spans="1:4">
       <c r="A444" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B444" s="13" t="s">
-        <v>519</v>
+        <v>563</v>
       </c>
       <c r="C444" s="18"/>
       <c r="D444" s="8"/>
     </row>
     <row r="445" ht="21" spans="1:4">
       <c r="A445" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B445" s="13" t="s">
-        <v>520</v>
+        <v>564</v>
       </c>
       <c r="C445" s="18"/>
       <c r="D445" s="8"/>
     </row>
     <row r="446" ht="21" spans="1:4">
       <c r="A446" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B446" s="13" t="s">
-        <v>521</v>
+        <v>565</v>
       </c>
       <c r="C446" s="18"/>
       <c r="D446" s="8"/>
     </row>
     <row r="447" ht="21" spans="1:4">
       <c r="A447" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B447" s="13" t="s">
-        <v>522</v>
+        <v>566</v>
       </c>
       <c r="C447" s="18"/>
       <c r="D447" s="8"/>
     </row>
     <row r="448" ht="21" spans="1:4">
       <c r="A448" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B448" s="13" t="s">
-        <v>523</v>
+        <v>567</v>
       </c>
       <c r="C448" s="18"/>
       <c r="D448" s="8"/>
     </row>
     <row r="449" ht="21" spans="1:4">
       <c r="A449" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B449" s="13" t="s">
-        <v>524</v>
+        <v>568</v>
       </c>
       <c r="C449" s="18"/>
       <c r="D449" s="8"/>
     </row>
     <row r="450" ht="21" spans="1:4">
       <c r="A450" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B450" s="13" t="s">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="C450" s="18"/>
       <c r="D450" s="8"/>
     </row>
     <row r="451" ht="21" spans="1:4">
       <c r="A451" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B451" s="13" t="s">
-        <v>526</v>
+        <v>570</v>
       </c>
       <c r="C451" s="18"/>
       <c r="D451" s="8"/>
     </row>
     <row r="452" ht="21" spans="1:4">
       <c r="A452" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B452" s="13" t="s">
-        <v>527</v>
+        <v>571</v>
       </c>
       <c r="C452" s="18"/>
       <c r="D452" s="8"/>
     </row>
     <row r="453" ht="21" spans="1:4">
       <c r="A453" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B453" s="13" t="s">
-        <v>528</v>
+        <v>572</v>
       </c>
       <c r="C453" s="18"/>
       <c r="D453" s="8"/>
     </row>
     <row r="454" ht="21" spans="1:4">
       <c r="A454" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B454" s="13" t="s">
-        <v>529</v>
+        <v>573</v>
       </c>
       <c r="C454" s="18"/>
       <c r="D454" s="8"/>
     </row>
     <row r="455" ht="21" spans="1:4">
       <c r="A455" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B455" s="13" t="s">
-        <v>530</v>
+        <v>574</v>
       </c>
       <c r="C455" s="18"/>
       <c r="D455" s="8"/>
     </row>
     <row r="456" ht="21" spans="1:4">
       <c r="A456" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B456" s="13" t="s">
-        <v>531</v>
+        <v>575</v>
       </c>
       <c r="C456" s="18"/>
       <c r="D456" s="8"/>
     </row>
     <row r="457" ht="21" spans="1:4">
       <c r="A457" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B457" s="13" t="s">
-        <v>532</v>
+        <v>576</v>
       </c>
       <c r="C457" s="18"/>
       <c r="D457" s="8"/>
     </row>
     <row r="458" ht="21" spans="1:4">
       <c r="A458" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B458" s="13" t="s">
-        <v>533</v>
+        <v>577</v>
       </c>
       <c r="C458" s="18"/>
       <c r="D458" s="8"/>
     </row>
     <row r="459" ht="21" spans="1:4">
       <c r="A459" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B459" s="13" t="s">
-        <v>534</v>
+        <v>578</v>
       </c>
       <c r="C459" s="18"/>
       <c r="D459" s="8"/>
     </row>
     <row r="460" ht="21" spans="1:4">
       <c r="A460" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B460" s="13" t="s">
-        <v>535</v>
+        <v>579</v>
       </c>
       <c r="C460" s="18"/>
       <c r="D460" s="8"/>
     </row>
     <row r="461" ht="21" spans="1:4">
       <c r="A461" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B461" s="13" t="s">
-        <v>536</v>
+        <v>580</v>
       </c>
       <c r="C461" s="18"/>
       <c r="D461" s="8"/>
     </row>
     <row r="462" ht="21" spans="1:4">
       <c r="A462" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B462" s="13" t="s">
-        <v>537</v>
+        <v>581</v>
       </c>
       <c r="C462" s="18"/>
       <c r="D462" s="8"/>
     </row>
     <row r="463" ht="21" spans="1:4">
       <c r="A463" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B463" s="13" t="s">
-        <v>538</v>
+        <v>582</v>
       </c>
       <c r="C463" s="18"/>
       <c r="D463" s="8"/>
     </row>
     <row r="464" ht="21" spans="1:4">
       <c r="A464" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B464" s="13" t="s">
-        <v>539</v>
+        <v>583</v>
       </c>
       <c r="C464" s="18"/>
       <c r="D464" s="8"/>
     </row>
     <row r="465" ht="21" spans="1:4">
       <c r="A465" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B465" s="13" t="s">
-        <v>540</v>
+        <v>584</v>
       </c>
       <c r="C465" s="18"/>
       <c r="D465" s="8"/>
     </row>
     <row r="466" ht="21" spans="1:4">
       <c r="A466" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B466" s="13" t="s">
-        <v>541</v>
+        <v>585</v>
       </c>
       <c r="C466" s="18"/>
       <c r="D466" s="8"/>
     </row>
     <row r="467" ht="21" spans="1:4">
       <c r="A467" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B467" s="13" t="s">
-        <v>542</v>
+        <v>586</v>
       </c>
       <c r="C467" s="18"/>
       <c r="D467" s="8"/>
     </row>
     <row r="468" ht="21" spans="1:4">
       <c r="A468" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B468" s="13" t="s">
-        <v>543</v>
+        <v>587</v>
       </c>
       <c r="C468" s="18"/>
       <c r="D468" s="8"/>
     </row>
     <row r="469" ht="21" spans="1:4">
       <c r="A469" s="9" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B469" s="13" t="s">
-        <v>544</v>
+        <v>588</v>
       </c>
       <c r="C469" s="18"/>
       <c r="D469" s="8"/>
@@ -7717,100 +7943,100 @@
     </row>
     <row r="472" ht="21" spans="1:4">
       <c r="A472" s="9" t="s">
-        <v>545</v>
+        <v>589</v>
       </c>
       <c r="B472" s="13" t="s">
-        <v>546</v>
+        <v>590</v>
       </c>
       <c r="C472" s="18"/>
       <c r="D472" s="8"/>
     </row>
     <row r="473" ht="21" spans="1:4">
       <c r="A473" s="9" t="s">
-        <v>545</v>
+        <v>589</v>
       </c>
       <c r="B473" s="13" t="s">
-        <v>547</v>
+        <v>591</v>
       </c>
       <c r="C473" s="18"/>
       <c r="D473" s="8"/>
     </row>
     <row r="474" ht="21" spans="1:4">
       <c r="A474" s="9" t="s">
-        <v>545</v>
+        <v>589</v>
       </c>
       <c r="B474" s="13" t="s">
-        <v>548</v>
+        <v>592</v>
       </c>
       <c r="C474" s="18"/>
       <c r="D474" s="8"/>
     </row>
     <row r="475" ht="21" spans="1:4">
       <c r="A475" s="9" t="s">
-        <v>545</v>
+        <v>589</v>
       </c>
       <c r="B475" s="13" t="s">
-        <v>549</v>
+        <v>593</v>
       </c>
       <c r="C475" s="18"/>
       <c r="D475" s="8"/>
     </row>
     <row r="476" ht="21" spans="1:4">
       <c r="A476" s="9" t="s">
-        <v>545</v>
+        <v>589</v>
       </c>
       <c r="B476" s="13" t="s">
-        <v>550</v>
+        <v>594</v>
       </c>
       <c r="C476" s="18"/>
       <c r="D476" s="8"/>
     </row>
     <row r="477" ht="21" spans="1:4">
       <c r="A477" s="9" t="s">
-        <v>545</v>
+        <v>589</v>
       </c>
       <c r="B477" s="13" t="s">
-        <v>551</v>
+        <v>595</v>
       </c>
       <c r="C477" s="18"/>
       <c r="D477" s="8"/>
     </row>
     <row r="478" ht="21" spans="1:4">
       <c r="A478" s="9" t="s">
-        <v>545</v>
+        <v>589</v>
       </c>
       <c r="B478" s="13" t="s">
-        <v>552</v>
+        <v>596</v>
       </c>
       <c r="C478" s="18"/>
       <c r="D478" s="8"/>
     </row>
     <row r="479" ht="21" spans="1:4">
       <c r="A479" s="9" t="s">
-        <v>545</v>
+        <v>589</v>
       </c>
       <c r="B479" s="13" t="s">
-        <v>553</v>
+        <v>597</v>
       </c>
       <c r="C479" s="18"/>
       <c r="D479" s="8"/>
     </row>
     <row r="480" ht="21" spans="1:4">
       <c r="A480" s="9" t="s">
-        <v>545</v>
+        <v>589</v>
       </c>
       <c r="B480" s="13" t="s">
-        <v>554</v>
+        <v>598</v>
       </c>
       <c r="C480" s="18"/>
       <c r="D480" s="8"/>
     </row>
     <row r="481" ht="21" spans="1:4">
       <c r="A481" s="9" t="s">
-        <v>545</v>
+        <v>589</v>
       </c>
       <c r="B481" s="13" t="s">
-        <v>555</v>
+        <v>599</v>
       </c>
       <c r="C481" s="18"/>
       <c r="D481" s="8"/>
@@ -8353,6 +8579,51 @@
     <hyperlink ref="D109" r:id="rId503" display="https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Search%20in%20array%20if%20adjacent%20differ%20by%20k.cpp"/>
     <hyperlink ref="D110" r:id="rId504" display="https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Find%20Pair%20given%20difference.cpp"/>
     <hyperlink ref="D111" r:id="rId505" display="https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Four%20sum.cpp"/>
+    <hyperlink ref="D139" r:id="rId506" display="https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Reverse%20a%20LinkedList.cpp"/>
+    <hyperlink ref="D140" r:id="rId507" display="https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Reverse%20a%20LinkedList%20in%20groups.cpp"/>
+    <hyperlink ref="D141" r:id="rId508" display="https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Detect%20loop%20in%20LinkedList.cpp"/>
+    <hyperlink ref="D142" r:id="rId509" display="https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Delete%20loop%20in%20a%20LinkedList.cpp"/>
+    <hyperlink ref="D144" r:id="rId510" display="https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Remove%20duplicates%20in%20sorted%20LinkedList.cpp"/>
+    <hyperlink ref="D145" r:id="rId511" display="https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Remove%20duplicates%20in%20unsorted%20LinkedList.cpp"/>
+    <hyperlink ref="D146" r:id="rId512" display="https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Move%20last%20element%20to%20first.cpp"/>
+    <hyperlink ref="D148" r:id="rId513" display="https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Add%20two%20numbers.cpp"/>
+    <hyperlink ref="D149" r:id="rId514" display="https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Intersection%20of%20two%20sorted%20Linked%20lists.cpp"/>
+    <hyperlink ref="D150" r:id="rId515" display="https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Intersection%20point%20in%20Y-shaped%20Linked%20lists.cpp"/>
+    <hyperlink ref="D153" r:id="rId516" display="https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Find%20the%20middle%20element%20of%20LinkedList.cpp"/>
+    <hyperlink ref="D154" r:id="rId517" display="https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Check%20circular%20LinkedList.cpp"/>
+    <hyperlink ref="D155" r:id="rId518" display="https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Split%20Circular%20LinkedList%20into%20two%20halves.cpp"/>
+    <hyperlink ref="D156" r:id="rId519" display="https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Check%20palindrome%20LinkedList.cpp"/>
+    <hyperlink ref="D157" r:id="rId520" display="https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Delete%20Node%20of%20Circular%20LinkedList.cpp"/>
+    <hyperlink ref="D158" r:id="rId521" display="https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Reverse%20a%20Doubly%20Linked%20List.cpp"/>
+    <hyperlink ref="D163" r:id="rId507" display="https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Reverse%20a%20LinkedList%20in%20groups.cpp"/>
+    <hyperlink ref="D159" r:id="rId522" display="https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Find%20pairs%20with%20given%20sum%20in%20DLL.cpp"/>
+    <hyperlink ref="D160" r:id="rId523" display="https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Triplets%20with%20given%20sum%20in%20DLL.cpp"/>
+    <hyperlink ref="D162" r:id="rId524" display="https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Rotate%20Doubly%20linked%20list%20by%20N%20nodes.cpp"/>
+    <hyperlink ref="D166" r:id="rId525" display="https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Flattening%20a%20Linked%20List.cpp"/>
+    <hyperlink ref="D167" r:id="rId526" display="https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Sort%20a%20LinkedList%20of%200s-1s-2s.cpp"/>
+    <hyperlink ref="D168" r:id="rId527" display="https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Copy%20LinkedList%20with%20next%20%26%20random%20ptr.cpp"/>
+    <hyperlink ref="D170" r:id="rId528" display="https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Multiply%20two%20LinkedLists.cpp"/>
+    <hyperlink ref="D171" r:id="rId529" display="https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Delete%20nodes%20having%20greater%20value%20on%20right.cpp"/>
+    <hyperlink ref="D172" r:id="rId530" display="https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Separate%20even%20and%20odd%20nodes%20in%20LL.cpp"/>
+    <hyperlink ref="D173" r:id="rId531" display="https://github.com/zee-bit/FINAL450/blob/main/LinkedList/Nth%20node%20from%20end%20of%20linked%20list.cpp"/>
+    <hyperlink ref="D174" r:id="rId532" display="https://github.com/zee-bit/FINAL450/blob/main/LinkedList/First%20non-repeating%20character%20in%20a%20stream.cpp"/>
+    <hyperlink ref="D112" r:id="rId533" display="https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Max%20sum%20with%20no%20adjacent%20element.cpp"/>
+    <hyperlink ref="D113" r:id="rId534" display="https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Count%20triplets%20with%20sum%20smaller%20than%20X.cpp"/>
+    <hyperlink ref="D114" r:id="rId535" display="https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Merge%20two%20sorted%20arrays.cpp"/>
+    <hyperlink ref="D115" r:id="rId536" display="https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Subarrays%20with%200%20sum.cpp"/>
+    <hyperlink ref="D116" r:id="rId537" display="https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Product%20array%20Puzzle.cpp"/>
+    <hyperlink ref="D117" r:id="rId538" display="https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Sort%20by%20set%20bit%20count.cpp"/>
+    <hyperlink ref="D119" r:id="rId539" display="https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Bishu%20and%20Soldiers.cpp"/>
+    <hyperlink ref="D121" r:id="rId540" display="https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Kth%20smallest%20number%20again.cpp"/>
+    <hyperlink ref="D124" r:id="rId541" display="https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Aggressive%20cows.cpp"/>
+    <hyperlink ref="D126" r:id="rId542" display="https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/EKOSPOJ.cpp"/>
+    <hyperlink ref="D127" r:id="rId543" display="https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Job%20Scheduling.cpp"/>
+    <hyperlink ref="D129" r:id="rId544" display="https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Smallest%20factorial%20number.cpp"/>
+    <hyperlink ref="D130" r:id="rId545" display="https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Painter%20Partition%20problem.cpp"/>
+    <hyperlink ref="D131" r:id="rId546" display="https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/PRATA%20-%20Roti%20Prata.cpp"/>
+    <hyperlink ref="D132" r:id="rId547" display="https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/ANARC05B%20-%20The%20Double%20HeLiX.cpp"/>
+    <hyperlink ref="D133" r:id="rId548" display="https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/SUBSUMS%20-%20Subset%20Sums.cpp"/>
+    <hyperlink ref="D134" r:id="rId549" display="https://github.com/zee-bit/FINAL450/blob/main/Searching%20%26%20Sorting/Count%20Inversions.cpp"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="600">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -2984,8 +2984,8 @@
   <sheetPr/>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="C186" sqref="C186"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="C189" sqref="C189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -3087,7 +3087,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3099,7 +3099,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="14"/>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       <c r="C14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5182,37 +5182,39 @@
       <c r="A187" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B187" s="13" t="s">
+      <c r="B187" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="C187" s="18"/>
+      <c r="C187" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D187" s="8"/>
     </row>
     <row r="188" ht="21" spans="1:4">
       <c r="A188" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B188" s="13" t="s">
+      <c r="B188" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="C188" s="18"/>
+      <c r="C188" s="14"/>
       <c r="D188" s="8"/>
     </row>
     <row r="189" ht="21" spans="1:4">
       <c r="A189" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B189" s="13" t="s">
+      <c r="B189" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="C189" s="18"/>
+      <c r="C189" s="14"/>
       <c r="D189" s="8"/>
     </row>
     <row r="190" ht="21" spans="1:4">
       <c r="A190" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B190" s="13" t="s">
+      <c r="B190" s="10" t="s">
         <v>321</v>
       </c>
       <c r="C190" s="18"/>
@@ -5222,7 +5224,7 @@
       <c r="A191" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B191" s="13" t="s">
+      <c r="B191" s="10" t="s">
         <v>322</v>
       </c>
       <c r="C191" s="18"/>
@@ -5232,7 +5234,7 @@
       <c r="A192" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B192" s="13" t="s">
+      <c r="B192" s="10" t="s">
         <v>323</v>
       </c>
       <c r="C192" s="18"/>
@@ -5242,7 +5244,7 @@
       <c r="A193" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B193" s="13" t="s">
+      <c r="B193" s="10" t="s">
         <v>324</v>
       </c>
       <c r="C193" s="18"/>
@@ -5252,7 +5254,7 @@
       <c r="A194" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B194" s="13" t="s">
+      <c r="B194" s="10" t="s">
         <v>325</v>
       </c>
       <c r="C194" s="18"/>
@@ -5262,7 +5264,7 @@
       <c r="A195" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B195" s="13" t="s">
+      <c r="B195" s="10" t="s">
         <v>326</v>
       </c>
       <c r="C195" s="18"/>
@@ -5272,7 +5274,7 @@
       <c r="A196" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B196" s="13" t="s">
+      <c r="B196" s="10" t="s">
         <v>327</v>
       </c>
       <c r="C196" s="18"/>
@@ -5282,7 +5284,7 @@
       <c r="A197" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B197" s="13" t="s">
+      <c r="B197" s="10" t="s">
         <v>328</v>
       </c>
       <c r="C197" s="18"/>
@@ -5292,7 +5294,7 @@
       <c r="A198" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B198" s="13" t="s">
+      <c r="B198" s="10" t="s">
         <v>329</v>
       </c>
       <c r="C198" s="18"/>
@@ -5302,7 +5304,7 @@
       <c r="A199" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B199" s="13" t="s">
+      <c r="B199" s="10" t="s">
         <v>330</v>
       </c>
       <c r="C199" s="18"/>
@@ -5312,7 +5314,7 @@
       <c r="A200" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B200" s="13" t="s">
+      <c r="B200" s="10" t="s">
         <v>331</v>
       </c>
       <c r="C200" s="18"/>
@@ -5322,7 +5324,7 @@
       <c r="A201" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B201" s="13" t="s">
+      <c r="B201" s="10" t="s">
         <v>332</v>
       </c>
       <c r="C201" s="18"/>
@@ -5332,7 +5334,7 @@
       <c r="A202" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B202" s="13" t="s">
+      <c r="B202" s="10" t="s">
         <v>333</v>
       </c>
       <c r="C202" s="18"/>
@@ -5342,7 +5344,7 @@
       <c r="A203" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B203" s="13" t="s">
+      <c r="B203" s="10" t="s">
         <v>334</v>
       </c>
       <c r="C203" s="18"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="600">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -2984,8 +2984,8 @@
   <sheetPr/>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="C189" sqref="C189"/>
+    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="C211" sqref="C211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -5217,7 +5217,7 @@
       <c r="B190" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="C190" s="18"/>
+      <c r="C190" s="14"/>
       <c r="D190" s="8"/>
     </row>
     <row r="191" ht="21" spans="1:4">
@@ -5227,7 +5227,9 @@
       <c r="B191" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="C191" s="18"/>
+      <c r="C191" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D191" s="8"/>
     </row>
     <row r="192" ht="21" spans="1:4">
@@ -5237,7 +5239,9 @@
       <c r="B192" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="C192" s="18"/>
+      <c r="C192" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D192" s="8"/>
     </row>
     <row r="193" ht="21" spans="1:4">
@@ -5247,7 +5251,9 @@
       <c r="B193" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="C193" s="18"/>
+      <c r="C193" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D193" s="8"/>
     </row>
     <row r="194" ht="21" spans="1:4">
@@ -5257,7 +5263,9 @@
       <c r="B194" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="C194" s="18"/>
+      <c r="C194" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D194" s="8"/>
     </row>
     <row r="195" ht="21" spans="1:4">
@@ -5267,7 +5275,7 @@
       <c r="B195" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="C195" s="18"/>
+      <c r="C195" s="14"/>
       <c r="D195" s="8"/>
     </row>
     <row r="196" ht="21" spans="1:4">
@@ -5277,7 +5285,7 @@
       <c r="B196" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="C196" s="18"/>
+      <c r="C196" s="14"/>
       <c r="D196" s="8"/>
     </row>
     <row r="197" ht="21" spans="1:4">
@@ -5287,7 +5295,7 @@
       <c r="B197" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="C197" s="18"/>
+      <c r="C197" s="14"/>
       <c r="D197" s="8"/>
     </row>
     <row r="198" ht="21" spans="1:4">
@@ -5297,7 +5305,7 @@
       <c r="B198" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="C198" s="18"/>
+      <c r="C198" s="14"/>
       <c r="D198" s="8"/>
     </row>
     <row r="199" ht="21" spans="1:4">
@@ -5307,7 +5315,7 @@
       <c r="B199" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="C199" s="18"/>
+      <c r="C199" s="14"/>
       <c r="D199" s="8"/>
     </row>
     <row r="200" ht="21" spans="1:4">
@@ -5317,7 +5325,7 @@
       <c r="B200" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="C200" s="18"/>
+      <c r="C200" s="14"/>
       <c r="D200" s="8"/>
     </row>
     <row r="201" ht="21" spans="1:4">
@@ -5327,7 +5335,7 @@
       <c r="B201" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="C201" s="18"/>
+      <c r="C201" s="14"/>
       <c r="D201" s="8"/>
     </row>
     <row r="202" ht="21" spans="1:4">
@@ -5337,7 +5345,7 @@
       <c r="B202" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="C202" s="18"/>
+      <c r="C202" s="14"/>
       <c r="D202" s="8"/>
     </row>
     <row r="203" ht="21" spans="1:4">
@@ -5347,87 +5355,95 @@
       <c r="B203" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="C203" s="18"/>
+      <c r="C203" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D203" s="8"/>
     </row>
     <row r="204" ht="21" spans="1:4">
       <c r="A204" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B204" s="13" t="s">
+      <c r="B204" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="C204" s="18"/>
+      <c r="C204" s="14"/>
       <c r="D204" s="8"/>
     </row>
     <row r="205" ht="21" spans="1:4">
       <c r="A205" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B205" s="13" t="s">
+      <c r="B205" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="C205" s="18"/>
+      <c r="C205" s="14"/>
       <c r="D205" s="8"/>
     </row>
     <row r="206" ht="21" spans="1:4">
       <c r="A206" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B206" s="13" t="s">
+      <c r="B206" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="C206" s="18"/>
+      <c r="C206" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D206" s="8"/>
     </row>
     <row r="207" ht="21" spans="1:4">
       <c r="A207" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B207" s="13" t="s">
+      <c r="B207" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="C207" s="18"/>
+      <c r="C207" s="14"/>
       <c r="D207" s="8"/>
     </row>
     <row r="208" ht="21" spans="1:4">
       <c r="A208" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B208" s="13" t="s">
+      <c r="B208" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="C208" s="18"/>
+      <c r="C208" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D208" s="8"/>
     </row>
     <row r="209" ht="21" spans="1:4">
       <c r="A209" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B209" s="13" t="s">
+      <c r="B209" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="C209" s="18"/>
+      <c r="C209" s="14"/>
       <c r="D209" s="8"/>
     </row>
     <row r="210" ht="21" spans="1:4">
       <c r="A210" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B210" s="13" t="s">
+      <c r="B210" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="C210" s="18"/>
+      <c r="C210" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D210" s="8"/>
     </row>
     <row r="211" ht="21" spans="1:4">
       <c r="A211" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B211" s="13" t="s">
+      <c r="B211" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="C211" s="18"/>
+      <c r="C211" s="14"/>
       <c r="D211" s="8"/>
     </row>
     <row r="212" ht="21" spans="1:4">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="600">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1137,7 +1137,7 @@
     <t>Convert a normal BST into a Balanced BST</t>
   </si>
   <si>
-    <t>Merge two BST [ V.V.V&gt;IMP ]</t>
+    <t>Merge two BST [ V.V.V IMP ]</t>
   </si>
   <si>
     <t>Find Kth largest element in a BST</t>
@@ -1973,40 +1973,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2018,7 +1987,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2041,7 +2032,53 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2049,14 +2086,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2070,41 +2100,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2153,25 +2153,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2183,7 +2165,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2201,25 +2189,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2231,13 +2201,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2249,7 +2225,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2261,25 +2249,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2291,7 +2267,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2303,13 +2285,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2327,13 +2303,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2375,15 +2375,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2414,21 +2405,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2444,16 +2420,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2472,124 +2439,157 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2598,19 +2598,19 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2618,7 +2618,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2659,6 +2659,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2984,8 +2987,8 @@
   <sheetPr/>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="C211" sqref="C211"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="C235" sqref="C235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -5462,60 +5465,60 @@
       <c r="A214" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="B214" s="13" t="s">
+      <c r="B214" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="C214" s="18"/>
+      <c r="C214" s="14"/>
       <c r="D214" s="8"/>
     </row>
     <row r="215" ht="21" spans="1:4">
       <c r="A215" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="B215" s="13" t="s">
+      <c r="B215" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="C215" s="18"/>
+      <c r="C215" s="14"/>
       <c r="D215" s="8"/>
     </row>
     <row r="216" ht="21" spans="1:4">
       <c r="A216" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="B216" s="13" t="s">
+      <c r="B216" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="C216" s="18"/>
+      <c r="C216" s="14"/>
       <c r="D216" s="8"/>
     </row>
     <row r="217" ht="21" spans="1:4">
       <c r="A217" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="B217" s="13" t="s">
+      <c r="B217" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="C217" s="18"/>
+      <c r="C217" s="14"/>
       <c r="D217" s="8"/>
     </row>
     <row r="218" ht="21" spans="1:4">
       <c r="A218" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="B218" s="13" t="s">
+      <c r="B218" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="C218" s="18"/>
+      <c r="C218" s="14"/>
       <c r="D218" s="8"/>
     </row>
     <row r="219" ht="21" spans="1:4">
       <c r="A219" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="B219" s="13" t="s">
+      <c r="B219" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C219" s="18"/>
+      <c r="C219" s="14"/>
       <c r="D219" s="8"/>
     </row>
     <row r="220" ht="21" spans="1:4">
@@ -5525,17 +5528,17 @@
       <c r="B220" s="19" t="s">
         <v>350</v>
       </c>
-      <c r="C220" s="18"/>
+      <c r="C220" s="14"/>
       <c r="D220" s="8"/>
     </row>
     <row r="221" ht="21" spans="1:4">
       <c r="A221" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="B221" s="13" t="s">
+      <c r="B221" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="C221" s="18"/>
+      <c r="C221" s="14"/>
       <c r="D221" s="8"/>
     </row>
     <row r="222" ht="21" spans="1:4">
@@ -5572,20 +5575,20 @@
       <c r="A225" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="B225" s="13" t="s">
+      <c r="B225" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="C225" s="18"/>
+      <c r="C225" s="14"/>
       <c r="D225" s="8"/>
     </row>
     <row r="226" ht="21" spans="1:4">
       <c r="A226" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="B226" s="13" t="s">
+      <c r="B226" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="C226" s="18"/>
+      <c r="C226" s="14"/>
       <c r="D226" s="8"/>
     </row>
     <row r="227" ht="21" spans="1:4">
@@ -5672,10 +5675,12 @@
       <c r="A235" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="B235" s="13" t="s">
+      <c r="B235" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="C235" s="18"/>
+      <c r="C235" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D235" s="8"/>
     </row>
     <row r="236" ht="21" spans="2:4">
@@ -6382,7 +6387,7 @@
       <c r="A309" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B309" s="19" t="s">
+      <c r="B309" s="20" t="s">
         <v>435</v>
       </c>
       <c r="C309" s="18"/>
@@ -6722,7 +6727,7 @@
       <c r="A344" s="16" t="s">
         <v>460</v>
       </c>
-      <c r="B344" s="19" t="s">
+      <c r="B344" s="20" t="s">
         <v>469</v>
       </c>
       <c r="C344" s="18"/>
@@ -8262,7 +8267,7 @@
     <hyperlink ref="B221" r:id="rId195" display="Construct BST from preorder traversal"/>
     <hyperlink ref="B222" r:id="rId196" display="Convert Binary tree into BST"/>
     <hyperlink ref="B223" r:id="rId197" display="Convert a normal BST into a Balanced BST"/>
-    <hyperlink ref="B224" r:id="rId198" display="Merge two BST [ V.V.V&gt;IMP ]"/>
+    <hyperlink ref="B224" r:id="rId198" display="Merge two BST [ V.V.V IMP ]"/>
     <hyperlink ref="B225" r:id="rId199" display="Find Kth largest element in a BST"/>
     <hyperlink ref="B226" r:id="rId200" display="Find Kth smallest element in a BST"/>
     <hyperlink ref="B227" r:id="rId201" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="600">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -2987,8 +2987,8 @@
   <sheetPr/>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="C235" sqref="C235"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="C224" sqref="C224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -5545,30 +5545,32 @@
       <c r="A222" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="B222" s="13" t="s">
+      <c r="B222" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="C222" s="18"/>
+      <c r="C222" s="14"/>
       <c r="D222" s="8"/>
     </row>
     <row r="223" ht="21" spans="1:4">
       <c r="A223" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="B223" s="13" t="s">
+      <c r="B223" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="C223" s="18"/>
+      <c r="C223" s="14"/>
       <c r="D223" s="8"/>
     </row>
     <row r="224" ht="21" spans="1:4">
       <c r="A224" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="B224" s="13" t="s">
+      <c r="B224" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="C224" s="18"/>
+      <c r="C224" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D224" s="8"/>
     </row>
     <row r="225" ht="21" spans="1:4">
@@ -5595,47 +5597,51 @@
       <c r="A227" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="B227" s="13" t="s">
+      <c r="B227" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="C227" s="18"/>
+      <c r="C227" s="14"/>
       <c r="D227" s="8"/>
     </row>
     <row r="228" ht="21" spans="1:4">
       <c r="A228" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="B228" s="13" t="s">
+      <c r="B228" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="C228" s="18"/>
+      <c r="C228" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D228" s="8"/>
     </row>
     <row r="229" ht="21" spans="1:4">
       <c r="A229" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="B229" s="13" t="s">
+      <c r="B229" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="C229" s="18"/>
+      <c r="C229" s="14"/>
       <c r="D229" s="8"/>
     </row>
     <row r="230" ht="21" spans="1:4">
       <c r="A230" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="B230" s="13" t="s">
+      <c r="B230" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="C230" s="18"/>
+      <c r="C230" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D230" s="8"/>
     </row>
     <row r="231" ht="21" spans="1:4">
       <c r="A231" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="B231" s="13" t="s">
+      <c r="B231" s="10" t="s">
         <v>361</v>
       </c>
       <c r="C231" s="18"/>
@@ -5645,7 +5651,7 @@
       <c r="A232" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="B232" s="13" t="s">
+      <c r="B232" s="10" t="s">
         <v>362</v>
       </c>
       <c r="C232" s="18"/>
@@ -5655,20 +5661,22 @@
       <c r="A233" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="B233" s="13" t="s">
+      <c r="B233" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="C233" s="18"/>
+      <c r="C233" s="14"/>
       <c r="D233" s="8"/>
     </row>
     <row r="234" ht="21" spans="1:4">
       <c r="A234" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="B234" s="13" t="s">
+      <c r="B234" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="C234" s="18"/>
+      <c r="C234" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D234" s="8"/>
     </row>
     <row r="235" ht="21" spans="1:4">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="600">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -2987,8 +2987,8 @@
   <sheetPr/>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="C224" sqref="C224"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="C247" sqref="C247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -5654,7 +5654,7 @@
       <c r="B232" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="C232" s="18"/>
+      <c r="C232" s="14"/>
       <c r="D232" s="8"/>
     </row>
     <row r="233" ht="21" spans="1:4">
@@ -5705,100 +5705,116 @@
       <c r="A238" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B238" s="13" t="s">
+      <c r="B238" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="C238" s="18"/>
+      <c r="C238" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D238" s="8"/>
     </row>
     <row r="239" ht="21" spans="1:4">
       <c r="A239" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B239" s="13" t="s">
+      <c r="B239" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="C239" s="18"/>
+      <c r="C239" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D239" s="8"/>
     </row>
     <row r="240" ht="21" spans="1:4">
       <c r="A240" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B240" s="13" t="s">
+      <c r="B240" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="C240" s="18"/>
+      <c r="C240" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D240" s="8"/>
     </row>
     <row r="241" ht="21" spans="1:4">
       <c r="A241" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B241" s="13" t="s">
+      <c r="B241" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="C241" s="18"/>
+      <c r="C241" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D241" s="8"/>
     </row>
     <row r="242" ht="21" spans="1:4">
       <c r="A242" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B242" s="13" t="s">
+      <c r="B242" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="C242" s="18"/>
+      <c r="C242" s="14"/>
       <c r="D242" s="8"/>
     </row>
     <row r="243" ht="21" spans="1:4">
       <c r="A243" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B243" s="13" t="s">
+      <c r="B243" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="C243" s="18"/>
+      <c r="C243" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D243" s="8"/>
     </row>
     <row r="244" ht="21" spans="1:4">
       <c r="A244" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B244" s="13" t="s">
+      <c r="B244" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="C244" s="18"/>
+      <c r="C244" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D244" s="8"/>
     </row>
     <row r="245" ht="21" spans="1:4">
       <c r="A245" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B245" s="13" t="s">
+      <c r="B245" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="C245" s="18"/>
+      <c r="C245" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D245" s="8"/>
     </row>
     <row r="246" ht="21" spans="1:4">
       <c r="A246" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B246" s="13" t="s">
+      <c r="B246" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="C246" s="18"/>
+      <c r="C246" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D246" s="8"/>
     </row>
     <row r="247" ht="21" spans="1:4">
       <c r="A247" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B247" s="13" t="s">
+      <c r="B247" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="C247" s="18"/>
+      <c r="C247" s="14"/>
       <c r="D247" s="8"/>
     </row>
     <row r="248" ht="21" spans="1:4">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="600">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1880,9 +1880,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
@@ -1972,10 +1972,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1986,30 +1995,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2024,7 +2012,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2039,46 +2086,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2097,14 +2105,6 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2153,25 +2153,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2189,7 +2201,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2201,13 +2249,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2219,49 +2279,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2279,13 +2309,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2297,37 +2327,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2375,6 +2375,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2407,10 +2431,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2418,24 +2440,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2463,154 +2472,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2987,8 +2987,8 @@
   <sheetPr/>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="C247" sqref="C247"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="C260" sqref="C260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -5821,7 +5821,7 @@
       <c r="A248" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B248" s="13" t="s">
+      <c r="B248" s="10" t="s">
         <v>377</v>
       </c>
       <c r="C248" s="18"/>
@@ -5831,7 +5831,7 @@
       <c r="A249" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B249" s="13" t="s">
+      <c r="B249" s="10" t="s">
         <v>378</v>
       </c>
       <c r="C249" s="18"/>
@@ -5841,87 +5841,91 @@
       <c r="A250" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B250" s="13" t="s">
+      <c r="B250" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="C250" s="18"/>
+      <c r="C250" s="14"/>
       <c r="D250" s="8"/>
     </row>
     <row r="251" ht="21" spans="1:4">
       <c r="A251" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B251" s="13" t="s">
+      <c r="B251" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="C251" s="18"/>
+      <c r="C251" s="14"/>
       <c r="D251" s="8"/>
     </row>
     <row r="252" ht="21" spans="1:4">
       <c r="A252" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B252" s="13" t="s">
+      <c r="B252" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="C252" s="18"/>
+      <c r="C252" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D252" s="8"/>
     </row>
     <row r="253" ht="21" spans="1:4">
       <c r="A253" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B253" s="13" t="s">
+      <c r="B253" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="C253" s="18"/>
+      <c r="C253" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D253" s="8"/>
     </row>
     <row r="254" ht="21" spans="1:4">
       <c r="A254" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B254" s="13" t="s">
+      <c r="B254" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="C254" s="18"/>
+      <c r="C254" s="14"/>
       <c r="D254" s="8"/>
     </row>
     <row r="255" ht="21" spans="1:4">
       <c r="A255" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B255" s="13" t="s">
+      <c r="B255" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="C255" s="18"/>
+      <c r="C255" s="14"/>
       <c r="D255" s="8"/>
     </row>
     <row r="256" ht="21" spans="1:4">
       <c r="A256" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B256" s="13" t="s">
+      <c r="B256" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="C256" s="18"/>
+      <c r="C256" s="14"/>
       <c r="D256" s="8"/>
     </row>
     <row r="257" ht="21" spans="1:4">
       <c r="A257" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B257" s="13" t="s">
+      <c r="B257" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="C257" s="18"/>
+      <c r="C257" s="14"/>
       <c r="D257" s="8"/>
     </row>
     <row r="258" ht="21" spans="1:4">
       <c r="A258" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B258" s="13" t="s">
+      <c r="B258" s="10" t="s">
         <v>387</v>
       </c>
       <c r="C258" s="18"/>
@@ -5941,10 +5945,10 @@
       <c r="A260" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B260" s="13" t="s">
+      <c r="B260" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="C260" s="18"/>
+      <c r="C260" s="14"/>
       <c r="D260" s="8"/>
     </row>
     <row r="261" ht="21" spans="1:4">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="600">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1880,10 +1880,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1972,9 +1972,115 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1989,75 +2095,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2065,44 +2103,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2153,7 +2153,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2165,7 +2285,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2177,25 +2303,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2207,133 +2327,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2375,15 +2375,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2395,6 +2386,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2414,30 +2414,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2445,15 +2421,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2472,145 +2439,178 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2987,8 +2987,8 @@
   <sheetPr/>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="C260" sqref="C260"/>
+    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
+      <selection activeCell="C258" sqref="C258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -5928,7 +5928,9 @@
       <c r="B258" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="C258" s="18"/>
+      <c r="C258" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D258" s="8"/>
     </row>
     <row r="259" ht="21" spans="1:4">
@@ -5955,47 +5957,51 @@
       <c r="A261" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B261" s="13" t="s">
+      <c r="B261" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="C261" s="18"/>
+      <c r="C261" s="14"/>
       <c r="D261" s="8"/>
     </row>
     <row r="262" ht="21" spans="1:4">
       <c r="A262" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B262" s="13" t="s">
+      <c r="B262" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="C262" s="18"/>
+      <c r="C262" s="14"/>
       <c r="D262" s="8"/>
     </row>
     <row r="263" ht="21" spans="1:4">
       <c r="A263" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B263" s="13" t="s">
+      <c r="B263" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="C263" s="18"/>
+      <c r="C263" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D263" s="8"/>
     </row>
     <row r="264" ht="21" spans="1:4">
       <c r="A264" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B264" s="13" t="s">
+      <c r="B264" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="C264" s="18"/>
+      <c r="C264" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D264" s="8"/>
     </row>
     <row r="265" ht="21" spans="1:4">
       <c r="A265" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B265" s="13" t="s">
+      <c r="B265" s="10" t="s">
         <v>394</v>
       </c>
       <c r="C265" s="18"/>
@@ -6005,17 +6011,19 @@
       <c r="A266" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B266" s="13" t="s">
+      <c r="B266" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="C266" s="18"/>
+      <c r="C266" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D266" s="8"/>
     </row>
     <row r="267" ht="21" spans="1:4">
       <c r="A267" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B267" s="13" t="s">
+      <c r="B267" s="10" t="s">
         <v>396</v>
       </c>
       <c r="C267" s="18"/>
@@ -6025,7 +6033,7 @@
       <c r="A268" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B268" s="13" t="s">
+      <c r="B268" s="10" t="s">
         <v>397</v>
       </c>
       <c r="C268" s="18"/>
@@ -6035,40 +6043,42 @@
       <c r="A269" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B269" s="13" t="s">
+      <c r="B269" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="C269" s="18"/>
+      <c r="C269" s="14"/>
       <c r="D269" s="8"/>
     </row>
     <row r="270" ht="21" spans="1:4">
       <c r="A270" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B270" s="13" t="s">
+      <c r="B270" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="C270" s="18"/>
+      <c r="C270" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D270" s="8"/>
     </row>
     <row r="271" ht="21" spans="1:4">
       <c r="A271" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B271" s="13" t="s">
+      <c r="B271" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C271" s="18"/>
+      <c r="C271" s="14"/>
       <c r="D271" s="8"/>
     </row>
     <row r="272" ht="21" spans="1:4">
       <c r="A272" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B272" s="13" t="s">
+      <c r="B272" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="C272" s="18"/>
+      <c r="C272" s="14"/>
       <c r="D272" s="8"/>
     </row>
     <row r="273" ht="21" spans="2:4">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="600">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1880,10 +1880,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1972,47 +1972,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2026,31 +1995,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2072,10 +2026,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2086,8 +2064,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2102,7 +2094,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2153,19 +2153,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2177,7 +2171,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2189,13 +2183,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2207,25 +2231,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2237,13 +2249,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2261,7 +2273,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2273,7 +2309,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2285,55 +2333,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2390,15 +2390,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2416,11 +2407,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2442,9 +2446,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2458,159 +2464,153 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2987,8 +2987,8 @@
   <sheetPr/>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
-      <selection activeCell="C258" sqref="C258"/>
+    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
+      <selection activeCell="C293" sqref="C293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -6095,57 +6095,65 @@
       <c r="A275" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="B275" s="13" t="s">
+      <c r="B275" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="C275" s="18"/>
+      <c r="C275" s="14"/>
       <c r="D275" s="8"/>
     </row>
     <row r="276" ht="21" spans="1:4">
       <c r="A276" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="B276" s="13" t="s">
+      <c r="B276" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="C276" s="18"/>
+      <c r="C276" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D276" s="8"/>
     </row>
     <row r="277" ht="21" spans="1:4">
       <c r="A277" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="B277" s="13" t="s">
+      <c r="B277" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="C277" s="18"/>
+      <c r="C277" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D277" s="8"/>
     </row>
     <row r="278" ht="21" spans="1:4">
       <c r="A278" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="B278" s="13" t="s">
+      <c r="B278" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="C278" s="18"/>
+      <c r="C278" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D278" s="8"/>
     </row>
     <row r="279" ht="21" spans="1:4">
       <c r="A279" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="B279" s="13" t="s">
+      <c r="B279" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C279" s="18"/>
+      <c r="C279" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D279" s="8"/>
     </row>
     <row r="280" ht="21" spans="1:4">
       <c r="A280" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="B280" s="13" t="s">
+      <c r="B280" s="10" t="s">
         <v>407</v>
       </c>
       <c r="C280" s="18"/>
@@ -6155,27 +6163,29 @@
       <c r="A281" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="B281" s="13" t="s">
+      <c r="B281" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="C281" s="18"/>
+      <c r="C281" s="14"/>
       <c r="D281" s="8"/>
     </row>
     <row r="282" ht="21" spans="1:4">
       <c r="A282" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="B282" s="13" t="s">
+      <c r="B282" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="C282" s="18"/>
+      <c r="C282" s="14" t="s">
+        <v>117</v>
+      </c>
       <c r="D282" s="8"/>
     </row>
     <row r="283" ht="21" spans="1:4">
       <c r="A283" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="B283" s="13" t="s">
+      <c r="B283" s="10" t="s">
         <v>410</v>
       </c>
       <c r="C283" s="18"/>
@@ -6185,7 +6195,7 @@
       <c r="A284" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="B284" s="13" t="s">
+      <c r="B284" s="10" t="s">
         <v>411</v>
       </c>
       <c r="C284" s="18"/>
@@ -6195,7 +6205,7 @@
       <c r="A285" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="B285" s="13" t="s">
+      <c r="B285" s="10" t="s">
         <v>412</v>
       </c>
       <c r="C285" s="18"/>
@@ -6205,37 +6215,39 @@
       <c r="A286" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="B286" s="13" t="s">
+      <c r="B286" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="C286" s="18"/>
+      <c r="C286" s="14"/>
       <c r="D286" s="8"/>
     </row>
     <row r="287" ht="21" spans="1:4">
       <c r="A287" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="B287" s="13" t="s">
+      <c r="B287" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="C287" s="18"/>
+      <c r="C287" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D287" s="8"/>
     </row>
     <row r="288" ht="21" spans="1:4">
       <c r="A288" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="B288" s="13" t="s">
+      <c r="B288" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="C288" s="18"/>
+      <c r="C288" s="14"/>
       <c r="D288" s="8"/>
     </row>
     <row r="289" ht="21" spans="1:4">
       <c r="A289" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="B289" s="13" t="s">
+      <c r="B289" s="10" t="s">
         <v>416</v>
       </c>
       <c r="C289" s="18"/>
@@ -6245,7 +6257,7 @@
       <c r="A290" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="B290" s="13" t="s">
+      <c r="B290" s="10" t="s">
         <v>417</v>
       </c>
       <c r="C290" s="18"/>
@@ -6255,30 +6267,34 @@
       <c r="A291" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="B291" s="13" t="s">
+      <c r="B291" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="C291" s="18"/>
+      <c r="C291" s="14"/>
       <c r="D291" s="8"/>
     </row>
     <row r="292" ht="21" spans="1:4">
       <c r="A292" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="B292" s="13" t="s">
+      <c r="B292" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="C292" s="18"/>
+      <c r="C292" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D292" s="8"/>
     </row>
     <row r="293" ht="21" spans="1:4">
       <c r="A293" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="B293" s="13" t="s">
+      <c r="B293" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="C293" s="18"/>
+      <c r="C293" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D293" s="8"/>
     </row>
     <row r="294" ht="21" spans="2:4">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="600">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -2987,8 +2987,8 @@
   <sheetPr/>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
-      <selection activeCell="C293" sqref="C293"/>
+    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
+      <selection activeCell="C310" sqref="C310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -6311,10 +6311,10 @@
       <c r="A296" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B296" s="13" t="s">
+      <c r="B296" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="C296" s="18"/>
+      <c r="C296" s="17"/>
       <c r="D296" s="8"/>
     </row>
     <row r="297" ht="21" spans="1:4">
@@ -6324,27 +6324,27 @@
       <c r="B297" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="C297" s="18"/>
+      <c r="C297" s="17"/>
       <c r="D297" s="8"/>
     </row>
     <row r="298" ht="21" spans="1:4">
       <c r="A298" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B298" s="13" t="s">
+      <c r="B298" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="C298" s="18"/>
+      <c r="C298" s="14"/>
       <c r="D298" s="8"/>
     </row>
     <row r="299" ht="21" spans="1:4">
       <c r="A299" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B299" s="13" t="s">
+      <c r="B299" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="C299" s="18"/>
+      <c r="C299" s="14"/>
       <c r="D299" s="8"/>
     </row>
     <row r="300" ht="21" spans="1:4">
@@ -6361,27 +6361,27 @@
       <c r="A301" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B301" s="13" t="s">
+      <c r="B301" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="C301" s="18"/>
+      <c r="C301" s="14"/>
       <c r="D301" s="8"/>
     </row>
     <row r="302" ht="21" spans="1:4">
       <c r="A302" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B302" s="13" t="s">
+      <c r="B302" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="C302" s="18"/>
+      <c r="C302" s="14"/>
       <c r="D302" s="8"/>
     </row>
     <row r="303" ht="21" spans="1:4">
       <c r="A303" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B303" s="13" t="s">
+      <c r="B303" s="10" t="s">
         <v>429</v>
       </c>
       <c r="C303" s="18"/>
@@ -6391,70 +6391,78 @@
       <c r="A304" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B304" s="13" t="s">
+      <c r="B304" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="C304" s="18"/>
+      <c r="C304" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D304" s="8"/>
     </row>
     <row r="305" ht="21" spans="1:4">
       <c r="A305" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B305" s="13" t="s">
+      <c r="B305" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="C305" s="18"/>
+      <c r="C305" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D305" s="8"/>
     </row>
     <row r="306" ht="21" spans="1:4">
       <c r="A306" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B306" s="13" t="s">
+      <c r="B306" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="C306" s="18"/>
+      <c r="C306" s="17"/>
       <c r="D306" s="8"/>
     </row>
     <row r="307" ht="21" spans="1:4">
       <c r="A307" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B307" s="13" t="s">
+      <c r="B307" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="C307" s="18"/>
+      <c r="C307" s="14"/>
       <c r="D307" s="8"/>
     </row>
     <row r="308" ht="21" spans="1:4">
       <c r="A308" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B308" s="13" t="s">
+      <c r="B308" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="C308" s="18"/>
+      <c r="C308" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D308" s="8"/>
     </row>
     <row r="309" ht="21" spans="1:4">
       <c r="A309" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B309" s="20" t="s">
+      <c r="B309" s="19" t="s">
         <v>435</v>
       </c>
-      <c r="C309" s="18"/>
+      <c r="C309" s="14"/>
       <c r="D309" s="8"/>
     </row>
     <row r="310" ht="21" spans="1:4">
       <c r="A310" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B310" s="13" t="s">
+      <c r="B310" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="C310" s="18"/>
+      <c r="C310" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D310" s="8"/>
     </row>
     <row r="311" ht="21" spans="1:4">
@@ -6471,10 +6479,12 @@
       <c r="A312" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B312" s="13" t="s">
+      <c r="B312" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="C312" s="14"/>
+      <c r="C312" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D312" s="8"/>
     </row>
     <row r="313" ht="21" spans="1:4">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="600">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1881,9 +1881,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1972,6 +1972,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -1980,8 +2041,29 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1996,48 +2078,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2050,59 +2094,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2153,7 +2153,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2165,49 +2183,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2225,19 +2207,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2261,7 +2237,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2273,7 +2249,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2285,7 +2291,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2297,43 +2303,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2375,36 +2375,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2429,16 +2399,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2458,8 +2428,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2467,150 +2452,165 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2987,8 +2987,8 @@
   <sheetPr/>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
-      <selection activeCell="C310" sqref="C310"/>
+    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
+      <selection activeCell="C333" sqref="C333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -6472,7 +6472,7 @@
       <c r="B311" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="C311" s="18"/>
+      <c r="C311" s="14"/>
       <c r="D311" s="8"/>
     </row>
     <row r="312" ht="21" spans="1:4">
@@ -6491,30 +6491,34 @@
       <c r="A313" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B313" s="13" t="s">
+      <c r="B313" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="C313" s="18"/>
+      <c r="C313" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D313" s="8"/>
     </row>
     <row r="314" ht="21" spans="1:4">
       <c r="A314" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B314" s="13" t="s">
+      <c r="B314" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="C314" s="18"/>
+      <c r="C314" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D314" s="8"/>
     </row>
     <row r="315" ht="21" spans="1:4">
       <c r="A315" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B315" s="13" t="s">
+      <c r="B315" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="C315" s="18"/>
+      <c r="C315" s="14"/>
       <c r="D315" s="8"/>
     </row>
     <row r="316" ht="21" spans="1:4">
@@ -6524,14 +6528,14 @@
       <c r="B316" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="C316" s="18"/>
+      <c r="C316" s="14"/>
       <c r="D316" s="8"/>
     </row>
     <row r="317" ht="21" spans="1:4">
       <c r="A317" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B317" s="13" t="s">
+      <c r="B317" s="10" t="s">
         <v>443</v>
       </c>
       <c r="C317" s="18"/>
@@ -6584,54 +6588,58 @@
       <c r="B322" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="C322" s="18"/>
+      <c r="C322" s="14"/>
       <c r="D322" s="8"/>
     </row>
     <row r="323" ht="21" spans="1:4">
       <c r="A323" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B323" s="13" t="s">
+      <c r="B323" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="C323" s="18"/>
+      <c r="C323" s="14"/>
       <c r="D323" s="8"/>
     </row>
     <row r="324" ht="21" spans="1:4">
       <c r="A324" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B324" s="13" t="s">
+      <c r="B324" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="C324" s="18"/>
+      <c r="C324" s="14"/>
       <c r="D324" s="8"/>
     </row>
     <row r="325" ht="21" spans="1:4">
       <c r="A325" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B325" s="13" t="s">
+      <c r="B325" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="C325" s="18"/>
+      <c r="C325" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D325" s="8"/>
     </row>
     <row r="326" ht="21" spans="1:4">
       <c r="A326" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B326" s="13" t="s">
+      <c r="B326" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="C326" s="18"/>
+      <c r="C326" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D326" s="8"/>
     </row>
     <row r="327" ht="21" spans="1:4">
       <c r="A327" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B327" s="13" t="s">
+      <c r="B327" s="10" t="s">
         <v>453</v>
       </c>
       <c r="C327" s="18"/>
@@ -6641,10 +6649,10 @@
       <c r="A328" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B328" s="13" t="s">
+      <c r="B328" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="C328" s="18"/>
+      <c r="C328" s="14"/>
       <c r="D328" s="8"/>
     </row>
     <row r="329" ht="21" spans="1:4">
@@ -6661,40 +6669,44 @@
       <c r="A330" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B330" s="13" t="s">
+      <c r="B330" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="C330" s="18"/>
+      <c r="C330" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D330" s="8"/>
     </row>
     <row r="331" ht="21" spans="1:4">
       <c r="A331" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B331" s="13" t="s">
+      <c r="B331" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="C331" s="18"/>
+      <c r="C331" s="14"/>
       <c r="D331" s="8"/>
     </row>
     <row r="332" ht="21" spans="1:4">
       <c r="A332" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B332" s="13" t="s">
+      <c r="B332" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="C332" s="18"/>
+      <c r="C332" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D332" s="8"/>
     </row>
     <row r="333" ht="21" spans="1:4">
       <c r="A333" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B333" s="13" t="s">
+      <c r="B333" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="C333" s="18"/>
+      <c r="C333" s="14"/>
       <c r="D333" s="8"/>
     </row>
     <row r="334" ht="21" spans="2:4">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="600">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1880,10 +1880,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1972,53 +1972,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2034,44 +1996,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2085,9 +2010,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2102,7 +2102,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2153,7 +2153,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2165,31 +2297,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2201,139 +2333,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2384,17 +2384,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2435,25 +2444,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2475,142 +2475,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2618,7 +2618,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2661,9 +2661,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2987,8 +2984,8 @@
   <sheetPr/>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
-      <selection activeCell="C333" sqref="C333"/>
+    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
+      <selection activeCell="C353" sqref="C353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -6575,7 +6572,7 @@
       <c r="A321" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B321" s="13" t="s">
+      <c r="B321" s="10" t="s">
         <v>447</v>
       </c>
       <c r="C321" s="18"/>
@@ -6726,37 +6723,37 @@
       <c r="B336" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="C336" s="18"/>
+      <c r="C336" s="17"/>
       <c r="D336" s="8"/>
     </row>
     <row r="337" ht="21" spans="1:4">
       <c r="A337" s="16" t="s">
         <v>460</v>
       </c>
-      <c r="B337" s="13" t="s">
+      <c r="B337" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="C337" s="18"/>
+      <c r="C337" s="17"/>
       <c r="D337" s="8"/>
     </row>
     <row r="338" ht="21" spans="1:4">
       <c r="A338" s="16" t="s">
         <v>460</v>
       </c>
-      <c r="B338" s="13" t="s">
+      <c r="B338" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="C338" s="18"/>
+      <c r="C338" s="14"/>
       <c r="D338" s="8"/>
     </row>
     <row r="339" ht="21" spans="1:4">
       <c r="A339" s="16" t="s">
         <v>460</v>
       </c>
-      <c r="B339" s="13" t="s">
+      <c r="B339" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="C339" s="18"/>
+      <c r="C339" s="14"/>
       <c r="D339" s="8"/>
     </row>
     <row r="340" ht="21" spans="1:4">
@@ -6766,27 +6763,31 @@
       <c r="B340" s="13" t="s">
         <v>465</v>
       </c>
-      <c r="C340" s="18"/>
+      <c r="C340" s="14"/>
       <c r="D340" s="8"/>
     </row>
     <row r="341" ht="21" spans="1:4">
       <c r="A341" s="16" t="s">
         <v>460</v>
       </c>
-      <c r="B341" s="13" t="s">
+      <c r="B341" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="C341" s="18"/>
+      <c r="C341" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D341" s="8"/>
     </row>
     <row r="342" ht="21" spans="1:4">
       <c r="A342" s="16" t="s">
         <v>460</v>
       </c>
-      <c r="B342" s="13" t="s">
+      <c r="B342" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="C342" s="18"/>
+      <c r="C342" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D342" s="8"/>
     </row>
     <row r="343" ht="21" spans="1:4">
@@ -6803,60 +6804,68 @@
       <c r="A344" s="16" t="s">
         <v>460</v>
       </c>
-      <c r="B344" s="20" t="s">
+      <c r="B344" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="C344" s="18"/>
+      <c r="C344" s="14"/>
       <c r="D344" s="8"/>
     </row>
     <row r="345" ht="21" spans="1:4">
       <c r="A345" s="16" t="s">
         <v>460</v>
       </c>
-      <c r="B345" s="13" t="s">
+      <c r="B345" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="C345" s="18"/>
+      <c r="C345" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D345" s="8"/>
     </row>
     <row r="346" ht="21" spans="1:4">
       <c r="A346" s="16" t="s">
         <v>460</v>
       </c>
-      <c r="B346" s="13" t="s">
+      <c r="B346" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="C346" s="18"/>
+      <c r="C346" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D346" s="8"/>
     </row>
     <row r="347" ht="21" spans="1:4">
       <c r="A347" s="16" t="s">
         <v>460</v>
       </c>
-      <c r="B347" s="13" t="s">
+      <c r="B347" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="C347" s="18"/>
+      <c r="C347" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D347" s="8"/>
     </row>
     <row r="348" ht="21" spans="1:4">
       <c r="A348" s="16" t="s">
         <v>460</v>
       </c>
-      <c r="B348" s="13" t="s">
+      <c r="B348" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="C348" s="18"/>
+      <c r="C348" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D348" s="8"/>
     </row>
     <row r="349" ht="21" spans="1:4">
       <c r="A349" s="16" t="s">
         <v>460</v>
       </c>
-      <c r="B349" s="13" t="s">
+      <c r="B349" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="C349" s="18"/>
+      <c r="C349" s="14"/>
       <c r="D349" s="8"/>
     </row>
     <row r="350" ht="21" spans="1:4">
@@ -6883,20 +6892,20 @@
       <c r="A352" s="16" t="s">
         <v>460</v>
       </c>
-      <c r="B352" s="13" t="s">
+      <c r="B352" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="C352" s="18"/>
+      <c r="C352" s="14"/>
       <c r="D352" s="8"/>
     </row>
     <row r="353" ht="21" spans="1:4">
       <c r="A353" s="16" t="s">
         <v>460</v>
       </c>
-      <c r="B353" s="13" t="s">
+      <c r="B353" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="C353" s="18"/>
+      <c r="C353" s="14"/>
       <c r="D353" s="8"/>
     </row>
     <row r="354" ht="21" spans="2:4">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12510"/>
+    <workbookView windowWidth="28800" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="601">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1560,6 +1560,9 @@
     <t>Find whether it is possible to finish all tasks or not from given dependencies</t>
   </si>
   <si>
+    <t>Cycle detection</t>
+  </si>
+  <si>
     <t>Find the no. of Isalnds</t>
   </si>
   <si>
@@ -1880,10 +1883,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1980,69 +1983,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2057,14 +1999,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2078,8 +2013,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2095,6 +2045,52 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -2102,7 +2098,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2159,7 +2162,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2171,31 +2186,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2213,13 +2246,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2231,31 +2300,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2267,67 +2324,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2375,39 +2378,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2425,10 +2395,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2437,8 +2405,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2459,6 +2427,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2472,124 +2466,133 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2598,16 +2601,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2984,8 +2987,8 @@
   <sheetPr/>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
-      <selection activeCell="C353" sqref="C353"/>
+    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
+      <selection activeCell="C372" sqref="C372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -6925,7 +6928,7 @@
       <c r="B356" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="C356" s="18"/>
+      <c r="C356" s="17"/>
       <c r="D356" s="8"/>
     </row>
     <row r="357" ht="21" spans="1:4">
@@ -6935,7 +6938,7 @@
       <c r="B357" s="13" t="s">
         <v>481</v>
       </c>
-      <c r="C357" s="18"/>
+      <c r="C357" s="17"/>
       <c r="D357" s="8"/>
     </row>
     <row r="358" ht="21" spans="1:4">
@@ -6945,17 +6948,17 @@
       <c r="B358" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="C358" s="18"/>
+      <c r="C358" s="17"/>
       <c r="D358" s="8"/>
     </row>
     <row r="359" ht="21" spans="1:4">
       <c r="A359" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B359" s="13" t="s">
+      <c r="B359" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="C359" s="18"/>
+      <c r="C359" s="14"/>
       <c r="D359" s="8"/>
     </row>
     <row r="360" ht="21" spans="1:4">
@@ -6965,77 +6968,77 @@
       <c r="B360" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="C360" s="18"/>
+      <c r="C360" s="14"/>
       <c r="D360" s="8"/>
     </row>
     <row r="361" ht="21" spans="1:4">
       <c r="A361" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B361" s="13" t="s">
+      <c r="B361" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="C361" s="18"/>
+      <c r="C361" s="14"/>
       <c r="D361" s="8"/>
     </row>
     <row r="362" ht="21" spans="1:4">
       <c r="A362" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B362" s="13" t="s">
+      <c r="B362" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="C362" s="18"/>
+      <c r="C362" s="14"/>
       <c r="D362" s="8"/>
     </row>
     <row r="363" ht="21" spans="1:4">
       <c r="A363" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B363" s="13" t="s">
+      <c r="B363" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="C363" s="18"/>
+      <c r="C363" s="14"/>
       <c r="D363" s="8"/>
     </row>
     <row r="364" ht="21" spans="1:4">
       <c r="A364" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B364" s="13" t="s">
+      <c r="B364" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="C364" s="18"/>
+      <c r="C364" s="14"/>
       <c r="D364" s="8"/>
     </row>
     <row r="365" ht="21" spans="1:4">
       <c r="A365" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B365" s="13" t="s">
+      <c r="B365" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="C365" s="18"/>
+      <c r="C365" s="14"/>
       <c r="D365" s="8"/>
     </row>
     <row r="366" ht="21" spans="1:4">
       <c r="A366" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B366" s="13" t="s">
+      <c r="B366" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="C366" s="18"/>
+      <c r="C366" s="14"/>
       <c r="D366" s="8"/>
     </row>
     <row r="367" ht="21" spans="1:4">
       <c r="A367" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B367" s="13" t="s">
+      <c r="B367" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="C367" s="18"/>
+      <c r="C367" s="17"/>
       <c r="D367" s="8"/>
     </row>
     <row r="368" ht="21" spans="1:4">
@@ -7045,47 +7048,49 @@
       <c r="B368" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="C368" s="18"/>
+      <c r="C368" s="17"/>
       <c r="D368" s="8"/>
     </row>
     <row r="369" ht="21" spans="1:4">
       <c r="A369" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B369" s="13" t="s">
+      <c r="B369" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="C369" s="18"/>
+      <c r="C369" s="14"/>
       <c r="D369" s="8"/>
     </row>
     <row r="370" ht="21" spans="1:4">
       <c r="A370" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B370" s="13" t="s">
+      <c r="B370" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="C370" s="18"/>
+      <c r="C370" s="14" t="s">
+        <v>495</v>
+      </c>
       <c r="D370" s="8"/>
     </row>
     <row r="371" ht="21" spans="1:4">
       <c r="A371" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B371" s="13" t="s">
-        <v>495</v>
-      </c>
-      <c r="C371" s="18"/>
+      <c r="B371" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="C371" s="14"/>
       <c r="D371" s="8"/>
     </row>
     <row r="372" ht="21" spans="1:4">
       <c r="A372" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B372" s="13" t="s">
-        <v>496</v>
-      </c>
-      <c r="C372" s="18"/>
+      <c r="B372" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="C372" s="14"/>
       <c r="D372" s="8"/>
     </row>
     <row r="373" ht="21" spans="1:4">
@@ -7093,7 +7098,7 @@
         <v>479</v>
       </c>
       <c r="B373" s="13" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C373" s="18"/>
       <c r="D373" s="8"/>
@@ -7103,9 +7108,9 @@
         <v>479</v>
       </c>
       <c r="B374" s="13" t="s">
-        <v>498</v>
-      </c>
-      <c r="C374" s="18"/>
+        <v>499</v>
+      </c>
+      <c r="C374" s="14"/>
       <c r="D374" s="8"/>
     </row>
     <row r="375" ht="21" spans="1:4">
@@ -7113,7 +7118,7 @@
         <v>479</v>
       </c>
       <c r="B375" s="13" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C375" s="18"/>
       <c r="D375" s="8"/>
@@ -7123,7 +7128,7 @@
         <v>479</v>
       </c>
       <c r="B376" s="13" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C376" s="18"/>
       <c r="D376" s="8"/>
@@ -7133,7 +7138,7 @@
         <v>479</v>
       </c>
       <c r="B377" s="13" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C377" s="18"/>
       <c r="D377" s="8"/>
@@ -7143,7 +7148,7 @@
         <v>479</v>
       </c>
       <c r="B378" s="13" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C378" s="18"/>
       <c r="D378" s="8"/>
@@ -7153,7 +7158,7 @@
         <v>479</v>
       </c>
       <c r="B379" s="13" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C379" s="18"/>
       <c r="D379" s="8"/>
@@ -7163,7 +7168,7 @@
         <v>479</v>
       </c>
       <c r="B380" s="13" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C380" s="18"/>
       <c r="D380" s="8"/>
@@ -7173,7 +7178,7 @@
         <v>479</v>
       </c>
       <c r="B381" s="13" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C381" s="18"/>
       <c r="D381" s="8"/>
@@ -7183,7 +7188,7 @@
         <v>479</v>
       </c>
       <c r="B382" s="13" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C382" s="18"/>
       <c r="D382" s="8"/>
@@ -7193,7 +7198,7 @@
         <v>479</v>
       </c>
       <c r="B383" s="13" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C383" s="18"/>
       <c r="D383" s="8"/>
@@ -7203,7 +7208,7 @@
         <v>479</v>
       </c>
       <c r="B384" s="13" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C384" s="18"/>
       <c r="D384" s="8"/>
@@ -7213,7 +7218,7 @@
         <v>479</v>
       </c>
       <c r="B385" s="13" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C385" s="18"/>
       <c r="D385" s="8"/>
@@ -7223,7 +7228,7 @@
         <v>479</v>
       </c>
       <c r="B386" s="13" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C386" s="18"/>
       <c r="D386" s="8"/>
@@ -7233,7 +7238,7 @@
         <v>479</v>
       </c>
       <c r="B387" s="13" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C387" s="18"/>
       <c r="D387" s="8"/>
@@ -7243,7 +7248,7 @@
         <v>479</v>
       </c>
       <c r="B388" s="13" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C388" s="18"/>
       <c r="D388" s="8"/>
@@ -7253,7 +7258,7 @@
         <v>479</v>
       </c>
       <c r="B389" s="13" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C389" s="18"/>
       <c r="D389" s="8"/>
@@ -7263,7 +7268,7 @@
         <v>479</v>
       </c>
       <c r="B390" s="13" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C390" s="18"/>
       <c r="D390" s="8"/>
@@ -7273,7 +7278,7 @@
         <v>479</v>
       </c>
       <c r="B391" s="13" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C391" s="18"/>
       <c r="D391" s="8"/>
@@ -7283,7 +7288,7 @@
         <v>479</v>
       </c>
       <c r="B392" s="13" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C392" s="18"/>
       <c r="D392" s="8"/>
@@ -7293,7 +7298,7 @@
         <v>479</v>
       </c>
       <c r="B393" s="13" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C393" s="18"/>
       <c r="D393" s="8"/>
@@ -7303,7 +7308,7 @@
         <v>479</v>
       </c>
       <c r="B394" s="13" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C394" s="18"/>
       <c r="D394" s="8"/>
@@ -7313,7 +7318,7 @@
         <v>479</v>
       </c>
       <c r="B395" s="13" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C395" s="18"/>
       <c r="D395" s="8"/>
@@ -7323,7 +7328,7 @@
         <v>479</v>
       </c>
       <c r="B396" s="13" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C396" s="18"/>
       <c r="D396" s="8"/>
@@ -7333,7 +7338,7 @@
         <v>479</v>
       </c>
       <c r="B397" s="13" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C397" s="18"/>
       <c r="D397" s="8"/>
@@ -7343,7 +7348,7 @@
         <v>479</v>
       </c>
       <c r="B398" s="13" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C398" s="18"/>
       <c r="D398" s="8"/>
@@ -7353,7 +7358,7 @@
         <v>479</v>
       </c>
       <c r="B399" s="13" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C399" s="18"/>
       <c r="D399" s="8"/>
@@ -7370,37 +7375,37 @@
     </row>
     <row r="402" ht="21" spans="1:4">
       <c r="A402" s="16" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B402" s="13" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C402" s="18"/>
       <c r="D402" s="8"/>
     </row>
     <row r="403" ht="21" spans="1:4">
       <c r="A403" s="16" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B403" s="13" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C403" s="18"/>
       <c r="D403" s="8"/>
     </row>
     <row r="404" ht="21" spans="1:4">
       <c r="A404" s="16" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B404" s="13" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C404" s="18"/>
       <c r="D404" s="8"/>
     </row>
     <row r="405" ht="21" spans="1:4">
       <c r="A405" s="16" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B405" s="13" t="s">
         <v>165</v>
@@ -7410,20 +7415,20 @@
     </row>
     <row r="406" ht="21" spans="1:4">
       <c r="A406" s="16" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B406" s="13" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C406" s="18"/>
       <c r="D406" s="8"/>
     </row>
     <row r="407" ht="21" spans="1:4">
       <c r="A407" s="16" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B407" s="13" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C407" s="18"/>
       <c r="D407" s="8"/>
@@ -7440,77 +7445,77 @@
     </row>
     <row r="410" ht="21" spans="1:4">
       <c r="A410" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B410" s="13" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C410" s="18"/>
       <c r="D410" s="8"/>
     </row>
     <row r="411" ht="21" spans="1:4">
       <c r="A411" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B411" s="13" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C411" s="18"/>
       <c r="D411" s="8"/>
     </row>
     <row r="412" ht="21" spans="1:4">
       <c r="A412" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B412" s="13" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C412" s="18"/>
       <c r="D412" s="8"/>
     </row>
     <row r="413" ht="21" spans="1:4">
       <c r="A413" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B413" s="13" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C413" s="18"/>
       <c r="D413" s="8"/>
     </row>
     <row r="414" ht="21" spans="1:4">
       <c r="A414" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B414" s="13" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C414" s="18"/>
       <c r="D414" s="8"/>
     </row>
     <row r="415" ht="21" spans="1:4">
       <c r="A415" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B415" s="13" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C415" s="18"/>
       <c r="D415" s="8"/>
     </row>
     <row r="416" ht="21" spans="1:4">
       <c r="A416" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B416" s="13" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C416" s="18"/>
       <c r="D416" s="8"/>
     </row>
     <row r="417" ht="21" spans="1:4">
       <c r="A417" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B417" s="13" t="s">
         <v>409</v>
@@ -7520,520 +7525,520 @@
     </row>
     <row r="418" ht="21" spans="1:4">
       <c r="A418" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B418" s="13" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C418" s="18"/>
       <c r="D418" s="8"/>
     </row>
     <row r="419" ht="21" spans="1:4">
       <c r="A419" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B419" s="13" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C419" s="18"/>
       <c r="D419" s="8"/>
     </row>
     <row r="420" ht="21" spans="1:4">
       <c r="A420" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B420" s="13" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C420" s="18"/>
       <c r="D420" s="8"/>
     </row>
     <row r="421" ht="21" spans="1:4">
       <c r="A421" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B421" s="13" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C421" s="18"/>
       <c r="D421" s="8"/>
     </row>
     <row r="422" ht="21" spans="1:4">
       <c r="A422" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B422" s="13" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C422" s="18"/>
       <c r="D422" s="8"/>
     </row>
     <row r="423" ht="21" spans="1:4">
       <c r="A423" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B423" s="13" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C423" s="18"/>
       <c r="D423" s="8"/>
     </row>
     <row r="424" ht="21" spans="1:4">
       <c r="A424" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B424" s="13" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C424" s="18"/>
       <c r="D424" s="8"/>
     </row>
     <row r="425" ht="21" spans="1:4">
       <c r="A425" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B425" s="13" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C425" s="18"/>
       <c r="D425" s="8"/>
     </row>
     <row r="426" ht="21" spans="1:4">
       <c r="A426" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B426" s="13" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C426" s="18"/>
       <c r="D426" s="8"/>
     </row>
     <row r="427" ht="21" spans="1:4">
       <c r="A427" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B427" s="13" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C427" s="18"/>
       <c r="D427" s="8"/>
     </row>
     <row r="428" ht="21" spans="1:4">
       <c r="A428" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B428" s="13" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C428" s="18"/>
       <c r="D428" s="8"/>
     </row>
     <row r="429" ht="21" spans="1:4">
       <c r="A429" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B429" s="13" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C429" s="18"/>
       <c r="D429" s="8"/>
     </row>
     <row r="430" ht="21" spans="1:4">
       <c r="A430" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B430" s="13" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C430" s="18"/>
       <c r="D430" s="8"/>
     </row>
     <row r="431" ht="21" spans="1:4">
       <c r="A431" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B431" s="13" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C431" s="18"/>
       <c r="D431" s="8"/>
     </row>
     <row r="432" ht="21" spans="1:4">
       <c r="A432" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B432" s="13" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C432" s="18"/>
       <c r="D432" s="8"/>
     </row>
     <row r="433" ht="21" spans="1:4">
       <c r="A433" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B433" s="13" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C433" s="18"/>
       <c r="D433" s="8"/>
     </row>
     <row r="434" ht="21" spans="1:4">
       <c r="A434" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B434" s="13" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C434" s="18"/>
       <c r="D434" s="8"/>
     </row>
     <row r="435" ht="21" spans="1:4">
       <c r="A435" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B435" s="13" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C435" s="18"/>
       <c r="D435" s="8"/>
     </row>
     <row r="436" ht="21" spans="1:4">
       <c r="A436" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B436" s="13" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C436" s="18"/>
       <c r="D436" s="8"/>
     </row>
     <row r="437" ht="21" spans="1:4">
       <c r="A437" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B437" s="13" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C437" s="18"/>
       <c r="D437" s="8"/>
     </row>
     <row r="438" ht="21" spans="1:4">
       <c r="A438" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B438" s="13" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C438" s="18"/>
       <c r="D438" s="8"/>
     </row>
     <row r="439" ht="21" spans="1:4">
       <c r="A439" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B439" s="13" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C439" s="18"/>
       <c r="D439" s="8"/>
     </row>
     <row r="440" ht="21" spans="1:4">
       <c r="A440" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B440" s="13" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C440" s="18"/>
       <c r="D440" s="8"/>
     </row>
     <row r="441" ht="21" spans="1:4">
       <c r="A441" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B441" s="13" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C441" s="18"/>
       <c r="D441" s="8"/>
     </row>
     <row r="442" ht="21" spans="1:4">
       <c r="A442" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B442" s="13" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C442" s="18"/>
       <c r="D442" s="8"/>
     </row>
     <row r="443" ht="21" spans="1:4">
       <c r="A443" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B443" s="13" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C443" s="18"/>
       <c r="D443" s="8"/>
     </row>
     <row r="444" ht="21" spans="1:4">
       <c r="A444" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B444" s="13" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C444" s="18"/>
       <c r="D444" s="8"/>
     </row>
     <row r="445" ht="21" spans="1:4">
       <c r="A445" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B445" s="13" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C445" s="18"/>
       <c r="D445" s="8"/>
     </row>
     <row r="446" ht="21" spans="1:4">
       <c r="A446" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B446" s="13" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C446" s="18"/>
       <c r="D446" s="8"/>
     </row>
     <row r="447" ht="21" spans="1:4">
       <c r="A447" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B447" s="13" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C447" s="18"/>
       <c r="D447" s="8"/>
     </row>
     <row r="448" ht="21" spans="1:4">
       <c r="A448" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B448" s="13" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C448" s="18"/>
       <c r="D448" s="8"/>
     </row>
     <row r="449" ht="21" spans="1:4">
       <c r="A449" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B449" s="13" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C449" s="18"/>
       <c r="D449" s="8"/>
     </row>
     <row r="450" ht="21" spans="1:4">
       <c r="A450" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B450" s="13" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C450" s="18"/>
       <c r="D450" s="8"/>
     </row>
     <row r="451" ht="21" spans="1:4">
       <c r="A451" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B451" s="13" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C451" s="18"/>
       <c r="D451" s="8"/>
     </row>
     <row r="452" ht="21" spans="1:4">
       <c r="A452" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B452" s="13" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C452" s="18"/>
       <c r="D452" s="8"/>
     </row>
     <row r="453" ht="21" spans="1:4">
       <c r="A453" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B453" s="13" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C453" s="18"/>
       <c r="D453" s="8"/>
     </row>
     <row r="454" ht="21" spans="1:4">
       <c r="A454" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B454" s="13" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C454" s="18"/>
       <c r="D454" s="8"/>
     </row>
     <row r="455" ht="21" spans="1:4">
       <c r="A455" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B455" s="13" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C455" s="18"/>
       <c r="D455" s="8"/>
     </row>
     <row r="456" ht="21" spans="1:4">
       <c r="A456" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B456" s="13" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C456" s="18"/>
       <c r="D456" s="8"/>
     </row>
     <row r="457" ht="21" spans="1:4">
       <c r="A457" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B457" s="13" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C457" s="18"/>
       <c r="D457" s="8"/>
     </row>
     <row r="458" ht="21" spans="1:4">
       <c r="A458" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B458" s="13" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C458" s="18"/>
       <c r="D458" s="8"/>
     </row>
     <row r="459" ht="21" spans="1:4">
       <c r="A459" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B459" s="13" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C459" s="18"/>
       <c r="D459" s="8"/>
     </row>
     <row r="460" ht="21" spans="1:4">
       <c r="A460" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B460" s="13" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C460" s="18"/>
       <c r="D460" s="8"/>
     </row>
     <row r="461" ht="21" spans="1:4">
       <c r="A461" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B461" s="13" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C461" s="18"/>
       <c r="D461" s="8"/>
     </row>
     <row r="462" ht="21" spans="1:4">
       <c r="A462" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B462" s="13" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C462" s="18"/>
       <c r="D462" s="8"/>
     </row>
     <row r="463" ht="21" spans="1:4">
       <c r="A463" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B463" s="13" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C463" s="18"/>
       <c r="D463" s="8"/>
     </row>
     <row r="464" ht="21" spans="1:4">
       <c r="A464" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B464" s="13" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C464" s="18"/>
       <c r="D464" s="8"/>
     </row>
     <row r="465" ht="21" spans="1:4">
       <c r="A465" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B465" s="13" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C465" s="18"/>
       <c r="D465" s="8"/>
     </row>
     <row r="466" ht="21" spans="1:4">
       <c r="A466" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B466" s="13" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C466" s="18"/>
       <c r="D466" s="8"/>
     </row>
     <row r="467" ht="21" spans="1:4">
       <c r="A467" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B467" s="13" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C467" s="18"/>
       <c r="D467" s="8"/>
     </row>
     <row r="468" ht="21" spans="1:4">
       <c r="A468" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B468" s="13" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C468" s="18"/>
       <c r="D468" s="8"/>
     </row>
     <row r="469" ht="21" spans="1:4">
       <c r="A469" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B469" s="13" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C469" s="18"/>
       <c r="D469" s="8"/>
@@ -8051,100 +8056,100 @@
     </row>
     <row r="472" ht="21" spans="1:4">
       <c r="A472" s="9" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B472" s="13" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C472" s="18"/>
       <c r="D472" s="8"/>
     </row>
     <row r="473" ht="21" spans="1:4">
       <c r="A473" s="9" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B473" s="13" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C473" s="18"/>
       <c r="D473" s="8"/>
     </row>
     <row r="474" ht="21" spans="1:4">
       <c r="A474" s="9" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B474" s="13" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C474" s="18"/>
       <c r="D474" s="8"/>
     </row>
     <row r="475" ht="21" spans="1:4">
       <c r="A475" s="9" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B475" s="13" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C475" s="18"/>
       <c r="D475" s="8"/>
     </row>
     <row r="476" ht="21" spans="1:4">
       <c r="A476" s="9" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B476" s="13" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C476" s="18"/>
       <c r="D476" s="8"/>
     </row>
     <row r="477" ht="21" spans="1:4">
       <c r="A477" s="9" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B477" s="13" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C477" s="18"/>
       <c r="D477" s="8"/>
     </row>
     <row r="478" ht="21" spans="1:4">
       <c r="A478" s="9" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B478" s="13" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C478" s="18"/>
       <c r="D478" s="8"/>
     </row>
     <row r="479" ht="21" spans="1:4">
       <c r="A479" s="9" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B479" s="13" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C479" s="18"/>
       <c r="D479" s="8"/>
     </row>
     <row r="480" ht="21" spans="1:4">
       <c r="A480" s="9" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B480" s="13" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C480" s="18"/>
       <c r="D480" s="8"/>
     </row>
     <row r="481" ht="21" spans="1:4">
       <c r="A481" s="9" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B481" s="13" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C481" s="18"/>
       <c r="D481" s="8"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12525"/>
+    <workbookView windowWidth="28800" windowHeight="12510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="601">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1602,7 +1602,7 @@
     <t>Check whether a graph is Bipartite or Not</t>
   </si>
   <si>
-    <t>Detect Negative cycle in a graph</t>
+    <t>Detect Negative cycle in a graph (Bellman ford)</t>
   </si>
   <si>
     <t>Longest path in a Directed Acyclic Graph</t>
@@ -1884,9 +1884,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1976,15 +1976,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1998,10 +2005,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2013,18 +2021,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2045,7 +2046,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2053,14 +2054,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2074,14 +2067,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -2089,9 +2074,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2106,6 +2090,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2156,25 +2156,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2192,18 +2198,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2216,7 +2210,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2228,55 +2300,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2288,43 +2312,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2336,7 +2324,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2378,21 +2378,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2407,47 +2392,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2469,151 +2413,207 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2985,10 +2985,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D481"/>
+  <dimension ref="A1:D480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
-      <selection activeCell="C372" sqref="C372"/>
+    <sheetView tabSelected="1" topLeftCell="A382" workbookViewId="0">
+      <selection activeCell="C392" sqref="C392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -7100,7 +7100,7 @@
       <c r="B373" s="13" t="s">
         <v>498</v>
       </c>
-      <c r="C373" s="18"/>
+      <c r="C373" s="14"/>
       <c r="D373" s="8"/>
     </row>
     <row r="374" ht="21" spans="1:4">
@@ -7117,47 +7117,47 @@
       <c r="A375" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B375" s="13" t="s">
+      <c r="B375" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="C375" s="18"/>
+      <c r="C375" s="14"/>
       <c r="D375" s="8"/>
     </row>
     <row r="376" ht="21" spans="1:4">
       <c r="A376" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B376" s="13" t="s">
+      <c r="B376" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="C376" s="18"/>
+      <c r="C376" s="14"/>
       <c r="D376" s="8"/>
     </row>
     <row r="377" ht="21" spans="1:4">
       <c r="A377" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B377" s="13" t="s">
+      <c r="B377" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="C377" s="18"/>
+      <c r="C377" s="14"/>
       <c r="D377" s="8"/>
     </row>
     <row r="378" ht="21" spans="1:4">
       <c r="A378" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B378" s="13" t="s">
+      <c r="B378" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="C378" s="18"/>
+      <c r="C378" s="14"/>
       <c r="D378" s="8"/>
     </row>
     <row r="379" ht="21" spans="1:4">
       <c r="A379" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B379" s="13" t="s">
+      <c r="B379" s="10" t="s">
         <v>504</v>
       </c>
       <c r="C379" s="18"/>
@@ -7167,20 +7167,20 @@
       <c r="A380" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B380" s="13" t="s">
+      <c r="B380" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="C380" s="18"/>
+      <c r="C380" s="14"/>
       <c r="D380" s="8"/>
     </row>
     <row r="381" ht="21" spans="1:4">
       <c r="A381" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B381" s="13" t="s">
+      <c r="B381" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="C381" s="18"/>
+      <c r="C381" s="14"/>
       <c r="D381" s="8"/>
     </row>
     <row r="382" ht="21" spans="1:4">
@@ -7197,10 +7197,10 @@
       <c r="A383" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B383" s="13" t="s">
+      <c r="B383" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="C383" s="18"/>
+      <c r="C383" s="14"/>
       <c r="D383" s="8"/>
     </row>
     <row r="384" ht="21" spans="1:4">
@@ -7210,14 +7210,14 @@
       <c r="B384" s="13" t="s">
         <v>509</v>
       </c>
-      <c r="C384" s="18"/>
+      <c r="C384" s="14"/>
       <c r="D384" s="8"/>
     </row>
     <row r="385" ht="21" spans="1:4">
       <c r="A385" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B385" s="13" t="s">
+      <c r="B385" s="10" t="s">
         <v>510</v>
       </c>
       <c r="C385" s="18"/>
@@ -7227,30 +7227,30 @@
       <c r="A386" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B386" s="13" t="s">
+      <c r="B386" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="C386" s="18"/>
+      <c r="C386" s="14"/>
       <c r="D386" s="8"/>
     </row>
     <row r="387" ht="21" spans="1:4">
       <c r="A387" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B387" s="13" t="s">
+      <c r="B387" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="C387" s="18"/>
+      <c r="C387" s="14"/>
       <c r="D387" s="8"/>
     </row>
     <row r="388" ht="21" spans="1:4">
       <c r="A388" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B388" s="13" t="s">
+      <c r="B388" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="C388" s="18"/>
+      <c r="C388" s="14"/>
       <c r="D388" s="8"/>
     </row>
     <row r="389" ht="21" spans="1:4">
@@ -7267,8 +7267,8 @@
       <c r="A390" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B390" s="13" t="s">
-        <v>514</v>
+      <c r="B390" s="10" t="s">
+        <v>515</v>
       </c>
       <c r="C390" s="18"/>
       <c r="D390" s="8"/>
@@ -7277,20 +7277,22 @@
       <c r="A391" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B391" s="13" t="s">
-        <v>515</v>
-      </c>
-      <c r="C391" s="18"/>
+      <c r="B391" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="C391" s="14"/>
       <c r="D391" s="8"/>
     </row>
     <row r="392" ht="21" spans="1:4">
       <c r="A392" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B392" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="C392" s="18"/>
+      <c r="B392" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="C392" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D392" s="8"/>
     </row>
     <row r="393" ht="21" spans="1:4">
@@ -7298,7 +7300,7 @@
         <v>479</v>
       </c>
       <c r="B393" s="13" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C393" s="18"/>
       <c r="D393" s="8"/>
@@ -7308,7 +7310,7 @@
         <v>479</v>
       </c>
       <c r="B394" s="13" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C394" s="18"/>
       <c r="D394" s="8"/>
@@ -7318,7 +7320,7 @@
         <v>479</v>
       </c>
       <c r="B395" s="13" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C395" s="18"/>
       <c r="D395" s="8"/>
@@ -7328,7 +7330,7 @@
         <v>479</v>
       </c>
       <c r="B396" s="13" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C396" s="18"/>
       <c r="D396" s="8"/>
@@ -7338,7 +7340,7 @@
         <v>479</v>
       </c>
       <c r="B397" s="13" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C397" s="18"/>
       <c r="D397" s="8"/>
@@ -7348,19 +7350,14 @@
         <v>479</v>
       </c>
       <c r="B398" s="13" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C398" s="18"/>
       <c r="D398" s="8"/>
     </row>
-    <row r="399" ht="21" spans="1:4">
-      <c r="A399" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="B399" s="13" t="s">
-        <v>523</v>
-      </c>
-      <c r="C399" s="18"/>
+    <row r="399" ht="21" spans="2:4">
+      <c r="B399" s="8"/>
+      <c r="C399" s="15"/>
       <c r="D399" s="8"/>
     </row>
     <row r="400" ht="21" spans="2:4">
@@ -7368,9 +7365,14 @@
       <c r="C400" s="15"/>
       <c r="D400" s="8"/>
     </row>
-    <row r="401" ht="21" spans="2:4">
-      <c r="B401" s="8"/>
-      <c r="C401" s="15"/>
+    <row r="401" ht="21" spans="1:4">
+      <c r="A401" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="B401" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="C401" s="18"/>
       <c r="D401" s="8"/>
     </row>
     <row r="402" ht="21" spans="1:4">
@@ -7378,7 +7380,7 @@
         <v>524</v>
       </c>
       <c r="B402" s="13" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C402" s="18"/>
       <c r="D402" s="8"/>
@@ -7388,7 +7390,7 @@
         <v>524</v>
       </c>
       <c r="B403" s="13" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C403" s="18"/>
       <c r="D403" s="8"/>
@@ -7398,7 +7400,7 @@
         <v>524</v>
       </c>
       <c r="B404" s="13" t="s">
-        <v>527</v>
+        <v>165</v>
       </c>
       <c r="C404" s="18"/>
       <c r="D404" s="8"/>
@@ -7408,7 +7410,7 @@
         <v>524</v>
       </c>
       <c r="B405" s="13" t="s">
-        <v>165</v>
+        <v>528</v>
       </c>
       <c r="C405" s="18"/>
       <c r="D405" s="8"/>
@@ -7418,19 +7420,14 @@
         <v>524</v>
       </c>
       <c r="B406" s="13" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C406" s="18"/>
       <c r="D406" s="8"/>
     </row>
-    <row r="407" ht="21" spans="1:4">
-      <c r="A407" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="B407" s="13" t="s">
-        <v>529</v>
-      </c>
-      <c r="C407" s="18"/>
+    <row r="407" ht="21" spans="2:4">
+      <c r="B407" s="8"/>
+      <c r="C407" s="15"/>
       <c r="D407" s="8"/>
     </row>
     <row r="408" ht="21" spans="2:4">
@@ -7438,9 +7435,14 @@
       <c r="C408" s="15"/>
       <c r="D408" s="8"/>
     </row>
-    <row r="409" ht="21" spans="2:4">
-      <c r="B409" s="8"/>
-      <c r="C409" s="15"/>
+    <row r="409" ht="21" spans="1:4">
+      <c r="A409" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="B409" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="C409" s="18"/>
       <c r="D409" s="8"/>
     </row>
     <row r="410" ht="21" spans="1:4">
@@ -7448,7 +7450,7 @@
         <v>530</v>
       </c>
       <c r="B410" s="13" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C410" s="18"/>
       <c r="D410" s="8"/>
@@ -7458,7 +7460,7 @@
         <v>530</v>
       </c>
       <c r="B411" s="13" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C411" s="18"/>
       <c r="D411" s="8"/>
@@ -7468,7 +7470,7 @@
         <v>530</v>
       </c>
       <c r="B412" s="13" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C412" s="18"/>
       <c r="D412" s="8"/>
@@ -7478,7 +7480,7 @@
         <v>530</v>
       </c>
       <c r="B413" s="13" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C413" s="18"/>
       <c r="D413" s="8"/>
@@ -7488,7 +7490,7 @@
         <v>530</v>
       </c>
       <c r="B414" s="13" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C414" s="18"/>
       <c r="D414" s="8"/>
@@ -7498,7 +7500,7 @@
         <v>530</v>
       </c>
       <c r="B415" s="13" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C415" s="18"/>
       <c r="D415" s="8"/>
@@ -7508,7 +7510,7 @@
         <v>530</v>
       </c>
       <c r="B416" s="13" t="s">
-        <v>537</v>
+        <v>409</v>
       </c>
       <c r="C416" s="18"/>
       <c r="D416" s="8"/>
@@ -7518,7 +7520,7 @@
         <v>530</v>
       </c>
       <c r="B417" s="13" t="s">
-        <v>409</v>
+        <v>538</v>
       </c>
       <c r="C417" s="18"/>
       <c r="D417" s="8"/>
@@ -7528,7 +7530,7 @@
         <v>530</v>
       </c>
       <c r="B418" s="13" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C418" s="18"/>
       <c r="D418" s="8"/>
@@ -7538,7 +7540,7 @@
         <v>530</v>
       </c>
       <c r="B419" s="13" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C419" s="18"/>
       <c r="D419" s="8"/>
@@ -7548,7 +7550,7 @@
         <v>530</v>
       </c>
       <c r="B420" s="13" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C420" s="18"/>
       <c r="D420" s="8"/>
@@ -7558,7 +7560,7 @@
         <v>530</v>
       </c>
       <c r="B421" s="13" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C421" s="18"/>
       <c r="D421" s="8"/>
@@ -7568,7 +7570,7 @@
         <v>530</v>
       </c>
       <c r="B422" s="13" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C422" s="18"/>
       <c r="D422" s="8"/>
@@ -7578,7 +7580,7 @@
         <v>530</v>
       </c>
       <c r="B423" s="13" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C423" s="18"/>
       <c r="D423" s="8"/>
@@ -7588,7 +7590,7 @@
         <v>530</v>
       </c>
       <c r="B424" s="13" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C424" s="18"/>
       <c r="D424" s="8"/>
@@ -7598,7 +7600,7 @@
         <v>530</v>
       </c>
       <c r="B425" s="13" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C425" s="18"/>
       <c r="D425" s="8"/>
@@ -7608,7 +7610,7 @@
         <v>530</v>
       </c>
       <c r="B426" s="13" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C426" s="18"/>
       <c r="D426" s="8"/>
@@ -7618,7 +7620,7 @@
         <v>530</v>
       </c>
       <c r="B427" s="13" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C427" s="18"/>
       <c r="D427" s="8"/>
@@ -7628,7 +7630,7 @@
         <v>530</v>
       </c>
       <c r="B428" s="13" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C428" s="18"/>
       <c r="D428" s="8"/>
@@ -7638,7 +7640,7 @@
         <v>530</v>
       </c>
       <c r="B429" s="13" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C429" s="18"/>
       <c r="D429" s="8"/>
@@ -7648,7 +7650,7 @@
         <v>530</v>
       </c>
       <c r="B430" s="13" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C430" s="18"/>
       <c r="D430" s="8"/>
@@ -7658,7 +7660,7 @@
         <v>530</v>
       </c>
       <c r="B431" s="13" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C431" s="18"/>
       <c r="D431" s="8"/>
@@ -7668,7 +7670,7 @@
         <v>530</v>
       </c>
       <c r="B432" s="13" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C432" s="18"/>
       <c r="D432" s="8"/>
@@ -7678,7 +7680,7 @@
         <v>530</v>
       </c>
       <c r="B433" s="13" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C433" s="18"/>
       <c r="D433" s="8"/>
@@ -7688,7 +7690,7 @@
         <v>530</v>
       </c>
       <c r="B434" s="13" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C434" s="18"/>
       <c r="D434" s="8"/>
@@ -7698,7 +7700,7 @@
         <v>530</v>
       </c>
       <c r="B435" s="13" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C435" s="18"/>
       <c r="D435" s="8"/>
@@ -7708,7 +7710,7 @@
         <v>530</v>
       </c>
       <c r="B436" s="13" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C436" s="18"/>
       <c r="D436" s="8"/>
@@ -7718,7 +7720,7 @@
         <v>530</v>
       </c>
       <c r="B437" s="13" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C437" s="18"/>
       <c r="D437" s="8"/>
@@ -7728,7 +7730,7 @@
         <v>530</v>
       </c>
       <c r="B438" s="13" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C438" s="18"/>
       <c r="D438" s="8"/>
@@ -7738,7 +7740,7 @@
         <v>530</v>
       </c>
       <c r="B439" s="13" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C439" s="18"/>
       <c r="D439" s="8"/>
@@ -7748,7 +7750,7 @@
         <v>530</v>
       </c>
       <c r="B440" s="13" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C440" s="18"/>
       <c r="D440" s="8"/>
@@ -7758,7 +7760,7 @@
         <v>530</v>
       </c>
       <c r="B441" s="13" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C441" s="18"/>
       <c r="D441" s="8"/>
@@ -7768,7 +7770,7 @@
         <v>530</v>
       </c>
       <c r="B442" s="13" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C442" s="18"/>
       <c r="D442" s="8"/>
@@ -7778,7 +7780,7 @@
         <v>530</v>
       </c>
       <c r="B443" s="13" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C443" s="18"/>
       <c r="D443" s="8"/>
@@ -7788,7 +7790,7 @@
         <v>530</v>
       </c>
       <c r="B444" s="13" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C444" s="18"/>
       <c r="D444" s="8"/>
@@ -7798,7 +7800,7 @@
         <v>530</v>
       </c>
       <c r="B445" s="13" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C445" s="18"/>
       <c r="D445" s="8"/>
@@ -7808,7 +7810,7 @@
         <v>530</v>
       </c>
       <c r="B446" s="13" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C446" s="18"/>
       <c r="D446" s="8"/>
@@ -7818,7 +7820,7 @@
         <v>530</v>
       </c>
       <c r="B447" s="13" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C447" s="18"/>
       <c r="D447" s="8"/>
@@ -7828,7 +7830,7 @@
         <v>530</v>
       </c>
       <c r="B448" s="13" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C448" s="18"/>
       <c r="D448" s="8"/>
@@ -7838,7 +7840,7 @@
         <v>530</v>
       </c>
       <c r="B449" s="13" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C449" s="18"/>
       <c r="D449" s="8"/>
@@ -7848,7 +7850,7 @@
         <v>530</v>
       </c>
       <c r="B450" s="13" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C450" s="18"/>
       <c r="D450" s="8"/>
@@ -7858,7 +7860,7 @@
         <v>530</v>
       </c>
       <c r="B451" s="13" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C451" s="18"/>
       <c r="D451" s="8"/>
@@ -7868,7 +7870,7 @@
         <v>530</v>
       </c>
       <c r="B452" s="13" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C452" s="18"/>
       <c r="D452" s="8"/>
@@ -7878,7 +7880,7 @@
         <v>530</v>
       </c>
       <c r="B453" s="13" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C453" s="18"/>
       <c r="D453" s="8"/>
@@ -7888,7 +7890,7 @@
         <v>530</v>
       </c>
       <c r="B454" s="13" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C454" s="18"/>
       <c r="D454" s="8"/>
@@ -7898,7 +7900,7 @@
         <v>530</v>
       </c>
       <c r="B455" s="13" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C455" s="18"/>
       <c r="D455" s="8"/>
@@ -7908,7 +7910,7 @@
         <v>530</v>
       </c>
       <c r="B456" s="13" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C456" s="18"/>
       <c r="D456" s="8"/>
@@ -7918,7 +7920,7 @@
         <v>530</v>
       </c>
       <c r="B457" s="13" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C457" s="18"/>
       <c r="D457" s="8"/>
@@ -7928,7 +7930,7 @@
         <v>530</v>
       </c>
       <c r="B458" s="13" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C458" s="18"/>
       <c r="D458" s="8"/>
@@ -7938,7 +7940,7 @@
         <v>530</v>
       </c>
       <c r="B459" s="13" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C459" s="18"/>
       <c r="D459" s="8"/>
@@ -7948,7 +7950,7 @@
         <v>530</v>
       </c>
       <c r="B460" s="13" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C460" s="18"/>
       <c r="D460" s="8"/>
@@ -7958,7 +7960,7 @@
         <v>530</v>
       </c>
       <c r="B461" s="13" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C461" s="18"/>
       <c r="D461" s="8"/>
@@ -7968,7 +7970,7 @@
         <v>530</v>
       </c>
       <c r="B462" s="13" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C462" s="18"/>
       <c r="D462" s="8"/>
@@ -7978,7 +7980,7 @@
         <v>530</v>
       </c>
       <c r="B463" s="13" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C463" s="18"/>
       <c r="D463" s="8"/>
@@ -7988,7 +7990,7 @@
         <v>530</v>
       </c>
       <c r="B464" s="13" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C464" s="18"/>
       <c r="D464" s="8"/>
@@ -7998,7 +8000,7 @@
         <v>530</v>
       </c>
       <c r="B465" s="13" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C465" s="18"/>
       <c r="D465" s="8"/>
@@ -8008,7 +8010,7 @@
         <v>530</v>
       </c>
       <c r="B466" s="13" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C466" s="18"/>
       <c r="D466" s="8"/>
@@ -8018,7 +8020,7 @@
         <v>530</v>
       </c>
       <c r="B467" s="13" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C467" s="18"/>
       <c r="D467" s="8"/>
@@ -8028,30 +8030,30 @@
         <v>530</v>
       </c>
       <c r="B468" s="13" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C468" s="18"/>
       <c r="D468" s="8"/>
     </row>
-    <row r="469" ht="21" spans="1:4">
-      <c r="A469" s="9" t="s">
-        <v>530</v>
-      </c>
-      <c r="B469" s="13" t="s">
-        <v>589</v>
-      </c>
-      <c r="C469" s="18"/>
+    <row r="469" ht="21" spans="2:4">
+      <c r="B469" s="8"/>
+      <c r="C469" s="15"/>
       <c r="D469" s="8"/>
     </row>
-    <row r="470" ht="21" spans="2:4">
+    <row r="470" ht="21" spans="1:4">
+      <c r="A470" s="16"/>
       <c r="B470" s="8"/>
       <c r="C470" s="15"/>
       <c r="D470" s="8"/>
     </row>
     <row r="471" ht="21" spans="1:4">
-      <c r="A471" s="16"/>
-      <c r="B471" s="8"/>
-      <c r="C471" s="15"/>
+      <c r="A471" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="B471" s="13" t="s">
+        <v>591</v>
+      </c>
+      <c r="C471" s="18"/>
       <c r="D471" s="8"/>
     </row>
     <row r="472" ht="21" spans="1:4">
@@ -8059,7 +8061,7 @@
         <v>590</v>
       </c>
       <c r="B472" s="13" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C472" s="18"/>
       <c r="D472" s="8"/>
@@ -8069,7 +8071,7 @@
         <v>590</v>
       </c>
       <c r="B473" s="13" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C473" s="18"/>
       <c r="D473" s="8"/>
@@ -8079,7 +8081,7 @@
         <v>590</v>
       </c>
       <c r="B474" s="13" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C474" s="18"/>
       <c r="D474" s="8"/>
@@ -8089,7 +8091,7 @@
         <v>590</v>
       </c>
       <c r="B475" s="13" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C475" s="18"/>
       <c r="D475" s="8"/>
@@ -8099,7 +8101,7 @@
         <v>590</v>
       </c>
       <c r="B476" s="13" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C476" s="18"/>
       <c r="D476" s="8"/>
@@ -8109,7 +8111,7 @@
         <v>590</v>
       </c>
       <c r="B477" s="13" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C477" s="18"/>
       <c r="D477" s="8"/>
@@ -8119,7 +8121,7 @@
         <v>590</v>
       </c>
       <c r="B478" s="13" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C478" s="18"/>
       <c r="D478" s="8"/>
@@ -8129,7 +8131,7 @@
         <v>590</v>
       </c>
       <c r="B479" s="13" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C479" s="18"/>
       <c r="D479" s="8"/>
@@ -8139,20 +8141,10 @@
         <v>590</v>
       </c>
       <c r="B480" s="13" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C480" s="18"/>
       <c r="D480" s="8"/>
-    </row>
-    <row r="481" ht="21" spans="1:4">
-      <c r="A481" s="9" t="s">
-        <v>590</v>
-      </c>
-      <c r="B481" s="13" t="s">
-        <v>600</v>
-      </c>
-      <c r="C481" s="18"/>
-      <c r="D481" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8506,98 +8498,97 @@
     <hyperlink ref="B381" r:id="rId335" display="Find bridge in a graph"/>
     <hyperlink ref="B382" r:id="rId336" display="Count Strongly connected Components(Kosaraju Algo)"/>
     <hyperlink ref="B383" r:id="rId337" display="Check whether a graph is Bipartite or Not"/>
-    <hyperlink ref="B384" r:id="rId338" display="Detect Negative cycle in a graph"/>
+    <hyperlink ref="B384" r:id="rId338" display="Detect Negative cycle in a graph (Bellman ford)"/>
     <hyperlink ref="B385" r:id="rId339" display="Longest path in a Directed Acyclic Graph"/>
     <hyperlink ref="B386" r:id="rId340" display="Journey to the Moon"/>
     <hyperlink ref="B387" r:id="rId341" display="Cheapest Flights Within K Stops"/>
     <hyperlink ref="B388" r:id="rId342" display="Oliver and the Game"/>
     <hyperlink ref="B389" r:id="rId343" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B390" r:id="rId343" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B391" r:id="rId256" display="Find if there is a path of more thank length from a source"/>
-    <hyperlink ref="B392" r:id="rId248" display="M-ColouringProblem"/>
-    <hyperlink ref="B393" r:id="rId344" display="Minimum edges to reverse o make path from source to destination"/>
-    <hyperlink ref="B394" r:id="rId345" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
-    <hyperlink ref="B396" r:id="rId346" display="Chinese Postman or Route Inspection"/>
-    <hyperlink ref="B395" r:id="rId347" display="Vertex Cover Problem"/>
-    <hyperlink ref="B397" r:id="rId348" display="Number of Triangles in a Directed and Undirected Graph"/>
-    <hyperlink ref="B398" r:id="rId220" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B399" r:id="rId349" display="Two Clique Problem"/>
-    <hyperlink ref="B402" r:id="rId350" display="Construct a trie from scratch"/>
-    <hyperlink ref="B403" r:id="rId351" display="Find shortest unique prefix for every word in a given list"/>
-    <hyperlink ref="B404" r:id="rId352" display="Word Break Problem | (Trie solution)"/>
-    <hyperlink ref="B405" r:id="rId78" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B406" r:id="rId353" display="Implement a Phone Directory"/>
-    <hyperlink ref="B407" r:id="rId354" display="Print unique rows in a given boolean matrix"/>
-    <hyperlink ref="B410" r:id="rId355" display="Coin ChangeProblem"/>
-    <hyperlink ref="B411" r:id="rId356" display="Knapsack Problem"/>
-    <hyperlink ref="B412" r:id="rId357" display="Binomial CoefficientProblem"/>
-    <hyperlink ref="B413" r:id="rId358" display="Permutation CoefficientProblem"/>
-    <hyperlink ref="B414" r:id="rId359" display="Program for nth Catalan Number"/>
-    <hyperlink ref="B415" r:id="rId360" display="Matrix Chain Multiplication "/>
-    <hyperlink ref="B416" r:id="rId56" display="Edit Distance"/>
-    <hyperlink ref="B417" r:id="rId250" display="Subset Sum Problem"/>
-    <hyperlink ref="B418" r:id="rId361" display="Friends Pairing Problem"/>
-    <hyperlink ref="B419" r:id="rId362" display="Gold Mine Problem"/>
-    <hyperlink ref="B420" r:id="rId363" display="Assembly Line SchedulingProblem"/>
-    <hyperlink ref="B421" r:id="rId364" display="Painting the Fenceproblem"/>
-    <hyperlink ref="B422" r:id="rId365" display="Maximize The Cut Segments"/>
-    <hyperlink ref="B423" r:id="rId73" display="Longest Common Subsequence"/>
-    <hyperlink ref="B424" r:id="rId52" display="Longest Repeated Subsequence"/>
-    <hyperlink ref="B425" r:id="rId366" display="Longest Increasing Subsequence"/>
-    <hyperlink ref="B426" r:id="rId367" display="Space Optimized Solution of LCS"/>
-    <hyperlink ref="B427" r:id="rId368" display="LCS (Longest Common Subsequence) of three strings"/>
-    <hyperlink ref="B428" r:id="rId369" display="Maximum Sum Increasing Subsequence"/>
-    <hyperlink ref="B429" r:id="rId370" display="Count all subsequences having product less than K"/>
-    <hyperlink ref="B430" r:id="rId371" display="Longest subsequence such that difference between adjacent is one"/>
-    <hyperlink ref="B431" r:id="rId372" display="Maximum subsequence sum such that no three are consecutive"/>
-    <hyperlink ref="B432" r:id="rId373" display="Egg Dropping Problem"/>
-    <hyperlink ref="B433" r:id="rId374" display="Maximum Length Chain of Pairs"/>
-    <hyperlink ref="B434" r:id="rId375" display="Maximum size square sub-matrix with all 1s"/>
-    <hyperlink ref="B435" r:id="rId376" display="Maximum sum of pairs with specific difference"/>
-    <hyperlink ref="B436" r:id="rId377" display="Min Cost PathProblem"/>
-    <hyperlink ref="B437" r:id="rId378" display="Maximum difference of zeros and ones in binary string"/>
-    <hyperlink ref="B438" r:id="rId10" display="Minimum number of jumps to reach end"/>
-    <hyperlink ref="B439" r:id="rId379" display="Minimum cost to fill given weight in a bag"/>
-    <hyperlink ref="B440" r:id="rId380" display="Minimum removals from array to make max –min &lt;= K"/>
-    <hyperlink ref="B441" r:id="rId381" display="Longest Common Substring"/>
-    <hyperlink ref="B442" r:id="rId382" display="Count number of ways to reacha given score in a game"/>
-    <hyperlink ref="B443" r:id="rId383" display="Count Balanced Binary Trees of Height h"/>
-    <hyperlink ref="B444" r:id="rId8" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
-    <hyperlink ref="B445" r:id="rId384" display="Smallest sum contiguous subarray"/>
-    <hyperlink ref="B446" r:id="rId385" display="Unbounded Knapsack (Repetition of items allowed)"/>
-    <hyperlink ref="B447" r:id="rId59" display="Word Break Problem"/>
-    <hyperlink ref="B448" r:id="rId386" display="Largest Independent Set Problem"/>
-    <hyperlink ref="B449" r:id="rId250" display="Partition problem"/>
-    <hyperlink ref="B451" r:id="rId64" display="Count All Palindromic Subsequence in a given String"/>
-    <hyperlink ref="B450" r:id="rId387" display="Longest Palindromic Subsequence"/>
-    <hyperlink ref="B452" r:id="rId388" display="Longest Palindromic Substring"/>
-    <hyperlink ref="B453" r:id="rId389" display="Longest alternating subsequence"/>
-    <hyperlink ref="B454" r:id="rId390" display="Weighted Job Scheduling"/>
-    <hyperlink ref="B455" r:id="rId391" display="Coin game winner where every player has three choices"/>
-    <hyperlink ref="B456" r:id="rId392" display="Count Derangements (Permutation such that no element appears in its original position) [ IMP ]"/>
-    <hyperlink ref="B457" r:id="rId25" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
-    <hyperlink ref="B458" r:id="rId393" display="Optimal Strategy for a Game"/>
-    <hyperlink ref="B459" r:id="rId394" display="Optimal Binary Search Tree"/>
-    <hyperlink ref="B460" r:id="rId395" display="Palindrome PartitioningProblem"/>
-    <hyperlink ref="B461" r:id="rId55" display="Word Wrap Problem"/>
-    <hyperlink ref="B462" r:id="rId396" display="Mobile Numeric Keypad Problem [ IMP ]"/>
-    <hyperlink ref="B469" r:id="rId397" display="Maximum Length of Pair Chain"/>
-    <hyperlink ref="B468" r:id="rId398" display="Find if a string is interleaved of two other strings"/>
-    <hyperlink ref="B467" r:id="rId399" display="Maximum profit by buying and selling a share at most k times"/>
-    <hyperlink ref="B466" r:id="rId400" display="Maximum sum rectangle in a 2D matrix"/>
-    <hyperlink ref="B465" r:id="rId401" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
-    <hyperlink ref="B464" r:id="rId402" display="Largest rectangular sub-matrix whose sum is 0"/>
-    <hyperlink ref="B463" r:id="rId403" display="Boolean Parenthesization Problem"/>
-    <hyperlink ref="B472" r:id="rId404" display="Count set bits in an integer"/>
-    <hyperlink ref="B473" r:id="rId405" display="Find the two non-repeating elements in an array of repeating elements"/>
-    <hyperlink ref="B474" r:id="rId406" display="Count number of bits to be flipped to convert A to B"/>
-    <hyperlink ref="B475" r:id="rId407" display="Count total set bits in all numbers from 1 to n"/>
-    <hyperlink ref="B476" r:id="rId408" display="Program to find whether a no is power of two"/>
-    <hyperlink ref="B477" r:id="rId409" display="Find position of the only set bit"/>
-    <hyperlink ref="B478" r:id="rId410" display="Copy set bits in a range"/>
-    <hyperlink ref="B481" r:id="rId411" display="Power Set"/>
-    <hyperlink ref="B479" r:id="rId412" display="Divide two integers without using multiplication, division and mod operator"/>
-    <hyperlink ref="B480" r:id="rId413" display="Calculate square of a number without using *, / and pow()"/>
+    <hyperlink ref="B390" r:id="rId256" display="Find if there is a path of more thank length from a source"/>
+    <hyperlink ref="B391" r:id="rId248" display="M-ColouringProblem"/>
+    <hyperlink ref="B392" r:id="rId344" display="Minimum edges to reverse o make path from source to destination"/>
+    <hyperlink ref="B393" r:id="rId345" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
+    <hyperlink ref="B395" r:id="rId346" display="Chinese Postman or Route Inspection"/>
+    <hyperlink ref="B394" r:id="rId347" display="Vertex Cover Problem"/>
+    <hyperlink ref="B396" r:id="rId348" display="Number of Triangles in a Directed and Undirected Graph"/>
+    <hyperlink ref="B397" r:id="rId220" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="B398" r:id="rId349" display="Two Clique Problem"/>
+    <hyperlink ref="B401" r:id="rId350" display="Construct a trie from scratch"/>
+    <hyperlink ref="B402" r:id="rId351" display="Find shortest unique prefix for every word in a given list"/>
+    <hyperlink ref="B403" r:id="rId352" display="Word Break Problem | (Trie solution)"/>
+    <hyperlink ref="B404" r:id="rId78" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="B405" r:id="rId353" display="Implement a Phone Directory"/>
+    <hyperlink ref="B406" r:id="rId354" display="Print unique rows in a given boolean matrix"/>
+    <hyperlink ref="B409" r:id="rId355" display="Coin ChangeProblem"/>
+    <hyperlink ref="B410" r:id="rId356" display="Knapsack Problem"/>
+    <hyperlink ref="B411" r:id="rId357" display="Binomial CoefficientProblem"/>
+    <hyperlink ref="B412" r:id="rId358" display="Permutation CoefficientProblem"/>
+    <hyperlink ref="B413" r:id="rId359" display="Program for nth Catalan Number"/>
+    <hyperlink ref="B414" r:id="rId360" display="Matrix Chain Multiplication "/>
+    <hyperlink ref="B415" r:id="rId56" display="Edit Distance"/>
+    <hyperlink ref="B416" r:id="rId250" display="Subset Sum Problem"/>
+    <hyperlink ref="B417" r:id="rId361" display="Friends Pairing Problem"/>
+    <hyperlink ref="B418" r:id="rId362" display="Gold Mine Problem"/>
+    <hyperlink ref="B419" r:id="rId363" display="Assembly Line SchedulingProblem"/>
+    <hyperlink ref="B420" r:id="rId364" display="Painting the Fenceproblem"/>
+    <hyperlink ref="B421" r:id="rId365" display="Maximize The Cut Segments"/>
+    <hyperlink ref="B422" r:id="rId73" display="Longest Common Subsequence"/>
+    <hyperlink ref="B423" r:id="rId52" display="Longest Repeated Subsequence"/>
+    <hyperlink ref="B424" r:id="rId366" display="Longest Increasing Subsequence"/>
+    <hyperlink ref="B425" r:id="rId367" display="Space Optimized Solution of LCS"/>
+    <hyperlink ref="B426" r:id="rId368" display="LCS (Longest Common Subsequence) of three strings"/>
+    <hyperlink ref="B427" r:id="rId369" display="Maximum Sum Increasing Subsequence"/>
+    <hyperlink ref="B428" r:id="rId370" display="Count all subsequences having product less than K"/>
+    <hyperlink ref="B429" r:id="rId371" display="Longest subsequence such that difference between adjacent is one"/>
+    <hyperlink ref="B430" r:id="rId372" display="Maximum subsequence sum such that no three are consecutive"/>
+    <hyperlink ref="B431" r:id="rId373" display="Egg Dropping Problem"/>
+    <hyperlink ref="B432" r:id="rId374" display="Maximum Length Chain of Pairs"/>
+    <hyperlink ref="B433" r:id="rId375" display="Maximum size square sub-matrix with all 1s"/>
+    <hyperlink ref="B434" r:id="rId376" display="Maximum sum of pairs with specific difference"/>
+    <hyperlink ref="B435" r:id="rId377" display="Min Cost PathProblem"/>
+    <hyperlink ref="B436" r:id="rId378" display="Maximum difference of zeros and ones in binary string"/>
+    <hyperlink ref="B437" r:id="rId10" display="Minimum number of jumps to reach end"/>
+    <hyperlink ref="B438" r:id="rId379" display="Minimum cost to fill given weight in a bag"/>
+    <hyperlink ref="B439" r:id="rId380" display="Minimum removals from array to make max –min &lt;= K"/>
+    <hyperlink ref="B440" r:id="rId381" display="Longest Common Substring"/>
+    <hyperlink ref="B441" r:id="rId382" display="Count number of ways to reacha given score in a game"/>
+    <hyperlink ref="B442" r:id="rId383" display="Count Balanced Binary Trees of Height h"/>
+    <hyperlink ref="B443" r:id="rId8" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
+    <hyperlink ref="B444" r:id="rId384" display="Smallest sum contiguous subarray"/>
+    <hyperlink ref="B445" r:id="rId385" display="Unbounded Knapsack (Repetition of items allowed)"/>
+    <hyperlink ref="B446" r:id="rId59" display="Word Break Problem"/>
+    <hyperlink ref="B447" r:id="rId386" display="Largest Independent Set Problem"/>
+    <hyperlink ref="B448" r:id="rId250" display="Partition problem"/>
+    <hyperlink ref="B450" r:id="rId64" display="Count All Palindromic Subsequence in a given String"/>
+    <hyperlink ref="B449" r:id="rId387" display="Longest Palindromic Subsequence"/>
+    <hyperlink ref="B451" r:id="rId388" display="Longest Palindromic Substring"/>
+    <hyperlink ref="B452" r:id="rId389" display="Longest alternating subsequence"/>
+    <hyperlink ref="B453" r:id="rId390" display="Weighted Job Scheduling"/>
+    <hyperlink ref="B454" r:id="rId391" display="Coin game winner where every player has three choices"/>
+    <hyperlink ref="B455" r:id="rId392" display="Count Derangements (Permutation such that no element appears in its original position) [ IMP ]"/>
+    <hyperlink ref="B456" r:id="rId25" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
+    <hyperlink ref="B457" r:id="rId393" display="Optimal Strategy for a Game"/>
+    <hyperlink ref="B458" r:id="rId394" display="Optimal Binary Search Tree"/>
+    <hyperlink ref="B459" r:id="rId395" display="Palindrome PartitioningProblem"/>
+    <hyperlink ref="B460" r:id="rId55" display="Word Wrap Problem"/>
+    <hyperlink ref="B461" r:id="rId396" display="Mobile Numeric Keypad Problem [ IMP ]"/>
+    <hyperlink ref="B468" r:id="rId397" display="Maximum Length of Pair Chain"/>
+    <hyperlink ref="B467" r:id="rId398" display="Find if a string is interleaved of two other strings"/>
+    <hyperlink ref="B466" r:id="rId399" display="Maximum profit by buying and selling a share at most k times"/>
+    <hyperlink ref="B465" r:id="rId400" display="Maximum sum rectangle in a 2D matrix"/>
+    <hyperlink ref="B464" r:id="rId401" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
+    <hyperlink ref="B463" r:id="rId402" display="Largest rectangular sub-matrix whose sum is 0"/>
+    <hyperlink ref="B462" r:id="rId403" display="Boolean Parenthesization Problem"/>
+    <hyperlink ref="B471" r:id="rId404" display="Count set bits in an integer"/>
+    <hyperlink ref="B472" r:id="rId405" display="Find the two non-repeating elements in an array of repeating elements"/>
+    <hyperlink ref="B473" r:id="rId406" display="Count number of bits to be flipped to convert A to B"/>
+    <hyperlink ref="B474" r:id="rId407" display="Count total set bits in all numbers from 1 to n"/>
+    <hyperlink ref="B475" r:id="rId408" display="Program to find whether a no is power of two"/>
+    <hyperlink ref="B476" r:id="rId409" display="Find position of the only set bit"/>
+    <hyperlink ref="B477" r:id="rId410" display="Copy set bits in a range"/>
+    <hyperlink ref="B480" r:id="rId411" display="Power Set"/>
+    <hyperlink ref="B478" r:id="rId412" display="Divide two integers without using multiplication, division and mod operator"/>
+    <hyperlink ref="B479" r:id="rId413" display="Calculate square of a number without using *, / and pow()"/>
     <hyperlink ref="B356" r:id="rId414" display="Create a Graph, print it"/>
     <hyperlink ref="B38" r:id="rId415" display="Minimum swaps required bring elements less equal K together"/>
     <hyperlink ref="B2" r:id="rId416" display="Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw "/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="601">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -2987,8 +2987,8 @@
   <sheetPr/>
   <dimension ref="A1:D480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="C392" sqref="C392"/>
+    <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
+      <selection activeCell="D398" sqref="D398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -7160,7 +7160,7 @@
       <c r="B379" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="C379" s="18"/>
+      <c r="C379" s="17"/>
       <c r="D379" s="8"/>
     </row>
     <row r="380" ht="21" spans="1:4">
@@ -7299,27 +7299,27 @@
       <c r="A393" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B393" s="13" t="s">
+      <c r="B393" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="C393" s="18"/>
+      <c r="C393" s="14"/>
       <c r="D393" s="8"/>
     </row>
     <row r="394" ht="21" spans="1:4">
       <c r="A394" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B394" s="13" t="s">
+      <c r="B394" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="C394" s="18"/>
+      <c r="C394" s="14"/>
       <c r="D394" s="8"/>
     </row>
     <row r="395" ht="21" spans="1:4">
       <c r="A395" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B395" s="13" t="s">
+      <c r="B395" s="10" t="s">
         <v>520</v>
       </c>
       <c r="C395" s="18"/>
@@ -7329,30 +7329,32 @@
       <c r="A396" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B396" s="13" t="s">
+      <c r="B396" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="C396" s="18"/>
+      <c r="C396" s="14"/>
       <c r="D396" s="8"/>
     </row>
     <row r="397" ht="21" spans="1:4">
       <c r="A397" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B397" s="13" t="s">
+      <c r="B397" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="C397" s="18"/>
+      <c r="C397" s="14"/>
       <c r="D397" s="8"/>
     </row>
     <row r="398" ht="21" spans="1:4">
       <c r="A398" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B398" s="13" t="s">
+      <c r="B398" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="C398" s="18"/>
+      <c r="C398" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D398" s="8"/>
     </row>
     <row r="399" ht="21" spans="2:4">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="601">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -2987,8 +2987,8 @@
   <sheetPr/>
   <dimension ref="A1:D480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="D398" sqref="D398"/>
+    <sheetView tabSelected="1" topLeftCell="A416" workbookViewId="0">
+      <selection activeCell="C426" sqref="C426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -7374,14 +7374,14 @@
       <c r="B401" s="13" t="s">
         <v>525</v>
       </c>
-      <c r="C401" s="18"/>
+      <c r="C401" s="14"/>
       <c r="D401" s="8"/>
     </row>
     <row r="402" ht="21" spans="1:4">
       <c r="A402" s="16" t="s">
         <v>524</v>
       </c>
-      <c r="B402" s="13" t="s">
+      <c r="B402" s="10" t="s">
         <v>526</v>
       </c>
       <c r="C402" s="18"/>
@@ -7391,17 +7391,17 @@
       <c r="A403" s="16" t="s">
         <v>524</v>
       </c>
-      <c r="B403" s="13" t="s">
+      <c r="B403" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="C403" s="18"/>
+      <c r="C403" s="14"/>
       <c r="D403" s="8"/>
     </row>
     <row r="404" ht="21" spans="1:4">
       <c r="A404" s="16" t="s">
         <v>524</v>
       </c>
-      <c r="B404" s="13" t="s">
+      <c r="B404" s="10" t="s">
         <v>165</v>
       </c>
       <c r="C404" s="18"/>
@@ -7411,20 +7411,20 @@
       <c r="A405" s="16" t="s">
         <v>524</v>
       </c>
-      <c r="B405" s="13" t="s">
+      <c r="B405" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="C405" s="18"/>
+      <c r="C405" s="14"/>
       <c r="D405" s="8"/>
     </row>
     <row r="406" ht="21" spans="1:4">
       <c r="A406" s="16" t="s">
         <v>524</v>
       </c>
-      <c r="B406" s="13" t="s">
+      <c r="B406" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="C406" s="18"/>
+      <c r="C406" s="14"/>
       <c r="D406" s="8"/>
     </row>
     <row r="407" ht="21" spans="2:4">
@@ -7441,17 +7441,17 @@
       <c r="A409" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B409" s="13" t="s">
+      <c r="B409" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="C409" s="18"/>
+      <c r="C409" s="14"/>
       <c r="D409" s="8"/>
     </row>
     <row r="410" ht="21" spans="1:4">
       <c r="A410" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B410" s="13" t="s">
+      <c r="B410" s="10" t="s">
         <v>532</v>
       </c>
       <c r="C410" s="18"/>
@@ -7461,67 +7461,75 @@
       <c r="A411" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B411" s="13" t="s">
+      <c r="B411" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="C411" s="18"/>
+      <c r="C411" s="14"/>
       <c r="D411" s="8"/>
     </row>
     <row r="412" ht="21" spans="1:4">
       <c r="A412" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B412" s="13" t="s">
+      <c r="B412" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="C412" s="18"/>
+      <c r="C412" s="14"/>
       <c r="D412" s="8"/>
     </row>
     <row r="413" ht="21" spans="1:4">
       <c r="A413" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B413" s="13" t="s">
+      <c r="B413" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="C413" s="18"/>
+      <c r="C413" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D413" s="8"/>
     </row>
     <row r="414" ht="21" spans="1:4">
       <c r="A414" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B414" s="13" t="s">
+      <c r="B414" s="10" t="s">
         <v>536</v>
       </c>
-      <c r="C414" s="18"/>
+      <c r="C414" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="D414" s="8"/>
     </row>
     <row r="415" ht="21" spans="1:4">
       <c r="A415" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B415" s="13" t="s">
+      <c r="B415" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="C415" s="18"/>
+      <c r="C415" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D415" s="8"/>
     </row>
     <row r="416" ht="21" spans="1:4">
       <c r="A416" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B416" s="13" t="s">
+      <c r="B416" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="C416" s="18"/>
+      <c r="C416" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D416" s="8"/>
     </row>
     <row r="417" ht="21" spans="1:4">
       <c r="A417" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B417" s="13" t="s">
+      <c r="B417" s="10" t="s">
         <v>538</v>
       </c>
       <c r="C417" s="18"/>
@@ -7531,17 +7539,17 @@
       <c r="A418" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B418" s="13" t="s">
+      <c r="B418" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="C418" s="18"/>
+      <c r="C418" s="14"/>
       <c r="D418" s="8"/>
     </row>
     <row r="419" ht="21" spans="1:4">
       <c r="A419" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B419" s="13" t="s">
+      <c r="B419" s="10" t="s">
         <v>540</v>
       </c>
       <c r="C419" s="18"/>
@@ -7551,40 +7559,42 @@
       <c r="A420" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B420" s="13" t="s">
+      <c r="B420" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="C420" s="18"/>
+      <c r="C420" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D420" s="8"/>
     </row>
     <row r="421" ht="21" spans="1:4">
       <c r="A421" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B421" s="13" t="s">
+      <c r="B421" s="10" t="s">
         <v>542</v>
       </c>
-      <c r="C421" s="18"/>
+      <c r="C421" s="14"/>
       <c r="D421" s="8"/>
     </row>
     <row r="422" ht="21" spans="1:4">
       <c r="A422" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B422" s="13" t="s">
+      <c r="B422" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="C422" s="18"/>
+      <c r="C422" s="14"/>
       <c r="D422" s="8"/>
     </row>
     <row r="423" ht="21" spans="1:4">
       <c r="A423" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B423" s="13" t="s">
+      <c r="B423" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="C423" s="18"/>
+      <c r="C423" s="14"/>
       <c r="D423" s="8"/>
     </row>
     <row r="424" ht="21" spans="1:4">
@@ -7594,14 +7604,14 @@
       <c r="B424" s="13" t="s">
         <v>545</v>
       </c>
-      <c r="C424" s="18"/>
+      <c r="C424" s="14"/>
       <c r="D424" s="8"/>
     </row>
     <row r="425" ht="21" spans="1:4">
       <c r="A425" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B425" s="13" t="s">
+      <c r="B425" s="10" t="s">
         <v>546</v>
       </c>
       <c r="C425" s="18"/>
@@ -7611,10 +7621,10 @@
       <c r="A426" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B426" s="13" t="s">
+      <c r="B426" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="C426" s="18"/>
+      <c r="C426" s="14"/>
       <c r="D426" s="8"/>
     </row>
     <row r="427" ht="21" spans="1:4">
@@ -7781,10 +7791,10 @@
       <c r="A443" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B443" s="13" t="s">
+      <c r="B443" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="C443" s="18"/>
+      <c r="C443" s="14"/>
       <c r="D443" s="8"/>
     </row>
     <row r="444" ht="21" spans="1:4">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1782,7 +1782,7 @@
     <t>Largest Independent Set Problem</t>
   </si>
   <si>
-    <t>Partition problem</t>
+    <t>Partition problem (Equal Subset Sum)</t>
   </si>
   <si>
     <t>Longest Palindromic Subsequence</t>
@@ -2987,8 +2987,8 @@
   <sheetPr/>
   <dimension ref="A1:D480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A416" workbookViewId="0">
-      <selection activeCell="C426" sqref="C426"/>
+    <sheetView tabSelected="1" topLeftCell="A430" workbookViewId="0">
+      <selection activeCell="C445" sqref="C445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -7631,17 +7631,17 @@
       <c r="A427" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B427" s="13" t="s">
+      <c r="B427" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="C427" s="18"/>
+      <c r="C427" s="14"/>
       <c r="D427" s="8"/>
     </row>
     <row r="428" ht="21" spans="1:4">
       <c r="A428" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B428" s="13" t="s">
+      <c r="B428" s="10" t="s">
         <v>549</v>
       </c>
       <c r="C428" s="18"/>
@@ -7651,20 +7651,20 @@
       <c r="A429" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B429" s="13" t="s">
+      <c r="B429" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="C429" s="18"/>
+      <c r="C429" s="14"/>
       <c r="D429" s="8"/>
     </row>
     <row r="430" ht="21" spans="1:4">
       <c r="A430" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B430" s="13" t="s">
+      <c r="B430" s="10" t="s">
         <v>551</v>
       </c>
-      <c r="C430" s="18"/>
+      <c r="C430" s="14"/>
       <c r="D430" s="8"/>
     </row>
     <row r="431" ht="21" spans="1:4">
@@ -7761,10 +7761,10 @@
       <c r="A440" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B440" s="13" t="s">
+      <c r="B440" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="C440" s="18"/>
+      <c r="C440" s="14"/>
       <c r="D440" s="8"/>
     </row>
     <row r="441" ht="21" spans="1:4">
@@ -7801,20 +7801,20 @@
       <c r="A444" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B444" s="13" t="s">
+      <c r="B444" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="C444" s="18"/>
+      <c r="C444" s="14"/>
       <c r="D444" s="8"/>
     </row>
     <row r="445" ht="21" spans="1:4">
       <c r="A445" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B445" s="13" t="s">
+      <c r="B445" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="C445" s="18"/>
+      <c r="C445" s="14"/>
       <c r="D445" s="8"/>
     </row>
     <row r="446" ht="21" spans="1:4">
@@ -7841,20 +7841,20 @@
       <c r="A448" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B448" s="13" t="s">
+      <c r="B448" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="C448" s="18"/>
+      <c r="C448" s="14"/>
       <c r="D448" s="8"/>
     </row>
     <row r="449" ht="21" spans="1:4">
       <c r="A449" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B449" s="13" t="s">
+      <c r="B449" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="C449" s="18"/>
+      <c r="C449" s="14"/>
       <c r="D449" s="8"/>
     </row>
     <row r="450" ht="21" spans="1:4">
@@ -8570,7 +8570,7 @@
     <hyperlink ref="B445" r:id="rId385" display="Unbounded Knapsack (Repetition of items allowed)"/>
     <hyperlink ref="B446" r:id="rId59" display="Word Break Problem"/>
     <hyperlink ref="B447" r:id="rId386" display="Largest Independent Set Problem"/>
-    <hyperlink ref="B448" r:id="rId250" display="Partition problem"/>
+    <hyperlink ref="B448" r:id="rId250" display="Partition problem (Equal Subset Sum)"/>
     <hyperlink ref="B450" r:id="rId64" display="Count All Palindromic Subsequence in a given String"/>
     <hyperlink ref="B449" r:id="rId387" display="Longest Palindromic Subsequence"/>
     <hyperlink ref="B451" r:id="rId388" display="Longest Palindromic Substring"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -2987,8 +2987,8 @@
   <sheetPr/>
   <dimension ref="A1:D480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A430" workbookViewId="0">
-      <selection activeCell="C445" sqref="C445"/>
+    <sheetView tabSelected="1" topLeftCell="A428" workbookViewId="0">
+      <selection activeCell="C439" sqref="C439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -7454,7 +7454,7 @@
       <c r="B410" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="C410" s="18"/>
+      <c r="C410" s="14"/>
       <c r="D410" s="8"/>
     </row>
     <row r="411" ht="21" spans="1:4">
@@ -7644,7 +7644,7 @@
       <c r="B428" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="C428" s="18"/>
+      <c r="C428" s="14"/>
       <c r="D428" s="8"/>
     </row>
     <row r="429" ht="21" spans="1:4">
@@ -7681,10 +7681,10 @@
       <c r="A432" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B432" s="13" t="s">
+      <c r="B432" s="10" t="s">
         <v>553</v>
       </c>
-      <c r="C432" s="18"/>
+      <c r="C432" s="14"/>
       <c r="D432" s="8"/>
     </row>
     <row r="433" ht="21" spans="1:4">
@@ -7701,60 +7701,60 @@
       <c r="A434" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B434" s="13" t="s">
+      <c r="B434" s="10" t="s">
         <v>555</v>
       </c>
-      <c r="C434" s="18"/>
+      <c r="C434" s="14"/>
       <c r="D434" s="8"/>
     </row>
     <row r="435" ht="21" spans="1:4">
       <c r="A435" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B435" s="13" t="s">
+      <c r="B435" s="10" t="s">
         <v>556</v>
       </c>
-      <c r="C435" s="18"/>
+      <c r="C435" s="14"/>
       <c r="D435" s="8"/>
     </row>
     <row r="436" ht="21" spans="1:4">
       <c r="A436" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B436" s="13" t="s">
+      <c r="B436" s="10" t="s">
         <v>557</v>
       </c>
-      <c r="C436" s="18"/>
+      <c r="C436" s="14"/>
       <c r="D436" s="8"/>
     </row>
     <row r="437" ht="21" spans="1:4">
       <c r="A437" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B437" s="13" t="s">
+      <c r="B437" s="10" t="s">
         <v>558</v>
       </c>
-      <c r="C437" s="18"/>
+      <c r="C437" s="14"/>
       <c r="D437" s="8"/>
     </row>
     <row r="438" ht="21" spans="1:4">
       <c r="A438" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B438" s="13" t="s">
+      <c r="B438" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="C438" s="18"/>
+      <c r="C438" s="14"/>
       <c r="D438" s="8"/>
     </row>
     <row r="439" ht="21" spans="1:4">
       <c r="A439" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B439" s="13" t="s">
+      <c r="B439" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="C439" s="18"/>
+      <c r="C439" s="14"/>
       <c r="D439" s="8"/>
     </row>
     <row r="440" ht="21" spans="1:4">
@@ -7771,10 +7771,10 @@
       <c r="A441" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B441" s="13" t="s">
+      <c r="B441" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="C441" s="18"/>
+      <c r="C441" s="14"/>
       <c r="D441" s="8"/>
     </row>
     <row r="442" ht="21" spans="1:4">
@@ -7871,10 +7871,10 @@
       <c r="A451" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B451" s="13" t="s">
+      <c r="B451" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="C451" s="18"/>
+      <c r="C451" s="14"/>
       <c r="D451" s="8"/>
     </row>
     <row r="452" ht="21" spans="1:4">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="601">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1883,10 +1883,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1969,7 +1969,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1984,37 +2007,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2038,7 +2030,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2047,13 +2061,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2068,14 +2075,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2089,7 +2089,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2098,14 +2106,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2156,13 +2156,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2174,55 +2234,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2240,19 +2252,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2270,55 +2300,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2330,7 +2324,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2397,6 +2397,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2422,41 +2452,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2478,145 +2478,145 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2987,8 +2987,8 @@
   <sheetPr/>
   <dimension ref="A1:D480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A428" workbookViewId="0">
-      <selection activeCell="C439" sqref="C439"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A426" workbookViewId="0">
+      <selection activeCell="C433" sqref="C433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -7187,7 +7187,7 @@
       <c r="A382" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B382" s="13" t="s">
+      <c r="B382" s="10" t="s">
         <v>507</v>
       </c>
       <c r="C382" s="18"/>
@@ -7496,7 +7496,7 @@
       <c r="B414" s="10" t="s">
         <v>536</v>
       </c>
-      <c r="C414" s="18" t="s">
+      <c r="C414" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D414" s="8"/>
@@ -7691,10 +7691,10 @@
       <c r="A433" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B433" s="13" t="s">
+      <c r="B433" s="10" t="s">
         <v>554</v>
       </c>
-      <c r="C433" s="18"/>
+      <c r="C433" s="14"/>
       <c r="D433" s="8"/>
     </row>
     <row r="434" ht="21" spans="1:4">
@@ -7821,17 +7821,17 @@
       <c r="A446" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B446" s="13" t="s">
+      <c r="B446" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="C446" s="18"/>
+      <c r="C446" s="14"/>
       <c r="D446" s="8"/>
     </row>
     <row r="447" ht="21" spans="1:4">
       <c r="A447" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B447" s="13" t="s">
+      <c r="B447" s="10" t="s">
         <v>568</v>
       </c>
       <c r="C447" s="18"/>
@@ -7881,30 +7881,30 @@
       <c r="A452" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B452" s="13" t="s">
+      <c r="B452" s="10" t="s">
         <v>573</v>
       </c>
-      <c r="C452" s="18"/>
+      <c r="C452" s="14"/>
       <c r="D452" s="8"/>
     </row>
     <row r="453" ht="21" spans="1:4">
       <c r="A453" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B453" s="13" t="s">
+      <c r="B453" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="C453" s="18"/>
+      <c r="C453" s="14"/>
       <c r="D453" s="8"/>
     </row>
     <row r="454" ht="21" spans="1:4">
       <c r="A454" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B454" s="13" t="s">
+      <c r="B454" s="10" t="s">
         <v>575</v>
       </c>
-      <c r="C454" s="18"/>
+      <c r="C454" s="14"/>
       <c r="D454" s="8"/>
     </row>
     <row r="455" ht="21" spans="1:4">
@@ -7921,10 +7921,10 @@
       <c r="A456" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B456" s="13" t="s">
+      <c r="B456" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="C456" s="18"/>
+      <c r="C456" s="14"/>
       <c r="D456" s="8"/>
     </row>
     <row r="457" ht="21" spans="1:4">
@@ -7951,7 +7951,7 @@
       <c r="A459" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B459" s="13" t="s">
+      <c r="B459" s="10" t="s">
         <v>580</v>
       </c>
       <c r="C459" s="18"/>
@@ -8021,20 +8021,22 @@
       <c r="A466" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B466" s="13" t="s">
+      <c r="B466" s="10" t="s">
         <v>587</v>
       </c>
-      <c r="C466" s="18"/>
+      <c r="C466" s="14"/>
       <c r="D466" s="8"/>
     </row>
     <row r="467" ht="21" spans="1:4">
       <c r="A467" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B467" s="13" t="s">
+      <c r="B467" s="10" t="s">
         <v>588</v>
       </c>
-      <c r="C467" s="18"/>
+      <c r="C467" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D467" s="8"/>
     </row>
     <row r="468" ht="21" spans="1:4">
@@ -8044,7 +8046,7 @@
       <c r="B468" s="13" t="s">
         <v>589</v>
       </c>
-      <c r="C468" s="18"/>
+      <c r="C468" s="14"/>
       <c r="D468" s="8"/>
     </row>
     <row r="469" ht="21" spans="2:4">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1884,8 +1884,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="31">
@@ -1968,10 +1968,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1983,39 +1991,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2030,21 +2022,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -2053,6 +2030,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2082,22 +2074,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2105,7 +2105,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2156,7 +2156,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2168,115 +2288,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2294,49 +2312,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2374,6 +2374,21 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2460,163 +2475,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2987,8 +2987,8 @@
   <sheetPr/>
   <dimension ref="A1:D480"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A426" workbookViewId="0">
-      <selection activeCell="C433" sqref="C433"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A442" workbookViewId="0">
+      <selection activeCell="C461" sqref="C461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -7931,17 +7931,17 @@
       <c r="A457" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B457" s="13" t="s">
+      <c r="B457" s="10" t="s">
         <v>578</v>
       </c>
-      <c r="C457" s="18"/>
+      <c r="C457" s="14"/>
       <c r="D457" s="8"/>
     </row>
     <row r="458" ht="21" spans="1:4">
       <c r="A458" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B458" s="13" t="s">
+      <c r="B458" s="10" t="s">
         <v>579</v>
       </c>
       <c r="C458" s="18"/>
@@ -7954,67 +7954,67 @@
       <c r="B459" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="C459" s="18"/>
+      <c r="C459" s="14"/>
       <c r="D459" s="8"/>
     </row>
     <row r="460" ht="21" spans="1:4">
       <c r="A460" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B460" s="13" t="s">
+      <c r="B460" s="10" t="s">
         <v>581</v>
       </c>
-      <c r="C460" s="18"/>
+      <c r="C460" s="14"/>
       <c r="D460" s="8"/>
     </row>
     <row r="461" ht="21" spans="1:4">
       <c r="A461" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B461" s="13" t="s">
+      <c r="B461" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="C461" s="18"/>
+      <c r="C461" s="14"/>
       <c r="D461" s="8"/>
     </row>
     <row r="462" ht="21" spans="1:4">
       <c r="A462" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B462" s="13" t="s">
+      <c r="B462" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="C462" s="18"/>
+      <c r="C462" s="14"/>
       <c r="D462" s="8"/>
     </row>
     <row r="463" ht="21" spans="1:4">
       <c r="A463" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B463" s="13" t="s">
+      <c r="B463" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="C463" s="18"/>
+      <c r="C463" s="14"/>
       <c r="D463" s="8"/>
     </row>
     <row r="464" ht="21" spans="1:4">
       <c r="A464" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B464" s="13" t="s">
+      <c r="B464" s="10" t="s">
         <v>585</v>
       </c>
-      <c r="C464" s="18"/>
+      <c r="C464" s="14"/>
       <c r="D464" s="8"/>
     </row>
     <row r="465" ht="21" spans="1:4">
       <c r="A465" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B465" s="13" t="s">
+      <c r="B465" s="10" t="s">
         <v>586</v>
       </c>
-      <c r="C465" s="18"/>
+      <c r="C465" s="14"/>
       <c r="D465" s="8"/>
     </row>
     <row r="466" ht="21" spans="1:4">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="601">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -2987,8 +2987,8 @@
   <sheetPr/>
   <dimension ref="A1:D480"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A442" workbookViewId="0">
-      <selection activeCell="C461" sqref="C461"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A462" workbookViewId="0">
+      <selection activeCell="C473" sqref="C473"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -6578,7 +6578,9 @@
       <c r="B321" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="C321" s="18"/>
+      <c r="C321" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D321" s="8"/>
     </row>
     <row r="322" ht="21" spans="1:4">
@@ -6797,10 +6799,10 @@
       <c r="A343" s="16" t="s">
         <v>460</v>
       </c>
-      <c r="B343" s="13" t="s">
+      <c r="B343" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="C343" s="18"/>
+      <c r="C343" s="14"/>
       <c r="D343" s="8"/>
     </row>
     <row r="344" ht="21" spans="1:4">
@@ -6875,7 +6877,7 @@
       <c r="A350" s="16" t="s">
         <v>460</v>
       </c>
-      <c r="B350" s="13" t="s">
+      <c r="B350" s="10" t="s">
         <v>475</v>
       </c>
       <c r="C350" s="18"/>
@@ -8064,30 +8066,30 @@
       <c r="A471" s="9" t="s">
         <v>590</v>
       </c>
-      <c r="B471" s="13" t="s">
+      <c r="B471" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="C471" s="18"/>
+      <c r="C471" s="14"/>
       <c r="D471" s="8"/>
     </row>
     <row r="472" ht="21" spans="1:4">
       <c r="A472" s="9" t="s">
         <v>590</v>
       </c>
-      <c r="B472" s="13" t="s">
+      <c r="B472" s="10" t="s">
         <v>592</v>
       </c>
-      <c r="C472" s="18"/>
+      <c r="C472" s="14"/>
       <c r="D472" s="8"/>
     </row>
     <row r="473" ht="21" spans="1:4">
       <c r="A473" s="9" t="s">
         <v>590</v>
       </c>
-      <c r="B473" s="13" t="s">
+      <c r="B473" s="10" t="s">
         <v>593</v>
       </c>
-      <c r="C473" s="18"/>
+      <c r="C473" s="14"/>
       <c r="D473" s="8"/>
     </row>
     <row r="474" ht="21" spans="1:4">
